--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0199746</v>
+                  <v>0.020381</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0223711</v>
+                  <v>0.0231567</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0279843</v>
+                  <v>0.0281757</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0374557</v>
+                  <v>0.0352799</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0541003</v>
+                  <v>0.04539</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0739308</v>
+                  <v>0.06491429999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0908332</v>
+                  <v>0.0891632</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119418</v>
+                  <v>0.112722</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0160955</v>
+                  <v>0.017053</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0165233</v>
+                  <v>0.0176131</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0170052</v>
+                  <v>0.018294</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0176545</v>
+                  <v>0.019009</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.018734</v>
+                  <v>0.0202027</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020118</v>
+                  <v>0.0216873</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0231423</v>
+                  <v>0.0238871</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0275752</v>
+                  <v>0.0283309</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0337269</v>
+                  <v>0.0347629</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0441174</v>
+                  <v>0.0427405</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0560327</v>
+                  <v>0.0557526</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0735251</v>
+                  <v>0.0731723</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09810720000000001</v>
+                  <v>0.0958377</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.118682</v>
+                  <v>0.12115</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0168617</v>
+                  <v>0.0167999</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017117</v>
+                  <v>0.017383</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0179684</v>
+                  <v>0.0183382</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.018842</v>
+                  <v>0.0193988</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.020762</v>
+                  <v>0.0205537</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0229493</v>
+                  <v>0.0226966</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0261253</v>
+                  <v>0.0250047</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0299548</v>
+                  <v>0.0309238</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351932</v>
+                  <v>0.0361738</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0437828</v>
+                  <v>0.0455675</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0554948</v>
+                  <v>0.0564017</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.07231650000000001</v>
+                  <v>0.0722527</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09074749999999999</v>
+                  <v>0.09413820000000001</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.117374</v>
+                  <v>0.118638</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0170956</v>
+                  <v>0.0174142</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178543</v>
+                  <v>0.0181997</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0189841</v>
+                  <v>0.0191908</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0200948</v>
+                  <v>0.0204403</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0217684</v>
+                  <v>0.021836</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244338</v>
+                  <v>0.0239224</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277674</v>
+                  <v>0.0276839</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0324631</v>
+                  <v>0.0315092</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0387566</v>
+                  <v>0.0372217</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.044976</v>
+                  <v>0.0454352</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0559175</v>
+                  <v>0.0550601</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0710027</v>
+                  <v>0.0703042</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0908212</v>
+                  <v>0.0905224</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117424</v>
+                  <v>0.115437</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.140864</v>
+                  <v>0.1408</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0189027</v>
+                  <v>0.0192387</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0201008</v>
+                  <v>0.0204627</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.021583</v>
+                  <v>0.0220737</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0235148</v>
+                  <v>0.0239349</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0261005</v>
+                  <v>0.0262923</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0293833</v>
+                  <v>0.0297657</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0337692</v>
+                  <v>0.0341001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0392899</v>
+                  <v>0.0395028</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.046662</v>
+                  <v>0.0465838</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0562823</v>
+                  <v>0.0559668</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0701638</v>
+                  <v>0.0699388</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0890341</v>
+                  <v>0.0889996</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114833</v>
+                  <v>0.114856</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.144939</v>
+                  <v>0.145398</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197502</v>
+                  <v>0.0196969</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210028</v>
+                  <v>0.02093</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0227789</v>
+                  <v>0.0224969</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246593</v>
+                  <v>0.0245783</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270269</v>
+                  <v>0.027095</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302493</v>
+                  <v>0.0303959</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0342455</v>
+                  <v>0.0348732</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0395435</v>
+                  <v>0.0401107</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0466214</v>
+                  <v>0.0469689</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0559597</v>
+                  <v>0.056182</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0685593</v>
+                  <v>0.0692083</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0867699</v>
+                  <v>0.0876976</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.111201</v>
+                  <v>0.112624</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.141494</v>
+                  <v>0.143056</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0200207</v>
+                  <v>0.0203051</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212269</v>
+                  <v>0.0214311</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0226945</v>
+                  <v>0.0227951</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0246895</v>
+                  <v>0.0248606</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274303</v>
+                  <v>0.0274961</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0301632</v>
+                  <v>0.0304265</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343383</v>
+                  <v>0.034491</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0393209</v>
+                  <v>0.0392189</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454285</v>
+                  <v>0.0454425</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543419</v>
+                  <v>0.054124</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.06590409999999999</v>
+                  <v>0.0660497</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.08316999999999999</v>
+                  <v>0.0833161</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106615</v>
+                  <v>0.107117</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.136838</v>
+                  <v>0.137068</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0207148</v>
+                  <v>0.0205917</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0218231</v>
+                  <v>0.0217319</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0235618</v>
+                  <v>0.0234086</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254205</v>
+                  <v>0.0249196</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0277238</v>
+                  <v>0.0271441</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0309717</v>
+                  <v>0.0301186</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034493</v>
+                  <v>0.034225</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0401348</v>
+                  <v>0.0395874</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464552</v>
+                  <v>0.046425</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0546064</v>
+                  <v>0.0547381</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.065411</v>
+                  <v>0.0655719</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08111790000000001</v>
+                  <v>0.0810201</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10261</v>
+                  <v>0.103131</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131855</v>
+                  <v>0.132455</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167859</v>
+                  <v>0.167936</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0308739</v>
+                  <v>0.0314641</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032613</v>
+                  <v>0.0327748</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034221</v>
+                  <v>0.0344387</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0360225</v>
+                  <v>0.0359115</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383657</v>
+                  <v>0.0384212</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408546</v>
+                  <v>0.0411013</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441552</v>
+                  <v>0.0443196</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0485179</v>
+                  <v>0.0490798</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0552273</v>
+                  <v>0.0556472</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.06492580000000001</v>
+                  <v>0.0652692</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791367</v>
+                  <v>0.080124</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0999347</v>
+                  <v>0.100594</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128094</v>
+                  <v>0.128412</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163548</v>
+                  <v>0.163387</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0346339</v>
+                  <v>0.0342733</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0355354</v>
+                  <v>0.0354023</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0372352</v>
+                  <v>0.0369613</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0385047</v>
+                  <v>0.0386997</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0411049</v>
+                  <v>0.0406429</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0439798</v>
+                  <v>0.0434292</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.04739</v>
+                  <v>0.0467513</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0521658</v>
+                  <v>0.0511822</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586895</v>
+                  <v>0.0585649</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0680711</v>
+                  <v>0.0673728</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0820838</v>
+                  <v>0.08104450000000001</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101855</v>
+                  <v>0.101034</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12951</v>
+                  <v>0.128826</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163867</v>
+                  <v>0.16274</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468922</v>
+                  <v>0.0471946</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0482012</v>
+                  <v>0.0480173</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491648</v>
+                  <v>0.0491618</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0527207</v>
+                  <v>0.0504992</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0528154</v>
+                  <v>0.0529453</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.055782</v>
+                  <v>0.0554429</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0185839</v>
+                  <v>0.0243821</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0180835</v>
+                  <v>0.0263419</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0186575</v>
+                  <v>0.03189</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0219409</v>
+                  <v>0.0372784</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0348619</v>
+                  <v>0.0515556</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.046746</v>
+                  <v>0.06764829999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0887013</v>
+                  <v>0.08149480000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119804</v>
+                  <v>0.129222</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0180709</v>
+                  <v>0.0208127</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0184204</v>
+                  <v>0.0213278</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0189457</v>
+                  <v>0.0218828</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0193755</v>
+                  <v>0.02263</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198448</v>
+                  <v>0.0232512</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020306</v>
+                  <v>0.0241428</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0209034</v>
+                  <v>0.0268695</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227075</v>
+                  <v>0.0288871</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0253999</v>
+                  <v>0.0328262</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0319034</v>
+                  <v>0.0390993</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0383341</v>
+                  <v>0.0470423</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0568493</v>
+                  <v>0.0633778</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0838647</v>
+                  <v>0.088602</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.131653</v>
+                  <v>0.13405</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0187591</v>
+                  <v>0.0214978</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0191409</v>
+                  <v>0.0219645</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197405</v>
+                  <v>0.0227306</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020439</v>
+                  <v>0.0236983</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0212415</v>
+                  <v>0.0246423</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0219892</v>
+                  <v>0.025917</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234121</v>
+                  <v>0.0281203</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0264304</v>
+                  <v>0.0305191</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0302305</v>
+                  <v>0.0351044</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0366198</v>
+                  <v>0.0407874</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0459437</v>
+                  <v>0.0501899</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0594599</v>
+                  <v>0.06329070000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0878531</v>
+                  <v>0.0883089</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.129282</v>
+                  <v>0.125523</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0198852</v>
+                  <v>0.0226441</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0203496</v>
+                  <v>0.0231278</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0210131</v>
+                  <v>0.0239266</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0216736</v>
+                  <v>0.024755</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0228112</v>
+                  <v>0.0260181</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240973</v>
+                  <v>0.0274856</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0257658</v>
+                  <v>0.0292543</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0290975</v>
+                  <v>0.0326774</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0349767</v>
+                  <v>0.0370439</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0398391</v>
+                  <v>0.0430271</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0491529</v>
+                  <v>0.0514098</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.06340750000000001</v>
+                  <v>0.0649906</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0843724</v>
+                  <v>0.0841389</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.121267</v>
+                  <v>0.117343</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.167097</v>
+                  <v>0.163332</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0213247</v>
+                  <v>0.0241041</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0219345</v>
+                  <v>0.0248142</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.022889</v>
+                  <v>0.0258859</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0238477</v>
+                  <v>0.0269065</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253224</v>
+                  <v>0.0285555</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0275992</v>
+                  <v>0.0308138</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0302451</v>
+                  <v>0.0334128</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0345438</v>
+                  <v>0.0373409</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0408319</v>
+                  <v>0.043244</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0492235</v>
+                  <v>0.0514921</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.061553</v>
+                  <v>0.0631197</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0805206</v>
+                  <v>0.08064549999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.113447</v>
+                  <v>0.111224</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.161291</v>
+                  <v>0.156782</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0217627</v>
+                  <v>0.0246273</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.022553</v>
+                  <v>0.0254874</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0235574</v>
+                  <v>0.026515</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246975</v>
+                  <v>0.0276786</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0260874</v>
+                  <v>0.0291119</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0279758</v>
+                  <v>0.0311576</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030811</v>
+                  <v>0.0339469</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.034622</v>
+                  <v>0.0377205</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0402214</v>
+                  <v>0.0430427</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.047952</v>
+                  <v>0.0505867</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0592906</v>
+                  <v>0.0612508</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.07559440000000001</v>
+                  <v>0.0763192</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103124</v>
+                  <v>0.101765</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.148399</v>
+                  <v>0.144347</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223391</v>
+                  <v>0.0253488</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0231769</v>
+                  <v>0.026265</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0241129</v>
+                  <v>0.0271908</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0252673</v>
+                  <v>0.0284288</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0268372</v>
+                  <v>0.03001</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0286828</v>
+                  <v>0.0319039</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0310672</v>
+                  <v>0.0343672</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0345672</v>
+                  <v>0.0378547</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0394295</v>
+                  <v>0.0426376</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0468561</v>
+                  <v>0.0498571</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0569589</v>
+                  <v>0.059631</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.07245</v>
+                  <v>0.0742997</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.09784569999999999</v>
+                  <v>0.0979019</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139669</v>
+                  <v>0.137136</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0237499</v>
+                  <v>0.0270102</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0249294</v>
+                  <v>0.0282021</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0266465</v>
+                  <v>0.0301873</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0293475</v>
+                  <v>0.0330636</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0325618</v>
+                  <v>0.0367725</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0359918</v>
+                  <v>0.0404956</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0391962</v>
+                  <v>0.0438179</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0423199</v>
+                  <v>0.0472354</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0459227</v>
+                  <v>0.0509235</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0516739</v>
+                  <v>0.0560138</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0586182</v>
+                  <v>0.06314790000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07141210000000001</v>
+                  <v>0.07436619999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09303640000000001</v>
+                  <v>0.0937021</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131746</v>
+                  <v>0.129268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.183631</v>
+                  <v>0.180556</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0382801</v>
+                  <v>0.0432623</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0392846</v>
+                  <v>0.0443061</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.040221</v>
+                  <v>0.0453678</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0413197</v>
+                  <v>0.0466564</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0426685</v>
+                  <v>0.0481</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0443478</v>
+                  <v>0.0498885</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0465075</v>
+                  <v>0.0522653</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0495102</v>
+                  <v>0.0552329</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0538235</v>
+                  <v>0.0592122</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0601526</v>
+                  <v>0.0652914</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0710412</v>
+                  <v>0.0749547</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0895113</v>
+                  <v>0.09116730000000001</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122948</v>
+                  <v>0.12157</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.172866</v>
+                  <v>0.169666</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0424721</v>
+                  <v>0.0485409</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0434258</v>
+                  <v>0.0498932</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.044818</v>
+                  <v>0.0510164</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0458006</v>
+                  <v>0.0521044</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0473031</v>
+                  <v>0.0539084</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0493497</v>
+                  <v>0.0557247</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0516778</v>
+                  <v>0.0579581</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0546998</v>
+                  <v>0.0612119</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0591634</v>
+                  <v>0.0655746</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0653265</v>
+                  <v>0.07118579999999999</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0752591</v>
+                  <v>0.0805454</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0919177</v>
+                  <v>0.0955641</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.121142</v>
+                  <v>0.122167</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.1684</v>
+                  <v>0.166136</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0552701</v>
+                  <v>0.0632577</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0564094</v>
+                  <v>0.0643639</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0574369</v>
+                  <v>0.0654462</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0586381</v>
+                  <v>0.0668815</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0601686</v>
+                  <v>0.0683774</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0620335</v>
+                  <v>0.07045510000000001</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0201621</v>
+                  <v>0.0213141</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0205927</v>
+                  <v>0.0220012</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0213328</v>
+                  <v>0.0228637</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0224255</v>
+                  <v>0.0244676</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0228236</v>
+                  <v>0.0259604</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0246502</v>
+                  <v>0.028658</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0289321</v>
+                  <v>0.0371282</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0176491</v>
+                  <v>0.0186849</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0179043</v>
+                  <v>0.0189948</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0181965</v>
+                  <v>0.0192948</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0185586</v>
+                  <v>0.0198101</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0189253</v>
+                  <v>0.0200323</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0192987</v>
+                  <v>0.0205084</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0198485</v>
+                  <v>0.0207002</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0203825</v>
+                  <v>0.0214276</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0208815</v>
+                  <v>0.022011</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0220019</v>
+                  <v>0.0230028</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.022769</v>
+                  <v>0.0242253</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0243123</v>
+                  <v>0.0262024</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0273683</v>
+                  <v>0.030044</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0323586</v>
+                  <v>0.0370516</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.017563</v>
+                  <v>0.0188867</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0179077</v>
+                  <v>0.0192237</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0181191</v>
+                  <v>0.0194425</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0185128</v>
+                  <v>0.0197946</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0188997</v>
+                  <v>0.0201342</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0193475</v>
+                  <v>0.0205266</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0197701</v>
+                  <v>0.020959</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0202878</v>
+                  <v>0.0214844</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0211156</v>
+                  <v>0.0223231</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0221556</v>
+                  <v>0.0233566</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0232419</v>
+                  <v>0.0248748</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249746</v>
+                  <v>0.0269432</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0282488</v>
+                  <v>0.0307678</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0352729</v>
+                  <v>0.0381048</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.017949</v>
+                  <v>0.019505</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0182123</v>
+                  <v>0.0197378</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0184241</v>
+                  <v>0.0199753</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187582</v>
+                  <v>0.0202695</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0191191</v>
+                  <v>0.0205809</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0195615</v>
+                  <v>0.0210132</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0201191</v>
+                  <v>0.0215764</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0206961</v>
+                  <v>0.0222081</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0215587</v>
+                  <v>0.0231524</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0226734</v>
+                  <v>0.0243994</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0242101</v>
+                  <v>0.0261699</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0265092</v>
+                  <v>0.0288567</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0299203</v>
+                  <v>0.0324993</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0362318</v>
+                  <v>0.0388699</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.018616</v>
+                  <v>0.0203994</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0188728</v>
+                  <v>0.0206304</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191354</v>
+                  <v>0.020899</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0194676</v>
+                  <v>0.0212713</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0198285</v>
+                  <v>0.0215734</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0202084</v>
+                  <v>0.0220027</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0207233</v>
+                  <v>0.0224713</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0213995</v>
+                  <v>0.0232356</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0222513</v>
+                  <v>0.0241598</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.023328</v>
+                  <v>0.0252935</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0249404</v>
+                  <v>0.0270674</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0297328</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313116</v>
+                  <v>0.0338401</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0376983</v>
+                  <v>0.0404851</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0489477</v>
+                  <v>0.0515575</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.019011</v>
+                  <v>0.020937</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0193203</v>
+                  <v>0.0212617</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0197232</v>
+                  <v>0.0215815</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0201442</v>
+                  <v>0.0219942</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0205764</v>
+                  <v>0.0224339</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0210852</v>
+                  <v>0.0229822</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0217122</v>
+                  <v>0.0236686</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.022629</v>
+                  <v>0.0245813</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0237333</v>
+                  <v>0.0258009</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0254197</v>
+                  <v>0.0276711</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0277608</v>
+                  <v>0.0301418</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0313383</v>
+                  <v>0.0339599</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.037026</v>
+                  <v>0.039757</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0465119</v>
+                  <v>0.0495474</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0192382</v>
+                  <v>0.021192</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0195643</v>
+                  <v>0.0215353</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0199296</v>
+                  <v>0.0219745</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0204282</v>
+                  <v>0.0224512</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0208927</v>
+                  <v>0.0229726</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.021538</v>
+                  <v>0.0236312</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0222851</v>
+                  <v>0.0244723</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0232149</v>
+                  <v>0.0253764</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0244507</v>
+                  <v>0.0267266</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0259784</v>
+                  <v>0.02845</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0282943</v>
+                  <v>0.0307713</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0314579</v>
+                  <v>0.0342051</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0365879</v>
+                  <v>0.039387</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0450952</v>
+                  <v>0.0481448</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0208871</v>
+                  <v>0.0230461</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0214555</v>
+                  <v>0.0235885</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0220137</v>
+                  <v>0.0240683</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0225922</v>
+                  <v>0.0245612</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0232915</v>
+                  <v>0.0254625</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0246113</v>
+                  <v>0.0269155</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0266287</v>
+                  <v>0.0289929</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0293725</v>
+                  <v>0.0319022</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0323838</v>
+                  <v>0.0353162</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0353862</v>
+                  <v>0.0382454</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0384466</v>
+                  <v>0.0414212</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0416202</v>
+                  <v>0.0448928</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0456443</v>
+                  <v>0.0491213</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0519131</v>
+                  <v>0.0556722</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0324166</v>
+                  <v>0.0349946</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0334394</v>
+                  <v>0.036062</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0342435</v>
+                  <v>0.0370126</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0350556</v>
+                  <v>0.0378882</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0358717</v>
+                  <v>0.0386232</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0366873</v>
+                  <v>0.039608</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0376708</v>
+                  <v>0.0405332</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0386302</v>
+                  <v>0.0416032</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0398146</v>
+                  <v>0.0429799</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0412212</v>
+                  <v>0.044442</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0429427</v>
+                  <v>0.0464735</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0455556</v>
+                  <v>0.0490779</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0491536</v>
+                  <v>0.0526027</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.054736</v>
+                  <v>0.0585157</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0644487</v>
+                  <v>0.0682112</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0379716</v>
+                  <v>0.0416503</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0387374</v>
+                  <v>0.0422691</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.039425</v>
+                  <v>0.0430552</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0400483</v>
+                  <v>0.04371</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0410584</v>
+                  <v>0.0446326</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0419449</v>
+                  <v>0.045744</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0429313</v>
+                  <v>0.0464876</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0441977</v>
+                  <v>0.0480236</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0457638</v>
+                  <v>0.0497905</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0475294</v>
+                  <v>0.0515751</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0500786</v>
+                  <v>0.0541836</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0536186</v>
+                  <v>0.0578235</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0591599</v>
+                  <v>0.06359289999999999</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.0689019</v>
+                  <v>0.07301820000000001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0534654</v>
+                  <v>0.0587163</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0539555</v>
+                  <v>0.0595507</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0548494</v>
+                  <v>0.0603892</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0553747</v>
+                  <v>0.0609068</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0561235</v>
+                  <v>0.0617944</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0611306</v>
+                  <v>0.0626568</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0579442</v>
+                  <v>0.0637523</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0329684</v>
+        <v>0.0325846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0368923</v>
+        <v>0.0328515</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0294415</v>
+        <v>0.0312481</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0339087</v>
+        <v>0.0333725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0389437</v>
+        <v>0.0340709</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0299289</v>
+        <v>0.0319331</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0358697</v>
+        <v>0.0353964</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0424481</v>
+        <v>0.0350917</v>
       </c>
       <c r="D4" t="n">
-        <v>0.031074</v>
+        <v>0.0331693</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0410255</v>
+        <v>0.0422003</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0495758</v>
+        <v>0.0363089</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0326668</v>
+        <v>0.0337934</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0545756</v>
+        <v>0.0510547</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0645646</v>
+        <v>0.0392419</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0347853</v>
+        <v>0.037189</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08139299999999999</v>
+        <v>0.0756076</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08743389999999999</v>
+        <v>0.0460273</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0412207</v>
+        <v>0.0427186</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.117021</v>
+        <v>0.111593</v>
       </c>
       <c r="C8" t="n">
-        <v>0.115657</v>
+        <v>0.0626486</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0533693</v>
+        <v>0.0561389</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.166523</v>
+        <v>0.157906</v>
       </c>
       <c r="C9" t="n">
-        <v>0.160521</v>
+        <v>0.0297659</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0269305</v>
+        <v>0.0289044</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.030292</v>
+        <v>0.0310056</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0302569</v>
+        <v>0.0300215</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0271366</v>
+        <v>0.029177</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0307851</v>
+        <v>0.0316089</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0313039</v>
+        <v>0.0303965</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0274771</v>
+        <v>0.0293319</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0312879</v>
+        <v>0.0320259</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0325735</v>
+        <v>0.0307074</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0278747</v>
+        <v>0.0295404</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0319115</v>
+        <v>0.0324646</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0333329</v>
+        <v>0.0311732</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0283714</v>
+        <v>0.0298877</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0326633</v>
+        <v>0.0330508</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0350049</v>
+        <v>0.0314261</v>
       </c>
       <c r="D14" t="n">
-        <v>0.028887</v>
+        <v>0.0305063</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.033606</v>
+        <v>0.033594</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0365952</v>
+        <v>0.0321348</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0295264</v>
+        <v>0.031039</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0350354</v>
+        <v>0.0348139</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0394379</v>
+        <v>0.0327241</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0303174</v>
+        <v>0.0318702</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0373861</v>
+        <v>0.0373232</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0424427</v>
+        <v>0.033826</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0310339</v>
+        <v>0.032849</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0414949</v>
+        <v>0.0413755</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0484357</v>
+        <v>0.0349988</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0327487</v>
+        <v>0.0342106</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0493294</v>
+        <v>0.050325</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0562839</v>
+        <v>0.037282</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0343284</v>
+        <v>0.0357531</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0615331</v>
+        <v>0.0624767</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06903239999999999</v>
+        <v>0.0408376</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0373733</v>
+        <v>0.0390011</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0789002</v>
+        <v>0.0829111</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0892559</v>
+        <v>0.0477724</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0446385</v>
+        <v>0.0468799</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.105753</v>
+        <v>0.108053</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115275</v>
+        <v>0.06383469999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0569369</v>
+        <v>0.06044</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138487</v>
+        <v>0.150737</v>
       </c>
       <c r="C23" t="n">
-        <v>0.157453</v>
+        <v>0.0303177</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0279225</v>
+        <v>0.0291127</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0327421</v>
+        <v>0.0321683</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0311535</v>
+        <v>0.0307242</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0284119</v>
+        <v>0.0293803</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0334372</v>
+        <v>0.0328949</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0321183</v>
+        <v>0.0312631</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0287145</v>
+        <v>0.0298252</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0341485</v>
+        <v>0.033668</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0333383</v>
+        <v>0.0315127</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0291528</v>
+        <v>0.0300878</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0349338</v>
+        <v>0.0343415</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0346541</v>
+        <v>0.0319311</v>
       </c>
       <c r="D27" t="n">
-        <v>0.029677</v>
+        <v>0.0306338</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0359227</v>
+        <v>0.0354209</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0361203</v>
+        <v>0.0325287</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0301534</v>
+        <v>0.0312207</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0370512</v>
+        <v>0.0364784</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0377656</v>
+        <v>0.0333086</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0306719</v>
+        <v>0.0317792</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0386468</v>
+        <v>0.0383536</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0404253</v>
+        <v>0.0341864</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0313499</v>
+        <v>0.0324357</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0416882</v>
+        <v>0.0413561</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0437286</v>
+        <v>0.0353267</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0324264</v>
+        <v>0.0335158</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0466116</v>
+        <v>0.0460796</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0498172</v>
+        <v>0.0368155</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0337169</v>
+        <v>0.0349934</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0539961</v>
+        <v>0.053307</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0584168</v>
+        <v>0.0395211</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0358333</v>
+        <v>0.0370634</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06369379999999999</v>
+        <v>0.0642042</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0694951</v>
+        <v>0.044127</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0395821</v>
+        <v>0.0407471</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0784159</v>
+        <v>0.0795062</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0841345</v>
+        <v>0.0501363</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0464881</v>
+        <v>0.0483485</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0998908</v>
+        <v>0.101831</v>
       </c>
       <c r="C36" t="n">
-        <v>0.110972</v>
+        <v>0.0614438</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0579824</v>
+        <v>0.0586989</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.134167</v>
+        <v>0.13368</v>
       </c>
       <c r="C37" t="n">
-        <v>0.149719</v>
+        <v>0.0315158</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0283606</v>
+        <v>0.0294495</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0334276</v>
+        <v>0.0335183</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0312697</v>
+        <v>0.0319023</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0287568</v>
+        <v>0.0297482</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.034368</v>
+        <v>0.0340968</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0319583</v>
+        <v>0.0322593</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0290279</v>
+        <v>0.0300828</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0351666</v>
+        <v>0.0349413</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0330701</v>
+        <v>0.0326283</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0293906</v>
+        <v>0.0305136</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0360278</v>
+        <v>0.0358807</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0341718</v>
+        <v>0.0330677</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0297748</v>
+        <v>0.0309689</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0374361</v>
+        <v>0.0369545</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0358153</v>
+        <v>0.033638</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0302058</v>
+        <v>0.0315834</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387334</v>
+        <v>0.038557</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0379045</v>
+        <v>0.0342654</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0310227</v>
+        <v>0.0322001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0409306</v>
+        <v>0.0408241</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0402866</v>
+        <v>0.0350697</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0316202</v>
+        <v>0.0330871</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0445115</v>
+        <v>0.043701</v>
       </c>
       <c r="C45" t="n">
-        <v>0.044519</v>
+        <v>0.0361315</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0327462</v>
+        <v>0.0343548</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0492589</v>
+        <v>0.0478144</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0506473</v>
+        <v>0.0375395</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0343747</v>
+        <v>0.0359197</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0559028</v>
+        <v>0.053783</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0575455</v>
+        <v>0.0397965</v>
       </c>
       <c r="D47" t="n">
-        <v>0.036799</v>
+        <v>0.0384055</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0643768</v>
+        <v>0.0630859</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0677336</v>
+        <v>0.0436931</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0407027</v>
+        <v>0.0423574</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0778244</v>
+        <v>0.0766082</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08313520000000001</v>
+        <v>0.0498319</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0464134</v>
+        <v>0.048322</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.098092</v>
+        <v>0.0953053</v>
       </c>
       <c r="C50" t="n">
-        <v>0.10489</v>
+        <v>0.059005</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0552739</v>
+        <v>0.0579304</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.130207</v>
+        <v>0.125683</v>
       </c>
       <c r="C51" t="n">
-        <v>0.138899</v>
+        <v>0.0339148</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0304877</v>
+        <v>0.0311883</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17609</v>
+        <v>0.174108</v>
       </c>
       <c r="C52" t="n">
-        <v>0.186232</v>
+        <v>0.0338118</v>
       </c>
       <c r="D52" t="n">
-        <v>0.030427</v>
+        <v>0.0312525</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0361382</v>
+        <v>0.0368577</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0329153</v>
+        <v>0.0340936</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0307294</v>
+        <v>0.0316421</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0367774</v>
+        <v>0.0375908</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0338687</v>
+        <v>0.0340922</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0311191</v>
+        <v>0.0317462</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0377166</v>
+        <v>0.0384413</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0350766</v>
+        <v>0.0344741</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0314428</v>
+        <v>0.0321933</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.038886</v>
+        <v>0.0394871</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0363958</v>
+        <v>0.0349993</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0319805</v>
+        <v>0.032794</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0402647</v>
+        <v>0.0407946</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0384215</v>
+        <v>0.0356704</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0325633</v>
+        <v>0.0334169</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0423563</v>
+        <v>0.0429482</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0413493</v>
+        <v>0.0364888</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0334001</v>
+        <v>0.0343505</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.045304</v>
+        <v>0.045498</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0446498</v>
+        <v>0.0375346</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0343371</v>
+        <v>0.0355379</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.049194</v>
+        <v>0.0491458</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0494137</v>
+        <v>0.0389833</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0356401</v>
+        <v>0.0371997</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0551512</v>
+        <v>0.054316</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0565285</v>
+        <v>0.0411575</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0378844</v>
+        <v>0.039358</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0627423</v>
+        <v>0.062111</v>
       </c>
       <c r="C62" t="n">
-        <v>0.066079</v>
+        <v>0.0444503</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0413249</v>
+        <v>0.0428422</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07418039999999999</v>
+        <v>0.07405299999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0795254</v>
+        <v>0.0498649</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0465103</v>
+        <v>0.0479948</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.091297</v>
+        <v>0.092239</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09914779999999999</v>
+        <v>0.0581679</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0545908</v>
+        <v>0.0563546</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118548</v>
+        <v>0.120397</v>
       </c>
       <c r="C65" t="n">
-        <v>0.131707</v>
+        <v>0.072494</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0688238</v>
+        <v>0.0713752</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.162219</v>
+        <v>0.163165</v>
       </c>
       <c r="C66" t="n">
-        <v>0.178242</v>
+        <v>0.0407123</v>
       </c>
       <c r="D66" t="n">
-        <v>0.035822</v>
+        <v>0.0372547</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0417479</v>
+        <v>0.0417698</v>
       </c>
       <c r="C67" t="n">
-        <v>0.037774</v>
+        <v>0.0410801</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0361458</v>
+        <v>0.0376078</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0425369</v>
+        <v>0.0424522</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0387626</v>
+        <v>0.0414093</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0365575</v>
+        <v>0.038026</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0434477</v>
+        <v>0.043358</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0399583</v>
+        <v>0.0418412</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0369957</v>
+        <v>0.0385044</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0443134</v>
+        <v>0.0444275</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0413006</v>
+        <v>0.0423925</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0374666</v>
+        <v>0.0389528</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0457313</v>
+        <v>0.0457896</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0429234</v>
+        <v>0.042889</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0380448</v>
+        <v>0.0396096</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0475356</v>
+        <v>0.0474143</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0453153</v>
+        <v>0.0437582</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0387577</v>
+        <v>0.0403617</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0500303</v>
+        <v>0.0497509</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0489059</v>
+        <v>0.0445978</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0397446</v>
+        <v>0.0414427</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0537275</v>
+        <v>0.0532328</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0536736</v>
+        <v>0.0459226</v>
       </c>
       <c r="D74" t="n">
-        <v>0.041044</v>
+        <v>0.0428228</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0584938</v>
+        <v>0.0579362</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0601988</v>
+        <v>0.0478728</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0430534</v>
+        <v>0.0449515</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.065749</v>
+        <v>0.065151</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0691479</v>
+        <v>0.0507924</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0458502</v>
+        <v>0.0480781</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0765281</v>
+        <v>0.07590769999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0819532</v>
+        <v>0.0554747</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0503257</v>
+        <v>0.0526809</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09196020000000001</v>
+        <v>0.0923832</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0994597</v>
+        <v>0.0625272</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0573235</v>
+        <v>0.0601856</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.117816</v>
+        <v>0.118468</v>
       </c>
       <c r="C79" t="n">
-        <v>0.126862</v>
+        <v>0.0750977</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0698455</v>
+        <v>0.07276249999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.157285</v>
+        <v>0.158386</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168944</v>
+        <v>0.0431064</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0405573</v>
+        <v>0.041256</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0470358</v>
+        <v>0.0444779</v>
       </c>
       <c r="C81" t="n">
-        <v>0.045408</v>
+        <v>0.0434589</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0410271</v>
+        <v>0.0415394</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0482026</v>
+        <v>0.0453962</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0475281</v>
+        <v>0.0438068</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0416421</v>
+        <v>0.0418847</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.049952</v>
+        <v>0.0469693</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0503328</v>
+        <v>0.0442695</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0423936</v>
+        <v>0.0423277</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0522023</v>
+        <v>0.0485667</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0536227</v>
+        <v>0.0448387</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0434328</v>
+        <v>0.0429387</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0543117</v>
+        <v>0.0512339</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0569333</v>
+        <v>0.045888</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0444476</v>
+        <v>0.0437495</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0576455</v>
+        <v>0.0544116</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0612209</v>
+        <v>0.0470027</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0460327</v>
+        <v>0.0450397</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0620373</v>
+        <v>0.0590722</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0661195</v>
+        <v>0.0488514</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0479167</v>
+        <v>0.0466756</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06716900000000001</v>
+        <v>0.0650699</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0721223</v>
+        <v>0.0513688</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0503695</v>
+        <v>0.0492049</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0741574</v>
+        <v>0.0725316</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0794702</v>
+        <v>0.0550233</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0535472</v>
+        <v>0.0528254</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08328480000000001</v>
+        <v>0.0823221</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0891446</v>
+        <v>0.0598196</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0579916</v>
+        <v>0.0576699</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.095149</v>
+        <v>0.094879</v>
       </c>
       <c r="C91" t="n">
-        <v>0.101189</v>
+        <v>0.0663516</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06398040000000001</v>
+        <v>0.0641756</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111199</v>
+        <v>0.110935</v>
       </c>
       <c r="C92" t="n">
-        <v>0.117426</v>
+        <v>0.0756757</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0722976</v>
+        <v>0.0732976</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.133346</v>
+        <v>0.133408</v>
       </c>
       <c r="C93" t="n">
-        <v>0.141742</v>
+        <v>0.0888815</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0841669</v>
+        <v>0.0858255</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.167183</v>
+        <v>0.167184</v>
       </c>
       <c r="C94" t="n">
-        <v>0.178298</v>
+        <v>0.0550804</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0487826</v>
+        <v>0.0523721</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0637326</v>
+        <v>0.0678462</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0646463</v>
+        <v>0.0571387</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0496093</v>
+        <v>0.0547971</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0656099</v>
+        <v>0.0708464</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06788520000000001</v>
+        <v>0.0590043</v>
       </c>
       <c r="D96" t="n">
-        <v>0.050415</v>
+        <v>0.0564575</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.067715</v>
+        <v>0.0725368</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0718613</v>
+        <v>0.0602936</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0521439</v>
+        <v>0.0584479</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0722313</v>
+        <v>0.076407</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0757024</v>
+        <v>0.0625098</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0541505</v>
+        <v>0.0588438</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0768981</v>
+        <v>0.07899639999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0799448</v>
+        <v>0.0644974</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0555483</v>
+        <v>0.060825</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0820597</v>
+        <v>0.0821137</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0851165</v>
+        <v>0.0661279</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0578924</v>
+        <v>0.0633457</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0885514</v>
+        <v>0.0859519</v>
       </c>
       <c r="C101" t="n">
-        <v>0.090617</v>
+        <v>0.0679599</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0619426</v>
+        <v>0.0658401</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09465460000000001</v>
+        <v>0.0903508</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0968962</v>
+        <v>0.0704289</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0658696</v>
+        <v>0.0680424</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.103456</v>
+        <v>0.0967785</v>
       </c>
       <c r="C103" t="n">
-        <v>0.104305</v>
+        <v>0.0735189</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0695726</v>
+        <v>0.0712269</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.112993</v>
+        <v>0.104007</v>
       </c>
       <c r="C104" t="n">
-        <v>0.113804</v>
+        <v>0.07748720000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0764032</v>
+        <v>0.0753849</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1226</v>
+        <v>0.114086</v>
       </c>
       <c r="C105" t="n">
-        <v>0.125167</v>
+        <v>0.081555</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0833653</v>
+        <v>0.0798314</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.138322</v>
+        <v>0.130857</v>
       </c>
       <c r="C106" t="n">
-        <v>0.136786</v>
+        <v>0.089722</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08962829999999999</v>
+        <v>0.08787979999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.158054</v>
+        <v>0.153267</v>
       </c>
       <c r="C107" t="n">
-        <v>0.161877</v>
+        <v>0.102305</v>
       </c>
       <c r="D107" t="n">
-        <v>0.101653</v>
+        <v>0.100216</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.187018</v>
+        <v>0.185504</v>
       </c>
       <c r="C108" t="n">
-        <v>0.195776</v>
+        <v>0.0622735</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0634591</v>
+        <v>0.0596389</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231206</v>
+        <v>0.232285</v>
       </c>
       <c r="C109" t="n">
-        <v>0.249149</v>
+        <v>0.0636099</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0652165</v>
+        <v>0.0607605</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0903186</v>
+        <v>0.08049199999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0864882</v>
+        <v>0.06492530000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0673948</v>
+        <v>0.0621141</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.094398</v>
+        <v>0.0829564</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08917750000000001</v>
+        <v>0.0661635</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0692955</v>
+        <v>0.0635551</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0974305</v>
+        <v>0.0871517</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0923374</v>
+        <v>0.06765930000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.07151200000000001</v>
+        <v>0.06501270000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0991089</v>
+        <v>0.0906844</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0959385</v>
+        <v>0.06996960000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0737482</v>
+        <v>0.06694029999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.102393</v>
+        <v>0.09600649999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0998892</v>
+        <v>0.07308580000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.07581739999999999</v>
+        <v>0.0697641</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.106355</v>
+        <v>0.100302</v>
       </c>
       <c r="C115" t="n">
-        <v>0.104271</v>
+        <v>0.0756102</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07807219999999999</v>
+        <v>0.07269399999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.111152</v>
+        <v>0.107778</v>
       </c>
       <c r="C116" t="n">
-        <v>0.109733</v>
+        <v>0.0795254</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0808141</v>
+        <v>0.0762476</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.118365</v>
+        <v>0.113145</v>
       </c>
       <c r="C117" t="n">
-        <v>0.116166</v>
+        <v>0.0820249</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0839023</v>
+        <v>0.0807961</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.125558</v>
+        <v>0.123037</v>
       </c>
       <c r="C118" t="n">
-        <v>0.124493</v>
+        <v>0.087283</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0876055</v>
+        <v>0.0862965</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.135232</v>
+        <v>0.133468</v>
       </c>
       <c r="C119" t="n">
-        <v>0.135074</v>
+        <v>0.0967976</v>
       </c>
       <c r="D119" t="n">
-        <v>0.09264600000000001</v>
+        <v>0.0931545</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.146496</v>
+        <v>0.147266</v>
       </c>
       <c r="C120" t="n">
-        <v>0.149725</v>
+        <v>0.105562</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0998785</v>
+        <v>0.10057</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.164345</v>
+        <v>0.164089</v>
       </c>
       <c r="C121" t="n">
-        <v>0.168566</v>
+        <v>0.117337</v>
       </c>
       <c r="D121" t="n">
-        <v>0.11124</v>
+        <v>0.112326</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.193198</v>
+        <v>0.193543</v>
       </c>
       <c r="C122" t="n">
-        <v>0.200786</v>
+        <v>0.135715</v>
       </c>
       <c r="D122" t="n">
-        <v>0.127843</v>
+        <v>0.129993</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.234098</v>
+        <v>0.235413</v>
       </c>
       <c r="C123" t="n">
-        <v>0.249334</v>
+        <v>0.0826764</v>
       </c>
       <c r="D123" t="n">
-        <v>0.079346</v>
+        <v>0.0867812</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103784</v>
+        <v>0.101564</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0997421</v>
+        <v>0.08033990000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0802215</v>
+        <v>0.0857574</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105267</v>
+        <v>0.10217</v>
       </c>
       <c r="C125" t="n">
-        <v>0.104359</v>
+        <v>0.0833749</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0845829</v>
+        <v>0.08678859999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108067</v>
+        <v>0.10697</v>
       </c>
       <c r="C126" t="n">
-        <v>0.107391</v>
+        <v>0.08655939999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0852879</v>
+        <v>0.0913141</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.112252</v>
+        <v>0.111444</v>
       </c>
       <c r="C127" t="n">
-        <v>0.110433</v>
+        <v>0.0910812</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0875365</v>
+        <v>0.0910411</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115782</v>
+        <v>0.112688</v>
       </c>
       <c r="C128" t="n">
-        <v>0.113274</v>
+        <v>0.0927153</v>
       </c>
       <c r="D128" t="n">
-        <v>0.087954</v>
+        <v>0.0931063</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118015</v>
+        <v>0.113733</v>
       </c>
       <c r="C129" t="n">
-        <v>0.117777</v>
+        <v>0.09184779999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.09028029999999999</v>
+        <v>0.0972726</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122837</v>
+        <v>0.121372</v>
       </c>
       <c r="C130" t="n">
-        <v>0.123579</v>
+        <v>0.09815749999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.093053</v>
+        <v>0.0983535</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127757</v>
+        <v>0.125779</v>
       </c>
       <c r="C131" t="n">
-        <v>0.129805</v>
+        <v>0.101183</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0961885</v>
+        <v>0.103425</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.134688</v>
+        <v>0.133109</v>
       </c>
       <c r="C132" t="n">
-        <v>0.138346</v>
+        <v>0.103941</v>
       </c>
       <c r="D132" t="n">
-        <v>0.10002</v>
+        <v>0.106936</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143637</v>
+        <v>0.142745</v>
       </c>
       <c r="C133" t="n">
-        <v>0.148433</v>
+        <v>0.111268</v>
       </c>
       <c r="D133" t="n">
-        <v>0.104956</v>
+        <v>0.110622</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.156516</v>
+        <v>0.154398</v>
       </c>
       <c r="C134" t="n">
-        <v>0.16179</v>
+        <v>0.115973</v>
       </c>
       <c r="D134" t="n">
-        <v>0.110627</v>
+        <v>0.117266</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.172973</v>
+        <v>0.172021</v>
       </c>
       <c r="C135" t="n">
-        <v>0.181999</v>
+        <v>0.130043</v>
       </c>
       <c r="D135" t="n">
-        <v>0.12158</v>
+        <v>0.126116</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.199367</v>
+        <v>0.196528</v>
       </c>
       <c r="C136" t="n">
-        <v>0.210322</v>
+        <v>0.143888</v>
       </c>
       <c r="D136" t="n">
-        <v>0.136267</v>
+        <v>0.144442</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235584</v>
+        <v>0.23209</v>
       </c>
       <c r="C137" t="n">
-        <v>0.25345</v>
+        <v>0.160626</v>
       </c>
       <c r="D137" t="n">
-        <v>0.151148</v>
+        <v>0.162544</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170407</v>
+        <v>0.16124</v>
       </c>
       <c r="C138" t="n">
-        <v>0.158407</v>
+        <v>0.162838</v>
       </c>
       <c r="D138" t="n">
-        <v>0.153019</v>
+        <v>0.16405</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.165965</v>
+        <v>0.172076</v>
       </c>
       <c r="C139" t="n">
-        <v>0.159505</v>
+        <v>0.160069</v>
       </c>
       <c r="D139" t="n">
-        <v>0.15334</v>
+        <v>0.16541</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.176418</v>
+        <v>0.173689</v>
       </c>
       <c r="C140" t="n">
-        <v>0.162919</v>
+        <v>0.161277</v>
       </c>
       <c r="D140" t="n">
-        <v>0.155493</v>
+        <v>0.16779</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.17696</v>
+        <v>0.177278</v>
       </c>
       <c r="C141" t="n">
-        <v>0.165514</v>
+        <v>0.175169</v>
       </c>
       <c r="D141" t="n">
-        <v>0.156792</v>
+        <v>0.167524</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.179096</v>
+        <v>0.174661</v>
       </c>
       <c r="C142" t="n">
-        <v>0.168644</v>
+        <v>0.177741</v>
       </c>
       <c r="D142" t="n">
-        <v>0.158246</v>
+        <v>0.16955</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.181237</v>
+        <v>0.182645</v>
       </c>
       <c r="C143" t="n">
-        <v>0.172697</v>
+        <v>0.173925</v>
       </c>
       <c r="D143" t="n">
-        <v>0.160409</v>
+        <v>0.1717</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0325846</v>
+        <v>0.0326502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0328515</v>
+        <v>0.0326847</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0312481</v>
+        <v>0.031133</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0333725</v>
+        <v>0.033236</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0340709</v>
+        <v>0.0337051</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0319331</v>
+        <v>0.0318876</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0353964</v>
+        <v>0.0349446</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0350917</v>
+        <v>0.0353446</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0331693</v>
+        <v>0.0329189</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0422003</v>
+        <v>0.0406066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0363089</v>
+        <v>0.0371312</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0337934</v>
+        <v>0.0341302</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0510547</v>
+        <v>0.0508136</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0392419</v>
+        <v>0.0396344</v>
       </c>
       <c r="D6" t="n">
-        <v>0.037189</v>
+        <v>0.0363873</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0756076</v>
+        <v>0.07538400000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0460273</v>
+        <v>0.0468772</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0427186</v>
+        <v>0.0424109</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.111593</v>
+        <v>0.111033</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0626486</v>
+        <v>0.06403490000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0561389</v>
+        <v>0.0568255</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.157906</v>
+        <v>0.156575</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0297659</v>
+        <v>0.0296874</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0289044</v>
+        <v>0.0289034</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0310056</v>
+        <v>0.0310681</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0300215</v>
+        <v>0.0299003</v>
       </c>
       <c r="D10" t="n">
-        <v>0.029177</v>
+        <v>0.0290454</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0316089</v>
+        <v>0.0315343</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0303965</v>
+        <v>0.0303182</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0293319</v>
+        <v>0.0293265</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0320259</v>
+        <v>0.0318807</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0307074</v>
+        <v>0.0306315</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0295404</v>
+        <v>0.0294598</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0324646</v>
+        <v>0.0325749</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0311732</v>
+        <v>0.0309707</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0298877</v>
+        <v>0.0298296</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0330508</v>
+        <v>0.0329966</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0314261</v>
+        <v>0.0312661</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0305063</v>
+        <v>0.0303597</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.033594</v>
+        <v>0.0335734</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0321348</v>
+        <v>0.0320101</v>
       </c>
       <c r="D15" t="n">
-        <v>0.031039</v>
+        <v>0.0309475</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0348139</v>
+        <v>0.0346531</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0327241</v>
+        <v>0.0326734</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0318702</v>
+        <v>0.0317566</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0373232</v>
+        <v>0.0369968</v>
       </c>
       <c r="C17" t="n">
-        <v>0.033826</v>
+        <v>0.0336942</v>
       </c>
       <c r="D17" t="n">
-        <v>0.032849</v>
+        <v>0.0325554</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0413755</v>
+        <v>0.0410806</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0349988</v>
+        <v>0.0349981</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0342106</v>
+        <v>0.0339518</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.050325</v>
+        <v>0.0502722</v>
       </c>
       <c r="C19" t="n">
-        <v>0.037282</v>
+        <v>0.0369191</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0357531</v>
+        <v>0.0354876</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0624767</v>
+        <v>0.0621204</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0408376</v>
+        <v>0.0407471</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0390011</v>
+        <v>0.0391974</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0829111</v>
+        <v>0.0827465</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0477724</v>
+        <v>0.0484623</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0468799</v>
+        <v>0.0480466</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.108053</v>
+        <v>0.107732</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06383469999999999</v>
+        <v>0.06394229999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06044</v>
+        <v>0.0623893</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.150737</v>
+        <v>0.150051</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0303177</v>
+        <v>0.0302167</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0291127</v>
+        <v>0.0292028</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0321683</v>
+        <v>0.0323839</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0307242</v>
+        <v>0.030675</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0293803</v>
+        <v>0.0295458</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0328949</v>
+        <v>0.0330011</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0312631</v>
+        <v>0.0310661</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0298252</v>
+        <v>0.0298417</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.033668</v>
+        <v>0.0336686</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0315127</v>
+        <v>0.0312999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0300878</v>
+        <v>0.0300897</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343415</v>
+        <v>0.0344057</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0319311</v>
+        <v>0.0317247</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0306338</v>
+        <v>0.0306097</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0354209</v>
+        <v>0.0354623</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0325287</v>
+        <v>0.0322911</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0312207</v>
+        <v>0.0312029</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0364784</v>
+        <v>0.0363792</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0333086</v>
+        <v>0.0330843</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0317792</v>
+        <v>0.0317375</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0383536</v>
+        <v>0.0383847</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0341864</v>
+        <v>0.0339696</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0324357</v>
+        <v>0.032462</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0413561</v>
+        <v>0.0412763</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0353267</v>
+        <v>0.0351566</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0335158</v>
+        <v>0.0335426</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0460796</v>
+        <v>0.0459557</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0368155</v>
+        <v>0.03666</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0349934</v>
+        <v>0.0350426</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.053307</v>
+        <v>0.0534528</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0395211</v>
+        <v>0.0394459</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0370634</v>
+        <v>0.0371674</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0642042</v>
+        <v>0.0644142</v>
       </c>
       <c r="C34" t="n">
-        <v>0.044127</v>
+        <v>0.0441812</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0407471</v>
+        <v>0.0414813</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0795062</v>
+        <v>0.07949390000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0501363</v>
+        <v>0.0502242</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0483485</v>
+        <v>0.0493112</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101831</v>
+        <v>0.101636</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0614438</v>
+        <v>0.061622</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0586989</v>
+        <v>0.0585628</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.13368</v>
+        <v>0.133043</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0315158</v>
+        <v>0.0310321</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0294495</v>
+        <v>0.0293543</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0335183</v>
+        <v>0.0336263</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0319023</v>
+        <v>0.0314797</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0297482</v>
+        <v>0.0296922</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0340968</v>
+        <v>0.034151</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0322593</v>
+        <v>0.0318347</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0300828</v>
+        <v>0.0301321</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0349413</v>
+        <v>0.0351192</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0326283</v>
+        <v>0.0322851</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0305136</v>
+        <v>0.0304605</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0358807</v>
+        <v>0.036015</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0330677</v>
+        <v>0.0327607</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0309689</v>
+        <v>0.0309037</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0369545</v>
+        <v>0.0370797</v>
       </c>
       <c r="C42" t="n">
-        <v>0.033638</v>
+        <v>0.0333011</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0315834</v>
+        <v>0.0314998</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.038557</v>
+        <v>0.0385636</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0342654</v>
+        <v>0.0339541</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0322001</v>
+        <v>0.0321365</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0408241</v>
+        <v>0.0408044</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0350697</v>
+        <v>0.0347172</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0330871</v>
+        <v>0.0329936</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.043701</v>
+        <v>0.0439222</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0361315</v>
+        <v>0.0358252</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0343548</v>
+        <v>0.0342244</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0478144</v>
+        <v>0.0478916</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0375395</v>
+        <v>0.0373462</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0359197</v>
+        <v>0.035977</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.053783</v>
+        <v>0.053825</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0397965</v>
+        <v>0.0396789</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0384055</v>
+        <v>0.0386506</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0630859</v>
+        <v>0.0630154</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0436931</v>
+        <v>0.0437027</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0423574</v>
+        <v>0.042848</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0766082</v>
+        <v>0.0765532</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0498319</v>
+        <v>0.0498777</v>
       </c>
       <c r="D49" t="n">
-        <v>0.048322</v>
+        <v>0.0488747</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0953053</v>
+        <v>0.0952967</v>
       </c>
       <c r="C50" t="n">
-        <v>0.059005</v>
+        <v>0.0592499</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0579304</v>
+        <v>0.0584007</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125683</v>
+        <v>0.125449</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0339148</v>
+        <v>0.033633</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0311883</v>
+        <v>0.032523</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174108</v>
+        <v>0.173357</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0338118</v>
+        <v>0.0334686</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0312525</v>
+        <v>0.0322664</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0368577</v>
+        <v>0.0357811</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0340936</v>
+        <v>0.0337076</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0316421</v>
+        <v>0.0327577</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0375908</v>
+        <v>0.0364718</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0340922</v>
+        <v>0.0341434</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0317462</v>
+        <v>0.0331564</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0384413</v>
+        <v>0.0373408</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0344741</v>
+        <v>0.0344205</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0321933</v>
+        <v>0.0336055</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0394871</v>
+        <v>0.0383394</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0349993</v>
+        <v>0.0352115</v>
       </c>
       <c r="D56" t="n">
-        <v>0.032794</v>
+        <v>0.0341244</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0407946</v>
+        <v>0.0397849</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0356704</v>
+        <v>0.0359084</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0334169</v>
+        <v>0.0348083</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0429482</v>
+        <v>0.0418579</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0364888</v>
+        <v>0.036484</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0343505</v>
+        <v>0.035665</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.045498</v>
+        <v>0.0445976</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0375346</v>
+        <v>0.0375715</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0355379</v>
+        <v>0.0365603</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0491458</v>
+        <v>0.0482476</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0389833</v>
+        <v>0.0390672</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0371997</v>
+        <v>0.0384948</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.054316</v>
+        <v>0.0535382</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0411575</v>
+        <v>0.04133</v>
       </c>
       <c r="D61" t="n">
-        <v>0.039358</v>
+        <v>0.0404672</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.062111</v>
+        <v>0.0614001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0444503</v>
+        <v>0.044572</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0428422</v>
+        <v>0.044236</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07405299999999999</v>
+        <v>0.0734074</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0498649</v>
+        <v>0.0500375</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0479948</v>
+        <v>0.049294</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.092239</v>
+        <v>0.0917076</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0581679</v>
+        <v>0.0585805</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0563546</v>
+        <v>0.0578705</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.120397</v>
+        <v>0.119731</v>
       </c>
       <c r="C65" t="n">
-        <v>0.072494</v>
+        <v>0.0733087</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0713752</v>
+        <v>0.07174609999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.163165</v>
+        <v>0.16264</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0407123</v>
+        <v>0.0403415</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0372547</v>
+        <v>0.0360157</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0417698</v>
+        <v>0.0413397</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0410801</v>
+        <v>0.0407782</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0376078</v>
+        <v>0.0363825</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0424522</v>
+        <v>0.0420256</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0414093</v>
+        <v>0.0411442</v>
       </c>
       <c r="D68" t="n">
-        <v>0.038026</v>
+        <v>0.036807</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.043358</v>
+        <v>0.0429819</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0418412</v>
+        <v>0.0415061</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0385044</v>
+        <v>0.037256</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0444275</v>
+        <v>0.0440453</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0423925</v>
+        <v>0.0420378</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0389528</v>
+        <v>0.0377024</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0457896</v>
+        <v>0.0453552</v>
       </c>
       <c r="C71" t="n">
-        <v>0.042889</v>
+        <v>0.0425716</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0396096</v>
+        <v>0.0383904</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0474143</v>
+        <v>0.0469845</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0437582</v>
+        <v>0.0433957</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0403617</v>
+        <v>0.0391242</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0497509</v>
+        <v>0.0495422</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0445978</v>
+        <v>0.0443833</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0414427</v>
+        <v>0.0403635</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0532328</v>
+        <v>0.053076</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0459226</v>
+        <v>0.0457341</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0428228</v>
+        <v>0.0419611</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0579362</v>
+        <v>0.0576594</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0478728</v>
+        <v>0.0478328</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0449515</v>
+        <v>0.0441814</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.065151</v>
+        <v>0.06480669999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0507924</v>
+        <v>0.0508193</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0480781</v>
+        <v>0.0474142</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07590769999999999</v>
+        <v>0.075567</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0554747</v>
+        <v>0.0557222</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0526809</v>
+        <v>0.0516192</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0923832</v>
+        <v>0.0921256</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0625272</v>
+        <v>0.0630526</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0601856</v>
+        <v>0.0590149</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.118468</v>
+        <v>0.117834</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0750977</v>
+        <v>0.0755644</v>
       </c>
       <c r="D79" t="n">
-        <v>0.07276249999999999</v>
+        <v>0.0718731</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.158386</v>
+        <v>0.15726</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0431064</v>
+        <v>0.0445983</v>
       </c>
       <c r="D80" t="n">
-        <v>0.041256</v>
+        <v>0.0421272</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0444779</v>
+        <v>0.0472095</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0434589</v>
+        <v>0.0449543</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0415394</v>
+        <v>0.0425274</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0453962</v>
+        <v>0.0483798</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0438068</v>
+        <v>0.0454674</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0418847</v>
+        <v>0.0429632</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0469693</v>
+        <v>0.0499426</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0442695</v>
+        <v>0.0462135</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0423277</v>
+        <v>0.0437484</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0485667</v>
+        <v>0.0517193</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0448387</v>
+        <v>0.0469139</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0429387</v>
+        <v>0.0444527</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0512339</v>
+        <v>0.0541607</v>
       </c>
       <c r="C85" t="n">
-        <v>0.045888</v>
+        <v>0.0478343</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0437495</v>
+        <v>0.0454796</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0544116</v>
+        <v>0.0578264</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0470027</v>
+        <v>0.0496283</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0450397</v>
+        <v>0.0472418</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0590722</v>
+        <v>0.0621132</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0488514</v>
+        <v>0.0516537</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0466756</v>
+        <v>0.0493073</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0650699</v>
+        <v>0.0676822</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0513688</v>
+        <v>0.0544617</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0492049</v>
+        <v>0.0520808</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0725316</v>
+        <v>0.0740778</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0550233</v>
+        <v>0.0576208</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0528254</v>
+        <v>0.0553948</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0823221</v>
+        <v>0.0830641</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0598196</v>
+        <v>0.0619682</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0576699</v>
+        <v>0.0596635</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.094879</v>
+        <v>0.0953232</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0663516</v>
+        <v>0.0680318</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0641756</v>
+        <v>0.06560530000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.110935</v>
+        <v>0.111348</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0756757</v>
+        <v>0.07675369999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0732976</v>
+        <v>0.0738061</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.133408</v>
+        <v>0.134617</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0888815</v>
+        <v>0.09008770000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0858255</v>
+        <v>0.0867497</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.167184</v>
+        <v>0.168882</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0550804</v>
+        <v>0.0547271</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0523721</v>
+        <v>0.0521018</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0678462</v>
+        <v>0.06571249999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0571387</v>
+        <v>0.0552878</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0547971</v>
+        <v>0.0536576</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0708464</v>
+        <v>0.0687533</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0590043</v>
+        <v>0.0568587</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0564575</v>
+        <v>0.0554433</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0725368</v>
+        <v>0.0721736</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0602936</v>
+        <v>0.0586748</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0584479</v>
+        <v>0.0569347</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.076407</v>
+        <v>0.0748535</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0625098</v>
+        <v>0.060722</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0588438</v>
+        <v>0.0585367</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07899639999999999</v>
+        <v>0.0783875</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0644974</v>
+        <v>0.0621524</v>
       </c>
       <c r="D99" t="n">
-        <v>0.060825</v>
+        <v>0.060483</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0821137</v>
+        <v>0.08112900000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0661279</v>
+        <v>0.0650492</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0633457</v>
+        <v>0.0614177</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0859519</v>
+        <v>0.086023</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0679599</v>
+        <v>0.06687800000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0658401</v>
+        <v>0.06506389999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0903508</v>
+        <v>0.0892203</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0704289</v>
+        <v>0.06920080000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0680424</v>
+        <v>0.066537</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0967785</v>
+        <v>0.0958389</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0735189</v>
+        <v>0.0736764</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0712269</v>
+        <v>0.071064</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104007</v>
+        <v>0.104727</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07748720000000001</v>
+        <v>0.077431</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0753849</v>
+        <v>0.07493809999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.114086</v>
+        <v>0.116282</v>
       </c>
       <c r="C105" t="n">
-        <v>0.081555</v>
+        <v>0.0820298</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0798314</v>
+        <v>0.0803021</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.130857</v>
+        <v>0.13181</v>
       </c>
       <c r="C106" t="n">
-        <v>0.089722</v>
+        <v>0.09077250000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08787979999999999</v>
+        <v>0.086782</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.153267</v>
+        <v>0.153289</v>
       </c>
       <c r="C107" t="n">
-        <v>0.102305</v>
+        <v>0.103996</v>
       </c>
       <c r="D107" t="n">
-        <v>0.100216</v>
+        <v>0.09850100000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.185504</v>
+        <v>0.185085</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0622735</v>
+        <v>0.0601765</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0596389</v>
+        <v>0.0594108</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.232285</v>
+        <v>0.232303</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0636099</v>
+        <v>0.0633209</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0607605</v>
+        <v>0.060722</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08049199999999999</v>
+        <v>0.0806052</v>
       </c>
       <c r="C110" t="n">
-        <v>0.06492530000000001</v>
+        <v>0.0644908</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0621141</v>
+        <v>0.0620276</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0829564</v>
+        <v>0.0838593</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0661635</v>
+        <v>0.06622699999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0635551</v>
+        <v>0.06346930000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0871517</v>
+        <v>0.0855746</v>
       </c>
       <c r="C112" t="n">
-        <v>0.06765930000000001</v>
+        <v>0.0680378</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06501270000000001</v>
+        <v>0.0651062</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0906844</v>
+        <v>0.0911303</v>
       </c>
       <c r="C113" t="n">
-        <v>0.06996960000000001</v>
+        <v>0.07031229999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.06694029999999999</v>
+        <v>0.0672258</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09600649999999999</v>
+        <v>0.0965781</v>
       </c>
       <c r="C114" t="n">
-        <v>0.07308580000000001</v>
+        <v>0.07239619999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0697641</v>
+        <v>0.0692366</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100302</v>
+        <v>0.101637</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0756102</v>
+        <v>0.0733837</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07269399999999999</v>
+        <v>0.07249120000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107778</v>
+        <v>0.10798</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0795254</v>
+        <v>0.0772542</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0762476</v>
+        <v>0.07627150000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113145</v>
+        <v>0.114729</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0820249</v>
+        <v>0.0817399</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0807961</v>
+        <v>0.0809125</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123037</v>
+        <v>0.121621</v>
       </c>
       <c r="C118" t="n">
-        <v>0.087283</v>
+        <v>0.08992749999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0862965</v>
+        <v>0.0859391</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133468</v>
+        <v>0.133647</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0967976</v>
+        <v>0.09429120000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0931545</v>
+        <v>0.0927791</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147266</v>
+        <v>0.14574</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105562</v>
+        <v>0.105221</v>
       </c>
       <c r="D120" t="n">
-        <v>0.10057</v>
+        <v>0.10111</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.164089</v>
+        <v>0.165816</v>
       </c>
       <c r="C121" t="n">
-        <v>0.117337</v>
+        <v>0.117633</v>
       </c>
       <c r="D121" t="n">
-        <v>0.112326</v>
+        <v>0.112329</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.193543</v>
+        <v>0.191201</v>
       </c>
       <c r="C122" t="n">
-        <v>0.135715</v>
+        <v>0.132816</v>
       </c>
       <c r="D122" t="n">
-        <v>0.129993</v>
+        <v>0.129849</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.235413</v>
+        <v>0.234897</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0826764</v>
+        <v>0.0819409</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0867812</v>
+        <v>0.08353049999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.101564</v>
+        <v>0.10316</v>
       </c>
       <c r="C124" t="n">
-        <v>0.08033990000000001</v>
+        <v>0.0834334</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0857574</v>
+        <v>0.0843555</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.10217</v>
+        <v>0.108891</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0833749</v>
+        <v>0.0836832</v>
       </c>
       <c r="D125" t="n">
-        <v>0.08678859999999999</v>
+        <v>0.0885719</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.10697</v>
+        <v>0.10783</v>
       </c>
       <c r="C126" t="n">
-        <v>0.08655939999999999</v>
+        <v>0.08762590000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0913141</v>
+        <v>0.0902549</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111444</v>
+        <v>0.111816</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0910812</v>
+        <v>0.0901</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0910411</v>
+        <v>0.0904669</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.112688</v>
+        <v>0.115885</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0927153</v>
+        <v>0.0936149</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0931063</v>
+        <v>0.0937765</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.113733</v>
+        <v>0.118321</v>
       </c>
       <c r="C129" t="n">
-        <v>0.09184779999999999</v>
+        <v>0.09570629999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0972726</v>
+        <v>0.09348239999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121372</v>
+        <v>0.120922</v>
       </c>
       <c r="C130" t="n">
-        <v>0.09815749999999999</v>
+        <v>0.09783699999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0983535</v>
+        <v>0.09608709999999999</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.125779</v>
+        <v>0.128075</v>
       </c>
       <c r="C131" t="n">
-        <v>0.101183</v>
+        <v>0.103557</v>
       </c>
       <c r="D131" t="n">
-        <v>0.103425</v>
+        <v>0.0995084</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133109</v>
+        <v>0.135431</v>
       </c>
       <c r="C132" t="n">
-        <v>0.103941</v>
+        <v>0.105583</v>
       </c>
       <c r="D132" t="n">
-        <v>0.106936</v>
+        <v>0.105994</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142745</v>
+        <v>0.140062</v>
       </c>
       <c r="C133" t="n">
-        <v>0.111268</v>
+        <v>0.110605</v>
       </c>
       <c r="D133" t="n">
-        <v>0.110622</v>
+        <v>0.107623</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154398</v>
+        <v>0.155602</v>
       </c>
       <c r="C134" t="n">
-        <v>0.115973</v>
+        <v>0.117055</v>
       </c>
       <c r="D134" t="n">
-        <v>0.117266</v>
+        <v>0.116459</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.172021</v>
+        <v>0.171691</v>
       </c>
       <c r="C135" t="n">
-        <v>0.130043</v>
+        <v>0.127403</v>
       </c>
       <c r="D135" t="n">
-        <v>0.126116</v>
+        <v>0.124658</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.196528</v>
+        <v>0.196128</v>
       </c>
       <c r="C136" t="n">
-        <v>0.143888</v>
+        <v>0.141037</v>
       </c>
       <c r="D136" t="n">
-        <v>0.144442</v>
+        <v>0.139987</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.23209</v>
+        <v>0.236636</v>
       </c>
       <c r="C137" t="n">
-        <v>0.160626</v>
+        <v>0.15837</v>
       </c>
       <c r="D137" t="n">
-        <v>0.162544</v>
+        <v>0.158781</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.16124</v>
+        <v>0.171274</v>
       </c>
       <c r="C138" t="n">
-        <v>0.162838</v>
+        <v>0.16666</v>
       </c>
       <c r="D138" t="n">
-        <v>0.16405</v>
+        <v>0.160394</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.172076</v>
+        <v>0.163499</v>
       </c>
       <c r="C139" t="n">
-        <v>0.160069</v>
+        <v>0.168899</v>
       </c>
       <c r="D139" t="n">
-        <v>0.16541</v>
+        <v>0.161439</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.173689</v>
+        <v>0.17367</v>
       </c>
       <c r="C140" t="n">
-        <v>0.161277</v>
+        <v>0.162752</v>
       </c>
       <c r="D140" t="n">
-        <v>0.16779</v>
+        <v>0.16471</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.177278</v>
+        <v>0.174838</v>
       </c>
       <c r="C141" t="n">
-        <v>0.175169</v>
+        <v>0.162381</v>
       </c>
       <c r="D141" t="n">
-        <v>0.167524</v>
+        <v>0.165764</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174661</v>
+        <v>0.17972</v>
       </c>
       <c r="C142" t="n">
-        <v>0.177741</v>
+        <v>0.171496</v>
       </c>
       <c r="D142" t="n">
-        <v>0.16955</v>
+        <v>0.167195</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.182645</v>
+        <v>0.18192</v>
       </c>
       <c r="C143" t="n">
-        <v>0.173925</v>
+        <v>0.175938</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1717</v>
+        <v>0.169761</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0326502</v>
+        <v>0.032354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0326847</v>
+        <v>0.0326439</v>
       </c>
       <c r="D2" t="n">
-        <v>0.031133</v>
+        <v>0.0310602</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.033236</v>
+        <v>0.0330843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0337051</v>
+        <v>0.0336087</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0318876</v>
+        <v>0.0318971</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0349446</v>
+        <v>0.0350837</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0353446</v>
+        <v>0.035107</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0329189</v>
+        <v>0.0328036</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0406066</v>
+        <v>0.0400941</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0371312</v>
+        <v>0.036977</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0341302</v>
+        <v>0.0338894</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0508136</v>
+        <v>0.0508345</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0396344</v>
+        <v>0.0397641</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0363873</v>
+        <v>0.0365853</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07538400000000001</v>
+        <v>0.07482080000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0468772</v>
+        <v>0.046915</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0424109</v>
+        <v>0.0427306</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.111033</v>
+        <v>0.110831</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06403490000000001</v>
+        <v>0.063689</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0568255</v>
+        <v>0.057164</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.156575</v>
+        <v>0.156481</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0296874</v>
+        <v>0.0297105</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0289034</v>
+        <v>0.0288854</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0310681</v>
+        <v>0.0310769</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0299003</v>
+        <v>0.0299886</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0290454</v>
+        <v>0.0290449</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0315343</v>
+        <v>0.031578</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0303182</v>
+        <v>0.0302417</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0293265</v>
+        <v>0.029268</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0318807</v>
+        <v>0.0319403</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0306315</v>
+        <v>0.0305678</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0294598</v>
+        <v>0.029409</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0325749</v>
+        <v>0.0325077</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0309707</v>
+        <v>0.0309635</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0298296</v>
+        <v>0.0298169</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0329966</v>
+        <v>0.0330335</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0312661</v>
+        <v>0.0312512</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0303597</v>
+        <v>0.0302998</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0335734</v>
+        <v>0.0335377</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0320101</v>
+        <v>0.032052</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0309475</v>
+        <v>0.0308983</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0346531</v>
+        <v>0.0347355</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0326734</v>
+        <v>0.0327123</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0317566</v>
+        <v>0.0316669</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0369968</v>
+        <v>0.0370111</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0336942</v>
+        <v>0.0336698</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0325554</v>
+        <v>0.0325147</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0410806</v>
+        <v>0.0408501</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0349981</v>
+        <v>0.0351122</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0339518</v>
+        <v>0.0337939</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0502722</v>
+        <v>0.0503242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0369191</v>
+        <v>0.037063</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0354876</v>
+        <v>0.0354701</v>
       </c>
     </row>
     <row r="20">
@@ -3498,10 +3498,10 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0621204</v>
+        <v>0.0620652</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0407471</v>
+        <v>0.0408185</v>
       </c>
       <c r="D20" t="n">
         <v>0.0391974</v>
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0827465</v>
+        <v>0.08278439999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0484623</v>
+        <v>0.0485513</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0480466</v>
+        <v>0.0481181</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.107732</v>
+        <v>0.107886</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06394229999999999</v>
+        <v>0.0637812</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0623893</v>
+        <v>0.0623556</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.150051</v>
+        <v>0.1497</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0302167</v>
+        <v>0.030289</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0292028</v>
+        <v>0.0290554</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0323839</v>
+        <v>0.0322127</v>
       </c>
       <c r="C24" t="n">
-        <v>0.030675</v>
+        <v>0.030639</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0295458</v>
+        <v>0.0293644</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0330011</v>
+        <v>0.0328581</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0310661</v>
+        <v>0.0311266</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0298417</v>
+        <v>0.0297348</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0336686</v>
+        <v>0.033663</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0312999</v>
+        <v>0.0314062</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0300897</v>
+        <v>0.02999</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0344057</v>
+        <v>0.0343893</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0317247</v>
+        <v>0.0318372</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0306097</v>
+        <v>0.0304983</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0354623</v>
+        <v>0.0354731</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0322911</v>
+        <v>0.0323949</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0312029</v>
+        <v>0.0310966</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0363792</v>
+        <v>0.0363921</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0330843</v>
+        <v>0.0331752</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0317375</v>
+        <v>0.031645</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0383847</v>
+        <v>0.0383476</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0339696</v>
+        <v>0.0340177</v>
       </c>
       <c r="D30" t="n">
-        <v>0.032462</v>
+        <v>0.032355</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0412763</v>
+        <v>0.0412692</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0351566</v>
+        <v>0.0352314</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0335426</v>
+        <v>0.0334044</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0459557</v>
+        <v>0.0459348</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03666</v>
+        <v>0.0367391</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0350426</v>
+        <v>0.0349368</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0534528</v>
+        <v>0.053369</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0394459</v>
+        <v>0.0395101</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0371674</v>
+        <v>0.0371272</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0644142</v>
+        <v>0.0643223</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0441812</v>
+        <v>0.0442565</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0414813</v>
+        <v>0.0414119</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07949390000000001</v>
+        <v>0.0793556</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0502242</v>
+        <v>0.0502503</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0493112</v>
+        <v>0.0492131</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101636</v>
+        <v>0.101684</v>
       </c>
       <c r="C36" t="n">
-        <v>0.061622</v>
+        <v>0.061629</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0585628</v>
+        <v>0.0594115</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.133043</v>
+        <v>0.133149</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0310321</v>
+        <v>0.0310507</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0293543</v>
+        <v>0.0293045</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0336263</v>
+        <v>0.0338169</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0314797</v>
+        <v>0.0315017</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0296922</v>
+        <v>0.0295862</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.034151</v>
+        <v>0.0343812</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0318347</v>
+        <v>0.0318989</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0301321</v>
+        <v>0.0300236</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0351192</v>
+        <v>0.0350745</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0322851</v>
+        <v>0.0323012</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0304605</v>
+        <v>0.0303629</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.036015</v>
+        <v>0.0359824</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0327607</v>
+        <v>0.032759</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0309037</v>
+        <v>0.0308299</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0370797</v>
+        <v>0.0370793</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0333011</v>
+        <v>0.0332993</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0314998</v>
+        <v>0.0314747</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0385636</v>
+        <v>0.03855</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0339541</v>
+        <v>0.0339784</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0321365</v>
+        <v>0.0321161</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0408044</v>
+        <v>0.0408077</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0347172</v>
+        <v>0.0347294</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0329936</v>
+        <v>0.0330156</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0439222</v>
+        <v>0.043899</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0358252</v>
+        <v>0.0358444</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0342244</v>
+        <v>0.034262</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0478916</v>
+        <v>0.0478629</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0373462</v>
+        <v>0.0373872</v>
       </c>
       <c r="D46" t="n">
-        <v>0.035977</v>
+        <v>0.0359775</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.053825</v>
+        <v>0.0537421</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0396789</v>
+        <v>0.0397259</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0386506</v>
+        <v>0.0386795</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0630154</v>
+        <v>0.06296880000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0437027</v>
+        <v>0.0437603</v>
       </c>
       <c r="D48" t="n">
-        <v>0.042848</v>
+        <v>0.0429654</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0765532</v>
+        <v>0.0765055</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0498777</v>
+        <v>0.0499469</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0488747</v>
+        <v>0.0491052</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0952967</v>
+        <v>0.0951434</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0592499</v>
+        <v>0.0592885</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0584007</v>
+        <v>0.0588529</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125449</v>
+        <v>0.125345</v>
       </c>
       <c r="C51" t="n">
-        <v>0.033633</v>
+        <v>0.0349094</v>
       </c>
       <c r="D51" t="n">
-        <v>0.032523</v>
+        <v>0.0305377</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173357</v>
+        <v>0.172319</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0334686</v>
+        <v>0.0347236</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0322664</v>
+        <v>0.0306067</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0357811</v>
+        <v>0.0362208</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0337076</v>
+        <v>0.0350104</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0327577</v>
+        <v>0.0312025</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0364718</v>
+        <v>0.0368542</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0341434</v>
+        <v>0.035387</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0331564</v>
+        <v>0.0316086</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0373408</v>
+        <v>0.0376942</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0344205</v>
+        <v>0.0358298</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0336055</v>
+        <v>0.0318661</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0383394</v>
+        <v>0.038698</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0352115</v>
+        <v>0.0363986</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0341244</v>
+        <v>0.0325294</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0397849</v>
+        <v>0.0401579</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0359084</v>
+        <v>0.0370141</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0348083</v>
+        <v>0.0333378</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0418579</v>
+        <v>0.0421736</v>
       </c>
       <c r="C58" t="n">
-        <v>0.036484</v>
+        <v>0.0379152</v>
       </c>
       <c r="D58" t="n">
-        <v>0.035665</v>
+        <v>0.0341881</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0445976</v>
+        <v>0.0449234</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0375715</v>
+        <v>0.0390041</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0365603</v>
+        <v>0.0354547</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0482476</v>
+        <v>0.0485701</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0390672</v>
+        <v>0.0404918</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0384948</v>
+        <v>0.0371747</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0535382</v>
+        <v>0.0537711</v>
       </c>
       <c r="C61" t="n">
-        <v>0.04133</v>
+        <v>0.0427154</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0404672</v>
+        <v>0.0394486</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0614001</v>
+        <v>0.0616002</v>
       </c>
       <c r="C62" t="n">
-        <v>0.044572</v>
+        <v>0.0459134</v>
       </c>
       <c r="D62" t="n">
-        <v>0.044236</v>
+        <v>0.0430077</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0734074</v>
+        <v>0.0735681</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0500375</v>
+        <v>0.0513732</v>
       </c>
       <c r="D63" t="n">
-        <v>0.049294</v>
+        <v>0.0482269</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0917076</v>
+        <v>0.0919099</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0585805</v>
+        <v>0.0598492</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0578705</v>
+        <v>0.0567662</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119731</v>
+        <v>0.11988</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0733087</v>
+        <v>0.0744225</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07174609999999999</v>
+        <v>0.07042900000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16264</v>
+        <v>0.162146</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0403415</v>
+        <v>0.0399304</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0360157</v>
+        <v>0.0363008</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0413397</v>
+        <v>0.0416134</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0407782</v>
+        <v>0.0403316</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0363825</v>
+        <v>0.0366467</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0420256</v>
+        <v>0.0422653</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0411442</v>
+        <v>0.0406949</v>
       </c>
       <c r="D68" t="n">
-        <v>0.036807</v>
+        <v>0.0369766</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0429819</v>
+        <v>0.0432075</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0415061</v>
+        <v>0.0410289</v>
       </c>
       <c r="D69" t="n">
-        <v>0.037256</v>
+        <v>0.0375047</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0440453</v>
+        <v>0.0442976</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0420378</v>
+        <v>0.0415899</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0377024</v>
+        <v>0.037983</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0453552</v>
+        <v>0.0456943</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0425716</v>
+        <v>0.0421241</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0383904</v>
+        <v>0.0386075</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0469845</v>
+        <v>0.0473777</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0433957</v>
+        <v>0.042899</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0391242</v>
+        <v>0.0394121</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0495422</v>
+        <v>0.0497435</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0443833</v>
+        <v>0.0438987</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0403635</v>
+        <v>0.0404627</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.053076</v>
+        <v>0.0531756</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0457341</v>
+        <v>0.0452546</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0419611</v>
+        <v>0.0421049</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0576594</v>
+        <v>0.0579349</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0478328</v>
+        <v>0.0473193</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0441814</v>
+        <v>0.0443783</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06480669999999999</v>
+        <v>0.0650471</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0508193</v>
+        <v>0.0502758</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0474142</v>
+        <v>0.0475787</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.075567</v>
+        <v>0.0759923</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0557222</v>
+        <v>0.0550648</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0516192</v>
+        <v>0.0522748</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0921256</v>
+        <v>0.0924894</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0630526</v>
+        <v>0.0622856</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0590149</v>
+        <v>0.0596609</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.117834</v>
+        <v>0.118533</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0755644</v>
+        <v>0.0750031</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0718731</v>
+        <v>0.0724308</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.15726</v>
+        <v>0.15785</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0445983</v>
+        <v>0.0449502</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0421272</v>
+        <v>0.0421934</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0472095</v>
+        <v>0.0475737</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0449543</v>
+        <v>0.0454704</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0425274</v>
+        <v>0.042634</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0483798</v>
+        <v>0.0492281</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0454674</v>
+        <v>0.046158</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0429632</v>
+        <v>0.0432594</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0499426</v>
+        <v>0.0509236</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0462135</v>
+        <v>0.0469414</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0437484</v>
+        <v>0.0439886</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0517193</v>
+        <v>0.0532747</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0469139</v>
+        <v>0.0480566</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0444527</v>
+        <v>0.0451706</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0541607</v>
+        <v>0.0557158</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0478343</v>
+        <v>0.0490763</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0454796</v>
+        <v>0.046257</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0578264</v>
+        <v>0.0587651</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0496283</v>
+        <v>0.0505821</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0472418</v>
+        <v>0.0477657</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0621132</v>
+        <v>0.0625603</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0516537</v>
+        <v>0.052411</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0493073</v>
+        <v>0.0498335</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0676822</v>
+        <v>0.0674003</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0544617</v>
+        <v>0.0547029</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0520808</v>
+        <v>0.0522669</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0740778</v>
+        <v>0.073708</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0576208</v>
+        <v>0.0576804</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0553948</v>
+        <v>0.0556634</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0830641</v>
+        <v>0.0829607</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0619682</v>
+        <v>0.0621716</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0596635</v>
+        <v>0.0600999</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0953232</v>
+        <v>0.0953041</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0680318</v>
+        <v>0.06833069999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06560530000000001</v>
+        <v>0.0663796</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111348</v>
+        <v>0.11156</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07675369999999999</v>
+        <v>0.0771838</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0738061</v>
+        <v>0.07531409999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.134617</v>
+        <v>0.134814</v>
       </c>
       <c r="C93" t="n">
-        <v>0.09008770000000001</v>
+        <v>0.0907403</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0867497</v>
+        <v>0.0882473</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168882</v>
+        <v>0.169192</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0547271</v>
+        <v>0.0536955</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0521018</v>
+        <v>0.0514459</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06571249999999999</v>
+        <v>0.0674394</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0552878</v>
+        <v>0.0556611</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0536576</v>
+        <v>0.0537511</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0687533</v>
+        <v>0.070173</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0568587</v>
+        <v>0.0577728</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0554433</v>
+        <v>0.0557122</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0721736</v>
+        <v>0.0728751</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0586748</v>
+        <v>0.0593321</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0569347</v>
+        <v>0.0571964</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0748535</v>
+        <v>0.0758916</v>
       </c>
       <c r="C98" t="n">
-        <v>0.060722</v>
+        <v>0.0620648</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0585367</v>
+        <v>0.0592911</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0783875</v>
+        <v>0.07882169999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0621524</v>
+        <v>0.0636955</v>
       </c>
       <c r="D99" t="n">
-        <v>0.060483</v>
+        <v>0.061053</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08112900000000001</v>
+        <v>0.0820439</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0650492</v>
+        <v>0.0654348</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0614177</v>
+        <v>0.06296060000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.086023</v>
+        <v>0.0859338</v>
       </c>
       <c r="C101" t="n">
-        <v>0.06687800000000001</v>
+        <v>0.0678383</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06506389999999999</v>
+        <v>0.0652469</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0892203</v>
+        <v>0.0903658</v>
       </c>
       <c r="C102" t="n">
-        <v>0.06920080000000001</v>
+        <v>0.0705257</v>
       </c>
       <c r="D102" t="n">
-        <v>0.066537</v>
+        <v>0.0661742</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0958389</v>
+        <v>0.0962879</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0736764</v>
+        <v>0.07356459999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.071064</v>
+        <v>0.0707713</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104727</v>
+        <v>0.104191</v>
       </c>
       <c r="C104" t="n">
-        <v>0.077431</v>
+        <v>0.0771695</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07493809999999999</v>
+        <v>0.07445350000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.116282</v>
+        <v>0.115445</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0820298</v>
+        <v>0.08153580000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0803021</v>
+        <v>0.0793488</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.13181</v>
+        <v>0.130785</v>
       </c>
       <c r="C106" t="n">
-        <v>0.09077250000000001</v>
+        <v>0.08935659999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.086782</v>
+        <v>0.08734169999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.153289</v>
+        <v>0.153008</v>
       </c>
       <c r="C107" t="n">
-        <v>0.103996</v>
+        <v>0.102102</v>
       </c>
       <c r="D107" t="n">
-        <v>0.09850100000000001</v>
+        <v>0.0997688</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.185085</v>
+        <v>0.185045</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0601765</v>
+        <v>0.0604958</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0594108</v>
+        <v>0.0593584</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.232303</v>
+        <v>0.231736</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0633209</v>
+        <v>0.06342100000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.060722</v>
+        <v>0.0607805</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0806052</v>
+        <v>0.080348</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0644908</v>
+        <v>0.0646801</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0620276</v>
+        <v>0.0621807</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0838593</v>
+        <v>0.08284030000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.06622699999999999</v>
+        <v>0.0660881</v>
       </c>
       <c r="D111" t="n">
-        <v>0.06346930000000001</v>
+        <v>0.0634942</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0855746</v>
+        <v>0.0871924</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0680378</v>
+        <v>0.06823079999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0651062</v>
+        <v>0.064771</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0911303</v>
+        <v>0.0910923</v>
       </c>
       <c r="C113" t="n">
-        <v>0.07031229999999999</v>
+        <v>0.0700644</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0672258</v>
+        <v>0.0672866</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0965781</v>
+        <v>0.0962011</v>
       </c>
       <c r="C114" t="n">
-        <v>0.07239619999999999</v>
+        <v>0.0722636</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0692366</v>
+        <v>0.06945220000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101637</v>
+        <v>0.101691</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0733837</v>
+        <v>0.0757105</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07249120000000001</v>
+        <v>0.07282420000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.10798</v>
+        <v>0.107805</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0772542</v>
+        <v>0.0794873</v>
       </c>
       <c r="D116" t="n">
-        <v>0.07627150000000001</v>
+        <v>0.0762948</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114729</v>
+        <v>0.114645</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0817399</v>
+        <v>0.0842161</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0809125</v>
+        <v>0.0811882</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121621</v>
+        <v>0.123007</v>
       </c>
       <c r="C118" t="n">
-        <v>0.08992749999999999</v>
+        <v>0.0868574</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0859391</v>
+        <v>0.0863878</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133647</v>
+        <v>0.13367</v>
       </c>
       <c r="C119" t="n">
-        <v>0.09429120000000001</v>
+        <v>0.0968154</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0927791</v>
+        <v>0.0931462</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.14574</v>
+        <v>0.14579</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105221</v>
+        <v>0.105412</v>
       </c>
       <c r="D120" t="n">
-        <v>0.10111</v>
+        <v>0.101014</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165816</v>
+        <v>0.164181</v>
       </c>
       <c r="C121" t="n">
-        <v>0.117633</v>
+        <v>0.117581</v>
       </c>
       <c r="D121" t="n">
-        <v>0.112329</v>
+        <v>0.112245</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.191201</v>
+        <v>0.191204</v>
       </c>
       <c r="C122" t="n">
-        <v>0.132816</v>
+        <v>0.136258</v>
       </c>
       <c r="D122" t="n">
-        <v>0.129849</v>
+        <v>0.12972</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.234897</v>
+        <v>0.232406</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0819409</v>
+        <v>0.08127860000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.08353049999999999</v>
+        <v>0.09203939999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.10316</v>
+        <v>0.100954</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0834334</v>
+        <v>0.0843788</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0843555</v>
+        <v>0.089713</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.108891</v>
+        <v>0.105226</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0836832</v>
+        <v>0.0852976</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0885719</v>
+        <v>0.0942316</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.10783</v>
+        <v>0.107375</v>
       </c>
       <c r="C126" t="n">
-        <v>0.08762590000000001</v>
+        <v>0.09380910000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0902549</v>
+        <v>0.0935899</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111816</v>
+        <v>0.108953</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0901</v>
+        <v>0.0939292</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0904669</v>
+        <v>0.0995171</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115885</v>
+        <v>0.113269</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0936149</v>
+        <v>0.09316480000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0937765</v>
+        <v>0.0983303</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118321</v>
+        <v>0.116822</v>
       </c>
       <c r="C129" t="n">
-        <v>0.09570629999999999</v>
+        <v>0.0957515</v>
       </c>
       <c r="D129" t="n">
-        <v>0.09348239999999999</v>
+        <v>0.101271</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120922</v>
+        <v>0.120253</v>
       </c>
       <c r="C130" t="n">
-        <v>0.09783699999999999</v>
+        <v>0.09623719999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.09608709999999999</v>
+        <v>0.102484</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.128075</v>
+        <v>0.127359</v>
       </c>
       <c r="C131" t="n">
-        <v>0.103557</v>
+        <v>0.09993630000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0995084</v>
+        <v>0.107158</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.135431</v>
+        <v>0.133842</v>
       </c>
       <c r="C132" t="n">
-        <v>0.105583</v>
+        <v>0.10748</v>
       </c>
       <c r="D132" t="n">
-        <v>0.105994</v>
+        <v>0.109672</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.140062</v>
+        <v>0.141954</v>
       </c>
       <c r="C133" t="n">
-        <v>0.110605</v>
+        <v>0.110078</v>
       </c>
       <c r="D133" t="n">
-        <v>0.107623</v>
+        <v>0.114246</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155602</v>
+        <v>0.154543</v>
       </c>
       <c r="C134" t="n">
-        <v>0.117055</v>
+        <v>0.116596</v>
       </c>
       <c r="D134" t="n">
-        <v>0.116459</v>
+        <v>0.120798</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171691</v>
+        <v>0.171333</v>
       </c>
       <c r="C135" t="n">
-        <v>0.127403</v>
+        <v>0.127581</v>
       </c>
       <c r="D135" t="n">
-        <v>0.124658</v>
+        <v>0.132063</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.196128</v>
+        <v>0.195139</v>
       </c>
       <c r="C136" t="n">
-        <v>0.141037</v>
+        <v>0.145572</v>
       </c>
       <c r="D136" t="n">
-        <v>0.139987</v>
+        <v>0.143157</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236636</v>
+        <v>0.236869</v>
       </c>
       <c r="C137" t="n">
-        <v>0.15837</v>
+        <v>0.164565</v>
       </c>
       <c r="D137" t="n">
-        <v>0.158781</v>
+        <v>0.157571</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.171274</v>
+        <v>0.164202</v>
       </c>
       <c r="C138" t="n">
-        <v>0.16666</v>
+        <v>0.16503</v>
       </c>
       <c r="D138" t="n">
-        <v>0.160394</v>
+        <v>0.157881</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.163499</v>
+        <v>0.169441</v>
       </c>
       <c r="C139" t="n">
-        <v>0.168899</v>
+        <v>0.164178</v>
       </c>
       <c r="D139" t="n">
-        <v>0.161439</v>
+        <v>0.159539</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.17367</v>
+        <v>0.176334</v>
       </c>
       <c r="C140" t="n">
-        <v>0.162752</v>
+        <v>0.167404</v>
       </c>
       <c r="D140" t="n">
-        <v>0.16471</v>
+        <v>0.161441</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.174838</v>
+        <v>0.17665</v>
       </c>
       <c r="C141" t="n">
-        <v>0.162381</v>
+        <v>0.161737</v>
       </c>
       <c r="D141" t="n">
-        <v>0.165764</v>
+        <v>0.162854</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.17972</v>
+        <v>0.176794</v>
       </c>
       <c r="C142" t="n">
-        <v>0.171496</v>
+        <v>0.16425</v>
       </c>
       <c r="D142" t="n">
-        <v>0.167195</v>
+        <v>0.164221</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.18192</v>
+        <v>0.17989</v>
       </c>
       <c r="C143" t="n">
-        <v>0.175938</v>
+        <v>0.174186</v>
       </c>
       <c r="D143" t="n">
-        <v>0.169761</v>
+        <v>0.16653</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.032354</v>
+        <v>0.033363</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0326439</v>
+        <v>0.0328525</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0310602</v>
+        <v>0.120698</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0330843</v>
+        <v>0.0351808</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0336087</v>
+        <v>0.0346413</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0318971</v>
+        <v>0.132797</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0350837</v>
+        <v>0.0373362</v>
       </c>
       <c r="C4" t="n">
-        <v>0.035107</v>
+        <v>0.034751</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0328036</v>
+        <v>0.142555</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0400941</v>
+        <v>0.0413158</v>
       </c>
       <c r="C5" t="n">
-        <v>0.036977</v>
+        <v>0.0365173</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0338894</v>
+        <v>0.147601</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0508345</v>
+        <v>0.0515986</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0397641</v>
+        <v>0.0386416</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0365853</v>
+        <v>0.154509</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07482080000000001</v>
+        <v>0.0748717</v>
       </c>
       <c r="C7" t="n">
-        <v>0.046915</v>
+        <v>0.045053</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0427306</v>
+        <v>0.0976486</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.110831</v>
+        <v>0.11326</v>
       </c>
       <c r="C8" t="n">
-        <v>0.063689</v>
+        <v>0.0623914</v>
       </c>
       <c r="D8" t="n">
-        <v>0.057164</v>
+        <v>0.104718</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.156481</v>
+        <v>0.153068</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0297105</v>
+        <v>0.0296852</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0288854</v>
+        <v>0.111508</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0310769</v>
+        <v>0.0309958</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0299886</v>
+        <v>0.0298097</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0290449</v>
+        <v>0.118003</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.031578</v>
+        <v>0.0319915</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0302417</v>
+        <v>0.0301445</v>
       </c>
       <c r="D11" t="n">
-        <v>0.029268</v>
+        <v>0.123044</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0319403</v>
+        <v>0.0322929</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0305678</v>
+        <v>0.0305603</v>
       </c>
       <c r="D12" t="n">
-        <v>0.029409</v>
+        <v>0.128917</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0325077</v>
+        <v>0.0330886</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0309635</v>
+        <v>0.0309581</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0298169</v>
+        <v>0.133187</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0330335</v>
+        <v>0.0338479</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0312512</v>
+        <v>0.0312245</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0302998</v>
+        <v>0.137871</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0335377</v>
+        <v>0.0350822</v>
       </c>
       <c r="C15" t="n">
-        <v>0.032052</v>
+        <v>0.031988</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0308983</v>
+        <v>0.142917</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0347355</v>
+        <v>0.0368551</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0327123</v>
+        <v>0.0326512</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0316669</v>
+        <v>0.147043</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0370111</v>
+        <v>0.0390836</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0336698</v>
+        <v>0.0335989</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0325147</v>
+        <v>0.151064</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0408501</v>
+        <v>0.042694</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0351122</v>
+        <v>0.0347453</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0337939</v>
+        <v>0.155427</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0503242</v>
+        <v>0.0507429</v>
       </c>
       <c r="C19" t="n">
-        <v>0.037063</v>
+        <v>0.0369437</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0354701</v>
+        <v>0.159304</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0620652</v>
+        <v>0.061648</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0408185</v>
+        <v>0.0403979</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0391974</v>
+        <v>0.163853</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08278439999999999</v>
+        <v>0.07689120000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0485513</v>
+        <v>0.0481841</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0481181</v>
+        <v>0.113934</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.107886</v>
+        <v>0.103488</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0637812</v>
+        <v>0.0649219</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0623556</v>
+        <v>0.119279</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1497</v>
+        <v>0.140561</v>
       </c>
       <c r="C23" t="n">
-        <v>0.030289</v>
+        <v>0.0302433</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0290554</v>
+        <v>0.124229</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0322127</v>
+        <v>0.0334156</v>
       </c>
       <c r="C24" t="n">
-        <v>0.030639</v>
+        <v>0.0305427</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0293644</v>
+        <v>0.129383</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0328581</v>
+        <v>0.0337499</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0311266</v>
+        <v>0.030929</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0297348</v>
+        <v>0.133899</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.033663</v>
+        <v>0.0346353</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0314062</v>
+        <v>0.0312723</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02999</v>
+        <v>0.138349</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343893</v>
+        <v>0.0353819</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0318372</v>
+        <v>0.0315769</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0304983</v>
+        <v>0.143115</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0354731</v>
+        <v>0.0363532</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0323949</v>
+        <v>0.0323042</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0310966</v>
+        <v>0.147308</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0363921</v>
+        <v>0.0376891</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0331752</v>
+        <v>0.0331483</v>
       </c>
       <c r="D29" t="n">
-        <v>0.031645</v>
+        <v>0.152247</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0383476</v>
+        <v>0.0396597</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0340177</v>
+        <v>0.0339773</v>
       </c>
       <c r="D30" t="n">
-        <v>0.032355</v>
+        <v>0.156851</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0412692</v>
+        <v>0.042868</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0352314</v>
+        <v>0.0351507</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0334044</v>
+        <v>0.160868</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0459348</v>
+        <v>0.0471597</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0367391</v>
+        <v>0.036604</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0349368</v>
+        <v>0.165274</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.053369</v>
+        <v>0.0541409</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0395101</v>
+        <v>0.0392645</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0371272</v>
+        <v>0.170146</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0643223</v>
+        <v>0.063386</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0442565</v>
+        <v>0.0442581</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0414119</v>
+        <v>0.174156</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0793556</v>
+        <v>0.0777109</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0502503</v>
+        <v>0.0505089</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0492131</v>
+        <v>0.120492</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101684</v>
+        <v>0.0981461</v>
       </c>
       <c r="C36" t="n">
-        <v>0.061629</v>
+        <v>0.0620605</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0594115</v>
+        <v>0.125126</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.133149</v>
+        <v>0.130601</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0310507</v>
+        <v>0.0311716</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0293045</v>
+        <v>0.129643</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0338169</v>
+        <v>0.0337999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0315017</v>
+        <v>0.0316583</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0295862</v>
+        <v>0.134723</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0343812</v>
+        <v>0.0344508</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0318989</v>
+        <v>0.0320486</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0300236</v>
+        <v>0.139437</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0350745</v>
+        <v>0.0351488</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0323012</v>
+        <v>0.0327186</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0303629</v>
+        <v>0.143786</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0359824</v>
+        <v>0.0358768</v>
       </c>
       <c r="C41" t="n">
-        <v>0.032759</v>
+        <v>0.0328306</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0308299</v>
+        <v>0.148247</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0370793</v>
+        <v>0.0374417</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0332993</v>
+        <v>0.0333955</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0314747</v>
+        <v>0.153009</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03855</v>
+        <v>0.0383135</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0339784</v>
+        <v>0.034132</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0321161</v>
+        <v>0.157659</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0408077</v>
+        <v>0.0404496</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0347294</v>
+        <v>0.0348625</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0330156</v>
+        <v>0.161863</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.043899</v>
+        <v>0.0430504</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0358444</v>
+        <v>0.035917</v>
       </c>
       <c r="D45" t="n">
-        <v>0.034262</v>
+        <v>0.166038</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0478629</v>
+        <v>0.0469971</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0373872</v>
+        <v>0.0374144</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0359775</v>
+        <v>0.170487</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0537421</v>
+        <v>0.0531391</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0397259</v>
+        <v>0.0397659</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0386795</v>
+        <v>0.174787</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06296880000000001</v>
+        <v>0.0608928</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0437603</v>
+        <v>0.0443795</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0429654</v>
+        <v>0.179293</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0765055</v>
+        <v>0.07381890000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0499469</v>
+        <v>0.0503039</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0491052</v>
+        <v>0.184004</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0951434</v>
+        <v>0.09234589999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0592885</v>
+        <v>0.0596132</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0588529</v>
+        <v>0.126499</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125345</v>
+        <v>0.12368</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0349094</v>
+        <v>0.0341462</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0305377</v>
+        <v>0.13114</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.172319</v>
+        <v>0.168448</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0347236</v>
+        <v>0.0348455</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0306067</v>
+        <v>0.135783</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0362208</v>
+        <v>0.0362593</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0350104</v>
+        <v>0.0343309</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0312025</v>
+        <v>0.140861</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0368542</v>
+        <v>0.0369272</v>
       </c>
       <c r="C54" t="n">
-        <v>0.035387</v>
+        <v>0.035879</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0316086</v>
+        <v>0.14578</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0376942</v>
+        <v>0.0378504</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0358298</v>
+        <v>0.0351739</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0318661</v>
+        <v>0.150503</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.038698</v>
+        <v>0.0384271</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0363986</v>
+        <v>0.035759</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0325294</v>
+        <v>0.155227</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0401579</v>
+        <v>0.0401797</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0370141</v>
+        <v>0.0368392</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0333378</v>
+        <v>0.159587</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0421736</v>
+        <v>0.0417505</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0379152</v>
+        <v>0.0371906</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0341881</v>
+        <v>0.164312</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0449234</v>
+        <v>0.0443035</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0390041</v>
+        <v>0.0381056</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0354547</v>
+        <v>0.16855</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0485701</v>
+        <v>0.0479401</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0404918</v>
+        <v>0.0404034</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0371747</v>
+        <v>0.173335</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0537711</v>
+        <v>0.0525699</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0427154</v>
+        <v>0.0428628</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0394486</v>
+        <v>0.177702</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0616002</v>
+        <v>0.0615826</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0459134</v>
+        <v>0.045281</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0430077</v>
+        <v>0.182812</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0735681</v>
+        <v>0.072404</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0513732</v>
+        <v>0.0512879</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0482269</v>
+        <v>0.187694</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0919099</v>
+        <v>0.08911769999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0598492</v>
+        <v>0.0591517</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0567662</v>
+        <v>0.134221</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.11988</v>
+        <v>0.117427</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0744225</v>
+        <v>0.0734865</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07042900000000001</v>
+        <v>0.142537</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.162146</v>
+        <v>0.158958</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0399304</v>
+        <v>0.0397878</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0363008</v>
+        <v>0.151296</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0416134</v>
+        <v>0.0412153</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0403316</v>
+        <v>0.0406499</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0366467</v>
+        <v>0.158098</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0422653</v>
+        <v>0.0417992</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0406949</v>
+        <v>0.0402802</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0369766</v>
+        <v>0.166301</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0432075</v>
+        <v>0.0429005</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0410289</v>
+        <v>0.0403401</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0375047</v>
+        <v>0.175076</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0442976</v>
+        <v>0.0439797</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0415899</v>
+        <v>0.0409026</v>
       </c>
       <c r="D70" t="n">
-        <v>0.037983</v>
+        <v>0.185651</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0456943</v>
+        <v>0.0449505</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0421241</v>
+        <v>0.0416222</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0386075</v>
+        <v>0.195137</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0473777</v>
+        <v>0.0467198</v>
       </c>
       <c r="C72" t="n">
-        <v>0.042899</v>
+        <v>0.0428437</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0394121</v>
+        <v>0.206022</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0497435</v>
+        <v>0.0490815</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0438987</v>
+        <v>0.0439002</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0404627</v>
+        <v>0.217502</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0531756</v>
+        <v>0.0524893</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0452546</v>
+        <v>0.0453362</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0421049</v>
+        <v>0.230141</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0579349</v>
+        <v>0.0576712</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0473193</v>
+        <v>0.0476717</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0443783</v>
+        <v>0.241784</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0650471</v>
+        <v>0.0652167</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0502758</v>
+        <v>0.0509468</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0475787</v>
+        <v>0.255438</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0759923</v>
+        <v>0.07564</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0550648</v>
+        <v>0.0554912</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0522748</v>
+        <v>0.268639</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0924894</v>
+        <v>0.0906081</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0622856</v>
+        <v>0.0625589</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0596609</v>
+        <v>0.219411</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.118533</v>
+        <v>0.116109</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0750031</v>
+        <v>0.0758186</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0724308</v>
+        <v>0.232417</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.15785</v>
+        <v>0.154123</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0449502</v>
+        <v>0.0447469</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0421934</v>
+        <v>0.245432</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0475737</v>
+        <v>0.0475561</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0454704</v>
+        <v>0.04499</v>
       </c>
       <c r="D81" t="n">
-        <v>0.042634</v>
+        <v>0.259249</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0492281</v>
+        <v>0.0486174</v>
       </c>
       <c r="C82" t="n">
-        <v>0.046158</v>
+        <v>0.0457512</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0432594</v>
+        <v>0.270851</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0509236</v>
+        <v>0.0498398</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0469414</v>
+        <v>0.0464668</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0439886</v>
+        <v>0.284383</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0532747</v>
+        <v>0.0518805</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0480566</v>
+        <v>0.0468991</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0451706</v>
+        <v>0.298349</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0557158</v>
+        <v>0.0544441</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0490763</v>
+        <v>0.048007</v>
       </c>
       <c r="D85" t="n">
-        <v>0.046257</v>
+        <v>0.313441</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0587651</v>
+        <v>0.0578208</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0505821</v>
+        <v>0.0496322</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0477657</v>
+        <v>0.328763</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0625603</v>
+        <v>0.0616923</v>
       </c>
       <c r="C87" t="n">
-        <v>0.052411</v>
+        <v>0.051122</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0498335</v>
+        <v>0.344394</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0674003</v>
+        <v>0.067472</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0547029</v>
+        <v>0.0541282</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0522669</v>
+        <v>0.360475</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.073708</v>
+        <v>0.0741231</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0576804</v>
+        <v>0.0571756</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0556634</v>
+        <v>0.378219</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0829607</v>
+        <v>0.0832536</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0621716</v>
+        <v>0.061953</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0600999</v>
+        <v>0.395886</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0953041</v>
+        <v>0.0944021</v>
       </c>
       <c r="C91" t="n">
-        <v>0.06833069999999999</v>
+        <v>0.0683699</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0663796</v>
+        <v>0.413073</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.11156</v>
+        <v>0.111324</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0771838</v>
+        <v>0.0779557</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07531409999999999</v>
+        <v>0.334056</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.134814</v>
+        <v>0.134077</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0907403</v>
+        <v>0.0913229</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0882473</v>
+        <v>0.345114</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.169192</v>
+        <v>0.167363</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0536955</v>
+        <v>0.0550466</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0514459</v>
+        <v>0.356697</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0674394</v>
+        <v>0.0673401</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0556611</v>
+        <v>0.0559768</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0537511</v>
+        <v>0.368718</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.070173</v>
+        <v>0.0703783</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0577728</v>
+        <v>0.0585391</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0557122</v>
+        <v>0.38085</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0728751</v>
+        <v>0.0731726</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0593321</v>
+        <v>0.0601354</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0571964</v>
+        <v>0.393755</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0758916</v>
+        <v>0.0751478</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0620648</v>
+        <v>0.061681</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0592911</v>
+        <v>0.406931</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07882169999999999</v>
+        <v>0.0784697</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0636955</v>
+        <v>0.0632635</v>
       </c>
       <c r="D99" t="n">
-        <v>0.061053</v>
+        <v>0.420833</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0820439</v>
+        <v>0.0827846</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0654348</v>
+        <v>0.0654781</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06296060000000001</v>
+        <v>0.434792</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0859338</v>
+        <v>0.08616459999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0678383</v>
+        <v>0.0675236</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0652469</v>
+        <v>0.449654</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0903658</v>
+        <v>0.09087729999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0705257</v>
+        <v>0.0707589</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0661742</v>
+        <v>0.465543</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0962879</v>
+        <v>0.0974945</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07356459999999999</v>
+        <v>0.0740986</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0707713</v>
+        <v>0.482258</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104191</v>
+        <v>0.105522</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0771695</v>
+        <v>0.07820240000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07445350000000001</v>
+        <v>0.49936</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115445</v>
+        <v>0.116619</v>
       </c>
       <c r="C105" t="n">
-        <v>0.08153580000000001</v>
+        <v>0.0840323</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0793488</v>
+        <v>0.517398</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.130785</v>
+        <v>0.131917</v>
       </c>
       <c r="C106" t="n">
-        <v>0.08935659999999999</v>
+        <v>0.0916886</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08734169999999999</v>
+        <v>0.534973</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.153008</v>
+        <v>0.153471</v>
       </c>
       <c r="C107" t="n">
-        <v>0.102102</v>
+        <v>0.105056</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0997688</v>
+        <v>0.405494</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.185045</v>
+        <v>0.184085</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0604958</v>
+        <v>0.06266960000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0593584</v>
+        <v>0.416119</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231736</v>
+        <v>0.230318</v>
       </c>
       <c r="C109" t="n">
-        <v>0.06342100000000001</v>
+        <v>0.0639327</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0607805</v>
+        <v>0.427318</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.080348</v>
+        <v>0.08111260000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0646801</v>
+        <v>0.0630536</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0621807</v>
+        <v>0.438775</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08284030000000001</v>
+        <v>0.0848391</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0660881</v>
+        <v>0.06704649999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0634942</v>
+        <v>0.450408</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0871924</v>
+        <v>0.0883331</v>
       </c>
       <c r="C112" t="n">
-        <v>0.06823079999999999</v>
+        <v>0.0677611</v>
       </c>
       <c r="D112" t="n">
-        <v>0.064771</v>
+        <v>0.462932</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0910923</v>
+        <v>0.0921848</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0700644</v>
+        <v>0.0707941</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0672866</v>
+        <v>0.475925</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0962011</v>
+        <v>0.09665459999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0722636</v>
+        <v>0.07274029999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.06945220000000001</v>
+        <v>0.489141</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101691</v>
+        <v>0.102092</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0757105</v>
+        <v>0.07408339999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07282420000000001</v>
+        <v>0.503764</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107805</v>
+        <v>0.106615</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0794873</v>
+        <v>0.0798956</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0762948</v>
+        <v>0.5189589999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114645</v>
+        <v>0.114927</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0842161</v>
+        <v>0.08450489999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0811882</v>
+        <v>0.534896</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123007</v>
+        <v>0.12313</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0868574</v>
+        <v>0.08989800000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0863878</v>
+        <v>0.5516219999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.13367</v>
+        <v>0.133226</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0968154</v>
+        <v>0.0967382</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0931462</v>
+        <v>0.565311</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.14579</v>
+        <v>0.146725</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105412</v>
+        <v>0.102932</v>
       </c>
       <c r="D120" t="n">
-        <v>0.101014</v>
+        <v>0.583861</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.164181</v>
+        <v>0.165041</v>
       </c>
       <c r="C121" t="n">
-        <v>0.117581</v>
+        <v>0.117621</v>
       </c>
       <c r="D121" t="n">
-        <v>0.112245</v>
+        <v>0.436557</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.191204</v>
+        <v>0.192449</v>
       </c>
       <c r="C122" t="n">
-        <v>0.136258</v>
+        <v>0.13571</v>
       </c>
       <c r="D122" t="n">
-        <v>0.12972</v>
+        <v>0.447373</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232406</v>
+        <v>0.233872</v>
       </c>
       <c r="C123" t="n">
-        <v>0.08127860000000001</v>
+        <v>0.085509</v>
       </c>
       <c r="D123" t="n">
-        <v>0.09203939999999999</v>
+        <v>0.454779</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.100954</v>
+        <v>0.107422</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0843788</v>
+        <v>0.0856253</v>
       </c>
       <c r="D124" t="n">
-        <v>0.089713</v>
+        <v>0.469508</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105226</v>
+        <v>0.113212</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0852976</v>
+        <v>0.09204560000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0942316</v>
+        <v>0.477949</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107375</v>
+        <v>0.114976</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09380910000000001</v>
+        <v>0.0977859</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0935899</v>
+        <v>0.493407</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.108953</v>
+        <v>0.11177</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0939292</v>
+        <v>0.0893741</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0995171</v>
+        <v>0.5066040000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113269</v>
+        <v>0.12311</v>
       </c>
       <c r="C128" t="n">
-        <v>0.09316480000000001</v>
+        <v>0.0930131</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0983303</v>
+        <v>0.519852</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116822</v>
+        <v>0.117351</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0957515</v>
+        <v>0.09603780000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.101271</v>
+        <v>0.531409</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120253</v>
+        <v>0.123942</v>
       </c>
       <c r="C130" t="n">
-        <v>0.09623719999999999</v>
+        <v>0.105994</v>
       </c>
       <c r="D130" t="n">
-        <v>0.102484</v>
+        <v>0.549831</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127359</v>
+        <v>0.125889</v>
       </c>
       <c r="C131" t="n">
-        <v>0.09993630000000001</v>
+        <v>0.10046</v>
       </c>
       <c r="D131" t="n">
-        <v>0.107158</v>
+        <v>0.565852</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133842</v>
+        <v>0.132181</v>
       </c>
       <c r="C132" t="n">
-        <v>0.10748</v>
+        <v>0.09928770000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.109672</v>
+        <v>0.579125</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141954</v>
+        <v>0.141377</v>
       </c>
       <c r="C133" t="n">
-        <v>0.110078</v>
+        <v>0.111497</v>
       </c>
       <c r="D133" t="n">
-        <v>0.114246</v>
+        <v>0.6007749999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154543</v>
+        <v>0.156271</v>
       </c>
       <c r="C134" t="n">
-        <v>0.116596</v>
+        <v>0.118538</v>
       </c>
       <c r="D134" t="n">
-        <v>0.120798</v>
+        <v>0.618826</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171333</v>
+        <v>0.167043</v>
       </c>
       <c r="C135" t="n">
-        <v>0.127581</v>
+        <v>0.122058</v>
       </c>
       <c r="D135" t="n">
-        <v>0.132063</v>
+        <v>0.454666</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.195139</v>
+        <v>0.195758</v>
       </c>
       <c r="C136" t="n">
-        <v>0.145572</v>
+        <v>0.145192</v>
       </c>
       <c r="D136" t="n">
-        <v>0.143157</v>
+        <v>0.465092</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236869</v>
+        <v>0.237336</v>
       </c>
       <c r="C137" t="n">
-        <v>0.164565</v>
+        <v>0.156236</v>
       </c>
       <c r="D137" t="n">
-        <v>0.157571</v>
+        <v>0.476587</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.164202</v>
+        <v>0.162457</v>
       </c>
       <c r="C138" t="n">
-        <v>0.16503</v>
+        <v>0.167822</v>
       </c>
       <c r="D138" t="n">
-        <v>0.157881</v>
+        <v>0.487921</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169441</v>
+        <v>0.170749</v>
       </c>
       <c r="C139" t="n">
-        <v>0.164178</v>
+        <v>0.16942</v>
       </c>
       <c r="D139" t="n">
-        <v>0.159539</v>
+        <v>0.499785</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.176334</v>
+        <v>0.175192</v>
       </c>
       <c r="C140" t="n">
-        <v>0.167404</v>
+        <v>0.169169</v>
       </c>
       <c r="D140" t="n">
-        <v>0.161441</v>
+        <v>0.510707</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.17665</v>
+        <v>0.175366</v>
       </c>
       <c r="C141" t="n">
-        <v>0.161737</v>
+        <v>0.172827</v>
       </c>
       <c r="D141" t="n">
-        <v>0.162854</v>
+        <v>0.525244</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.176794</v>
+        <v>0.177172</v>
       </c>
       <c r="C142" t="n">
-        <v>0.16425</v>
+        <v>0.169679</v>
       </c>
       <c r="D142" t="n">
-        <v>0.164221</v>
+        <v>0.538394</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.17989</v>
+        <v>0.170537</v>
       </c>
       <c r="C143" t="n">
-        <v>0.174186</v>
+        <v>0.166111</v>
       </c>
       <c r="D143" t="n">
-        <v>0.16653</v>
+        <v>0.552801</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.020381</v>
+                  <v>0.0196541</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0231567</v>
+                  <v>0.022714</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0281757</v>
+                  <v>0.0280732</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0352799</v>
+                  <v>0.0383508</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.04539</v>
+                  <v>0.052548</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.06491429999999999</v>
+                  <v>0.066875</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0891632</v>
+                  <v>0.0901585</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.112722</v>
+                  <v>0.118385</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.017053</v>
+                  <v>0.0166794</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0176131</v>
+                  <v>0.017095</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.018294</v>
+                  <v>0.0175332</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.019009</v>
+                  <v>0.0179948</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0202027</v>
+                  <v>0.0186281</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0216873</v>
+                  <v>0.0208214</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0238871</v>
+                  <v>0.0229571</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0283309</v>
+                  <v>0.0261478</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0347629</v>
+                  <v>0.0314248</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0427405</v>
+                  <v>0.0425587</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0557526</v>
+                  <v>0.0519527</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0731723</v>
+                  <v>0.07000199999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0958377</v>
+                  <v>0.0890392</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.12115</v>
+                  <v>0.119166</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0167999</v>
+                  <v>0.0162997</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017383</v>
+                  <v>0.0169862</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0183382</v>
+                  <v>0.0176941</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0193988</v>
+                  <v>0.0184008</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0205537</v>
+                  <v>0.0198508</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226966</v>
+                  <v>0.0220004</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0250047</v>
+                  <v>0.0252038</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0309238</v>
+                  <v>0.029776</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0361738</v>
+                  <v>0.0355674</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0455675</v>
+                  <v>0.0445372</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0564017</v>
+                  <v>0.0557284</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0722527</v>
+                  <v>0.0722409</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09413820000000001</v>
+                  <v>0.0937438</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.118638</v>
+                  <v>0.120898</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0174142</v>
+                  <v>0.017101</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0181997</v>
+                  <v>0.0179106</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0191908</v>
+                  <v>0.0187733</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0204403</v>
+                  <v>0.0201048</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.021836</v>
+                  <v>0.0218759</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0239224</v>
+                  <v>0.0240552</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0276839</v>
+                  <v>0.0282097</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0315092</v>
+                  <v>0.0323602</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0372217</v>
+                  <v>0.0379086</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0454352</v>
+                  <v>0.045608</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0550601</v>
+                  <v>0.056116</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0703042</v>
+                  <v>0.0707222</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0905224</v>
+                  <v>0.0919893</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.115437</v>
+                  <v>0.118674</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.1408</v>
+                  <v>0.145772</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0192387</v>
+                  <v>0.0196284</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0204627</v>
+                  <v>0.0208398</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0220737</v>
+                  <v>0.0223922</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0239349</v>
+                  <v>0.0244506</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0262923</v>
+                  <v>0.026822</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0297657</v>
+                  <v>0.0309899</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0341001</v>
+                  <v>0.0354207</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0395028</v>
+                  <v>0.0417881</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0465838</v>
+                  <v>0.0476276</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0559668</v>
+                  <v>0.0572692</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0699388</v>
+                  <v>0.0716026</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0889996</v>
+                  <v>0.0905608</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114856</v>
+                  <v>0.116785</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.145398</v>
+                  <v>0.147933</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0196969</v>
+                  <v>0.0197012</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.02093</v>
+                  <v>0.0211376</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0224969</v>
+                  <v>0.0228213</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0245783</v>
+                  <v>0.0247479</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.027095</v>
+                  <v>0.0274354</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0303959</v>
+                  <v>0.0306606</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0348732</v>
+                  <v>0.0349113</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401107</v>
+                  <v>0.0401967</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0469689</v>
+                  <v>0.0468474</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.056182</v>
+                  <v>0.0560401</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0692083</v>
+                  <v>0.0688926</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0876976</v>
+                  <v>0.0873152</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112624</v>
+                  <v>0.112319</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.143056</v>
+                  <v>0.143939</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0203051</v>
+                  <v>0.0198688</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0214311</v>
+                  <v>0.0212272</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0227951</v>
+                  <v>0.0227931</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248606</v>
+                  <v>0.0248234</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274961</v>
+                  <v>0.0274348</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0304265</v>
+                  <v>0.0304566</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.034491</v>
+                  <v>0.03421</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0392189</v>
+                  <v>0.0392722</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454425</v>
+                  <v>0.0457853</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.054124</v>
+                  <v>0.0543613</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0660497</v>
+                  <v>0.0667861</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0833161</v>
+                  <v>0.0837842</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.107117</v>
+                  <v>0.107021</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.137068</v>
+                  <v>0.138367</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0205917</v>
+                  <v>0.0206107</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0217319</v>
+                  <v>0.021977</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0234086</v>
+                  <v>0.0236946</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0249196</v>
+                  <v>0.0252601</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0271441</v>
+                  <v>0.0278301</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0301186</v>
+                  <v>0.0304313</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034225</v>
+                  <v>0.0347894</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0395874</v>
+                  <v>0.0397493</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.046425</v>
+                  <v>0.0462983</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0547381</v>
+                  <v>0.0543709</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0655719</v>
+                  <v>0.0656243</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0810201</v>
+                  <v>0.0814584</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.103131</v>
+                  <v>0.103239</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.132455</v>
+                  <v>0.133268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167936</v>
+                  <v>0.169441</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0314641</v>
+                  <v>0.0309188</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0327748</v>
+                  <v>0.0323647</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0344387</v>
+                  <v>0.034075</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0359115</v>
+                  <v>0.0358327</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0384212</v>
+                  <v>0.0383382</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0411013</v>
+                  <v>0.0406737</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0443196</v>
+                  <v>0.0441246</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0490798</v>
+                  <v>0.048723</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0556472</v>
+                  <v>0.0551746</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0652692</v>
+                  <v>0.0650047</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.080124</v>
+                  <v>0.07941529999999999</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.100594</v>
+                  <v>0.100142</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128412</v>
+                  <v>0.128345</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163387</v>
+                  <v>0.16426</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0342733</v>
+                  <v>0.0340693</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0354023</v>
+                  <v>0.035891</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0369613</v>
+                  <v>0.0369158</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0386997</v>
+                  <v>0.0387195</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0406429</v>
+                  <v>0.0407176</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0434292</v>
+                  <v>0.0435753</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0467513</v>
+                  <v>0.0474413</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0511822</v>
+                  <v>0.0518101</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0585649</v>
+                  <v>0.0586713</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0673728</v>
+                  <v>0.06794360000000001</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.08104450000000001</v>
+                  <v>0.0817268</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101034</v>
+                  <v>0.101445</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.128826</v>
+                  <v>0.129425</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.16274</v>
+                  <v>0.163873</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0471946</v>
+                  <v>0.0473433</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0480173</v>
+                  <v>0.0531312</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491618</v>
+                  <v>0.058706</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0504992</v>
+                  <v>0.0582968</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0529453</v>
+                  <v>0.0553286</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0554429</v>
+                  <v>0.0675741</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0243821</v>
+                  <v>0.0236953</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0263419</v>
+                  <v>0.0249792</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.03189</v>
+                  <v>0.0258301</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0372784</v>
+                  <v>0.027365</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0515556</v>
+                  <v>0.0285038</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.06764829999999999</v>
+                  <v>0.0328798</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.08149480000000001</v>
+                  <v>0.0393672</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.129222</v>
+                  <v>0.0204906</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0208127</v>
+                  <v>0.0206485</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0213278</v>
+                  <v>0.0211179</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0218828</v>
+                  <v>0.0213</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.02263</v>
+                  <v>0.0216018</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0232512</v>
+                  <v>0.0219038</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0241428</v>
+                  <v>0.0225654</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0268695</v>
+                  <v>0.0230834</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0288871</v>
+                  <v>0.0241669</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0328262</v>
+                  <v>0.0251919</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0390993</v>
+                  <v>0.0266921</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0470423</v>
+                  <v>0.028982</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0633778</v>
+                  <v>0.0333148</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.088602</v>
+                  <v>0.041356</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.13405</v>
+                  <v>0.0202092</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0214978</v>
+                  <v>0.0206159</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0219645</v>
+                  <v>0.0208339</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0227306</v>
+                  <v>0.0210765</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0236983</v>
+                  <v>0.0214492</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0246423</v>
+                  <v>0.0218967</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.025917</v>
+                  <v>0.0226372</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0281203</v>
+                  <v>0.023422</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0305191</v>
+                  <v>0.0242916</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351044</v>
+                  <v>0.0254245</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0407874</v>
+                  <v>0.0274613</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0501899</v>
+                  <v>0.030458</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06329070000000001</v>
+                  <v>0.0342121</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0883089</v>
+                  <v>0.040763</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.125523</v>
+                  <v>0.0210932</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0226441</v>
+                  <v>0.0214487</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0231278</v>
+                  <v>0.0217322</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0239266</v>
+                  <v>0.0220884</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.024755</v>
+                  <v>0.0225227</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0260181</v>
+                  <v>0.022985</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0274856</v>
+                  <v>0.0235789</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0292543</v>
+                  <v>0.0242082</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0326774</v>
+                  <v>0.0251386</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0370439</v>
+                  <v>0.026316</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0430271</v>
+                  <v>0.0281349</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0514098</v>
+                  <v>0.0309591</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0649906</v>
+                  <v>0.0351441</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0841389</v>
+                  <v>0.0422416</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117343</v>
+                  <v>0.0221848</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.163332</v>
+                  <v>0.0226422</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0241041</v>
+                  <v>0.0230127</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248142</v>
+                  <v>0.0233388</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0258859</v>
+                  <v>0.0237292</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0269065</v>
+                  <v>0.0243318</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0285555</v>
+                  <v>0.0249093</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0308138</v>
+                  <v>0.0260608</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0334128</v>
+                  <v>0.0270795</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0373409</v>
+                  <v>0.0277862</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.043244</v>
+                  <v>0.0291051</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0514921</v>
+                  <v>0.0317252</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0631197</v>
+                  <v>0.0360878</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.08064549999999999</v>
+                  <v>0.0429958</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.111224</v>
+                  <v>0.0551095</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.156782</v>
+                  <v>0.0226031</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0246273</v>
+                  <v>0.0229372</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0254874</v>
+                  <v>0.0232973</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.026515</v>
+                  <v>0.023692</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276786</v>
+                  <v>0.0242143</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291119</v>
+                  <v>0.0247678</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0311576</v>
+                  <v>0.0255057</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0339469</v>
+                  <v>0.0263971</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0377205</v>
+                  <v>0.0276756</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0430427</v>
+                  <v>0.0295323</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0505867</v>
+                  <v>0.0321746</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0612508</v>
+                  <v>0.0363344</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0763192</v>
+                  <v>0.0425489</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101765</v>
+                  <v>0.0534234</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.144347</v>
+                  <v>0.0228514</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0253488</v>
+                  <v>0.0231978</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.026265</v>
+                  <v>0.0235633</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0271908</v>
+                  <v>0.0239172</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0284288</v>
+                  <v>0.0244035</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.03001</v>
+                  <v>0.025024</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0319039</v>
+                  <v>0.0259339</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343672</v>
+                  <v>0.0269228</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0378547</v>
+                  <v>0.0282665</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0426376</v>
+                  <v>0.0299743</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0498571</v>
+                  <v>0.0325068</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.059631</v>
+                  <v>0.03601</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0742997</v>
+                  <v>0.0416961</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0979019</v>
+                  <v>0.0509443</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.137136</v>
+                  <v>0.0243696</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0270102</v>
+                  <v>0.0248253</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0282021</v>
+                  <v>0.0253215</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0301873</v>
+                  <v>0.0259145</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0330636</v>
+                  <v>0.0267649</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0367725</v>
+                  <v>0.0281154</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0404956</v>
+                  <v>0.0301922</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0438179</v>
+                  <v>0.0330066</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0472354</v>
+                  <v>0.0364155</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0509235</v>
+                  <v>0.0397311</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0560138</v>
+                  <v>0.0428055</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.06314790000000001</v>
+                  <v>0.0463608</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07436619999999999</v>
+                  <v>0.0508278</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0937021</v>
+                  <v>0.0575807</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.129268</v>
+                  <v>0.0361449</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.180556</v>
+                  <v>0.0368822</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0432623</v>
+                  <v>0.0379133</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0443061</v>
+                  <v>0.0388181</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0453678</v>
+                  <v>0.0396854</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0466564</v>
+                  <v>0.0406322</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0481</v>
+                  <v>0.0416831</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0498885</v>
+                  <v>0.0427634</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0522653</v>
+                  <v>0.0439657</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0552329</v>
+                  <v>0.0456052</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0592122</v>
+                  <v>0.0476259</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0652914</v>
+                  <v>0.0501364</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0749547</v>
+                  <v>0.0541071</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.09116730000000001</v>
+                  <v>0.0600156</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.12157</v>
+                  <v>0.0702492</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.169666</v>
+                  <v>0.0426162</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0485409</v>
+                  <v>0.0433137</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0498932</v>
+                  <v>0.0441334</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0510164</v>
+                  <v>0.0448138</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0521044</v>
+                  <v>0.0457069</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0539084</v>
+                  <v>0.0468309</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0557247</v>
+                  <v>0.047681</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0579581</v>
+                  <v>0.0488768</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0612119</v>
+                  <v>0.0504662</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0655746</v>
+                  <v>0.0524585</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.07118579999999999</v>
+                  <v>0.0553225</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0805454</v>
+                  <v>0.0590454</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0955641</v>
+                  <v>0.0649672</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.122167</v>
+                  <v>0.07502730000000001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.166136</v>
+                  <v>0.0609618</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0632577</v>
+                  <v>0.0606272</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0643639</v>
+                  <v>0.0716113</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0654462</v>
+                  <v>0.0740532</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0668815</v>
+                  <v>0.075507</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0683774</v>
+                  <v>0.0709659</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.07045510000000001</v>
+                  <v>0.0822119</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0213141</v>
+                  <v>0.0628543</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0220012</v>
+                  <v>0.0664814</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0228637</v>
+                  <v>0.07155309999999999</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0244676</v>
+                  <v>0.0787023</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0259604</v>
+                  <v>0.0762729</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.028658</v>
+                  <v>0.0596881</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0371282</v>
+                  <v>0.0581592</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0186849</v>
+                  <v>0.0642033</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0189948</v>
+                  <v>0.066584</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0192948</v>
+                  <v>0.07067469999999999</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198101</v>
+                  <v>0.07539460000000001</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0200323</v>
+                  <v>0.0776222</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205084</v>
+                  <v>0.08080030000000001</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0207002</v>
+                  <v>0.08254499999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0214276</v>
+                  <v>0.0868236</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022011</v>
+                  <v>0.0901443</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0230028</v>
+                  <v>0.09041780000000001</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0242253</v>
+                  <v>0.09432</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0262024</v>
+                  <v>0.0970657</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.030044</v>
+                  <v>0.0672951</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0370516</v>
+                  <v>0.0716408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0188867</v>
+                  <v>0.0714137</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0192237</v>
+                  <v>0.0762883</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0194425</v>
+                  <v>0.0788282</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197946</v>
+                  <v>0.0817253</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0201342</v>
+                  <v>0.0845086</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0205266</v>
+                  <v>0.0872682</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.020959</v>
+                  <v>0.0900213</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214844</v>
+                  <v>0.0922123</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0223231</v>
+                  <v>0.0951592</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0233566</v>
+                  <v>0.0965795</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0248748</v>
+                  <v>0.0983135</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0269432</v>
+                  <v>0.101668</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0307678</v>
+                  <v>0.06976019999999999</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0381048</v>
+                  <v>0.0732333</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.019505</v>
+                  <v>0.07563</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0197378</v>
+                  <v>0.07849739999999999</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0199753</v>
+                  <v>0.082784</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0202695</v>
+                  <v>0.08502469999999999</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0205809</v>
+                  <v>0.0879409</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0210132</v>
+                  <v>0.091546</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0215764</v>
+                  <v>0.0944207</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0222081</v>
+                  <v>0.0970037</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231524</v>
+                  <v>0.0991208</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0243994</v>
+                  <v>0.101009</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0261699</v>
+                  <v>0.103707</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0288567</v>
+                  <v>0.105854</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0324993</v>
+                  <v>0.108622</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0388699</v>
+                  <v>0.07991180000000001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0203994</v>
+                  <v>0.0852565</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0206304</v>
+                  <v>0.09070300000000001</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.020899</v>
+                  <v>0.100166</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0212713</v>
+                  <v>0.104121</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0215734</v>
+                  <v>0.110505</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0220027</v>
+                  <v>0.118017</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0224713</v>
+                  <v>0.134799</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0232356</v>
+                  <v>0.150714</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0241598</v>
+                  <v>0.149598</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252935</v>
+                  <v>0.106064</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0270674</v>
+                  <v>0.110453</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0297328</v>
+                  <v>0.112451</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0338401</v>
+                  <v>0.114784</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0404851</v>
+                  <v>0.0808511</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0515575</v>
+                  <v>0.0851362</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.020937</v>
+                  <v>0.0905902</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0212617</v>
+                  <v>0.0957775</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0215815</v>
+                  <v>0.09995809999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0219942</v>
+                  <v>0.105452</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0224339</v>
+                  <v>0.110664</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0229822</v>
+                  <v>0.115302</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0236686</v>
+                  <v>0.119763</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0245813</v>
+                  <v>0.125554</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0258009</v>
+                  <v>0.130129</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0276711</v>
+                  <v>0.134996</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0301418</v>
+                  <v>0.141567</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0339599</v>
+                  <v>0.147833</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.039757</v>
+                  <v>0.113894</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0495474</v>
+                  <v>0.121926</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.021192</v>
+                  <v>0.12561</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0215353</v>
+                  <v>0.134696</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0219745</v>
+                  <v>0.13899</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0224512</v>
+                  <v>0.149483</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0229726</v>
+                  <v>0.154065</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0236312</v>
+                  <v>0.163029</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0244723</v>
+                  <v>0.167705</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0253764</v>
+                  <v>0.178539</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0267266</v>
+                  <v>0.186083</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.02845</v>
+                  <v>0.189656</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0307713</v>
+                  <v>0.197145</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0342051</v>
+                  <v>0.214136</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.039387</v>
+                  <v>0.155917</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0481448</v>
+                  <v>0.163239</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0230461</v>
+                  <v>0.170659</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0235885</v>
+                  <v>0.176032</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0240683</v>
+                  <v>0.180564</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0245612</v>
+                  <v>0.187866</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254625</v>
+                  <v>0.197686</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0269155</v>
+                  <v>0.205106</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0289929</v>
+                  <v>0.213378</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0319022</v>
+                  <v>0.22001</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0353162</v>
+                  <v>0.227646</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0382454</v>
+                  <v>0.235713</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0414212</v>
+                  <v>0.243297</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0448928</v>
+                  <v>0.252123</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0491213</v>
+                  <v>0.261676</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0556722</v>
+                  <v>0.190199</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0349946</v>
+                  <v>0.197145</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.036062</v>
+                  <v>0.204605</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0370126</v>
+                  <v>0.21028</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0378882</v>
+                  <v>0.217256</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0386232</v>
+                  <v>0.224583</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.039608</v>
+                  <v>0.233435</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0405332</v>
+                  <v>0.241083</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0416032</v>
+                  <v>0.248226</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0429799</v>
+                  <v>0.256309</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.044442</v>
+                  <v>0.263815</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0464735</v>
+                  <v>0.272729</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0490779</v>
+                  <v>0.281114</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0526027</v>
+                  <v>0.29099</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0585157</v>
+                  <v>0.206413</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0682112</v>
+                  <v>0.211988</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0416503</v>
+                  <v>0.218375</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0422691</v>
+                  <v>0.225371</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0430552</v>
+                  <v>0.233023</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.04371</v>
+                  <v>0.239145</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0446326</v>
+                  <v>0.246948</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.045744</v>
+                  <v>0.254198</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0464876</v>
+                  <v>0.261944</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0480236</v>
+                  <v>0.270874</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0497905</v>
+                  <v>0.277744</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0515751</v>
+                  <v>0.285401</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0541836</v>
+                  <v>0.294939</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0578235</v>
+                  <v>0.304154</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.06359289999999999</v>
+                  <v>0.212796</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07301820000000001</v>
+                  <v>0.219404</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0587163</v>
+                  <v>0.226867</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0595507</v>
+                  <v>0.233183</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0603892</v>
+                  <v>0.258776</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0609068</v>
+                  <v>0.2671</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0617944</v>
+                  <v>0.259936</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0626568</v>
+                  <v>0.270609</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0637523</v>
+                  <v>0.281995</v>
                 </pt>
               </numCache>
             </numRef>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.032354</v>
+        <v>0.0332883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0326439</v>
+        <v>0.0326365</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0310602</v>
+        <v>0.0320613</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0330843</v>
+        <v>0.0341491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0336087</v>
+        <v>0.0336403</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0318971</v>
+        <v>0.0332453</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0350837</v>
+        <v>0.0356606</v>
       </c>
       <c r="C4" t="n">
-        <v>0.035107</v>
+        <v>0.0351675</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0328036</v>
+        <v>0.0344757</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0400941</v>
+        <v>0.0425803</v>
       </c>
       <c r="C5" t="n">
-        <v>0.036977</v>
+        <v>0.0367194</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0338894</v>
+        <v>0.0358975</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0508345</v>
+        <v>0.0524832</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0397641</v>
+        <v>0.0397067</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0365853</v>
+        <v>0.0390201</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07482080000000001</v>
+        <v>0.07550510000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.046915</v>
+        <v>0.0468062</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0427306</v>
+        <v>0.0470645</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.110831</v>
+        <v>0.112055</v>
       </c>
       <c r="C8" t="n">
-        <v>0.063689</v>
+        <v>0.06395919999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.057164</v>
+        <v>0.0693636</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.156481</v>
+        <v>0.158298</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0297105</v>
+        <v>0.0297345</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0288854</v>
+        <v>0.0291287</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0310769</v>
+        <v>0.0312574</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0299886</v>
+        <v>0.0298845</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0290449</v>
+        <v>0.0293127</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.031578</v>
+        <v>0.0320023</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0302417</v>
+        <v>0.0302644</v>
       </c>
       <c r="D11" t="n">
-        <v>0.029268</v>
+        <v>0.0296399</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0319403</v>
+        <v>0.032545</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0305678</v>
+        <v>0.0306239</v>
       </c>
       <c r="D12" t="n">
-        <v>0.029409</v>
+        <v>0.0301324</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0325077</v>
+        <v>0.0332075</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0309635</v>
+        <v>0.0310174</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0298169</v>
+        <v>0.0305012</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0330335</v>
+        <v>0.0337079</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0312512</v>
+        <v>0.031331</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0302998</v>
+        <v>0.0307244</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0335377</v>
+        <v>0.0343114</v>
       </c>
       <c r="C15" t="n">
-        <v>0.032052</v>
+        <v>0.0320818</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0308983</v>
+        <v>0.0315319</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0347355</v>
+        <v>0.0354465</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0327123</v>
+        <v>0.0327966</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0316669</v>
+        <v>0.0320361</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0370111</v>
+        <v>0.0378668</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0336698</v>
+        <v>0.0337876</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0325147</v>
+        <v>0.0333495</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0408501</v>
+        <v>0.0415734</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0351122</v>
+        <v>0.0350607</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0337939</v>
+        <v>0.0346146</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0503242</v>
+        <v>0.0506254</v>
       </c>
       <c r="C19" t="n">
-        <v>0.037063</v>
+        <v>0.0370631</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0354701</v>
+        <v>0.0368886</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0620652</v>
+        <v>0.0623494</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0408185</v>
+        <v>0.0407563</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0391974</v>
+        <v>0.0411882</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08278439999999999</v>
+        <v>0.0827831</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0485513</v>
+        <v>0.0483558</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0481181</v>
+        <v>0.0502449</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.107886</v>
+        <v>0.108211</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0637812</v>
+        <v>0.0637596</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0623556</v>
+        <v>0.0706349</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1497</v>
+        <v>0.15101</v>
       </c>
       <c r="C23" t="n">
-        <v>0.030289</v>
+        <v>0.03036</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0290554</v>
+        <v>0.0297514</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0322127</v>
+        <v>0.0327491</v>
       </c>
       <c r="C24" t="n">
-        <v>0.030639</v>
+        <v>0.0308286</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0293644</v>
+        <v>0.030187</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0328581</v>
+        <v>0.03335</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0311266</v>
+        <v>0.0312298</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0297348</v>
+        <v>0.0304861</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.033663</v>
+        <v>0.0341151</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0314062</v>
+        <v>0.0314884</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02999</v>
+        <v>0.0307875</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343893</v>
+        <v>0.0347476</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0318372</v>
+        <v>0.0318972</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0304983</v>
+        <v>0.0312138</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0354731</v>
+        <v>0.0357129</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0323949</v>
+        <v>0.0324792</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0310966</v>
+        <v>0.0317906</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0363921</v>
+        <v>0.0366188</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0331752</v>
+        <v>0.0332845</v>
       </c>
       <c r="D29" t="n">
-        <v>0.031645</v>
+        <v>0.0327042</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0383476</v>
+        <v>0.0383823</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0340177</v>
+        <v>0.0341324</v>
       </c>
       <c r="D30" t="n">
-        <v>0.032355</v>
+        <v>0.0335136</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0412692</v>
+        <v>0.0412452</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0352314</v>
+        <v>0.0352723</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0334044</v>
+        <v>0.0348066</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0459348</v>
+        <v>0.0458771</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0367391</v>
+        <v>0.0368443</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0349368</v>
+        <v>0.0363394</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.053369</v>
+        <v>0.0534209</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0395101</v>
+        <v>0.0395933</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0371272</v>
+        <v>0.0394943</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0643223</v>
+        <v>0.064341</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0442565</v>
+        <v>0.0442994</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0414119</v>
+        <v>0.0453101</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0793556</v>
+        <v>0.0795381</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0502503</v>
+        <v>0.0502568</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0492131</v>
+        <v>0.0527672</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101684</v>
+        <v>0.101949</v>
       </c>
       <c r="C36" t="n">
-        <v>0.061629</v>
+        <v>0.0617001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0594115</v>
+        <v>0.0662895</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.133149</v>
+        <v>0.133752</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0310507</v>
+        <v>0.0311664</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0293045</v>
+        <v>0.0305492</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0338169</v>
+        <v>0.0336883</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0315017</v>
+        <v>0.0316431</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0295862</v>
+        <v>0.0309639</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0343812</v>
+        <v>0.0345259</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0318989</v>
+        <v>0.0319664</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0300236</v>
+        <v>0.0312845</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0350745</v>
+        <v>0.0351932</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0323012</v>
+        <v>0.0323552</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0303629</v>
+        <v>0.0316974</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0359824</v>
+        <v>0.0362085</v>
       </c>
       <c r="C41" t="n">
-        <v>0.032759</v>
+        <v>0.032842</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0308299</v>
+        <v>0.0322352</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0370793</v>
+        <v>0.0373499</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0332993</v>
+        <v>0.0333912</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0314747</v>
+        <v>0.0327593</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03855</v>
+        <v>0.0387766</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0339784</v>
+        <v>0.0340039</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0321161</v>
+        <v>0.0335221</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0408077</v>
+        <v>0.0408815</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0347294</v>
+        <v>0.0347907</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0330156</v>
+        <v>0.0342443</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.043899</v>
+        <v>0.0438899</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0358444</v>
+        <v>0.0359239</v>
       </c>
       <c r="D45" t="n">
-        <v>0.034262</v>
+        <v>0.0355815</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0478629</v>
+        <v>0.0477649</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0373872</v>
+        <v>0.0374438</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0359775</v>
+        <v>0.0371908</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0537421</v>
+        <v>0.0538058</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0397259</v>
+        <v>0.039709</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0386795</v>
+        <v>0.0397524</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06296880000000001</v>
+        <v>0.0633204</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0437603</v>
+        <v>0.0437654</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0429654</v>
+        <v>0.0445415</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0765055</v>
+        <v>0.0767934</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0499469</v>
+        <v>0.0499276</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0491052</v>
+        <v>0.0517888</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0951434</v>
+        <v>0.0954455</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0592885</v>
+        <v>0.0593834</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0588529</v>
+        <v>0.06274730000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125345</v>
+        <v>0.125905</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0349094</v>
+        <v>0.0336304</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0305377</v>
+        <v>0.0323646</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.172319</v>
+        <v>0.172053</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0347236</v>
+        <v>0.033457</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0306067</v>
+        <v>0.0326028</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0362208</v>
+        <v>0.0364089</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0350104</v>
+        <v>0.0337436</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0312025</v>
+        <v>0.0329434</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0368542</v>
+        <v>0.037195</v>
       </c>
       <c r="C54" t="n">
-        <v>0.035387</v>
+        <v>0.0341183</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0316086</v>
+        <v>0.0333638</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0376942</v>
+        <v>0.0380212</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0358298</v>
+        <v>0.0346141</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0318661</v>
+        <v>0.0338382</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.038698</v>
+        <v>0.0390458</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0363986</v>
+        <v>0.0351569</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0325294</v>
+        <v>0.0343781</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0401579</v>
+        <v>0.0404261</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0370141</v>
+        <v>0.0358086</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0333378</v>
+        <v>0.0350576</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0421736</v>
+        <v>0.0424025</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0379152</v>
+        <v>0.0366812</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0341881</v>
+        <v>0.0359294</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0449234</v>
+        <v>0.0450322</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0390041</v>
+        <v>0.0377904</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0354547</v>
+        <v>0.0371858</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0485701</v>
+        <v>0.0486882</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0404918</v>
+        <v>0.0392788</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0371747</v>
+        <v>0.038856</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0537711</v>
+        <v>0.0539515</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0427154</v>
+        <v>0.0415513</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0394486</v>
+        <v>0.0413919</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0616002</v>
+        <v>0.0618192</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0459134</v>
+        <v>0.0448139</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0430077</v>
+        <v>0.0450659</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0735681</v>
+        <v>0.07384590000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0513732</v>
+        <v>0.0502116</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0482269</v>
+        <v>0.0513792</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0919099</v>
+        <v>0.0920733</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0598492</v>
+        <v>0.0587743</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0567662</v>
+        <v>0.0613303</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.11988</v>
+        <v>0.120217</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0744225</v>
+        <v>0.0734407</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07042900000000001</v>
+        <v>0.0784977</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.162146</v>
+        <v>0.162794</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0399304</v>
+        <v>0.0398507</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0363008</v>
+        <v>0.0385196</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0416134</v>
+        <v>0.0417955</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0403316</v>
+        <v>0.0402123</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0366467</v>
+        <v>0.0389104</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0422653</v>
+        <v>0.0424718</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0406949</v>
+        <v>0.0405871</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0369766</v>
+        <v>0.0392843</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0432075</v>
+        <v>0.0435473</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0410289</v>
+        <v>0.0409406</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0375047</v>
+        <v>0.0396662</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0442976</v>
+        <v>0.0445979</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0415899</v>
+        <v>0.0415214</v>
       </c>
       <c r="D70" t="n">
-        <v>0.037983</v>
+        <v>0.040247</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0456943</v>
+        <v>0.0459735</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0421241</v>
+        <v>0.0421173</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0386075</v>
+        <v>0.0408213</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0473777</v>
+        <v>0.047777</v>
       </c>
       <c r="C72" t="n">
-        <v>0.042899</v>
+        <v>0.0429413</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0394121</v>
+        <v>0.0416692</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0497435</v>
+        <v>0.0502983</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0438987</v>
+        <v>0.0439617</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0404627</v>
+        <v>0.0427374</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0531756</v>
+        <v>0.0538961</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0452546</v>
+        <v>0.0453658</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0421049</v>
+        <v>0.0442498</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0579349</v>
+        <v>0.0589247</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0473193</v>
+        <v>0.0475502</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0443783</v>
+        <v>0.0466028</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0650471</v>
+        <v>0.0661568</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0502758</v>
+        <v>0.050525</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0475787</v>
+        <v>0.0500328</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0759923</v>
+        <v>0.0770072</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0550648</v>
+        <v>0.055411</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0522748</v>
+        <v>0.0555437</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0924894</v>
+        <v>0.093488</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0622856</v>
+        <v>0.0626145</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0596609</v>
+        <v>0.0637785</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.118533</v>
+        <v>0.11923</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0750031</v>
+        <v>0.0755021</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0724308</v>
+        <v>0.07852969999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.15785</v>
+        <v>0.158516</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0449502</v>
+        <v>0.0448445</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0421934</v>
+        <v>0.0442141</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0475737</v>
+        <v>0.0483665</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0454704</v>
+        <v>0.0453925</v>
       </c>
       <c r="D81" t="n">
-        <v>0.042634</v>
+        <v>0.0450114</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0492281</v>
+        <v>0.0495189</v>
       </c>
       <c r="C82" t="n">
-        <v>0.046158</v>
+        <v>0.0458907</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0432594</v>
+        <v>0.0455097</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0509236</v>
+        <v>0.0511459</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0469414</v>
+        <v>0.0466002</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0439886</v>
+        <v>0.0461841</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0532747</v>
+        <v>0.0528516</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0480566</v>
+        <v>0.0473524</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0451706</v>
+        <v>0.0469567</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0557158</v>
+        <v>0.055707</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0490763</v>
+        <v>0.0487759</v>
       </c>
       <c r="D85" t="n">
-        <v>0.046257</v>
+        <v>0.0482529</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0587651</v>
+        <v>0.0588094</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0505821</v>
+        <v>0.0503008</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0477657</v>
+        <v>0.0495515</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0625603</v>
+        <v>0.0631753</v>
       </c>
       <c r="C87" t="n">
-        <v>0.052411</v>
+        <v>0.0522865</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0498335</v>
+        <v>0.0514138</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0674003</v>
+        <v>0.0680337</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0547029</v>
+        <v>0.0545947</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0522669</v>
+        <v>0.0540283</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.073708</v>
+        <v>0.07484349999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0576804</v>
+        <v>0.0578913</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0556634</v>
+        <v>0.0576564</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0829607</v>
+        <v>0.0841991</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0621716</v>
+        <v>0.0622215</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0600999</v>
+        <v>0.0625392</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0953041</v>
+        <v>0.09632549999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.06833069999999999</v>
+        <v>0.06849379999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0663796</v>
+        <v>0.0691531</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.11156</v>
+        <v>0.112335</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0771838</v>
+        <v>0.0776403</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07531409999999999</v>
+        <v>0.0790396</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.134814</v>
+        <v>0.135149</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0907403</v>
+        <v>0.0909855</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0882473</v>
+        <v>0.0935062</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.169192</v>
+        <v>0.169383</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0536955</v>
+        <v>0.0543418</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0514459</v>
+        <v>0.0546804</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0674394</v>
+        <v>0.0670834</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0556611</v>
+        <v>0.0562799</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0537511</v>
+        <v>0.055419</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.070173</v>
+        <v>0.070079</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0577728</v>
+        <v>0.0574595</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0557122</v>
+        <v>0.0571877</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0728751</v>
+        <v>0.0724856</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0593321</v>
+        <v>0.0597134</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0571964</v>
+        <v>0.0588425</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0758916</v>
+        <v>0.07477549999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0620648</v>
+        <v>0.0609023</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0592911</v>
+        <v>0.0614806</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07882169999999999</v>
+        <v>0.0779575</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0636955</v>
+        <v>0.0627597</v>
       </c>
       <c r="D99" t="n">
-        <v>0.061053</v>
+        <v>0.06308900000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0820439</v>
+        <v>0.08224099999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0654348</v>
+        <v>0.0647321</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06296060000000001</v>
+        <v>0.06516329999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0859338</v>
+        <v>0.0850785</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0678383</v>
+        <v>0.06690110000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0652469</v>
+        <v>0.0673513</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0903658</v>
+        <v>0.08981699999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0705257</v>
+        <v>0.07083299999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0661742</v>
+        <v>0.0701198</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0962879</v>
+        <v>0.0974444</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07356459999999999</v>
+        <v>0.07316839999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0707713</v>
+        <v>0.0737261</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104191</v>
+        <v>0.105453</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0771695</v>
+        <v>0.0775947</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07445350000000001</v>
+        <v>0.0781872</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115445</v>
+        <v>0.11649</v>
       </c>
       <c r="C105" t="n">
-        <v>0.08153580000000001</v>
+        <v>0.0830361</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0793488</v>
+        <v>0.0838387</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.130785</v>
+        <v>0.130416</v>
       </c>
       <c r="C106" t="n">
-        <v>0.08935659999999999</v>
+        <v>0.0913948</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08734169999999999</v>
+        <v>0.09253309999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.153008</v>
+        <v>0.151925</v>
       </c>
       <c r="C107" t="n">
-        <v>0.102102</v>
+        <v>0.103375</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0997688</v>
+        <v>0.106011</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.185045</v>
+        <v>0.18342</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0604958</v>
+        <v>0.062721</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0593584</v>
+        <v>0.061851</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231736</v>
+        <v>0.232437</v>
       </c>
       <c r="C109" t="n">
-        <v>0.06342100000000001</v>
+        <v>0.0635252</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0607805</v>
+        <v>0.0633571</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.080348</v>
+        <v>0.0809912</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0646801</v>
+        <v>0.0650268</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0621807</v>
+        <v>0.0645945</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08284030000000001</v>
+        <v>0.0840883</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0660881</v>
+        <v>0.06643259999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0634942</v>
+        <v>0.06601509999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0871924</v>
+        <v>0.0877949</v>
       </c>
       <c r="C112" t="n">
-        <v>0.06823079999999999</v>
+        <v>0.06845229999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.064771</v>
+        <v>0.06754300000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0910923</v>
+        <v>0.0917322</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0700644</v>
+        <v>0.07076449999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0672866</v>
+        <v>0.0697844</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0962011</v>
+        <v>0.09636409999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0722636</v>
+        <v>0.0729518</v>
       </c>
       <c r="D114" t="n">
-        <v>0.06945220000000001</v>
+        <v>0.07185329999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101691</v>
+        <v>0.100511</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0757105</v>
+        <v>0.0759983</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07282420000000001</v>
+        <v>0.075262</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107805</v>
+        <v>0.107804</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0794873</v>
+        <v>0.07917780000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0762948</v>
+        <v>0.07893310000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114645</v>
+        <v>0.113144</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0842161</v>
+        <v>0.0816451</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0811882</v>
+        <v>0.0837388</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123007</v>
+        <v>0.121482</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0868574</v>
+        <v>0.0871623</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0863878</v>
+        <v>0.0888037</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.13367</v>
+        <v>0.133335</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0968154</v>
+        <v>0.0940275</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0931462</v>
+        <v>0.09563439999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.14579</v>
+        <v>0.14726</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105412</v>
+        <v>0.105429</v>
       </c>
       <c r="D120" t="n">
-        <v>0.101014</v>
+        <v>0.104691</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.164181</v>
+        <v>0.166204</v>
       </c>
       <c r="C121" t="n">
-        <v>0.117581</v>
+        <v>0.114561</v>
       </c>
       <c r="D121" t="n">
-        <v>0.112245</v>
+        <v>0.117575</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.191204</v>
+        <v>0.193859</v>
       </c>
       <c r="C122" t="n">
-        <v>0.136258</v>
+        <v>0.132985</v>
       </c>
       <c r="D122" t="n">
-        <v>0.12972</v>
+        <v>0.137894</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232406</v>
+        <v>0.234896</v>
       </c>
       <c r="C123" t="n">
-        <v>0.08127860000000001</v>
+        <v>0.0849694</v>
       </c>
       <c r="D123" t="n">
-        <v>0.09203939999999999</v>
+        <v>0.0853423</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.100954</v>
+        <v>0.09989240000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0843788</v>
+        <v>0.0848474</v>
       </c>
       <c r="D124" t="n">
-        <v>0.089713</v>
+        <v>0.0900437</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105226</v>
+        <v>0.106022</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0852976</v>
+        <v>0.0835241</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0942316</v>
+        <v>0.0887701</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107375</v>
+        <v>0.111785</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09380910000000001</v>
+        <v>0.0893872</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0935899</v>
+        <v>0.0922737</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.108953</v>
+        <v>0.11197</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0939292</v>
+        <v>0.09614640000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0995171</v>
+        <v>0.0931092</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113269</v>
+        <v>0.117098</v>
       </c>
       <c r="C128" t="n">
-        <v>0.09316480000000001</v>
+        <v>0.09716420000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0983303</v>
+        <v>0.09710439999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116822</v>
+        <v>0.118503</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0957515</v>
+        <v>0.0966352</v>
       </c>
       <c r="D129" t="n">
-        <v>0.101271</v>
+        <v>0.0973979</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120253</v>
+        <v>0.123168</v>
       </c>
       <c r="C130" t="n">
-        <v>0.09623719999999999</v>
+        <v>0.0986197</v>
       </c>
       <c r="D130" t="n">
-        <v>0.102484</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127359</v>
+        <v>0.127475</v>
       </c>
       <c r="C131" t="n">
-        <v>0.09993630000000001</v>
+        <v>0.101331</v>
       </c>
       <c r="D131" t="n">
-        <v>0.107158</v>
+        <v>0.10362</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133842</v>
+        <v>0.133375</v>
       </c>
       <c r="C132" t="n">
-        <v>0.10748</v>
+        <v>0.105401</v>
       </c>
       <c r="D132" t="n">
-        <v>0.109672</v>
+        <v>0.106465</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141954</v>
+        <v>0.142557</v>
       </c>
       <c r="C133" t="n">
-        <v>0.110078</v>
+        <v>0.110915</v>
       </c>
       <c r="D133" t="n">
-        <v>0.114246</v>
+        <v>0.1118</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154543</v>
+        <v>0.156549</v>
       </c>
       <c r="C134" t="n">
-        <v>0.116596</v>
+        <v>0.117511</v>
       </c>
       <c r="D134" t="n">
-        <v>0.120798</v>
+        <v>0.119028</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171333</v>
+        <v>0.173194</v>
       </c>
       <c r="C135" t="n">
-        <v>0.127581</v>
+        <v>0.126886</v>
       </c>
       <c r="D135" t="n">
-        <v>0.132063</v>
+        <v>0.129487</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.195139</v>
+        <v>0.198018</v>
       </c>
       <c r="C136" t="n">
-        <v>0.145572</v>
+        <v>0.146019</v>
       </c>
       <c r="D136" t="n">
-        <v>0.143157</v>
+        <v>0.146911</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236869</v>
+        <v>0.232707</v>
       </c>
       <c r="C137" t="n">
-        <v>0.164565</v>
+        <v>0.16709</v>
       </c>
       <c r="D137" t="n">
-        <v>0.157571</v>
+        <v>0.167985</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.164202</v>
+        <v>0.171327</v>
       </c>
       <c r="C138" t="n">
-        <v>0.16503</v>
+        <v>0.168861</v>
       </c>
       <c r="D138" t="n">
-        <v>0.157881</v>
+        <v>0.170432</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169441</v>
+        <v>0.175076</v>
       </c>
       <c r="C139" t="n">
-        <v>0.164178</v>
+        <v>0.16361</v>
       </c>
       <c r="D139" t="n">
-        <v>0.159539</v>
+        <v>0.170622</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.176334</v>
+        <v>0.169372</v>
       </c>
       <c r="C140" t="n">
-        <v>0.167404</v>
+        <v>0.17555</v>
       </c>
       <c r="D140" t="n">
-        <v>0.161441</v>
+        <v>0.173392</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.17665</v>
+        <v>0.172143</v>
       </c>
       <c r="C141" t="n">
-        <v>0.161737</v>
+        <v>0.172267</v>
       </c>
       <c r="D141" t="n">
-        <v>0.162854</v>
+        <v>0.174029</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.176794</v>
+        <v>0.178645</v>
       </c>
       <c r="C142" t="n">
-        <v>0.16425</v>
+        <v>0.167111</v>
       </c>
       <c r="D142" t="n">
-        <v>0.164221</v>
+        <v>0.176616</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.17989</v>
+        <v>0.175746</v>
       </c>
       <c r="C143" t="n">
-        <v>0.174186</v>
+        <v>0.176821</v>
       </c>
       <c r="D143" t="n">
-        <v>0.16653</v>
+        <v>0.177102</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0332883</v>
+        <v>0.033235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0326365</v>
+        <v>0.0326117</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0320613</v>
+        <v>0.0318369</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0341491</v>
+        <v>0.0340087</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0336403</v>
+        <v>0.0335317</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0332453</v>
+        <v>0.0334266</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0356606</v>
+        <v>0.0361203</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0351675</v>
+        <v>0.0351717</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0344757</v>
+        <v>0.0346393</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0425803</v>
+        <v>0.0423643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0367194</v>
+        <v>0.0370059</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0358975</v>
+        <v>0.0360983</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0524832</v>
+        <v>0.0519432</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0397067</v>
+        <v>0.0394407</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0390201</v>
+        <v>0.0392781</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07550510000000001</v>
+        <v>0.07547</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0468062</v>
+        <v>0.0470421</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0470645</v>
+        <v>0.047187</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.112055</v>
+        <v>0.111529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06395919999999999</v>
+        <v>0.0635077</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0693636</v>
+        <v>0.0686063</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158298</v>
+        <v>0.157915</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0297345</v>
+        <v>0.0296959</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0291287</v>
+        <v>0.0288958</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0312574</v>
+        <v>0.0313332</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0298845</v>
+        <v>0.0298623</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0293127</v>
+        <v>0.0291549</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0320023</v>
+        <v>0.0320902</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0302644</v>
+        <v>0.0301763</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0296399</v>
+        <v>0.0294644</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.032545</v>
+        <v>0.0325985</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0306239</v>
+        <v>0.030579</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0301324</v>
+        <v>0.0299528</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0332075</v>
+        <v>0.033295</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0310174</v>
+        <v>0.0309119</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0305012</v>
+        <v>0.0301839</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0337079</v>
+        <v>0.0337792</v>
       </c>
       <c r="C14" t="n">
-        <v>0.031331</v>
+        <v>0.0312407</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0307244</v>
+        <v>0.0306075</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0343114</v>
+        <v>0.0344904</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0320818</v>
+        <v>0.0319494</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0315319</v>
+        <v>0.0313501</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0354465</v>
+        <v>0.0355226</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0327966</v>
+        <v>0.0326475</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0320361</v>
+        <v>0.0320706</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0378668</v>
+        <v>0.0378117</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0337876</v>
+        <v>0.0337385</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0333495</v>
+        <v>0.0332465</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0415734</v>
+        <v>0.041432</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0350607</v>
+        <v>0.0350237</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0346146</v>
+        <v>0.0345186</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0506254</v>
+        <v>0.050434</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0370631</v>
+        <v>0.0370269</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0368886</v>
+        <v>0.0371766</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0623494</v>
+        <v>0.0624701</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0407563</v>
+        <v>0.0408406</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0411882</v>
+        <v>0.0412031</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0827831</v>
+        <v>0.0829198</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0483558</v>
+        <v>0.0485067</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0502449</v>
+        <v>0.0504962</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.108211</v>
+        <v>0.108271</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0637596</v>
+        <v>0.0637842</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0706349</v>
+        <v>0.07018489999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.15101</v>
+        <v>0.151061</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03036</v>
+        <v>0.0303095</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0297514</v>
+        <v>0.0295906</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0327491</v>
+        <v>0.032593</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0308286</v>
+        <v>0.0307756</v>
       </c>
       <c r="D24" t="n">
-        <v>0.030187</v>
+        <v>0.0299332</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03335</v>
+        <v>0.0331927</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0312298</v>
+        <v>0.031143</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0304861</v>
+        <v>0.0302782</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0341151</v>
+        <v>0.033923</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0314884</v>
+        <v>0.0313953</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0307875</v>
+        <v>0.0305207</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0347476</v>
+        <v>0.0345548</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0318972</v>
+        <v>0.0318288</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0312138</v>
+        <v>0.0309236</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0357129</v>
+        <v>0.0355657</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0324792</v>
+        <v>0.0323986</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0317906</v>
+        <v>0.0315427</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0366188</v>
+        <v>0.0364601</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0332845</v>
+        <v>0.0331792</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0327042</v>
+        <v>0.0324672</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0383823</v>
+        <v>0.0382096</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0341324</v>
+        <v>0.0340715</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0335136</v>
+        <v>0.0333746</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0412452</v>
+        <v>0.0413122</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0352723</v>
+        <v>0.0352859</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0348066</v>
+        <v>0.0345302</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0458771</v>
+        <v>0.0459392</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0368443</v>
+        <v>0.0367414</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0363394</v>
+        <v>0.0362004</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0534209</v>
+        <v>0.053373</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0395933</v>
+        <v>0.0396608</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0394943</v>
+        <v>0.0393291</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.064341</v>
+        <v>0.0643114</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0442994</v>
+        <v>0.0444768</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0453101</v>
+        <v>0.0450403</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0795381</v>
+        <v>0.0795227</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0502568</v>
+        <v>0.0504251</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0527672</v>
+        <v>0.0523697</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101949</v>
+        <v>0.101942</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0617001</v>
+        <v>0.0616655</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0662895</v>
+        <v>0.0661759</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.133752</v>
+        <v>0.133606</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0311664</v>
+        <v>0.0311767</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0305492</v>
+        <v>0.0303796</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0336883</v>
+        <v>0.0339418</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0316431</v>
+        <v>0.0316726</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0309639</v>
+        <v>0.0308041</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0345259</v>
+        <v>0.0345036</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0319664</v>
+        <v>0.0320097</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0312845</v>
+        <v>0.0311324</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0351932</v>
+        <v>0.0352204</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0323552</v>
+        <v>0.0323979</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0316974</v>
+        <v>0.0316211</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0362085</v>
+        <v>0.03618</v>
       </c>
       <c r="C41" t="n">
-        <v>0.032842</v>
+        <v>0.0328497</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0322352</v>
+        <v>0.0321035</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0373499</v>
+        <v>0.0373618</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0333912</v>
+        <v>0.0333919</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0327593</v>
+        <v>0.0326138</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387766</v>
+        <v>0.0387915</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0340039</v>
+        <v>0.03407</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0335221</v>
+        <v>0.0334583</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0408815</v>
+        <v>0.0408918</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0347907</v>
+        <v>0.0348236</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0342443</v>
+        <v>0.0342588</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0438899</v>
+        <v>0.0439462</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0359239</v>
+        <v>0.0359522</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0355815</v>
+        <v>0.035662</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0477649</v>
+        <v>0.0477098</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0374438</v>
+        <v>0.037495</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0371908</v>
+        <v>0.0373201</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0538058</v>
+        <v>0.053764</v>
       </c>
       <c r="C47" t="n">
-        <v>0.039709</v>
+        <v>0.0398145</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0397524</v>
+        <v>0.0399402</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0633204</v>
+        <v>0.0631284</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0437654</v>
+        <v>0.0438891</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0445415</v>
+        <v>0.0446597</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0767934</v>
+        <v>0.07675319999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0499276</v>
+        <v>0.0500426</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0517888</v>
+        <v>0.0519635</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0954455</v>
+        <v>0.0954449</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0593834</v>
+        <v>0.0593541</v>
       </c>
       <c r="D50" t="n">
-        <v>0.06274730000000001</v>
+        <v>0.0628663</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125905</v>
+        <v>0.125916</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0336304</v>
+        <v>0.0330146</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0323646</v>
+        <v>0.032636</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.172053</v>
+        <v>0.172145</v>
       </c>
       <c r="C52" t="n">
-        <v>0.033457</v>
+        <v>0.032958</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0326028</v>
+        <v>0.032914</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0364089</v>
+        <v>0.0358951</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0337436</v>
+        <v>0.0332403</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0329434</v>
+        <v>0.0328896</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.037195</v>
+        <v>0.0367459</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0341183</v>
+        <v>0.0336223</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0333638</v>
+        <v>0.0332707</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0380212</v>
+        <v>0.0375088</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0346141</v>
+        <v>0.0340656</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0338382</v>
+        <v>0.0336929</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0390458</v>
+        <v>0.0385542</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0351569</v>
+        <v>0.0345815</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0343781</v>
+        <v>0.0342313</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0404261</v>
+        <v>0.0399937</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0358086</v>
+        <v>0.0352492</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0350576</v>
+        <v>0.034931</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0424025</v>
+        <v>0.0418567</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0366812</v>
+        <v>0.0361631</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0359294</v>
+        <v>0.0358544</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0450322</v>
+        <v>0.0445784</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0377904</v>
+        <v>0.0372393</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0371858</v>
+        <v>0.0370468</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0486882</v>
+        <v>0.0482198</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0392788</v>
+        <v>0.0387441</v>
       </c>
       <c r="D60" t="n">
-        <v>0.038856</v>
+        <v>0.0386879</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0539515</v>
+        <v>0.0535818</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0415513</v>
+        <v>0.0410498</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0413919</v>
+        <v>0.0413429</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0618192</v>
+        <v>0.06149</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0448139</v>
+        <v>0.0443661</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0450659</v>
+        <v>0.045207</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07384590000000001</v>
+        <v>0.0736103</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0502116</v>
+        <v>0.0498094</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0513792</v>
+        <v>0.0515498</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0920733</v>
+        <v>0.0918654</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0587743</v>
+        <v>0.0584765</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0613303</v>
+        <v>0.0615253</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.120217</v>
+        <v>0.120033</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0734407</v>
+        <v>0.073142</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0784977</v>
+        <v>0.07866529999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.162794</v>
+        <v>0.162416</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0398507</v>
+        <v>0.0402377</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0385196</v>
+        <v>0.0386027</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0417955</v>
+        <v>0.0416998</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0402123</v>
+        <v>0.0405888</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0389104</v>
+        <v>0.0389675</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0424718</v>
+        <v>0.0423226</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0405871</v>
+        <v>0.0409839</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0392843</v>
+        <v>0.0393769</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0435473</v>
+        <v>0.0433821</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0409406</v>
+        <v>0.0413717</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0396662</v>
+        <v>0.0397844</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0445979</v>
+        <v>0.0444135</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0415214</v>
+        <v>0.0418897</v>
       </c>
       <c r="D70" t="n">
-        <v>0.040247</v>
+        <v>0.0403741</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0459735</v>
+        <v>0.0457133</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0421173</v>
+        <v>0.0424598</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0408213</v>
+        <v>0.0409656</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.047777</v>
+        <v>0.047393</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0429413</v>
+        <v>0.0432723</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0416692</v>
+        <v>0.0418328</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0502983</v>
+        <v>0.0496783</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0439617</v>
+        <v>0.0442474</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0427374</v>
+        <v>0.0428854</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0538961</v>
+        <v>0.0530884</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0453658</v>
+        <v>0.0456297</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0442498</v>
+        <v>0.0443527</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0589247</v>
+        <v>0.0578824</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0475502</v>
+        <v>0.0476567</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0466028</v>
+        <v>0.0466733</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0661568</v>
+        <v>0.0649716</v>
       </c>
       <c r="C76" t="n">
-        <v>0.050525</v>
+        <v>0.0506493</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0500328</v>
+        <v>0.050024</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0770072</v>
+        <v>0.0757548</v>
       </c>
       <c r="C77" t="n">
-        <v>0.055411</v>
+        <v>0.055442</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0555437</v>
+        <v>0.0554325</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.093488</v>
+        <v>0.0924166</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0626145</v>
+        <v>0.06263970000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0637785</v>
+        <v>0.06368219999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.11923</v>
+        <v>0.118412</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0755021</v>
+        <v>0.0754809</v>
       </c>
       <c r="D79" t="n">
-        <v>0.07852969999999999</v>
+        <v>0.0784779</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.158516</v>
+        <v>0.157803</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0448445</v>
+        <v>0.0437419</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0442141</v>
+        <v>0.0440775</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0483665</v>
+        <v>0.0482512</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0453925</v>
+        <v>0.044269</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0450114</v>
+        <v>0.0446348</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0495189</v>
+        <v>0.0494665</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0458907</v>
+        <v>0.0448611</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0455097</v>
+        <v>0.0451552</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0511459</v>
+        <v>0.0507571</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0466002</v>
+        <v>0.0455115</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0461841</v>
+        <v>0.0457751</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0528516</v>
+        <v>0.0526616</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0473524</v>
+        <v>0.0462707</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0469567</v>
+        <v>0.0464663</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.055707</v>
+        <v>0.0550825</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0487759</v>
+        <v>0.047292</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0482529</v>
+        <v>0.0474394</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0588094</v>
+        <v>0.0584833</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0503008</v>
+        <v>0.0489226</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0495515</v>
+        <v>0.049099</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0631753</v>
+        <v>0.0624985</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0522865</v>
+        <v>0.050789</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0514138</v>
+        <v>0.0509555</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0680337</v>
+        <v>0.0677488</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0545947</v>
+        <v>0.0534064</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0540283</v>
+        <v>0.053848</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07484349999999999</v>
+        <v>0.0744547</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0578913</v>
+        <v>0.0567317</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0576564</v>
+        <v>0.0573619</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0841991</v>
+        <v>0.08346820000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0622215</v>
+        <v>0.0611799</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0625392</v>
+        <v>0.0622427</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09632549999999999</v>
+        <v>0.09582309999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.06849379999999999</v>
+        <v>0.0673552</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0691531</v>
+        <v>0.06860189999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.112335</v>
+        <v>0.111818</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0776403</v>
+        <v>0.07594049999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0790396</v>
+        <v>0.07792499999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.135149</v>
+        <v>0.134739</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0909855</v>
+        <v>0.0889568</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0935062</v>
+        <v>0.0925081</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.169383</v>
+        <v>0.168956</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0543418</v>
+        <v>0.0525319</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0546804</v>
+        <v>0.0539261</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0670834</v>
+        <v>0.0676773</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0562799</v>
+        <v>0.0563536</v>
       </c>
       <c r="D95" t="n">
-        <v>0.055419</v>
+        <v>0.0547132</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.070079</v>
+        <v>0.069969</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0574595</v>
+        <v>0.0576394</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0571877</v>
+        <v>0.0573389</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0724856</v>
+        <v>0.0726923</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0597134</v>
+        <v>0.0596854</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0588425</v>
+        <v>0.0593453</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07477549999999999</v>
+        <v>0.07577150000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0609023</v>
+        <v>0.0615673</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0614806</v>
+        <v>0.0608392</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0779575</v>
+        <v>0.078717</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0627597</v>
+        <v>0.0625737</v>
       </c>
       <c r="D99" t="n">
-        <v>0.06308900000000001</v>
+        <v>0.0613794</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08224099999999999</v>
+        <v>0.0810771</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0647321</v>
+        <v>0.0653342</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06516329999999999</v>
+        <v>0.06476609999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0850785</v>
+        <v>0.0859303</v>
       </c>
       <c r="C101" t="n">
-        <v>0.06690110000000001</v>
+        <v>0.0664347</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0673513</v>
+        <v>0.0665355</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08981699999999999</v>
+        <v>0.0904894</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07083299999999999</v>
+        <v>0.0700224</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0701198</v>
+        <v>0.0698903</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0974444</v>
+        <v>0.0963043</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07316839999999999</v>
+        <v>0.0722657</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0737261</v>
+        <v>0.0710156</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.105453</v>
+        <v>0.104431</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0775947</v>
+        <v>0.0757649</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0781872</v>
+        <v>0.0764707</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11649</v>
+        <v>0.115844</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0830361</v>
+        <v>0.0808975</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0838387</v>
+        <v>0.0826559</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.130416</v>
+        <v>0.131262</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0913948</v>
+        <v>0.0895698</v>
       </c>
       <c r="D106" t="n">
-        <v>0.09253309999999999</v>
+        <v>0.0915435</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.151925</v>
+        <v>0.153513</v>
       </c>
       <c r="C107" t="n">
-        <v>0.103375</v>
+        <v>0.102481</v>
       </c>
       <c r="D107" t="n">
-        <v>0.106011</v>
+        <v>0.103794</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.18342</v>
+        <v>0.185264</v>
       </c>
       <c r="C108" t="n">
-        <v>0.062721</v>
+        <v>0.0604533</v>
       </c>
       <c r="D108" t="n">
-        <v>0.061851</v>
+        <v>0.061294</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.232437</v>
+        <v>0.231945</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0635252</v>
+        <v>0.0634382</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0633571</v>
+        <v>0.06266629999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0809912</v>
+        <v>0.08081199999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0650268</v>
+        <v>0.0648903</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0645945</v>
+        <v>0.0641328</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0840883</v>
+        <v>0.0839883</v>
       </c>
       <c r="C111" t="n">
-        <v>0.06643259999999999</v>
+        <v>0.0642625</v>
       </c>
       <c r="D111" t="n">
-        <v>0.06601509999999999</v>
+        <v>0.0657626</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0877949</v>
+        <v>0.0877623</v>
       </c>
       <c r="C112" t="n">
-        <v>0.06845229999999999</v>
+        <v>0.06589100000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06754300000000001</v>
+        <v>0.0677268</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0917322</v>
+        <v>0.091376</v>
       </c>
       <c r="C113" t="n">
-        <v>0.07076449999999999</v>
+        <v>0.07014579999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0697844</v>
+        <v>0.0696218</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09636409999999999</v>
+        <v>0.09535399999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0729518</v>
+        <v>0.0728231</v>
       </c>
       <c r="D114" t="n">
-        <v>0.07185329999999999</v>
+        <v>0.0723087</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100511</v>
+        <v>0.101829</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0759983</v>
+        <v>0.0762477</v>
       </c>
       <c r="D115" t="n">
-        <v>0.075262</v>
+        <v>0.07545</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107804</v>
+        <v>0.107875</v>
       </c>
       <c r="C116" t="n">
-        <v>0.07917780000000001</v>
+        <v>0.079946</v>
       </c>
       <c r="D116" t="n">
-        <v>0.07893310000000001</v>
+        <v>0.079417</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113144</v>
+        <v>0.114673</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0816451</v>
+        <v>0.0845395</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0837388</v>
+        <v>0.084148</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121482</v>
+        <v>0.122855</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0871623</v>
+        <v>0.0898065</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0888037</v>
+        <v>0.08937580000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133335</v>
+        <v>0.133446</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0940275</v>
+        <v>0.096803</v>
       </c>
       <c r="D119" t="n">
-        <v>0.09563439999999999</v>
+        <v>0.0969256</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.14726</v>
+        <v>0.145842</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105429</v>
+        <v>0.102823</v>
       </c>
       <c r="D120" t="n">
-        <v>0.104691</v>
+        <v>0.105761</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.166204</v>
+        <v>0.16612</v>
       </c>
       <c r="C121" t="n">
-        <v>0.114561</v>
+        <v>0.117815</v>
       </c>
       <c r="D121" t="n">
-        <v>0.117575</v>
+        <v>0.117768</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.193859</v>
+        <v>0.193805</v>
       </c>
       <c r="C122" t="n">
-        <v>0.132985</v>
+        <v>0.136382</v>
       </c>
       <c r="D122" t="n">
-        <v>0.137894</v>
+        <v>0.1384</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.234896</v>
+        <v>0.232177</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0849694</v>
+        <v>0.08805540000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0853423</v>
+        <v>0.0819227</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.09989240000000001</v>
+        <v>0.103687</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0848474</v>
+        <v>0.0903678</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0900437</v>
+        <v>0.08454589999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.106022</v>
+        <v>0.109762</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0835241</v>
+        <v>0.08888649999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0887701</v>
+        <v>0.0863043</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.111785</v>
+        <v>0.110681</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0893872</v>
+        <v>0.0975931</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0922737</v>
+        <v>0.09118370000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.11197</v>
+        <v>0.112811</v>
       </c>
       <c r="C127" t="n">
-        <v>0.09614640000000001</v>
+        <v>0.0936567</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0931092</v>
+        <v>0.0924719</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.117098</v>
+        <v>0.113838</v>
       </c>
       <c r="C128" t="n">
-        <v>0.09716420000000001</v>
+        <v>0.095903</v>
       </c>
       <c r="D128" t="n">
-        <v>0.09710439999999999</v>
+        <v>0.0957254</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118503</v>
+        <v>0.118497</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0966352</v>
+        <v>0.0969776</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0973979</v>
+        <v>0.0963429</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.123168</v>
+        <v>0.122556</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0986197</v>
+        <v>0.09859080000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1013</v>
+        <v>0.100607</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127475</v>
+        <v>0.127477</v>
       </c>
       <c r="C131" t="n">
-        <v>0.101331</v>
+        <v>0.105178</v>
       </c>
       <c r="D131" t="n">
-        <v>0.10362</v>
+        <v>0.102471</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133375</v>
+        <v>0.134491</v>
       </c>
       <c r="C132" t="n">
-        <v>0.105401</v>
+        <v>0.108923</v>
       </c>
       <c r="D132" t="n">
-        <v>0.106465</v>
+        <v>0.106013</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142557</v>
+        <v>0.14404</v>
       </c>
       <c r="C133" t="n">
-        <v>0.110915</v>
+        <v>0.11061</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1118</v>
+        <v>0.113879</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.156549</v>
+        <v>0.156591</v>
       </c>
       <c r="C134" t="n">
-        <v>0.117511</v>
+        <v>0.116013</v>
       </c>
       <c r="D134" t="n">
-        <v>0.119028</v>
+        <v>0.118986</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.173194</v>
+        <v>0.173524</v>
       </c>
       <c r="C135" t="n">
-        <v>0.126886</v>
+        <v>0.129205</v>
       </c>
       <c r="D135" t="n">
-        <v>0.129487</v>
+        <v>0.130496</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.198018</v>
+        <v>0.197924</v>
       </c>
       <c r="C136" t="n">
-        <v>0.146019</v>
+        <v>0.146507</v>
       </c>
       <c r="D136" t="n">
-        <v>0.146911</v>
+        <v>0.145751</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232707</v>
+        <v>0.236598</v>
       </c>
       <c r="C137" t="n">
-        <v>0.16709</v>
+        <v>0.163866</v>
       </c>
       <c r="D137" t="n">
-        <v>0.167985</v>
+        <v>0.16845</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.171327</v>
+        <v>0.172386</v>
       </c>
       <c r="C138" t="n">
-        <v>0.168861</v>
+        <v>0.161751</v>
       </c>
       <c r="D138" t="n">
-        <v>0.170432</v>
+        <v>0.168968</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.175076</v>
+        <v>0.172241</v>
       </c>
       <c r="C139" t="n">
-        <v>0.16361</v>
+        <v>0.167913</v>
       </c>
       <c r="D139" t="n">
-        <v>0.170622</v>
+        <v>0.170526</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.169372</v>
+        <v>0.168903</v>
       </c>
       <c r="C140" t="n">
-        <v>0.17555</v>
+        <v>0.171058</v>
       </c>
       <c r="D140" t="n">
-        <v>0.173392</v>
+        <v>0.171572</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.172143</v>
+        <v>0.170089</v>
       </c>
       <c r="C141" t="n">
-        <v>0.172267</v>
+        <v>0.171036</v>
       </c>
       <c r="D141" t="n">
-        <v>0.174029</v>
+        <v>0.172374</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.178645</v>
+        <v>0.179039</v>
       </c>
       <c r="C142" t="n">
-        <v>0.167111</v>
+        <v>0.172324</v>
       </c>
       <c r="D142" t="n">
-        <v>0.176616</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.175746</v>
+        <v>0.174839</v>
       </c>
       <c r="C143" t="n">
-        <v>0.176821</v>
+        <v>0.17454</v>
       </c>
       <c r="D143" t="n">
-        <v>0.177102</v>
+        <v>0.176256</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.033235</v>
+        <v>0.033254</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0326117</v>
+        <v>0.032656</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0318369</v>
+        <v>0.0319768</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0340087</v>
+        <v>0.0341333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0335317</v>
+        <v>0.0335472</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0334266</v>
+        <v>0.0332355</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0361203</v>
+        <v>0.036091</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0351717</v>
+        <v>0.0351446</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0346393</v>
+        <v>0.0346054</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0423643</v>
+        <v>0.0423473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0370059</v>
+        <v>0.0370545</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0360983</v>
+        <v>0.0361918</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0519432</v>
+        <v>0.0521489</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0394407</v>
+        <v>0.0394677</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0392781</v>
+        <v>0.0392402</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07547</v>
+        <v>0.07537820000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0470421</v>
+        <v>0.0466606</v>
       </c>
       <c r="D7" t="n">
-        <v>0.047187</v>
+        <v>0.047479</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.111529</v>
+        <v>0.11161</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0635077</v>
+        <v>0.0636878</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0686063</v>
+        <v>0.0685458</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.157915</v>
+        <v>0.157965</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0296959</v>
+        <v>0.0296615</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0288958</v>
+        <v>0.0290591</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0313332</v>
+        <v>0.0313599</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0298623</v>
+        <v>0.0298973</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0291549</v>
+        <v>0.0291682</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0320902</v>
+        <v>0.0319838</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0301763</v>
+        <v>0.0302835</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0294644</v>
+        <v>0.0295336</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0325985</v>
+        <v>0.032395</v>
       </c>
       <c r="C12" t="n">
-        <v>0.030579</v>
+        <v>0.0306011</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0299528</v>
+        <v>0.029939</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.033295</v>
+        <v>0.03324</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0309119</v>
+        <v>0.0309832</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0301839</v>
+        <v>0.0303589</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0337792</v>
+        <v>0.0337599</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0312407</v>
+        <v>0.0313605</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0306075</v>
+        <v>0.0305885</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0344904</v>
+        <v>0.0344944</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0319494</v>
+        <v>0.0321346</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0313501</v>
+        <v>0.0314396</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0355226</v>
+        <v>0.0356274</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0326475</v>
+        <v>0.0327858</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0320706</v>
+        <v>0.0323262</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0378117</v>
+        <v>0.0378318</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0337385</v>
+        <v>0.0338256</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0332465</v>
+        <v>0.0333851</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.041432</v>
+        <v>0.0415908</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0350237</v>
+        <v>0.0351092</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0345186</v>
+        <v>0.0347521</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.050434</v>
+        <v>0.0505878</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0370269</v>
+        <v>0.0370611</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0371766</v>
+        <v>0.0373972</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0624701</v>
+        <v>0.0623785</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0408406</v>
+        <v>0.0407819</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0412031</v>
+        <v>0.0413895</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0829198</v>
+        <v>0.0828227</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0485067</v>
+        <v>0.0484854</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0504962</v>
+        <v>0.0501369</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.108271</v>
+        <v>0.108089</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0637842</v>
+        <v>0.06380909999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07018489999999999</v>
+        <v>0.0700939</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.151061</v>
+        <v>0.150926</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0303095</v>
+        <v>0.0304012</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0295906</v>
+        <v>0.0296506</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.032593</v>
+        <v>0.0324774</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0307756</v>
+        <v>0.0307274</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0299332</v>
+        <v>0.0300246</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0331927</v>
+        <v>0.0332936</v>
       </c>
       <c r="C25" t="n">
-        <v>0.031143</v>
+        <v>0.0312304</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0302782</v>
+        <v>0.0304416</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.033923</v>
+        <v>0.0339766</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0313953</v>
+        <v>0.0314724</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0305207</v>
+        <v>0.0307143</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0345548</v>
+        <v>0.0346404</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0318288</v>
+        <v>0.0319162</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0309236</v>
+        <v>0.0311121</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0355657</v>
+        <v>0.0356061</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0323986</v>
+        <v>0.0324848</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0315427</v>
+        <v>0.031772</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0364601</v>
+        <v>0.0365312</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0331792</v>
+        <v>0.0332961</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0324672</v>
+        <v>0.0325768</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0382096</v>
+        <v>0.0383034</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0340715</v>
+        <v>0.0341719</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0333746</v>
+        <v>0.0336021</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0413122</v>
+        <v>0.0413092</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0352859</v>
+        <v>0.0353881</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0345302</v>
+        <v>0.0348731</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0459392</v>
+        <v>0.0459559</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0367414</v>
+        <v>0.0368647</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0362004</v>
+        <v>0.0365214</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.053373</v>
+        <v>0.0532718</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0396608</v>
+        <v>0.0397246</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0393291</v>
+        <v>0.0397032</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0643114</v>
+        <v>0.0642271</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0444768</v>
+        <v>0.0445503</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0450403</v>
+        <v>0.045214</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0795227</v>
+        <v>0.0795498</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0504251</v>
+        <v>0.0505476</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0523697</v>
+        <v>0.0526699</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101942</v>
+        <v>0.101852</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0616655</v>
+        <v>0.0617266</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0661759</v>
+        <v>0.0663528</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.133606</v>
+        <v>0.133587</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0311767</v>
+        <v>0.031187</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0303796</v>
+        <v>0.0303799</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0339418</v>
+        <v>0.0336486</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0316726</v>
+        <v>0.0316331</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0308041</v>
+        <v>0.0308103</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0345036</v>
+        <v>0.034332</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0320097</v>
+        <v>0.0320418</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0311324</v>
+        <v>0.031282</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0352204</v>
+        <v>0.0352072</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0323979</v>
+        <v>0.0324217</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0316211</v>
+        <v>0.0316922</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.03618</v>
+        <v>0.0361828</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0328497</v>
+        <v>0.0328646</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0321035</v>
+        <v>0.0321886</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0373618</v>
+        <v>0.0372474</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0333919</v>
+        <v>0.0333855</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0326138</v>
+        <v>0.0327526</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387915</v>
+        <v>0.0387968</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03407</v>
+        <v>0.0340696</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0334583</v>
+        <v>0.0335435</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0408918</v>
+        <v>0.0408793</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0348236</v>
+        <v>0.0348209</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0342588</v>
+        <v>0.0343582</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0439462</v>
+        <v>0.0439069</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0359522</v>
+        <v>0.0359277</v>
       </c>
       <c r="D45" t="n">
-        <v>0.035662</v>
+        <v>0.0357056</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0477098</v>
+        <v>0.0478068</v>
       </c>
       <c r="C46" t="n">
-        <v>0.037495</v>
+        <v>0.0374511</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0373201</v>
+        <v>0.0373876</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.053764</v>
+        <v>0.0538319</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0398145</v>
+        <v>0.0397768</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0399402</v>
+        <v>0.0400308</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0631284</v>
+        <v>0.06310259999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0438891</v>
+        <v>0.0438651</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0446597</v>
+        <v>0.0447067</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07675319999999999</v>
+        <v>0.076612</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0500426</v>
+        <v>0.0500427</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0519635</v>
+        <v>0.0519746</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0954449</v>
+        <v>0.0953238</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0593541</v>
+        <v>0.059286</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0628663</v>
+        <v>0.0627702</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125916</v>
+        <v>0.125731</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0330146</v>
+        <v>0.0353348</v>
       </c>
       <c r="D51" t="n">
-        <v>0.032636</v>
+        <v>0.0320983</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.172145</v>
+        <v>0.173909</v>
       </c>
       <c r="C52" t="n">
-        <v>0.032958</v>
+        <v>0.0353418</v>
       </c>
       <c r="D52" t="n">
-        <v>0.032914</v>
+        <v>0.032154</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0358951</v>
+        <v>0.0357475</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0332403</v>
+        <v>0.0356148</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0328896</v>
+        <v>0.0324776</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0367459</v>
+        <v>0.0365377</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0336223</v>
+        <v>0.0359393</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0332707</v>
+        <v>0.0328631</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0375088</v>
+        <v>0.0374432</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0340656</v>
+        <v>0.0363771</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0336929</v>
+        <v>0.0332973</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0385542</v>
+        <v>0.038471</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0345815</v>
+        <v>0.0368813</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0342313</v>
+        <v>0.0341824</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0399937</v>
+        <v>0.0399154</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0352492</v>
+        <v>0.0374561</v>
       </c>
       <c r="D57" t="n">
-        <v>0.034931</v>
+        <v>0.0348047</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0418567</v>
+        <v>0.0418634</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0361631</v>
+        <v>0.0383634</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0358544</v>
+        <v>0.0357802</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0445784</v>
+        <v>0.0445443</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0372393</v>
+        <v>0.039384</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0370468</v>
+        <v>0.0370155</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0482198</v>
+        <v>0.0482249</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0387441</v>
+        <v>0.0407931</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0386879</v>
+        <v>0.0383629</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0535818</v>
+        <v>0.0534934</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0410498</v>
+        <v>0.0429834</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0413429</v>
+        <v>0.0410357</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06149</v>
+        <v>0.0614276</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0443661</v>
+        <v>0.0461973</v>
       </c>
       <c r="D62" t="n">
-        <v>0.045207</v>
+        <v>0.0449834</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0736103</v>
+        <v>0.0735058</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0498094</v>
+        <v>0.051484</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0515498</v>
+        <v>0.0510539</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0918654</v>
+        <v>0.0917254</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0584765</v>
+        <v>0.059908</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0615253</v>
+        <v>0.0611971</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.120033</v>
+        <v>0.11989</v>
       </c>
       <c r="C65" t="n">
-        <v>0.073142</v>
+        <v>0.0744621</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07866529999999999</v>
+        <v>0.0788012</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.162416</v>
+        <v>0.162384</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0402377</v>
+        <v>0.0398582</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0386027</v>
+        <v>0.0379535</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0416998</v>
+        <v>0.0424654</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0405888</v>
+        <v>0.0402861</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0389675</v>
+        <v>0.0383322</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0423226</v>
+        <v>0.0430872</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0409839</v>
+        <v>0.0406294</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0393769</v>
+        <v>0.0387576</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0433821</v>
+        <v>0.0441261</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0413717</v>
+        <v>0.0410154</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0397844</v>
+        <v>0.0391228</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0444135</v>
+        <v>0.0451259</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0418897</v>
+        <v>0.0416254</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0403741</v>
+        <v>0.0397122</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0457133</v>
+        <v>0.0464201</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0424598</v>
+        <v>0.0422512</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0409656</v>
+        <v>0.0402982</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.047393</v>
+        <v>0.048119</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0432723</v>
+        <v>0.0430739</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0418328</v>
+        <v>0.0411744</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0496783</v>
+        <v>0.0504506</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0442474</v>
+        <v>0.0440047</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0428854</v>
+        <v>0.042187</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0530884</v>
+        <v>0.0539404</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0456297</v>
+        <v>0.0453275</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0443527</v>
+        <v>0.0437092</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0578824</v>
+        <v>0.0587744</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0476567</v>
+        <v>0.0474233</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0466733</v>
+        <v>0.0460224</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0649716</v>
+        <v>0.0660617</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0506493</v>
+        <v>0.0504202</v>
       </c>
       <c r="D76" t="n">
-        <v>0.050024</v>
+        <v>0.0495185</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0757548</v>
+        <v>0.0768947</v>
       </c>
       <c r="C77" t="n">
-        <v>0.055442</v>
+        <v>0.0552837</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0554325</v>
+        <v>0.0550852</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0924166</v>
+        <v>0.09357699999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.06263970000000001</v>
+        <v>0.0626559</v>
       </c>
       <c r="D78" t="n">
-        <v>0.06368219999999999</v>
+        <v>0.0634202</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.118412</v>
+        <v>0.119412</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0754809</v>
+        <v>0.0756038</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0784779</v>
+        <v>0.0778105</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.157803</v>
+        <v>0.159149</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0437419</v>
+        <v>0.0445259</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0440775</v>
+        <v>0.0436384</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0482512</v>
+        <v>0.0474944</v>
       </c>
       <c r="C81" t="n">
+        <v>0.0452586</v>
+      </c>
+      <c r="D81" t="n">
         <v>0.044269</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.0446348</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0494665</v>
+        <v>0.0489637</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0448611</v>
+        <v>0.0459123</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0451552</v>
+        <v>0.0448871</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0507571</v>
+        <v>0.0504636</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0455115</v>
+        <v>0.0464997</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0457751</v>
+        <v>0.0454684</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0526616</v>
+        <v>0.052502</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0462707</v>
+        <v>0.0473388</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0464663</v>
+        <v>0.0463795</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0550825</v>
+        <v>0.0548801</v>
       </c>
       <c r="C85" t="n">
-        <v>0.047292</v>
+        <v>0.0483488</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0474394</v>
+        <v>0.0474966</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0584833</v>
+        <v>0.0581909</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0489226</v>
+        <v>0.0497181</v>
       </c>
       <c r="D86" t="n">
-        <v>0.049099</v>
+        <v>0.0492278</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0624985</v>
+        <v>0.0624085</v>
       </c>
       <c r="C87" t="n">
-        <v>0.050789</v>
+        <v>0.0517185</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0509555</v>
+        <v>0.0514351</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0677488</v>
+        <v>0.0678627</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0534064</v>
+        <v>0.0544683</v>
       </c>
       <c r="D88" t="n">
-        <v>0.053848</v>
+        <v>0.0542391</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0744547</v>
+        <v>0.0747293</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0567317</v>
+        <v>0.0578902</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0573619</v>
+        <v>0.0579821</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08346820000000001</v>
+        <v>0.0841153</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0611799</v>
+        <v>0.0625671</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0622427</v>
+        <v>0.06301320000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09582309999999999</v>
+        <v>0.0963688</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0673552</v>
+        <v>0.0689877</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06860189999999999</v>
+        <v>0.0694815</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111818</v>
+        <v>0.112441</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07594049999999999</v>
+        <v>0.0779905</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07792499999999999</v>
+        <v>0.0785922</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.134739</v>
+        <v>0.135259</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0889568</v>
+        <v>0.09113789999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0925081</v>
+        <v>0.0928962</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168956</v>
+        <v>0.169446</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0525319</v>
+        <v>0.053948</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0539261</v>
+        <v>0.0540353</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0676773</v>
+        <v>0.0682007</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0563536</v>
+        <v>0.0555696</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0547132</v>
+        <v>0.0550585</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.069969</v>
+        <v>0.07061190000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0576394</v>
+        <v>0.0574713</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0573389</v>
+        <v>0.0573943</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0726923</v>
+        <v>0.07350660000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0596854</v>
+        <v>0.0593492</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0593453</v>
+        <v>0.059443</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07577150000000001</v>
+        <v>0.07625460000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0615673</v>
+        <v>0.0612139</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0608392</v>
+        <v>0.0614384</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.078717</v>
+        <v>0.0792076</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0625737</v>
+        <v>0.06357210000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0613794</v>
+        <v>0.0628758</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0810771</v>
+        <v>0.0823147</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0653342</v>
+        <v>0.06496730000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06476609999999999</v>
+        <v>0.065221</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0859303</v>
+        <v>0.0862584</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0664347</v>
+        <v>0.0670618</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0665355</v>
+        <v>0.067452</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0904894</v>
+        <v>0.0893109</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0700224</v>
+        <v>0.0704153</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0698903</v>
+        <v>0.0696208</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0963043</v>
+        <v>0.0969095</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0722657</v>
+        <v>0.07273789999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0710156</v>
+        <v>0.0732545</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104431</v>
+        <v>0.103725</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0757649</v>
+        <v>0.07662770000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0764707</v>
+        <v>0.0773576</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115844</v>
+        <v>0.115089</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0808975</v>
+        <v>0.0821052</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0826559</v>
+        <v>0.0830335</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131262</v>
+        <v>0.130351</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0895698</v>
+        <v>0.0904742</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0915435</v>
+        <v>0.0925918</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.153513</v>
+        <v>0.152179</v>
       </c>
       <c r="C107" t="n">
-        <v>0.102481</v>
+        <v>0.103564</v>
       </c>
       <c r="D107" t="n">
-        <v>0.103794</v>
+        <v>0.105592</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.185264</v>
+        <v>0.186142</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0604533</v>
+        <v>0.0604517</v>
       </c>
       <c r="D108" t="n">
-        <v>0.061294</v>
+        <v>0.0617258</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231945</v>
+        <v>0.232642</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0634382</v>
+        <v>0.0618754</v>
       </c>
       <c r="D109" t="n">
-        <v>0.06266629999999999</v>
+        <v>0.0630334</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08081199999999999</v>
+        <v>0.0811326</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0648903</v>
+        <v>0.0630329</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0641328</v>
+        <v>0.0643268</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0839883</v>
+        <v>0.083951</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0642625</v>
+        <v>0.0644559</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0657626</v>
+        <v>0.0658765</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0877623</v>
+        <v>0.0880373</v>
       </c>
       <c r="C112" t="n">
-        <v>0.06589100000000001</v>
+        <v>0.0667466</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0677268</v>
+        <v>0.0676626</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.091376</v>
+        <v>0.0915667</v>
       </c>
       <c r="C113" t="n">
-        <v>0.07014579999999999</v>
+        <v>0.0703324</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0696218</v>
+        <v>0.0699515</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09535399999999999</v>
+        <v>0.0967122</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0728231</v>
+        <v>0.0730176</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0723087</v>
+        <v>0.0720373</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101829</v>
+        <v>0.102129</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0762477</v>
+        <v>0.075934</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07545</v>
+        <v>0.0758842</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107875</v>
+        <v>0.107991</v>
       </c>
       <c r="C116" t="n">
-        <v>0.079946</v>
+        <v>0.07977099999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.079417</v>
+        <v>0.0791695</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114673</v>
+        <v>0.113791</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0845395</v>
+        <v>0.0845359</v>
       </c>
       <c r="D117" t="n">
-        <v>0.084148</v>
+        <v>0.0834405</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.122855</v>
+        <v>0.122171</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0898065</v>
+        <v>0.0901827</v>
       </c>
       <c r="D118" t="n">
-        <v>0.08937580000000001</v>
+        <v>0.0894329</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133446</v>
+        <v>0.13394</v>
       </c>
       <c r="C119" t="n">
-        <v>0.096803</v>
+        <v>0.0971887</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0969256</v>
+        <v>0.0968625</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145842</v>
+        <v>0.14773</v>
       </c>
       <c r="C120" t="n">
-        <v>0.102823</v>
+        <v>0.106011</v>
       </c>
       <c r="D120" t="n">
-        <v>0.105761</v>
+        <v>0.105553</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.16612</v>
+        <v>0.166538</v>
       </c>
       <c r="C121" t="n">
-        <v>0.117815</v>
+        <v>0.117977</v>
       </c>
       <c r="D121" t="n">
-        <v>0.117768</v>
+        <v>0.118575</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.193805</v>
+        <v>0.194344</v>
       </c>
       <c r="C122" t="n">
-        <v>0.136382</v>
+        <v>0.136541</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1384</v>
+        <v>0.13845</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232177</v>
+        <v>0.235607</v>
       </c>
       <c r="C123" t="n">
-        <v>0.08805540000000001</v>
+        <v>0.0823897</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0819227</v>
+        <v>0.0930251</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103687</v>
+        <v>0.103099</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0903678</v>
+        <v>0.0864075</v>
       </c>
       <c r="D124" t="n">
-        <v>0.08454589999999999</v>
+        <v>0.0937655</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.109762</v>
+        <v>0.104962</v>
       </c>
       <c r="C125" t="n">
-        <v>0.08888649999999999</v>
+        <v>0.09012870000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0863043</v>
+        <v>0.09417440000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.110681</v>
+        <v>0.110028</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0975931</v>
+        <v>0.09021800000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.09118370000000001</v>
+        <v>0.0943937</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.112811</v>
+        <v>0.112933</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0936567</v>
+        <v>0.0938741</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0924719</v>
+        <v>0.100355</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113838</v>
+        <v>0.110753</v>
       </c>
       <c r="C128" t="n">
-        <v>0.095903</v>
+        <v>0.0926307</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0957254</v>
+        <v>0.0994459</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118497</v>
+        <v>0.118303</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0969776</v>
+        <v>0.098495</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0963429</v>
+        <v>0.102889</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122556</v>
+        <v>0.120306</v>
       </c>
       <c r="C130" t="n">
-        <v>0.09859080000000001</v>
+        <v>0.0995925</v>
       </c>
       <c r="D130" t="n">
-        <v>0.100607</v>
+        <v>0.104818</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127477</v>
+        <v>0.127776</v>
       </c>
       <c r="C131" t="n">
-        <v>0.105178</v>
+        <v>0.106029</v>
       </c>
       <c r="D131" t="n">
-        <v>0.102471</v>
+        <v>0.107453</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.134491</v>
+        <v>0.133149</v>
       </c>
       <c r="C132" t="n">
-        <v>0.108923</v>
+        <v>0.105482</v>
       </c>
       <c r="D132" t="n">
-        <v>0.106013</v>
+        <v>0.111039</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.14404</v>
+        <v>0.142239</v>
       </c>
       <c r="C133" t="n">
-        <v>0.11061</v>
+        <v>0.111753</v>
       </c>
       <c r="D133" t="n">
-        <v>0.113879</v>
+        <v>0.115462</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.156591</v>
+        <v>0.155798</v>
       </c>
       <c r="C134" t="n">
-        <v>0.116013</v>
+        <v>0.114959</v>
       </c>
       <c r="D134" t="n">
-        <v>0.118986</v>
+        <v>0.124295</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.173524</v>
+        <v>0.17603</v>
       </c>
       <c r="C135" t="n">
-        <v>0.129205</v>
+        <v>0.131811</v>
       </c>
       <c r="D135" t="n">
-        <v>0.130496</v>
+        <v>0.132825</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197924</v>
+        <v>0.198299</v>
       </c>
       <c r="C136" t="n">
-        <v>0.146507</v>
+        <v>0.143931</v>
       </c>
       <c r="D136" t="n">
-        <v>0.145751</v>
+        <v>0.15028</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236598</v>
+        <v>0.236782</v>
       </c>
       <c r="C137" t="n">
-        <v>0.163866</v>
+        <v>0.165715</v>
       </c>
       <c r="D137" t="n">
-        <v>0.16845</v>
+        <v>0.172327</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.172386</v>
+        <v>0.162636</v>
       </c>
       <c r="C138" t="n">
-        <v>0.161751</v>
+        <v>0.168909</v>
       </c>
       <c r="D138" t="n">
-        <v>0.168968</v>
+        <v>0.17255</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.172241</v>
+        <v>0.167211</v>
       </c>
       <c r="C139" t="n">
-        <v>0.167913</v>
+        <v>0.169718</v>
       </c>
       <c r="D139" t="n">
-        <v>0.170526</v>
+        <v>0.174278</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.168903</v>
+        <v>0.169526</v>
       </c>
       <c r="C140" t="n">
-        <v>0.171058</v>
+        <v>0.170325</v>
       </c>
       <c r="D140" t="n">
-        <v>0.171572</v>
+        <v>0.175018</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.170089</v>
+        <v>0.169403</v>
       </c>
       <c r="C141" t="n">
-        <v>0.171036</v>
+        <v>0.172625</v>
       </c>
       <c r="D141" t="n">
-        <v>0.172374</v>
+        <v>0.179397</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.179039</v>
+        <v>0.171735</v>
       </c>
       <c r="C142" t="n">
-        <v>0.172324</v>
+        <v>0.174177</v>
       </c>
       <c r="D142" t="n">
-        <v>0.174625</v>
+        <v>0.176895</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.174839</v>
+        <v>0.180836</v>
       </c>
       <c r="C143" t="n">
-        <v>0.17454</v>
+        <v>0.177137</v>
       </c>
       <c r="D143" t="n">
-        <v>0.176256</v>
+        <v>0.180501</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.033363</v>
+        <v>0.034238</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0328525</v>
+        <v>0.0327791</v>
       </c>
       <c r="D2" t="n">
-        <v>0.120698</v>
+        <v>0.121766</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0351808</v>
+        <v>0.0360757</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0346413</v>
+        <v>0.0342542</v>
       </c>
       <c r="D3" t="n">
-        <v>0.132797</v>
+        <v>0.13185</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0373362</v>
+        <v>0.0369333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.034751</v>
+        <v>0.0344529</v>
       </c>
       <c r="D4" t="n">
-        <v>0.142555</v>
+        <v>0.142041</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0413158</v>
+        <v>0.0422892</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0365173</v>
+        <v>0.0367412</v>
       </c>
       <c r="D5" t="n">
-        <v>0.147601</v>
+        <v>0.146361</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0515986</v>
+        <v>0.050618</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0386416</v>
+        <v>0.0386517</v>
       </c>
       <c r="D6" t="n">
-        <v>0.154509</v>
+        <v>0.153571</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0748717</v>
+        <v>0.0732399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.045053</v>
+        <v>0.0448815</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0976486</v>
+        <v>0.0992907</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.11326</v>
+        <v>0.105657</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0623914</v>
+        <v>0.06262330000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.104718</v>
+        <v>0.10581</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.153068</v>
+        <v>0.150987</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0296852</v>
+        <v>0.0296449</v>
       </c>
       <c r="D9" t="n">
-        <v>0.111508</v>
+        <v>0.112245</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0309958</v>
+        <v>0.0317649</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0298097</v>
+        <v>0.0298119</v>
       </c>
       <c r="D10" t="n">
-        <v>0.118003</v>
+        <v>0.119024</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0319915</v>
+        <v>0.031611</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0301445</v>
+        <v>0.030165</v>
       </c>
       <c r="D11" t="n">
-        <v>0.123044</v>
+        <v>0.124209</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0322929</v>
+        <v>0.0328774</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0305603</v>
+        <v>0.0305175</v>
       </c>
       <c r="D12" t="n">
-        <v>0.128917</v>
+        <v>0.129748</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0330886</v>
+        <v>0.0334134</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0309581</v>
+        <v>0.0308345</v>
       </c>
       <c r="D13" t="n">
-        <v>0.133187</v>
+        <v>0.134073</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0338479</v>
+        <v>0.0341767</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0312245</v>
+        <v>0.0311986</v>
       </c>
       <c r="D14" t="n">
-        <v>0.137871</v>
+        <v>0.13902</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0350822</v>
+        <v>0.0356342</v>
       </c>
       <c r="C15" t="n">
-        <v>0.031988</v>
+        <v>0.0319788</v>
       </c>
       <c r="D15" t="n">
-        <v>0.142917</v>
+        <v>0.143383</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0368551</v>
+        <v>0.0371374</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0326512</v>
+        <v>0.0325575</v>
       </c>
       <c r="D16" t="n">
-        <v>0.147043</v>
+        <v>0.147207</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0390836</v>
+        <v>0.0395617</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0335989</v>
+        <v>0.0336778</v>
       </c>
       <c r="D17" t="n">
-        <v>0.151064</v>
+        <v>0.151047</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.042694</v>
+        <v>0.0442282</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0347453</v>
+        <v>0.0347882</v>
       </c>
       <c r="D18" t="n">
-        <v>0.155427</v>
+        <v>0.155471</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0507429</v>
+        <v>0.0508056</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0369437</v>
+        <v>0.0369372</v>
       </c>
       <c r="D19" t="n">
-        <v>0.159304</v>
+        <v>0.159841</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.061648</v>
+        <v>0.0647383</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0403979</v>
+        <v>0.0400915</v>
       </c>
       <c r="D20" t="n">
-        <v>0.163853</v>
+        <v>0.163664</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07689120000000001</v>
+        <v>0.0832015</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0481841</v>
+        <v>0.047973</v>
       </c>
       <c r="D21" t="n">
-        <v>0.113934</v>
+        <v>0.114531</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.103488</v>
+        <v>0.10859</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0649219</v>
+        <v>0.0647199</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119279</v>
+        <v>0.119779</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140561</v>
+        <v>0.150289</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0302433</v>
+        <v>0.0302353</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124229</v>
+        <v>0.124817</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0334156</v>
+        <v>0.0332015</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0305427</v>
+        <v>0.030662</v>
       </c>
       <c r="D24" t="n">
-        <v>0.129383</v>
+        <v>0.129791</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0337499</v>
+        <v>0.0338979</v>
       </c>
       <c r="C25" t="n">
-        <v>0.030929</v>
+        <v>0.0309944</v>
       </c>
       <c r="D25" t="n">
-        <v>0.133899</v>
+        <v>0.134419</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0346353</v>
+        <v>0.0346303</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0312723</v>
+        <v>0.0312239</v>
       </c>
       <c r="D26" t="n">
-        <v>0.138349</v>
+        <v>0.138741</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0353819</v>
+        <v>0.0350619</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0315769</v>
+        <v>0.0316857</v>
       </c>
       <c r="D27" t="n">
-        <v>0.143115</v>
+        <v>0.143274</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0363532</v>
+        <v>0.036223</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0323042</v>
+        <v>0.0322461</v>
       </c>
       <c r="D28" t="n">
-        <v>0.147308</v>
+        <v>0.147995</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0376891</v>
+        <v>0.0375828</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0331483</v>
+        <v>0.0329821</v>
       </c>
       <c r="D29" t="n">
-        <v>0.152247</v>
+        <v>0.152365</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0396597</v>
+        <v>0.0395926</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0339773</v>
+        <v>0.0339346</v>
       </c>
       <c r="D30" t="n">
-        <v>0.156851</v>
+        <v>0.157508</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.042868</v>
+        <v>0.0424839</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0351507</v>
+        <v>0.0351618</v>
       </c>
       <c r="D31" t="n">
-        <v>0.160868</v>
+        <v>0.161405</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0471597</v>
+        <v>0.0466666</v>
       </c>
       <c r="C32" t="n">
-        <v>0.036604</v>
+        <v>0.0365722</v>
       </c>
       <c r="D32" t="n">
-        <v>0.165274</v>
+        <v>0.164713</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0541409</v>
+        <v>0.0525401</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0392645</v>
+        <v>0.0392946</v>
       </c>
       <c r="D33" t="n">
-        <v>0.170146</v>
+        <v>0.169465</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.063386</v>
+        <v>0.0628084</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0442581</v>
+        <v>0.0441621</v>
       </c>
       <c r="D34" t="n">
-        <v>0.174156</v>
+        <v>0.173707</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0777109</v>
+        <v>0.07937859999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0505089</v>
+        <v>0.0506193</v>
       </c>
       <c r="D35" t="n">
-        <v>0.120492</v>
+        <v>0.120532</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0981461</v>
+        <v>0.101645</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0620605</v>
+        <v>0.0621192</v>
       </c>
       <c r="D36" t="n">
-        <v>0.125126</v>
+        <v>0.125175</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130601</v>
+        <v>0.137273</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0311716</v>
+        <v>0.0310891</v>
       </c>
       <c r="D37" t="n">
-        <v>0.129643</v>
+        <v>0.129819</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0337999</v>
+        <v>0.033961</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0316583</v>
+        <v>0.0315727</v>
       </c>
       <c r="D38" t="n">
-        <v>0.134723</v>
+        <v>0.134893</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0344508</v>
+        <v>0.0343356</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0320486</v>
+        <v>0.0318788</v>
       </c>
       <c r="D39" t="n">
-        <v>0.139437</v>
+        <v>0.139536</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0351488</v>
+        <v>0.0349925</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0327186</v>
+        <v>0.0322811</v>
       </c>
       <c r="D40" t="n">
-        <v>0.143786</v>
+        <v>0.143985</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0358768</v>
+        <v>0.0365341</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0328306</v>
+        <v>0.0327667</v>
       </c>
       <c r="D41" t="n">
-        <v>0.148247</v>
+        <v>0.148258</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0374417</v>
+        <v>0.0377671</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0333955</v>
+        <v>0.0333047</v>
       </c>
       <c r="D42" t="n">
-        <v>0.153009</v>
+        <v>0.152947</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0383135</v>
+        <v>0.0387726</v>
       </c>
       <c r="C43" t="n">
-        <v>0.034132</v>
+        <v>0.0339217</v>
       </c>
       <c r="D43" t="n">
-        <v>0.157659</v>
+        <v>0.157797</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0404496</v>
+        <v>0.0410952</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0348625</v>
+        <v>0.0346861</v>
       </c>
       <c r="D44" t="n">
-        <v>0.161863</v>
+        <v>0.161447</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0430504</v>
+        <v>0.0439329</v>
       </c>
       <c r="C45" t="n">
-        <v>0.035917</v>
+        <v>0.0358206</v>
       </c>
       <c r="D45" t="n">
-        <v>0.166038</v>
+        <v>0.165836</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0469971</v>
+        <v>0.0481007</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0374144</v>
+        <v>0.0373568</v>
       </c>
       <c r="D46" t="n">
-        <v>0.170487</v>
+        <v>0.169976</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0531391</v>
+        <v>0.0561278</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0397659</v>
+        <v>0.0397097</v>
       </c>
       <c r="D47" t="n">
-        <v>0.174787</v>
+        <v>0.17444</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0608928</v>
+        <v>0.0629043</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0443795</v>
+        <v>0.043876</v>
       </c>
       <c r="D48" t="n">
-        <v>0.179293</v>
+        <v>0.179162</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07381890000000001</v>
+        <v>0.0767359</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0503039</v>
+        <v>0.0502203</v>
       </c>
       <c r="D49" t="n">
-        <v>0.184004</v>
+        <v>0.183517</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09234589999999999</v>
+        <v>0.09680179999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0596132</v>
+        <v>0.0596163</v>
       </c>
       <c r="D50" t="n">
-        <v>0.126499</v>
+        <v>0.126478</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.12368</v>
+        <v>0.126985</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0341462</v>
+        <v>0.0335619</v>
       </c>
       <c r="D51" t="n">
-        <v>0.13114</v>
+        <v>0.131065</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168448</v>
+        <v>0.172212</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0348455</v>
+        <v>0.0339247</v>
       </c>
       <c r="D52" t="n">
-        <v>0.135783</v>
+        <v>0.136145</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0362593</v>
+        <v>0.0365552</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0343309</v>
+        <v>0.033784</v>
       </c>
       <c r="D53" t="n">
-        <v>0.140861</v>
+        <v>0.140622</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0369272</v>
+        <v>0.0368312</v>
       </c>
       <c r="C54" t="n">
-        <v>0.035879</v>
+        <v>0.0359625</v>
       </c>
       <c r="D54" t="n">
-        <v>0.14578</v>
+        <v>0.145974</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0378504</v>
+        <v>0.0372239</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0351739</v>
+        <v>0.0345803</v>
       </c>
       <c r="D55" t="n">
-        <v>0.150503</v>
+        <v>0.150555</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0384271</v>
+        <v>0.0384456</v>
       </c>
       <c r="C56" t="n">
-        <v>0.035759</v>
+        <v>0.0349546</v>
       </c>
       <c r="D56" t="n">
-        <v>0.155227</v>
+        <v>0.15627</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0401797</v>
+        <v>0.0398339</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0368392</v>
+        <v>0.0358048</v>
       </c>
       <c r="D57" t="n">
-        <v>0.159587</v>
+        <v>0.161537</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0417505</v>
+        <v>0.0418346</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0371906</v>
+        <v>0.0364498</v>
       </c>
       <c r="D58" t="n">
-        <v>0.164312</v>
+        <v>0.166737</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0443035</v>
+        <v>0.0454199</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0381056</v>
+        <v>0.0377697</v>
       </c>
       <c r="D59" t="n">
-        <v>0.16855</v>
+        <v>0.172137</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0479401</v>
+        <v>0.0486664</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0404034</v>
+        <v>0.0420553</v>
       </c>
       <c r="D60" t="n">
-        <v>0.173335</v>
+        <v>0.177883</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0525699</v>
+        <v>0.0551095</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0428628</v>
+        <v>0.043705</v>
       </c>
       <c r="D61" t="n">
-        <v>0.177702</v>
+        <v>0.184084</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0615826</v>
+        <v>0.0641381</v>
       </c>
       <c r="C62" t="n">
         <v>0.045281</v>
       </c>
       <c r="D62" t="n">
-        <v>0.182812</v>
+        <v>0.189238</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.072404</v>
+        <v>0.0747989</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0512879</v>
+        <v>0.0526409</v>
       </c>
       <c r="D63" t="n">
-        <v>0.187694</v>
+        <v>0.194509</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08911769999999999</v>
+        <v>0.0927573</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0591517</v>
+        <v>0.0592912</v>
       </c>
       <c r="D64" t="n">
-        <v>0.134221</v>
+        <v>0.144429</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117427</v>
+        <v>0.120046</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0734865</v>
+        <v>0.0741782</v>
       </c>
       <c r="D65" t="n">
-        <v>0.142537</v>
+        <v>0.151502</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.158958</v>
+        <v>0.164208</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0397878</v>
+        <v>0.0419036</v>
       </c>
       <c r="D66" t="n">
-        <v>0.151296</v>
+        <v>0.162665</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0412153</v>
+        <v>0.0414041</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0406499</v>
+        <v>0.0424908</v>
       </c>
       <c r="D67" t="n">
-        <v>0.158098</v>
+        <v>0.168623</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0417992</v>
+        <v>0.0414463</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0402802</v>
+        <v>0.0436824</v>
       </c>
       <c r="D68" t="n">
-        <v>0.166301</v>
+        <v>0.178533</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0429005</v>
+        <v>0.043856</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0403401</v>
+        <v>0.042338</v>
       </c>
       <c r="D69" t="n">
-        <v>0.175076</v>
+        <v>0.186825</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0439797</v>
+        <v>0.0451338</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0409026</v>
+        <v>0.0429681</v>
       </c>
       <c r="D70" t="n">
-        <v>0.185651</v>
+        <v>0.195872</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0449505</v>
+        <v>0.0455128</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0416222</v>
+        <v>0.0424236</v>
       </c>
       <c r="D71" t="n">
-        <v>0.195137</v>
+        <v>0.205959</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0467198</v>
+        <v>0.0470086</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0428437</v>
+        <v>0.0428016</v>
       </c>
       <c r="D72" t="n">
-        <v>0.206022</v>
+        <v>0.215663</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0490815</v>
+        <v>0.0493527</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0439002</v>
+        <v>0.0438177</v>
       </c>
       <c r="D73" t="n">
-        <v>0.217502</v>
+        <v>0.223742</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0524893</v>
+        <v>0.0526737</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0453362</v>
+        <v>0.0451043</v>
       </c>
       <c r="D74" t="n">
-        <v>0.230141</v>
+        <v>0.237322</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0576712</v>
+        <v>0.0591134</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0476717</v>
+        <v>0.0480158</v>
       </c>
       <c r="D75" t="n">
-        <v>0.241784</v>
+        <v>0.247407</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0652167</v>
+        <v>0.0673816</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0509468</v>
+        <v>0.0509419</v>
       </c>
       <c r="D76" t="n">
-        <v>0.255438</v>
+        <v>0.259276</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07564</v>
+        <v>0.07900310000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0554912</v>
+        <v>0.0561936</v>
       </c>
       <c r="D77" t="n">
-        <v>0.268639</v>
+        <v>0.271626</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0906081</v>
+        <v>0.0925002</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0625589</v>
+        <v>0.0648683</v>
       </c>
       <c r="D78" t="n">
-        <v>0.219411</v>
+        <v>0.232745</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.116109</v>
+        <v>0.121052</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0758186</v>
+        <v>0.0766545</v>
       </c>
       <c r="D79" t="n">
-        <v>0.232417</v>
+        <v>0.245509</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154123</v>
+        <v>0.159939</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0447469</v>
+        <v>0.0446646</v>
       </c>
       <c r="D80" t="n">
-        <v>0.245432</v>
+        <v>0.257028</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0475561</v>
+        <v>0.0475985</v>
       </c>
       <c r="C81" t="n">
-        <v>0.04499</v>
+        <v>0.0451175</v>
       </c>
       <c r="D81" t="n">
-        <v>0.259249</v>
+        <v>0.263607</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0486174</v>
+        <v>0.0488884</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0457512</v>
+        <v>0.0455503</v>
       </c>
       <c r="D82" t="n">
-        <v>0.270851</v>
+        <v>0.280413</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0498398</v>
+        <v>0.0502881</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0464668</v>
+        <v>0.0463033</v>
       </c>
       <c r="D83" t="n">
-        <v>0.284383</v>
+        <v>0.293425</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0518805</v>
+        <v>0.0522577</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0468991</v>
+        <v>0.0472973</v>
       </c>
       <c r="D84" t="n">
-        <v>0.298349</v>
+        <v>0.307669</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0544441</v>
+        <v>0.0549573</v>
       </c>
       <c r="C85" t="n">
-        <v>0.048007</v>
+        <v>0.0483864</v>
       </c>
       <c r="D85" t="n">
-        <v>0.313441</v>
+        <v>0.321513</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0578208</v>
+        <v>0.0582991</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0496322</v>
+        <v>0.0497247</v>
       </c>
       <c r="D86" t="n">
-        <v>0.328763</v>
+        <v>0.335605</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0616923</v>
+        <v>0.0618942</v>
       </c>
       <c r="C87" t="n">
-        <v>0.051122</v>
+        <v>0.05161</v>
       </c>
       <c r="D87" t="n">
-        <v>0.344394</v>
+        <v>0.35104</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.067472</v>
+        <v>0.0675123</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0541282</v>
+        <v>0.0543622</v>
       </c>
       <c r="D88" t="n">
-        <v>0.360475</v>
+        <v>0.368231</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0741231</v>
+        <v>0.0739281</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0571756</v>
+        <v>0.057061</v>
       </c>
       <c r="D89" t="n">
-        <v>0.378219</v>
+        <v>0.382346</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0832536</v>
+        <v>0.0826788</v>
       </c>
       <c r="C90" t="n">
-        <v>0.061953</v>
+        <v>0.0616325</v>
       </c>
       <c r="D90" t="n">
-        <v>0.395886</v>
+        <v>0.39725</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0944021</v>
+        <v>0.0947346</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0683699</v>
+        <v>0.0686667</v>
       </c>
       <c r="D91" t="n">
-        <v>0.413073</v>
+        <v>0.413884</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111324</v>
+        <v>0.110758</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0779557</v>
+        <v>0.07711519999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.334056</v>
+        <v>0.332889</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.134077</v>
+        <v>0.13349</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0913229</v>
+        <v>0.09084589999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.345114</v>
+        <v>0.344352</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.167363</v>
+        <v>0.167119</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0550466</v>
+        <v>0.0539411</v>
       </c>
       <c r="D94" t="n">
-        <v>0.356697</v>
+        <v>0.355786</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0673401</v>
+        <v>0.0670593</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0559768</v>
+        <v>0.0562958</v>
       </c>
       <c r="D95" t="n">
-        <v>0.368718</v>
+        <v>0.367794</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0703783</v>
+        <v>0.069855</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0585391</v>
+        <v>0.0577763</v>
       </c>
       <c r="D96" t="n">
-        <v>0.38085</v>
+        <v>0.380114</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0731726</v>
+        <v>0.0722241</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0601354</v>
+        <v>0.0591628</v>
       </c>
       <c r="D97" t="n">
-        <v>0.393755</v>
+        <v>0.393131</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0751478</v>
+        <v>0.0753771</v>
       </c>
       <c r="C98" t="n">
-        <v>0.061681</v>
+        <v>0.0611303</v>
       </c>
       <c r="D98" t="n">
-        <v>0.406931</v>
+        <v>0.405855</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0784697</v>
+        <v>0.0788533</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0632635</v>
+        <v>0.0639349</v>
       </c>
       <c r="D99" t="n">
-        <v>0.420833</v>
+        <v>0.419807</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0827846</v>
+        <v>0.0807832</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0654781</v>
+        <v>0.0657705</v>
       </c>
       <c r="D100" t="n">
-        <v>0.434792</v>
+        <v>0.434296</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08616459999999999</v>
+        <v>0.08587</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0675236</v>
+        <v>0.0680897</v>
       </c>
       <c r="D101" t="n">
-        <v>0.449654</v>
+        <v>0.449329</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09087729999999999</v>
+        <v>0.0908089</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0707589</v>
+        <v>0.0698293</v>
       </c>
       <c r="D102" t="n">
-        <v>0.465543</v>
+        <v>0.464954</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0974945</v>
+        <v>0.0965009</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0740986</v>
+        <v>0.0728748</v>
       </c>
       <c r="D103" t="n">
-        <v>0.482258</v>
+        <v>0.481727</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.105522</v>
+        <v>0.104716</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07820240000000001</v>
+        <v>0.0781302</v>
       </c>
       <c r="D104" t="n">
-        <v>0.49936</v>
+        <v>0.49901</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.116619</v>
+        <v>0.115927</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0840323</v>
+        <v>0.0835688</v>
       </c>
       <c r="D105" t="n">
-        <v>0.517398</v>
+        <v>0.516754</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131917</v>
+        <v>0.131675</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0916886</v>
+        <v>0.0907297</v>
       </c>
       <c r="D106" t="n">
-        <v>0.534973</v>
+        <v>0.535173</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.153471</v>
+        <v>0.152899</v>
       </c>
       <c r="C107" t="n">
-        <v>0.105056</v>
+        <v>0.103157</v>
       </c>
       <c r="D107" t="n">
-        <v>0.405494</v>
+        <v>0.405408</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.184085</v>
+        <v>0.18179</v>
       </c>
       <c r="C108" t="n">
-        <v>0.06266960000000001</v>
+        <v>0.060548</v>
       </c>
       <c r="D108" t="n">
-        <v>0.416119</v>
+        <v>0.416304</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.230318</v>
+        <v>0.229557</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0639327</v>
+        <v>0.0636197</v>
       </c>
       <c r="D109" t="n">
-        <v>0.427318</v>
+        <v>0.427181</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08111260000000001</v>
+        <v>0.0811419</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0630536</v>
+        <v>0.0649243</v>
       </c>
       <c r="D110" t="n">
-        <v>0.438775</v>
+        <v>0.438539</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0848391</v>
+        <v>0.0839632</v>
       </c>
       <c r="C111" t="n">
-        <v>0.06704649999999999</v>
+        <v>0.0665615</v>
       </c>
       <c r="D111" t="n">
-        <v>0.450408</v>
+        <v>0.450393</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0883331</v>
+        <v>0.0877546</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0677611</v>
+        <v>0.06807630000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.462932</v>
+        <v>0.462897</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0921848</v>
+        <v>0.0922042</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0707941</v>
+        <v>0.0706845</v>
       </c>
       <c r="D113" t="n">
-        <v>0.475925</v>
+        <v>0.476262</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09665459999999999</v>
+        <v>0.0969465</v>
       </c>
       <c r="C114" t="n">
-        <v>0.07274029999999999</v>
+        <v>0.07309110000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.489141</v>
+        <v>0.489537</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.102092</v>
+        <v>0.102294</v>
       </c>
       <c r="C115" t="n">
-        <v>0.07408339999999999</v>
+        <v>0.0763187</v>
       </c>
       <c r="D115" t="n">
-        <v>0.503764</v>
+        <v>0.503879</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106615</v>
+        <v>0.108254</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0798956</v>
+        <v>0.07795970000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5189589999999999</v>
+        <v>0.519251</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114927</v>
+        <v>0.114851</v>
       </c>
       <c r="C117" t="n">
-        <v>0.08450489999999999</v>
+        <v>0.0821783</v>
       </c>
       <c r="D117" t="n">
-        <v>0.534896</v>
+        <v>0.534556</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.12313</v>
+        <v>0.123205</v>
       </c>
       <c r="C118" t="n">
-        <v>0.08989800000000001</v>
+        <v>0.0901691</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5516219999999999</v>
+        <v>0.551312</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133226</v>
+        <v>0.133303</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0967382</v>
+        <v>0.0962708</v>
       </c>
       <c r="D119" t="n">
-        <v>0.565311</v>
+        <v>0.569563</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.146725</v>
+        <v>0.147151</v>
       </c>
       <c r="C120" t="n">
-        <v>0.102932</v>
+        <v>0.105167</v>
       </c>
       <c r="D120" t="n">
-        <v>0.583861</v>
+        <v>0.58771</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165041</v>
+        <v>0.163704</v>
       </c>
       <c r="C121" t="n">
-        <v>0.117621</v>
+        <v>0.11787</v>
       </c>
       <c r="D121" t="n">
-        <v>0.436557</v>
+        <v>0.436452</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192449</v>
+        <v>0.192478</v>
       </c>
       <c r="C122" t="n">
-        <v>0.13571</v>
+        <v>0.135925</v>
       </c>
       <c r="D122" t="n">
-        <v>0.447373</v>
+        <v>0.443716</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233872</v>
+        <v>0.233723</v>
       </c>
       <c r="C123" t="n">
-        <v>0.085509</v>
+        <v>0.08367819999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.454779</v>
+        <v>0.457759</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.107422</v>
+        <v>0.102197</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0856253</v>
+        <v>0.085998</v>
       </c>
       <c r="D124" t="n">
-        <v>0.469508</v>
+        <v>0.469229</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.113212</v>
+        <v>0.106071</v>
       </c>
       <c r="C125" t="n">
-        <v>0.09204560000000001</v>
+        <v>0.08775860000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.477949</v>
+        <v>0.480879</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.114976</v>
+        <v>0.107024</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0977859</v>
+        <v>0.0902546</v>
       </c>
       <c r="D126" t="n">
-        <v>0.493407</v>
+        <v>0.490231</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.11177</v>
+        <v>0.112546</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0893741</v>
+        <v>0.08733390000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5066040000000001</v>
+        <v>0.503795</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.12311</v>
+        <v>0.116913</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0930131</v>
+        <v>0.09498089999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.519852</v>
+        <v>0.52006</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.117351</v>
+        <v>0.118581</v>
       </c>
       <c r="C129" t="n">
-        <v>0.09603780000000001</v>
+        <v>0.0941694</v>
       </c>
       <c r="D129" t="n">
-        <v>0.531409</v>
+        <v>0.534513</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.123942</v>
+        <v>0.122571</v>
       </c>
       <c r="C130" t="n">
-        <v>0.105994</v>
+        <v>0.09953339999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.549831</v>
+        <v>0.549709</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.125889</v>
+        <v>0.126961</v>
       </c>
       <c r="C131" t="n">
-        <v>0.10046</v>
+        <v>0.102554</v>
       </c>
       <c r="D131" t="n">
-        <v>0.565852</v>
+        <v>0.5624440000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132181</v>
+        <v>0.133468</v>
       </c>
       <c r="C132" t="n">
-        <v>0.09928770000000001</v>
+        <v>0.108656</v>
       </c>
       <c r="D132" t="n">
-        <v>0.579125</v>
+        <v>0.582236</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141377</v>
+        <v>0.142474</v>
       </c>
       <c r="C133" t="n">
-        <v>0.111497</v>
+        <v>0.110252</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6007749999999999</v>
+        <v>0.600654</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.156271</v>
+        <v>0.156329</v>
       </c>
       <c r="C134" t="n">
-        <v>0.118538</v>
+        <v>0.120002</v>
       </c>
       <c r="D134" t="n">
-        <v>0.618826</v>
+        <v>0.617961</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.167043</v>
+        <v>0.172989</v>
       </c>
       <c r="C135" t="n">
-        <v>0.122058</v>
+        <v>0.129849</v>
       </c>
       <c r="D135" t="n">
-        <v>0.454666</v>
+        <v>0.454729</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.195758</v>
+        <v>0.194725</v>
       </c>
       <c r="C136" t="n">
-        <v>0.145192</v>
+        <v>0.147966</v>
       </c>
       <c r="D136" t="n">
-        <v>0.465092</v>
+        <v>0.464839</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.237336</v>
+        <v>0.236634</v>
       </c>
       <c r="C137" t="n">
-        <v>0.156236</v>
+        <v>0.165153</v>
       </c>
       <c r="D137" t="n">
-        <v>0.476587</v>
+        <v>0.476044</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.162457</v>
+        <v>0.166024</v>
       </c>
       <c r="C138" t="n">
-        <v>0.167822</v>
+        <v>0.154661</v>
       </c>
       <c r="D138" t="n">
-        <v>0.487921</v>
+        <v>0.485892</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.170749</v>
+        <v>0.173586</v>
       </c>
       <c r="C139" t="n">
-        <v>0.16942</v>
+        <v>0.165531</v>
       </c>
       <c r="D139" t="n">
-        <v>0.499785</v>
+        <v>0.499463</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.175192</v>
+        <v>0.165066</v>
       </c>
       <c r="C140" t="n">
-        <v>0.169169</v>
+        <v>0.168991</v>
       </c>
       <c r="D140" t="n">
-        <v>0.510707</v>
+        <v>0.509804</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.175366</v>
+        <v>0.176942</v>
       </c>
       <c r="C141" t="n">
-        <v>0.172827</v>
+        <v>0.163433</v>
       </c>
       <c r="D141" t="n">
-        <v>0.525244</v>
+        <v>0.524424</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.177172</v>
+        <v>0.175085</v>
       </c>
       <c r="C142" t="n">
-        <v>0.169679</v>
+        <v>0.175913</v>
       </c>
       <c r="D142" t="n">
-        <v>0.538394</v>
+        <v>0.538293</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.170537</v>
+        <v>0.176492</v>
       </c>
       <c r="C143" t="n">
-        <v>0.166111</v>
+        <v>0.181889</v>
       </c>
       <c r="D143" t="n">
-        <v>0.552801</v>
+        <v>0.550654</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.034238</v>
+        <v>0.0332798</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0327791</v>
+        <v>0.0353054</v>
       </c>
       <c r="D2" t="n">
-        <v>0.121766</v>
+        <v>0.114349</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0360757</v>
+        <v>0.0338505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0342542</v>
+        <v>0.0367413</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13185</v>
+        <v>0.120588</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0369333</v>
+        <v>0.0355697</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0344529</v>
+        <v>0.0381486</v>
       </c>
       <c r="D4" t="n">
-        <v>0.142041</v>
+        <v>0.12714</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0422892</v>
+        <v>0.0404473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0367412</v>
+        <v>0.0401566</v>
       </c>
       <c r="D5" t="n">
-        <v>0.146361</v>
+        <v>0.133236</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.050618</v>
+        <v>0.0500358</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0386517</v>
+        <v>0.0430705</v>
       </c>
       <c r="D6" t="n">
-        <v>0.153571</v>
+        <v>0.137923</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0732399</v>
+        <v>0.07166599999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0448815</v>
+        <v>0.0509553</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0992907</v>
+        <v>0.09515609999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.105657</v>
+        <v>0.105228</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06262330000000001</v>
+        <v>0.0720802</v>
       </c>
       <c r="D8" t="n">
-        <v>0.10581</v>
+        <v>0.1018</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150987</v>
+        <v>0.14942</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0296449</v>
+        <v>0.0317655</v>
       </c>
       <c r="D9" t="n">
-        <v>0.112245</v>
+        <v>0.107846</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0317649</v>
+        <v>0.0313147</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0298119</v>
+        <v>0.0322634</v>
       </c>
       <c r="D10" t="n">
-        <v>0.119024</v>
+        <v>0.114725</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.031611</v>
+        <v>0.0313978</v>
       </c>
       <c r="C11" t="n">
-        <v>0.030165</v>
+        <v>0.0323831</v>
       </c>
       <c r="D11" t="n">
-        <v>0.124209</v>
+        <v>0.120797</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0328774</v>
+        <v>0.0323718</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0305175</v>
+        <v>0.0329649</v>
       </c>
       <c r="D12" t="n">
-        <v>0.129748</v>
+        <v>0.125104</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0334134</v>
+        <v>0.0329965</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0308345</v>
+        <v>0.033447</v>
       </c>
       <c r="D13" t="n">
-        <v>0.134073</v>
+        <v>0.130586</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0341767</v>
+        <v>0.0336242</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0311986</v>
+        <v>0.0339903</v>
       </c>
       <c r="D14" t="n">
-        <v>0.13902</v>
+        <v>0.135458</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0356342</v>
+        <v>0.0348157</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0319788</v>
+        <v>0.0346892</v>
       </c>
       <c r="D15" t="n">
-        <v>0.143383</v>
+        <v>0.140237</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0371374</v>
+        <v>0.0364438</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0325575</v>
+        <v>0.0358942</v>
       </c>
       <c r="D16" t="n">
-        <v>0.147207</v>
+        <v>0.144851</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0395617</v>
+        <v>0.0390919</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0336778</v>
+        <v>0.0369567</v>
       </c>
       <c r="D17" t="n">
-        <v>0.151047</v>
+        <v>0.149094</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0442282</v>
+        <v>0.0430196</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0347882</v>
+        <v>0.0385909</v>
       </c>
       <c r="D18" t="n">
-        <v>0.155471</v>
+        <v>0.153438</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0508056</v>
+        <v>0.0504822</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0369372</v>
+        <v>0.0409736</v>
       </c>
       <c r="D19" t="n">
-        <v>0.159841</v>
+        <v>0.157867</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0647383</v>
+        <v>0.06485150000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0400915</v>
+        <v>0.0453511</v>
       </c>
       <c r="D20" t="n">
-        <v>0.163664</v>
+        <v>0.161934</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0832015</v>
+        <v>0.0833217</v>
       </c>
       <c r="C21" t="n">
-        <v>0.047973</v>
+        <v>0.0537873</v>
       </c>
       <c r="D21" t="n">
-        <v>0.114531</v>
+        <v>0.114893</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.10859</v>
+        <v>0.108086</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0647199</v>
+        <v>0.0707892</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119779</v>
+        <v>0.11989</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.150289</v>
+        <v>0.149562</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0302353</v>
+        <v>0.0328269</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124817</v>
+        <v>0.124877</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0332015</v>
+        <v>0.0328568</v>
       </c>
       <c r="C24" t="n">
-        <v>0.030662</v>
+        <v>0.0331961</v>
       </c>
       <c r="D24" t="n">
-        <v>0.129791</v>
+        <v>0.130032</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0338979</v>
+        <v>0.0335943</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0309944</v>
+        <v>0.0335191</v>
       </c>
       <c r="D25" t="n">
-        <v>0.134419</v>
+        <v>0.134913</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0346303</v>
+        <v>0.0343762</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0312239</v>
+        <v>0.0338215</v>
       </c>
       <c r="D26" t="n">
-        <v>0.138741</v>
+        <v>0.13897</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0350619</v>
+        <v>0.0347365</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0316857</v>
+        <v>0.0342068</v>
       </c>
       <c r="D27" t="n">
-        <v>0.143274</v>
+        <v>0.143891</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.036223</v>
+        <v>0.0357832</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0322461</v>
+        <v>0.0348903</v>
       </c>
       <c r="D28" t="n">
-        <v>0.147995</v>
+        <v>0.148227</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0375828</v>
+        <v>0.0369049</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0329821</v>
+        <v>0.0355246</v>
       </c>
       <c r="D29" t="n">
-        <v>0.152365</v>
+        <v>0.152841</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395926</v>
+        <v>0.0390449</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0339346</v>
+        <v>0.0366229</v>
       </c>
       <c r="D30" t="n">
-        <v>0.157508</v>
+        <v>0.156824</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0424839</v>
+        <v>0.0421066</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0351618</v>
+        <v>0.0375108</v>
       </c>
       <c r="D31" t="n">
-        <v>0.161405</v>
+        <v>0.161175</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0466666</v>
+        <v>0.0468762</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0365722</v>
+        <v>0.0391391</v>
       </c>
       <c r="D32" t="n">
-        <v>0.164713</v>
+        <v>0.164326</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0525401</v>
+        <v>0.052788</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0392946</v>
+        <v>0.0429154</v>
       </c>
       <c r="D33" t="n">
-        <v>0.169465</v>
+        <v>0.168866</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0628084</v>
+        <v>0.0629175</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0441621</v>
+        <v>0.0482493</v>
       </c>
       <c r="D34" t="n">
-        <v>0.173707</v>
+        <v>0.172727</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07937859999999999</v>
+        <v>0.07927729999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0506193</v>
+        <v>0.0573454</v>
       </c>
       <c r="D35" t="n">
-        <v>0.120532</v>
+        <v>0.11953</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101645</v>
+        <v>0.101469</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0621192</v>
+        <v>0.0711174</v>
       </c>
       <c r="D36" t="n">
-        <v>0.125175</v>
+        <v>0.124306</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.137273</v>
+        <v>0.136384</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0310891</v>
+        <v>0.0330521</v>
       </c>
       <c r="D37" t="n">
-        <v>0.129819</v>
+        <v>0.129048</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.033961</v>
+        <v>0.0336094</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0315727</v>
+        <v>0.0333604</v>
       </c>
       <c r="D38" t="n">
-        <v>0.134893</v>
+        <v>0.134133</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0343356</v>
+        <v>0.0342485</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0318788</v>
+        <v>0.0337079</v>
       </c>
       <c r="D39" t="n">
-        <v>0.139536</v>
+        <v>0.13877</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0349925</v>
+        <v>0.0348517</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0322811</v>
+        <v>0.0341369</v>
       </c>
       <c r="D40" t="n">
-        <v>0.143985</v>
+        <v>0.143449</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0365341</v>
+        <v>0.0360004</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0327667</v>
+        <v>0.0346349</v>
       </c>
       <c r="D41" t="n">
-        <v>0.148258</v>
+        <v>0.147761</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0377671</v>
+        <v>0.0372647</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0333047</v>
+        <v>0.0352137</v>
       </c>
       <c r="D42" t="n">
-        <v>0.152947</v>
+        <v>0.152296</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387726</v>
+        <v>0.0386499</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0339217</v>
+        <v>0.0358135</v>
       </c>
       <c r="D43" t="n">
-        <v>0.157797</v>
+        <v>0.156983</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0410952</v>
+        <v>0.0411385</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0346861</v>
+        <v>0.0366287</v>
       </c>
       <c r="D44" t="n">
-        <v>0.161447</v>
+        <v>0.160788</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0439329</v>
+        <v>0.0441774</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0358206</v>
+        <v>0.0378165</v>
       </c>
       <c r="D45" t="n">
-        <v>0.165836</v>
+        <v>0.164825</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0481007</v>
+        <v>0.0481853</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0373568</v>
+        <v>0.041139</v>
       </c>
       <c r="D46" t="n">
-        <v>0.169976</v>
+        <v>0.168758</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0561278</v>
+        <v>0.0539118</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0397097</v>
+        <v>0.043761</v>
       </c>
       <c r="D47" t="n">
-        <v>0.17444</v>
+        <v>0.172767</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0629043</v>
+        <v>0.062818</v>
       </c>
       <c r="C48" t="n">
-        <v>0.043876</v>
+        <v>0.0468503</v>
       </c>
       <c r="D48" t="n">
-        <v>0.179162</v>
+        <v>0.176862</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0767359</v>
+        <v>0.0764725</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0502203</v>
+        <v>0.0541253</v>
       </c>
       <c r="D49" t="n">
-        <v>0.183517</v>
+        <v>0.181587</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09680179999999999</v>
+        <v>0.0965849</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0596163</v>
+        <v>0.06602959999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.126478</v>
+        <v>0.125712</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.126985</v>
+        <v>0.126568</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0335619</v>
+        <v>0.0368817</v>
       </c>
       <c r="D51" t="n">
-        <v>0.131065</v>
+        <v>0.130379</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.172212</v>
+        <v>0.171986</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0339247</v>
+        <v>0.0353812</v>
       </c>
       <c r="D52" t="n">
-        <v>0.136145</v>
+        <v>0.135461</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0365552</v>
+        <v>0.0356882</v>
       </c>
       <c r="C53" t="n">
-        <v>0.033784</v>
+        <v>0.0373048</v>
       </c>
       <c r="D53" t="n">
-        <v>0.140622</v>
+        <v>0.140123</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0368312</v>
+        <v>0.0378097</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0359625</v>
+        <v>0.0359981</v>
       </c>
       <c r="D54" t="n">
-        <v>0.145974</v>
+        <v>0.145174</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0372239</v>
+        <v>0.038008</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0345803</v>
+        <v>0.0381779</v>
       </c>
       <c r="D55" t="n">
-        <v>0.150555</v>
+        <v>0.149885</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0384456</v>
+        <v>0.0388454</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0349546</v>
+        <v>0.0384062</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15627</v>
+        <v>0.154542</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0398339</v>
+        <v>0.0407397</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0358048</v>
+        <v>0.0379072</v>
       </c>
       <c r="D57" t="n">
-        <v>0.161537</v>
+        <v>0.159087</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0418346</v>
+        <v>0.0423714</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0364498</v>
+        <v>0.0399474</v>
       </c>
       <c r="D58" t="n">
-        <v>0.166737</v>
+        <v>0.163284</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0454199</v>
+        <v>0.0451391</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0377697</v>
+        <v>0.0403619</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172137</v>
+        <v>0.167148</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0486664</v>
+        <v>0.0490254</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0420553</v>
+        <v>0.0419336</v>
       </c>
       <c r="D60" t="n">
-        <v>0.177883</v>
+        <v>0.171696</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0551095</v>
+        <v>0.0545585</v>
       </c>
       <c r="C61" t="n">
-        <v>0.043705</v>
+        <v>0.0441038</v>
       </c>
       <c r="D61" t="n">
-        <v>0.184084</v>
+        <v>0.175861</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0641381</v>
+        <v>0.06306730000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.045281</v>
+        <v>0.0484407</v>
       </c>
       <c r="D62" t="n">
-        <v>0.189238</v>
+        <v>0.180357</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0747989</v>
+        <v>0.0743704</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0526409</v>
+        <v>0.0544694</v>
       </c>
       <c r="D63" t="n">
-        <v>0.194509</v>
+        <v>0.185492</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0927573</v>
+        <v>0.0929999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0592912</v>
+        <v>0.0646499</v>
       </c>
       <c r="D64" t="n">
-        <v>0.144429</v>
+        <v>0.136822</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.120046</v>
+        <v>0.119483</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0741782</v>
+        <v>0.08132350000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.151502</v>
+        <v>0.141835</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.164208</v>
+        <v>0.162358</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0419036</v>
+        <v>0.0423112</v>
       </c>
       <c r="D66" t="n">
-        <v>0.162665</v>
+        <v>0.151491</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0414041</v>
+        <v>0.0411214</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0424908</v>
+        <v>0.0426795</v>
       </c>
       <c r="D67" t="n">
-        <v>0.168623</v>
+        <v>0.157619</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0414463</v>
+        <v>0.0422838</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0436824</v>
+        <v>0.04355</v>
       </c>
       <c r="D68" t="n">
-        <v>0.178533</v>
+        <v>0.165499</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.043856</v>
+        <v>0.0426662</v>
       </c>
       <c r="C69" t="n">
-        <v>0.042338</v>
+        <v>0.0434379</v>
       </c>
       <c r="D69" t="n">
-        <v>0.186825</v>
+        <v>0.174156</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0451338</v>
+        <v>0.0436508</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0429681</v>
+        <v>0.0438787</v>
       </c>
       <c r="D70" t="n">
-        <v>0.195872</v>
+        <v>0.183365</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0455128</v>
+        <v>0.0460428</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0424236</v>
+        <v>0.0450225</v>
       </c>
       <c r="D71" t="n">
-        <v>0.205959</v>
+        <v>0.194113</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0470086</v>
+        <v>0.0470154</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0428016</v>
+        <v>0.0455141</v>
       </c>
       <c r="D72" t="n">
-        <v>0.215663</v>
+        <v>0.203351</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0493527</v>
+        <v>0.049364</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0438177</v>
+        <v>0.0465447</v>
       </c>
       <c r="D73" t="n">
-        <v>0.223742</v>
+        <v>0.212827</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0526737</v>
+        <v>0.052597</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0451043</v>
+        <v>0.0481706</v>
       </c>
       <c r="D74" t="n">
-        <v>0.237322</v>
+        <v>0.223256</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0591134</v>
+        <v>0.0579698</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0480158</v>
+        <v>0.0503701</v>
       </c>
       <c r="D75" t="n">
-        <v>0.247407</v>
+        <v>0.234695</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0673816</v>
+        <v>0.0655939</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0509419</v>
+        <v>0.0539943</v>
       </c>
       <c r="D76" t="n">
-        <v>0.259276</v>
+        <v>0.247721</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07900310000000001</v>
+        <v>0.0768885</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0561936</v>
+        <v>0.0589818</v>
       </c>
       <c r="D77" t="n">
-        <v>0.271626</v>
+        <v>0.262001</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0925002</v>
+        <v>0.09217930000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0648683</v>
+        <v>0.0682054</v>
       </c>
       <c r="D78" t="n">
-        <v>0.232745</v>
+        <v>0.218615</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.121052</v>
+        <v>0.118271</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0766545</v>
+        <v>0.0828931</v>
       </c>
       <c r="D79" t="n">
-        <v>0.245509</v>
+        <v>0.231595</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.159939</v>
+        <v>0.15799</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0446646</v>
+        <v>0.0473114</v>
       </c>
       <c r="D80" t="n">
-        <v>0.257028</v>
+        <v>0.244504</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0475985</v>
+        <v>0.0484037</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0451175</v>
+        <v>0.0477976</v>
       </c>
       <c r="D81" t="n">
-        <v>0.263607</v>
+        <v>0.257817</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0488884</v>
+        <v>0.0495227</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0455503</v>
+        <v>0.0482534</v>
       </c>
       <c r="D82" t="n">
-        <v>0.280413</v>
+        <v>0.270636</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0502881</v>
+        <v>0.0508622</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0463033</v>
+        <v>0.0490856</v>
       </c>
       <c r="D83" t="n">
-        <v>0.293425</v>
+        <v>0.284169</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0522577</v>
+        <v>0.0527594</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0472973</v>
+        <v>0.0497232</v>
       </c>
       <c r="D84" t="n">
-        <v>0.307669</v>
+        <v>0.298285</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0549573</v>
+        <v>0.0547575</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0483864</v>
+        <v>0.0508414</v>
       </c>
       <c r="D85" t="n">
-        <v>0.321513</v>
+        <v>0.31302</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0582991</v>
+        <v>0.0579114</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0497247</v>
+        <v>0.0522711</v>
       </c>
       <c r="D86" t="n">
-        <v>0.335605</v>
+        <v>0.328243</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0618942</v>
+        <v>0.0616909</v>
       </c>
       <c r="C87" t="n">
-        <v>0.05161</v>
+        <v>0.0542295</v>
       </c>
       <c r="D87" t="n">
-        <v>0.35104</v>
+        <v>0.343358</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0675123</v>
+        <v>0.0668955</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0543622</v>
+        <v>0.0566779</v>
       </c>
       <c r="D88" t="n">
-        <v>0.368231</v>
+        <v>0.359603</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0739281</v>
+        <v>0.0741878</v>
       </c>
       <c r="C89" t="n">
-        <v>0.057061</v>
+        <v>0.059894</v>
       </c>
       <c r="D89" t="n">
-        <v>0.382346</v>
+        <v>0.376572</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0826788</v>
+        <v>0.08277</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0616325</v>
+        <v>0.0648445</v>
       </c>
       <c r="D90" t="n">
-        <v>0.39725</v>
+        <v>0.393812</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0947346</v>
+        <v>0.095087</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0686667</v>
+        <v>0.0718729</v>
       </c>
       <c r="D91" t="n">
-        <v>0.413884</v>
+        <v>0.411734</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.110758</v>
+        <v>0.110587</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07711519999999999</v>
+        <v>0.0820473</v>
       </c>
       <c r="D92" t="n">
-        <v>0.332889</v>
+        <v>0.334066</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.13349</v>
+        <v>0.13312</v>
       </c>
       <c r="C93" t="n">
-        <v>0.09084589999999999</v>
+        <v>0.0965019</v>
       </c>
       <c r="D93" t="n">
-        <v>0.344352</v>
+        <v>0.345412</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.167119</v>
+        <v>0.168013</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0539411</v>
+        <v>0.0565672</v>
       </c>
       <c r="D94" t="n">
-        <v>0.355786</v>
+        <v>0.356633</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0670593</v>
+        <v>0.0662995</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0562958</v>
+        <v>0.0583195</v>
       </c>
       <c r="D95" t="n">
-        <v>0.367794</v>
+        <v>0.368693</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.069855</v>
+        <v>0.0689641</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0577763</v>
+        <v>0.0596393</v>
       </c>
       <c r="D96" t="n">
-        <v>0.380114</v>
+        <v>0.381204</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0722241</v>
+        <v>0.0712556</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0591628</v>
+        <v>0.0616976</v>
       </c>
       <c r="D97" t="n">
-        <v>0.393131</v>
+        <v>0.394007</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0753771</v>
+        <v>0.0743304</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0611303</v>
+        <v>0.0631225</v>
       </c>
       <c r="D98" t="n">
-        <v>0.405855</v>
+        <v>0.406622</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0788533</v>
+        <v>0.0776317</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0639349</v>
+        <v>0.065257</v>
       </c>
       <c r="D99" t="n">
-        <v>0.419807</v>
+        <v>0.420896</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0807832</v>
+        <v>0.0812995</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0657705</v>
+        <v>0.0672599</v>
       </c>
       <c r="D100" t="n">
-        <v>0.434296</v>
+        <v>0.434944</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08587</v>
+        <v>0.085171</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0680897</v>
+        <v>0.0697232</v>
       </c>
       <c r="D101" t="n">
-        <v>0.449329</v>
+        <v>0.449827</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0908089</v>
+        <v>0.0899636</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0698293</v>
+        <v>0.0723261</v>
       </c>
       <c r="D102" t="n">
-        <v>0.464954</v>
+        <v>0.465962</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0965009</v>
+        <v>0.0962692</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0728748</v>
+        <v>0.0756912</v>
       </c>
       <c r="D103" t="n">
-        <v>0.481727</v>
+        <v>0.482076</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104716</v>
+        <v>0.104589</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0781302</v>
+        <v>0.079997</v>
       </c>
       <c r="D104" t="n">
-        <v>0.49901</v>
+        <v>0.499048</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115927</v>
+        <v>0.115714</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0835688</v>
+        <v>0.0862835</v>
       </c>
       <c r="D105" t="n">
-        <v>0.516754</v>
+        <v>0.516734</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131675</v>
+        <v>0.13127</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0907297</v>
+        <v>0.0956862</v>
       </c>
       <c r="D106" t="n">
-        <v>0.535173</v>
+        <v>0.535277</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.152899</v>
+        <v>0.152654</v>
       </c>
       <c r="C107" t="n">
-        <v>0.103157</v>
+        <v>0.109879</v>
       </c>
       <c r="D107" t="n">
-        <v>0.405408</v>
+        <v>0.405411</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.18179</v>
+        <v>0.183231</v>
       </c>
       <c r="C108" t="n">
-        <v>0.060548</v>
+        <v>0.06396490000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.416304</v>
+        <v>0.416245</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229557</v>
+        <v>0.229013</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0636197</v>
+        <v>0.0652503</v>
       </c>
       <c r="D109" t="n">
-        <v>0.427181</v>
+        <v>0.427226</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0811419</v>
+        <v>0.08153820000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0649243</v>
+        <v>0.06550400000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.438539</v>
+        <v>0.439039</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0839632</v>
+        <v>0.0838299</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0665615</v>
+        <v>0.0683894</v>
       </c>
       <c r="D111" t="n">
-        <v>0.450393</v>
+        <v>0.450814</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0877546</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.06807630000000001</v>
+        <v>0.0704134</v>
       </c>
       <c r="D112" t="n">
-        <v>0.462897</v>
+        <v>0.463211</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0922042</v>
+        <v>0.0918296</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0706845</v>
+        <v>0.07254679999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.476262</v>
+        <v>0.476665</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0969465</v>
+        <v>0.0964489</v>
       </c>
       <c r="C114" t="n">
-        <v>0.07309110000000001</v>
+        <v>0.0753197</v>
       </c>
       <c r="D114" t="n">
-        <v>0.489537</v>
+        <v>0.490451</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.102294</v>
+        <v>0.102048</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0763187</v>
+        <v>0.0782375</v>
       </c>
       <c r="D115" t="n">
-        <v>0.503879</v>
+        <v>0.504542</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108254</v>
+        <v>0.106563</v>
       </c>
       <c r="C116" t="n">
-        <v>0.07795970000000001</v>
+        <v>0.08189630000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.519251</v>
+        <v>0.519613</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114851</v>
+        <v>0.115002</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0821783</v>
+        <v>0.0855495</v>
       </c>
       <c r="D117" t="n">
-        <v>0.534556</v>
+        <v>0.535079</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123205</v>
+        <v>0.121741</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0901691</v>
+        <v>0.09268170000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.551312</v>
+        <v>0.551843</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133303</v>
+        <v>0.131798</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0962708</v>
+        <v>0.0998353</v>
       </c>
       <c r="D119" t="n">
-        <v>0.569563</v>
+        <v>0.569595</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147151</v>
+        <v>0.147026</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105167</v>
+        <v>0.109259</v>
       </c>
       <c r="D120" t="n">
-        <v>0.58771</v>
+        <v>0.587849</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163704</v>
+        <v>0.165495</v>
       </c>
       <c r="C121" t="n">
-        <v>0.11787</v>
+        <v>0.122633</v>
       </c>
       <c r="D121" t="n">
-        <v>0.436452</v>
+        <v>0.43313</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192478</v>
+        <v>0.192291</v>
       </c>
       <c r="C122" t="n">
-        <v>0.135925</v>
+        <v>0.143768</v>
       </c>
       <c r="D122" t="n">
-        <v>0.443716</v>
+        <v>0.447794</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233723</v>
+        <v>0.233108</v>
       </c>
       <c r="C123" t="n">
-        <v>0.08367819999999999</v>
+        <v>0.104007</v>
       </c>
       <c r="D123" t="n">
-        <v>0.457759</v>
+        <v>0.458037</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.102197</v>
+        <v>0.105605</v>
       </c>
       <c r="C124" t="n">
-        <v>0.085998</v>
+        <v>0.0930696</v>
       </c>
       <c r="D124" t="n">
-        <v>0.469229</v>
+        <v>0.47023</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.106071</v>
+        <v>0.116807</v>
       </c>
       <c r="C125" t="n">
-        <v>0.08775860000000001</v>
+        <v>0.0876716</v>
       </c>
       <c r="D125" t="n">
-        <v>0.480879</v>
+        <v>0.481939</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107024</v>
+        <v>0.116938</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0902546</v>
+        <v>0.097008</v>
       </c>
       <c r="D126" t="n">
-        <v>0.490231</v>
+        <v>0.494004</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.112546</v>
+        <v>0.114048</v>
       </c>
       <c r="C127" t="n">
-        <v>0.08733390000000001</v>
+        <v>0.09531820000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.503795</v>
+        <v>0.507443</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.116913</v>
+        <v>0.111693</v>
       </c>
       <c r="C128" t="n">
-        <v>0.09498089999999999</v>
+        <v>0.0989911</v>
       </c>
       <c r="D128" t="n">
-        <v>0.52006</v>
+        <v>0.520742</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118581</v>
+        <v>0.111437</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0941694</v>
+        <v>0.0962503</v>
       </c>
       <c r="D129" t="n">
-        <v>0.534513</v>
+        <v>0.5352209999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122571</v>
+        <v>0.12034</v>
       </c>
       <c r="C130" t="n">
-        <v>0.09953339999999999</v>
+        <v>0.103246</v>
       </c>
       <c r="D130" t="n">
-        <v>0.549709</v>
+        <v>0.550149</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126961</v>
+        <v>0.124589</v>
       </c>
       <c r="C131" t="n">
-        <v>0.102554</v>
+        <v>0.0980019</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5624440000000001</v>
+        <v>0.566296</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133468</v>
+        <v>0.131945</v>
       </c>
       <c r="C132" t="n">
-        <v>0.108656</v>
+        <v>0.100198</v>
       </c>
       <c r="D132" t="n">
-        <v>0.582236</v>
+        <v>0.579761</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142474</v>
+        <v>0.142293</v>
       </c>
       <c r="C133" t="n">
-        <v>0.110252</v>
+        <v>0.10586</v>
       </c>
       <c r="D133" t="n">
-        <v>0.600654</v>
+        <v>0.600902</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.156329</v>
+        <v>0.153331</v>
       </c>
       <c r="C134" t="n">
-        <v>0.120002</v>
+        <v>0.119569</v>
       </c>
       <c r="D134" t="n">
-        <v>0.617961</v>
+        <v>0.619285</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.172989</v>
+        <v>0.170624</v>
       </c>
       <c r="C135" t="n">
-        <v>0.129849</v>
+        <v>0.131497</v>
       </c>
       <c r="D135" t="n">
-        <v>0.454729</v>
+        <v>0.452651</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194725</v>
+        <v>0.194948</v>
       </c>
       <c r="C136" t="n">
-        <v>0.147966</v>
+        <v>0.148324</v>
       </c>
       <c r="D136" t="n">
-        <v>0.464839</v>
+        <v>0.465234</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236634</v>
+        <v>0.233892</v>
       </c>
       <c r="C137" t="n">
-        <v>0.165153</v>
+        <v>0.160847</v>
       </c>
       <c r="D137" t="n">
-        <v>0.476044</v>
+        <v>0.476768</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.166024</v>
+        <v>0.165379</v>
       </c>
       <c r="C138" t="n">
-        <v>0.154661</v>
+        <v>0.154526</v>
       </c>
       <c r="D138" t="n">
-        <v>0.485892</v>
+        <v>0.488181</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.173586</v>
+        <v>0.167019</v>
       </c>
       <c r="C139" t="n">
-        <v>0.165531</v>
+        <v>0.157322</v>
       </c>
       <c r="D139" t="n">
-        <v>0.499463</v>
+        <v>0.499863</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.165066</v>
+        <v>0.169072</v>
       </c>
       <c r="C140" t="n">
-        <v>0.168991</v>
+        <v>0.1663</v>
       </c>
       <c r="D140" t="n">
-        <v>0.509804</v>
+        <v>0.5121520000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.176942</v>
+        <v>0.164542</v>
       </c>
       <c r="C141" t="n">
-        <v>0.163433</v>
+        <v>0.169347</v>
       </c>
       <c r="D141" t="n">
-        <v>0.524424</v>
+        <v>0.525272</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.175085</v>
+        <v>0.173354</v>
       </c>
       <c r="C142" t="n">
-        <v>0.175913</v>
+        <v>0.161637</v>
       </c>
       <c r="D142" t="n">
-        <v>0.538293</v>
+        <v>0.537198</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.176492</v>
+        <v>0.167661</v>
       </c>
       <c r="C143" t="n">
-        <v>0.181889</v>
+        <v>0.171435</v>
       </c>
       <c r="D143" t="n">
-        <v>0.550654</v>
+        <v>0.553354</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.034238</v>
+        <v>0.0331293</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0327791</v>
+        <v>0.0324751</v>
       </c>
       <c r="D2" t="n">
-        <v>0.121766</v>
+        <v>0.117947</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0360757</v>
+        <v>0.0337205</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0342542</v>
+        <v>0.0339753</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13185</v>
+        <v>0.122776</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0369333</v>
+        <v>0.0355299</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0344529</v>
+        <v>0.0353884</v>
       </c>
       <c r="D4" t="n">
-        <v>0.142041</v>
+        <v>0.128116</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0422892</v>
+        <v>0.0406847</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0367412</v>
+        <v>0.0373553</v>
       </c>
       <c r="D5" t="n">
-        <v>0.146361</v>
+        <v>0.133674</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.050618</v>
+        <v>0.0501011</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0386517</v>
+        <v>0.0399642</v>
       </c>
       <c r="D6" t="n">
-        <v>0.153571</v>
+        <v>0.140343</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0732399</v>
+        <v>0.0726103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0448815</v>
+        <v>0.0468942</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0992907</v>
+        <v>0.0962182</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.105657</v>
+        <v>0.107312</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06262330000000001</v>
+        <v>0.0629512</v>
       </c>
       <c r="D8" t="n">
-        <v>0.10581</v>
+        <v>0.103089</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150987</v>
+        <v>0.151975</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0296449</v>
+        <v>0.0293266</v>
       </c>
       <c r="D9" t="n">
-        <v>0.112245</v>
+        <v>0.109887</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0317649</v>
+        <v>0.0312041</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0298119</v>
+        <v>0.0296015</v>
       </c>
       <c r="D10" t="n">
-        <v>0.119024</v>
+        <v>0.116033</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.031611</v>
+        <v>0.0313455</v>
       </c>
       <c r="C11" t="n">
-        <v>0.030165</v>
+        <v>0.0298615</v>
       </c>
       <c r="D11" t="n">
-        <v>0.124209</v>
+        <v>0.121659</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0328774</v>
+        <v>0.0322887</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0305175</v>
+        <v>0.0302292</v>
       </c>
       <c r="D12" t="n">
-        <v>0.129748</v>
+        <v>0.126618</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0334134</v>
+        <v>0.0329209</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0308345</v>
+        <v>0.0304723</v>
       </c>
       <c r="D13" t="n">
-        <v>0.134073</v>
+        <v>0.131961</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0341767</v>
+        <v>0.0333571</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0311986</v>
+        <v>0.030852</v>
       </c>
       <c r="D14" t="n">
-        <v>0.13902</v>
+        <v>0.137082</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0356342</v>
+        <v>0.0343312</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0319788</v>
+        <v>0.0316565</v>
       </c>
       <c r="D15" t="n">
-        <v>0.143383</v>
+        <v>0.141948</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0371374</v>
+        <v>0.0362407</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0325575</v>
+        <v>0.032343</v>
       </c>
       <c r="D16" t="n">
-        <v>0.147207</v>
+        <v>0.147156</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0395617</v>
+        <v>0.0389163</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0336778</v>
+        <v>0.0335317</v>
       </c>
       <c r="D17" t="n">
-        <v>0.151047</v>
+        <v>0.151733</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0442282</v>
+        <v>0.0430368</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0347882</v>
+        <v>0.0349222</v>
       </c>
       <c r="D18" t="n">
-        <v>0.155471</v>
+        <v>0.156467</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0508056</v>
+        <v>0.0506852</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0369372</v>
+        <v>0.0373835</v>
       </c>
       <c r="D19" t="n">
-        <v>0.159841</v>
+        <v>0.160879</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0647383</v>
+        <v>0.0655848</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0400915</v>
+        <v>0.0408008</v>
       </c>
       <c r="D20" t="n">
-        <v>0.163664</v>
+        <v>0.165078</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0832015</v>
+        <v>0.08414149999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.047973</v>
+        <v>0.0479299</v>
       </c>
       <c r="D21" t="n">
-        <v>0.114531</v>
+        <v>0.115861</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.10859</v>
+        <v>0.109391</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0647199</v>
+        <v>0.06438489999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119779</v>
+        <v>0.12088</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.150289</v>
+        <v>0.152353</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0302353</v>
+        <v>0.0299108</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124817</v>
+        <v>0.125889</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0332015</v>
+        <v>0.0326174</v>
       </c>
       <c r="C24" t="n">
-        <v>0.030662</v>
+        <v>0.0302336</v>
       </c>
       <c r="D24" t="n">
-        <v>0.129791</v>
+        <v>0.130856</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0338979</v>
+        <v>0.0332754</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0309944</v>
+        <v>0.030665</v>
       </c>
       <c r="D25" t="n">
-        <v>0.134419</v>
+        <v>0.135699</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0346303</v>
+        <v>0.0339983</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0312239</v>
+        <v>0.0309559</v>
       </c>
       <c r="D26" t="n">
-        <v>0.138741</v>
+        <v>0.140231</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0350619</v>
+        <v>0.0342832</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0316857</v>
+        <v>0.0314141</v>
       </c>
       <c r="D27" t="n">
-        <v>0.143274</v>
+        <v>0.144889</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.036223</v>
+        <v>0.0355124</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0322461</v>
+        <v>0.0320392</v>
       </c>
       <c r="D28" t="n">
-        <v>0.147995</v>
+        <v>0.149197</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0375828</v>
+        <v>0.0367914</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0329821</v>
+        <v>0.0331734</v>
       </c>
       <c r="D29" t="n">
-        <v>0.152365</v>
+        <v>0.154497</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395926</v>
+        <v>0.0388077</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0339346</v>
+        <v>0.033862</v>
       </c>
       <c r="D30" t="n">
-        <v>0.157508</v>
+        <v>0.158435</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0424839</v>
+        <v>0.0419076</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0351618</v>
+        <v>0.0350821</v>
       </c>
       <c r="D31" t="n">
-        <v>0.161405</v>
+        <v>0.162849</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0466666</v>
+        <v>0.0464979</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0365722</v>
+        <v>0.0366093</v>
       </c>
       <c r="D32" t="n">
-        <v>0.164713</v>
+        <v>0.166472</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0525401</v>
+        <v>0.0526118</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0392946</v>
+        <v>0.0393973</v>
       </c>
       <c r="D33" t="n">
-        <v>0.169465</v>
+        <v>0.171134</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0628084</v>
+        <v>0.06280669999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0441621</v>
+        <v>0.044222</v>
       </c>
       <c r="D34" t="n">
-        <v>0.173707</v>
+        <v>0.175617</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07937859999999999</v>
+        <v>0.07951229999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0506193</v>
+        <v>0.050324</v>
       </c>
       <c r="D35" t="n">
-        <v>0.120532</v>
+        <v>0.120236</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101645</v>
+        <v>0.101881</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0621192</v>
+        <v>0.0620726</v>
       </c>
       <c r="D36" t="n">
-        <v>0.125175</v>
+        <v>0.125025</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.137273</v>
+        <v>0.137645</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0310891</v>
+        <v>0.0308705</v>
       </c>
       <c r="D37" t="n">
-        <v>0.129819</v>
+        <v>0.12957</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.033961</v>
+        <v>0.0335472</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0315727</v>
+        <v>0.0313784</v>
       </c>
       <c r="D38" t="n">
-        <v>0.134893</v>
+        <v>0.134398</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0343356</v>
+        <v>0.0337433</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0318788</v>
+        <v>0.0317175</v>
       </c>
       <c r="D39" t="n">
-        <v>0.139536</v>
+        <v>0.139395</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0349925</v>
+        <v>0.0346283</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0322811</v>
+        <v>0.0323251</v>
       </c>
       <c r="D40" t="n">
-        <v>0.143985</v>
+        <v>0.143803</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0365341</v>
+        <v>0.0359149</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0327667</v>
+        <v>0.0325511</v>
       </c>
       <c r="D41" t="n">
-        <v>0.148258</v>
+        <v>0.148149</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0377671</v>
+        <v>0.0371242</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0333047</v>
+        <v>0.0330753</v>
       </c>
       <c r="D42" t="n">
-        <v>0.152947</v>
+        <v>0.152851</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387726</v>
+        <v>0.0383604</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0339217</v>
+        <v>0.0337632</v>
       </c>
       <c r="D43" t="n">
-        <v>0.157797</v>
+        <v>0.157519</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0410952</v>
+        <v>0.0407162</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0346861</v>
+        <v>0.0345649</v>
       </c>
       <c r="D44" t="n">
-        <v>0.161447</v>
+        <v>0.161736</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0439329</v>
+        <v>0.0438339</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0358206</v>
+        <v>0.0357043</v>
       </c>
       <c r="D45" t="n">
-        <v>0.165836</v>
+        <v>0.165775</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0481007</v>
+        <v>0.0478993</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0373568</v>
+        <v>0.0372292</v>
       </c>
       <c r="D46" t="n">
-        <v>0.169976</v>
+        <v>0.170344</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0561278</v>
+        <v>0.0535074</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0397097</v>
+        <v>0.0395611</v>
       </c>
       <c r="D47" t="n">
-        <v>0.17444</v>
+        <v>0.174585</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0629043</v>
+        <v>0.0625703</v>
       </c>
       <c r="C48" t="n">
-        <v>0.043876</v>
+        <v>0.0436337</v>
       </c>
       <c r="D48" t="n">
-        <v>0.179162</v>
+        <v>0.179284</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0767359</v>
+        <v>0.07653980000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0502203</v>
+        <v>0.0498269</v>
       </c>
       <c r="D49" t="n">
-        <v>0.183517</v>
+        <v>0.183784</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09680179999999999</v>
+        <v>0.09683319999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0596163</v>
+        <v>0.0592239</v>
       </c>
       <c r="D50" t="n">
-        <v>0.126478</v>
+        <v>0.126184</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.126985</v>
+        <v>0.127593</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0335619</v>
+        <v>0.033388</v>
       </c>
       <c r="D51" t="n">
-        <v>0.131065</v>
+        <v>0.13082</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.172212</v>
+        <v>0.174696</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0339247</v>
+        <v>0.0333529</v>
       </c>
       <c r="D52" t="n">
-        <v>0.136145</v>
+        <v>0.13582</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0365552</v>
+        <v>0.0359802</v>
       </c>
       <c r="C53" t="n">
-        <v>0.033784</v>
+        <v>0.033526</v>
       </c>
       <c r="D53" t="n">
-        <v>0.140622</v>
+        <v>0.140678</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0368312</v>
+        <v>0.036534</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0359625</v>
+        <v>0.0343709</v>
       </c>
       <c r="D54" t="n">
-        <v>0.145974</v>
+        <v>0.145485</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0372239</v>
+        <v>0.0368408</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0345803</v>
+        <v>0.0343564</v>
       </c>
       <c r="D55" t="n">
-        <v>0.150555</v>
+        <v>0.150389</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0384456</v>
+        <v>0.0385959</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0349546</v>
+        <v>0.0342592</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15627</v>
+        <v>0.155218</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0398339</v>
+        <v>0.0395372</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0358048</v>
+        <v>0.0352514</v>
       </c>
       <c r="D57" t="n">
-        <v>0.161537</v>
+        <v>0.160471</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0418346</v>
+        <v>0.0420672</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0364498</v>
+        <v>0.0357464</v>
       </c>
       <c r="D58" t="n">
-        <v>0.166737</v>
+        <v>0.164842</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0454199</v>
+        <v>0.0444683</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0377697</v>
+        <v>0.0384332</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172137</v>
+        <v>0.169475</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0486664</v>
+        <v>0.0482262</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0420553</v>
+        <v>0.0393372</v>
       </c>
       <c r="D60" t="n">
-        <v>0.177883</v>
+        <v>0.17427</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0551095</v>
+        <v>0.0538946</v>
       </c>
       <c r="C61" t="n">
-        <v>0.043705</v>
+        <v>0.0415839</v>
       </c>
       <c r="D61" t="n">
-        <v>0.184084</v>
+        <v>0.178496</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0641381</v>
+        <v>0.0626443</v>
       </c>
       <c r="C62" t="n">
-        <v>0.045281</v>
+        <v>0.0439663</v>
       </c>
       <c r="D62" t="n">
-        <v>0.189238</v>
+        <v>0.183536</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0747989</v>
+        <v>0.0743206</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0526409</v>
+        <v>0.0501533</v>
       </c>
       <c r="D63" t="n">
-        <v>0.194509</v>
+        <v>0.187766</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0927573</v>
+        <v>0.0927446</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0592912</v>
+        <v>0.0581115</v>
       </c>
       <c r="D64" t="n">
-        <v>0.144429</v>
+        <v>0.132663</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.120046</v>
+        <v>0.120173</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0741782</v>
+        <v>0.0740763</v>
       </c>
       <c r="D65" t="n">
-        <v>0.151502</v>
+        <v>0.13855</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.164208</v>
+        <v>0.164042</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0419036</v>
+        <v>0.0395102</v>
       </c>
       <c r="D66" t="n">
-        <v>0.162665</v>
+        <v>0.145391</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0414041</v>
+        <v>0.0412017</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0424908</v>
+        <v>0.0398533</v>
       </c>
       <c r="D67" t="n">
-        <v>0.168623</v>
+        <v>0.152493</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0414463</v>
+        <v>0.0415727</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0436824</v>
+        <v>0.040358</v>
       </c>
       <c r="D68" t="n">
-        <v>0.178533</v>
+        <v>0.160811</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.043856</v>
+        <v>0.0425794</v>
       </c>
       <c r="C69" t="n">
-        <v>0.042338</v>
+        <v>0.0407502</v>
       </c>
       <c r="D69" t="n">
-        <v>0.186825</v>
+        <v>0.169815</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0451338</v>
+        <v>0.0435516</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0429681</v>
+        <v>0.0412954</v>
       </c>
       <c r="D70" t="n">
-        <v>0.195872</v>
+        <v>0.178829</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0455128</v>
+        <v>0.0449868</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0424236</v>
+        <v>0.0416061</v>
       </c>
       <c r="D71" t="n">
-        <v>0.205959</v>
+        <v>0.188493</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0470086</v>
+        <v>0.0464231</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0428016</v>
+        <v>0.0424846</v>
       </c>
       <c r="D72" t="n">
-        <v>0.215663</v>
+        <v>0.199425</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0493527</v>
+        <v>0.0487027</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0438177</v>
+        <v>0.0435038</v>
       </c>
       <c r="D73" t="n">
-        <v>0.223742</v>
+        <v>0.208877</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0526737</v>
+        <v>0.051745</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0451043</v>
+        <v>0.0448416</v>
       </c>
       <c r="D74" t="n">
-        <v>0.237322</v>
+        <v>0.221121</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0591134</v>
+        <v>0.0570283</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0480158</v>
+        <v>0.0470345</v>
       </c>
       <c r="D75" t="n">
-        <v>0.247407</v>
+        <v>0.234438</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0673816</v>
+        <v>0.0637872</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0509419</v>
+        <v>0.0503061</v>
       </c>
       <c r="D76" t="n">
-        <v>0.259276</v>
+        <v>0.24863</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07900310000000001</v>
+        <v>0.0748328</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0561936</v>
+        <v>0.0548931</v>
       </c>
       <c r="D77" t="n">
-        <v>0.271626</v>
+        <v>0.263826</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0925002</v>
+        <v>0.0901657</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0648683</v>
+        <v>0.0618828</v>
       </c>
       <c r="D78" t="n">
-        <v>0.232745</v>
+        <v>0.221958</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.121052</v>
+        <v>0.115699</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0766545</v>
+        <v>0.0746153</v>
       </c>
       <c r="D79" t="n">
-        <v>0.245509</v>
+        <v>0.236287</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.159939</v>
+        <v>0.156679</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0446646</v>
+        <v>0.0443137</v>
       </c>
       <c r="D80" t="n">
-        <v>0.257028</v>
+        <v>0.250389</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0475985</v>
+        <v>0.0464776</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0451175</v>
+        <v>0.0447089</v>
       </c>
       <c r="D81" t="n">
-        <v>0.263607</v>
+        <v>0.264936</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0488884</v>
+        <v>0.047148</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0455503</v>
+        <v>0.0450846</v>
       </c>
       <c r="D82" t="n">
-        <v>0.280413</v>
+        <v>0.278965</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0502881</v>
+        <v>0.048366</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0463033</v>
+        <v>0.0455119</v>
       </c>
       <c r="D83" t="n">
-        <v>0.293425</v>
+        <v>0.293326</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0522577</v>
+        <v>0.0494449</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0472973</v>
+        <v>0.0460483</v>
       </c>
       <c r="D84" t="n">
-        <v>0.307669</v>
+        <v>0.308217</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0549573</v>
+        <v>0.0510965</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0483864</v>
+        <v>0.0467232</v>
       </c>
       <c r="D85" t="n">
-        <v>0.321513</v>
+        <v>0.323872</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0582991</v>
+        <v>0.052743</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0497247</v>
+        <v>0.0476506</v>
       </c>
       <c r="D86" t="n">
-        <v>0.335605</v>
+        <v>0.338931</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0618942</v>
+        <v>0.0556034</v>
       </c>
       <c r="C87" t="n">
-        <v>0.05161</v>
+        <v>0.0486996</v>
       </c>
       <c r="D87" t="n">
-        <v>0.35104</v>
+        <v>0.35524</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0675123</v>
+        <v>0.0599568</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0543622</v>
+        <v>0.0502927</v>
       </c>
       <c r="D88" t="n">
-        <v>0.368231</v>
+        <v>0.372051</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0739281</v>
+        <v>0.06540260000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.057061</v>
+        <v>0.0525847</v>
       </c>
       <c r="D89" t="n">
-        <v>0.382346</v>
+        <v>0.389619</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0826788</v>
+        <v>0.0736491</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0616325</v>
+        <v>0.0560754</v>
       </c>
       <c r="D90" t="n">
-        <v>0.39725</v>
+        <v>0.407591</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0947346</v>
+        <v>0.0858049</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0686667</v>
+        <v>0.061278</v>
       </c>
       <c r="D91" t="n">
-        <v>0.413884</v>
+        <v>0.425793</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.110758</v>
+        <v>0.103482</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07711519999999999</v>
+        <v>0.0695104</v>
       </c>
       <c r="D92" t="n">
-        <v>0.332889</v>
+        <v>0.346429</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.13349</v>
+        <v>0.129186</v>
       </c>
       <c r="C93" t="n">
-        <v>0.09084589999999999</v>
+        <v>0.0828454</v>
       </c>
       <c r="D93" t="n">
-        <v>0.344352</v>
+        <v>0.357906</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.167119</v>
+        <v>0.166837</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0539411</v>
+        <v>0.0484494</v>
       </c>
       <c r="D94" t="n">
-        <v>0.355786</v>
+        <v>0.370098</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0670593</v>
+        <v>0.0575618</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0562958</v>
+        <v>0.049621</v>
       </c>
       <c r="D95" t="n">
-        <v>0.367794</v>
+        <v>0.382151</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.069855</v>
+        <v>0.0620023</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0577763</v>
+        <v>0.0518313</v>
       </c>
       <c r="D96" t="n">
-        <v>0.380114</v>
+        <v>0.395194</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0722241</v>
+        <v>0.06634900000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0591628</v>
+        <v>0.0534845</v>
       </c>
       <c r="D97" t="n">
-        <v>0.393131</v>
+        <v>0.408655</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0753771</v>
+        <v>0.070774</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0611303</v>
+        <v>0.0559354</v>
       </c>
       <c r="D98" t="n">
-        <v>0.405855</v>
+        <v>0.421776</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0788533</v>
+        <v>0.0766232</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0639349</v>
+        <v>0.0589743</v>
       </c>
       <c r="D99" t="n">
-        <v>0.419807</v>
+        <v>0.436358</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0807832</v>
+        <v>0.08305360000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0657705</v>
+        <v>0.0624179</v>
       </c>
       <c r="D100" t="n">
-        <v>0.434296</v>
+        <v>0.451093</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08587</v>
+        <v>0.0899513</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0680897</v>
+        <v>0.0667006</v>
       </c>
       <c r="D101" t="n">
-        <v>0.449329</v>
+        <v>0.466087</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0908089</v>
+        <v>0.0970391</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0698293</v>
+        <v>0.0708825</v>
       </c>
       <c r="D102" t="n">
-        <v>0.464954</v>
+        <v>0.482277</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0965009</v>
+        <v>0.105123</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0728748</v>
+        <v>0.0766183</v>
       </c>
       <c r="D103" t="n">
-        <v>0.481727</v>
+        <v>0.498552</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104716</v>
+        <v>0.114699</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0781302</v>
+        <v>0.0826501</v>
       </c>
       <c r="D104" t="n">
-        <v>0.49901</v>
+        <v>0.515384</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115927</v>
+        <v>0.126212</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0835688</v>
+        <v>0.0899698</v>
       </c>
       <c r="D105" t="n">
-        <v>0.516754</v>
+        <v>0.53265</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131675</v>
+        <v>0.14087</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0907297</v>
+        <v>0.0991394</v>
       </c>
       <c r="D106" t="n">
-        <v>0.535173</v>
+        <v>0.551338</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.152899</v>
+        <v>0.161323</v>
       </c>
       <c r="C107" t="n">
-        <v>0.103157</v>
+        <v>0.111956</v>
       </c>
       <c r="D107" t="n">
-        <v>0.405408</v>
+        <v>0.420687</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.18179</v>
+        <v>0.190883</v>
       </c>
       <c r="C108" t="n">
-        <v>0.060548</v>
+        <v>0.068785</v>
       </c>
       <c r="D108" t="n">
-        <v>0.416304</v>
+        <v>0.432044</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229557</v>
+        <v>0.236214</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0636197</v>
+        <v>0.0712633</v>
       </c>
       <c r="D109" t="n">
-        <v>0.427181</v>
+        <v>0.443636</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0811419</v>
+        <v>0.0939454</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0649243</v>
+        <v>0.07330449999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.438539</v>
+        <v>0.455456</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0839632</v>
+        <v>0.0967771</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0665615</v>
+        <v>0.0753895</v>
       </c>
       <c r="D111" t="n">
-        <v>0.450393</v>
+        <v>0.467694</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0877546</v>
+        <v>0.0999268</v>
       </c>
       <c r="C112" t="n">
-        <v>0.06807630000000001</v>
+        <v>0.0774638</v>
       </c>
       <c r="D112" t="n">
-        <v>0.462897</v>
+        <v>0.480713</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0922042</v>
+        <v>0.10299</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0706845</v>
+        <v>0.07993069999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.476262</v>
+        <v>0.494404</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0969465</v>
+        <v>0.106506</v>
       </c>
       <c r="C114" t="n">
-        <v>0.07309110000000001</v>
+        <v>0.08198229999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.489537</v>
+        <v>0.507952</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.102294</v>
+        <v>0.111009</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0763187</v>
+        <v>0.0850467</v>
       </c>
       <c r="D115" t="n">
-        <v>0.503879</v>
+        <v>0.522743</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108254</v>
+        <v>0.115783</v>
       </c>
       <c r="C116" t="n">
-        <v>0.07795970000000001</v>
+        <v>0.0879514</v>
       </c>
       <c r="D116" t="n">
-        <v>0.519251</v>
+        <v>0.538792</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114851</v>
+        <v>0.121663</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0821783</v>
+        <v>0.09148779999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.534556</v>
+        <v>0.555694</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123205</v>
+        <v>0.129307</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0901691</v>
+        <v>0.0958661</v>
       </c>
       <c r="D118" t="n">
-        <v>0.551312</v>
+        <v>0.572815</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133303</v>
+        <v>0.138887</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0962708</v>
+        <v>0.101646</v>
       </c>
       <c r="D119" t="n">
-        <v>0.569563</v>
+        <v>0.590904</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147151</v>
+        <v>0.152518</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105167</v>
+        <v>0.109469</v>
       </c>
       <c r="D120" t="n">
-        <v>0.58771</v>
+        <v>0.60985</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163704</v>
+        <v>0.171268</v>
       </c>
       <c r="C121" t="n">
-        <v>0.11787</v>
+        <v>0.121144</v>
       </c>
       <c r="D121" t="n">
-        <v>0.436452</v>
+        <v>0.456381</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192478</v>
+        <v>0.19902</v>
       </c>
       <c r="C122" t="n">
-        <v>0.135925</v>
+        <v>0.13959</v>
       </c>
       <c r="D122" t="n">
-        <v>0.443716</v>
+        <v>0.466949</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233723</v>
+        <v>0.241035</v>
       </c>
       <c r="C123" t="n">
-        <v>0.08367819999999999</v>
+        <v>0.084729</v>
       </c>
       <c r="D123" t="n">
-        <v>0.457759</v>
+        <v>0.478455</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.102197</v>
+        <v>0.106308</v>
       </c>
       <c r="C124" t="n">
-        <v>0.085998</v>
+        <v>0.0853525</v>
       </c>
       <c r="D124" t="n">
-        <v>0.469229</v>
+        <v>0.489933</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.106071</v>
+        <v>0.108842</v>
       </c>
       <c r="C125" t="n">
-        <v>0.08775860000000001</v>
+        <v>0.0894945</v>
       </c>
       <c r="D125" t="n">
-        <v>0.480879</v>
+        <v>0.502648</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107024</v>
+        <v>0.110024</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0902546</v>
+        <v>0.0910398</v>
       </c>
       <c r="D126" t="n">
-        <v>0.490231</v>
+        <v>0.515072</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.112546</v>
+        <v>0.113425</v>
       </c>
       <c r="C127" t="n">
-        <v>0.08733390000000001</v>
+        <v>0.0926162</v>
       </c>
       <c r="D127" t="n">
-        <v>0.503795</v>
+        <v>0.528896</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.116913</v>
+        <v>0.117105</v>
       </c>
       <c r="C128" t="n">
-        <v>0.09498089999999999</v>
+        <v>0.0969831</v>
       </c>
       <c r="D128" t="n">
-        <v>0.52006</v>
+        <v>0.543358</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118581</v>
+        <v>0.121221</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0941694</v>
+        <v>0.09973120000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.534513</v>
+        <v>0.558105</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122571</v>
+        <v>0.124895</v>
       </c>
       <c r="C130" t="n">
-        <v>0.09953339999999999</v>
+        <v>0.100123</v>
       </c>
       <c r="D130" t="n">
-        <v>0.549709</v>
+        <v>0.573816</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126961</v>
+        <v>0.131354</v>
       </c>
       <c r="C131" t="n">
-        <v>0.102554</v>
+        <v>0.104688</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5624440000000001</v>
+        <v>0.590178</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133468</v>
+        <v>0.140159</v>
       </c>
       <c r="C132" t="n">
-        <v>0.108656</v>
+        <v>0.109252</v>
       </c>
       <c r="D132" t="n">
-        <v>0.582236</v>
+        <v>0.607082</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142474</v>
+        <v>0.14696</v>
       </c>
       <c r="C133" t="n">
-        <v>0.110252</v>
+        <v>0.113462</v>
       </c>
       <c r="D133" t="n">
-        <v>0.600654</v>
+        <v>0.625775</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.156329</v>
+        <v>0.160412</v>
       </c>
       <c r="C134" t="n">
-        <v>0.120002</v>
+        <v>0.121377</v>
       </c>
       <c r="D134" t="n">
-        <v>0.617961</v>
+        <v>0.644941</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.172989</v>
+        <v>0.178816</v>
       </c>
       <c r="C135" t="n">
-        <v>0.129849</v>
+        <v>0.131491</v>
       </c>
       <c r="D135" t="n">
-        <v>0.454729</v>
+        <v>0.475779</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194725</v>
+        <v>0.204145</v>
       </c>
       <c r="C136" t="n">
-        <v>0.147966</v>
+        <v>0.147449</v>
       </c>
       <c r="D136" t="n">
-        <v>0.464839</v>
+        <v>0.48688</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236634</v>
+        <v>0.244802</v>
       </c>
       <c r="C137" t="n">
-        <v>0.165153</v>
+        <v>0.175017</v>
       </c>
       <c r="D137" t="n">
-        <v>0.476044</v>
+        <v>0.49814</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.166024</v>
+        <v>0.1792</v>
       </c>
       <c r="C138" t="n">
-        <v>0.154661</v>
+        <v>0.175522</v>
       </c>
       <c r="D138" t="n">
-        <v>0.485892</v>
+        <v>0.5099050000000001</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.173586</v>
+        <v>0.181172</v>
       </c>
       <c r="C139" t="n">
-        <v>0.165531</v>
+        <v>0.17771</v>
       </c>
       <c r="D139" t="n">
-        <v>0.499463</v>
+        <v>0.521939</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.165066</v>
+        <v>0.184054</v>
       </c>
       <c r="C140" t="n">
-        <v>0.168991</v>
+        <v>0.178673</v>
       </c>
       <c r="D140" t="n">
-        <v>0.509804</v>
+        <v>0.5348579999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.176942</v>
+        <v>0.184675</v>
       </c>
       <c r="C141" t="n">
-        <v>0.163433</v>
+        <v>0.180163</v>
       </c>
       <c r="D141" t="n">
-        <v>0.524424</v>
+        <v>0.548383</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.175085</v>
+        <v>0.186884</v>
       </c>
       <c r="C142" t="n">
-        <v>0.175913</v>
+        <v>0.181074</v>
       </c>
       <c r="D142" t="n">
-        <v>0.538293</v>
+        <v>0.562062</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.176492</v>
+        <v>0.190837</v>
       </c>
       <c r="C143" t="n">
-        <v>0.181889</v>
+        <v>0.183423</v>
       </c>
       <c r="D143" t="n">
-        <v>0.550654</v>
+        <v>0.576965</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.034238</v>
+        <v>0.03406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0327791</v>
+        <v>0.0297418</v>
       </c>
       <c r="D2" t="n">
-        <v>0.121766</v>
+        <v>0.114879</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0360757</v>
+        <v>0.0347527</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0342542</v>
+        <v>0.030484</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13185</v>
+        <v>0.119245</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0369333</v>
+        <v>0.0368196</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0344529</v>
+        <v>0.0315277</v>
       </c>
       <c r="D4" t="n">
-        <v>0.142041</v>
+        <v>0.126012</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0422892</v>
+        <v>0.0427201</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0367412</v>
+        <v>0.0340896</v>
       </c>
       <c r="D5" t="n">
-        <v>0.146361</v>
+        <v>0.131772</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.050618</v>
+        <v>0.0513226</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0386517</v>
+        <v>0.0363202</v>
       </c>
       <c r="D6" t="n">
-        <v>0.153571</v>
+        <v>0.137292</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0732399</v>
+        <v>0.0712564</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0448815</v>
+        <v>0.0429657</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0992907</v>
+        <v>0.0963586</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.105657</v>
+        <v>0.106503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06262330000000001</v>
+        <v>0.0537337</v>
       </c>
       <c r="D8" t="n">
-        <v>0.10581</v>
+        <v>0.10277</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150987</v>
+        <v>0.149526</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0296449</v>
+        <v>0.02724</v>
       </c>
       <c r="D9" t="n">
-        <v>0.112245</v>
+        <v>0.109724</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0317649</v>
+        <v>0.0316362</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0298119</v>
+        <v>0.0272715</v>
       </c>
       <c r="D10" t="n">
-        <v>0.119024</v>
+        <v>0.11578</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.031611</v>
+        <v>0.0315355</v>
       </c>
       <c r="C11" t="n">
-        <v>0.030165</v>
+        <v>0.0275849</v>
       </c>
       <c r="D11" t="n">
-        <v>0.124209</v>
+        <v>0.12148</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0328774</v>
+        <v>0.0327543</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0305175</v>
+        <v>0.0278526</v>
       </c>
       <c r="D12" t="n">
-        <v>0.129748</v>
+        <v>0.125833</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0334134</v>
+        <v>0.0333488</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0308345</v>
+        <v>0.0282238</v>
       </c>
       <c r="D13" t="n">
-        <v>0.134073</v>
+        <v>0.131222</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0341767</v>
+        <v>0.0338508</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0311986</v>
+        <v>0.0290372</v>
       </c>
       <c r="D14" t="n">
-        <v>0.13902</v>
+        <v>0.136143</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0356342</v>
+        <v>0.035145</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0319788</v>
+        <v>0.0295948</v>
       </c>
       <c r="D15" t="n">
-        <v>0.143383</v>
+        <v>0.139924</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0371374</v>
+        <v>0.0368894</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0325575</v>
+        <v>0.0307404</v>
       </c>
       <c r="D16" t="n">
-        <v>0.147207</v>
+        <v>0.144227</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0395617</v>
+        <v>0.040004</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0336778</v>
+        <v>0.0317005</v>
       </c>
       <c r="D17" t="n">
-        <v>0.151047</v>
+        <v>0.148375</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0442282</v>
+        <v>0.0436515</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0347882</v>
+        <v>0.0331901</v>
       </c>
       <c r="D18" t="n">
-        <v>0.155471</v>
+        <v>0.152609</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0508056</v>
+        <v>0.0508952</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0369372</v>
+        <v>0.0352114</v>
       </c>
       <c r="D19" t="n">
-        <v>0.159841</v>
+        <v>0.157202</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0647383</v>
+        <v>0.0650085</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0400915</v>
+        <v>0.0395287</v>
       </c>
       <c r="D20" t="n">
-        <v>0.163664</v>
+        <v>0.160808</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0832015</v>
+        <v>0.0833339</v>
       </c>
       <c r="C21" t="n">
-        <v>0.047973</v>
+        <v>0.0463142</v>
       </c>
       <c r="D21" t="n">
-        <v>0.114531</v>
+        <v>0.114264</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.10859</v>
+        <v>0.108264</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0647199</v>
+        <v>0.0583431</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119779</v>
+        <v>0.119618</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.150289</v>
+        <v>0.149635</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0302353</v>
+        <v>0.0273666</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124817</v>
+        <v>0.12425</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0332015</v>
+        <v>0.0329547</v>
       </c>
       <c r="C24" t="n">
-        <v>0.030662</v>
+        <v>0.0277491</v>
       </c>
       <c r="D24" t="n">
-        <v>0.129791</v>
+        <v>0.129297</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0338979</v>
+        <v>0.0337976</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0309944</v>
+        <v>0.028021</v>
       </c>
       <c r="D25" t="n">
-        <v>0.134419</v>
+        <v>0.133808</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0346303</v>
+        <v>0.0344663</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0312239</v>
+        <v>0.028432</v>
       </c>
       <c r="D26" t="n">
-        <v>0.138741</v>
+        <v>0.137986</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0350619</v>
+        <v>0.0348103</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0316857</v>
+        <v>0.0288727</v>
       </c>
       <c r="D27" t="n">
-        <v>0.143274</v>
+        <v>0.142874</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.036223</v>
+        <v>0.0361312</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0322461</v>
+        <v>0.0294393</v>
       </c>
       <c r="D28" t="n">
-        <v>0.147995</v>
+        <v>0.147089</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0375828</v>
+        <v>0.0374309</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0329821</v>
+        <v>0.0300906</v>
       </c>
       <c r="D29" t="n">
-        <v>0.152365</v>
+        <v>0.151434</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395926</v>
+        <v>0.0395183</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0339346</v>
+        <v>0.0309658</v>
       </c>
       <c r="D30" t="n">
-        <v>0.157508</v>
+        <v>0.155907</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0424839</v>
+        <v>0.0424223</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0351618</v>
+        <v>0.0321414</v>
       </c>
       <c r="D31" t="n">
-        <v>0.161405</v>
+        <v>0.159857</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0466666</v>
+        <v>0.0468577</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0365722</v>
+        <v>0.0338323</v>
       </c>
       <c r="D32" t="n">
-        <v>0.164713</v>
+        <v>0.163024</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0525401</v>
+        <v>0.0526735</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0392946</v>
+        <v>0.0362622</v>
       </c>
       <c r="D33" t="n">
-        <v>0.169465</v>
+        <v>0.166808</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0628084</v>
+        <v>0.06282219999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0441621</v>
+        <v>0.040038</v>
       </c>
       <c r="D34" t="n">
-        <v>0.173707</v>
+        <v>0.170784</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07937859999999999</v>
+        <v>0.0793085</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0506193</v>
+        <v>0.0453395</v>
       </c>
       <c r="D35" t="n">
-        <v>0.120532</v>
+        <v>0.118632</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101645</v>
+        <v>0.101409</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0621192</v>
+        <v>0.0571108</v>
       </c>
       <c r="D36" t="n">
-        <v>0.125175</v>
+        <v>0.123265</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.137273</v>
+        <v>0.136717</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0310891</v>
+        <v>0.0277598</v>
       </c>
       <c r="D37" t="n">
-        <v>0.129819</v>
+        <v>0.127893</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.033961</v>
+        <v>0.0338678</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0315727</v>
+        <v>0.0282133</v>
       </c>
       <c r="D38" t="n">
-        <v>0.134893</v>
+        <v>0.132912</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0343356</v>
+        <v>0.0345218</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0318788</v>
+        <v>0.028614</v>
       </c>
       <c r="D39" t="n">
-        <v>0.139536</v>
+        <v>0.137513</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0349925</v>
+        <v>0.03504</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0322811</v>
+        <v>0.0289726</v>
       </c>
       <c r="D40" t="n">
-        <v>0.143985</v>
+        <v>0.142206</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0365341</v>
+        <v>0.0363918</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0327667</v>
+        <v>0.0294454</v>
       </c>
       <c r="D41" t="n">
-        <v>0.148258</v>
+        <v>0.146404</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0377671</v>
+        <v>0.0376168</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0333047</v>
+        <v>0.0299892</v>
       </c>
       <c r="D42" t="n">
-        <v>0.152947</v>
+        <v>0.150604</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387726</v>
+        <v>0.038926</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0339217</v>
+        <v>0.030708</v>
       </c>
       <c r="D43" t="n">
-        <v>0.157797</v>
+        <v>0.155158</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0410952</v>
+        <v>0.0411703</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0346861</v>
+        <v>0.0315503</v>
       </c>
       <c r="D44" t="n">
-        <v>0.161447</v>
+        <v>0.158989</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0439329</v>
+        <v>0.0440524</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0358206</v>
+        <v>0.0328384</v>
       </c>
       <c r="D45" t="n">
-        <v>0.165836</v>
+        <v>0.162591</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0481007</v>
+        <v>0.0481051</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0373568</v>
+        <v>0.0343517</v>
       </c>
       <c r="D46" t="n">
-        <v>0.169976</v>
+        <v>0.166634</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0561278</v>
+        <v>0.0538518</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0397097</v>
+        <v>0.0370459</v>
       </c>
       <c r="D47" t="n">
-        <v>0.17444</v>
+        <v>0.170568</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0629043</v>
+        <v>0.0628551</v>
       </c>
       <c r="C48" t="n">
-        <v>0.043876</v>
+        <v>0.0409924</v>
       </c>
       <c r="D48" t="n">
-        <v>0.179162</v>
+        <v>0.17471</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0767359</v>
+        <v>0.076698</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0502203</v>
+        <v>0.0465993</v>
       </c>
       <c r="D49" t="n">
-        <v>0.183517</v>
+        <v>0.179191</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09680179999999999</v>
+        <v>0.0966702</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0596163</v>
+        <v>0.056057</v>
       </c>
       <c r="D50" t="n">
-        <v>0.126478</v>
+        <v>0.124801</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.126985</v>
+        <v>0.126656</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0335619</v>
+        <v>0.0308263</v>
       </c>
       <c r="D51" t="n">
-        <v>0.131065</v>
+        <v>0.129536</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.172212</v>
+        <v>0.171652</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0339247</v>
+        <v>0.0307033</v>
       </c>
       <c r="D52" t="n">
-        <v>0.136145</v>
+        <v>0.134299</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0365552</v>
+        <v>0.0358245</v>
       </c>
       <c r="C53" t="n">
-        <v>0.033784</v>
+        <v>0.0312242</v>
       </c>
       <c r="D53" t="n">
-        <v>0.140622</v>
+        <v>0.139172</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0368312</v>
+        <v>0.0368062</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0359625</v>
+        <v>0.0307651</v>
       </c>
       <c r="D54" t="n">
-        <v>0.145974</v>
+        <v>0.143977</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0372239</v>
+        <v>0.0373426</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0345803</v>
+        <v>0.0320195</v>
       </c>
       <c r="D55" t="n">
-        <v>0.150555</v>
+        <v>0.148572</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0384456</v>
+        <v>0.0388617</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0349546</v>
+        <v>0.0319669</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15627</v>
+        <v>0.153044</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0398339</v>
+        <v>0.0401136</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0358048</v>
+        <v>0.0327529</v>
       </c>
       <c r="D57" t="n">
-        <v>0.161537</v>
+        <v>0.157252</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0418346</v>
+        <v>0.0422138</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0364498</v>
+        <v>0.0333727</v>
       </c>
       <c r="D58" t="n">
-        <v>0.166737</v>
+        <v>0.161445</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0454199</v>
+        <v>0.045001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0377697</v>
+        <v>0.0347814</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172137</v>
+        <v>0.165148</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0486664</v>
+        <v>0.0489957</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0420553</v>
+        <v>0.0373493</v>
       </c>
       <c r="D60" t="n">
-        <v>0.177883</v>
+        <v>0.169257</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0551095</v>
+        <v>0.0541708</v>
       </c>
       <c r="C61" t="n">
-        <v>0.043705</v>
+        <v>0.0385247</v>
       </c>
       <c r="D61" t="n">
-        <v>0.184084</v>
+        <v>0.173293</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0641381</v>
+        <v>0.0630916</v>
       </c>
       <c r="C62" t="n">
-        <v>0.045281</v>
+        <v>0.041367</v>
       </c>
       <c r="D62" t="n">
-        <v>0.189238</v>
+        <v>0.177255</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0747989</v>
+        <v>0.074366</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0526409</v>
+        <v>0.0472988</v>
       </c>
       <c r="D63" t="n">
-        <v>0.194509</v>
+        <v>0.181591</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0927573</v>
+        <v>0.09277539999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0592912</v>
+        <v>0.0549881</v>
       </c>
       <c r="D64" t="n">
-        <v>0.144429</v>
+        <v>0.130658</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.120046</v>
+        <v>0.119576</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0741782</v>
+        <v>0.0691662</v>
       </c>
       <c r="D65" t="n">
-        <v>0.151502</v>
+        <v>0.137058</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.164208</v>
+        <v>0.161874</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0419036</v>
+        <v>0.0357526</v>
       </c>
       <c r="D66" t="n">
-        <v>0.162665</v>
+        <v>0.145079</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0414041</v>
+        <v>0.0409797</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0424908</v>
+        <v>0.0363378</v>
       </c>
       <c r="D67" t="n">
-        <v>0.168623</v>
+        <v>0.151482</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0414463</v>
+        <v>0.0416123</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0436824</v>
+        <v>0.0370838</v>
       </c>
       <c r="D68" t="n">
-        <v>0.178533</v>
+        <v>0.159667</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.043856</v>
+        <v>0.0428252</v>
       </c>
       <c r="C69" t="n">
-        <v>0.042338</v>
+        <v>0.0369231</v>
       </c>
       <c r="D69" t="n">
-        <v>0.186825</v>
+        <v>0.167734</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0451338</v>
+        <v>0.0437874</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0429681</v>
+        <v>0.0373916</v>
       </c>
       <c r="D70" t="n">
-        <v>0.195872</v>
+        <v>0.176326</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0455128</v>
+        <v>0.0451272</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0424236</v>
+        <v>0.0383129</v>
       </c>
       <c r="D71" t="n">
-        <v>0.205959</v>
+        <v>0.186274</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0470086</v>
+        <v>0.0466421</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0428016</v>
+        <v>0.0386947</v>
       </c>
       <c r="D72" t="n">
-        <v>0.215663</v>
+        <v>0.196059</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0493527</v>
+        <v>0.0489669</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0438177</v>
+        <v>0.0396948</v>
       </c>
       <c r="D73" t="n">
-        <v>0.223742</v>
+        <v>0.205117</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0526737</v>
+        <v>0.0521169</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0451043</v>
+        <v>0.0409869</v>
       </c>
       <c r="D74" t="n">
-        <v>0.237322</v>
+        <v>0.216608</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0591134</v>
+        <v>0.0574245</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0480158</v>
+        <v>0.0430499</v>
       </c>
       <c r="D75" t="n">
-        <v>0.247407</v>
+        <v>0.229728</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0673816</v>
+        <v>0.06456149999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0509419</v>
+        <v>0.0456239</v>
       </c>
       <c r="D76" t="n">
-        <v>0.259276</v>
+        <v>0.242118</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07900310000000001</v>
+        <v>0.07460600000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0561936</v>
+        <v>0.0508425</v>
       </c>
       <c r="D77" t="n">
-        <v>0.271626</v>
+        <v>0.256144</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0925002</v>
+        <v>0.0907592</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0648683</v>
+        <v>0.0574715</v>
       </c>
       <c r="D78" t="n">
-        <v>0.232745</v>
+        <v>0.215764</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.121052</v>
+        <v>0.115765</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0766545</v>
+        <v>0.06936680000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.245509</v>
+        <v>0.228096</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.159939</v>
+        <v>0.156325</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0446646</v>
+        <v>0.0403895</v>
       </c>
       <c r="D80" t="n">
-        <v>0.257028</v>
+        <v>0.241245</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0475985</v>
+        <v>0.0465515</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0451175</v>
+        <v>0.0407253</v>
       </c>
       <c r="D81" t="n">
-        <v>0.263607</v>
+        <v>0.255153</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0488884</v>
+        <v>0.0472365</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0455503</v>
+        <v>0.0412575</v>
       </c>
       <c r="D82" t="n">
-        <v>0.280413</v>
+        <v>0.267385</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0502881</v>
+        <v>0.0484739</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0463033</v>
+        <v>0.0415934</v>
       </c>
       <c r="D83" t="n">
-        <v>0.293425</v>
+        <v>0.280775</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0522577</v>
+        <v>0.0495657</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0472973</v>
+        <v>0.0421647</v>
       </c>
       <c r="D84" t="n">
-        <v>0.307669</v>
+        <v>0.294798</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0549573</v>
+        <v>0.051121</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0483864</v>
+        <v>0.0427801</v>
       </c>
       <c r="D85" t="n">
-        <v>0.321513</v>
+        <v>0.309068</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0582991</v>
+        <v>0.0531625</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0497247</v>
+        <v>0.0437989</v>
       </c>
       <c r="D86" t="n">
-        <v>0.335605</v>
+        <v>0.323548</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0618942</v>
+        <v>0.0559535</v>
       </c>
       <c r="C87" t="n">
-        <v>0.05161</v>
+        <v>0.0448178</v>
       </c>
       <c r="D87" t="n">
-        <v>0.35104</v>
+        <v>0.338905</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0675123</v>
+        <v>0.0596812</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0543622</v>
+        <v>0.0462141</v>
       </c>
       <c r="D88" t="n">
-        <v>0.368231</v>
+        <v>0.35373</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0739281</v>
+        <v>0.0654739</v>
       </c>
       <c r="C89" t="n">
-        <v>0.057061</v>
+        <v>0.0485266</v>
       </c>
       <c r="D89" t="n">
-        <v>0.382346</v>
+        <v>0.369905</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0826788</v>
+        <v>0.07373739999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0616325</v>
+        <v>0.0518065</v>
       </c>
       <c r="D90" t="n">
-        <v>0.39725</v>
+        <v>0.387525</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0947346</v>
+        <v>0.0856585</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0686667</v>
+        <v>0.0567847</v>
       </c>
       <c r="D91" t="n">
-        <v>0.413884</v>
+        <v>0.404936</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.110758</v>
+        <v>0.102952</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07711519999999999</v>
+        <v>0.0650954</v>
       </c>
       <c r="D92" t="n">
-        <v>0.332889</v>
+        <v>0.326972</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.13349</v>
+        <v>0.128137</v>
       </c>
       <c r="C93" t="n">
-        <v>0.09084589999999999</v>
+        <v>0.07767549999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.344352</v>
+        <v>0.33793</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.167119</v>
+        <v>0.166244</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0539411</v>
+        <v>0.0447064</v>
       </c>
       <c r="D94" t="n">
-        <v>0.355786</v>
+        <v>0.349155</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0670593</v>
+        <v>0.0582618</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0562958</v>
+        <v>0.0459097</v>
       </c>
       <c r="D95" t="n">
-        <v>0.367794</v>
+        <v>0.36076</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.069855</v>
+        <v>0.0615071</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0577763</v>
+        <v>0.047509</v>
       </c>
       <c r="D96" t="n">
-        <v>0.380114</v>
+        <v>0.37282</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0722241</v>
+        <v>0.0655845</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0591628</v>
+        <v>0.0495448</v>
       </c>
       <c r="D97" t="n">
-        <v>0.393131</v>
+        <v>0.385377</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0753771</v>
+        <v>0.0707501</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0611303</v>
+        <v>0.0516511</v>
       </c>
       <c r="D98" t="n">
-        <v>0.405855</v>
+        <v>0.398009</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0788533</v>
+        <v>0.0757052</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0639349</v>
+        <v>0.0546356</v>
       </c>
       <c r="D99" t="n">
-        <v>0.419807</v>
+        <v>0.411382</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0807832</v>
+        <v>0.0820447</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0657705</v>
+        <v>0.0581353</v>
       </c>
       <c r="D100" t="n">
-        <v>0.434296</v>
+        <v>0.425302</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08587</v>
+        <v>0.08835899999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0680897</v>
+        <v>0.0619771</v>
       </c>
       <c r="D101" t="n">
-        <v>0.449329</v>
+        <v>0.439376</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0908089</v>
+        <v>0.0952732</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0698293</v>
+        <v>0.0659097</v>
       </c>
       <c r="D102" t="n">
-        <v>0.464954</v>
+        <v>0.455015</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0965009</v>
+        <v>0.103021</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0728748</v>
+        <v>0.0709412</v>
       </c>
       <c r="D103" t="n">
-        <v>0.481727</v>
+        <v>0.471234</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104716</v>
+        <v>0.112035</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0781302</v>
+        <v>0.076253</v>
       </c>
       <c r="D104" t="n">
-        <v>0.49901</v>
+        <v>0.487591</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115927</v>
+        <v>0.123348</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0835688</v>
+        <v>0.0829709</v>
       </c>
       <c r="D105" t="n">
-        <v>0.516754</v>
+        <v>0.505154</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131675</v>
+        <v>0.137728</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0907297</v>
+        <v>0.09146609999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.535173</v>
+        <v>0.522815</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.152899</v>
+        <v>0.157818</v>
       </c>
       <c r="C107" t="n">
-        <v>0.103157</v>
+        <v>0.103498</v>
       </c>
       <c r="D107" t="n">
-        <v>0.405408</v>
+        <v>0.394623</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.18179</v>
+        <v>0.186501</v>
       </c>
       <c r="C108" t="n">
-        <v>0.060548</v>
+        <v>0.063433</v>
       </c>
       <c r="D108" t="n">
-        <v>0.416304</v>
+        <v>0.405294</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229557</v>
+        <v>0.231413</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0636197</v>
+        <v>0.0655352</v>
       </c>
       <c r="D109" t="n">
-        <v>0.427181</v>
+        <v>0.416207</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0811419</v>
+        <v>0.09143709999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0649243</v>
+        <v>0.0677915</v>
       </c>
       <c r="D110" t="n">
-        <v>0.438539</v>
+        <v>0.427357</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0839632</v>
+        <v>0.09431870000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0665615</v>
+        <v>0.0699615</v>
       </c>
       <c r="D111" t="n">
-        <v>0.450393</v>
+        <v>0.438905</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0877546</v>
+        <v>0.0972862</v>
       </c>
       <c r="C112" t="n">
-        <v>0.06807630000000001</v>
+        <v>0.07191980000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.462897</v>
+        <v>0.451079</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0922042</v>
+        <v>0.100549</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0706845</v>
+        <v>0.0741906</v>
       </c>
       <c r="D113" t="n">
-        <v>0.476262</v>
+        <v>0.46396</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0969465</v>
+        <v>0.103856</v>
       </c>
       <c r="C114" t="n">
-        <v>0.07309110000000001</v>
+        <v>0.076359</v>
       </c>
       <c r="D114" t="n">
-        <v>0.489537</v>
+        <v>0.477137</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.102294</v>
+        <v>0.107913</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0763187</v>
+        <v>0.07840660000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.503879</v>
+        <v>0.49115</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108254</v>
+        <v>0.112552</v>
       </c>
       <c r="C116" t="n">
-        <v>0.07795970000000001</v>
+        <v>0.081488</v>
       </c>
       <c r="D116" t="n">
-        <v>0.519251</v>
+        <v>0.50626</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114851</v>
+        <v>0.118326</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0821783</v>
+        <v>0.08475190000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.534556</v>
+        <v>0.521604</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123205</v>
+        <v>0.125581</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0901691</v>
+        <v>0.0888753</v>
       </c>
       <c r="D118" t="n">
-        <v>0.551312</v>
+        <v>0.538285</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133303</v>
+        <v>0.135107</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0962708</v>
+        <v>0.0940526</v>
       </c>
       <c r="D119" t="n">
-        <v>0.569563</v>
+        <v>0.555584</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147151</v>
+        <v>0.148075</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105167</v>
+        <v>0.101182</v>
       </c>
       <c r="D120" t="n">
-        <v>0.58771</v>
+        <v>0.573808</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163704</v>
+        <v>0.166165</v>
       </c>
       <c r="C121" t="n">
-        <v>0.11787</v>
+        <v>0.111919</v>
       </c>
       <c r="D121" t="n">
-        <v>0.436452</v>
+        <v>0.425856</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192478</v>
+        <v>0.192483</v>
       </c>
       <c r="C122" t="n">
-        <v>0.135925</v>
+        <v>0.128843</v>
       </c>
       <c r="D122" t="n">
-        <v>0.443716</v>
+        <v>0.436115</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233723</v>
+        <v>0.233626</v>
       </c>
       <c r="C123" t="n">
-        <v>0.08367819999999999</v>
+        <v>0.07735160000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.457759</v>
+        <v>0.446562</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.102197</v>
+        <v>0.101844</v>
       </c>
       <c r="C124" t="n">
-        <v>0.085998</v>
+        <v>0.0812461</v>
       </c>
       <c r="D124" t="n">
-        <v>0.469229</v>
+        <v>0.458249</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.106071</v>
+        <v>0.104799</v>
       </c>
       <c r="C125" t="n">
-        <v>0.08775860000000001</v>
+        <v>0.08106099999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.480879</v>
+        <v>0.470147</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107024</v>
+        <v>0.107904</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0902546</v>
+        <v>0.0826238</v>
       </c>
       <c r="D126" t="n">
-        <v>0.490231</v>
+        <v>0.482081</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.112546</v>
+        <v>0.110283</v>
       </c>
       <c r="C127" t="n">
-        <v>0.08733390000000001</v>
+        <v>0.0872006</v>
       </c>
       <c r="D127" t="n">
-        <v>0.503795</v>
+        <v>0.495022</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.116913</v>
+        <v>0.114601</v>
       </c>
       <c r="C128" t="n">
-        <v>0.09498089999999999</v>
+        <v>0.08846950000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.52006</v>
+        <v>0.508718</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118581</v>
+        <v>0.118375</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0941694</v>
+        <v>0.09012100000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.534513</v>
+        <v>0.522803</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122571</v>
+        <v>0.122715</v>
       </c>
       <c r="C130" t="n">
-        <v>0.09953339999999999</v>
+        <v>0.09389309999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.549709</v>
+        <v>0.537496</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126961</v>
+        <v>0.127348</v>
       </c>
       <c r="C131" t="n">
-        <v>0.102554</v>
+        <v>0.09620670000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5624440000000001</v>
+        <v>0.552996</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133468</v>
+        <v>0.133904</v>
       </c>
       <c r="C132" t="n">
-        <v>0.108656</v>
+        <v>0.0990021</v>
       </c>
       <c r="D132" t="n">
-        <v>0.582236</v>
+        <v>0.569899</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142474</v>
+        <v>0.142165</v>
       </c>
       <c r="C133" t="n">
-        <v>0.110252</v>
+        <v>0.105475</v>
       </c>
       <c r="D133" t="n">
-        <v>0.600654</v>
+        <v>0.587626</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.156329</v>
+        <v>0.155554</v>
       </c>
       <c r="C134" t="n">
-        <v>0.120002</v>
+        <v>0.110752</v>
       </c>
       <c r="D134" t="n">
-        <v>0.617961</v>
+        <v>0.606093</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.172989</v>
+        <v>0.172638</v>
       </c>
       <c r="C135" t="n">
-        <v>0.129849</v>
+        <v>0.1232</v>
       </c>
       <c r="D135" t="n">
-        <v>0.454729</v>
+        <v>0.44357</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194725</v>
+        <v>0.19738</v>
       </c>
       <c r="C136" t="n">
-        <v>0.147966</v>
+        <v>0.137043</v>
       </c>
       <c r="D136" t="n">
-        <v>0.464839</v>
+        <v>0.454188</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236634</v>
+        <v>0.234689</v>
       </c>
       <c r="C137" t="n">
-        <v>0.165153</v>
+        <v>0.150848</v>
       </c>
       <c r="D137" t="n">
-        <v>0.476044</v>
+        <v>0.465186</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.166024</v>
+        <v>0.160342</v>
       </c>
       <c r="C138" t="n">
-        <v>0.154661</v>
+        <v>0.149915</v>
       </c>
       <c r="D138" t="n">
-        <v>0.485892</v>
+        <v>0.47661</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.173586</v>
+        <v>0.167335</v>
       </c>
       <c r="C139" t="n">
-        <v>0.165531</v>
+        <v>0.153942</v>
       </c>
       <c r="D139" t="n">
-        <v>0.499463</v>
+        <v>0.488254</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.165066</v>
+        <v>0.161779</v>
       </c>
       <c r="C140" t="n">
-        <v>0.168991</v>
+        <v>0.149654</v>
       </c>
       <c r="D140" t="n">
-        <v>0.509804</v>
+        <v>0.5006699999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.176942</v>
+        <v>0.173931</v>
       </c>
       <c r="C141" t="n">
-        <v>0.163433</v>
+        <v>0.155854</v>
       </c>
       <c r="D141" t="n">
-        <v>0.524424</v>
+        <v>0.513371</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.175085</v>
+        <v>0.173964</v>
       </c>
       <c r="C142" t="n">
-        <v>0.175913</v>
+        <v>0.150561</v>
       </c>
       <c r="D142" t="n">
-        <v>0.538293</v>
+        <v>0.527095</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.176492</v>
+        <v>0.177458</v>
       </c>
       <c r="C143" t="n">
-        <v>0.181889</v>
+        <v>0.158903</v>
       </c>
       <c r="D143" t="n">
-        <v>0.550654</v>
+        <v>0.540987</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03406</v>
+        <v>0.0340419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0297418</v>
+        <v>0.0297931</v>
       </c>
       <c r="D2" t="n">
-        <v>0.114879</v>
+        <v>0.1157</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0347527</v>
+        <v>0.0348161</v>
       </c>
       <c r="C3" t="n">
-        <v>0.030484</v>
+        <v>0.030335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.119245</v>
+        <v>0.121256</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0368196</v>
+        <v>0.0366065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0315277</v>
+        <v>0.0314902</v>
       </c>
       <c r="D4" t="n">
-        <v>0.126012</v>
+        <v>0.128636</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0427201</v>
+        <v>0.0425686</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0340896</v>
+        <v>0.0333881</v>
       </c>
       <c r="D5" t="n">
-        <v>0.131772</v>
+        <v>0.133353</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0513226</v>
+        <v>0.0512495</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0363202</v>
+        <v>0.0360309</v>
       </c>
       <c r="D6" t="n">
-        <v>0.137292</v>
+        <v>0.140167</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0712564</v>
+        <v>0.071614</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0429657</v>
+        <v>0.0418685</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0963586</v>
+        <v>0.09628929999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.106503</v>
+        <v>0.106559</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0537337</v>
+        <v>0.0563163</v>
       </c>
       <c r="D8" t="n">
-        <v>0.10277</v>
+        <v>0.103151</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149526</v>
+        <v>0.149904</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02724</v>
+        <v>0.0268724</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109724</v>
+        <v>0.109139</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0316362</v>
+        <v>0.0315878</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0272715</v>
+        <v>0.0270101</v>
       </c>
       <c r="D10" t="n">
-        <v>0.11578</v>
+        <v>0.115527</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0315355</v>
+        <v>0.0315889</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0275849</v>
+        <v>0.0272555</v>
       </c>
       <c r="D11" t="n">
-        <v>0.12148</v>
+        <v>0.1216</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0327543</v>
+        <v>0.0327743</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0278526</v>
+        <v>0.0278386</v>
       </c>
       <c r="D12" t="n">
-        <v>0.125833</v>
+        <v>0.125598</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0333488</v>
+        <v>0.0333329</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0282238</v>
+        <v>0.0281377</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131222</v>
+        <v>0.131173</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0338508</v>
+        <v>0.0338937</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0290372</v>
+        <v>0.0286185</v>
       </c>
       <c r="D14" t="n">
-        <v>0.136143</v>
+        <v>0.136296</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.035145</v>
+        <v>0.0351176</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0295948</v>
+        <v>0.0293396</v>
       </c>
       <c r="D15" t="n">
-        <v>0.139924</v>
+        <v>0.140075</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0368894</v>
+        <v>0.036846</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0307404</v>
+        <v>0.03015</v>
       </c>
       <c r="D16" t="n">
-        <v>0.144227</v>
+        <v>0.144585</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.040004</v>
+        <v>0.0400074</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0317005</v>
+        <v>0.0311777</v>
       </c>
       <c r="D17" t="n">
-        <v>0.148375</v>
+        <v>0.149028</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0436515</v>
+        <v>0.0436019</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0331901</v>
+        <v>0.0322813</v>
       </c>
       <c r="D18" t="n">
-        <v>0.152609</v>
+        <v>0.153582</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0508952</v>
+        <v>0.0508966</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0352114</v>
+        <v>0.0339525</v>
       </c>
       <c r="D19" t="n">
-        <v>0.157202</v>
+        <v>0.157253</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0650085</v>
+        <v>0.0649824</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0395287</v>
+        <v>0.0377206</v>
       </c>
       <c r="D20" t="n">
-        <v>0.160808</v>
+        <v>0.161302</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0833339</v>
+        <v>0.0830183</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0463142</v>
+        <v>0.0440675</v>
       </c>
       <c r="D21" t="n">
-        <v>0.114264</v>
+        <v>0.114143</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.108264</v>
+        <v>0.108299</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0583431</v>
+        <v>0.0595798</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119618</v>
+        <v>0.119497</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.149635</v>
+        <v>0.14974</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0273666</v>
+        <v>0.0271312</v>
       </c>
       <c r="D23" t="n">
-        <v>0.12425</v>
+        <v>0.12431</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0329547</v>
+        <v>0.0330453</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0277491</v>
+        <v>0.0276144</v>
       </c>
       <c r="D24" t="n">
-        <v>0.129297</v>
+        <v>0.129539</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0337976</v>
+        <v>0.0338262</v>
       </c>
       <c r="C25" t="n">
-        <v>0.028021</v>
+        <v>0.0278261</v>
       </c>
       <c r="D25" t="n">
-        <v>0.133808</v>
+        <v>0.133861</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0344663</v>
+        <v>0.0345342</v>
       </c>
       <c r="C26" t="n">
-        <v>0.028432</v>
+        <v>0.028198</v>
       </c>
       <c r="D26" t="n">
-        <v>0.137986</v>
+        <v>0.138166</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0348103</v>
+        <v>0.0349119</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0288727</v>
+        <v>0.0287244</v>
       </c>
       <c r="D27" t="n">
-        <v>0.142874</v>
+        <v>0.142863</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0361312</v>
+        <v>0.0362592</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0294393</v>
+        <v>0.029359</v>
       </c>
       <c r="D28" t="n">
-        <v>0.147089</v>
+        <v>0.147032</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0374309</v>
+        <v>0.0374399</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0300906</v>
+        <v>0.0302103</v>
       </c>
       <c r="D29" t="n">
-        <v>0.151434</v>
+        <v>0.151796</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395183</v>
+        <v>0.0395734</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0309658</v>
+        <v>0.030983</v>
       </c>
       <c r="D30" t="n">
-        <v>0.155907</v>
+        <v>0.155681</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0424223</v>
+        <v>0.0425139</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0321414</v>
+        <v>0.0321579</v>
       </c>
       <c r="D31" t="n">
-        <v>0.159857</v>
+        <v>0.160238</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0468577</v>
+        <v>0.0468284</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0338323</v>
+        <v>0.0333227</v>
       </c>
       <c r="D32" t="n">
-        <v>0.163024</v>
+        <v>0.162935</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0526735</v>
+        <v>0.0527097</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0362622</v>
+        <v>0.0350416</v>
       </c>
       <c r="D33" t="n">
-        <v>0.166808</v>
+        <v>0.167185</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06282219999999999</v>
+        <v>0.0628843</v>
       </c>
       <c r="C34" t="n">
-        <v>0.040038</v>
+        <v>0.0386039</v>
       </c>
       <c r="D34" t="n">
-        <v>0.170784</v>
+        <v>0.17091</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0793085</v>
+        <v>0.07944519999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0453395</v>
+        <v>0.0451995</v>
       </c>
       <c r="D35" t="n">
-        <v>0.118632</v>
+        <v>0.118656</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101409</v>
+        <v>0.101533</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0571108</v>
+        <v>0.0562867</v>
       </c>
       <c r="D36" t="n">
-        <v>0.123265</v>
+        <v>0.123376</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.136717</v>
+        <v>0.136816</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0277598</v>
+        <v>0.0276283</v>
       </c>
       <c r="D37" t="n">
-        <v>0.127893</v>
+        <v>0.127927</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0338678</v>
+        <v>0.0337861</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0282133</v>
+        <v>0.0282056</v>
       </c>
       <c r="D38" t="n">
-        <v>0.132912</v>
+        <v>0.13278</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0345218</v>
+        <v>0.0342208</v>
       </c>
       <c r="C39" t="n">
-        <v>0.028614</v>
+        <v>0.0285994</v>
       </c>
       <c r="D39" t="n">
-        <v>0.137513</v>
+        <v>0.137667</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03504</v>
+        <v>0.0351139</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0289726</v>
+        <v>0.0290532</v>
       </c>
       <c r="D40" t="n">
-        <v>0.142206</v>
+        <v>0.142248</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0363918</v>
+        <v>0.0364146</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0294454</v>
+        <v>0.0294127</v>
       </c>
       <c r="D41" t="n">
-        <v>0.146404</v>
+        <v>0.146499</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0376168</v>
+        <v>0.0376429</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0299892</v>
+        <v>0.029987</v>
       </c>
       <c r="D42" t="n">
-        <v>0.150604</v>
+        <v>0.150833</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.038926</v>
+        <v>0.0388294</v>
       </c>
       <c r="C43" t="n">
-        <v>0.030708</v>
+        <v>0.0306092</v>
       </c>
       <c r="D43" t="n">
-        <v>0.155158</v>
+        <v>0.155473</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0411703</v>
+        <v>0.0410985</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0315503</v>
+        <v>0.0315332</v>
       </c>
       <c r="D44" t="n">
-        <v>0.158989</v>
+        <v>0.159159</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0440524</v>
+        <v>0.0439605</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0328384</v>
+        <v>0.0326507</v>
       </c>
       <c r="D45" t="n">
-        <v>0.162591</v>
+        <v>0.162848</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0481051</v>
+        <v>0.0481697</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0343517</v>
+        <v>0.0341384</v>
       </c>
       <c r="D46" t="n">
-        <v>0.166634</v>
+        <v>0.166934</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0538518</v>
+        <v>0.0537218</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0370459</v>
+        <v>0.0359723</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170568</v>
+        <v>0.170908</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0628551</v>
+        <v>0.06290129999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0409924</v>
+        <v>0.039818</v>
       </c>
       <c r="D48" t="n">
-        <v>0.17471</v>
+        <v>0.174651</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.076698</v>
+        <v>0.0769015</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0465993</v>
+        <v>0.0452823</v>
       </c>
       <c r="D49" t="n">
-        <v>0.179191</v>
+        <v>0.179409</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0966702</v>
+        <v>0.0968598</v>
       </c>
       <c r="C50" t="n">
-        <v>0.056057</v>
+        <v>0.053652</v>
       </c>
       <c r="D50" t="n">
-        <v>0.124801</v>
+        <v>0.124987</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.126656</v>
+        <v>0.126661</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0308263</v>
+        <v>0.0307652</v>
       </c>
       <c r="D51" t="n">
-        <v>0.129536</v>
+        <v>0.129617</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.171652</v>
+        <v>0.171679</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0307033</v>
+        <v>0.0300069</v>
       </c>
       <c r="D52" t="n">
-        <v>0.134299</v>
+        <v>0.134525</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0358245</v>
+        <v>0.0357643</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0312242</v>
+        <v>0.0312274</v>
       </c>
       <c r="D53" t="n">
-        <v>0.139172</v>
+        <v>0.139211</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0368062</v>
+        <v>0.0366523</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0307651</v>
+        <v>0.0307838</v>
       </c>
       <c r="D54" t="n">
-        <v>0.143977</v>
+        <v>0.143997</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0373426</v>
+        <v>0.0371917</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0320195</v>
+        <v>0.0319976</v>
       </c>
       <c r="D55" t="n">
-        <v>0.148572</v>
+        <v>0.14859</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0388617</v>
+        <v>0.0385584</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0319669</v>
+        <v>0.0319246</v>
       </c>
       <c r="D56" t="n">
-        <v>0.153044</v>
+        <v>0.153366</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0401136</v>
+        <v>0.0399404</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0327529</v>
+        <v>0.0323062</v>
       </c>
       <c r="D57" t="n">
-        <v>0.157252</v>
+        <v>0.157851</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0422138</v>
+        <v>0.0420174</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0333727</v>
+        <v>0.0333259</v>
       </c>
       <c r="D58" t="n">
-        <v>0.161445</v>
+        <v>0.16234</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.045001</v>
+        <v>0.0447482</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0347814</v>
+        <v>0.0339521</v>
       </c>
       <c r="D59" t="n">
-        <v>0.165148</v>
+        <v>0.166188</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0489957</v>
+        <v>0.0485155</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0373493</v>
+        <v>0.0355145</v>
       </c>
       <c r="D60" t="n">
-        <v>0.169257</v>
+        <v>0.170118</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0541708</v>
+        <v>0.0544607</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0385247</v>
+        <v>0.0381151</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173293</v>
+        <v>0.174019</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0630916</v>
+        <v>0.0627944</v>
       </c>
       <c r="C62" t="n">
-        <v>0.041367</v>
+        <v>0.0412407</v>
       </c>
       <c r="D62" t="n">
-        <v>0.177255</v>
+        <v>0.178925</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.074366</v>
+        <v>0.0744684</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0472988</v>
+        <v>0.0463251</v>
       </c>
       <c r="D63" t="n">
-        <v>0.181591</v>
+        <v>0.184045</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09277539999999999</v>
+        <v>0.0926486</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0549881</v>
+        <v>0.0540045</v>
       </c>
       <c r="D64" t="n">
-        <v>0.130658</v>
+        <v>0.131039</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119576</v>
+        <v>0.119509</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0691662</v>
+        <v>0.0674173</v>
       </c>
       <c r="D65" t="n">
-        <v>0.137058</v>
+        <v>0.138061</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161874</v>
+        <v>0.16229</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0357526</v>
+        <v>0.0361535</v>
       </c>
       <c r="D66" t="n">
-        <v>0.145079</v>
+        <v>0.143442</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0409797</v>
+        <v>0.041044</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0363378</v>
+        <v>0.0363521</v>
       </c>
       <c r="D67" t="n">
-        <v>0.151482</v>
+        <v>0.151848</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0416123</v>
+        <v>0.0420481</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0370838</v>
+        <v>0.0366707</v>
       </c>
       <c r="D68" t="n">
-        <v>0.159667</v>
+        <v>0.159065</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0428252</v>
+        <v>0.0427301</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0369231</v>
+        <v>0.0372449</v>
       </c>
       <c r="D69" t="n">
-        <v>0.167734</v>
+        <v>0.167583</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0437874</v>
+        <v>0.0437042</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0373916</v>
+        <v>0.0376763</v>
       </c>
       <c r="D70" t="n">
-        <v>0.176326</v>
+        <v>0.175444</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0451272</v>
+        <v>0.045432</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0383129</v>
+        <v>0.0379894</v>
       </c>
       <c r="D71" t="n">
-        <v>0.186274</v>
+        <v>0.184826</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0466421</v>
+        <v>0.0467667</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0386947</v>
+        <v>0.0388192</v>
       </c>
       <c r="D72" t="n">
-        <v>0.196059</v>
+        <v>0.194818</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0489669</v>
+        <v>0.0490585</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0396948</v>
+        <v>0.0397339</v>
       </c>
       <c r="D73" t="n">
-        <v>0.205117</v>
+        <v>0.204195</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0521169</v>
+        <v>0.0521233</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0409869</v>
+        <v>0.0410277</v>
       </c>
       <c r="D74" t="n">
-        <v>0.216608</v>
+        <v>0.214456</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0574245</v>
+        <v>0.0570992</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0430499</v>
+        <v>0.0428634</v>
       </c>
       <c r="D75" t="n">
-        <v>0.229728</v>
+        <v>0.226752</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06456149999999999</v>
+        <v>0.06450690000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0456239</v>
+        <v>0.045751</v>
       </c>
       <c r="D76" t="n">
-        <v>0.242118</v>
+        <v>0.240395</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07460600000000001</v>
+        <v>0.0753548</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0508425</v>
+        <v>0.050368</v>
       </c>
       <c r="D77" t="n">
-        <v>0.256144</v>
+        <v>0.254476</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0907592</v>
+        <v>0.09041730000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0574715</v>
+        <v>0.0567075</v>
       </c>
       <c r="D78" t="n">
-        <v>0.215764</v>
+        <v>0.216968</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115765</v>
+        <v>0.117167</v>
       </c>
       <c r="C79" t="n">
-        <v>0.06936680000000001</v>
+        <v>0.0682083</v>
       </c>
       <c r="D79" t="n">
-        <v>0.228096</v>
+        <v>0.22965</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.156325</v>
+        <v>0.155999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0403895</v>
+        <v>0.0402782</v>
       </c>
       <c r="D80" t="n">
-        <v>0.241245</v>
+        <v>0.242436</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0465515</v>
+        <v>0.0462944</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0407253</v>
+        <v>0.0406573</v>
       </c>
       <c r="D81" t="n">
-        <v>0.255153</v>
+        <v>0.25406</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0472365</v>
+        <v>0.0472698</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0412575</v>
+        <v>0.0411964</v>
       </c>
       <c r="D82" t="n">
-        <v>0.267385</v>
+        <v>0.268483</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0484739</v>
+        <v>0.0482917</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0415934</v>
+        <v>0.041655</v>
       </c>
       <c r="D83" t="n">
-        <v>0.280775</v>
+        <v>0.281722</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0495657</v>
+        <v>0.0495787</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0421647</v>
+        <v>0.0420491</v>
       </c>
       <c r="D84" t="n">
-        <v>0.294798</v>
+        <v>0.29541</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.051121</v>
+        <v>0.051253</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0427801</v>
+        <v>0.042917</v>
       </c>
       <c r="D85" t="n">
-        <v>0.309068</v>
+        <v>0.309927</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0531625</v>
+        <v>0.0531813</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0437989</v>
+        <v>0.0435351</v>
       </c>
       <c r="D86" t="n">
-        <v>0.323548</v>
+        <v>0.324173</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0559535</v>
+        <v>0.0561734</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0448178</v>
+        <v>0.0448121</v>
       </c>
       <c r="D87" t="n">
-        <v>0.338905</v>
+        <v>0.339013</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0596812</v>
+        <v>0.0602661</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0462141</v>
+        <v>0.0464674</v>
       </c>
       <c r="D88" t="n">
-        <v>0.35373</v>
+        <v>0.354877</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0654739</v>
+        <v>0.0657435</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0485266</v>
+        <v>0.048831</v>
       </c>
       <c r="D89" t="n">
-        <v>0.369905</v>
+        <v>0.370985</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.07373739999999999</v>
+        <v>0.0740685</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0518065</v>
+        <v>0.0523197</v>
       </c>
       <c r="D90" t="n">
-        <v>0.387525</v>
+        <v>0.38739</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0856585</v>
+        <v>0.0859352</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0567847</v>
+        <v>0.0575121</v>
       </c>
       <c r="D91" t="n">
-        <v>0.404936</v>
+        <v>0.405099</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.102952</v>
+        <v>0.103362</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0650954</v>
+        <v>0.0651793</v>
       </c>
       <c r="D92" t="n">
-        <v>0.326972</v>
+        <v>0.327895</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.128137</v>
+        <v>0.128591</v>
       </c>
       <c r="C93" t="n">
-        <v>0.07767549999999999</v>
+        <v>0.0776526</v>
       </c>
       <c r="D93" t="n">
-        <v>0.33793</v>
+        <v>0.339542</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.166244</v>
+        <v>0.166078</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0447064</v>
+        <v>0.0444773</v>
       </c>
       <c r="D94" t="n">
-        <v>0.349155</v>
+        <v>0.350672</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0582618</v>
+        <v>0.0581662</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0459097</v>
+        <v>0.0458266</v>
       </c>
       <c r="D95" t="n">
-        <v>0.36076</v>
+        <v>0.362242</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0615071</v>
+        <v>0.0616723</v>
       </c>
       <c r="C96" t="n">
-        <v>0.047509</v>
+        <v>0.04739</v>
       </c>
       <c r="D96" t="n">
-        <v>0.37282</v>
+        <v>0.374369</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0655845</v>
+        <v>0.06624670000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0495448</v>
+        <v>0.0493482</v>
       </c>
       <c r="D97" t="n">
-        <v>0.385377</v>
+        <v>0.386836</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0707501</v>
+        <v>0.070671</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0516511</v>
+        <v>0.051623</v>
       </c>
       <c r="D98" t="n">
-        <v>0.398009</v>
+        <v>0.399469</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0757052</v>
+        <v>0.0757867</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0546356</v>
+        <v>0.0545828</v>
       </c>
       <c r="D99" t="n">
-        <v>0.411382</v>
+        <v>0.412836</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0820447</v>
+        <v>0.0818041</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0581353</v>
+        <v>0.0578954</v>
       </c>
       <c r="D100" t="n">
-        <v>0.425302</v>
+        <v>0.426997</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08835899999999999</v>
+        <v>0.0881509</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0619771</v>
+        <v>0.0618803</v>
       </c>
       <c r="D101" t="n">
-        <v>0.439376</v>
+        <v>0.441518</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0952732</v>
+        <v>0.095163</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0659097</v>
+        <v>0.0656962</v>
       </c>
       <c r="D102" t="n">
-        <v>0.455015</v>
+        <v>0.456878</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.103021</v>
+        <v>0.10338</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0709412</v>
+        <v>0.0707617</v>
       </c>
       <c r="D103" t="n">
-        <v>0.471234</v>
+        <v>0.472764</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.112035</v>
+        <v>0.11223</v>
       </c>
       <c r="C104" t="n">
-        <v>0.076253</v>
+        <v>0.0760907</v>
       </c>
       <c r="D104" t="n">
-        <v>0.487591</v>
+        <v>0.48946</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.123348</v>
+        <v>0.123467</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0829709</v>
+        <v>0.0828295</v>
       </c>
       <c r="D105" t="n">
-        <v>0.505154</v>
+        <v>0.506928</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.137728</v>
+        <v>0.137821</v>
       </c>
       <c r="C106" t="n">
-        <v>0.09146609999999999</v>
+        <v>0.0913346</v>
       </c>
       <c r="D106" t="n">
-        <v>0.522815</v>
+        <v>0.524362</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.157818</v>
+        <v>0.157729</v>
       </c>
       <c r="C107" t="n">
-        <v>0.103498</v>
+        <v>0.10446</v>
       </c>
       <c r="D107" t="n">
-        <v>0.394623</v>
+        <v>0.39567</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.186501</v>
+        <v>0.186648</v>
       </c>
       <c r="C108" t="n">
-        <v>0.063433</v>
+        <v>0.0639467</v>
       </c>
       <c r="D108" t="n">
-        <v>0.405294</v>
+        <v>0.406218</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231413</v>
+        <v>0.231314</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0655352</v>
+        <v>0.0659438</v>
       </c>
       <c r="D109" t="n">
-        <v>0.416207</v>
+        <v>0.4174</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09143709999999999</v>
+        <v>0.09153409999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0677915</v>
+        <v>0.0678996</v>
       </c>
       <c r="D110" t="n">
-        <v>0.427357</v>
+        <v>0.428412</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.09431870000000001</v>
+        <v>0.0941324</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0699615</v>
+        <v>0.0701408</v>
       </c>
       <c r="D111" t="n">
-        <v>0.438905</v>
+        <v>0.440062</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0972862</v>
+        <v>0.09743549999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.07191980000000001</v>
+        <v>0.0720639</v>
       </c>
       <c r="D112" t="n">
-        <v>0.451079</v>
+        <v>0.45216</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.100549</v>
+        <v>0.10062</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0741906</v>
+        <v>0.0743135</v>
       </c>
       <c r="D113" t="n">
-        <v>0.46396</v>
+        <v>0.465223</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103856</v>
+        <v>0.103703</v>
       </c>
       <c r="C114" t="n">
-        <v>0.076359</v>
+        <v>0.07642980000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.477137</v>
+        <v>0.478463</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107913</v>
+        <v>0.107995</v>
       </c>
       <c r="C115" t="n">
-        <v>0.07840660000000001</v>
+        <v>0.07865510000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.49115</v>
+        <v>0.492758</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.112552</v>
+        <v>0.112477</v>
       </c>
       <c r="C116" t="n">
-        <v>0.081488</v>
+        <v>0.0815939</v>
       </c>
       <c r="D116" t="n">
-        <v>0.50626</v>
+        <v>0.507513</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.118326</v>
+        <v>0.118367</v>
       </c>
       <c r="C117" t="n">
-        <v>0.08475190000000001</v>
+        <v>0.0846037</v>
       </c>
       <c r="D117" t="n">
-        <v>0.521604</v>
+        <v>0.5241400000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.125581</v>
+        <v>0.125553</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0888753</v>
+        <v>0.0884905</v>
       </c>
       <c r="D118" t="n">
-        <v>0.538285</v>
+        <v>0.540339</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.135107</v>
+        <v>0.135188</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0940526</v>
+        <v>0.0941111</v>
       </c>
       <c r="D119" t="n">
-        <v>0.555584</v>
+        <v>0.556911</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.148075</v>
+        <v>0.148081</v>
       </c>
       <c r="C120" t="n">
-        <v>0.101182</v>
+        <v>0.101449</v>
       </c>
       <c r="D120" t="n">
-        <v>0.573808</v>
+        <v>0.574597</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.166165</v>
+        <v>0.16617</v>
       </c>
       <c r="C121" t="n">
-        <v>0.111919</v>
+        <v>0.11218</v>
       </c>
       <c r="D121" t="n">
-        <v>0.425856</v>
+        <v>0.426199</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192483</v>
+        <v>0.192632</v>
       </c>
       <c r="C122" t="n">
-        <v>0.128843</v>
+        <v>0.128602</v>
       </c>
       <c r="D122" t="n">
-        <v>0.436115</v>
+        <v>0.436747</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233626</v>
+        <v>0.233892</v>
       </c>
       <c r="C123" t="n">
-        <v>0.07735160000000001</v>
+        <v>0.0776734</v>
       </c>
       <c r="D123" t="n">
-        <v>0.446562</v>
+        <v>0.446878</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.101844</v>
+        <v>0.10228</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0812461</v>
+        <v>0.0804938</v>
       </c>
       <c r="D124" t="n">
-        <v>0.458249</v>
+        <v>0.458337</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104799</v>
+        <v>0.10851</v>
       </c>
       <c r="C125" t="n">
-        <v>0.08106099999999999</v>
+        <v>0.0831037</v>
       </c>
       <c r="D125" t="n">
-        <v>0.470147</v>
+        <v>0.470413</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107904</v>
+        <v>0.10766</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0826238</v>
+        <v>0.08552419999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.482081</v>
+        <v>0.482609</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110283</v>
+        <v>0.111018</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0872006</v>
+        <v>0.0871977</v>
       </c>
       <c r="D127" t="n">
-        <v>0.495022</v>
+        <v>0.49527</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114601</v>
+        <v>0.115932</v>
       </c>
       <c r="C128" t="n">
-        <v>0.08846950000000001</v>
+        <v>0.0891091</v>
       </c>
       <c r="D128" t="n">
-        <v>0.508718</v>
+        <v>0.509431</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118375</v>
+        <v>0.116458</v>
       </c>
       <c r="C129" t="n">
-        <v>0.09012100000000001</v>
+        <v>0.0901802</v>
       </c>
       <c r="D129" t="n">
-        <v>0.522803</v>
+        <v>0.523154</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122715</v>
+        <v>0.124318</v>
       </c>
       <c r="C130" t="n">
-        <v>0.09389309999999999</v>
+        <v>0.093613</v>
       </c>
       <c r="D130" t="n">
-        <v>0.537496</v>
+        <v>0.538386</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127348</v>
+        <v>0.127779</v>
       </c>
       <c r="C131" t="n">
-        <v>0.09620670000000001</v>
+        <v>0.09496300000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.552996</v>
+        <v>0.553209</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133904</v>
+        <v>0.133197</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0990021</v>
+        <v>0.0991838</v>
       </c>
       <c r="D132" t="n">
-        <v>0.569899</v>
+        <v>0.570022</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142165</v>
+        <v>0.142666</v>
       </c>
       <c r="C133" t="n">
-        <v>0.105475</v>
+        <v>0.104265</v>
       </c>
       <c r="D133" t="n">
-        <v>0.587626</v>
+        <v>0.5878409999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155554</v>
+        <v>0.155861</v>
       </c>
       <c r="C134" t="n">
-        <v>0.110752</v>
+        <v>0.110839</v>
       </c>
       <c r="D134" t="n">
-        <v>0.606093</v>
+        <v>0.60559</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.172638</v>
+        <v>0.172369</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1232</v>
+        <v>0.121188</v>
       </c>
       <c r="D135" t="n">
-        <v>0.44357</v>
+        <v>0.443809</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.19738</v>
+        <v>0.196997</v>
       </c>
       <c r="C136" t="n">
-        <v>0.137043</v>
+        <v>0.134286</v>
       </c>
       <c r="D136" t="n">
-        <v>0.454188</v>
+        <v>0.454744</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.234689</v>
+        <v>0.235313</v>
       </c>
       <c r="C137" t="n">
-        <v>0.150848</v>
+        <v>0.149985</v>
       </c>
       <c r="D137" t="n">
-        <v>0.465186</v>
+        <v>0.465629</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.160342</v>
+        <v>0.167247</v>
       </c>
       <c r="C138" t="n">
-        <v>0.149915</v>
+        <v>0.151671</v>
       </c>
       <c r="D138" t="n">
-        <v>0.47661</v>
+        <v>0.476993</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.167335</v>
+        <v>0.170148</v>
       </c>
       <c r="C139" t="n">
-        <v>0.153942</v>
+        <v>0.153021</v>
       </c>
       <c r="D139" t="n">
-        <v>0.488254</v>
+        <v>0.488419</v>
       </c>
     </row>
     <row r="140">
@@ -5178,10 +5178,10 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.161779</v>
+        <v>0.173216</v>
       </c>
       <c r="C140" t="n">
-        <v>0.149654</v>
+        <v>0.15371</v>
       </c>
       <c r="D140" t="n">
         <v>0.5006699999999999</v>
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173931</v>
+        <v>0.172448</v>
       </c>
       <c r="C141" t="n">
-        <v>0.155854</v>
+        <v>0.156193</v>
       </c>
       <c r="D141" t="n">
-        <v>0.513371</v>
+        <v>0.513818</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.173964</v>
+        <v>0.175697</v>
       </c>
       <c r="C142" t="n">
-        <v>0.150561</v>
+        <v>0.156893</v>
       </c>
       <c r="D142" t="n">
-        <v>0.527095</v>
+        <v>0.527014</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177458</v>
+        <v>0.177121</v>
       </c>
       <c r="C143" t="n">
-        <v>0.158903</v>
+        <v>0.159622</v>
       </c>
       <c r="D143" t="n">
-        <v>0.540987</v>
+        <v>0.541095</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0340419</v>
+        <v>0.0333662</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0297931</v>
+        <v>0.117009</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1157</v>
+        <v>0.0313264</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0289249</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0348161</v>
+        <v>0.0340761</v>
       </c>
       <c r="C3" t="n">
-        <v>0.030335</v>
+        <v>0.122223</v>
       </c>
       <c r="D3" t="n">
-        <v>0.121256</v>
+        <v>0.0321174</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0295128</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0366065</v>
+        <v>0.0380109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0314902</v>
+        <v>0.127345</v>
       </c>
       <c r="D4" t="n">
-        <v>0.128636</v>
+        <v>0.0330755</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0308885</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0425686</v>
+        <v>0.0439307</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0333881</v>
+        <v>0.134054</v>
       </c>
       <c r="D5" t="n">
-        <v>0.133353</v>
+        <v>0.0347578</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0324262</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0512495</v>
+        <v>0.055681</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0360309</v>
+        <v>0.140559</v>
       </c>
       <c r="D6" t="n">
-        <v>0.140167</v>
+        <v>0.0375767</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0354337</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.071614</v>
+        <v>0.06899189999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0418685</v>
+        <v>0.09641810000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09628929999999999</v>
+        <v>0.0440988</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.04117</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.106559</v>
+        <v>0.103779</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0563163</v>
+        <v>0.103316</v>
       </c>
       <c r="D8" t="n">
-        <v>0.103151</v>
+        <v>0.0579665</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0540598</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149904</v>
+        <v>0.147785</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0268724</v>
+        <v>0.110577</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109139</v>
+        <v>0.0287114</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0261856</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0315878</v>
+        <v>0.0308532</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0270101</v>
+        <v>0.116509</v>
       </c>
       <c r="D10" t="n">
-        <v>0.115527</v>
+        <v>0.0289003</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0264303</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0315889</v>
+        <v>0.031938</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0272555</v>
+        <v>0.121945</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1216</v>
+        <v>0.029141</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0268303</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0327743</v>
+        <v>0.032555</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0278386</v>
+        <v>0.126877</v>
       </c>
       <c r="D12" t="n">
-        <v>0.125598</v>
+        <v>0.0296769</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0274046</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0333329</v>
+        <v>0.0323359</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0281377</v>
+        <v>0.132216</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131173</v>
+        <v>0.0299837</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0277817</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0338937</v>
+        <v>0.033536</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0286185</v>
+        <v>0.136867</v>
       </c>
       <c r="D14" t="n">
-        <v>0.136296</v>
+        <v>0.0303375</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0283338</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0351176</v>
+        <v>0.0343676</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0293396</v>
+        <v>0.141538</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140075</v>
+        <v>0.0309439</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0290714</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.036846</v>
+        <v>0.0362424</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03015</v>
+        <v>0.145476</v>
       </c>
       <c r="D16" t="n">
-        <v>0.144585</v>
+        <v>0.0317676</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0299752</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0400074</v>
+        <v>0.0392996</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0311777</v>
+        <v>0.150294</v>
       </c>
       <c r="D17" t="n">
-        <v>0.149028</v>
+        <v>0.0327606</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0311943</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0436019</v>
+        <v>0.0424081</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0322813</v>
+        <v>0.154766</v>
       </c>
       <c r="D18" t="n">
-        <v>0.153582</v>
+        <v>0.0339711</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.032267</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0508966</v>
+        <v>0.0504047</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0339525</v>
+        <v>0.159046</v>
       </c>
       <c r="D19" t="n">
-        <v>0.157253</v>
+        <v>0.0356362</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.034145</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0649824</v>
+        <v>0.0597153</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0377206</v>
+        <v>0.163458</v>
       </c>
       <c r="D20" t="n">
-        <v>0.161302</v>
+        <v>0.0389836</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.037733</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0830183</v>
+        <v>0.07748579999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0440675</v>
+        <v>0.114572</v>
       </c>
       <c r="D21" t="n">
-        <v>0.114143</v>
+        <v>0.0454572</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0436637</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.108299</v>
+        <v>0.102386</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0595798</v>
+        <v>0.119568</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119497</v>
+        <v>0.0608034</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0582247</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.14974</v>
+        <v>0.136927</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0271312</v>
+        <v>0.124556</v>
       </c>
       <c r="D23" t="n">
-        <v>0.12431</v>
+        <v>0.0286721</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0271847</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0330453</v>
+        <v>0.0324366</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0276144</v>
+        <v>0.129459</v>
       </c>
       <c r="D24" t="n">
-        <v>0.129539</v>
+        <v>0.0289468</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0277879</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0338262</v>
+        <v>0.0330448</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0278261</v>
+        <v>0.134325</v>
       </c>
       <c r="D25" t="n">
-        <v>0.133861</v>
+        <v>0.0292969</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0282665</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0345342</v>
+        <v>0.0339358</v>
       </c>
       <c r="C26" t="n">
-        <v>0.028198</v>
+        <v>0.138492</v>
       </c>
       <c r="D26" t="n">
-        <v>0.138166</v>
+        <v>0.0295758</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0285561</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0349119</v>
+        <v>0.0351625</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0287244</v>
+        <v>0.14349</v>
       </c>
       <c r="D27" t="n">
-        <v>0.142863</v>
+        <v>0.0300465</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0294211</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0362592</v>
+        <v>0.0360334</v>
       </c>
       <c r="C28" t="n">
-        <v>0.029359</v>
+        <v>0.148178</v>
       </c>
       <c r="D28" t="n">
-        <v>0.147032</v>
+        <v>0.0305982</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0302659</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0374399</v>
+        <v>0.03722</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0302103</v>
+        <v>0.152591</v>
       </c>
       <c r="D29" t="n">
-        <v>0.151796</v>
+        <v>0.0313912</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0313259</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395734</v>
+        <v>0.0395623</v>
       </c>
       <c r="C30" t="n">
-        <v>0.030983</v>
+        <v>0.1571</v>
       </c>
       <c r="D30" t="n">
-        <v>0.155681</v>
+        <v>0.0320559</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0323745</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0425139</v>
+        <v>0.0426225</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0321579</v>
+        <v>0.16135</v>
       </c>
       <c r="D31" t="n">
-        <v>0.160238</v>
+        <v>0.0331716</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0337397</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0468284</v>
+        <v>0.0467196</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0333227</v>
+        <v>0.164822</v>
       </c>
       <c r="D32" t="n">
-        <v>0.162935</v>
+        <v>0.0344331</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0350496</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0527097</v>
+        <v>0.0532869</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0350416</v>
+        <v>0.169449</v>
       </c>
       <c r="D33" t="n">
-        <v>0.167185</v>
+        <v>0.0362944</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0370149</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0628843</v>
+        <v>0.0639998</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0386039</v>
+        <v>0.173614</v>
       </c>
       <c r="D34" t="n">
-        <v>0.17091</v>
+        <v>0.0398059</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0401725</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07944519999999999</v>
+        <v>0.0778316</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0451995</v>
+        <v>0.119093</v>
       </c>
       <c r="D35" t="n">
-        <v>0.118656</v>
+        <v>0.0463634</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0460412</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101533</v>
+        <v>0.100454</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0562867</v>
+        <v>0.123893</v>
       </c>
       <c r="D36" t="n">
-        <v>0.123376</v>
+        <v>0.0575992</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0561207</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.136816</v>
+        <v>0.131359</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0276283</v>
+        <v>0.128238</v>
       </c>
       <c r="D37" t="n">
-        <v>0.127927</v>
+        <v>0.0289594</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0292009</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0337861</v>
+        <v>0.0332712</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0282056</v>
+        <v>0.133243</v>
       </c>
       <c r="D38" t="n">
-        <v>0.13278</v>
+        <v>0.0293416</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0299158</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0342208</v>
+        <v>0.0341841</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0285994</v>
+        <v>0.138083</v>
       </c>
       <c r="D39" t="n">
-        <v>0.137667</v>
+        <v>0.0300839</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0307071</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0351139</v>
+        <v>0.0350538</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0290532</v>
+        <v>0.14262</v>
       </c>
       <c r="D40" t="n">
-        <v>0.142248</v>
+        <v>0.0300769</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0309727</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0364146</v>
+        <v>0.0356899</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0294127</v>
+        <v>0.147085</v>
       </c>
       <c r="D41" t="n">
-        <v>0.146499</v>
+        <v>0.0305062</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0314966</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0376429</v>
+        <v>0.0369983</v>
       </c>
       <c r="C42" t="n">
-        <v>0.029987</v>
+        <v>0.151581</v>
       </c>
       <c r="D42" t="n">
-        <v>0.150833</v>
+        <v>0.031053</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0321815</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0388294</v>
+        <v>0.0387705</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0306092</v>
+        <v>0.156182</v>
       </c>
       <c r="D43" t="n">
-        <v>0.155473</v>
+        <v>0.031693</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0330008</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0410985</v>
+        <v>0.0407266</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0315332</v>
+        <v>0.160163</v>
       </c>
       <c r="D44" t="n">
-        <v>0.159159</v>
+        <v>0.0326506</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0340239</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0439605</v>
+        <v>0.0431153</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0326507</v>
+        <v>0.164319</v>
       </c>
       <c r="D45" t="n">
-        <v>0.162848</v>
+        <v>0.0336946</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0351257</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0481697</v>
+        <v>0.0470248</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0341384</v>
+        <v>0.168342</v>
       </c>
       <c r="D46" t="n">
-        <v>0.166934</v>
+        <v>0.0352271</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0366406</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0537218</v>
+        <v>0.0530535</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0359723</v>
+        <v>0.172567</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170908</v>
+        <v>0.0374401</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0384507</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06290129999999999</v>
+        <v>0.062163</v>
       </c>
       <c r="C48" t="n">
-        <v>0.039818</v>
+        <v>0.177142</v>
       </c>
       <c r="D48" t="n">
-        <v>0.174651</v>
+        <v>0.0414221</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0417393</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0769015</v>
+        <v>0.075559</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0452823</v>
+        <v>0.181808</v>
       </c>
       <c r="D49" t="n">
-        <v>0.179409</v>
+        <v>0.0467765</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0464538</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0968598</v>
+        <v>0.09417540000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.053652</v>
+        <v>0.125264</v>
       </c>
       <c r="D50" t="n">
-        <v>0.124987</v>
+        <v>0.0553231</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0539886</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.126661</v>
+        <v>0.123685</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0307652</v>
+        <v>0.129884</v>
       </c>
       <c r="D51" t="n">
-        <v>0.129617</v>
+        <v>0.030475</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0326239</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.171679</v>
+        <v>0.170915</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0300069</v>
+        <v>0.134661</v>
       </c>
       <c r="D52" t="n">
-        <v>0.134525</v>
+        <v>0.0306348</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0332897</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0357643</v>
+        <v>0.0372926</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0312274</v>
+        <v>0.139518</v>
       </c>
       <c r="D53" t="n">
-        <v>0.139211</v>
+        <v>0.0314406</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0328347</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0366523</v>
+        <v>0.036659</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0307838</v>
+        <v>0.14452</v>
       </c>
       <c r="D54" t="n">
-        <v>0.143997</v>
+        <v>0.0313498</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0341936</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0371917</v>
+        <v>0.0390232</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0319976</v>
+        <v>0.149152</v>
       </c>
       <c r="D55" t="n">
-        <v>0.14859</v>
+        <v>0.0318104</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0346934</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0385584</v>
+        <v>0.0400195</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0319246</v>
+        <v>0.153925</v>
       </c>
       <c r="D56" t="n">
-        <v>0.153366</v>
+        <v>0.0324421</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0354698</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0399404</v>
+        <v>0.0407428</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0323062</v>
+        <v>0.158231</v>
       </c>
       <c r="D57" t="n">
-        <v>0.157851</v>
+        <v>0.0330541</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0361818</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0420174</v>
+        <v>0.0424317</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0333259</v>
+        <v>0.162936</v>
       </c>
       <c r="D58" t="n">
-        <v>0.16234</v>
+        <v>0.033938</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0368413</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0447482</v>
+        <v>0.0452955</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0339521</v>
+        <v>0.16688</v>
       </c>
       <c r="D59" t="n">
-        <v>0.166188</v>
+        <v>0.03514</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0374068</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0485155</v>
+        <v>0.0495397</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0355145</v>
+        <v>0.171178</v>
       </c>
       <c r="D60" t="n">
-        <v>0.170118</v>
+        <v>0.0365835</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0389788</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0544607</v>
+        <v>0.0543129</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0381151</v>
+        <v>0.175922</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174019</v>
+        <v>0.0386412</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0407223</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0627944</v>
+        <v>0.0623589</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0412407</v>
+        <v>0.180304</v>
       </c>
       <c r="D62" t="n">
-        <v>0.178925</v>
+        <v>0.0420298</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0443279</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0744684</v>
+        <v>0.07352649999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0463251</v>
+        <v>0.185024</v>
       </c>
       <c r="D63" t="n">
-        <v>0.184045</v>
+        <v>0.0471003</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0490497</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0926486</v>
+        <v>0.09001290000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0540045</v>
+        <v>0.131786</v>
       </c>
       <c r="D64" t="n">
-        <v>0.131039</v>
+        <v>0.0553604</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0558362</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119509</v>
+        <v>0.118626</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0674173</v>
+        <v>0.137511</v>
       </c>
       <c r="D65" t="n">
-        <v>0.138061</v>
+        <v>0.06923269999999999</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.06882190000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16229</v>
+        <v>0.16198</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0361535</v>
+        <v>0.144891</v>
       </c>
       <c r="D66" t="n">
-        <v>0.143442</v>
+        <v>0.0364012</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0386383</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.041044</v>
+        <v>0.0410879</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0363521</v>
+        <v>0.151482</v>
       </c>
       <c r="D67" t="n">
-        <v>0.151848</v>
+        <v>0.0365049</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.039358</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0420481</v>
+        <v>0.0417671</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0366707</v>
+        <v>0.159205</v>
       </c>
       <c r="D68" t="n">
-        <v>0.159065</v>
+        <v>0.0371255</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.039995</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0427301</v>
+        <v>0.0433957</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0372449</v>
+        <v>0.167273</v>
       </c>
       <c r="D69" t="n">
-        <v>0.167583</v>
+        <v>0.0374173</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0406584</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0437042</v>
+        <v>0.0440334</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0376763</v>
+        <v>0.176273</v>
       </c>
       <c r="D70" t="n">
-        <v>0.175444</v>
+        <v>0.0377079</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0414986</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.045432</v>
+        <v>0.0455846</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0379894</v>
+        <v>0.185109</v>
       </c>
       <c r="D71" t="n">
-        <v>0.184826</v>
+        <v>0.0386273</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0423423</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0467667</v>
+        <v>0.0468667</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0388192</v>
+        <v>0.19587</v>
       </c>
       <c r="D72" t="n">
-        <v>0.194818</v>
+        <v>0.0394148</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0434589</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0490585</v>
+        <v>0.0488548</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0397339</v>
+        <v>0.207493</v>
       </c>
       <c r="D73" t="n">
-        <v>0.204195</v>
+        <v>0.0403728</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0446797</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0521233</v>
+        <v>0.052506</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0410277</v>
+        <v>0.220049</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214456</v>
+        <v>0.0414865</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0463947</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0570992</v>
+        <v>0.0572368</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0428634</v>
+        <v>0.230997</v>
       </c>
       <c r="D75" t="n">
-        <v>0.226752</v>
+        <v>0.043427</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0484505</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06450690000000001</v>
+        <v>0.0639309</v>
       </c>
       <c r="C76" t="n">
-        <v>0.045751</v>
+        <v>0.245448</v>
       </c>
       <c r="D76" t="n">
-        <v>0.240395</v>
+        <v>0.0463012</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.051594</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0753548</v>
+        <v>0.07364130000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.050368</v>
+        <v>0.259918</v>
       </c>
       <c r="D77" t="n">
-        <v>0.254476</v>
+        <v>0.050794</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0557576</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09041730000000001</v>
+        <v>0.08943769999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0567075</v>
+        <v>0.217392</v>
       </c>
       <c r="D78" t="n">
-        <v>0.216968</v>
+        <v>0.0579096</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0622247</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.117167</v>
+        <v>0.115143</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0682083</v>
+        <v>0.229705</v>
       </c>
       <c r="D79" t="n">
-        <v>0.22965</v>
+        <v>0.0698467</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0737363</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.155999</v>
+        <v>0.154663</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0402782</v>
+        <v>0.242386</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242436</v>
+        <v>0.0404852</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0440908</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0462944</v>
+        <v>0.04658</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0406573</v>
+        <v>0.255157</v>
       </c>
       <c r="D81" t="n">
-        <v>0.25406</v>
+        <v>0.0407418</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.04482</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0472698</v>
+        <v>0.0472532</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0411964</v>
+        <v>0.268553</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268483</v>
+        <v>0.0411608</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0457679</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0482917</v>
+        <v>0.0484537</v>
       </c>
       <c r="C83" t="n">
-        <v>0.041655</v>
+        <v>0.281767</v>
       </c>
       <c r="D83" t="n">
-        <v>0.281722</v>
+        <v>0.0416642</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0467391</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0495787</v>
+        <v>0.0497283</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0420491</v>
+        <v>0.295412</v>
       </c>
       <c r="D84" t="n">
-        <v>0.29541</v>
+        <v>0.0422083</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.047836</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.051253</v>
+        <v>0.0515288</v>
       </c>
       <c r="C85" t="n">
-        <v>0.042917</v>
+        <v>0.310265</v>
       </c>
       <c r="D85" t="n">
-        <v>0.309927</v>
+        <v>0.0428263</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0490237</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0531813</v>
+        <v>0.0540773</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0435351</v>
+        <v>0.324307</v>
       </c>
       <c r="D86" t="n">
-        <v>0.324173</v>
+        <v>0.0436571</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0510205</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0561734</v>
+        <v>0.0568817</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0448121</v>
+        <v>0.339123</v>
       </c>
       <c r="D87" t="n">
-        <v>0.339013</v>
+        <v>0.0451663</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0535302</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0602661</v>
+        <v>0.0601871</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0464674</v>
+        <v>0.355067</v>
       </c>
       <c r="D88" t="n">
-        <v>0.354877</v>
+        <v>0.046802</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0576869</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0657435</v>
+        <v>0.0665278</v>
       </c>
       <c r="C89" t="n">
-        <v>0.048831</v>
+        <v>0.371425</v>
       </c>
       <c r="D89" t="n">
-        <v>0.370985</v>
+        <v>0.0492164</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0625372</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0740685</v>
+        <v>0.074833</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0523197</v>
+        <v>0.388791</v>
       </c>
       <c r="D90" t="n">
-        <v>0.38739</v>
+        <v>0.0529786</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.06948</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0859352</v>
+        <v>0.0872264</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0575121</v>
+        <v>0.406331</v>
       </c>
       <c r="D91" t="n">
-        <v>0.405099</v>
+        <v>0.0581788</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.07814889999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.103362</v>
+        <v>0.105488</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0651793</v>
+        <v>0.32786</v>
       </c>
       <c r="D92" t="n">
-        <v>0.327895</v>
+        <v>0.066396</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0915367</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.128591</v>
+        <v>0.130195</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0776526</v>
+        <v>0.338384</v>
       </c>
       <c r="D93" t="n">
-        <v>0.339542</v>
+        <v>0.0794117</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.110382</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.166078</v>
+        <v>0.165336</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0444773</v>
+        <v>0.349888</v>
       </c>
       <c r="D94" t="n">
-        <v>0.350672</v>
+        <v>0.0447856</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0570065</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0581662</v>
+        <v>0.0581609</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0458266</v>
+        <v>0.361563</v>
       </c>
       <c r="D95" t="n">
-        <v>0.362242</v>
+        <v>0.0459406</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0608479</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0616723</v>
+        <v>0.0620039</v>
       </c>
       <c r="C96" t="n">
-        <v>0.04739</v>
+        <v>0.373719</v>
       </c>
       <c r="D96" t="n">
-        <v>0.374369</v>
+        <v>0.0473006</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.0644856</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06624670000000001</v>
+        <v>0.0657039</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0493482</v>
+        <v>0.385855</v>
       </c>
       <c r="D97" t="n">
-        <v>0.386836</v>
+        <v>0.049284</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0700769</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.070671</v>
+        <v>0.0704936</v>
       </c>
       <c r="C98" t="n">
-        <v>0.051623</v>
+        <v>0.398402</v>
       </c>
       <c r="D98" t="n">
-        <v>0.399469</v>
+        <v>0.0521997</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.0754201</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0757867</v>
+        <v>0.0754875</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0545828</v>
+        <v>0.412114</v>
       </c>
       <c r="D99" t="n">
-        <v>0.412836</v>
+        <v>0.05474</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.081967</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0818041</v>
+        <v>0.0814488</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0578954</v>
+        <v>0.426254</v>
       </c>
       <c r="D100" t="n">
-        <v>0.426997</v>
+        <v>0.058265</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.08851539999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0881509</v>
+        <v>0.0877453</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0618803</v>
+        <v>0.440603</v>
       </c>
       <c r="D101" t="n">
-        <v>0.441518</v>
+        <v>0.0619249</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0948586</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.095163</v>
+        <v>0.09489</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0656962</v>
+        <v>0.456222</v>
       </c>
       <c r="D102" t="n">
-        <v>0.456878</v>
+        <v>0.0656033</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.102068</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.10338</v>
+        <v>0.102804</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0707617</v>
+        <v>0.472089</v>
       </c>
       <c r="D103" t="n">
-        <v>0.472764</v>
+        <v>0.07059459999999999</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.109073</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.11223</v>
+        <v>0.111787</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0760907</v>
+        <v>0.489058</v>
       </c>
       <c r="D104" t="n">
-        <v>0.48946</v>
+        <v>0.0762833</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.116702</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.123467</v>
+        <v>0.122811</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0828295</v>
+        <v>0.5062219999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.506928</v>
+        <v>0.0834371</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.125369</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.137821</v>
+        <v>0.137685</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0913346</v>
+        <v>0.524524</v>
       </c>
       <c r="D106" t="n">
-        <v>0.524362</v>
+        <v>0.09192699999999999</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.136672</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.157729</v>
+        <v>0.157936</v>
       </c>
       <c r="C107" t="n">
-        <v>0.10446</v>
+        <v>0.396171</v>
       </c>
       <c r="D107" t="n">
-        <v>0.39567</v>
+        <v>0.104946</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.152625</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.186648</v>
+        <v>0.187056</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0639467</v>
+        <v>0.406563</v>
       </c>
       <c r="D108" t="n">
-        <v>0.406218</v>
+        <v>0.0638827</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.0923326</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231314</v>
+        <v>0.232331</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0659438</v>
+        <v>0.417143</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4174</v>
+        <v>0.0663335</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0955588</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09153409999999999</v>
+        <v>0.0910381</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0678996</v>
+        <v>0.428464</v>
       </c>
       <c r="D110" t="n">
-        <v>0.428412</v>
+        <v>0.0682311</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.09867430000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0941324</v>
+        <v>0.09408270000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0701408</v>
+        <v>0.439979</v>
       </c>
       <c r="D111" t="n">
-        <v>0.440062</v>
+        <v>0.0701275</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.101631</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.09743549999999999</v>
+        <v>0.09674770000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0720639</v>
+        <v>0.451985</v>
       </c>
       <c r="D112" t="n">
-        <v>0.45216</v>
+        <v>0.0721609</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.104629</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.10062</v>
+        <v>0.100081</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0743135</v>
+        <v>0.464954</v>
       </c>
       <c r="D113" t="n">
-        <v>0.465223</v>
+        <v>0.0741362</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.108387</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103703</v>
+        <v>0.103267</v>
       </c>
       <c r="C114" t="n">
-        <v>0.07642980000000001</v>
+        <v>0.4783</v>
       </c>
       <c r="D114" t="n">
-        <v>0.478463</v>
+        <v>0.07641299999999999</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.111825</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107995</v>
+        <v>0.107377</v>
       </c>
       <c r="C115" t="n">
-        <v>0.07865510000000001</v>
+        <v>0.492201</v>
       </c>
       <c r="D115" t="n">
-        <v>0.492758</v>
+        <v>0.078656</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.115752</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.112477</v>
+        <v>0.11192</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0815939</v>
+        <v>0.507207</v>
       </c>
       <c r="D116" t="n">
-        <v>0.507513</v>
+        <v>0.0815134</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.120217</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.118367</v>
+        <v>0.117859</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0846037</v>
+        <v>0.522921</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5241400000000001</v>
+        <v>0.08472880000000001</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.125063</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.125553</v>
+        <v>0.125262</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0884905</v>
+        <v>0.53894</v>
       </c>
       <c r="D118" t="n">
-        <v>0.540339</v>
+        <v>0.088963</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.131717</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.135188</v>
+        <v>0.13492</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0941111</v>
+        <v>0.556169</v>
       </c>
       <c r="D119" t="n">
-        <v>0.556911</v>
+        <v>0.0940565</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.139277</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.148081</v>
+        <v>0.147803</v>
       </c>
       <c r="C120" t="n">
-        <v>0.101449</v>
+        <v>0.574479</v>
       </c>
       <c r="D120" t="n">
-        <v>0.574597</v>
+        <v>0.101522</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.149772</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.16617</v>
+        <v>0.166295</v>
       </c>
       <c r="C121" t="n">
-        <v>0.11218</v>
+        <v>0.426456</v>
       </c>
       <c r="D121" t="n">
-        <v>0.426199</v>
+        <v>0.112519</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.164318</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192632</v>
+        <v>0.193171</v>
       </c>
       <c r="C122" t="n">
-        <v>0.128602</v>
+        <v>0.436471</v>
       </c>
       <c r="D122" t="n">
-        <v>0.436747</v>
+        <v>0.129782</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.187503</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233892</v>
+        <v>0.235574</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0776734</v>
+        <v>0.447153</v>
       </c>
       <c r="D123" t="n">
-        <v>0.446878</v>
+        <v>0.0782644</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.110111</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.10228</v>
+        <v>0.103081</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0804938</v>
+        <v>0.458395</v>
       </c>
       <c r="D124" t="n">
-        <v>0.458337</v>
+        <v>0.0811042</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.114824</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.10851</v>
+        <v>0.104315</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0831037</v>
+        <v>0.471083</v>
       </c>
       <c r="D125" t="n">
-        <v>0.470413</v>
+        <v>0.081432</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.118841</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.10766</v>
+        <v>0.108812</v>
       </c>
       <c r="C126" t="n">
-        <v>0.08552419999999999</v>
+        <v>0.482467</v>
       </c>
       <c r="D126" t="n">
-        <v>0.482609</v>
+        <v>0.08473020000000001</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.121473</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111018</v>
+        <v>0.111961</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0871977</v>
+        <v>0.495629</v>
       </c>
       <c r="D127" t="n">
-        <v>0.49527</v>
+        <v>0.0873097</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.125483</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115932</v>
+        <v>0.115755</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0891091</v>
+        <v>0.50864</v>
       </c>
       <c r="D128" t="n">
-        <v>0.509431</v>
+        <v>0.09075999999999999</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.127032</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116458</v>
+        <v>0.116714</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0901802</v>
+        <v>0.522904</v>
       </c>
       <c r="D129" t="n">
-        <v>0.523154</v>
+        <v>0.0900941</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.133476</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.124318</v>
+        <v>0.121482</v>
       </c>
       <c r="C130" t="n">
-        <v>0.093613</v>
+        <v>0.537679</v>
       </c>
       <c r="D130" t="n">
-        <v>0.538386</v>
+        <v>0.0950014</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.136839</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127779</v>
+        <v>0.126085</v>
       </c>
       <c r="C131" t="n">
-        <v>0.09496300000000001</v>
+        <v>0.553839</v>
       </c>
       <c r="D131" t="n">
-        <v>0.553209</v>
+        <v>0.0955493</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.140303</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133197</v>
+        <v>0.132736</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0991838</v>
+        <v>0.570028</v>
       </c>
       <c r="D132" t="n">
-        <v>0.570022</v>
+        <v>0.100226</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.150537</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142666</v>
+        <v>0.14142</v>
       </c>
       <c r="C133" t="n">
-        <v>0.104265</v>
+        <v>0.586794</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5878409999999999</v>
+        <v>0.10412</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.154791</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155861</v>
+        <v>0.154608</v>
       </c>
       <c r="C134" t="n">
-        <v>0.110839</v>
+        <v>0.605277</v>
       </c>
       <c r="D134" t="n">
-        <v>0.60559</v>
+        <v>0.111749</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.163957</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.172369</v>
+        <v>0.171952</v>
       </c>
       <c r="C135" t="n">
-        <v>0.121188</v>
+        <v>0.443787</v>
       </c>
       <c r="D135" t="n">
-        <v>0.443809</v>
+        <v>0.119972</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.178176</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.196997</v>
+        <v>0.197685</v>
       </c>
       <c r="C136" t="n">
-        <v>0.134286</v>
+        <v>0.45454</v>
       </c>
       <c r="D136" t="n">
-        <v>0.454744</v>
+        <v>0.135697</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.198244</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235313</v>
+        <v>0.234829</v>
       </c>
       <c r="C137" t="n">
-        <v>0.149985</v>
+        <v>0.46527</v>
       </c>
       <c r="D137" t="n">
-        <v>0.465629</v>
+        <v>0.150483</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.182206</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.167247</v>
+        <v>0.167598</v>
       </c>
       <c r="C138" t="n">
-        <v>0.151671</v>
+        <v>0.476702</v>
       </c>
       <c r="D138" t="n">
-        <v>0.476993</v>
+        <v>0.151527</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.18503</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.170148</v>
+        <v>0.169151</v>
       </c>
       <c r="C139" t="n">
-        <v>0.153021</v>
+        <v>0.488385</v>
       </c>
       <c r="D139" t="n">
-        <v>0.488419</v>
+        <v>0.15209</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.188069</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.173216</v>
+        <v>0.170947</v>
       </c>
       <c r="C140" t="n">
-        <v>0.15371</v>
+        <v>0.500588</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5006699999999999</v>
+        <v>0.154677</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.191332</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.172448</v>
+        <v>0.172486</v>
       </c>
       <c r="C141" t="n">
-        <v>0.156193</v>
+        <v>0.513193</v>
       </c>
       <c r="D141" t="n">
-        <v>0.513818</v>
+        <v>0.156523</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.194778</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.175697</v>
+        <v>0.175561</v>
       </c>
       <c r="C142" t="n">
-        <v>0.156893</v>
+        <v>0.526438</v>
       </c>
       <c r="D142" t="n">
-        <v>0.527014</v>
+        <v>0.156519</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.197391</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177121</v>
+        <v>0.177965</v>
       </c>
       <c r="C143" t="n">
-        <v>0.159622</v>
+        <v>0.540432</v>
       </c>
       <c r="D143" t="n">
-        <v>0.541095</v>
+        <v>0.158291</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.20147</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196541</v>
+                  <v>0.0188563</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.022714</v>
+                  <v>0.020482</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0280732</v>
+                  <v>0.0250918</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0383508</v>
+                  <v>0.0324396</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.052548</v>
+                  <v>0.0486736</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.066875</v>
+                  <v>0.0676407</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0901585</v>
+                  <v>0.0914015</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.118385</v>
+                  <v>0.120117</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0166794</v>
+                  <v>0.0161742</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.017095</v>
+                  <v>0.0167609</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0175332</v>
+                  <v>0.017033</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0179948</v>
+                  <v>0.0178156</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0186281</v>
+                  <v>0.0186429</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0208214</v>
+                  <v>0.0201514</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0229571</v>
+                  <v>0.0223364</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0261478</v>
+                  <v>0.0265812</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0314248</v>
+                  <v>0.0315209</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0425587</v>
+                  <v>0.0404218</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0519527</v>
+                  <v>0.0523243</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.07000199999999999</v>
+                  <v>0.068802</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0890392</v>
+                  <v>0.0916015</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.119166</v>
+                  <v>0.115789</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0162997</v>
+                  <v>0.0165559</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0169862</v>
+                  <v>0.01713</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0176941</v>
+                  <v>0.017832</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0184008</v>
+                  <v>0.0186431</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0198508</v>
+                  <v>0.0204344</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0220004</v>
+                  <v>0.0223797</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0252038</v>
+                  <v>0.0260575</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.029776</v>
+                  <v>0.0296827</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0355674</v>
+                  <v>0.0351294</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0445372</v>
+                  <v>0.0439567</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0557284</v>
+                  <v>0.0560566</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0722409</v>
+                  <v>0.0724226</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0937438</v>
+                  <v>0.0942229</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.120898</v>
+                  <v>0.120526</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.017101</v>
+                  <v>0.0171733</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0179106</v>
+                  <v>0.0178413</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187733</v>
+                  <v>0.0187789</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0201048</v>
+                  <v>0.0201514</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0218759</v>
+                  <v>0.0218874</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240552</v>
+                  <v>0.0244952</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0282097</v>
+                  <v>0.0277145</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0323602</v>
+                  <v>0.0318614</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0379086</v>
+                  <v>0.038157</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.045608</v>
+                  <v>0.0458946</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.056116</v>
+                  <v>0.0561284</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0707222</v>
+                  <v>0.07138170000000001</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0919893</v>
+                  <v>0.09212090000000001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.118674</v>
+                  <v>0.117399</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.145772</v>
+                  <v>0.142611</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0196284</v>
+                  <v>0.0191063</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0208398</v>
+                  <v>0.0202054</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0223922</v>
+                  <v>0.0216884</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0244506</v>
+                  <v>0.023762</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.026822</v>
+                  <v>0.0265754</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0309899</v>
+                  <v>0.0299431</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0354207</v>
+                  <v>0.0344095</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0417881</v>
+                  <v>0.0405591</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0476276</v>
+                  <v>0.0475581</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0572692</v>
+                  <v>0.0572633</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0716026</v>
+                  <v>0.0711276</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0905608</v>
+                  <v>0.0912027</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.116785</v>
+                  <v>0.117531</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.147933</v>
+                  <v>0.147591</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197012</v>
+                  <v>0.0198684</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0211376</v>
+                  <v>0.0210982</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0228213</v>
+                  <v>0.0228671</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0247479</v>
+                  <v>0.0250892</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0274354</v>
+                  <v>0.0274858</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0306606</v>
+                  <v>0.0307585</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0349113</v>
+                  <v>0.0350439</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401967</v>
+                  <v>0.0401473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0468474</v>
+                  <v>0.0470655</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0560401</v>
+                  <v>0.0565303</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0688926</v>
+                  <v>0.0694931</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0873152</v>
+                  <v>0.0876659</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112319</v>
+                  <v>0.112976</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.143939</v>
+                  <v>0.14429</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0198688</v>
+                  <v>0.0201115</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212272</v>
+                  <v>0.0216766</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0227931</v>
+                  <v>0.0228365</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248234</v>
+                  <v>0.0248985</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274348</v>
+                  <v>0.0272584</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0304566</v>
+                  <v>0.0302977</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.03421</v>
+                  <v>0.0342083</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0392722</v>
+                  <v>0.039444</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0457853</v>
+                  <v>0.0458422</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543613</v>
+                  <v>0.0546333</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0667861</v>
+                  <v>0.0669435</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0837842</v>
+                  <v>0.0841283</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.107021</v>
+                  <v>0.108178</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.138367</v>
+                  <v>0.139209</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0206107</v>
+                  <v>0.0208397</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.021977</v>
+                  <v>0.0217789</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0236946</v>
+                  <v>0.0236136</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0252601</v>
+                  <v>0.0250037</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0278301</v>
+                  <v>0.0272123</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0304313</v>
+                  <v>0.0306604</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0347894</v>
+                  <v>0.0359699</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0397493</v>
+                  <v>0.0400556</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0462983</v>
+                  <v>0.0464214</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0543709</v>
+                  <v>0.0543718</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0656243</v>
+                  <v>0.0654956</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0814584</v>
+                  <v>0.0810722</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.103239</v>
+                  <v>0.102897</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.133268</v>
+                  <v>0.133253</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.169441</v>
+                  <v>0.1679</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0309188</v>
+                  <v>0.0312378</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0323647</v>
+                  <v>0.032867</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034075</v>
+                  <v>0.0343439</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0358327</v>
+                  <v>0.0361309</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383382</v>
+                  <v>0.0383012</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0406737</v>
+                  <v>0.0408352</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441246</v>
+                  <v>0.0439366</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.048723</v>
+                  <v>0.0486743</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0551746</v>
+                  <v>0.0550738</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0650047</v>
+                  <v>0.0645583</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.07941529999999999</v>
+                  <v>0.0791676</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.100142</v>
+                  <v>0.0998057</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128345</v>
+                  <v>0.128197</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.16426</v>
+                  <v>0.163841</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0340693</v>
+                  <v>0.0345014</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.035891</v>
+                  <v>0.035219</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0369158</v>
+                  <v>0.0366214</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0387195</v>
+                  <v>0.0384021</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0407176</v>
+                  <v>0.0405117</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0435753</v>
+                  <v>0.0431668</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0474413</v>
+                  <v>0.0465002</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0518101</v>
+                  <v>0.0510499</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586713</v>
+                  <v>0.0587435</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.06794360000000001</v>
+                  <v>0.0679357</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0817268</v>
+                  <v>0.0816269</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101445</v>
+                  <v>0.101812</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.129425</v>
+                  <v>0.129487</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163873</v>
+                  <v>0.164993</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0473433</v>
+                  <v>0.0468838</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0531312</v>
+                  <v>0.0484521</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.058706</v>
+                  <v>0.0493311</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0582968</v>
+                  <v>0.0507617</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0553286</v>
+                  <v>0.0532957</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0675741</v>
+                  <v>0.0554191</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0236953</v>
+                  <v>0.0745743</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0249792</v>
+                  <v>0.0818991</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0258301</v>
+                  <v>0.0759394</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.027365</v>
+                  <v>0.0880992</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0285038</v>
+                  <v>0.08153489999999999</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0328798</v>
+                  <v>0.0624356</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0393672</v>
+                  <v>0.061869</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0204906</v>
+                  <v>0.0683074</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206485</v>
+                  <v>0.0686766</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0211179</v>
+                  <v>0.07166640000000001</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0213</v>
+                  <v>0.0739997</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0216018</v>
+                  <v>0.077265</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0219038</v>
+                  <v>0.0817507</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0225654</v>
+                  <v>0.0856117</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0230834</v>
+                  <v>0.0866362</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0241669</v>
+                  <v>0.09086229999999999</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0251919</v>
+                  <v>0.09648760000000001</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0266921</v>
+                  <v>0.096305</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.028982</v>
+                  <v>0.09784320000000001</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0333148</v>
+                  <v>0.0664341</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.041356</v>
+                  <v>0.0712783</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0202092</v>
+                  <v>0.0762056</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0206159</v>
+                  <v>0.0754963</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0208339</v>
+                  <v>0.0791755</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0210765</v>
+                  <v>0.0828492</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0214492</v>
+                  <v>0.08543870000000001</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0218967</v>
+                  <v>0.0887561</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226372</v>
+                  <v>0.092414</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.023422</v>
+                  <v>0.0948533</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0242916</v>
+                  <v>0.0957143</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0254245</v>
+                  <v>0.09790550000000001</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0274613</v>
+                  <v>0.09936730000000001</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.030458</v>
+                  <v>0.101587</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0342121</v>
+                  <v>0.06934940000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.040763</v>
+                  <v>0.0726347</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0210932</v>
+                  <v>0.07564949999999999</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214487</v>
+                  <v>0.0790356</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217322</v>
+                  <v>0.0818281</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0220884</v>
+                  <v>0.0856015</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0225227</v>
+                  <v>0.08902640000000001</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.022985</v>
+                  <v>0.0915702</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0235789</v>
+                  <v>0.0953242</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0242082</v>
+                  <v>0.0973436</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0251386</v>
+                  <v>0.100137</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026316</v>
+                  <v>0.102066</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0281349</v>
+                  <v>0.104689</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0309591</v>
+                  <v>0.106565</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0351441</v>
+                  <v>0.109417</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0422416</v>
+                  <v>0.0759278</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0221848</v>
+                  <v>0.07929940000000001</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0226422</v>
+                  <v>0.0833945</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0230127</v>
+                  <v>0.08607579999999999</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233388</v>
+                  <v>0.0893982</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0237292</v>
+                  <v>0.0926165</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0243318</v>
+                  <v>0.09584810000000001</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0249093</v>
+                  <v>0.100165</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0260608</v>
+                  <v>0.101736</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0270795</v>
+                  <v>0.105135</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277862</v>
+                  <v>0.107339</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0291051</v>
+                  <v>0.109803</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0317252</v>
+                  <v>0.111709</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0360878</v>
+                  <v>0.115496</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0429958</v>
+                  <v>0.0812769</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0551095</v>
+                  <v>0.08581900000000001</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0226031</v>
+                  <v>0.09048920000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0229372</v>
+                  <v>0.09512900000000001</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0232973</v>
+                  <v>0.09904019999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.023692</v>
+                  <v>0.103762</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0242143</v>
+                  <v>0.109767</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0247678</v>
+                  <v>0.115064</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0255057</v>
+                  <v>0.119625</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0263971</v>
+                  <v>0.123912</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0276756</v>
+                  <v>0.128639</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0295323</v>
+                  <v>0.136023</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0321746</v>
+                  <v>0.141569</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0363344</v>
+                  <v>0.147324</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0425489</v>
+                  <v>0.114448</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0534234</v>
+                  <v>0.120419</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0228514</v>
+                  <v>0.125131</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0231978</v>
+                  <v>0.131477</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0235633</v>
+                  <v>0.139604</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0239172</v>
+                  <v>0.146445</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0244035</v>
+                  <v>0.154887</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.025024</v>
+                  <v>0.163154</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0259339</v>
+                  <v>0.170385</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0269228</v>
+                  <v>0.178312</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0282665</v>
+                  <v>0.182546</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0299743</v>
+                  <v>0.19023</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0325068</v>
+                  <v>0.200533</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.03601</v>
+                  <v>0.208859</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0416961</v>
+                  <v>0.157758</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0509443</v>
+                  <v>0.162746</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0243696</v>
+                  <v>0.168477</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0248253</v>
+                  <v>0.17633</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0253215</v>
+                  <v>0.183525</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0259145</v>
+                  <v>0.190701</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0267649</v>
+                  <v>0.19753</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0281154</v>
+                  <v>0.204795</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0301922</v>
+                  <v>0.226592</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0330066</v>
+                  <v>0.219043</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0364155</v>
+                  <v>0.227757</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0397311</v>
+                  <v>0.233267</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0428055</v>
+                  <v>0.243865</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0463608</v>
+                  <v>0.252361</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0508278</v>
+                  <v>0.261173</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0575807</v>
+                  <v>0.190647</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0361449</v>
+                  <v>0.197526</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0368822</v>
+                  <v>0.203566</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0379133</v>
+                  <v>0.210146</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0388181</v>
+                  <v>0.218257</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0396854</v>
+                  <v>0.224714</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0406322</v>
+                  <v>0.23258</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0416831</v>
+                  <v>0.239218</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0427634</v>
+                  <v>0.24724</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0439657</v>
+                  <v>0.255715</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0456052</v>
+                  <v>0.263655</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0476259</v>
+                  <v>0.271989</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0501364</v>
+                  <v>0.282797</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0541071</v>
+                  <v>0.289767</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0600156</v>
+                  <v>0.206007</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0702492</v>
+                  <v>0.211597</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0426162</v>
+                  <v>0.217961</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0433137</v>
+                  <v>0.22481</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0441334</v>
+                  <v>0.231511</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0448138</v>
+                  <v>0.23876</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0457069</v>
+                  <v>0.246015</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0468309</v>
+                  <v>0.253902</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.047681</v>
+                  <v>0.261754</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0488768</v>
+                  <v>0.269215</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0504662</v>
+                  <v>0.276809</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0524585</v>
+                  <v>0.285243</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0553225</v>
+                  <v>0.294416</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0590454</v>
+                  <v>0.303237</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0649672</v>
+                  <v>0.212509</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07502730000000001</v>
+                  <v>0.21893</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0609618</v>
+                  <v>0.225118</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0606272</v>
+                  <v>0.232231</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0716113</v>
+                  <v>0.239705</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0740532</v>
+                  <v>0.247032</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.075507</v>
+                  <v>0.255056</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0709659</v>
+                  <v>0.262733</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0822119</v>
+                  <v>0.271863</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0628543</v>
+                  <v>0.0212525</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0664814</v>
+                  <v>0.0216004</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.07155309999999999</v>
+                  <v>0.0227228</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0787023</v>
+                  <v>0.0236692</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0762729</v>
+                  <v>0.025734</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0596881</v>
+                  <v>0.0307283</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0581592</v>
+                  <v>0.0400074</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0642033</v>
+                  <v>0.0191859</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.066584</v>
+                  <v>0.0194145</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.07067469999999999</v>
+                  <v>0.0197171</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.07539460000000001</v>
+                  <v>0.0200098</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0776222</v>
+                  <v>0.0202944</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.08080030000000001</v>
+                  <v>0.0205605</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.08254499999999999</v>
+                  <v>0.0210623</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0868236</v>
+                  <v>0.021745</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0901443</v>
+                  <v>0.0224624</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.09041780000000001</v>
+                  <v>0.0233932</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.09432</v>
+                  <v>0.0246564</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0970657</v>
+                  <v>0.0274191</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0672951</v>
+                  <v>0.0316025</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0716408</v>
+                  <v>0.0413247</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0714137</v>
+                  <v>0.0187664</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0762883</v>
+                  <v>0.0190384</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0788282</v>
+                  <v>0.019321</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0817253</v>
+                  <v>0.0195661</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0845086</v>
+                  <v>0.0198599</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0872682</v>
+                  <v>0.0203393</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0900213</v>
+                  <v>0.0209382</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0922123</v>
+                  <v>0.0214818</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0951592</v>
+                  <v>0.0223346</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0965795</v>
+                  <v>0.0233779</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0983135</v>
+                  <v>0.0247673</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.101668</v>
+                  <v>0.0273931</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06976019999999999</v>
+                  <v>0.0317286</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0732333</v>
+                  <v>0.039339</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.07563</v>
+                  <v>0.0193829</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.07849739999999999</v>
+                  <v>0.0197036</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.082784</v>
+                  <v>0.0199834</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.08502469999999999</v>
+                  <v>0.0203028</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0879409</v>
+                  <v>0.0206416</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.091546</v>
+                  <v>0.021054</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0944207</v>
+                  <v>0.0216854</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0970037</v>
+                  <v>0.0224175</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0991208</v>
+                  <v>0.0232548</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.101009</v>
+                  <v>0.0245789</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.103707</v>
+                  <v>0.0261833</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.105854</v>
+                  <v>0.0289704</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.108622</v>
+                  <v>0.0328291</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.07991180000000001</v>
+                  <v>0.0389724</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0852565</v>
+                  <v>0.0204109</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.09070300000000001</v>
+                  <v>0.0206887</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.100166</v>
+                  <v>0.0209817</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.104121</v>
+                  <v>0.0212755</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.110505</v>
+                  <v>0.0216547</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.118017</v>
+                  <v>0.0221738</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.134799</v>
+                  <v>0.0227227</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.150714</v>
+                  <v>0.0233788</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.149598</v>
+                  <v>0.0243162</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.106064</v>
+                  <v>0.0256636</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.110453</v>
+                  <v>0.0275441</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.112451</v>
+                  <v>0.0301356</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.114784</v>
+                  <v>0.0341597</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0808511</v>
+                  <v>0.0404667</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0851362</v>
+                  <v>0.0516123</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0905902</v>
+                  <v>0.0209483</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0957775</v>
+                  <v>0.0212904</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.09995809999999999</v>
+                  <v>0.0216414</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.105452</v>
+                  <v>0.0220066</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.110664</v>
+                  <v>0.022503</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.115302</v>
+                  <v>0.0230597</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.119763</v>
+                  <v>0.023794</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.125554</v>
+                  <v>0.024724</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.130129</v>
+                  <v>0.0259069</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.134996</v>
+                  <v>0.0276355</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.141567</v>
+                  <v>0.0302519</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.147833</v>
+                  <v>0.0340355</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.113894</v>
+                  <v>0.0396979</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.121926</v>
+                  <v>0.049477</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.12561</v>
+                  <v>0.0212779</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.134696</v>
+                  <v>0.0216341</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.13899</v>
+                  <v>0.0219984</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.149483</v>
+                  <v>0.0224363</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.154065</v>
+                  <v>0.0229328</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.163029</v>
+                  <v>0.0235783</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.167705</v>
+                  <v>0.0244305</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.178539</v>
+                  <v>0.0254418</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.186083</v>
+                  <v>0.0267137</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.189656</v>
+                  <v>0.0283454</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197145</v>
+                  <v>0.0308527</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.214136</v>
+                  <v>0.0342322</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.155917</v>
+                  <v>0.03938</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.163239</v>
+                  <v>0.048197</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.170659</v>
+                  <v>0.0229879</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.176032</v>
+                  <v>0.0234516</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.180564</v>
+                  <v>0.0240067</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.187866</v>
+                  <v>0.0245912</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.197686</v>
+                  <v>0.0253619</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.205106</v>
+                  <v>0.0267537</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.213378</v>
+                  <v>0.0289872</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.22001</v>
+                  <v>0.0317781</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227646</v>
+                  <v>0.0350402</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.235713</v>
+                  <v>0.0383243</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.243297</v>
+                  <v>0.0415289</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.252123</v>
+                  <v>0.0449303</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.261676</v>
+                  <v>0.0491857</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.190199</v>
+                  <v>0.0555259</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.197145</v>
+                  <v>0.0351129</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.204605</v>
+                  <v>0.0361988</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.21028</v>
+                  <v>0.0370074</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.217256</v>
+                  <v>0.0378667</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.224583</v>
+                  <v>0.0385583</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233435</v>
+                  <v>0.0395869</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.241083</v>
+                  <v>0.0406235</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.248226</v>
+                  <v>0.0416052</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256309</v>
+                  <v>0.0428433</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.263815</v>
+                  <v>0.0445415</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.272729</v>
+                  <v>0.0464755</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.281114</v>
+                  <v>0.0489272</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.29099</v>
+                  <v>0.0526395</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.206413</v>
+                  <v>0.0583473</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211988</v>
+                  <v>0.06810819999999999</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.218375</v>
+                  <v>0.0412799</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.225371</v>
+                  <v>0.0422281</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.233023</v>
+                  <v>0.0429276</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.239145</v>
+                  <v>0.0439297</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.246948</v>
+                  <v>0.0447307</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.254198</v>
+                  <v>0.0457736</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.261944</v>
+                  <v>0.0468762</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.270874</v>
+                  <v>0.0480061</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.277744</v>
+                  <v>0.0495994</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285401</v>
+                  <v>0.0516555</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.294939</v>
+                  <v>0.0541823</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.304154</v>
+                  <v>0.0578916</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212796</v>
+                  <v>0.0634131</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.219404</v>
+                  <v>0.07260369999999999</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.226867</v>
+                  <v>0.0591479</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.233183</v>
+                  <v>0.0608915</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.258776</v>
+                  <v>0.0603453</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.2671</v>
+                  <v>0.0608767</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.259936</v>
+                  <v>0.0620272</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.270609</v>
+                  <v>0.0625593</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.281995</v>
+                  <v>0.0640025</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0214076</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0220449</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0228814</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0238445</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0259967</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.0308818</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0397899</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0190868</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0193166</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0195902</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0199197</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0202396</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0206034</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0211027</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.02181</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0225325</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0234089</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0246829</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0272518</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0319929</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0414377</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0188357</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0191047</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.019293</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0195628</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.020006</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0203576</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0209983</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0216036</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0224206</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0234567</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0248701</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0276153</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0319171</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0394712</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0194612</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.019774</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0200997</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0204224</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0207986</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0212501</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0218422</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0225976</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.023464</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0247861</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0263224</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0291543</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0329324</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0390016</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0204605</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.020763</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0211036</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0214464</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0218044</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.02235</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0228519</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0235195</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0244936</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0258272</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0276262</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0303212</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0343892</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0407201</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0517515</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0210642</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0214078</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0217171</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0221679</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0225732</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0231145</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.023886</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0248041</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0260928</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0279417</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0307152</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0341993</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0399898</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0497379</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0218936</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0223402</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0229967</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0238374</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0244912</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0255432</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0269618</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0283241</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0302692</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0321612</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0348082</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0382122</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0434233</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0534129</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0282249</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.029139</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.03133</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0341335</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.0381704</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.0428413</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0471767</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0508107</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0541568</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.0573175</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0605919</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.06430470000000001</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.06932820000000001</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.07656540000000001</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0513709</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0528133</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0541587</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0555634</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0569233</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0585293</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.0602617</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0619037</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0640491</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.0662812</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.06915499999999999</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.07276100000000001</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.07756780000000001</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.0847301</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.0960261</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.0604808</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.0618613</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.0635545</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.0648304</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.06670520000000001</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.0683797</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.0702016</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.0724499</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.07498920000000001</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.0779345</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.081499</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.0866347</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.09380090000000001</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.105376</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.0789271</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.0802612</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.08157540000000001</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.0829015</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.0845514</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.08594209999999999</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.0877042</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0333662</v>
+        <v>0.0332736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.117009</v>
+        <v>0.0334635</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0313264</v>
+        <v>0.0293604</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0289249</v>
+        <v>0.0339617</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0340761</v>
+        <v>0.034146</v>
       </c>
       <c r="C3" t="n">
-        <v>0.122223</v>
+        <v>0.0342367</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0321174</v>
+        <v>0.0301465</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0295128</v>
+        <v>0.0343454</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0380109</v>
+        <v>0.036477</v>
       </c>
       <c r="C4" t="n">
-        <v>0.127345</v>
+        <v>0.0360316</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0330755</v>
+        <v>0.0313547</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0308885</v>
+        <v>0.0352955</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0439307</v>
+        <v>0.0413846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.134054</v>
+        <v>0.0409009</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0347578</v>
+        <v>0.032996</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0324262</v>
+        <v>0.0366631</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.055681</v>
+        <v>0.0552361</v>
       </c>
       <c r="C6" t="n">
-        <v>0.140559</v>
+        <v>0.0503732</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0375767</v>
+        <v>0.0362609</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0354337</v>
+        <v>0.039222</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06899189999999999</v>
+        <v>0.0759319</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09641810000000001</v>
+        <v>0.076002</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0440988</v>
+        <v>0.0420243</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04117</v>
+        <v>0.0449808</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.103779</v>
+        <v>0.1104</v>
       </c>
       <c r="C8" t="n">
-        <v>0.103316</v>
+        <v>0.107096</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0579665</v>
+        <v>0.0556271</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0540598</v>
+        <v>0.05773</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.147785</v>
+        <v>0.157785</v>
       </c>
       <c r="C9" t="n">
-        <v>0.110577</v>
+        <v>0.157207</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0287114</v>
+        <v>0.0267453</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0261856</v>
+        <v>0.0315622</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0308532</v>
+        <v>0.0314075</v>
       </c>
       <c r="C10" t="n">
-        <v>0.116509</v>
+        <v>0.0317067</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0289003</v>
+        <v>0.0269785</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0264303</v>
+        <v>0.031805</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.031938</v>
+        <v>0.031545</v>
       </c>
       <c r="C11" t="n">
-        <v>0.121945</v>
+        <v>0.0322811</v>
       </c>
       <c r="D11" t="n">
-        <v>0.029141</v>
+        <v>0.0272582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0268303</v>
+        <v>0.0322055</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.032555</v>
+        <v>0.0322682</v>
       </c>
       <c r="C12" t="n">
-        <v>0.126877</v>
+        <v>0.0329175</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0296769</v>
+        <v>0.02774</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0274046</v>
+        <v>0.0327623</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0323359</v>
+        <v>0.0328488</v>
       </c>
       <c r="C13" t="n">
-        <v>0.132216</v>
+        <v>0.0336854</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0299837</v>
+        <v>0.0280904</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0277817</v>
+        <v>0.0331352</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.033536</v>
+        <v>0.0341364</v>
       </c>
       <c r="C14" t="n">
-        <v>0.136867</v>
+        <v>0.0351112</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0303375</v>
+        <v>0.0284778</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0283338</v>
+        <v>0.033666</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0343676</v>
+        <v>0.0347774</v>
       </c>
       <c r="C15" t="n">
-        <v>0.141538</v>
+        <v>0.0366529</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0309439</v>
+        <v>0.0292549</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0290714</v>
+        <v>0.0340745</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0362424</v>
+        <v>0.0361623</v>
       </c>
       <c r="C16" t="n">
-        <v>0.145476</v>
+        <v>0.037873</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0317676</v>
+        <v>0.0301652</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0299752</v>
+        <v>0.0347445</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0392996</v>
+        <v>0.0391977</v>
       </c>
       <c r="C17" t="n">
-        <v>0.150294</v>
+        <v>0.0407861</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0327606</v>
+        <v>0.0312338</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0311943</v>
+        <v>0.0357272</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0424081</v>
+        <v>0.0438098</v>
       </c>
       <c r="C18" t="n">
-        <v>0.154766</v>
+        <v>0.0446785</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0339711</v>
+        <v>0.0324395</v>
       </c>
       <c r="E18" t="n">
-        <v>0.032267</v>
+        <v>0.0367593</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0504047</v>
+        <v>0.0519807</v>
       </c>
       <c r="C19" t="n">
-        <v>0.159046</v>
+        <v>0.0528739</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0356362</v>
+        <v>0.0342914</v>
       </c>
       <c r="E19" t="n">
-        <v>0.034145</v>
+        <v>0.0380328</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0597153</v>
+        <v>0.0623039</v>
       </c>
       <c r="C20" t="n">
-        <v>0.163458</v>
+        <v>0.0615611</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0389836</v>
+        <v>0.0375609</v>
       </c>
       <c r="E20" t="n">
-        <v>0.037733</v>
+        <v>0.0413199</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07748579999999999</v>
+        <v>0.08041810000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.114572</v>
+        <v>0.079807</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0454572</v>
+        <v>0.0443788</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0436637</v>
+        <v>0.0474159</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.102386</v>
+        <v>0.109609</v>
       </c>
       <c r="C22" t="n">
-        <v>0.119568</v>
+        <v>0.106526</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0608034</v>
+        <v>0.0593493</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0582247</v>
+        <v>0.0607641</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.136927</v>
+        <v>0.143603</v>
       </c>
       <c r="C23" t="n">
-        <v>0.124556</v>
+        <v>0.143644</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0286721</v>
+        <v>0.0270917</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0271847</v>
+        <v>0.0323687</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0324366</v>
+        <v>0.0328425</v>
       </c>
       <c r="C24" t="n">
-        <v>0.129459</v>
+        <v>0.0357041</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0289468</v>
+        <v>0.0275441</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0277879</v>
+        <v>0.0328047</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0330448</v>
+        <v>0.0334839</v>
       </c>
       <c r="C25" t="n">
-        <v>0.134325</v>
+        <v>0.0367968</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0292969</v>
+        <v>0.0278274</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0282665</v>
+        <v>0.0331776</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0339358</v>
+        <v>0.0341101</v>
       </c>
       <c r="C26" t="n">
-        <v>0.138492</v>
+        <v>0.0377886</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0295758</v>
+        <v>0.0282219</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0285561</v>
+        <v>0.0338931</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0351625</v>
+        <v>0.0347178</v>
       </c>
       <c r="C27" t="n">
-        <v>0.14349</v>
+        <v>0.0387226</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0300465</v>
+        <v>0.0287435</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0294211</v>
+        <v>0.0346386</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0360334</v>
+        <v>0.0356999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.148178</v>
+        <v>0.0396323</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0305982</v>
+        <v>0.0293182</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0302659</v>
+        <v>0.035355</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03722</v>
+        <v>0.0373053</v>
       </c>
       <c r="C29" t="n">
-        <v>0.152591</v>
+        <v>0.0410069</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0313912</v>
+        <v>0.0302046</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0313259</v>
+        <v>0.0361786</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395623</v>
+        <v>0.0395056</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1571</v>
+        <v>0.0431162</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0320559</v>
+        <v>0.0309218</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0323745</v>
+        <v>0.0369488</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0426225</v>
+        <v>0.0427082</v>
       </c>
       <c r="C31" t="n">
-        <v>0.16135</v>
+        <v>0.0456638</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0331716</v>
+        <v>0.0320291</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0337397</v>
+        <v>0.038103</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0467196</v>
+        <v>0.0472084</v>
       </c>
       <c r="C32" t="n">
-        <v>0.164822</v>
+        <v>0.0503875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0344331</v>
+        <v>0.0332565</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0350496</v>
+        <v>0.0391033</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0532869</v>
+        <v>0.0536367</v>
       </c>
       <c r="C33" t="n">
-        <v>0.169449</v>
+        <v>0.0568611</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0362944</v>
+        <v>0.0351107</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0370149</v>
+        <v>0.0407455</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0639998</v>
+        <v>0.0641461</v>
       </c>
       <c r="C34" t="n">
-        <v>0.173614</v>
+        <v>0.06635679999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0398059</v>
+        <v>0.0386486</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0401725</v>
+        <v>0.0436418</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0778316</v>
+        <v>0.07843940000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.119093</v>
+        <v>0.08098610000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0463634</v>
+        <v>0.0451137</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0460412</v>
+        <v>0.0490598</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100454</v>
+        <v>0.103237</v>
       </c>
       <c r="C36" t="n">
-        <v>0.123893</v>
+        <v>0.103344</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0575992</v>
+        <v>0.0561927</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0561207</v>
+        <v>0.058442</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.131359</v>
+        <v>0.135521</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128238</v>
+        <v>0.134776</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0289594</v>
+        <v>0.0276771</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0292009</v>
+        <v>0.0342929</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0332712</v>
+        <v>0.0340079</v>
       </c>
       <c r="C38" t="n">
-        <v>0.133243</v>
+        <v>0.0381961</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0293416</v>
+        <v>0.0282036</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0299158</v>
+        <v>0.034843</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0341841</v>
+        <v>0.0344339</v>
       </c>
       <c r="C39" t="n">
-        <v>0.138083</v>
+        <v>0.0388186</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0300839</v>
+        <v>0.0285736</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0307071</v>
+        <v>0.0353165</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0350538</v>
+        <v>0.0353259</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14262</v>
+        <v>0.039638</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0300769</v>
+        <v>0.0290287</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0309727</v>
+        <v>0.0357806</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0356899</v>
+        <v>0.0360946</v>
       </c>
       <c r="C41" t="n">
-        <v>0.147085</v>
+        <v>0.0405356</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0305062</v>
+        <v>0.0293811</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0314966</v>
+        <v>0.0363251</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0369983</v>
+        <v>0.0372085</v>
       </c>
       <c r="C42" t="n">
-        <v>0.151581</v>
+        <v>0.0417224</v>
       </c>
       <c r="D42" t="n">
-        <v>0.031053</v>
+        <v>0.0299201</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0321815</v>
+        <v>0.0368876</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387705</v>
+        <v>0.0385847</v>
       </c>
       <c r="C43" t="n">
-        <v>0.156182</v>
+        <v>0.0432565</v>
       </c>
       <c r="D43" t="n">
-        <v>0.031693</v>
+        <v>0.0306228</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0330008</v>
+        <v>0.0375929</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0407266</v>
+        <v>0.0407196</v>
       </c>
       <c r="C44" t="n">
-        <v>0.160163</v>
+        <v>0.0450861</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0326506</v>
+        <v>0.0315618</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0340239</v>
+        <v>0.0384591</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0431153</v>
+        <v>0.0433822</v>
       </c>
       <c r="C45" t="n">
-        <v>0.164319</v>
+        <v>0.0474451</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0336946</v>
+        <v>0.0326956</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0351257</v>
+        <v>0.039349</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0470248</v>
+        <v>0.0476917</v>
       </c>
       <c r="C46" t="n">
-        <v>0.168342</v>
+        <v>0.0511763</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0352271</v>
+        <v>0.0341634</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0366406</v>
+        <v>0.0405472</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0530535</v>
+        <v>0.0539541</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172567</v>
+        <v>0.0564047</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0374401</v>
+        <v>0.0361692</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0384507</v>
+        <v>0.0420765</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.062163</v>
+        <v>0.0636743</v>
       </c>
       <c r="C48" t="n">
-        <v>0.177142</v>
+        <v>0.06468989999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0414221</v>
+        <v>0.0398385</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0417393</v>
+        <v>0.0450885</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.075559</v>
+        <v>0.0762072</v>
       </c>
       <c r="C49" t="n">
-        <v>0.181808</v>
+        <v>0.0763305</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0467765</v>
+        <v>0.0452291</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0464538</v>
+        <v>0.0494241</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09417540000000001</v>
+        <v>0.097376</v>
       </c>
       <c r="C50" t="n">
-        <v>0.125264</v>
+        <v>0.09564259999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0553231</v>
+        <v>0.0536242</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0539886</v>
+        <v>0.0563976</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.123685</v>
+        <v>0.126501</v>
       </c>
       <c r="C51" t="n">
-        <v>0.129884</v>
+        <v>0.125535</v>
       </c>
       <c r="D51" t="n">
-        <v>0.030475</v>
+        <v>0.0304349</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0326239</v>
+        <v>0.036197</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.170915</v>
+        <v>0.175531</v>
       </c>
       <c r="C52" t="n">
-        <v>0.134661</v>
+        <v>0.173867</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0306348</v>
+        <v>0.03002</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0332897</v>
+        <v>0.0365877</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0372926</v>
+        <v>0.0359093</v>
       </c>
       <c r="C53" t="n">
-        <v>0.139518</v>
+        <v>0.0420048</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0314406</v>
+        <v>0.0307909</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0328347</v>
+        <v>0.0370463</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.036659</v>
+        <v>0.0375151</v>
       </c>
       <c r="C54" t="n">
-        <v>0.14452</v>
+        <v>0.0427995</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0313498</v>
+        <v>0.0309904</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0341936</v>
+        <v>0.0374036</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0390232</v>
+        <v>0.0377368</v>
       </c>
       <c r="C55" t="n">
-        <v>0.149152</v>
+        <v>0.0436942</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0318104</v>
+        <v>0.031454</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0346934</v>
+        <v>0.0380651</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0400195</v>
+        <v>0.0387844</v>
       </c>
       <c r="C56" t="n">
-        <v>0.153925</v>
+        <v>0.044758</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0324421</v>
+        <v>0.0320711</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0354698</v>
+        <v>0.0390064</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0407428</v>
+        <v>0.0401136</v>
       </c>
       <c r="C57" t="n">
-        <v>0.158231</v>
+        <v>0.0463864</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0330541</v>
+        <v>0.0326737</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0361818</v>
+        <v>0.0394069</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0424317</v>
+        <v>0.0415824</v>
       </c>
       <c r="C58" t="n">
-        <v>0.162936</v>
+        <v>0.0481418</v>
       </c>
       <c r="D58" t="n">
-        <v>0.033938</v>
+        <v>0.0334434</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0368413</v>
+        <v>0.0401119</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0452955</v>
+        <v>0.0448232</v>
       </c>
       <c r="C59" t="n">
-        <v>0.16688</v>
+        <v>0.0504171</v>
       </c>
       <c r="D59" t="n">
-        <v>0.03514</v>
+        <v>0.0344246</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0374068</v>
+        <v>0.0410239</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0495397</v>
+        <v>0.047963</v>
       </c>
       <c r="C60" t="n">
-        <v>0.171178</v>
+        <v>0.0536545</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0365835</v>
+        <v>0.0359517</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0389788</v>
+        <v>0.0424177</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0543129</v>
+        <v>0.0536631</v>
       </c>
       <c r="C61" t="n">
-        <v>0.175922</v>
+        <v>0.0581167</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0386412</v>
+        <v>0.0387999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0407223</v>
+        <v>0.0444814</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0623589</v>
+        <v>0.0611853</v>
       </c>
       <c r="C62" t="n">
-        <v>0.180304</v>
+        <v>0.0660968</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0420298</v>
+        <v>0.0422393</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0443279</v>
+        <v>0.0470555</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07352649999999999</v>
+        <v>0.07306410000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.185024</v>
+        <v>0.0760285</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0471003</v>
+        <v>0.0463836</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0490497</v>
+        <v>0.051542</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09001290000000001</v>
+        <v>0.09032759999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.131786</v>
+        <v>0.092483</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0553604</v>
+        <v>0.0538452</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0558362</v>
+        <v>0.0585034</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118626</v>
+        <v>0.119041</v>
       </c>
       <c r="C65" t="n">
-        <v>0.137511</v>
+        <v>0.120109</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06923269999999999</v>
+        <v>0.06736399999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>0.06882190000000001</v>
+        <v>0.070649</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16198</v>
+        <v>0.162559</v>
       </c>
       <c r="C66" t="n">
-        <v>0.144891</v>
+        <v>0.163129</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0364012</v>
+        <v>0.0363064</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0386383</v>
+        <v>0.0417708</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0410879</v>
+        <v>0.0415176</v>
       </c>
       <c r="C67" t="n">
-        <v>0.151482</v>
+        <v>0.0491703</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0365049</v>
+        <v>0.0362666</v>
       </c>
       <c r="E67" t="n">
-        <v>0.039358</v>
+        <v>0.0421904</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0417671</v>
+        <v>0.042055</v>
       </c>
       <c r="C68" t="n">
-        <v>0.159205</v>
+        <v>0.0500924</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0371255</v>
+        <v>0.0366378</v>
       </c>
       <c r="E68" t="n">
-        <v>0.039995</v>
+        <v>0.0429632</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0433957</v>
+        <v>0.0431532</v>
       </c>
       <c r="C69" t="n">
-        <v>0.167273</v>
+        <v>0.0514213</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0374173</v>
+        <v>0.0370038</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0406584</v>
+        <v>0.0435662</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0440334</v>
+        <v>0.0437302</v>
       </c>
       <c r="C70" t="n">
-        <v>0.176273</v>
+        <v>0.0528344</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0377079</v>
+        <v>0.0374721</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0414986</v>
+        <v>0.0443158</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0455846</v>
+        <v>0.0452578</v>
       </c>
       <c r="C71" t="n">
-        <v>0.185109</v>
+        <v>0.0543918</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0386273</v>
+        <v>0.0380249</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0423423</v>
+        <v>0.0450671</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0468667</v>
+        <v>0.0470884</v>
       </c>
       <c r="C72" t="n">
-        <v>0.19587</v>
+        <v>0.0563162</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0394148</v>
+        <v>0.0387874</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0434589</v>
+        <v>0.0461248</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0488548</v>
+        <v>0.0490761</v>
       </c>
       <c r="C73" t="n">
-        <v>0.207493</v>
+        <v>0.0586383</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0403728</v>
+        <v>0.0397256</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0446797</v>
+        <v>0.0473359</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.052506</v>
+        <v>0.0520326</v>
       </c>
       <c r="C74" t="n">
-        <v>0.220049</v>
+        <v>0.062025</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0414865</v>
+        <v>0.0409363</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0463947</v>
+        <v>0.0494236</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0572368</v>
+        <v>0.0563137</v>
       </c>
       <c r="C75" t="n">
-        <v>0.230997</v>
+        <v>0.0661709</v>
       </c>
       <c r="D75" t="n">
-        <v>0.043427</v>
+        <v>0.0428757</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0484505</v>
+        <v>0.0510762</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0639309</v>
+        <v>0.0639388</v>
       </c>
       <c r="C76" t="n">
-        <v>0.245448</v>
+        <v>0.07347620000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0463012</v>
+        <v>0.045773</v>
       </c>
       <c r="E76" t="n">
-        <v>0.051594</v>
+        <v>0.0535975</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07364130000000001</v>
+        <v>0.074291</v>
       </c>
       <c r="C77" t="n">
-        <v>0.259918</v>
+        <v>0.0843942</v>
       </c>
       <c r="D77" t="n">
-        <v>0.050794</v>
+        <v>0.0501431</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0557576</v>
+        <v>0.0584702</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08943769999999999</v>
+        <v>0.0903784</v>
       </c>
       <c r="C78" t="n">
-        <v>0.217392</v>
+        <v>0.100491</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0579096</v>
+        <v>0.0569022</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0622247</v>
+        <v>0.0642832</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115143</v>
+        <v>0.115238</v>
       </c>
       <c r="C79" t="n">
-        <v>0.229705</v>
+        <v>0.127906</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0698467</v>
+        <v>0.0682489</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0737363</v>
+        <v>0.0751946</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154663</v>
+        <v>0.154182</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242386</v>
+        <v>0.171031</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0404852</v>
+        <v>0.040002</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0440908</v>
+        <v>0.0462594</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.04658</v>
+        <v>0.0469245</v>
       </c>
       <c r="C81" t="n">
-        <v>0.255157</v>
+        <v>0.0580176</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0407418</v>
+        <v>0.0405172</v>
       </c>
       <c r="E81" t="n">
-        <v>0.04482</v>
+        <v>0.0469368</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0472532</v>
+        <v>0.0476636</v>
       </c>
       <c r="C82" t="n">
-        <v>0.268553</v>
+        <v>0.059862</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0411608</v>
+        <v>0.0408992</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0457679</v>
+        <v>0.0477325</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0484537</v>
+        <v>0.0489162</v>
       </c>
       <c r="C83" t="n">
-        <v>0.281767</v>
+        <v>0.0631082</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0416642</v>
+        <v>0.0415732</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0467391</v>
+        <v>0.0488275</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0497283</v>
+        <v>0.0498137</v>
       </c>
       <c r="C84" t="n">
-        <v>0.295412</v>
+        <v>0.06684379999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0422083</v>
+        <v>0.0419231</v>
       </c>
       <c r="E84" t="n">
-        <v>0.047836</v>
+        <v>0.0496827</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0515288</v>
+        <v>0.0516068</v>
       </c>
       <c r="C85" t="n">
-        <v>0.310265</v>
+        <v>0.0722151</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0428263</v>
+        <v>0.042595</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0490237</v>
+        <v>0.0511182</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0540773</v>
+        <v>0.0533111</v>
       </c>
       <c r="C86" t="n">
-        <v>0.324307</v>
+        <v>0.0789903</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0436571</v>
+        <v>0.0434157</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0510205</v>
+        <v>0.0532303</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0568817</v>
+        <v>0.0561636</v>
       </c>
       <c r="C87" t="n">
-        <v>0.339123</v>
+        <v>0.0867261</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0451663</v>
+        <v>0.0445807</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0535302</v>
+        <v>0.0556153</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0601871</v>
+        <v>0.0601524</v>
       </c>
       <c r="C88" t="n">
-        <v>0.355067</v>
+        <v>0.0969429</v>
       </c>
       <c r="D88" t="n">
-        <v>0.046802</v>
+        <v>0.046263</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0576869</v>
+        <v>0.0590433</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0665278</v>
+        <v>0.06601799999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.371425</v>
+        <v>0.109555</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0492164</v>
+        <v>0.0486871</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0625372</v>
+        <v>0.0634811</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.074833</v>
+        <v>0.07427250000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.388791</v>
+        <v>0.125572</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0529786</v>
+        <v>0.0525659</v>
       </c>
       <c r="E90" t="n">
-        <v>0.06948</v>
+        <v>0.07095890000000001</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0872264</v>
+        <v>0.0866989</v>
       </c>
       <c r="C91" t="n">
-        <v>0.406331</v>
+        <v>0.145238</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0581788</v>
+        <v>0.0576433</v>
       </c>
       <c r="E91" t="n">
-        <v>0.07814889999999999</v>
+        <v>0.0801784</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.105488</v>
+        <v>0.103233</v>
       </c>
       <c r="C92" t="n">
-        <v>0.32786</v>
+        <v>0.169391</v>
       </c>
       <c r="D92" t="n">
-        <v>0.066396</v>
+        <v>0.06518880000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0915367</v>
+        <v>0.093253</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.130195</v>
+        <v>0.129086</v>
       </c>
       <c r="C93" t="n">
-        <v>0.338384</v>
+        <v>0.200826</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0794117</v>
+        <v>0.0781044</v>
       </c>
       <c r="E93" t="n">
-        <v>0.110382</v>
+        <v>0.111978</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.165336</v>
+        <v>0.165922</v>
       </c>
       <c r="C94" t="n">
-        <v>0.349888</v>
+        <v>0.242518</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0447856</v>
+        <v>0.0445673</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0570065</v>
+        <v>0.0588786</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0581609</v>
+        <v>0.0588349</v>
       </c>
       <c r="C95" t="n">
-        <v>0.361563</v>
+        <v>0.10432</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0459406</v>
+        <v>0.0456984</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0608479</v>
+        <v>0.0632815</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0620039</v>
+        <v>0.0623794</v>
       </c>
       <c r="C96" t="n">
-        <v>0.373719</v>
+        <v>0.112881</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0473006</v>
+        <v>0.0471033</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0644856</v>
+        <v>0.06765450000000001</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0657039</v>
+        <v>0.0667061</v>
       </c>
       <c r="C97" t="n">
-        <v>0.385855</v>
+        <v>0.121337</v>
       </c>
       <c r="D97" t="n">
-        <v>0.049284</v>
+        <v>0.0489786</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0700769</v>
+        <v>0.0731551</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0704936</v>
+        <v>0.07138070000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.398402</v>
+        <v>0.129597</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0521997</v>
+        <v>0.0513773</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0754201</v>
+        <v>0.0786309</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0754875</v>
+        <v>0.0763615</v>
       </c>
       <c r="C99" t="n">
-        <v>0.412114</v>
+        <v>0.137762</v>
       </c>
       <c r="D99" t="n">
-        <v>0.05474</v>
+        <v>0.0542281</v>
       </c>
       <c r="E99" t="n">
-        <v>0.081967</v>
+        <v>0.08508540000000001</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0814488</v>
+        <v>0.0821207</v>
       </c>
       <c r="C100" t="n">
-        <v>0.426254</v>
+        <v>0.145315</v>
       </c>
       <c r="D100" t="n">
-        <v>0.058265</v>
+        <v>0.0577043</v>
       </c>
       <c r="E100" t="n">
-        <v>0.08851539999999999</v>
+        <v>0.091479</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0877453</v>
+        <v>0.0883712</v>
       </c>
       <c r="C101" t="n">
-        <v>0.440603</v>
+        <v>0.153082</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0619249</v>
+        <v>0.0615153</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0948586</v>
+        <v>0.09793300000000001</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09489</v>
+        <v>0.095319</v>
       </c>
       <c r="C102" t="n">
-        <v>0.456222</v>
+        <v>0.161411</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0656033</v>
+        <v>0.0657551</v>
       </c>
       <c r="E102" t="n">
-        <v>0.102068</v>
+        <v>0.104805</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.102804</v>
+        <v>0.103496</v>
       </c>
       <c r="C103" t="n">
-        <v>0.472089</v>
+        <v>0.171025</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07059459999999999</v>
+        <v>0.0716844</v>
       </c>
       <c r="E103" t="n">
-        <v>0.109073</v>
+        <v>0.1118</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.111787</v>
+        <v>0.112798</v>
       </c>
       <c r="C104" t="n">
-        <v>0.489058</v>
+        <v>0.182859</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0762833</v>
+        <v>0.0763363</v>
       </c>
       <c r="E104" t="n">
-        <v>0.116702</v>
+        <v>0.119472</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.122811</v>
+        <v>0.124023</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5062219999999999</v>
+        <v>0.197384</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0834371</v>
+        <v>0.0836582</v>
       </c>
       <c r="E105" t="n">
-        <v>0.125369</v>
+        <v>0.128068</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.137685</v>
+        <v>0.138529</v>
       </c>
       <c r="C106" t="n">
-        <v>0.524524</v>
+        <v>0.216812</v>
       </c>
       <c r="D106" t="n">
-        <v>0.09192699999999999</v>
+        <v>0.09190769999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.136672</v>
+        <v>0.139207</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.157936</v>
+        <v>0.158591</v>
       </c>
       <c r="C107" t="n">
-        <v>0.396171</v>
+        <v>0.243092</v>
       </c>
       <c r="D107" t="n">
-        <v>0.104946</v>
+        <v>0.103996</v>
       </c>
       <c r="E107" t="n">
-        <v>0.152625</v>
+        <v>0.155058</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.187056</v>
+        <v>0.188354</v>
       </c>
       <c r="C108" t="n">
-        <v>0.406563</v>
+        <v>0.28237</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0638827</v>
+        <v>0.06394809999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0923326</v>
+        <v>0.0942206</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.232331</v>
+        <v>0.234367</v>
       </c>
       <c r="C109" t="n">
-        <v>0.417143</v>
+        <v>0.345469</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0663335</v>
+        <v>0.0662142</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0955588</v>
+        <v>0.0976577</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0910381</v>
+        <v>0.092211</v>
       </c>
       <c r="C110" t="n">
-        <v>0.428464</v>
+        <v>0.145786</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0682311</v>
+        <v>0.06825589999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>0.09867430000000001</v>
+        <v>0.100835</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.09408270000000001</v>
+        <v>0.095079</v>
       </c>
       <c r="C111" t="n">
-        <v>0.439979</v>
+        <v>0.150464</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0701275</v>
+        <v>0.0701181</v>
       </c>
       <c r="E111" t="n">
-        <v>0.101631</v>
+        <v>0.104077</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.09674770000000001</v>
+        <v>0.0976712</v>
       </c>
       <c r="C112" t="n">
-        <v>0.451985</v>
+        <v>0.155168</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0721609</v>
+        <v>0.07232479999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>0.104629</v>
+        <v>0.107037</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.100081</v>
+        <v>0.101014</v>
       </c>
       <c r="C113" t="n">
-        <v>0.464954</v>
+        <v>0.16044</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0741362</v>
+        <v>0.07424840000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>0.108387</v>
+        <v>0.110681</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103267</v>
+        <v>0.10443</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4783</v>
+        <v>0.166145</v>
       </c>
       <c r="D114" t="n">
-        <v>0.07641299999999999</v>
+        <v>0.07642309999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.111825</v>
+        <v>0.114364</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107377</v>
+        <v>0.108332</v>
       </c>
       <c r="C115" t="n">
-        <v>0.492201</v>
+        <v>0.172183</v>
       </c>
       <c r="D115" t="n">
-        <v>0.078656</v>
+        <v>0.0790984</v>
       </c>
       <c r="E115" t="n">
-        <v>0.115752</v>
+        <v>0.118213</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.11192</v>
+        <v>0.113029</v>
       </c>
       <c r="C116" t="n">
-        <v>0.507207</v>
+        <v>0.17984</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0815134</v>
+        <v>0.0817842</v>
       </c>
       <c r="E116" t="n">
-        <v>0.120217</v>
+        <v>0.122314</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.117859</v>
+        <v>0.118753</v>
       </c>
       <c r="C117" t="n">
-        <v>0.522921</v>
+        <v>0.188545</v>
       </c>
       <c r="D117" t="n">
-        <v>0.08472880000000001</v>
+        <v>0.085065</v>
       </c>
       <c r="E117" t="n">
-        <v>0.125063</v>
+        <v>0.12719</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.125262</v>
+        <v>0.126085</v>
       </c>
       <c r="C118" t="n">
-        <v>0.53894</v>
+        <v>0.199846</v>
       </c>
       <c r="D118" t="n">
-        <v>0.088963</v>
+        <v>0.0892274</v>
       </c>
       <c r="E118" t="n">
-        <v>0.131717</v>
+        <v>0.133365</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.13492</v>
+        <v>0.135791</v>
       </c>
       <c r="C119" t="n">
-        <v>0.556169</v>
+        <v>0.214076</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0940565</v>
+        <v>0.0941678</v>
       </c>
       <c r="E119" t="n">
-        <v>0.139277</v>
+        <v>0.141145</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147803</v>
+        <v>0.148915</v>
       </c>
       <c r="C120" t="n">
-        <v>0.574479</v>
+        <v>0.233026</v>
       </c>
       <c r="D120" t="n">
-        <v>0.101522</v>
+        <v>0.101453</v>
       </c>
       <c r="E120" t="n">
-        <v>0.149772</v>
+        <v>0.151904</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.166295</v>
+        <v>0.167191</v>
       </c>
       <c r="C121" t="n">
-        <v>0.426456</v>
+        <v>0.259619</v>
       </c>
       <c r="D121" t="n">
-        <v>0.112519</v>
+        <v>0.112592</v>
       </c>
       <c r="E121" t="n">
-        <v>0.164318</v>
+        <v>0.16682</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.193171</v>
+        <v>0.19436</v>
       </c>
       <c r="C122" t="n">
-        <v>0.436471</v>
+        <v>0.298622</v>
       </c>
       <c r="D122" t="n">
-        <v>0.129782</v>
+        <v>0.129547</v>
       </c>
       <c r="E122" t="n">
-        <v>0.187503</v>
+        <v>0.189875</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.235574</v>
+        <v>0.235233</v>
       </c>
       <c r="C123" t="n">
-        <v>0.447153</v>
+        <v>0.360131</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0782644</v>
+        <v>0.0800681</v>
       </c>
       <c r="E123" t="n">
-        <v>0.110111</v>
+        <v>0.113207</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103081</v>
+        <v>0.102796</v>
       </c>
       <c r="C124" t="n">
-        <v>0.458395</v>
+        <v>0.161233</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0811042</v>
+        <v>0.07816620000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>0.114824</v>
+        <v>0.117898</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104315</v>
+        <v>0.104769</v>
       </c>
       <c r="C125" t="n">
-        <v>0.471083</v>
+        <v>0.167847</v>
       </c>
       <c r="D125" t="n">
-        <v>0.081432</v>
+        <v>0.08217140000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>0.118841</v>
+        <v>0.1183</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108812</v>
+        <v>0.108469</v>
       </c>
       <c r="C126" t="n">
-        <v>0.482467</v>
+        <v>0.171508</v>
       </c>
       <c r="D126" t="n">
-        <v>0.08473020000000001</v>
+        <v>0.0827538</v>
       </c>
       <c r="E126" t="n">
-        <v>0.121473</v>
+        <v>0.120487</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111961</v>
+        <v>0.114341</v>
       </c>
       <c r="C127" t="n">
-        <v>0.495629</v>
+        <v>0.178511</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0873097</v>
+        <v>0.0848256</v>
       </c>
       <c r="E127" t="n">
-        <v>0.125483</v>
+        <v>0.126857</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115755</v>
+        <v>0.114441</v>
       </c>
       <c r="C128" t="n">
-        <v>0.50864</v>
+        <v>0.182614</v>
       </c>
       <c r="D128" t="n">
-        <v>0.09075999999999999</v>
+        <v>0.08960129999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>0.127032</v>
+        <v>0.127749</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116714</v>
+        <v>0.120116</v>
       </c>
       <c r="C129" t="n">
-        <v>0.522904</v>
+        <v>0.189208</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0900941</v>
+        <v>0.0884363</v>
       </c>
       <c r="E129" t="n">
-        <v>0.133476</v>
+        <v>0.13335</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121482</v>
+        <v>0.12044</v>
       </c>
       <c r="C130" t="n">
-        <v>0.537679</v>
+        <v>0.197707</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0950014</v>
+        <v>0.0949136</v>
       </c>
       <c r="E130" t="n">
-        <v>0.136839</v>
+        <v>0.140782</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126085</v>
+        <v>0.128521</v>
       </c>
       <c r="C131" t="n">
-        <v>0.553839</v>
+        <v>0.20804</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0955493</v>
+        <v>0.0979869</v>
       </c>
       <c r="E131" t="n">
-        <v>0.140303</v>
+        <v>0.14322</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132736</v>
+        <v>0.133352</v>
       </c>
       <c r="C132" t="n">
-        <v>0.570028</v>
+        <v>0.215162</v>
       </c>
       <c r="D132" t="n">
-        <v>0.100226</v>
+        <v>0.0992244</v>
       </c>
       <c r="E132" t="n">
-        <v>0.150537</v>
+        <v>0.149421</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.14142</v>
+        <v>0.143147</v>
       </c>
       <c r="C133" t="n">
-        <v>0.586794</v>
+        <v>0.230023</v>
       </c>
       <c r="D133" t="n">
-        <v>0.10412</v>
+        <v>0.106343</v>
       </c>
       <c r="E133" t="n">
-        <v>0.154791</v>
+        <v>0.156748</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154608</v>
+        <v>0.155267</v>
       </c>
       <c r="C134" t="n">
-        <v>0.605277</v>
+        <v>0.246213</v>
       </c>
       <c r="D134" t="n">
-        <v>0.111749</v>
+        <v>0.111662</v>
       </c>
       <c r="E134" t="n">
-        <v>0.163957</v>
+        <v>0.167077</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171952</v>
+        <v>0.173002</v>
       </c>
       <c r="C135" t="n">
-        <v>0.443787</v>
+        <v>0.272295</v>
       </c>
       <c r="D135" t="n">
-        <v>0.119972</v>
+        <v>0.120616</v>
       </c>
       <c r="E135" t="n">
-        <v>0.178176</v>
+        <v>0.17983</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197685</v>
+        <v>0.197376</v>
       </c>
       <c r="C136" t="n">
-        <v>0.45454</v>
+        <v>0.30965</v>
       </c>
       <c r="D136" t="n">
-        <v>0.135697</v>
+        <v>0.136727</v>
       </c>
       <c r="E136" t="n">
-        <v>0.198244</v>
+        <v>0.201783</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.234829</v>
+        <v>0.236638</v>
       </c>
       <c r="C137" t="n">
-        <v>0.46527</v>
+        <v>0.366561</v>
       </c>
       <c r="D137" t="n">
-        <v>0.150483</v>
+        <v>0.151802</v>
       </c>
       <c r="E137" t="n">
-        <v>0.182206</v>
+        <v>0.185382</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.167598</v>
+        <v>0.170503</v>
       </c>
       <c r="C138" t="n">
-        <v>0.476702</v>
+        <v>0.228018</v>
       </c>
       <c r="D138" t="n">
-        <v>0.151527</v>
+        <v>0.153904</v>
       </c>
       <c r="E138" t="n">
-        <v>0.18503</v>
+        <v>0.187463</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169151</v>
+        <v>0.170562</v>
       </c>
       <c r="C139" t="n">
-        <v>0.488385</v>
+        <v>0.231607</v>
       </c>
       <c r="D139" t="n">
-        <v>0.15209</v>
+        <v>0.152752</v>
       </c>
       <c r="E139" t="n">
-        <v>0.188069</v>
+        <v>0.190192</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.170947</v>
+        <v>0.172409</v>
       </c>
       <c r="C140" t="n">
-        <v>0.500588</v>
+        <v>0.236354</v>
       </c>
       <c r="D140" t="n">
-        <v>0.154677</v>
+        <v>0.155651</v>
       </c>
       <c r="E140" t="n">
-        <v>0.191332</v>
+        <v>0.193545</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.172486</v>
+        <v>0.17573</v>
       </c>
       <c r="C141" t="n">
-        <v>0.513193</v>
+        <v>0.24068</v>
       </c>
       <c r="D141" t="n">
-        <v>0.156523</v>
+        <v>0.15596</v>
       </c>
       <c r="E141" t="n">
-        <v>0.194778</v>
+        <v>0.196577</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.175561</v>
+        <v>0.175572</v>
       </c>
       <c r="C142" t="n">
-        <v>0.526438</v>
+        <v>0.245723</v>
       </c>
       <c r="D142" t="n">
-        <v>0.156519</v>
+        <v>0.158027</v>
       </c>
       <c r="E142" t="n">
-        <v>0.197391</v>
+        <v>0.199826</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177965</v>
+        <v>0.177926</v>
       </c>
       <c r="C143" t="n">
-        <v>0.540432</v>
+        <v>0.252273</v>
       </c>
       <c r="D143" t="n">
-        <v>0.158291</v>
+        <v>0.16086</v>
       </c>
       <c r="E143" t="n">
-        <v>0.20147</v>
+        <v>0.203822</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0333662</v>
+        <v>0.0335068</v>
       </c>
       <c r="C2" t="n">
-        <v>0.117009</v>
+        <v>0.120532</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0313264</v>
+        <v>0.0316989</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0289249</v>
+        <v>0.0302175</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0340761</v>
+        <v>0.0342462</v>
       </c>
       <c r="C3" t="n">
-        <v>0.122223</v>
+        <v>0.126657</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0321174</v>
+        <v>0.0322502</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0295128</v>
+        <v>0.0304036</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0380109</v>
+        <v>0.0386633</v>
       </c>
       <c r="C4" t="n">
-        <v>0.127345</v>
+        <v>0.131394</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0330755</v>
+        <v>0.0334086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0308885</v>
+        <v>0.0311203</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0439307</v>
+        <v>0.0446225</v>
       </c>
       <c r="C5" t="n">
-        <v>0.134054</v>
+        <v>0.138935</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0347578</v>
+        <v>0.0350268</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0324262</v>
+        <v>0.0327886</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.055681</v>
+        <v>0.0557002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.140559</v>
+        <v>0.145215</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0375767</v>
+        <v>0.0377114</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0354337</v>
+        <v>0.0360718</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06899189999999999</v>
+        <v>0.068799</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09641810000000001</v>
+        <v>0.0981944</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0440988</v>
+        <v>0.0440674</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04117</v>
+        <v>0.0426037</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.103779</v>
+        <v>0.103707</v>
       </c>
       <c r="C8" t="n">
-        <v>0.103316</v>
+        <v>0.10536</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0579665</v>
+        <v>0.057876</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0540598</v>
+        <v>0.055187</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.147785</v>
+        <v>0.147581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.110577</v>
+        <v>0.111703</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0287114</v>
+        <v>0.0290589</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0261856</v>
+        <v>0.0267527</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0308532</v>
+        <v>0.0309161</v>
       </c>
       <c r="C10" t="n">
-        <v>0.116509</v>
+        <v>0.118032</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0289003</v>
+        <v>0.0292495</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0264303</v>
+        <v>0.0270521</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.031938</v>
+        <v>0.0319842</v>
       </c>
       <c r="C11" t="n">
-        <v>0.121945</v>
+        <v>0.123246</v>
       </c>
       <c r="D11" t="n">
-        <v>0.029141</v>
+        <v>0.0295215</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0268303</v>
+        <v>0.0274015</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.032555</v>
+        <v>0.0326407</v>
       </c>
       <c r="C12" t="n">
-        <v>0.126877</v>
+        <v>0.12807</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0296769</v>
+        <v>0.0300321</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0274046</v>
+        <v>0.0280878</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0323359</v>
+        <v>0.0325658</v>
       </c>
       <c r="C13" t="n">
-        <v>0.132216</v>
+        <v>0.133303</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0299837</v>
+        <v>0.030337</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0277817</v>
+        <v>0.0286231</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.033536</v>
+        <v>0.0336826</v>
       </c>
       <c r="C14" t="n">
-        <v>0.136867</v>
+        <v>0.137099</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0303375</v>
+        <v>0.0306477</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0283338</v>
+        <v>0.0289869</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0343676</v>
+        <v>0.0346056</v>
       </c>
       <c r="C15" t="n">
-        <v>0.141538</v>
+        <v>0.142391</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0309439</v>
+        <v>0.0312521</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0290714</v>
+        <v>0.0297527</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0362424</v>
+        <v>0.0363924</v>
       </c>
       <c r="C16" t="n">
-        <v>0.145476</v>
+        <v>0.145912</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0317676</v>
+        <v>0.0320091</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0299752</v>
+        <v>0.030745</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0392996</v>
+        <v>0.0394563</v>
       </c>
       <c r="C17" t="n">
-        <v>0.150294</v>
+        <v>0.151119</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0327606</v>
+        <v>0.0330059</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0311943</v>
+        <v>0.0318256</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0424081</v>
+        <v>0.0425827</v>
       </c>
       <c r="C18" t="n">
-        <v>0.154766</v>
+        <v>0.154449</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0339711</v>
+        <v>0.0339956</v>
       </c>
       <c r="E18" t="n">
-        <v>0.032267</v>
+        <v>0.0329436</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0504047</v>
+        <v>0.0505078</v>
       </c>
       <c r="C19" t="n">
-        <v>0.159046</v>
+        <v>0.158996</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0356362</v>
+        <v>0.0356759</v>
       </c>
       <c r="E19" t="n">
-        <v>0.034145</v>
+        <v>0.0347132</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0597153</v>
+        <v>0.0597963</v>
       </c>
       <c r="C20" t="n">
-        <v>0.163458</v>
+        <v>0.163383</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0389836</v>
+        <v>0.0391375</v>
       </c>
       <c r="E20" t="n">
-        <v>0.037733</v>
+        <v>0.0383216</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07748579999999999</v>
+        <v>0.0775371</v>
       </c>
       <c r="C21" t="n">
-        <v>0.114572</v>
+        <v>0.114048</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0454572</v>
+        <v>0.0454358</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0436637</v>
+        <v>0.044248</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.102386</v>
+        <v>0.102453</v>
       </c>
       <c r="C22" t="n">
-        <v>0.119568</v>
+        <v>0.119232</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0608034</v>
+        <v>0.06098</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0582247</v>
+        <v>0.05857</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.136927</v>
+        <v>0.137013</v>
       </c>
       <c r="C23" t="n">
-        <v>0.124556</v>
+        <v>0.124041</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0286721</v>
+        <v>0.029019</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0271847</v>
+        <v>0.027573</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0324366</v>
+        <v>0.0324556</v>
       </c>
       <c r="C24" t="n">
-        <v>0.129459</v>
+        <v>0.129102</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0289468</v>
+        <v>0.0293122</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0277879</v>
+        <v>0.0281514</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0330448</v>
+        <v>0.033124</v>
       </c>
       <c r="C25" t="n">
-        <v>0.134325</v>
+        <v>0.133584</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0292969</v>
+        <v>0.0296108</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0282665</v>
+        <v>0.028563</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0339358</v>
+        <v>0.0340455</v>
       </c>
       <c r="C26" t="n">
-        <v>0.138492</v>
+        <v>0.137869</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0295758</v>
+        <v>0.0299357</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0285561</v>
+        <v>0.0290287</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0351625</v>
+        <v>0.0352307</v>
       </c>
       <c r="C27" t="n">
-        <v>0.14349</v>
+        <v>0.142739</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0300465</v>
+        <v>0.0304019</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0294211</v>
+        <v>0.0297321</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0360334</v>
+        <v>0.0361966</v>
       </c>
       <c r="C28" t="n">
-        <v>0.148178</v>
+        <v>0.147614</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0305982</v>
+        <v>0.0309061</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0302659</v>
+        <v>0.0304082</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03722</v>
+        <v>0.0371879</v>
       </c>
       <c r="C29" t="n">
-        <v>0.152591</v>
+        <v>0.15211</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0313912</v>
+        <v>0.0316444</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0313259</v>
+        <v>0.0312759</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395623</v>
+        <v>0.0395582</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1571</v>
+        <v>0.156545</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0320559</v>
+        <v>0.0323147</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0323745</v>
+        <v>0.0320509</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0426225</v>
+        <v>0.0425936</v>
       </c>
       <c r="C31" t="n">
-        <v>0.16135</v>
+        <v>0.160714</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0331716</v>
+        <v>0.0333436</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0337397</v>
+        <v>0.0332223</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0467196</v>
+        <v>0.0467398</v>
       </c>
       <c r="C32" t="n">
-        <v>0.164822</v>
+        <v>0.164017</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0344331</v>
+        <v>0.034524</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0350496</v>
+        <v>0.0344748</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0532869</v>
+        <v>0.0532612</v>
       </c>
       <c r="C33" t="n">
-        <v>0.169449</v>
+        <v>0.168847</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0362944</v>
+        <v>0.0363262</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0370149</v>
+        <v>0.0362641</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0639998</v>
+        <v>0.0640228</v>
       </c>
       <c r="C34" t="n">
-        <v>0.173614</v>
+        <v>0.173171</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0398059</v>
+        <v>0.0397905</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0401725</v>
+        <v>0.0395694</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0778316</v>
+        <v>0.077863</v>
       </c>
       <c r="C35" t="n">
-        <v>0.119093</v>
+        <v>0.118776</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0463634</v>
+        <v>0.0462806</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0460412</v>
+        <v>0.0456805</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100454</v>
+        <v>0.100372</v>
       </c>
       <c r="C36" t="n">
-        <v>0.123893</v>
+        <v>0.123691</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0575992</v>
+        <v>0.0575411</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0561207</v>
+        <v>0.0558807</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.131359</v>
+        <v>0.131182</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128238</v>
+        <v>0.128158</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0289594</v>
+        <v>0.0298332</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0292009</v>
+        <v>0.0289584</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0332712</v>
+        <v>0.0334778</v>
       </c>
       <c r="C38" t="n">
-        <v>0.133243</v>
+        <v>0.13318</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0293416</v>
+        <v>0.0300329</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0299158</v>
+        <v>0.0295188</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0341841</v>
+        <v>0.034329</v>
       </c>
       <c r="C39" t="n">
-        <v>0.138083</v>
+        <v>0.137998</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0300839</v>
+        <v>0.0301532</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0307071</v>
+        <v>0.029721</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0350538</v>
+        <v>0.0349543</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14262</v>
+        <v>0.142407</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0300769</v>
+        <v>0.0304577</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0309727</v>
+        <v>0.0301829</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0356899</v>
+        <v>0.0355969</v>
       </c>
       <c r="C41" t="n">
-        <v>0.147085</v>
+        <v>0.146994</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0305062</v>
+        <v>0.0308705</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0314966</v>
+        <v>0.0307133</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0369983</v>
+        <v>0.0369149</v>
       </c>
       <c r="C42" t="n">
-        <v>0.151581</v>
+        <v>0.15146</v>
       </c>
       <c r="D42" t="n">
-        <v>0.031053</v>
+        <v>0.0317291</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0321815</v>
+        <v>0.0314928</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387705</v>
+        <v>0.0386897</v>
       </c>
       <c r="C43" t="n">
-        <v>0.156182</v>
+        <v>0.155954</v>
       </c>
       <c r="D43" t="n">
-        <v>0.031693</v>
+        <v>0.0320036</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0330008</v>
+        <v>0.0324189</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0407266</v>
+        <v>0.0406723</v>
       </c>
       <c r="C44" t="n">
-        <v>0.160163</v>
+        <v>0.160073</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0326506</v>
+        <v>0.0332248</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0340239</v>
+        <v>0.0339745</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0431153</v>
+        <v>0.0433227</v>
       </c>
       <c r="C45" t="n">
-        <v>0.164319</v>
+        <v>0.164172</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0336946</v>
+        <v>0.0338772</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0351257</v>
+        <v>0.0346595</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0470248</v>
+        <v>0.047229</v>
       </c>
       <c r="C46" t="n">
-        <v>0.168342</v>
+        <v>0.168232</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0352271</v>
+        <v>0.0353106</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0366406</v>
+        <v>0.0363093</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0530535</v>
+        <v>0.0532794</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172567</v>
+        <v>0.172587</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0374401</v>
+        <v>0.0374574</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0384507</v>
+        <v>0.0383308</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.062163</v>
+        <v>0.0621434</v>
       </c>
       <c r="C48" t="n">
-        <v>0.177142</v>
+        <v>0.177241</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0414221</v>
+        <v>0.0412544</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0417393</v>
+        <v>0.0416442</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.075559</v>
+        <v>0.0755849</v>
       </c>
       <c r="C49" t="n">
-        <v>0.181808</v>
+        <v>0.181861</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0467765</v>
+        <v>0.0465955</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0464538</v>
+        <v>0.0464914</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09417540000000001</v>
+        <v>0.0941447</v>
       </c>
       <c r="C50" t="n">
-        <v>0.125264</v>
+        <v>0.125253</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0553231</v>
+        <v>0.054815</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0539886</v>
+        <v>0.0541</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.123685</v>
+        <v>0.123641</v>
       </c>
       <c r="C51" t="n">
-        <v>0.129884</v>
+        <v>0.129806</v>
       </c>
       <c r="D51" t="n">
-        <v>0.030475</v>
+        <v>0.03201</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0326239</v>
+        <v>0.0314432</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.170915</v>
+        <v>0.170604</v>
       </c>
       <c r="C52" t="n">
-        <v>0.134661</v>
+        <v>0.134594</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0306348</v>
+        <v>0.0321536</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0332897</v>
+        <v>0.032127</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0372926</v>
+        <v>0.0365084</v>
       </c>
       <c r="C53" t="n">
-        <v>0.139518</v>
+        <v>0.13932</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0314406</v>
+        <v>0.0312399</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0328347</v>
+        <v>0.0333944</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.036659</v>
+        <v>0.037186</v>
       </c>
       <c r="C54" t="n">
-        <v>0.14452</v>
+        <v>0.144362</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0313498</v>
+        <v>0.032899</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0341936</v>
+        <v>0.0332047</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0390232</v>
+        <v>0.0382289</v>
       </c>
       <c r="C55" t="n">
-        <v>0.149152</v>
+        <v>0.149195</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0318104</v>
+        <v>0.0333058</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0346934</v>
+        <v>0.0336254</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0400195</v>
+        <v>0.0392524</v>
       </c>
       <c r="C56" t="n">
-        <v>0.153925</v>
+        <v>0.153874</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0324421</v>
+        <v>0.0331367</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0354698</v>
+        <v>0.0344656</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0407428</v>
+        <v>0.0409388</v>
       </c>
       <c r="C57" t="n">
-        <v>0.158231</v>
+        <v>0.158447</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0330541</v>
+        <v>0.0344375</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0361818</v>
+        <v>0.0352042</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0424317</v>
+        <v>0.0422406</v>
       </c>
       <c r="C58" t="n">
-        <v>0.162936</v>
+        <v>0.163385</v>
       </c>
       <c r="D58" t="n">
-        <v>0.033938</v>
+        <v>0.0342783</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0368413</v>
+        <v>0.0366475</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0452955</v>
+        <v>0.0450388</v>
       </c>
       <c r="C59" t="n">
-        <v>0.16688</v>
+        <v>0.167415</v>
       </c>
       <c r="D59" t="n">
-        <v>0.03514</v>
+        <v>0.0349559</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0374068</v>
+        <v>0.0372613</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0495397</v>
+        <v>0.0493725</v>
       </c>
       <c r="C60" t="n">
-        <v>0.171178</v>
+        <v>0.171931</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0365835</v>
+        <v>0.0374745</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0389788</v>
+        <v>0.0391881</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0543129</v>
+        <v>0.0541082</v>
       </c>
       <c r="C61" t="n">
-        <v>0.175922</v>
+        <v>0.177159</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0386412</v>
+        <v>0.0384034</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0407223</v>
+        <v>0.0413646</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0623589</v>
+        <v>0.0618988</v>
       </c>
       <c r="C62" t="n">
-        <v>0.180304</v>
+        <v>0.181825</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0420298</v>
+        <v>0.0416926</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0443279</v>
+        <v>0.0445271</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07352649999999999</v>
+        <v>0.0730485</v>
       </c>
       <c r="C63" t="n">
-        <v>0.185024</v>
+        <v>0.186785</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0471003</v>
+        <v>0.0468971</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0490497</v>
+        <v>0.0488922</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09001290000000001</v>
+        <v>0.0900471</v>
       </c>
       <c r="C64" t="n">
-        <v>0.131786</v>
+        <v>0.137191</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0553604</v>
+        <v>0.0555187</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0558362</v>
+        <v>0.0556017</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118626</v>
+        <v>0.118038</v>
       </c>
       <c r="C65" t="n">
-        <v>0.137511</v>
+        <v>0.144532</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06923269999999999</v>
+        <v>0.0695466</v>
       </c>
       <c r="E65" t="n">
-        <v>0.06882190000000001</v>
+        <v>0.0685534</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16198</v>
+        <v>0.161295</v>
       </c>
       <c r="C66" t="n">
-        <v>0.144891</v>
+        <v>0.153384</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0364012</v>
+        <v>0.0367029</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0386383</v>
+        <v>0.038861</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0410879</v>
+        <v>0.0422037</v>
       </c>
       <c r="C67" t="n">
-        <v>0.151482</v>
+        <v>0.160412</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0365049</v>
+        <v>0.0368314</v>
       </c>
       <c r="E67" t="n">
-        <v>0.039358</v>
+        <v>0.0395315</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0417671</v>
+        <v>0.0424489</v>
       </c>
       <c r="C68" t="n">
-        <v>0.159205</v>
+        <v>0.169186</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0371255</v>
+        <v>0.0371715</v>
       </c>
       <c r="E68" t="n">
-        <v>0.039995</v>
+        <v>0.0400931</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0433957</v>
+        <v>0.0434335</v>
       </c>
       <c r="C69" t="n">
-        <v>0.167273</v>
+        <v>0.177691</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0374173</v>
+        <v>0.0376665</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0406584</v>
+        <v>0.0408129</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0440334</v>
+        <v>0.04474</v>
       </c>
       <c r="C70" t="n">
-        <v>0.176273</v>
+        <v>0.187667</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0377079</v>
+        <v>0.0380879</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0414986</v>
+        <v>0.0416344</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0455846</v>
+        <v>0.0455495</v>
       </c>
       <c r="C71" t="n">
-        <v>0.185109</v>
+        <v>0.197649</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0386273</v>
+        <v>0.0390972</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0423423</v>
+        <v>0.042435</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0468667</v>
+        <v>0.047456</v>
       </c>
       <c r="C72" t="n">
-        <v>0.19587</v>
+        <v>0.207541</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0394148</v>
+        <v>0.0398356</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0434589</v>
+        <v>0.0435226</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0488548</v>
+        <v>0.0490631</v>
       </c>
       <c r="C73" t="n">
-        <v>0.207493</v>
+        <v>0.218597</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0403728</v>
+        <v>0.0407338</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0446797</v>
+        <v>0.0447979</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.052506</v>
+        <v>0.0525261</v>
       </c>
       <c r="C74" t="n">
-        <v>0.220049</v>
+        <v>0.228967</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0414865</v>
+        <v>0.0412039</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0463947</v>
+        <v>0.0462092</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0572368</v>
+        <v>0.0572993</v>
       </c>
       <c r="C75" t="n">
-        <v>0.230997</v>
+        <v>0.241824</v>
       </c>
       <c r="D75" t="n">
-        <v>0.043427</v>
+        <v>0.0434098</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0484505</v>
+        <v>0.0489277</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0639309</v>
+        <v>0.06424100000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.245448</v>
+        <v>0.253829</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0463012</v>
+        <v>0.0465849</v>
       </c>
       <c r="E76" t="n">
-        <v>0.051594</v>
+        <v>0.0522328</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07364130000000001</v>
+        <v>0.07434</v>
       </c>
       <c r="C77" t="n">
-        <v>0.259918</v>
+        <v>0.267593</v>
       </c>
       <c r="D77" t="n">
-        <v>0.050794</v>
+        <v>0.0511393</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0557576</v>
+        <v>0.0569451</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08943769999999999</v>
+        <v>0.0901637</v>
       </c>
       <c r="C78" t="n">
-        <v>0.217392</v>
+        <v>0.220604</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0579096</v>
+        <v>0.058296</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0622247</v>
+        <v>0.0646596</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115143</v>
+        <v>0.116678</v>
       </c>
       <c r="C79" t="n">
-        <v>0.229705</v>
+        <v>0.232676</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0698467</v>
+        <v>0.07033209999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0737363</v>
+        <v>0.0767616</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154663</v>
+        <v>0.1553</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242386</v>
+        <v>0.244943</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0404852</v>
+        <v>0.0404646</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0440908</v>
+        <v>0.0446647</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.04658</v>
+        <v>0.0476418</v>
       </c>
       <c r="C81" t="n">
-        <v>0.255157</v>
+        <v>0.258101</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0407418</v>
+        <v>0.040894</v>
       </c>
       <c r="E81" t="n">
-        <v>0.04482</v>
+        <v>0.0459105</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0472532</v>
+        <v>0.0484931</v>
       </c>
       <c r="C82" t="n">
-        <v>0.268553</v>
+        <v>0.270496</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0411608</v>
+        <v>0.041456</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0457679</v>
+        <v>0.0475101</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0484537</v>
+        <v>0.0509301</v>
       </c>
       <c r="C83" t="n">
-        <v>0.281767</v>
+        <v>0.283957</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0416642</v>
+        <v>0.0422512</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0467391</v>
+        <v>0.0493254</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0497283</v>
+        <v>0.0525423</v>
       </c>
       <c r="C84" t="n">
-        <v>0.295412</v>
+        <v>0.297919</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0422083</v>
+        <v>0.043253</v>
       </c>
       <c r="E84" t="n">
-        <v>0.047836</v>
+        <v>0.0517348</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0515288</v>
+        <v>0.0555492</v>
       </c>
       <c r="C85" t="n">
-        <v>0.310265</v>
+        <v>0.311444</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0428263</v>
+        <v>0.0449868</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0490237</v>
+        <v>0.0539437</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0540773</v>
+        <v>0.0587874</v>
       </c>
       <c r="C86" t="n">
-        <v>0.324307</v>
+        <v>0.325612</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0436571</v>
+        <v>0.0466317</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0510205</v>
+        <v>0.0572118</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0568817</v>
+        <v>0.062751</v>
       </c>
       <c r="C87" t="n">
-        <v>0.339123</v>
+        <v>0.340803</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0451663</v>
+        <v>0.0479417</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0535302</v>
+        <v>0.0614293</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0601871</v>
+        <v>0.0673386</v>
       </c>
       <c r="C88" t="n">
-        <v>0.355067</v>
+        <v>0.355952</v>
       </c>
       <c r="D88" t="n">
-        <v>0.046802</v>
+        <v>0.0501957</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0576869</v>
+        <v>0.0667794</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0665278</v>
+        <v>0.0747077</v>
       </c>
       <c r="C89" t="n">
-        <v>0.371425</v>
+        <v>0.372332</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0492164</v>
+        <v>0.0537029</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0625372</v>
+        <v>0.0724428</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.074833</v>
+        <v>0.0838629</v>
       </c>
       <c r="C90" t="n">
-        <v>0.388791</v>
+        <v>0.389508</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0529786</v>
+        <v>0.058099</v>
       </c>
       <c r="E90" t="n">
-        <v>0.06948</v>
+        <v>0.07903499999999999</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0872264</v>
+        <v>0.0955608</v>
       </c>
       <c r="C91" t="n">
-        <v>0.406331</v>
+        <v>0.407143</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0581788</v>
+        <v>0.06407119999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>0.07814889999999999</v>
+        <v>0.08791789999999999</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.105488</v>
+        <v>0.11196</v>
       </c>
       <c r="C92" t="n">
-        <v>0.32786</v>
+        <v>0.327716</v>
       </c>
       <c r="D92" t="n">
-        <v>0.066396</v>
+        <v>0.0730432</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0915367</v>
+        <v>0.0982152</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.130195</v>
+        <v>0.1344</v>
       </c>
       <c r="C93" t="n">
-        <v>0.338384</v>
+        <v>0.338159</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0794117</v>
+        <v>0.0858854</v>
       </c>
       <c r="E93" t="n">
-        <v>0.110382</v>
+        <v>0.112831</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.165336</v>
+        <v>0.167087</v>
       </c>
       <c r="C94" t="n">
-        <v>0.349888</v>
+        <v>0.349642</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0447856</v>
+        <v>0.0500474</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0570065</v>
+        <v>0.0655849</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0581609</v>
+        <v>0.0675323</v>
       </c>
       <c r="C95" t="n">
-        <v>0.361563</v>
+        <v>0.36148</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0459406</v>
+        <v>0.0501271</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0608479</v>
+        <v>0.06864729999999999</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0620039</v>
+        <v>0.07049320000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.373719</v>
+        <v>0.373548</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0473006</v>
+        <v>0.0537164</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0644856</v>
+        <v>0.07197870000000001</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0657039</v>
+        <v>0.0723065</v>
       </c>
       <c r="C97" t="n">
-        <v>0.385855</v>
+        <v>0.386091</v>
       </c>
       <c r="D97" t="n">
-        <v>0.049284</v>
+        <v>0.0556802</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0700769</v>
+        <v>0.0741305</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0704936</v>
+        <v>0.0759007</v>
       </c>
       <c r="C98" t="n">
-        <v>0.398402</v>
+        <v>0.398428</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0521997</v>
+        <v>0.0574953</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0754201</v>
+        <v>0.0774985</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0754875</v>
+        <v>0.0790266</v>
       </c>
       <c r="C99" t="n">
-        <v>0.412114</v>
+        <v>0.412206</v>
       </c>
       <c r="D99" t="n">
-        <v>0.05474</v>
+        <v>0.0594075</v>
       </c>
       <c r="E99" t="n">
-        <v>0.081967</v>
+        <v>0.08038969999999999</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0814488</v>
+        <v>0.0813392</v>
       </c>
       <c r="C100" t="n">
-        <v>0.426254</v>
+        <v>0.426712</v>
       </c>
       <c r="D100" t="n">
-        <v>0.058265</v>
+        <v>0.0616313</v>
       </c>
       <c r="E100" t="n">
-        <v>0.08851539999999999</v>
+        <v>0.08398079999999999</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0877453</v>
+        <v>0.0852082</v>
       </c>
       <c r="C101" t="n">
-        <v>0.440603</v>
+        <v>0.441188</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0619249</v>
+        <v>0.06332840000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0948586</v>
+        <v>0.0870437</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09489</v>
+        <v>0.0904408</v>
       </c>
       <c r="C102" t="n">
-        <v>0.456222</v>
+        <v>0.456873</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0656033</v>
+        <v>0.06596100000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.102068</v>
+        <v>0.09227920000000001</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.102804</v>
+        <v>0.0957139</v>
       </c>
       <c r="C103" t="n">
-        <v>0.472089</v>
+        <v>0.472959</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07059459999999999</v>
+        <v>0.066902</v>
       </c>
       <c r="E103" t="n">
-        <v>0.109073</v>
+        <v>0.0978154</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.111787</v>
+        <v>0.10403</v>
       </c>
       <c r="C104" t="n">
-        <v>0.489058</v>
+        <v>0.490603</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0762833</v>
+        <v>0.0725248</v>
       </c>
       <c r="E104" t="n">
-        <v>0.116702</v>
+        <v>0.104603</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.122811</v>
+        <v>0.114938</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5062219999999999</v>
+        <v>0.507968</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0834371</v>
+        <v>0.07619090000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.125369</v>
+        <v>0.114327</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.137685</v>
+        <v>0.130909</v>
       </c>
       <c r="C106" t="n">
-        <v>0.524524</v>
+        <v>0.525829</v>
       </c>
       <c r="D106" t="n">
-        <v>0.09192699999999999</v>
+        <v>0.0859429</v>
       </c>
       <c r="E106" t="n">
-        <v>0.136672</v>
+        <v>0.127462</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.157936</v>
+        <v>0.152634</v>
       </c>
       <c r="C107" t="n">
-        <v>0.396171</v>
+        <v>0.396994</v>
       </c>
       <c r="D107" t="n">
-        <v>0.104946</v>
+        <v>0.0986841</v>
       </c>
       <c r="E107" t="n">
-        <v>0.152625</v>
+        <v>0.145627</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.187056</v>
+        <v>0.183785</v>
       </c>
       <c r="C108" t="n">
-        <v>0.406563</v>
+        <v>0.407561</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0638827</v>
+        <v>0.0583853</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0923326</v>
+        <v>0.0782188</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.232331</v>
+        <v>0.231424</v>
       </c>
       <c r="C109" t="n">
-        <v>0.417143</v>
+        <v>0.418414</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0663335</v>
+        <v>0.0576657</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0955588</v>
+        <v>0.08240219999999999</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0910381</v>
+        <v>0.0792578</v>
       </c>
       <c r="C110" t="n">
-        <v>0.428464</v>
+        <v>0.429432</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0682311</v>
+        <v>0.060683</v>
       </c>
       <c r="E110" t="n">
-        <v>0.09867430000000001</v>
+        <v>0.08695899999999999</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.09408270000000001</v>
+        <v>0.0837507</v>
       </c>
       <c r="C111" t="n">
-        <v>0.439979</v>
+        <v>0.440764</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0701275</v>
+        <v>0.0624657</v>
       </c>
       <c r="E111" t="n">
-        <v>0.101631</v>
+        <v>0.09105240000000001</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.09674770000000001</v>
+        <v>0.0870441</v>
       </c>
       <c r="C112" t="n">
-        <v>0.451985</v>
+        <v>0.453039</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0721609</v>
+        <v>0.0638069</v>
       </c>
       <c r="E112" t="n">
-        <v>0.104629</v>
+        <v>0.0956299</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.100081</v>
+        <v>0.0912845</v>
       </c>
       <c r="C113" t="n">
-        <v>0.464954</v>
+        <v>0.465992</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0741362</v>
+        <v>0.0639174</v>
       </c>
       <c r="E113" t="n">
-        <v>0.108387</v>
+        <v>0.100587</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103267</v>
+        <v>0.0959233</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4783</v>
+        <v>0.479538</v>
       </c>
       <c r="D114" t="n">
-        <v>0.07641299999999999</v>
+        <v>0.0689613</v>
       </c>
       <c r="E114" t="n">
-        <v>0.111825</v>
+        <v>0.10619</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107377</v>
+        <v>0.101281</v>
       </c>
       <c r="C115" t="n">
-        <v>0.492201</v>
+        <v>0.493858</v>
       </c>
       <c r="D115" t="n">
-        <v>0.078656</v>
+        <v>0.0718493</v>
       </c>
       <c r="E115" t="n">
-        <v>0.115752</v>
+        <v>0.109349</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.11192</v>
+        <v>0.107075</v>
       </c>
       <c r="C116" t="n">
-        <v>0.507207</v>
+        <v>0.508865</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0815134</v>
+        <v>0.075576</v>
       </c>
       <c r="E116" t="n">
-        <v>0.120217</v>
+        <v>0.117281</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.117859</v>
+        <v>0.114069</v>
       </c>
       <c r="C117" t="n">
-        <v>0.522921</v>
+        <v>0.524008</v>
       </c>
       <c r="D117" t="n">
-        <v>0.08472880000000001</v>
+        <v>0.0794286</v>
       </c>
       <c r="E117" t="n">
-        <v>0.125063</v>
+        <v>0.122448</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.125262</v>
+        <v>0.122586</v>
       </c>
       <c r="C118" t="n">
-        <v>0.53894</v>
+        <v>0.540863</v>
       </c>
       <c r="D118" t="n">
-        <v>0.088963</v>
+        <v>0.0851204</v>
       </c>
       <c r="E118" t="n">
-        <v>0.131717</v>
+        <v>0.129073</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.13492</v>
+        <v>0.133187</v>
       </c>
       <c r="C119" t="n">
-        <v>0.556169</v>
+        <v>0.556895</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0940565</v>
+        <v>0.0915686</v>
       </c>
       <c r="E119" t="n">
-        <v>0.139277</v>
+        <v>0.138166</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147803</v>
+        <v>0.146531</v>
       </c>
       <c r="C120" t="n">
-        <v>0.574479</v>
+        <v>0.572698</v>
       </c>
       <c r="D120" t="n">
-        <v>0.101522</v>
+        <v>0.0991348</v>
       </c>
       <c r="E120" t="n">
-        <v>0.149772</v>
+        <v>0.148004</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.166295</v>
+        <v>0.165374</v>
       </c>
       <c r="C121" t="n">
-        <v>0.426456</v>
+        <v>0.426277</v>
       </c>
       <c r="D121" t="n">
-        <v>0.112519</v>
+        <v>0.109827</v>
       </c>
       <c r="E121" t="n">
-        <v>0.164318</v>
+        <v>0.16387</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.193171</v>
+        <v>0.19261</v>
       </c>
       <c r="C122" t="n">
-        <v>0.436471</v>
+        <v>0.433308</v>
       </c>
       <c r="D122" t="n">
-        <v>0.129782</v>
+        <v>0.128483</v>
       </c>
       <c r="E122" t="n">
-        <v>0.187503</v>
+        <v>0.186718</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.235574</v>
+        <v>0.235747</v>
       </c>
       <c r="C123" t="n">
-        <v>0.447153</v>
+        <v>0.443793</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0782644</v>
+        <v>0.0773194</v>
       </c>
       <c r="E123" t="n">
-        <v>0.110111</v>
+        <v>0.110435</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103081</v>
+        <v>0.09715600000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>0.458395</v>
+        <v>0.459967</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0811042</v>
+        <v>0.079724</v>
       </c>
       <c r="E124" t="n">
-        <v>0.114824</v>
+        <v>0.116821</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104315</v>
+        <v>0.10503</v>
       </c>
       <c r="C125" t="n">
-        <v>0.471083</v>
+        <v>0.4707</v>
       </c>
       <c r="D125" t="n">
-        <v>0.081432</v>
+        <v>0.0848309</v>
       </c>
       <c r="E125" t="n">
-        <v>0.118841</v>
+        <v>0.116775</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108812</v>
+        <v>0.103022</v>
       </c>
       <c r="C126" t="n">
-        <v>0.482467</v>
+        <v>0.479756</v>
       </c>
       <c r="D126" t="n">
-        <v>0.08473020000000001</v>
+        <v>0.08981509999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>0.121473</v>
+        <v>0.122597</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111961</v>
+        <v>0.109914</v>
       </c>
       <c r="C127" t="n">
-        <v>0.495629</v>
+        <v>0.496229</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0873097</v>
+        <v>0.09032850000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>0.125483</v>
+        <v>0.123462</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115755</v>
+        <v>0.120235</v>
       </c>
       <c r="C128" t="n">
-        <v>0.50864</v>
+        <v>0.50962</v>
       </c>
       <c r="D128" t="n">
-        <v>0.09075999999999999</v>
+        <v>0.09017600000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.127032</v>
+        <v>0.125962</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116714</v>
+        <v>0.11151</v>
       </c>
       <c r="C129" t="n">
-        <v>0.522904</v>
+        <v>0.52385</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0900941</v>
+        <v>0.09183769999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>0.133476</v>
+        <v>0.133941</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121482</v>
+        <v>0.128048</v>
       </c>
       <c r="C130" t="n">
-        <v>0.537679</v>
+        <v>0.538341</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0950014</v>
+        <v>0.0963956</v>
       </c>
       <c r="E130" t="n">
-        <v>0.136839</v>
+        <v>0.137775</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126085</v>
+        <v>0.130383</v>
       </c>
       <c r="C131" t="n">
-        <v>0.553839</v>
+        <v>0.553764</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0955493</v>
+        <v>0.09106400000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>0.140303</v>
+        <v>0.141128</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132736</v>
+        <v>0.136859</v>
       </c>
       <c r="C132" t="n">
-        <v>0.570028</v>
+        <v>0.570403</v>
       </c>
       <c r="D132" t="n">
-        <v>0.100226</v>
+        <v>0.0963407</v>
       </c>
       <c r="E132" t="n">
-        <v>0.150537</v>
+        <v>0.144542</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.14142</v>
+        <v>0.141553</v>
       </c>
       <c r="C133" t="n">
-        <v>0.586794</v>
+        <v>0.58879</v>
       </c>
       <c r="D133" t="n">
-        <v>0.10412</v>
+        <v>0.10248</v>
       </c>
       <c r="E133" t="n">
-        <v>0.154791</v>
+        <v>0.155431</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154608</v>
+        <v>0.151857</v>
       </c>
       <c r="C134" t="n">
-        <v>0.605277</v>
+        <v>0.606145</v>
       </c>
       <c r="D134" t="n">
-        <v>0.111749</v>
+        <v>0.108163</v>
       </c>
       <c r="E134" t="n">
-        <v>0.163957</v>
+        <v>0.164514</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171952</v>
+        <v>0.17077</v>
       </c>
       <c r="C135" t="n">
-        <v>0.443787</v>
+        <v>0.444492</v>
       </c>
       <c r="D135" t="n">
-        <v>0.119972</v>
+        <v>0.125078</v>
       </c>
       <c r="E135" t="n">
-        <v>0.178176</v>
+        <v>0.177012</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197685</v>
+        <v>0.196396</v>
       </c>
       <c r="C136" t="n">
-        <v>0.45454</v>
+        <v>0.455014</v>
       </c>
       <c r="D136" t="n">
-        <v>0.135697</v>
+        <v>0.134466</v>
       </c>
       <c r="E136" t="n">
-        <v>0.198244</v>
+        <v>0.196379</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.234829</v>
+        <v>0.229086</v>
       </c>
       <c r="C137" t="n">
-        <v>0.46527</v>
+        <v>0.465816</v>
       </c>
       <c r="D137" t="n">
-        <v>0.150483</v>
+        <v>0.142834</v>
       </c>
       <c r="E137" t="n">
-        <v>0.182206</v>
+        <v>0.182712</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.167598</v>
+        <v>0.169492</v>
       </c>
       <c r="C138" t="n">
-        <v>0.476702</v>
+        <v>0.477173</v>
       </c>
       <c r="D138" t="n">
-        <v>0.151527</v>
+        <v>0.151481</v>
       </c>
       <c r="E138" t="n">
-        <v>0.18503</v>
+        <v>0.185029</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169151</v>
+        <v>0.171236</v>
       </c>
       <c r="C139" t="n">
-        <v>0.488385</v>
+        <v>0.486696</v>
       </c>
       <c r="D139" t="n">
-        <v>0.15209</v>
+        <v>0.1524</v>
       </c>
       <c r="E139" t="n">
-        <v>0.188069</v>
+        <v>0.188061</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.170947</v>
+        <v>0.170015</v>
       </c>
       <c r="C140" t="n">
-        <v>0.500588</v>
+        <v>0.500854</v>
       </c>
       <c r="D140" t="n">
-        <v>0.154677</v>
+        <v>0.153859</v>
       </c>
       <c r="E140" t="n">
-        <v>0.191332</v>
+        <v>0.185267</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.172486</v>
+        <v>0.173127</v>
       </c>
       <c r="C141" t="n">
-        <v>0.513193</v>
+        <v>0.511248</v>
       </c>
       <c r="D141" t="n">
-        <v>0.156523</v>
+        <v>0.155056</v>
       </c>
       <c r="E141" t="n">
-        <v>0.194778</v>
+        <v>0.194075</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.175561</v>
+        <v>0.166879</v>
       </c>
       <c r="C142" t="n">
-        <v>0.526438</v>
+        <v>0.52711</v>
       </c>
       <c r="D142" t="n">
-        <v>0.156519</v>
+        <v>0.158048</v>
       </c>
       <c r="E142" t="n">
-        <v>0.197391</v>
+        <v>0.198069</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177965</v>
+        <v>0.175255</v>
       </c>
       <c r="C143" t="n">
-        <v>0.540432</v>
+        <v>0.538737</v>
       </c>
       <c r="D143" t="n">
-        <v>0.158291</v>
+        <v>0.149842</v>
       </c>
       <c r="E143" t="n">
-        <v>0.20147</v>
+        <v>0.19967</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0335068</v>
+        <v>0.0328966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.120532</v>
+        <v>0.0333574</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0316989</v>
+        <v>0.118485</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0302175</v>
+        <v>0.0312277</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0289463</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0342462</v>
+        <v>0.0353305</v>
       </c>
       <c r="C3" t="n">
-        <v>0.126657</v>
+        <v>0.0352775</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0322502</v>
+        <v>0.123394</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0304036</v>
+        <v>0.0317944</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0295861</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0386633</v>
+        <v>0.037945</v>
       </c>
       <c r="C4" t="n">
-        <v>0.131394</v>
+        <v>0.0370941</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0334086</v>
+        <v>0.130576</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0311203</v>
+        <v>0.0330612</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0309989</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0446225</v>
+        <v>0.0443974</v>
       </c>
       <c r="C5" t="n">
-        <v>0.138935</v>
+        <v>0.0438691</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0350268</v>
+        <v>0.13569</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0327886</v>
+        <v>0.0346661</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0324387</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0557002</v>
+        <v>0.0539866</v>
       </c>
       <c r="C6" t="n">
-        <v>0.145215</v>
+        <v>0.053726</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0377114</v>
+        <v>0.141621</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0360718</v>
+        <v>0.037462</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0354091</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.068799</v>
+        <v>0.07820009999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0981944</v>
+        <v>0.07681350000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0440674</v>
+        <v>0.0968676</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0426037</v>
+        <v>0.0436602</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0409971</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.103707</v>
+        <v>0.102884</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10536</v>
+        <v>0.113658</v>
       </c>
       <c r="D8" t="n">
-        <v>0.057876</v>
+        <v>0.103006</v>
       </c>
       <c r="E8" t="n">
-        <v>0.055187</v>
+        <v>0.0571142</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0538963</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.147581</v>
+        <v>0.145664</v>
       </c>
       <c r="C9" t="n">
-        <v>0.111703</v>
+        <v>0.155488</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0290589</v>
+        <v>0.109462</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0267527</v>
+        <v>0.0287585</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0262751</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0309161</v>
+        <v>0.0309223</v>
       </c>
       <c r="C10" t="n">
-        <v>0.118032</v>
+        <v>0.0314</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0292495</v>
+        <v>0.11553</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0270521</v>
+        <v>0.0289998</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0265587</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0319842</v>
+        <v>0.0315686</v>
       </c>
       <c r="C11" t="n">
-        <v>0.123246</v>
+        <v>0.0319672</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0295215</v>
+        <v>0.121315</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0274015</v>
+        <v>0.0292707</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0269661</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0326407</v>
+        <v>0.0317361</v>
       </c>
       <c r="C12" t="n">
-        <v>0.12807</v>
+        <v>0.0325005</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0300321</v>
+        <v>0.125193</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0280878</v>
+        <v>0.0297633</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0274881</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0325658</v>
+        <v>0.0324799</v>
       </c>
       <c r="C13" t="n">
-        <v>0.133303</v>
+        <v>0.0338379</v>
       </c>
       <c r="D13" t="n">
-        <v>0.030337</v>
+        <v>0.131078</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0286231</v>
+        <v>0.0300182</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0278968</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0336826</v>
+        <v>0.0336926</v>
       </c>
       <c r="C14" t="n">
-        <v>0.137099</v>
+        <v>0.0345481</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0306477</v>
+        <v>0.136148</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0289869</v>
+        <v>0.030374</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0283143</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0346056</v>
+        <v>0.0348447</v>
       </c>
       <c r="C15" t="n">
-        <v>0.142391</v>
+        <v>0.0360295</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0312521</v>
+        <v>0.140447</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0297527</v>
+        <v>0.0310066</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0291657</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0363924</v>
+        <v>0.03655</v>
       </c>
       <c r="C16" t="n">
-        <v>0.145912</v>
+        <v>0.0376947</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0320091</v>
+        <v>0.144599</v>
       </c>
       <c r="E16" t="n">
-        <v>0.030745</v>
+        <v>0.0318524</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0301732</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0394563</v>
+        <v>0.0391178</v>
       </c>
       <c r="C17" t="n">
-        <v>0.151119</v>
+        <v>0.0401299</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0330059</v>
+        <v>0.149088</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0318256</v>
+        <v>0.0328184</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0312353</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0425827</v>
+        <v>0.0431601</v>
       </c>
       <c r="C18" t="n">
-        <v>0.154449</v>
+        <v>0.0436532</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0339956</v>
+        <v>0.153531</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0329436</v>
+        <v>0.0339319</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0325778</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0505078</v>
+        <v>0.0500361</v>
       </c>
       <c r="C19" t="n">
-        <v>0.158996</v>
+        <v>0.05173</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0356759</v>
+        <v>0.157385</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0347132</v>
+        <v>0.0356851</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0343799</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0597963</v>
+        <v>0.0650959</v>
       </c>
       <c r="C20" t="n">
-        <v>0.163383</v>
+        <v>0.0636626</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0391375</v>
+        <v>0.161269</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0383216</v>
+        <v>0.039069</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0379237</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0775371</v>
+        <v>0.0830448</v>
       </c>
       <c r="C21" t="n">
-        <v>0.114048</v>
+        <v>0.0820589</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0454358</v>
+        <v>0.114519</v>
       </c>
       <c r="E21" t="n">
-        <v>0.044248</v>
+        <v>0.0453436</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0438629</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.102453</v>
+        <v>0.112274</v>
       </c>
       <c r="C22" t="n">
-        <v>0.119232</v>
+        <v>0.113781</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06098</v>
+        <v>0.120117</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05857</v>
+        <v>0.0607034</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.058513</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.137013</v>
+        <v>0.152667</v>
       </c>
       <c r="C23" t="n">
-        <v>0.124041</v>
+        <v>0.148151</v>
       </c>
       <c r="D23" t="n">
-        <v>0.029019</v>
+        <v>0.124537</v>
       </c>
       <c r="E23" t="n">
-        <v>0.027573</v>
+        <v>0.0287188</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0270266</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0324556</v>
+        <v>0.032869</v>
       </c>
       <c r="C24" t="n">
-        <v>0.129102</v>
+        <v>0.0348359</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0293122</v>
+        <v>0.130273</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0281514</v>
+        <v>0.02899</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0274738</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.033124</v>
+        <v>0.0333935</v>
       </c>
       <c r="C25" t="n">
-        <v>0.133584</v>
+        <v>0.0356992</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0296108</v>
+        <v>0.13445</v>
       </c>
       <c r="E25" t="n">
-        <v>0.028563</v>
+        <v>0.0292871</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0279228</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0340455</v>
+        <v>0.0341774</v>
       </c>
       <c r="C26" t="n">
-        <v>0.137869</v>
+        <v>0.0366592</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0299357</v>
+        <v>0.138564</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0290287</v>
+        <v>0.0295827</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0283417</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0352307</v>
+        <v>0.0347276</v>
       </c>
       <c r="C27" t="n">
-        <v>0.142739</v>
+        <v>0.0378616</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0304019</v>
+        <v>0.143391</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0297321</v>
+        <v>0.0300958</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0291626</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0361966</v>
+        <v>0.0355657</v>
       </c>
       <c r="C28" t="n">
-        <v>0.147614</v>
+        <v>0.0391205</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0309061</v>
+        <v>0.147406</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0304082</v>
+        <v>0.0305822</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0296513</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0371879</v>
+        <v>0.0372715</v>
       </c>
       <c r="C29" t="n">
-        <v>0.15211</v>
+        <v>0.0405261</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0316444</v>
+        <v>0.15194</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0312759</v>
+        <v>0.0313227</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0306591</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395582</v>
+        <v>0.0389441</v>
       </c>
       <c r="C30" t="n">
-        <v>0.156545</v>
+        <v>0.0424643</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0323147</v>
+        <v>0.156303</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0320509</v>
+        <v>0.0321189</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0315164</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0425936</v>
+        <v>0.0420496</v>
       </c>
       <c r="C31" t="n">
-        <v>0.160714</v>
+        <v>0.0457396</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0333436</v>
+        <v>0.160191</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0332223</v>
+        <v>0.0331674</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0328196</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0467398</v>
+        <v>0.0464859</v>
       </c>
       <c r="C32" t="n">
-        <v>0.164017</v>
+        <v>0.0497836</v>
       </c>
       <c r="D32" t="n">
-        <v>0.034524</v>
+        <v>0.163347</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0344748</v>
+        <v>0.0344233</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0340535</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0532612</v>
+        <v>0.0531037</v>
       </c>
       <c r="C33" t="n">
-        <v>0.168847</v>
+        <v>0.0561335</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0363262</v>
+        <v>0.167315</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0362641</v>
+        <v>0.0362593</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0360218</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0640228</v>
+        <v>0.0630143</v>
       </c>
       <c r="C34" t="n">
-        <v>0.173171</v>
+        <v>0.0655616</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0397905</v>
+        <v>0.171497</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0395694</v>
+        <v>0.0397297</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0393096</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.077863</v>
+        <v>0.08067530000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.118776</v>
+        <v>0.08210580000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0462806</v>
+        <v>0.119052</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0456805</v>
+        <v>0.0463406</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0456379</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100372</v>
+        <v>0.10229</v>
       </c>
       <c r="C36" t="n">
-        <v>0.123691</v>
+        <v>0.101762</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0575411</v>
+        <v>0.123733</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0558807</v>
+        <v>0.0574698</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0558058</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.131182</v>
+        <v>0.136188</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128158</v>
+        <v>0.136044</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0298332</v>
+        <v>0.128362</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0289584</v>
+        <v>0.028996</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0291649</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0334778</v>
+        <v>0.0332588</v>
       </c>
       <c r="C38" t="n">
-        <v>0.13318</v>
+        <v>0.0376463</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0300329</v>
+        <v>0.133367</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0295188</v>
+        <v>0.0293987</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0297707</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.034329</v>
+        <v>0.0340544</v>
       </c>
       <c r="C39" t="n">
-        <v>0.137998</v>
+        <v>0.0383685</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0301532</v>
+        <v>0.137891</v>
       </c>
       <c r="E39" t="n">
-        <v>0.029721</v>
+        <v>0.029755</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.029552</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0349543</v>
+        <v>0.0350029</v>
       </c>
       <c r="C40" t="n">
-        <v>0.142407</v>
+        <v>0.039471</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0304577</v>
+        <v>0.142698</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0301829</v>
+        <v>0.0300781</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.030958</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0355969</v>
+        <v>0.0355469</v>
       </c>
       <c r="C41" t="n">
-        <v>0.146994</v>
+        <v>0.0406071</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0308705</v>
+        <v>0.146882</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0307133</v>
+        <v>0.0305659</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0316147</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0369149</v>
+        <v>0.0369383</v>
       </c>
       <c r="C42" t="n">
-        <v>0.15146</v>
+        <v>0.0416052</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0317291</v>
+        <v>0.151232</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0314928</v>
+        <v>0.0310546</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0317333</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0386897</v>
+        <v>0.0384442</v>
       </c>
       <c r="C43" t="n">
-        <v>0.155954</v>
+        <v>0.0432104</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0320036</v>
+        <v>0.155835</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0324189</v>
+        <v>0.0318872</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0332991</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0406723</v>
+        <v>0.0402184</v>
       </c>
       <c r="C44" t="n">
-        <v>0.160073</v>
+        <v>0.0453224</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0332248</v>
+        <v>0.159582</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0339745</v>
+        <v>0.0328551</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.033733</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0433227</v>
+        <v>0.0433579</v>
       </c>
       <c r="C45" t="n">
-        <v>0.164172</v>
+        <v>0.0478803</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0338772</v>
+        <v>0.163247</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0346595</v>
+        <v>0.0337622</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0350147</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.047229</v>
+        <v>0.0471814</v>
       </c>
       <c r="C46" t="n">
-        <v>0.168232</v>
+        <v>0.0515823</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0353106</v>
+        <v>0.166933</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0363093</v>
+        <v>0.0352407</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0364559</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0532794</v>
+        <v>0.0534598</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172587</v>
+        <v>0.0571416</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0374574</v>
+        <v>0.170926</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0383308</v>
+        <v>0.0371898</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0382905</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0621434</v>
+        <v>0.06262620000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.177241</v>
+        <v>0.0657577</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0412544</v>
+        <v>0.175114</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0416442</v>
+        <v>0.0410612</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0416737</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0755849</v>
+        <v>0.0744838</v>
       </c>
       <c r="C49" t="n">
-        <v>0.181861</v>
+        <v>0.07753690000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0465955</v>
+        <v>0.179577</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0464914</v>
+        <v>0.0463791</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0464787</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0941447</v>
+        <v>0.0955728</v>
       </c>
       <c r="C50" t="n">
-        <v>0.125253</v>
+        <v>0.09616130000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.054815</v>
+        <v>0.125171</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0541</v>
+        <v>0.0547057</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0540947</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.123641</v>
+        <v>0.126177</v>
       </c>
       <c r="C51" t="n">
-        <v>0.129806</v>
+        <v>0.128183</v>
       </c>
       <c r="D51" t="n">
-        <v>0.03201</v>
+        <v>0.129835</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0314432</v>
+        <v>0.0309175</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0328837</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.170604</v>
+        <v>0.171792</v>
       </c>
       <c r="C52" t="n">
-        <v>0.134594</v>
+        <v>0.175108</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0321536</v>
+        <v>0.134743</v>
       </c>
       <c r="E52" t="n">
-        <v>0.032127</v>
+        <v>0.0311311</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0333627</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0365084</v>
+        <v>0.0363579</v>
       </c>
       <c r="C53" t="n">
-        <v>0.13932</v>
+        <v>0.0413237</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0312399</v>
+        <v>0.139244</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0333944</v>
+        <v>0.0311306</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0338624</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.037186</v>
+        <v>0.037103</v>
       </c>
       <c r="C54" t="n">
-        <v>0.144362</v>
+        <v>0.042192</v>
       </c>
       <c r="D54" t="n">
-        <v>0.032899</v>
+        <v>0.144227</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0332047</v>
+        <v>0.0322939</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0342113</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0382289</v>
+        <v>0.0380599</v>
       </c>
       <c r="C55" t="n">
-        <v>0.149195</v>
+        <v>0.0429998</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0333058</v>
+        <v>0.148702</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0336254</v>
+        <v>0.03208</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0350101</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0392524</v>
+        <v>0.0393058</v>
       </c>
       <c r="C56" t="n">
-        <v>0.153874</v>
+        <v>0.0442968</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0331367</v>
+        <v>0.153367</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0344656</v>
+        <v>0.0331426</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.035567</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0409388</v>
+        <v>0.04054</v>
       </c>
       <c r="C57" t="n">
-        <v>0.158447</v>
+        <v>0.045608</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0344375</v>
+        <v>0.157814</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0352042</v>
+        <v>0.0345307</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0364335</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0422406</v>
+        <v>0.0425128</v>
       </c>
       <c r="C58" t="n">
-        <v>0.163385</v>
+        <v>0.0476507</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0342783</v>
+        <v>0.161953</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0366475</v>
+        <v>0.0350818</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0364501</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0450388</v>
+        <v>0.045411</v>
       </c>
       <c r="C59" t="n">
-        <v>0.167415</v>
+        <v>0.0501805</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0349559</v>
+        <v>0.165664</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0372613</v>
+        <v>0.0352645</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0377119</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0493725</v>
+        <v>0.0493794</v>
       </c>
       <c r="C60" t="n">
-        <v>0.171931</v>
+        <v>0.0536934</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0374745</v>
+        <v>0.170131</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0391881</v>
+        <v>0.0374206</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0400768</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0541082</v>
+        <v>0.0542835</v>
       </c>
       <c r="C61" t="n">
-        <v>0.177159</v>
+        <v>0.0590407</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0384034</v>
+        <v>0.174117</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0413646</v>
+        <v>0.0387409</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0410531</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0618988</v>
+        <v>0.06267109999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.181825</v>
+        <v>0.0669454</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0416926</v>
+        <v>0.178083</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0445271</v>
+        <v>0.0420032</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0449307</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0730485</v>
+        <v>0.0737796</v>
       </c>
       <c r="C63" t="n">
-        <v>0.186785</v>
+        <v>0.0772842</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0468971</v>
+        <v>0.182402</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0488922</v>
+        <v>0.0472003</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0489171</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0900471</v>
+        <v>0.09376669999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.137191</v>
+        <v>0.0944709</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0555187</v>
+        <v>0.134563</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0556017</v>
+        <v>0.0551693</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.056658</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118038</v>
+        <v>0.120442</v>
       </c>
       <c r="C65" t="n">
-        <v>0.144532</v>
+        <v>0.122583</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0695466</v>
+        <v>0.139114</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0685534</v>
+        <v>0.06976350000000001</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.069675</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161295</v>
+        <v>0.164244</v>
       </c>
       <c r="C66" t="n">
-        <v>0.153384</v>
+        <v>0.166577</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0367029</v>
+        <v>0.148054</v>
       </c>
       <c r="E66" t="n">
-        <v>0.038861</v>
+        <v>0.0363695</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.038856</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0422037</v>
+        <v>0.0410362</v>
       </c>
       <c r="C67" t="n">
-        <v>0.160412</v>
+        <v>0.0488964</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0368314</v>
+        <v>0.156117</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0395315</v>
+        <v>0.0366276</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0394749</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0424489</v>
+        <v>0.0415397</v>
       </c>
       <c r="C68" t="n">
-        <v>0.169186</v>
+        <v>0.0501404</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0371715</v>
+        <v>0.163693</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0400931</v>
+        <v>0.0369839</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0401202</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0434335</v>
+        <v>0.0426654</v>
       </c>
       <c r="C69" t="n">
-        <v>0.177691</v>
+        <v>0.0513479</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0376665</v>
+        <v>0.175096</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0408129</v>
+        <v>0.0375016</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0408046</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04474</v>
+        <v>0.0439149</v>
       </c>
       <c r="C70" t="n">
-        <v>0.187667</v>
+        <v>0.0528437</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0380879</v>
+        <v>0.184211</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0416344</v>
+        <v>0.037999</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.041581</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0455495</v>
+        <v>0.0448207</v>
       </c>
       <c r="C71" t="n">
-        <v>0.197649</v>
+        <v>0.0548546</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0390972</v>
+        <v>0.194057</v>
       </c>
       <c r="E71" t="n">
-        <v>0.042435</v>
+        <v>0.038666</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0427022</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.047456</v>
+        <v>0.0466305</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207541</v>
+        <v>0.0571259</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0398356</v>
+        <v>0.204304</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0435226</v>
+        <v>0.0394488</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0437058</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0490631</v>
+        <v>0.0488261</v>
       </c>
       <c r="C73" t="n">
-        <v>0.218597</v>
+        <v>0.0600542</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0407338</v>
+        <v>0.215871</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0447979</v>
+        <v>0.0404264</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0449509</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0525261</v>
+        <v>0.0521711</v>
       </c>
       <c r="C74" t="n">
-        <v>0.228967</v>
+        <v>0.0644781</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0412039</v>
+        <v>0.226706</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0462092</v>
+        <v>0.0417231</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0466312</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0572993</v>
+        <v>0.0572631</v>
       </c>
       <c r="C75" t="n">
-        <v>0.241824</v>
+        <v>0.0693405</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0434098</v>
+        <v>0.239346</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0489277</v>
+        <v>0.0433861</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0487618</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06424100000000001</v>
+        <v>0.0646115</v>
       </c>
       <c r="C76" t="n">
-        <v>0.253829</v>
+        <v>0.07763780000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0465849</v>
+        <v>0.253314</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0522328</v>
+        <v>0.0463825</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0518951</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07434</v>
+        <v>0.0753479</v>
       </c>
       <c r="C77" t="n">
-        <v>0.267593</v>
+        <v>0.0906868</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0511393</v>
+        <v>0.269217</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0569451</v>
+        <v>0.0509452</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0566824</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0901637</v>
+        <v>0.0918359</v>
       </c>
       <c r="C78" t="n">
-        <v>0.220604</v>
+        <v>0.10996</v>
       </c>
       <c r="D78" t="n">
-        <v>0.058296</v>
+        <v>0.232662</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0646596</v>
+        <v>0.0581655</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.06442299999999999</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.116678</v>
+        <v>0.11966</v>
       </c>
       <c r="C79" t="n">
-        <v>0.232676</v>
+        <v>0.139856</v>
       </c>
       <c r="D79" t="n">
-        <v>0.07033209999999999</v>
+        <v>0.245688</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0767616</v>
+        <v>0.07092950000000001</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0767386</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1553</v>
+        <v>0.159796</v>
       </c>
       <c r="C80" t="n">
-        <v>0.244943</v>
+        <v>0.185846</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0404646</v>
+        <v>0.259733</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0446647</v>
+        <v>0.0402457</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0456432</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0476418</v>
+        <v>0.0473899</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258101</v>
+        <v>0.0639941</v>
       </c>
       <c r="D81" t="n">
-        <v>0.040894</v>
+        <v>0.274479</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0459105</v>
+        <v>0.0410094</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0463294</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0484931</v>
+        <v>0.0487892</v>
       </c>
       <c r="C82" t="n">
-        <v>0.270496</v>
+        <v>0.06778430000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.041456</v>
+        <v>0.289138</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0475101</v>
+        <v>0.0414424</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0481745</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0509301</v>
+        <v>0.0508095</v>
       </c>
       <c r="C83" t="n">
-        <v>0.283957</v>
+        <v>0.0723265</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0422512</v>
+        <v>0.303366</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0493254</v>
+        <v>0.0423612</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0498395</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0525423</v>
+        <v>0.0530546</v>
       </c>
       <c r="C84" t="n">
-        <v>0.297919</v>
+        <v>0.0777486</v>
       </c>
       <c r="D84" t="n">
-        <v>0.043253</v>
+        <v>0.318242</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0517348</v>
+        <v>0.0434408</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0519484</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0555492</v>
+        <v>0.0559153</v>
       </c>
       <c r="C85" t="n">
-        <v>0.311444</v>
+        <v>0.08348120000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0449868</v>
+        <v>0.334499</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0539437</v>
+        <v>0.0443724</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0545533</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0587874</v>
+        <v>0.0595911</v>
       </c>
       <c r="C86" t="n">
-        <v>0.325612</v>
+        <v>0.0907979</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0466317</v>
+        <v>0.350631</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0572118</v>
+        <v>0.0461777</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0580108</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.062751</v>
+        <v>0.0638228</v>
       </c>
       <c r="C87" t="n">
-        <v>0.340803</v>
+        <v>0.0991155</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0479417</v>
+        <v>0.367258</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0614293</v>
+        <v>0.0486126</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0622204</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0673386</v>
+        <v>0.06917130000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.355952</v>
+        <v>0.108585</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0501957</v>
+        <v>0.384326</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0667794</v>
+        <v>0.0513237</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.06793200000000001</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0747077</v>
+        <v>0.0771607</v>
       </c>
       <c r="C89" t="n">
-        <v>0.372332</v>
+        <v>0.120222</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0537029</v>
+        <v>0.402169</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0724428</v>
+        <v>0.0554999</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0734865</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0838629</v>
+        <v>0.0865557</v>
       </c>
       <c r="C90" t="n">
-        <v>0.389508</v>
+        <v>0.134329</v>
       </c>
       <c r="D90" t="n">
-        <v>0.058099</v>
+        <v>0.421412</v>
       </c>
       <c r="E90" t="n">
-        <v>0.07903499999999999</v>
+        <v>0.0609193</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0811615</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0955608</v>
+        <v>0.100523</v>
       </c>
       <c r="C91" t="n">
-        <v>0.407143</v>
+        <v>0.150594</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06407119999999999</v>
+        <v>0.440969</v>
       </c>
       <c r="E91" t="n">
-        <v>0.08791789999999999</v>
+        <v>0.06788569999999999</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0906975</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.11196</v>
+        <v>0.11631</v>
       </c>
       <c r="C92" t="n">
-        <v>0.327716</v>
+        <v>0.174865</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0730432</v>
+        <v>0.359242</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0982152</v>
+        <v>0.0766049</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.101203</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1344</v>
+        <v>0.14011</v>
       </c>
       <c r="C93" t="n">
-        <v>0.338159</v>
+        <v>0.207481</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0858854</v>
+        <v>0.371451</v>
       </c>
       <c r="E93" t="n">
-        <v>0.112831</v>
+        <v>0.08977350000000001</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.117852</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.167087</v>
+        <v>0.176272</v>
       </c>
       <c r="C94" t="n">
-        <v>0.349642</v>
+        <v>0.252194</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0500474</v>
+        <v>0.383813</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0655849</v>
+        <v>0.0520427</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0672719</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0675323</v>
+        <v>0.069145</v>
       </c>
       <c r="C95" t="n">
-        <v>0.36148</v>
+        <v>0.105884</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0501271</v>
+        <v>0.39686</v>
       </c>
       <c r="E95" t="n">
-        <v>0.06864729999999999</v>
+        <v>0.0541572</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0710119</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.07049320000000001</v>
+        <v>0.07301530000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.373548</v>
+        <v>0.111559</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0537164</v>
+        <v>0.410109</v>
       </c>
       <c r="E96" t="n">
-        <v>0.07197870000000001</v>
+        <v>0.0561078</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.0737656</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0723065</v>
+        <v>0.0757823</v>
       </c>
       <c r="C97" t="n">
-        <v>0.386091</v>
+        <v>0.117528</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0556802</v>
+        <v>0.423703</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0741305</v>
+        <v>0.0576912</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.077252</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0759007</v>
+        <v>0.07929360000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.398428</v>
+        <v>0.124657</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0574953</v>
+        <v>0.437677</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0774985</v>
+        <v>0.0605307</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0809632</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0790266</v>
+        <v>0.0830819</v>
       </c>
       <c r="C99" t="n">
-        <v>0.412206</v>
+        <v>0.133065</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0594075</v>
+        <v>0.452597</v>
       </c>
       <c r="E99" t="n">
-        <v>0.08038969999999999</v>
+        <v>0.0624174</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.084095</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0813392</v>
+        <v>0.0867342</v>
       </c>
       <c r="C100" t="n">
-        <v>0.426712</v>
+        <v>0.141951</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0616313</v>
+        <v>0.468133</v>
       </c>
       <c r="E100" t="n">
-        <v>0.08398079999999999</v>
+        <v>0.0649208</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0879104</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0852082</v>
+        <v>0.0906228</v>
       </c>
       <c r="C101" t="n">
-        <v>0.441188</v>
+        <v>0.152752</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06332840000000001</v>
+        <v>0.483967</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0870437</v>
+        <v>0.066915</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.092295</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0904408</v>
+        <v>0.09583650000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.456873</v>
+        <v>0.164316</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06596100000000001</v>
+        <v>0.500961</v>
       </c>
       <c r="E102" t="n">
-        <v>0.09227920000000001</v>
+        <v>0.0694273</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.096983</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0957139</v>
+        <v>0.102399</v>
       </c>
       <c r="C103" t="n">
-        <v>0.472959</v>
+        <v>0.176906</v>
       </c>
       <c r="D103" t="n">
-        <v>0.066902</v>
+        <v>0.518687</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0978154</v>
+        <v>0.0731888</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.103188</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.10403</v>
+        <v>0.110917</v>
       </c>
       <c r="C104" t="n">
-        <v>0.490603</v>
+        <v>0.191117</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0725248</v>
+        <v>0.536918</v>
       </c>
       <c r="E104" t="n">
-        <v>0.104603</v>
+        <v>0.0773834</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.111861</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.114938</v>
+        <v>0.122615</v>
       </c>
       <c r="C105" t="n">
-        <v>0.507968</v>
+        <v>0.208876</v>
       </c>
       <c r="D105" t="n">
-        <v>0.07619090000000001</v>
+        <v>0.555412</v>
       </c>
       <c r="E105" t="n">
-        <v>0.114327</v>
+        <v>0.0832754</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.122331</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.130909</v>
+        <v>0.139072</v>
       </c>
       <c r="C106" t="n">
-        <v>0.525829</v>
+        <v>0.230838</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0859429</v>
+        <v>0.574589</v>
       </c>
       <c r="E106" t="n">
-        <v>0.127462</v>
+        <v>0.091098</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.13675</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.152634</v>
+        <v>0.162329</v>
       </c>
       <c r="C107" t="n">
-        <v>0.396994</v>
+        <v>0.260206</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0986841</v>
+        <v>0.436665</v>
       </c>
       <c r="E107" t="n">
-        <v>0.145627</v>
+        <v>0.1038</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.156118</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183785</v>
+        <v>0.194949</v>
       </c>
       <c r="C108" t="n">
-        <v>0.407561</v>
+        <v>0.302341</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0583853</v>
+        <v>0.448956</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0782188</v>
+        <v>0.0615118</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.08387559999999999</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231424</v>
+        <v>0.243974</v>
       </c>
       <c r="C109" t="n">
-        <v>0.418414</v>
+        <v>0.368893</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0576657</v>
+        <v>0.461176</v>
       </c>
       <c r="E109" t="n">
-        <v>0.08240219999999999</v>
+        <v>0.0621303</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0876603</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0792578</v>
+        <v>0.0848217</v>
       </c>
       <c r="C110" t="n">
-        <v>0.429432</v>
+        <v>0.152264</v>
       </c>
       <c r="D110" t="n">
-        <v>0.060683</v>
+        <v>0.473374</v>
       </c>
       <c r="E110" t="n">
-        <v>0.08695899999999999</v>
+        <v>0.0642136</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0928037</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0837507</v>
+        <v>0.0890049</v>
       </c>
       <c r="C111" t="n">
-        <v>0.440764</v>
+        <v>0.158781</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0624657</v>
+        <v>0.486028</v>
       </c>
       <c r="E111" t="n">
-        <v>0.09105240000000001</v>
+        <v>0.0638432</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.09653730000000001</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0870441</v>
+        <v>0.0924526</v>
       </c>
       <c r="C112" t="n">
-        <v>0.453039</v>
+        <v>0.164739</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0638069</v>
+        <v>0.498991</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0956299</v>
+        <v>0.0675079</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.103389</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0912845</v>
+        <v>0.0983778</v>
       </c>
       <c r="C113" t="n">
-        <v>0.465992</v>
+        <v>0.171328</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0639174</v>
+        <v>0.513317</v>
       </c>
       <c r="E113" t="n">
-        <v>0.100587</v>
+        <v>0.07058109999999999</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.110163</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0959233</v>
+        <v>0.104359</v>
       </c>
       <c r="C114" t="n">
-        <v>0.479538</v>
+        <v>0.177658</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0689613</v>
+        <v>0.52867</v>
       </c>
       <c r="E114" t="n">
-        <v>0.10619</v>
+        <v>0.07420690000000001</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.116236</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101281</v>
+        <v>0.11086</v>
       </c>
       <c r="C115" t="n">
-        <v>0.493858</v>
+        <v>0.185178</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0718493</v>
+        <v>0.543242</v>
       </c>
       <c r="E115" t="n">
-        <v>0.109349</v>
+        <v>0.0787125</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.122521</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107075</v>
+        <v>0.116267</v>
       </c>
       <c r="C116" t="n">
-        <v>0.508865</v>
+        <v>0.193347</v>
       </c>
       <c r="D116" t="n">
-        <v>0.075576</v>
+        <v>0.559723</v>
       </c>
       <c r="E116" t="n">
-        <v>0.117281</v>
+        <v>0.08287219999999999</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.127776</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114069</v>
+        <v>0.124575</v>
       </c>
       <c r="C117" t="n">
-        <v>0.524008</v>
+        <v>0.20334</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0794286</v>
+        <v>0.57579</v>
       </c>
       <c r="E117" t="n">
-        <v>0.122448</v>
+        <v>0.0875729</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.133899</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.122586</v>
+        <v>0.132608</v>
       </c>
       <c r="C118" t="n">
-        <v>0.540863</v>
+        <v>0.215288</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0851204</v>
+        <v>0.595035</v>
       </c>
       <c r="E118" t="n">
-        <v>0.129073</v>
+        <v>0.0905941</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.140946</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133187</v>
+        <v>0.143394</v>
       </c>
       <c r="C119" t="n">
-        <v>0.556895</v>
+        <v>0.230429</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0915686</v>
+        <v>0.614592</v>
       </c>
       <c r="E119" t="n">
-        <v>0.138166</v>
+        <v>0.0990745</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.149558</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.146531</v>
+        <v>0.157275</v>
       </c>
       <c r="C120" t="n">
-        <v>0.572698</v>
+        <v>0.250545</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0991348</v>
+        <v>0.634069</v>
       </c>
       <c r="E120" t="n">
-        <v>0.148004</v>
+        <v>0.10696</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.160449</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165374</v>
+        <v>0.176499</v>
       </c>
       <c r="C121" t="n">
-        <v>0.426277</v>
+        <v>0.278827</v>
       </c>
       <c r="D121" t="n">
-        <v>0.109827</v>
+        <v>0.466171</v>
       </c>
       <c r="E121" t="n">
-        <v>0.16387</v>
+        <v>0.118767</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.176112</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.19261</v>
+        <v>0.204569</v>
       </c>
       <c r="C122" t="n">
-        <v>0.433308</v>
+        <v>0.3208</v>
       </c>
       <c r="D122" t="n">
-        <v>0.128483</v>
+        <v>0.482055</v>
       </c>
       <c r="E122" t="n">
-        <v>0.186718</v>
+        <v>0.134785</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.200523</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.235747</v>
+        <v>0.247281</v>
       </c>
       <c r="C123" t="n">
-        <v>0.443793</v>
+        <v>0.385933</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0773194</v>
+        <v>0.489802</v>
       </c>
       <c r="E123" t="n">
-        <v>0.110435</v>
+        <v>0.0778911</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.122602</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.09715600000000001</v>
+        <v>0.110476</v>
       </c>
       <c r="C124" t="n">
-        <v>0.459967</v>
+        <v>0.168895</v>
       </c>
       <c r="D124" t="n">
-        <v>0.079724</v>
+        <v>0.505698</v>
       </c>
       <c r="E124" t="n">
-        <v>0.116821</v>
+        <v>0.08540590000000001</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.117503</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.10503</v>
+        <v>0.11007</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4707</v>
+        <v>0.174711</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0848309</v>
+        <v>0.515265</v>
       </c>
       <c r="E125" t="n">
-        <v>0.116775</v>
+        <v>0.0870879</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.125253</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.103022</v>
+        <v>0.114106</v>
       </c>
       <c r="C126" t="n">
-        <v>0.479756</v>
+        <v>0.179282</v>
       </c>
       <c r="D126" t="n">
-        <v>0.08981509999999999</v>
+        <v>0.532769</v>
       </c>
       <c r="E126" t="n">
-        <v>0.122597</v>
+        <v>0.0848506</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.131505</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.109914</v>
+        <v>0.117203</v>
       </c>
       <c r="C127" t="n">
-        <v>0.496229</v>
+        <v>0.189228</v>
       </c>
       <c r="D127" t="n">
-        <v>0.09032850000000001</v>
+        <v>0.546179</v>
       </c>
       <c r="E127" t="n">
-        <v>0.123462</v>
+        <v>0.0886406</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.133882</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.120235</v>
+        <v>0.119437</v>
       </c>
       <c r="C128" t="n">
-        <v>0.50962</v>
+        <v>0.197715</v>
       </c>
       <c r="D128" t="n">
-        <v>0.09017600000000001</v>
+        <v>0.561369</v>
       </c>
       <c r="E128" t="n">
-        <v>0.125962</v>
+        <v>0.09434099999999999</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.137406</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.11151</v>
+        <v>0.121416</v>
       </c>
       <c r="C129" t="n">
-        <v>0.52385</v>
+        <v>0.20452</v>
       </c>
       <c r="D129" t="n">
-        <v>0.09183769999999999</v>
+        <v>0.576273</v>
       </c>
       <c r="E129" t="n">
-        <v>0.133941</v>
+        <v>0.09448819999999999</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.145076</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.128048</v>
+        <v>0.12762</v>
       </c>
       <c r="C130" t="n">
-        <v>0.538341</v>
+        <v>0.21305</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0963956</v>
+        <v>0.588897</v>
       </c>
       <c r="E130" t="n">
-        <v>0.137775</v>
+        <v>0.0971016</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.14105</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.130383</v>
+        <v>0.134848</v>
       </c>
       <c r="C131" t="n">
-        <v>0.553764</v>
+        <v>0.214366</v>
       </c>
       <c r="D131" t="n">
-        <v>0.09106400000000001</v>
+        <v>0.606145</v>
       </c>
       <c r="E131" t="n">
-        <v>0.141128</v>
+        <v>0.0995856</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.15076</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.136859</v>
+        <v>0.142593</v>
       </c>
       <c r="C132" t="n">
-        <v>0.570403</v>
+        <v>0.233302</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0963407</v>
+        <v>0.628148</v>
       </c>
       <c r="E132" t="n">
-        <v>0.144542</v>
+        <v>0.0999461</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.164044</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141553</v>
+        <v>0.151403</v>
       </c>
       <c r="C133" t="n">
-        <v>0.58879</v>
+        <v>0.246695</v>
       </c>
       <c r="D133" t="n">
-        <v>0.10248</v>
+        <v>0.643313</v>
       </c>
       <c r="E133" t="n">
-        <v>0.155431</v>
+        <v>0.114984</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.167591</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.151857</v>
+        <v>0.164529</v>
       </c>
       <c r="C134" t="n">
-        <v>0.606145</v>
+        <v>0.26592</v>
       </c>
       <c r="D134" t="n">
-        <v>0.108163</v>
+        <v>0.667543</v>
       </c>
       <c r="E134" t="n">
-        <v>0.164514</v>
+        <v>0.122694</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.180685</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.17077</v>
+        <v>0.182823</v>
       </c>
       <c r="C135" t="n">
-        <v>0.444492</v>
+        <v>0.293398</v>
       </c>
       <c r="D135" t="n">
-        <v>0.125078</v>
+        <v>0.489316</v>
       </c>
       <c r="E135" t="n">
-        <v>0.177012</v>
+        <v>0.128978</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.19503</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.196396</v>
+        <v>0.208513</v>
       </c>
       <c r="C136" t="n">
-        <v>0.455014</v>
+        <v>0.333185</v>
       </c>
       <c r="D136" t="n">
-        <v>0.134466</v>
+        <v>0.500759</v>
       </c>
       <c r="E136" t="n">
-        <v>0.196379</v>
+        <v>0.147638</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.215724</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.229086</v>
+        <v>0.248673</v>
       </c>
       <c r="C137" t="n">
-        <v>0.465816</v>
+        <v>0.394145</v>
       </c>
       <c r="D137" t="n">
-        <v>0.142834</v>
+        <v>0.5127159999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>0.182712</v>
+        <v>0.164311</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.201008</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.169492</v>
+        <v>0.179863</v>
       </c>
       <c r="C138" t="n">
-        <v>0.477173</v>
+        <v>0.251126</v>
       </c>
       <c r="D138" t="n">
-        <v>0.151481</v>
+        <v>0.524895</v>
       </c>
       <c r="E138" t="n">
-        <v>0.185029</v>
+        <v>0.165985</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.205911</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.171236</v>
+        <v>0.185493</v>
       </c>
       <c r="C139" t="n">
-        <v>0.486696</v>
+        <v>0.254889</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1524</v>
+        <v>0.537833</v>
       </c>
       <c r="E139" t="n">
-        <v>0.188061</v>
+        <v>0.168693</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.208123</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.170015</v>
+        <v>0.181271</v>
       </c>
       <c r="C140" t="n">
-        <v>0.500854</v>
+        <v>0.249458</v>
       </c>
       <c r="D140" t="n">
-        <v>0.153859</v>
+        <v>0.5510429999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>0.185267</v>
+        <v>0.170255</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.211876</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173127</v>
+        <v>0.189825</v>
       </c>
       <c r="C141" t="n">
-        <v>0.511248</v>
+        <v>0.264004</v>
       </c>
       <c r="D141" t="n">
-        <v>0.155056</v>
+        <v>0.562547</v>
       </c>
       <c r="E141" t="n">
-        <v>0.194075</v>
+        <v>0.170774</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.206569</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.166879</v>
+        <v>0.193913</v>
       </c>
       <c r="C142" t="n">
-        <v>0.52711</v>
+        <v>0.261089</v>
       </c>
       <c r="D142" t="n">
-        <v>0.158048</v>
+        <v>0.579453</v>
       </c>
       <c r="E142" t="n">
-        <v>0.198069</v>
+        <v>0.172876</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.218361</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.175255</v>
+        <v>0.185382</v>
       </c>
       <c r="C143" t="n">
-        <v>0.538737</v>
+        <v>0.275951</v>
       </c>
       <c r="D143" t="n">
-        <v>0.149842</v>
+        <v>0.592664</v>
       </c>
       <c r="E143" t="n">
-        <v>0.19967</v>
+        <v>0.175683</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.21478</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0188563</v>
+                  <v>0.0201731</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.020482</v>
+                  <v>0.0223373</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0250918</v>
+                  <v>0.0283973</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0324396</v>
+                  <v>0.0359745</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0486736</v>
+                  <v>0.0468578</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0676407</v>
+                  <v>0.0662001</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0914015</v>
+                  <v>0.0874499</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.120117</v>
+                  <v>0.118178</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0161742</v>
+                  <v>0.0163823</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0167609</v>
+                  <v>0.0169442</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.017033</v>
+                  <v>0.0173203</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0178156</v>
+                  <v>0.0179112</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0186429</v>
+                  <v>0.0186739</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201514</v>
+                  <v>0.0206062</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0223364</v>
+                  <v>0.0231143</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0265812</v>
+                  <v>0.0271457</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0315209</v>
+                  <v>0.0334194</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0404218</v>
+                  <v>0.0418801</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0523243</v>
+                  <v>0.0544232</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.068802</v>
+                  <v>0.06979779999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0916015</v>
+                  <v>0.0938215</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.115789</v>
+                  <v>0.121481</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0165559</v>
+                  <v>0.0166604</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.01713</v>
+                  <v>0.0171542</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.017832</v>
+                  <v>0.0177934</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0186431</v>
+                  <v>0.0184952</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0204344</v>
+                  <v>0.0201196</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0223797</v>
+                  <v>0.0218972</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0260575</v>
+                  <v>0.0251077</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0296827</v>
+                  <v>0.0292352</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351294</v>
+                  <v>0.0347619</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0439567</v>
+                  <v>0.0435356</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0560566</v>
+                  <v>0.0537204</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0724226</v>
+                  <v>0.0688154</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0942229</v>
+                  <v>0.09015720000000001</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.120526</v>
+                  <v>0.116026</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0171733</v>
+                  <v>0.0170183</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178413</v>
+                  <v>0.0178123</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187789</v>
+                  <v>0.01864</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0201514</v>
+                  <v>0.0197201</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0218874</v>
+                  <v>0.0215528</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244952</v>
+                  <v>0.0238953</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277145</v>
+                  <v>0.0270839</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0318614</v>
+                  <v>0.0315753</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.038157</v>
+                  <v>0.0372642</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0458946</v>
+                  <v>0.0449549</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0561284</v>
+                  <v>0.0551349</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.07138170000000001</v>
+                  <v>0.06987989999999999</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.09212090000000001</v>
+                  <v>0.09050619999999999</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117399</v>
+                  <v>0.116517</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.142611</v>
+                  <v>0.142867</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191063</v>
+                  <v>0.0189245</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0202054</v>
+                  <v>0.0202459</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0216884</v>
+                  <v>0.0217405</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.023762</v>
+                  <v>0.0238386</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0265754</v>
+                  <v>0.0263284</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0299431</v>
+                  <v>0.0295381</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0344095</v>
+                  <v>0.0336662</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0405591</v>
+                  <v>0.0393238</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0475581</v>
+                  <v>0.0464554</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0572633</v>
+                  <v>0.0563056</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0711276</v>
+                  <v>0.0704912</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0912027</v>
+                  <v>0.090473</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.117531</v>
+                  <v>0.116153</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.147591</v>
+                  <v>0.148156</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0198684</v>
+                  <v>0.0199809</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210982</v>
+                  <v>0.0212024</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0228671</v>
+                  <v>0.0226467</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0250892</v>
+                  <v>0.0247555</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0274858</v>
+                  <v>0.0272389</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0307585</v>
+                  <v>0.0304965</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0350439</v>
+                  <v>0.034774</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401473</v>
+                  <v>0.0399272</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0470655</v>
+                  <v>0.0466726</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0565303</v>
+                  <v>0.0562112</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0694931</v>
+                  <v>0.0692453</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0876659</v>
+                  <v>0.08731709999999999</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112976</v>
+                  <v>0.112012</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.14429</v>
+                  <v>0.143596</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0201115</v>
+                  <v>0.0198969</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0216766</v>
+                  <v>0.0211685</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0228365</v>
+                  <v>0.0228963</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248985</v>
+                  <v>0.0246315</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0272584</v>
+                  <v>0.0270319</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0302977</v>
+                  <v>0.0301633</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0342083</v>
+                  <v>0.0343003</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.039444</v>
+                  <v>0.0392099</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0458422</v>
+                  <v>0.0461135</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0546333</v>
+                  <v>0.0547299</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0669435</v>
+                  <v>0.0668189</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0841283</v>
+                  <v>0.0836469</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.108178</v>
+                  <v>0.107787</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139209</v>
+                  <v>0.138233</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0208397</v>
+                  <v>0.021069</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0217789</v>
+                  <v>0.0216843</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0236136</v>
+                  <v>0.0235278</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0250037</v>
+                  <v>0.0252833</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0272123</v>
+                  <v>0.0276404</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0306604</v>
+                  <v>0.0303935</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0359699</v>
+                  <v>0.0347047</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0400556</v>
+                  <v>0.03961</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464214</v>
+                  <v>0.0462842</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0543718</v>
+                  <v>0.0542663</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0654956</v>
+                  <v>0.06533070000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0810722</v>
+                  <v>0.0810447</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.102897</v>
+                  <v>0.102744</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.133253</v>
+                  <v>0.132435</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.1679</v>
+                  <v>0.168123</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0312378</v>
+                  <v>0.0311566</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032867</v>
+                  <v>0.0327274</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0343439</v>
+                  <v>0.0342032</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0361309</v>
+                  <v>0.0360288</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383012</v>
+                  <v>0.038221</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408352</v>
+                  <v>0.0407202</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0439366</v>
+                  <v>0.0443612</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0486743</v>
+                  <v>0.0487038</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0550738</v>
+                  <v>0.0551061</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0645583</v>
+                  <v>0.0650413</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791676</v>
+                  <v>0.0796751</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0998057</v>
+                  <v>0.100197</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128197</v>
+                  <v>0.128476</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163841</v>
+                  <v>0.164648</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0345014</v>
+                  <v>0.0347131</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.035219</v>
+                  <v>0.0356762</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0366214</v>
+                  <v>0.0366723</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0384021</v>
+                  <v>0.0385512</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0405117</v>
+                  <v>0.0406167</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0431668</v>
+                  <v>0.0432628</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0465002</v>
+                  <v>0.0469616</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0510499</v>
+                  <v>0.0522871</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0587435</v>
+                  <v>0.0587787</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0679357</v>
+                  <v>0.06793159999999999</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0816269</v>
+                  <v>0.0818242</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101812</v>
+                  <v>0.10117</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.129487</v>
+                  <v>0.129216</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.164993</v>
+                  <v>0.164833</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468838</v>
+                  <v>0.04719</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0484521</v>
+                  <v>0.0477155</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0493311</v>
+                  <v>0.0498207</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0507617</v>
+                  <v>0.0506207</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0532957</v>
+                  <v>0.0533573</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0554191</v>
+                  <v>0.0561423</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0745743</v>
+                  <v>0.0194065</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0818991</v>
+                  <v>0.0224007</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0759394</v>
+                  <v>0.0288135</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0880992</v>
+                  <v>0.0338387</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.08153489999999999</v>
+                  <v>0.0464436</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0624356</v>
+                  <v>0.0656384</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.061869</v>
+                  <v>0.0870889</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0683074</v>
+                  <v>0.116853</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0686766</v>
+                  <v>0.016173</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.07166640000000001</v>
+                  <v>0.0167609</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0739997</v>
+                  <v>0.0172318</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.077265</v>
+                  <v>0.0179025</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0817507</v>
+                  <v>0.0189746</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0856117</v>
+                  <v>0.019983</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0866362</v>
+                  <v>0.0223099</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.09086229999999999</v>
+                  <v>0.0264348</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.09648760000000001</v>
+                  <v>0.0312478</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.096305</v>
+                  <v>0.0404906</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.09784320000000001</v>
+                  <v>0.0537627</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0664341</v>
+                  <v>0.0690885</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0712783</v>
+                  <v>0.0933016</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0762056</v>
+                  <v>0.118794</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0754963</v>
+                  <v>0.0162717</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0791755</v>
+                  <v>0.0168356</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0828492</v>
+                  <v>0.017468</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.08543870000000001</v>
+                  <v>0.0182377</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0887561</v>
+                  <v>0.0194683</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.092414</v>
+                  <v>0.0212317</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0948533</v>
+                  <v>0.0242552</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0957143</v>
+                  <v>0.0284577</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.09790550000000001</v>
+                  <v>0.0343277</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.09936730000000001</v>
+                  <v>0.0428176</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.101587</v>
+                  <v>0.0534805</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06934940000000001</v>
+                  <v>0.0688173</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0726347</v>
+                  <v>0.0907517</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.07564949999999999</v>
+                  <v>0.117543</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0790356</v>
+                  <v>0.0168393</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0818281</v>
+                  <v>0.0175714</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0856015</v>
+                  <v>0.0184474</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.08902640000000001</v>
+                  <v>0.0198324</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0915702</v>
+                  <v>0.021464</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0953242</v>
+                  <v>0.0237258</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0973436</v>
+                  <v>0.0270856</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.100137</v>
+                  <v>0.0315007</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.102066</v>
+                  <v>0.0372003</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.104689</v>
+                  <v>0.0443335</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.106565</v>
+                  <v>0.0545841</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.109417</v>
+                  <v>0.06922639999999999</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0759278</v>
+                  <v>0.0899831</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.07929940000000001</v>
+                  <v>0.117779</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0833945</v>
+                  <v>0.142876</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.08607579999999999</v>
+                  <v>0.0191296</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0893982</v>
+                  <v>0.0201955</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0926165</v>
+                  <v>0.0216483</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.09584810000000001</v>
+                  <v>0.023403</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.100165</v>
+                  <v>0.026064</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.101736</v>
+                  <v>0.0294373</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.105135</v>
+                  <v>0.0339117</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.107339</v>
+                  <v>0.0393543</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.109803</v>
+                  <v>0.0465728</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.111709</v>
+                  <v>0.056655</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.115496</v>
+                  <v>0.0699357</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0812769</v>
+                  <v>0.0901044</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.08581900000000001</v>
+                  <v>0.117115</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.09048920000000001</v>
+                  <v>0.147525</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.09512900000000001</v>
+                  <v>0.0200422</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.09904019999999999</v>
+                  <v>0.0210888</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.103762</v>
+                  <v>0.0229847</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.109767</v>
+                  <v>0.0248889</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.115064</v>
+                  <v>0.0271453</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.119625</v>
+                  <v>0.0304582</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.123912</v>
+                  <v>0.0344984</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.128639</v>
+                  <v>0.0397809</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.136023</v>
+                  <v>0.0470601</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.141569</v>
+                  <v>0.0565718</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.147324</v>
+                  <v>0.06901500000000001</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.114448</v>
+                  <v>0.087157</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.120419</v>
+                  <v>0.112264</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.125131</v>
+                  <v>0.144133</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.131477</v>
+                  <v>0.0200835</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.139604</v>
+                  <v>0.0214419</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.146445</v>
+                  <v>0.0229504</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.154887</v>
+                  <v>0.0250695</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.163154</v>
+                  <v>0.0273812</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.170385</v>
+                  <v>0.0308585</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.178312</v>
+                  <v>0.0344507</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.182546</v>
+                  <v>0.0394985</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.19023</v>
+                  <v>0.0460324</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.200533</v>
+                  <v>0.0550461</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.208859</v>
+                  <v>0.0671224</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.157758</v>
+                  <v>0.0844076</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.162746</v>
+                  <v>0.109009</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.168477</v>
+                  <v>0.139885</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.17633</v>
+                  <v>0.0246877</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.183525</v>
+                  <v>0.0262639</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.190701</v>
+                  <v>0.0285106</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.19753</v>
+                  <v>0.0326365</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.204795</v>
+                  <v>0.0376421</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.226592</v>
+                  <v>0.0431873</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.219043</v>
+                  <v>0.0495911</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227757</v>
+                  <v>0.0557668</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.233267</v>
+                  <v>0.0618652</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.243865</v>
+                  <v>0.0688729</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.252361</v>
+                  <v>0.0776963</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.261173</v>
+                  <v>0.0907839</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.190647</v>
+                  <v>0.109448</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.197526</v>
+                  <v>0.136707</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.203566</v>
+                  <v>0.172459</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.210146</v>
+                  <v>0.0467682</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.218257</v>
+                  <v>0.0483897</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.224714</v>
+                  <v>0.0507314</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.23258</v>
+                  <v>0.0528627</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.239218</v>
+                  <v>0.0555484</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.24724</v>
+                  <v>0.0590007</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.255715</v>
+                  <v>0.0628261</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.263655</v>
+                  <v>0.0678373</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.271989</v>
+                  <v>0.0743669</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.282797</v>
+                  <v>0.08271000000000001</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.289767</v>
+                  <v>0.0944628</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.206007</v>
+                  <v>0.11085</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211597</v>
+                  <v>0.135461</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.217961</v>
+                  <v>0.170368</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.22481</v>
+                  <v>0.0512479</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.231511</v>
+                  <v>0.052865</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.23876</v>
+                  <v>0.0549309</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.246015</v>
+                  <v>0.058871</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.253902</v>
+                  <v>0.0612004</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.261754</v>
+                  <v>0.0650288</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.269215</v>
+                  <v>0.069248</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.276809</v>
+                  <v>0.0746687</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285243</v>
+                  <v>0.08118839999999999</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.294416</v>
+                  <v>0.0896735</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.303237</v>
+                  <v>0.101136</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212509</v>
+                  <v>0.117614</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.21893</v>
+                  <v>0.141623</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.225118</v>
+                  <v>0.176838</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.232231</v>
+                  <v>0.0654614</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.239705</v>
+                  <v>0.0667495</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.247032</v>
+                  <v>0.06891559999999999</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.255056</v>
+                  <v>0.07127269999999999</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.262733</v>
+                  <v>0.0736226</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.271863</v>
+                  <v>0.077071</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0212525</v>
+                  <v>0.0719905</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0216004</v>
+                  <v>0.0729974</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0227228</v>
+                  <v>0.082431</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0236692</v>
+                  <v>0.0738939</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.025734</v>
+                  <v>0.0825699</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0307283</v>
+                  <v>0.0649699</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0400074</v>
+                  <v>0.0601928</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0191859</v>
+                  <v>0.0616023</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0194145</v>
+                  <v>0.0644928</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0197171</v>
+                  <v>0.07119880000000001</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0200098</v>
+                  <v>0.07261140000000001</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202944</v>
+                  <v>0.07676910000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205605</v>
+                  <v>0.0821347</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0210623</v>
+                  <v>0.0866618</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021745</v>
+                  <v>0.08824650000000001</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0224624</v>
+                  <v>0.0907429</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0233932</v>
+                  <v>0.09464789999999999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0246564</v>
+                  <v>0.0952583</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0274191</v>
+                  <v>0.0964115</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0316025</v>
+                  <v>0.0694861</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0413247</v>
+                  <v>0.07024809999999999</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0187664</v>
+                  <v>0.0724142</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0190384</v>
+                  <v>0.07515040000000001</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.019321</v>
+                  <v>0.07962320000000001</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0195661</v>
+                  <v>0.0832406</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0198599</v>
+                  <v>0.0852619</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0203393</v>
+                  <v>0.0896028</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0209382</v>
+                  <v>0.09148480000000001</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214818</v>
+                  <v>0.0939405</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0223346</v>
+                  <v>0.0965188</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0233779</v>
+                  <v>0.09831380000000001</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0247673</v>
+                  <v>0.100199</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0273931</v>
+                  <v>0.102902</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0317286</v>
+                  <v>0.0698054</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.039339</v>
+                  <v>0.0726036</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0193829</v>
+                  <v>0.0757068</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0197036</v>
+                  <v>0.0793538</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0199834</v>
+                  <v>0.083243</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0203028</v>
+                  <v>0.08550199999999999</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0206416</v>
+                  <v>0.08859019999999999</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.021054</v>
+                  <v>0.09167649999999999</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0216854</v>
+                  <v>0.0949025</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0224175</v>
+                  <v>0.0970295</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0232548</v>
+                  <v>0.100157</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0245789</v>
+                  <v>0.102332</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0261833</v>
+                  <v>0.104522</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0289704</v>
+                  <v>0.105831</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0328291</v>
+                  <v>0.108825</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0389724</v>
+                  <v>0.0755461</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0204109</v>
+                  <v>0.078995</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0206887</v>
+                  <v>0.0825134</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0209817</v>
+                  <v>0.0867947</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0212755</v>
+                  <v>0.0901161</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0216547</v>
+                  <v>0.09300659999999999</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0221738</v>
+                  <v>0.0971045</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0227227</v>
+                  <v>0.10016</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0233788</v>
+                  <v>0.102369</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0243162</v>
+                  <v>0.105472</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0256636</v>
+                  <v>0.108186</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0275441</v>
+                  <v>0.110002</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0301356</v>
+                  <v>0.112754</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0341597</v>
+                  <v>0.115747</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0404667</v>
+                  <v>0.0811159</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0516123</v>
+                  <v>0.08591849999999999</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0209483</v>
+                  <v>0.0904712</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0212904</v>
+                  <v>0.094886</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0216414</v>
+                  <v>0.0995163</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0220066</v>
+                  <v>0.10423</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.022503</v>
+                  <v>0.108446</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0230597</v>
+                  <v>0.115564</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.023794</v>
+                  <v>0.120256</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.024724</v>
+                  <v>0.124687</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0259069</v>
+                  <v>0.130917</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0276355</v>
+                  <v>0.135851</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0302519</v>
+                  <v>0.141198</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0340355</v>
+                  <v>0.147703</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0396979</v>
+                  <v>0.111012</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.049477</v>
+                  <v>0.120113</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0212779</v>
+                  <v>0.124171</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0216341</v>
+                  <v>0.131036</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0219984</v>
+                  <v>0.138476</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0224363</v>
+                  <v>0.145921</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0229328</v>
+                  <v>0.154954</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0235783</v>
+                  <v>0.163989</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0244305</v>
+                  <v>0.168326</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0254418</v>
+                  <v>0.177149</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0267137</v>
+                  <v>0.182049</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0283454</v>
+                  <v>0.18983</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0308527</v>
+                  <v>0.198267</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0342322</v>
+                  <v>0.205699</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.03938</v>
+                  <v>0.155131</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.048197</v>
+                  <v>0.161371</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0229879</v>
+                  <v>0.167644</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0234516</v>
+                  <v>0.174382</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0240067</v>
+                  <v>0.180841</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0245912</v>
+                  <v>0.18713</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0253619</v>
+                  <v>0.194952</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0267537</v>
+                  <v>0.202006</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0289872</v>
+                  <v>0.210399</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0317781</v>
+                  <v>0.216909</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0350402</v>
+                  <v>0.225263</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0383243</v>
+                  <v>0.232957</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0415289</v>
+                  <v>0.240595</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0449303</v>
+                  <v>0.24943</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0491857</v>
+                  <v>0.259096</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0555259</v>
+                  <v>0.189204</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0351129</v>
+                  <v>0.195409</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0361988</v>
+                  <v>0.202101</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0370074</v>
+                  <v>0.208914</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0378667</v>
+                  <v>0.216123</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0385583</v>
+                  <v>0.223325</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0395869</v>
+                  <v>0.230562</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0406235</v>
+                  <v>0.23813</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0416052</v>
+                  <v>0.245517</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0428433</v>
+                  <v>0.253672</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0445415</v>
+                  <v>0.262325</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0464755</v>
+                  <v>0.270451</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0489272</v>
+                  <v>0.279981</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0526395</v>
+                  <v>0.288965</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0583473</v>
+                  <v>0.20558</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.06810819999999999</v>
+                  <v>0.211153</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0412799</v>
+                  <v>0.21773</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0422281</v>
+                  <v>0.224538</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0429276</v>
+                  <v>0.231602</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0439297</v>
+                  <v>0.239227</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0447307</v>
+                  <v>0.246785</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0457736</v>
+                  <v>0.254214</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0468762</v>
+                  <v>0.26216</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0480061</v>
+                  <v>0.269644</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0495994</v>
+                  <v>0.278269</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0516555</v>
+                  <v>0.28676</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0541823</v>
+                  <v>0.294905</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0578916</v>
+                  <v>0.304292</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0634131</v>
+                  <v>0.213434</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07260369999999999</v>
+                  <v>0.219307</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0591479</v>
+                  <v>0.226031</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0608915</v>
+                  <v>0.233449</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0603453</v>
+                  <v>0.239676</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0608767</v>
+                  <v>0.247679</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0620272</v>
+                  <v>0.255283</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0625593</v>
+                  <v>0.262438</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0640025</v>
+                  <v>0.270371</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0214076</v>
+                  <v>0.0216009</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0220449</v>
+                  <v>0.0221084</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0228814</v>
+                  <v>0.0230466</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0238445</v>
+                  <v>0.0244666</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0259967</v>
+                  <v>0.0265716</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0308818</v>
+                  <v>0.0306845</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0397899</v>
+                  <v>0.0377971</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0190868</v>
+                  <v>0.0191766</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0193166</v>
+                  <v>0.0193893</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0195902</v>
+                  <v>0.0197043</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0199197</v>
+                  <v>0.0200607</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202396</v>
+                  <v>0.0204068</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0206034</v>
+                  <v>0.0206994</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211027</v>
+                  <v>0.0212233</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.02181</v>
+                  <v>0.0219078</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0225325</v>
+                  <v>0.0227165</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0234089</v>
+                  <v>0.0235386</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0246829</v>
+                  <v>0.0248559</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0272518</v>
+                  <v>0.0272925</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0319929</v>
+                  <v>0.0311581</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0414377</v>
+                  <v>0.039445</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0188357</v>
+                  <v>0.0189417</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0191047</v>
+                  <v>0.0192166</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.019293</v>
+                  <v>0.0194402</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0195628</v>
+                  <v>0.01967</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020006</v>
+                  <v>0.0200648</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0203576</v>
+                  <v>0.0205084</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0209983</v>
+                  <v>0.0211482</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0216036</v>
+                  <v>0.0217413</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0224206</v>
+                  <v>0.0226275</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0234567</v>
+                  <v>0.023562</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0248701</v>
+                  <v>0.0249451</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0276153</v>
+                  <v>0.0273574</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0319171</v>
+                  <v>0.0311211</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0394712</v>
+                  <v>0.0379297</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0194612</v>
+                  <v>0.0194402</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.019774</v>
+                  <v>0.0197588</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0200997</v>
+                  <v>0.020083</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0204224</v>
+                  <v>0.0204271</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0207986</v>
+                  <v>0.020797</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0212501</v>
+                  <v>0.0212094</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0218422</v>
+                  <v>0.0218012</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0225976</v>
+                  <v>0.0225426</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.023464</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0247861</v>
+                  <v>0.0246526</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0263224</v>
+                  <v>0.0261541</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0291543</v>
+                  <v>0.0288267</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0329324</v>
+                  <v>0.0324146</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0390016</v>
+                  <v>0.0383102</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0204605</v>
+                  <v>0.0205245</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.020763</v>
+                  <v>0.0207576</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0211036</v>
+                  <v>0.0210818</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0214464</v>
+                  <v>0.0214063</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0218044</v>
+                  <v>0.0217707</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.02235</v>
+                  <v>0.0222808</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0228519</v>
+                  <v>0.0227865</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0235195</v>
+                  <v>0.0234609</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0244936</v>
+                  <v>0.0243803</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0258272</v>
+                  <v>0.0256999</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0276262</v>
+                  <v>0.0274345</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0303212</v>
+                  <v>0.0299708</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0343892</v>
+                  <v>0.0339134</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0407201</v>
+                  <v>0.0399682</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0517515</v>
+                  <v>0.0509853</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0210642</v>
+                  <v>0.0210663</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0214078</v>
+                  <v>0.0214128</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0217171</v>
+                  <v>0.0217044</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0221679</v>
+                  <v>0.0220793</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0225732</v>
+                  <v>0.0225101</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0231145</v>
+                  <v>0.0230847</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.023886</v>
+                  <v>0.0238389</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0248041</v>
+                  <v>0.0247061</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0260928</v>
+                  <v>0.0259229</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0279417</v>
+                  <v>0.027636</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0307152</v>
+                  <v>0.0300556</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0341993</v>
+                  <v>0.033803</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0399898</v>
+                  <v>0.0394898</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0497379</v>
+                  <v>0.0492793</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0218936</v>
+                  <v>0.0212983</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223402</v>
+                  <v>0.0216173</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0229967</v>
+                  <v>0.0220136</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0238374</v>
+                  <v>0.0224719</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0244912</v>
+                  <v>0.0229306</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0255432</v>
+                  <v>0.0235925</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0269618</v>
+                  <v>0.0244368</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0283241</v>
+                  <v>0.0254208</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0302692</v>
+                  <v>0.0267328</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0321612</v>
+                  <v>0.0283669</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0348082</v>
+                  <v>0.0308234</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0382122</v>
+                  <v>0.0342177</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0434233</v>
+                  <v>0.0393046</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0534129</v>
+                  <v>0.0481634</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0282249</v>
+                  <v>0.0230218</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.029139</v>
+                  <v>0.0235096</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.03133</v>
+                  <v>0.024067</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0341335</v>
+                  <v>0.0247073</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0381704</v>
+                  <v>0.0254037</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0428413</v>
+                  <v>0.0268593</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0471767</v>
+                  <v>0.0290853</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0508107</v>
+                  <v>0.0319312</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0541568</v>
+                  <v>0.0351347</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0573175</v>
+                  <v>0.0384163</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0605919</v>
+                  <v>0.0415243</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.06430470000000001</v>
+                  <v>0.0448445</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.06932820000000001</v>
+                  <v>0.049027</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.07656540000000001</v>
+                  <v>0.0554999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0513709</v>
+                  <v>0.0351618</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0528133</v>
+                  <v>0.0362013</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0541587</v>
+                  <v>0.0370039</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0555634</v>
+                  <v>0.0378586</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0569233</v>
+                  <v>0.0386194</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0585293</v>
+                  <v>0.0394682</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0602617</v>
+                  <v>0.040537</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0619037</v>
+                  <v>0.0416614</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0640491</v>
+                  <v>0.0430189</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0662812</v>
+                  <v>0.0444291</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.06915499999999999</v>
+                  <v>0.0463979</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.07276100000000001</v>
+                  <v>0.0489896</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.07756780000000001</v>
+                  <v>0.0528205</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0847301</v>
+                  <v>0.058274</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0960261</v>
+                  <v>0.06796190000000001</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0604808</v>
+                  <v>0.0403819</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0618613</v>
+                  <v>0.0411282</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0635545</v>
+                  <v>0.0420223</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0648304</v>
+                  <v>0.043459</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.06670520000000001</v>
+                  <v>0.0444712</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0683797</v>
+                  <v>0.0454145</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0702016</v>
+                  <v>0.0465307</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0724499</v>
+                  <v>0.0478298</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.07498920000000001</v>
+                  <v>0.0494071</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0779345</v>
+                  <v>0.0513635</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.081499</v>
+                  <v>0.0537652</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0866347</v>
+                  <v>0.0575184</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.09380090000000001</v>
+                  <v>0.06303880000000001</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.105376</v>
+                  <v>0.0724042</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0789271</v>
+                  <v>0.0589715</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0802612</v>
+                  <v>0.0597273</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.08157540000000001</v>
+                  <v>0.0603338</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0829015</v>
+                  <v>0.0607136</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0845514</v>
+                  <v>0.0616614</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.08594209999999999</v>
+                  <v>0.0623911</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0877042</v>
+                  <v>0.0637191</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0213731</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0219128</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0229614</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0237155</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.025576</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.029993</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0372132</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0191559</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0193448</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0196525</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0200966</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0202894</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0206235</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0211043</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0218162</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0225323</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.023233</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0243677</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0267946</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0309274</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0396682</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0188515</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0191092</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0193229</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0195956</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0199672</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0203555</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0210076</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0216355</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0223774</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0233702</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0247201</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0272634</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0312534</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0380069</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0194619</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0197841</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0201213</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0204515</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0207924</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.021191</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0218251</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0226156</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.0234105</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0246226</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0262507</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0288559</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0324919</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0384891</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0204688</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0207663</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0210612</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0213982</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0217859</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0222653</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0228454</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0235124</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0243594</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0256987</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0274883</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0300593</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0340648</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0401741</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0512194</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0210961</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0213836</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0217762</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0220643</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0226375</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0232502</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0239062</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0248356</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.026065</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0279232</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0305011</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0343393</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0399486</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0496558</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0218532</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0222095</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0228944</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0236355</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0243062</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0253495</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0267319</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0282859</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0299437</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0317743</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0345472</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0380622</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0432275</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0531484</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0281559</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.0293133</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.031368</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0340943</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.0378803</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.0424448</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0466268</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0506328</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0540476</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.0572826</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0607623</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.0644699</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.0693695</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.0764777</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0511115</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.05263</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0540065</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0553181</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0566814</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0582196</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.0599567</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0618321</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0637921</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.0661122</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.0689598</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.0725898</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.077532</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.08458259999999999</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.0955395</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.0601745</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.0615969</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.0631738</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.06469229999999999</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.06635340000000001</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.0679819</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.0698984</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.0721822</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.07472959999999999</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.0777127</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.08139440000000001</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.0863636</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.0936022</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.104572</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.0791782</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.0801432</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.0817592</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.0831262</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.0843787</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.0859061</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.0897927</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0328966</v>
+        <v>0.032987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0333574</v>
+        <v>0.0333128</v>
       </c>
       <c r="D2" t="n">
-        <v>0.118485</v>
+        <v>0.11821</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0312277</v>
+        <v>0.0312959</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0289463</v>
+        <v>0.0287897</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0353305</v>
+        <v>0.0351541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0352775</v>
+        <v>0.0348974</v>
       </c>
       <c r="D3" t="n">
-        <v>0.123394</v>
+        <v>0.123072</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0317944</v>
+        <v>0.0318869</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0295861</v>
+        <v>0.0294592</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.037945</v>
+        <v>0.0380135</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0370941</v>
+        <v>0.0369014</v>
       </c>
       <c r="D4" t="n">
-        <v>0.130576</v>
+        <v>0.128297</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0330612</v>
+        <v>0.0330196</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0309989</v>
+        <v>0.03084</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0443974</v>
+        <v>0.044546</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0438691</v>
+        <v>0.0434666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13569</v>
+        <v>0.134494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0346661</v>
+        <v>0.0347996</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0324387</v>
+        <v>0.0323035</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0539866</v>
+        <v>0.0539281</v>
       </c>
       <c r="C6" t="n">
-        <v>0.053726</v>
+        <v>0.0540555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.141621</v>
+        <v>0.139039</v>
       </c>
       <c r="E6" t="n">
-        <v>0.037462</v>
+        <v>0.0375653</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0354091</v>
+        <v>0.0352845</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07820009999999999</v>
+        <v>0.078039</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07681350000000001</v>
+        <v>0.07726959999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0968676</v>
+        <v>0.0958517</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0436602</v>
+        <v>0.0440635</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0409971</v>
+        <v>0.0407735</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.102884</v>
+        <v>0.102486</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113658</v>
+        <v>0.113665</v>
       </c>
       <c r="D8" t="n">
-        <v>0.103006</v>
+        <v>0.102712</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0571142</v>
+        <v>0.0576823</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0538963</v>
+        <v>0.0535733</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145664</v>
+        <v>0.14576</v>
       </c>
       <c r="C9" t="n">
-        <v>0.155488</v>
+        <v>0.155145</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109462</v>
+        <v>0.10941</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0287585</v>
+        <v>0.0286553</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0262751</v>
+        <v>0.0260603</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0309223</v>
+        <v>0.030745</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0314</v>
+        <v>0.0307706</v>
       </c>
       <c r="D10" t="n">
-        <v>0.11553</v>
+        <v>0.115958</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0289998</v>
+        <v>0.028899</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0265587</v>
+        <v>0.0263324</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0315686</v>
+        <v>0.0314208</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0319672</v>
+        <v>0.0315192</v>
       </c>
       <c r="D11" t="n">
-        <v>0.121315</v>
+        <v>0.121364</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0292707</v>
+        <v>0.02919</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0269661</v>
+        <v>0.0267088</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0317361</v>
+        <v>0.0315457</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0325005</v>
+        <v>0.0320708</v>
       </c>
       <c r="D12" t="n">
-        <v>0.125193</v>
+        <v>0.125332</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0297633</v>
+        <v>0.029679</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0274881</v>
+        <v>0.0272993</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0324799</v>
+        <v>0.0323256</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0338379</v>
+        <v>0.0333422</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131078</v>
+        <v>0.131196</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0300182</v>
+        <v>0.0299485</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0278968</v>
+        <v>0.02771</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0336926</v>
+        <v>0.0334185</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0345481</v>
+        <v>0.0339907</v>
       </c>
       <c r="D14" t="n">
-        <v>0.136148</v>
+        <v>0.13606</v>
       </c>
       <c r="E14" t="n">
-        <v>0.030374</v>
+        <v>0.0303077</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0283143</v>
+        <v>0.028196</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0348447</v>
+        <v>0.0346371</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0360295</v>
+        <v>0.0355438</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140447</v>
+        <v>0.140596</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0310066</v>
+        <v>0.0309685</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0291657</v>
+        <v>0.0289489</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03655</v>
+        <v>0.036394</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0376947</v>
+        <v>0.0375574</v>
       </c>
       <c r="D16" t="n">
-        <v>0.144599</v>
+        <v>0.14411</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0318524</v>
+        <v>0.0317443</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0301732</v>
+        <v>0.0299628</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0391178</v>
+        <v>0.0389158</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0401299</v>
+        <v>0.0397127</v>
       </c>
       <c r="D17" t="n">
-        <v>0.149088</v>
+        <v>0.148818</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0328184</v>
+        <v>0.0327844</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0312353</v>
+        <v>0.0312539</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0431601</v>
+        <v>0.0428563</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0436532</v>
+        <v>0.0434359</v>
       </c>
       <c r="D18" t="n">
-        <v>0.153531</v>
+        <v>0.153261</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0339319</v>
+        <v>0.033835</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0325778</v>
+        <v>0.0323811</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0500361</v>
+        <v>0.0500003</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05173</v>
+        <v>0.0516259</v>
       </c>
       <c r="D19" t="n">
-        <v>0.157385</v>
+        <v>0.157056</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0356851</v>
+        <v>0.0355293</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0343799</v>
+        <v>0.0340479</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0650959</v>
+        <v>0.06502479999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0636626</v>
+        <v>0.06345389999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.161269</v>
+        <v>0.161064</v>
       </c>
       <c r="E20" t="n">
-        <v>0.039069</v>
+        <v>0.0389881</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0379237</v>
+        <v>0.0377692</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0830448</v>
+        <v>0.08282920000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0820589</v>
+        <v>0.081689</v>
       </c>
       <c r="D21" t="n">
-        <v>0.114519</v>
+        <v>0.114678</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0453436</v>
+        <v>0.0453687</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0438629</v>
+        <v>0.043586</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.112274</v>
+        <v>0.112013</v>
       </c>
       <c r="C22" t="n">
-        <v>0.113781</v>
+        <v>0.113236</v>
       </c>
       <c r="D22" t="n">
-        <v>0.120117</v>
+        <v>0.119564</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0607034</v>
+        <v>0.0605232</v>
       </c>
       <c r="F22" t="n">
-        <v>0.058513</v>
+        <v>0.0581282</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152667</v>
+        <v>0.152317</v>
       </c>
       <c r="C23" t="n">
-        <v>0.148151</v>
+        <v>0.148368</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124537</v>
+        <v>0.124503</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0287188</v>
+        <v>0.028654</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0270266</v>
+        <v>0.0270225</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.032869</v>
+        <v>0.0330076</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0348359</v>
+        <v>0.0353072</v>
       </c>
       <c r="D24" t="n">
-        <v>0.130273</v>
+        <v>0.129605</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02899</v>
+        <v>0.0289393</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0274738</v>
+        <v>0.0276348</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0333935</v>
+        <v>0.0334965</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0356992</v>
+        <v>0.0362251</v>
       </c>
       <c r="D25" t="n">
-        <v>0.13445</v>
+        <v>0.134151</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0292871</v>
+        <v>0.0291941</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0279228</v>
+        <v>0.0281214</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0341774</v>
+        <v>0.034156</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0366592</v>
+        <v>0.0374216</v>
       </c>
       <c r="D26" t="n">
-        <v>0.138564</v>
+        <v>0.138285</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0295827</v>
+        <v>0.02952</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0283417</v>
+        <v>0.02868</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0347276</v>
+        <v>0.0348726</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0378616</v>
+        <v>0.0384949</v>
       </c>
       <c r="D27" t="n">
-        <v>0.143391</v>
+        <v>0.143011</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0300958</v>
+        <v>0.0300021</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0291626</v>
+        <v>0.0294603</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0355657</v>
+        <v>0.0357269</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0391205</v>
+        <v>0.039783</v>
       </c>
       <c r="D28" t="n">
-        <v>0.147406</v>
+        <v>0.147501</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0305822</v>
+        <v>0.030507</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0296513</v>
+        <v>0.0303204</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0372715</v>
+        <v>0.03732</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0405261</v>
+        <v>0.0412186</v>
       </c>
       <c r="D29" t="n">
-        <v>0.15194</v>
+        <v>0.151647</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0313227</v>
+        <v>0.0313031</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0306591</v>
+        <v>0.0314095</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0389441</v>
+        <v>0.039116</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0424643</v>
+        <v>0.0431248</v>
       </c>
       <c r="D30" t="n">
-        <v>0.156303</v>
+        <v>0.155682</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0321189</v>
+        <v>0.0320435</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0315164</v>
+        <v>0.0323239</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0420496</v>
+        <v>0.0420861</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0457396</v>
+        <v>0.0462209</v>
       </c>
       <c r="D31" t="n">
-        <v>0.160191</v>
+        <v>0.15987</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0331674</v>
+        <v>0.0331881</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0328196</v>
+        <v>0.0336477</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0464859</v>
+        <v>0.0465667</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0497836</v>
+        <v>0.0501982</v>
       </c>
       <c r="D32" t="n">
-        <v>0.163347</v>
+        <v>0.16285</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0344233</v>
+        <v>0.0344034</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0340535</v>
+        <v>0.0349223</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0531037</v>
+        <v>0.053189</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0561335</v>
+        <v>0.0563804</v>
       </c>
       <c r="D33" t="n">
-        <v>0.167315</v>
+        <v>0.166958</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0362593</v>
+        <v>0.0362587</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0360218</v>
+        <v>0.0369201</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0630143</v>
+        <v>0.0629837</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0655616</v>
+        <v>0.0656572</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171497</v>
+        <v>0.170736</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0397297</v>
+        <v>0.0397514</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0393096</v>
+        <v>0.0402637</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08067530000000001</v>
+        <v>0.08073130000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08210580000000001</v>
+        <v>0.0827927</v>
       </c>
       <c r="D35" t="n">
-        <v>0.119052</v>
+        <v>0.119039</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0463406</v>
+        <v>0.0462663</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0456379</v>
+        <v>0.0460983</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.10229</v>
+        <v>0.10186</v>
       </c>
       <c r="C36" t="n">
-        <v>0.101762</v>
+        <v>0.101744</v>
       </c>
       <c r="D36" t="n">
-        <v>0.123733</v>
+        <v>0.123574</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0574698</v>
+        <v>0.0574022</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0558058</v>
+        <v>0.0560637</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.136188</v>
+        <v>0.1358</v>
       </c>
       <c r="C37" t="n">
-        <v>0.136044</v>
+        <v>0.134858</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128362</v>
+        <v>0.128163</v>
       </c>
       <c r="E37" t="n">
-        <v>0.028996</v>
+        <v>0.0290482</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0291649</v>
+        <v>0.0292268</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0332588</v>
+        <v>0.0335612</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0376463</v>
+        <v>0.0382099</v>
       </c>
       <c r="D38" t="n">
-        <v>0.133367</v>
+        <v>0.13325</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0293987</v>
+        <v>0.0292698</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0297707</v>
+        <v>0.0298062</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0340544</v>
+        <v>0.0341669</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0383685</v>
+        <v>0.0388822</v>
       </c>
       <c r="D39" t="n">
-        <v>0.137891</v>
+        <v>0.137898</v>
       </c>
       <c r="E39" t="n">
-        <v>0.029755</v>
+        <v>0.0297239</v>
       </c>
       <c r="F39" t="n">
-        <v>0.029552</v>
+        <v>0.0302767</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0350029</v>
+        <v>0.0351751</v>
       </c>
       <c r="C40" t="n">
-        <v>0.039471</v>
+        <v>0.0398697</v>
       </c>
       <c r="D40" t="n">
-        <v>0.142698</v>
+        <v>0.142256</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0300781</v>
+        <v>0.0301464</v>
       </c>
       <c r="F40" t="n">
-        <v>0.030958</v>
+        <v>0.0308062</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0355469</v>
+        <v>0.0358513</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0406071</v>
+        <v>0.0408374</v>
       </c>
       <c r="D41" t="n">
-        <v>0.146882</v>
+        <v>0.146518</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0305659</v>
+        <v>0.0304935</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0316147</v>
+        <v>0.0313628</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0369383</v>
+        <v>0.0371792</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0416052</v>
+        <v>0.0418878</v>
       </c>
       <c r="D42" t="n">
-        <v>0.151232</v>
+        <v>0.150797</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0310546</v>
+        <v>0.0310467</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0317333</v>
+        <v>0.0322509</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0384442</v>
+        <v>0.0385792</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0432104</v>
+        <v>0.0434175</v>
       </c>
       <c r="D43" t="n">
-        <v>0.155835</v>
+        <v>0.155102</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0318872</v>
+        <v>0.031705</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0332991</v>
+        <v>0.0329795</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0402184</v>
+        <v>0.0403608</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0453224</v>
+        <v>0.0455045</v>
       </c>
       <c r="D44" t="n">
-        <v>0.159582</v>
+        <v>0.159067</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0328551</v>
+        <v>0.0325718</v>
       </c>
       <c r="F44" t="n">
-        <v>0.033733</v>
+        <v>0.0340383</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0433579</v>
+        <v>0.0433907</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0478803</v>
+        <v>0.0479664</v>
       </c>
       <c r="D45" t="n">
-        <v>0.163247</v>
+        <v>0.162634</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0337622</v>
+        <v>0.0337473</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0350147</v>
+        <v>0.035136</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0471814</v>
+        <v>0.0472768</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0515823</v>
+        <v>0.051682</v>
       </c>
       <c r="D46" t="n">
-        <v>0.166933</v>
+        <v>0.166533</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0352407</v>
+        <v>0.0350658</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0364559</v>
+        <v>0.0366267</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0534598</v>
+        <v>0.0536189</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0571416</v>
+        <v>0.0571836</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170926</v>
+        <v>0.170744</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0371898</v>
+        <v>0.0370989</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0382905</v>
+        <v>0.0383902</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06262620000000001</v>
+        <v>0.0626727</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0657577</v>
+        <v>0.06575780000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.175114</v>
+        <v>0.174855</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0410612</v>
+        <v>0.0408872</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0416737</v>
+        <v>0.041671</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0744838</v>
+        <v>0.07443370000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07753690000000001</v>
+        <v>0.07750840000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.179577</v>
+        <v>0.17885</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0463791</v>
+        <v>0.046257</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0464787</v>
+        <v>0.0465264</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0955728</v>
+        <v>0.09517059999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09616130000000001</v>
+        <v>0.0962631</v>
       </c>
       <c r="D50" t="n">
-        <v>0.125171</v>
+        <v>0.125249</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0547057</v>
+        <v>0.0546749</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0540947</v>
+        <v>0.0539766</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.126177</v>
+        <v>0.125241</v>
       </c>
       <c r="C51" t="n">
-        <v>0.128183</v>
+        <v>0.126998</v>
       </c>
       <c r="D51" t="n">
-        <v>0.129835</v>
+        <v>0.129946</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0309175</v>
+        <v>0.0306967</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0328837</v>
+        <v>0.0320375</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.171792</v>
+        <v>0.169869</v>
       </c>
       <c r="C52" t="n">
-        <v>0.175108</v>
+        <v>0.17326</v>
       </c>
       <c r="D52" t="n">
-        <v>0.134743</v>
+        <v>0.134664</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0311311</v>
+        <v>0.0312504</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0333627</v>
+        <v>0.0324951</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0363579</v>
+        <v>0.0354877</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0413237</v>
+        <v>0.041466</v>
       </c>
       <c r="D53" t="n">
-        <v>0.139244</v>
+        <v>0.139239</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0311306</v>
+        <v>0.0317713</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0338624</v>
+        <v>0.0329201</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.037103</v>
+        <v>0.0365363</v>
       </c>
       <c r="C54" t="n">
-        <v>0.042192</v>
+        <v>0.0422591</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144227</v>
+        <v>0.144179</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0322939</v>
+        <v>0.0312981</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0342113</v>
+        <v>0.0333149</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0380599</v>
+        <v>0.0375313</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0429998</v>
+        <v>0.0430603</v>
       </c>
       <c r="D55" t="n">
-        <v>0.148702</v>
+        <v>0.148587</v>
       </c>
       <c r="E55" t="n">
-        <v>0.03208</v>
+        <v>0.0329458</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0350101</v>
+        <v>0.0339668</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0393058</v>
+        <v>0.0387243</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0442968</v>
+        <v>0.0444742</v>
       </c>
       <c r="D56" t="n">
-        <v>0.153367</v>
+        <v>0.15319</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0331426</v>
+        <v>0.032269</v>
       </c>
       <c r="F56" t="n">
-        <v>0.035567</v>
+        <v>0.0345657</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04054</v>
+        <v>0.0399959</v>
       </c>
       <c r="C57" t="n">
-        <v>0.045608</v>
+        <v>0.045779</v>
       </c>
       <c r="D57" t="n">
-        <v>0.157814</v>
+        <v>0.157351</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0345307</v>
+        <v>0.0336752</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0364335</v>
+        <v>0.0356051</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0425128</v>
+        <v>0.0420849</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0476507</v>
+        <v>0.0478965</v>
       </c>
       <c r="D58" t="n">
-        <v>0.161953</v>
+        <v>0.161673</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0350818</v>
+        <v>0.0337356</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0364501</v>
+        <v>0.0362229</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.045411</v>
+        <v>0.0447437</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0501805</v>
+        <v>0.0501632</v>
       </c>
       <c r="D59" t="n">
-        <v>0.165664</v>
+        <v>0.165252</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0352645</v>
+        <v>0.0350412</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0377119</v>
+        <v>0.0375222</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0493794</v>
+        <v>0.0488698</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0536934</v>
+        <v>0.053715</v>
       </c>
       <c r="D60" t="n">
-        <v>0.170131</v>
+        <v>0.169443</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0374206</v>
+        <v>0.0373443</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0400768</v>
+        <v>0.0387144</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0542835</v>
+        <v>0.0537516</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0590407</v>
+        <v>0.0582849</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174117</v>
+        <v>0.173854</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0387409</v>
+        <v>0.0383636</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0410531</v>
+        <v>0.0415219</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06267109999999999</v>
+        <v>0.0623633</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0669454</v>
+        <v>0.06668880000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.178083</v>
+        <v>0.177974</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0420032</v>
+        <v>0.041683</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0449307</v>
+        <v>0.0442013</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0737796</v>
+        <v>0.0734393</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0772842</v>
+        <v>0.0766501</v>
       </c>
       <c r="D63" t="n">
-        <v>0.182402</v>
+        <v>0.18276</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0472003</v>
+        <v>0.0468063</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0489171</v>
+        <v>0.0485209</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09376669999999999</v>
+        <v>0.09304469999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0944709</v>
+        <v>0.09381879999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.134563</v>
+        <v>0.131219</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0551693</v>
+        <v>0.0550909</v>
       </c>
       <c r="F64" t="n">
-        <v>0.056658</v>
+        <v>0.055942</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.120442</v>
+        <v>0.118983</v>
       </c>
       <c r="C65" t="n">
-        <v>0.122583</v>
+        <v>0.120859</v>
       </c>
       <c r="D65" t="n">
-        <v>0.139114</v>
+        <v>0.137592</v>
       </c>
       <c r="E65" t="n">
-        <v>0.06976350000000001</v>
+        <v>0.0685413</v>
       </c>
       <c r="F65" t="n">
-        <v>0.069675</v>
+        <v>0.068662</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.164244</v>
+        <v>0.16121</v>
       </c>
       <c r="C66" t="n">
-        <v>0.166577</v>
+        <v>0.163056</v>
       </c>
       <c r="D66" t="n">
-        <v>0.148054</v>
+        <v>0.145086</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0363695</v>
+        <v>0.0364375</v>
       </c>
       <c r="F66" t="n">
-        <v>0.038856</v>
+        <v>0.0391857</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0410362</v>
+        <v>0.0414376</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0488964</v>
+        <v>0.0491421</v>
       </c>
       <c r="D67" t="n">
-        <v>0.156117</v>
+        <v>0.150718</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0366276</v>
+        <v>0.0364174</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0394749</v>
+        <v>0.0398166</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0415397</v>
+        <v>0.0415466</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0501404</v>
+        <v>0.0502812</v>
       </c>
       <c r="D68" t="n">
-        <v>0.163693</v>
+        <v>0.159804</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0369839</v>
+        <v>0.0373123</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0401202</v>
+        <v>0.0403752</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0426654</v>
+        <v>0.0427545</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0513479</v>
+        <v>0.0515332</v>
       </c>
       <c r="D69" t="n">
-        <v>0.175096</v>
+        <v>0.167316</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0375016</v>
+        <v>0.0374685</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0408046</v>
+        <v>0.041068</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0439149</v>
+        <v>0.0438375</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0528437</v>
+        <v>0.0529243</v>
       </c>
       <c r="D70" t="n">
-        <v>0.184211</v>
+        <v>0.1757</v>
       </c>
       <c r="E70" t="n">
-        <v>0.037999</v>
+        <v>0.0380765</v>
       </c>
       <c r="F70" t="n">
-        <v>0.041581</v>
+        <v>0.0418556</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0448207</v>
+        <v>0.0447457</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0548546</v>
+        <v>0.0546494</v>
       </c>
       <c r="D71" t="n">
-        <v>0.194057</v>
+        <v>0.186564</v>
       </c>
       <c r="E71" t="n">
-        <v>0.038666</v>
+        <v>0.038277</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0427022</v>
+        <v>0.0427678</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0466305</v>
+        <v>0.0465875</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0571259</v>
+        <v>0.0565117</v>
       </c>
       <c r="D72" t="n">
-        <v>0.204304</v>
+        <v>0.195288</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0394488</v>
+        <v>0.0390725</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0437058</v>
+        <v>0.0437411</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0488261</v>
+        <v>0.0487039</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0600542</v>
+        <v>0.0588623</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215871</v>
+        <v>0.205365</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0404264</v>
+        <v>0.0400036</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0449509</v>
+        <v>0.0449261</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0521711</v>
+        <v>0.0520753</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0644781</v>
+        <v>0.0624328</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226706</v>
+        <v>0.218169</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0417231</v>
+        <v>0.0416114</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0466312</v>
+        <v>0.0464135</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0572631</v>
+        <v>0.0569391</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0693405</v>
+        <v>0.0670834</v>
       </c>
       <c r="D75" t="n">
-        <v>0.239346</v>
+        <v>0.229984</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0433861</v>
+        <v>0.0433291</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0487618</v>
+        <v>0.0485174</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0646115</v>
+        <v>0.06397650000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07763780000000001</v>
+        <v>0.0742197</v>
       </c>
       <c r="D76" t="n">
-        <v>0.253314</v>
+        <v>0.243705</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0463825</v>
+        <v>0.0462011</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0518951</v>
+        <v>0.0516805</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0753479</v>
+        <v>0.07450950000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0906868</v>
+        <v>0.0849097</v>
       </c>
       <c r="D77" t="n">
-        <v>0.269217</v>
+        <v>0.258112</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0509452</v>
+        <v>0.0506718</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0566824</v>
+        <v>0.0560539</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0918359</v>
+        <v>0.089892</v>
       </c>
       <c r="C78" t="n">
-        <v>0.10996</v>
+        <v>0.100992</v>
       </c>
       <c r="D78" t="n">
-        <v>0.232662</v>
+        <v>0.215857</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0581655</v>
+        <v>0.0579662</v>
       </c>
       <c r="F78" t="n">
-        <v>0.06442299999999999</v>
+        <v>0.0627697</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.11966</v>
+        <v>0.115959</v>
       </c>
       <c r="C79" t="n">
-        <v>0.139856</v>
+        <v>0.130227</v>
       </c>
       <c r="D79" t="n">
-        <v>0.245688</v>
+        <v>0.229534</v>
       </c>
       <c r="E79" t="n">
-        <v>0.07092950000000001</v>
+        <v>0.06938370000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0767386</v>
+        <v>0.07363989999999999</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.159796</v>
+        <v>0.154326</v>
       </c>
       <c r="C80" t="n">
-        <v>0.185846</v>
+        <v>0.174744</v>
       </c>
       <c r="D80" t="n">
-        <v>0.259733</v>
+        <v>0.242112</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0402457</v>
+        <v>0.0403104</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0456432</v>
+        <v>0.044144</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0473899</v>
+        <v>0.0464333</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0639941</v>
+        <v>0.0578006</v>
       </c>
       <c r="D81" t="n">
-        <v>0.274479</v>
+        <v>0.254802</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0410094</v>
+        <v>0.0406039</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0463294</v>
+        <v>0.0447204</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0487892</v>
+        <v>0.0473609</v>
       </c>
       <c r="C82" t="n">
-        <v>0.06778430000000001</v>
+        <v>0.0601376</v>
       </c>
       <c r="D82" t="n">
-        <v>0.289138</v>
+        <v>0.268068</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0414424</v>
+        <v>0.041259</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0481745</v>
+        <v>0.0456256</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0508095</v>
+        <v>0.0482196</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0723265</v>
+        <v>0.06294039999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.303366</v>
+        <v>0.281514</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0423612</v>
+        <v>0.041601</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0498395</v>
+        <v>0.0465473</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0530546</v>
+        <v>0.0493914</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0777486</v>
+        <v>0.066687</v>
       </c>
       <c r="D84" t="n">
-        <v>0.318242</v>
+        <v>0.29567</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0434408</v>
+        <v>0.0422559</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0519484</v>
+        <v>0.0476507</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0559153</v>
+        <v>0.0509904</v>
       </c>
       <c r="C85" t="n">
-        <v>0.08348120000000001</v>
+        <v>0.0720663</v>
       </c>
       <c r="D85" t="n">
-        <v>0.334499</v>
+        <v>0.309627</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0443724</v>
+        <v>0.0429007</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0545533</v>
+        <v>0.0486179</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0595911</v>
+        <v>0.0528862</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0907979</v>
+        <v>0.0787018</v>
       </c>
       <c r="D86" t="n">
-        <v>0.350631</v>
+        <v>0.323668</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0461777</v>
+        <v>0.0437373</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0580108</v>
+        <v>0.0506193</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0638228</v>
+        <v>0.0556636</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0991155</v>
+        <v>0.0869771</v>
       </c>
       <c r="D87" t="n">
-        <v>0.367258</v>
+        <v>0.338449</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0486126</v>
+        <v>0.0445917</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0622204</v>
+        <v>0.052952</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06917130000000001</v>
+        <v>0.0596999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.108585</v>
+        <v>0.0963054</v>
       </c>
       <c r="D88" t="n">
-        <v>0.384326</v>
+        <v>0.353809</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0513237</v>
+        <v>0.0466051</v>
       </c>
       <c r="F88" t="n">
-        <v>0.06793200000000001</v>
+        <v>0.0571364</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0771607</v>
+        <v>0.06543889999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.120222</v>
+        <v>0.108917</v>
       </c>
       <c r="D89" t="n">
-        <v>0.402169</v>
+        <v>0.369749</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0554999</v>
+        <v>0.0488325</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0734865</v>
+        <v>0.0616428</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0865557</v>
+        <v>0.0738572</v>
       </c>
       <c r="C90" t="n">
-        <v>0.134329</v>
+        <v>0.126103</v>
       </c>
       <c r="D90" t="n">
-        <v>0.421412</v>
+        <v>0.386692</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0609193</v>
+        <v>0.052304</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0811615</v>
+        <v>0.0693603</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.100523</v>
+        <v>0.0858541</v>
       </c>
       <c r="C91" t="n">
-        <v>0.150594</v>
+        <v>0.144286</v>
       </c>
       <c r="D91" t="n">
-        <v>0.440969</v>
+        <v>0.404023</v>
       </c>
       <c r="E91" t="n">
-        <v>0.06788569999999999</v>
+        <v>0.0579153</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0906975</v>
+        <v>0.07829270000000001</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.11631</v>
+        <v>0.102878</v>
       </c>
       <c r="C92" t="n">
-        <v>0.174865</v>
+        <v>0.168732</v>
       </c>
       <c r="D92" t="n">
-        <v>0.359242</v>
+        <v>0.326915</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0766049</v>
+        <v>0.0658521</v>
       </c>
       <c r="F92" t="n">
-        <v>0.101203</v>
+        <v>0.09185400000000001</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.14011</v>
+        <v>0.12785</v>
       </c>
       <c r="C93" t="n">
-        <v>0.207481</v>
+        <v>0.199856</v>
       </c>
       <c r="D93" t="n">
-        <v>0.371451</v>
+        <v>0.337202</v>
       </c>
       <c r="E93" t="n">
-        <v>0.08977350000000001</v>
+        <v>0.0791497</v>
       </c>
       <c r="F93" t="n">
-        <v>0.117852</v>
+        <v>0.109599</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.176272</v>
+        <v>0.164548</v>
       </c>
       <c r="C94" t="n">
-        <v>0.252194</v>
+        <v>0.24035</v>
       </c>
       <c r="D94" t="n">
-        <v>0.383813</v>
+        <v>0.348645</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0520427</v>
+        <v>0.0447062</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0672719</v>
+        <v>0.0564028</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.069145</v>
+        <v>0.0584564</v>
       </c>
       <c r="C95" t="n">
-        <v>0.105884</v>
+        <v>0.103172</v>
       </c>
       <c r="D95" t="n">
-        <v>0.39686</v>
+        <v>0.360317</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0541572</v>
+        <v>0.0456958</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0710119</v>
+        <v>0.059737</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.07301530000000001</v>
+        <v>0.0619939</v>
       </c>
       <c r="C96" t="n">
-        <v>0.111559</v>
+        <v>0.111605</v>
       </c>
       <c r="D96" t="n">
-        <v>0.410109</v>
+        <v>0.372257</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0561078</v>
+        <v>0.0471555</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0737656</v>
+        <v>0.063925</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0757823</v>
+        <v>0.0661313</v>
       </c>
       <c r="C97" t="n">
-        <v>0.117528</v>
+        <v>0.120368</v>
       </c>
       <c r="D97" t="n">
-        <v>0.423703</v>
+        <v>0.3846</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0576912</v>
+        <v>0.0491905</v>
       </c>
       <c r="F97" t="n">
-        <v>0.077252</v>
+        <v>0.069665</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07929360000000001</v>
+        <v>0.07056030000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.124657</v>
+        <v>0.128498</v>
       </c>
       <c r="D98" t="n">
-        <v>0.437677</v>
+        <v>0.397047</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0605307</v>
+        <v>0.0516066</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0809632</v>
+        <v>0.0748896</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0830819</v>
+        <v>0.0761266</v>
       </c>
       <c r="C99" t="n">
-        <v>0.133065</v>
+        <v>0.136508</v>
       </c>
       <c r="D99" t="n">
-        <v>0.452597</v>
+        <v>0.410486</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0624174</v>
+        <v>0.0544793</v>
       </c>
       <c r="F99" t="n">
-        <v>0.084095</v>
+        <v>0.081747</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0867342</v>
+        <v>0.0817238</v>
       </c>
       <c r="C100" t="n">
-        <v>0.141951</v>
+        <v>0.144088</v>
       </c>
       <c r="D100" t="n">
-        <v>0.468133</v>
+        <v>0.42424</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0649208</v>
+        <v>0.0575681</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0879104</v>
+        <v>0.087991</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0906228</v>
+        <v>0.0881753</v>
       </c>
       <c r="C101" t="n">
-        <v>0.152752</v>
+        <v>0.151962</v>
       </c>
       <c r="D101" t="n">
-        <v>0.483967</v>
+        <v>0.438674</v>
       </c>
       <c r="E101" t="n">
-        <v>0.066915</v>
+        <v>0.0613291</v>
       </c>
       <c r="F101" t="n">
-        <v>0.092295</v>
+        <v>0.0949387</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09583650000000001</v>
+        <v>0.0949363</v>
       </c>
       <c r="C102" t="n">
-        <v>0.164316</v>
+        <v>0.160067</v>
       </c>
       <c r="D102" t="n">
-        <v>0.500961</v>
+        <v>0.453978</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0694273</v>
+        <v>0.065688</v>
       </c>
       <c r="F102" t="n">
-        <v>0.096983</v>
+        <v>0.102133</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.102399</v>
+        <v>0.103065</v>
       </c>
       <c r="C103" t="n">
-        <v>0.176906</v>
+        <v>0.169779</v>
       </c>
       <c r="D103" t="n">
-        <v>0.518687</v>
+        <v>0.469623</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0731888</v>
+        <v>0.0703787</v>
       </c>
       <c r="F103" t="n">
-        <v>0.103188</v>
+        <v>0.10866</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.110917</v>
+        <v>0.112236</v>
       </c>
       <c r="C104" t="n">
-        <v>0.191117</v>
+        <v>0.181209</v>
       </c>
       <c r="D104" t="n">
-        <v>0.536918</v>
+        <v>0.486248</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0773834</v>
+        <v>0.07614020000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>0.111861</v>
+        <v>0.116684</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.122615</v>
+        <v>0.123006</v>
       </c>
       <c r="C105" t="n">
-        <v>0.208876</v>
+        <v>0.19612</v>
       </c>
       <c r="D105" t="n">
-        <v>0.555412</v>
+        <v>0.503905</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0832754</v>
+        <v>0.08289680000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>0.122331</v>
+        <v>0.124505</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.139072</v>
+        <v>0.137296</v>
       </c>
       <c r="C106" t="n">
-        <v>0.230838</v>
+        <v>0.215588</v>
       </c>
       <c r="D106" t="n">
-        <v>0.574589</v>
+        <v>0.52157</v>
       </c>
       <c r="E106" t="n">
-        <v>0.091098</v>
+        <v>0.0917813</v>
       </c>
       <c r="F106" t="n">
-        <v>0.13675</v>
+        <v>0.136028</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.162329</v>
+        <v>0.157859</v>
       </c>
       <c r="C107" t="n">
-        <v>0.260206</v>
+        <v>0.241938</v>
       </c>
       <c r="D107" t="n">
-        <v>0.436665</v>
+        <v>0.393938</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1038</v>
+        <v>0.104007</v>
       </c>
       <c r="F107" t="n">
-        <v>0.156118</v>
+        <v>0.151658</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.194949</v>
+        <v>0.186804</v>
       </c>
       <c r="C108" t="n">
-        <v>0.302341</v>
+        <v>0.280573</v>
       </c>
       <c r="D108" t="n">
-        <v>0.448956</v>
+        <v>0.404297</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0615118</v>
+        <v>0.0637368</v>
       </c>
       <c r="F108" t="n">
-        <v>0.08387559999999999</v>
+        <v>0.09146799999999999</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.243974</v>
+        <v>0.231993</v>
       </c>
       <c r="C109" t="n">
-        <v>0.368893</v>
+        <v>0.343149</v>
       </c>
       <c r="D109" t="n">
-        <v>0.461176</v>
+        <v>0.415222</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0621303</v>
+        <v>0.0659868</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0876603</v>
+        <v>0.0948302</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0848217</v>
+        <v>0.0910526</v>
       </c>
       <c r="C110" t="n">
-        <v>0.152264</v>
+        <v>0.144661</v>
       </c>
       <c r="D110" t="n">
-        <v>0.473374</v>
+        <v>0.426523</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0642136</v>
+        <v>0.0679192</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0928037</v>
+        <v>0.0980943</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0890049</v>
+        <v>0.0941654</v>
       </c>
       <c r="C111" t="n">
-        <v>0.158781</v>
+        <v>0.14934</v>
       </c>
       <c r="D111" t="n">
-        <v>0.486028</v>
+        <v>0.437933</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0638432</v>
+        <v>0.06953910000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>0.09653730000000001</v>
+        <v>0.10088</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0924526</v>
+        <v>0.0966632</v>
       </c>
       <c r="C112" t="n">
-        <v>0.164739</v>
+        <v>0.154266</v>
       </c>
       <c r="D112" t="n">
-        <v>0.498991</v>
+        <v>0.449711</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0675079</v>
+        <v>0.0715128</v>
       </c>
       <c r="F112" t="n">
-        <v>0.103389</v>
+        <v>0.104096</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0983778</v>
+        <v>0.0997995</v>
       </c>
       <c r="C113" t="n">
-        <v>0.171328</v>
+        <v>0.159087</v>
       </c>
       <c r="D113" t="n">
-        <v>0.513317</v>
+        <v>0.4624</v>
       </c>
       <c r="E113" t="n">
-        <v>0.07058109999999999</v>
+        <v>0.07362</v>
       </c>
       <c r="F113" t="n">
-        <v>0.110163</v>
+        <v>0.107769</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.104359</v>
+        <v>0.103413</v>
       </c>
       <c r="C114" t="n">
-        <v>0.177658</v>
+        <v>0.164692</v>
       </c>
       <c r="D114" t="n">
-        <v>0.52867</v>
+        <v>0.475979</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07420690000000001</v>
+        <v>0.07595159999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>0.116236</v>
+        <v>0.111399</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.11086</v>
+        <v>0.107159</v>
       </c>
       <c r="C115" t="n">
-        <v>0.185178</v>
+        <v>0.171027</v>
       </c>
       <c r="D115" t="n">
-        <v>0.543242</v>
+        <v>0.489796</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0787125</v>
+        <v>0.0784842</v>
       </c>
       <c r="F115" t="n">
-        <v>0.122521</v>
+        <v>0.115237</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.116267</v>
+        <v>0.111899</v>
       </c>
       <c r="C116" t="n">
-        <v>0.193347</v>
+        <v>0.178311</v>
       </c>
       <c r="D116" t="n">
-        <v>0.559723</v>
+        <v>0.504901</v>
       </c>
       <c r="E116" t="n">
-        <v>0.08287219999999999</v>
+        <v>0.081293</v>
       </c>
       <c r="F116" t="n">
-        <v>0.127776</v>
+        <v>0.119741</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.124575</v>
+        <v>0.117909</v>
       </c>
       <c r="C117" t="n">
-        <v>0.20334</v>
+        <v>0.187014</v>
       </c>
       <c r="D117" t="n">
-        <v>0.57579</v>
+        <v>0.520794</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0875729</v>
+        <v>0.0845253</v>
       </c>
       <c r="F117" t="n">
-        <v>0.133899</v>
+        <v>0.124623</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.132608</v>
+        <v>0.125225</v>
       </c>
       <c r="C118" t="n">
-        <v>0.215288</v>
+        <v>0.19831</v>
       </c>
       <c r="D118" t="n">
-        <v>0.595035</v>
+        <v>0.537257</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0905941</v>
+        <v>0.0887037</v>
       </c>
       <c r="F118" t="n">
-        <v>0.140946</v>
+        <v>0.130703</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.143394</v>
+        <v>0.134649</v>
       </c>
       <c r="C119" t="n">
-        <v>0.230429</v>
+        <v>0.21228</v>
       </c>
       <c r="D119" t="n">
-        <v>0.614592</v>
+        <v>0.554295</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0990745</v>
+        <v>0.0939972</v>
       </c>
       <c r="F119" t="n">
-        <v>0.149558</v>
+        <v>0.138844</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.157275</v>
+        <v>0.147581</v>
       </c>
       <c r="C120" t="n">
-        <v>0.250545</v>
+        <v>0.230887</v>
       </c>
       <c r="D120" t="n">
-        <v>0.634069</v>
+        <v>0.572026</v>
       </c>
       <c r="E120" t="n">
-        <v>0.10696</v>
+        <v>0.101228</v>
       </c>
       <c r="F120" t="n">
-        <v>0.160449</v>
+        <v>0.149152</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.176499</v>
+        <v>0.165587</v>
       </c>
       <c r="C121" t="n">
-        <v>0.278827</v>
+        <v>0.256947</v>
       </c>
       <c r="D121" t="n">
-        <v>0.466171</v>
+        <v>0.423973</v>
       </c>
       <c r="E121" t="n">
-        <v>0.118767</v>
+        <v>0.112154</v>
       </c>
       <c r="F121" t="n">
-        <v>0.176112</v>
+        <v>0.163749</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.204569</v>
+        <v>0.192095</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3208</v>
+        <v>0.295798</v>
       </c>
       <c r="D122" t="n">
-        <v>0.482055</v>
+        <v>0.434961</v>
       </c>
       <c r="E122" t="n">
-        <v>0.134785</v>
+        <v>0.129054</v>
       </c>
       <c r="F122" t="n">
-        <v>0.200523</v>
+        <v>0.186407</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.247281</v>
+        <v>0.232859</v>
       </c>
       <c r="C123" t="n">
-        <v>0.385933</v>
+        <v>0.356172</v>
       </c>
       <c r="D123" t="n">
-        <v>0.489802</v>
+        <v>0.445413</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0778911</v>
+        <v>0.0784513</v>
       </c>
       <c r="F123" t="n">
-        <v>0.122602</v>
+        <v>0.10913</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.110476</v>
+        <v>0.103938</v>
       </c>
       <c r="C124" t="n">
-        <v>0.168895</v>
+        <v>0.161659</v>
       </c>
       <c r="D124" t="n">
-        <v>0.505698</v>
+        <v>0.456695</v>
       </c>
       <c r="E124" t="n">
-        <v>0.08540590000000001</v>
+        <v>0.07866570000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>0.117503</v>
+        <v>0.112968</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.11007</v>
+        <v>0.104444</v>
       </c>
       <c r="C125" t="n">
-        <v>0.174711</v>
+        <v>0.166333</v>
       </c>
       <c r="D125" t="n">
-        <v>0.515265</v>
+        <v>0.468612</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0870879</v>
+        <v>0.0814255</v>
       </c>
       <c r="F125" t="n">
-        <v>0.125253</v>
+        <v>0.117117</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.114106</v>
+        <v>0.106419</v>
       </c>
       <c r="C126" t="n">
-        <v>0.179282</v>
+        <v>0.170808</v>
       </c>
       <c r="D126" t="n">
-        <v>0.532769</v>
+        <v>0.480655</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0848506</v>
+        <v>0.0832025</v>
       </c>
       <c r="F126" t="n">
-        <v>0.131505</v>
+        <v>0.119168</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.117203</v>
+        <v>0.110553</v>
       </c>
       <c r="C127" t="n">
-        <v>0.189228</v>
+        <v>0.176887</v>
       </c>
       <c r="D127" t="n">
-        <v>0.546179</v>
+        <v>0.493959</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0886406</v>
+        <v>0.0891453</v>
       </c>
       <c r="F127" t="n">
-        <v>0.133882</v>
+        <v>0.126181</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.119437</v>
+        <v>0.114237</v>
       </c>
       <c r="C128" t="n">
-        <v>0.197715</v>
+        <v>0.181481</v>
       </c>
       <c r="D128" t="n">
-        <v>0.561369</v>
+        <v>0.506847</v>
       </c>
       <c r="E128" t="n">
-        <v>0.09434099999999999</v>
+        <v>0.08769399999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>0.137406</v>
+        <v>0.126581</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.121416</v>
+        <v>0.116302</v>
       </c>
       <c r="C129" t="n">
-        <v>0.20452</v>
+        <v>0.188896</v>
       </c>
       <c r="D129" t="n">
-        <v>0.576273</v>
+        <v>0.520573</v>
       </c>
       <c r="E129" t="n">
-        <v>0.09448819999999999</v>
+        <v>0.089194</v>
       </c>
       <c r="F129" t="n">
-        <v>0.145076</v>
+        <v>0.129316</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.12762</v>
+        <v>0.120297</v>
       </c>
       <c r="C130" t="n">
-        <v>0.21305</v>
+        <v>0.196608</v>
       </c>
       <c r="D130" t="n">
-        <v>0.588897</v>
+        <v>0.535771</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0971016</v>
+        <v>0.0930034</v>
       </c>
       <c r="F130" t="n">
-        <v>0.14105</v>
+        <v>0.136251</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.134848</v>
+        <v>0.124564</v>
       </c>
       <c r="C131" t="n">
-        <v>0.214366</v>
+        <v>0.203972</v>
       </c>
       <c r="D131" t="n">
-        <v>0.606145</v>
+        <v>0.5513749999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0995856</v>
+        <v>0.094294</v>
       </c>
       <c r="F131" t="n">
-        <v>0.15076</v>
+        <v>0.139478</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.142593</v>
+        <v>0.132005</v>
       </c>
       <c r="C132" t="n">
-        <v>0.233302</v>
+        <v>0.214277</v>
       </c>
       <c r="D132" t="n">
-        <v>0.628148</v>
+        <v>0.567904</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0999461</v>
+        <v>0.0980226</v>
       </c>
       <c r="F132" t="n">
-        <v>0.164044</v>
+        <v>0.146054</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.151403</v>
+        <v>0.144206</v>
       </c>
       <c r="C133" t="n">
-        <v>0.246695</v>
+        <v>0.225749</v>
       </c>
       <c r="D133" t="n">
-        <v>0.643313</v>
+        <v>0.585082</v>
       </c>
       <c r="E133" t="n">
-        <v>0.114984</v>
+        <v>0.103242</v>
       </c>
       <c r="F133" t="n">
-        <v>0.167591</v>
+        <v>0.154249</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.164529</v>
+        <v>0.155073</v>
       </c>
       <c r="C134" t="n">
-        <v>0.26592</v>
+        <v>0.244481</v>
       </c>
       <c r="D134" t="n">
-        <v>0.667543</v>
+        <v>0.6032149999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>0.122694</v>
+        <v>0.108915</v>
       </c>
       <c r="F134" t="n">
-        <v>0.180685</v>
+        <v>0.164364</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.182823</v>
+        <v>0.170582</v>
       </c>
       <c r="C135" t="n">
-        <v>0.293398</v>
+        <v>0.269712</v>
       </c>
       <c r="D135" t="n">
-        <v>0.489316</v>
+        <v>0.442517</v>
       </c>
       <c r="E135" t="n">
-        <v>0.128978</v>
+        <v>0.121259</v>
       </c>
       <c r="F135" t="n">
-        <v>0.19503</v>
+        <v>0.179292</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.208513</v>
+        <v>0.196245</v>
       </c>
       <c r="C136" t="n">
-        <v>0.333185</v>
+        <v>0.306647</v>
       </c>
       <c r="D136" t="n">
-        <v>0.500759</v>
+        <v>0.452818</v>
       </c>
       <c r="E136" t="n">
-        <v>0.147638</v>
+        <v>0.135401</v>
       </c>
       <c r="F136" t="n">
-        <v>0.215724</v>
+        <v>0.198377</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.248673</v>
+        <v>0.235341</v>
       </c>
       <c r="C137" t="n">
-        <v>0.394145</v>
+        <v>0.364113</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5127159999999999</v>
+        <v>0.463818</v>
       </c>
       <c r="E137" t="n">
-        <v>0.164311</v>
+        <v>0.150176</v>
       </c>
       <c r="F137" t="n">
-        <v>0.201008</v>
+        <v>0.181548</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.179863</v>
+        <v>0.166288</v>
       </c>
       <c r="C138" t="n">
-        <v>0.251126</v>
+        <v>0.225169</v>
       </c>
       <c r="D138" t="n">
-        <v>0.524895</v>
+        <v>0.475131</v>
       </c>
       <c r="E138" t="n">
-        <v>0.165985</v>
+        <v>0.151716</v>
       </c>
       <c r="F138" t="n">
-        <v>0.205911</v>
+        <v>0.184715</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.185493</v>
+        <v>0.168209</v>
       </c>
       <c r="C139" t="n">
-        <v>0.254889</v>
+        <v>0.228987</v>
       </c>
       <c r="D139" t="n">
-        <v>0.537833</v>
+        <v>0.486794</v>
       </c>
       <c r="E139" t="n">
-        <v>0.168693</v>
+        <v>0.152488</v>
       </c>
       <c r="F139" t="n">
-        <v>0.208123</v>
+        <v>0.187387</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.181271</v>
+        <v>0.16957</v>
       </c>
       <c r="C140" t="n">
-        <v>0.249458</v>
+        <v>0.234687</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5510429999999999</v>
+        <v>0.498768</v>
       </c>
       <c r="E140" t="n">
-        <v>0.170255</v>
+        <v>0.153741</v>
       </c>
       <c r="F140" t="n">
-        <v>0.211876</v>
+        <v>0.191166</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.189825</v>
+        <v>0.173634</v>
       </c>
       <c r="C141" t="n">
-        <v>0.264004</v>
+        <v>0.240385</v>
       </c>
       <c r="D141" t="n">
-        <v>0.562547</v>
+        <v>0.5114030000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>0.170774</v>
+        <v>0.154392</v>
       </c>
       <c r="F141" t="n">
-        <v>0.206569</v>
+        <v>0.194193</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.193913</v>
+        <v>0.174028</v>
       </c>
       <c r="C142" t="n">
-        <v>0.261089</v>
+        <v>0.243114</v>
       </c>
       <c r="D142" t="n">
-        <v>0.579453</v>
+        <v>0.5243100000000001</v>
       </c>
       <c r="E142" t="n">
-        <v>0.172876</v>
+        <v>0.157265</v>
       </c>
       <c r="F142" t="n">
-        <v>0.218361</v>
+        <v>0.197755</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.185382</v>
+        <v>0.17731</v>
       </c>
       <c r="C143" t="n">
-        <v>0.275951</v>
+        <v>0.249848</v>
       </c>
       <c r="D143" t="n">
-        <v>0.592664</v>
+        <v>0.538786</v>
       </c>
       <c r="E143" t="n">
-        <v>0.175683</v>
+        <v>0.158608</v>
       </c>
       <c r="F143" t="n">
-        <v>0.21478</v>
+        <v>0.201101</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.032987</v>
+        <v>0.0328408</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0333128</v>
+        <v>0.0331648</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11821</v>
+        <v>0.115831</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0312959</v>
+        <v>0.0313252</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0287897</v>
+        <v>0.0287795</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0351541</v>
+        <v>0.0353247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0348974</v>
+        <v>0.0348206</v>
       </c>
       <c r="D3" t="n">
-        <v>0.123072</v>
+        <v>0.121199</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0318869</v>
+        <v>0.03186</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0294592</v>
+        <v>0.0294257</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0380135</v>
+        <v>0.0376569</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0369014</v>
+        <v>0.0367284</v>
       </c>
       <c r="D4" t="n">
-        <v>0.128297</v>
+        <v>0.125572</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0330196</v>
+        <v>0.0330678</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03084</v>
+        <v>0.030777</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.044546</v>
+        <v>0.0447398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0434666</v>
+        <v>0.0435977</v>
       </c>
       <c r="D5" t="n">
-        <v>0.134494</v>
+        <v>0.132116</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0347996</v>
+        <v>0.0347647</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0323035</v>
+        <v>0.0323209</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0539281</v>
+        <v>0.0538859</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0540555</v>
+        <v>0.0536435</v>
       </c>
       <c r="D6" t="n">
-        <v>0.139039</v>
+        <v>0.138291</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0375653</v>
+        <v>0.0375505</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0352845</v>
+        <v>0.0352365</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.078039</v>
+        <v>0.0779029</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07726959999999999</v>
+        <v>0.0774181</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0958517</v>
+        <v>0.09581249999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0440635</v>
+        <v>0.0435958</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0407735</v>
+        <v>0.040775</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.102486</v>
+        <v>0.102737</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113665</v>
+        <v>0.113817</v>
       </c>
       <c r="D8" t="n">
-        <v>0.102712</v>
+        <v>0.102443</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0576823</v>
+        <v>0.0573055</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0535733</v>
+        <v>0.0540689</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14576</v>
+        <v>0.145612</v>
       </c>
       <c r="C9" t="n">
-        <v>0.155145</v>
+        <v>0.155397</v>
       </c>
       <c r="D9" t="n">
-        <v>0.10941</v>
+        <v>0.109546</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0286553</v>
+        <v>0.0286444</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0260603</v>
+        <v>0.0259979</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.030745</v>
+        <v>0.0306982</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0307706</v>
+        <v>0.0307111</v>
       </c>
       <c r="D10" t="n">
-        <v>0.115958</v>
+        <v>0.115657</v>
       </c>
       <c r="E10" t="n">
-        <v>0.028899</v>
+        <v>0.0288684</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0263324</v>
+        <v>0.0262641</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0314208</v>
+        <v>0.0313879</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0315192</v>
+        <v>0.0313227</v>
       </c>
       <c r="D11" t="n">
-        <v>0.121364</v>
+        <v>0.121339</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02919</v>
+        <v>0.0291608</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0267088</v>
+        <v>0.0265844</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0315457</v>
+        <v>0.0315404</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0320708</v>
+        <v>0.0318434</v>
       </c>
       <c r="D12" t="n">
-        <v>0.125332</v>
+        <v>0.126529</v>
       </c>
       <c r="E12" t="n">
-        <v>0.029679</v>
+        <v>0.0296525</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0272993</v>
+        <v>0.0271815</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0323256</v>
+        <v>0.0322891</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0333422</v>
+        <v>0.0330739</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131196</v>
+        <v>0.131722</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0299485</v>
+        <v>0.0299424</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02771</v>
+        <v>0.027514</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0334185</v>
+        <v>0.0333316</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0339907</v>
+        <v>0.0337526</v>
       </c>
       <c r="D14" t="n">
-        <v>0.13606</v>
+        <v>0.136624</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0303077</v>
+        <v>0.0302913</v>
       </c>
       <c r="F14" t="n">
-        <v>0.028196</v>
+        <v>0.028053</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0346371</v>
+        <v>0.0345485</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0355438</v>
+        <v>0.035359</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140596</v>
+        <v>0.140964</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0309685</v>
+        <v>0.0309162</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0289489</v>
+        <v>0.0287387</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.036394</v>
+        <v>0.0364815</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0375574</v>
+        <v>0.0375672</v>
       </c>
       <c r="D16" t="n">
-        <v>0.14411</v>
+        <v>0.144827</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0317443</v>
+        <v>0.0317625</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0299628</v>
+        <v>0.0297415</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0389158</v>
+        <v>0.0388257</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0397127</v>
+        <v>0.0398544</v>
       </c>
       <c r="D17" t="n">
-        <v>0.148818</v>
+        <v>0.149689</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0327844</v>
+        <v>0.0326848</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0312539</v>
+        <v>0.0309915</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0428563</v>
+        <v>0.0428085</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0434359</v>
+        <v>0.0434434</v>
       </c>
       <c r="D18" t="n">
-        <v>0.153261</v>
+        <v>0.1538</v>
       </c>
       <c r="E18" t="n">
-        <v>0.033835</v>
+        <v>0.0338445</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0323811</v>
+        <v>0.0321552</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0500003</v>
+        <v>0.0500244</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0516259</v>
+        <v>0.0515893</v>
       </c>
       <c r="D19" t="n">
-        <v>0.157056</v>
+        <v>0.157484</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0355293</v>
+        <v>0.0355231</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0340479</v>
+        <v>0.0338976</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06502479999999999</v>
+        <v>0.06507300000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06345389999999999</v>
+        <v>0.0633726</v>
       </c>
       <c r="D20" t="n">
-        <v>0.161064</v>
+        <v>0.161461</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0389881</v>
+        <v>0.0389438</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0377692</v>
+        <v>0.0376073</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08282920000000001</v>
+        <v>0.0828005</v>
       </c>
       <c r="C21" t="n">
-        <v>0.081689</v>
+        <v>0.0816595</v>
       </c>
       <c r="D21" t="n">
-        <v>0.114678</v>
+        <v>0.11452</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0453687</v>
+        <v>0.0452861</v>
       </c>
       <c r="F21" t="n">
-        <v>0.043586</v>
+        <v>0.0435563</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.112013</v>
+        <v>0.111933</v>
       </c>
       <c r="C22" t="n">
-        <v>0.113236</v>
+        <v>0.113082</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119564</v>
+        <v>0.119786</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0605232</v>
+        <v>0.0607842</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0581282</v>
+        <v>0.0581606</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152317</v>
+        <v>0.152316</v>
       </c>
       <c r="C23" t="n">
-        <v>0.148368</v>
+        <v>0.147704</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124503</v>
+        <v>0.124365</v>
       </c>
       <c r="E23" t="n">
-        <v>0.028654</v>
+        <v>0.0286384</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0270225</v>
+        <v>0.0270799</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0330076</v>
+        <v>0.0329748</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0353072</v>
+        <v>0.0355178</v>
       </c>
       <c r="D24" t="n">
-        <v>0.129605</v>
+        <v>0.129303</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0289393</v>
+        <v>0.0289087</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0276348</v>
+        <v>0.0275838</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0334965</v>
+        <v>0.033521</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0362251</v>
+        <v>0.0363878</v>
       </c>
       <c r="D25" t="n">
-        <v>0.134151</v>
+        <v>0.134487</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0291941</v>
+        <v>0.0291804</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0281214</v>
+        <v>0.0280845</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.034156</v>
+        <v>0.034173</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0374216</v>
+        <v>0.0377371</v>
       </c>
       <c r="D26" t="n">
-        <v>0.138285</v>
+        <v>0.138306</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02952</v>
+        <v>0.029473</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02868</v>
+        <v>0.0286138</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0348726</v>
+        <v>0.0348077</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0384949</v>
+        <v>0.038797</v>
       </c>
       <c r="D27" t="n">
-        <v>0.143011</v>
+        <v>0.143598</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0300021</v>
+        <v>0.0299418</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0294603</v>
+        <v>0.0294348</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0357269</v>
+        <v>0.0356754</v>
       </c>
       <c r="C28" t="n">
-        <v>0.039783</v>
+        <v>0.0401119</v>
       </c>
       <c r="D28" t="n">
-        <v>0.147501</v>
+        <v>0.147833</v>
       </c>
       <c r="E28" t="n">
-        <v>0.030507</v>
+        <v>0.0305172</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0303204</v>
+        <v>0.0303861</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03732</v>
+        <v>0.0373397</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0412186</v>
+        <v>0.0415388</v>
       </c>
       <c r="D29" t="n">
-        <v>0.151647</v>
+        <v>0.152027</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0313031</v>
+        <v>0.0313553</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0314095</v>
+        <v>0.031566</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.039116</v>
+        <v>0.0391112</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0431248</v>
+        <v>0.0433045</v>
       </c>
       <c r="D30" t="n">
-        <v>0.155682</v>
+        <v>0.156274</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0320435</v>
+        <v>0.0320455</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0323239</v>
+        <v>0.0324235</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0420861</v>
+        <v>0.0421075</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0462209</v>
+        <v>0.0463589</v>
       </c>
       <c r="D31" t="n">
-        <v>0.15987</v>
+        <v>0.160098</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0331881</v>
+        <v>0.0331756</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0336477</v>
+        <v>0.0337828</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0465667</v>
+        <v>0.0465248</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0501982</v>
+        <v>0.0503052</v>
       </c>
       <c r="D32" t="n">
-        <v>0.16285</v>
+        <v>0.163379</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0344034</v>
+        <v>0.0344347</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0349223</v>
+        <v>0.0350339</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.053189</v>
+        <v>0.0532407</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0563804</v>
+        <v>0.0564094</v>
       </c>
       <c r="D33" t="n">
-        <v>0.166958</v>
+        <v>0.167362</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0362587</v>
+        <v>0.0362223</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0369201</v>
+        <v>0.0370276</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0629837</v>
+        <v>0.0630117</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0656572</v>
+        <v>0.065771</v>
       </c>
       <c r="D34" t="n">
-        <v>0.170736</v>
+        <v>0.171188</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0397514</v>
+        <v>0.0397452</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0402637</v>
+        <v>0.0401851</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08073130000000001</v>
+        <v>0.0806887</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0827927</v>
+        <v>0.0820606</v>
       </c>
       <c r="D35" t="n">
-        <v>0.119039</v>
+        <v>0.119081</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0462663</v>
+        <v>0.0462528</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0460983</v>
+        <v>0.0462358</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.10186</v>
+        <v>0.101745</v>
       </c>
       <c r="C36" t="n">
-        <v>0.101744</v>
+        <v>0.101653</v>
       </c>
       <c r="D36" t="n">
-        <v>0.123574</v>
+        <v>0.123593</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0574022</v>
+        <v>0.0574122</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0560637</v>
+        <v>0.0561483</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1358</v>
+        <v>0.135872</v>
       </c>
       <c r="C37" t="n">
-        <v>0.134858</v>
+        <v>0.134973</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128163</v>
+        <v>0.128293</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0290482</v>
+        <v>0.0289494</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0292268</v>
+        <v>0.0293954</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0335612</v>
+        <v>0.0335887</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0382099</v>
+        <v>0.0382554</v>
       </c>
       <c r="D38" t="n">
-        <v>0.13325</v>
+        <v>0.133299</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0292698</v>
+        <v>0.0293368</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0298062</v>
+        <v>0.029975</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0341669</v>
+        <v>0.0341776</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0388822</v>
+        <v>0.0389208</v>
       </c>
       <c r="D39" t="n">
-        <v>0.137898</v>
+        <v>0.138237</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0297239</v>
+        <v>0.0297292</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0302767</v>
+        <v>0.030561</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0351751</v>
+        <v>0.0352242</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0398697</v>
+        <v>0.0399104</v>
       </c>
       <c r="D40" t="n">
-        <v>0.142256</v>
+        <v>0.142569</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0301464</v>
+        <v>0.0300473</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0308062</v>
+        <v>0.0309871</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0358513</v>
+        <v>0.0358868</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0408374</v>
+        <v>0.040864</v>
       </c>
       <c r="D41" t="n">
-        <v>0.146518</v>
+        <v>0.146732</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0304935</v>
+        <v>0.0304655</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0313628</v>
+        <v>0.0315088</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0371792</v>
+        <v>0.0371623</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0418878</v>
+        <v>0.0419229</v>
       </c>
       <c r="D42" t="n">
-        <v>0.150797</v>
+        <v>0.151011</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0310467</v>
+        <v>0.0309854</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0322509</v>
+        <v>0.0323375</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0385792</v>
+        <v>0.0386002</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0434175</v>
+        <v>0.0434246</v>
       </c>
       <c r="D43" t="n">
-        <v>0.155102</v>
+        <v>0.155787</v>
       </c>
       <c r="E43" t="n">
-        <v>0.031705</v>
+        <v>0.0317055</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0329795</v>
+        <v>0.0330686</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0403608</v>
+        <v>0.0403308</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0455045</v>
+        <v>0.0455062</v>
       </c>
       <c r="D44" t="n">
-        <v>0.159067</v>
+        <v>0.159621</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0325718</v>
+        <v>0.032605</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0340383</v>
+        <v>0.0340245</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0433907</v>
+        <v>0.0433986</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0479664</v>
+        <v>0.0480178</v>
       </c>
       <c r="D45" t="n">
-        <v>0.162634</v>
+        <v>0.162951</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0337473</v>
+        <v>0.0335851</v>
       </c>
       <c r="F45" t="n">
-        <v>0.035136</v>
+        <v>0.0350603</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0472768</v>
+        <v>0.0470416</v>
       </c>
       <c r="C46" t="n">
-        <v>0.051682</v>
+        <v>0.0517113</v>
       </c>
       <c r="D46" t="n">
-        <v>0.166533</v>
+        <v>0.166997</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0350658</v>
+        <v>0.035127</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0366267</v>
+        <v>0.0366433</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0536189</v>
+        <v>0.0536849</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0571836</v>
+        <v>0.0571614</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170744</v>
+        <v>0.170941</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0370989</v>
+        <v>0.0371613</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0383902</v>
+        <v>0.0384425</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0626727</v>
+        <v>0.0626715</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06575780000000001</v>
+        <v>0.0657808</v>
       </c>
       <c r="D48" t="n">
-        <v>0.174855</v>
+        <v>0.175036</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0408872</v>
+        <v>0.0408547</v>
       </c>
       <c r="F48" t="n">
-        <v>0.041671</v>
+        <v>0.0417143</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07443370000000001</v>
+        <v>0.07442070000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07750840000000001</v>
+        <v>0.077468</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17885</v>
+        <v>0.179189</v>
       </c>
       <c r="E49" t="n">
-        <v>0.046257</v>
+        <v>0.0462636</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0465264</v>
+        <v>0.046431</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09517059999999999</v>
+        <v>0.095137</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0962631</v>
+        <v>0.0963716</v>
       </c>
       <c r="D50" t="n">
-        <v>0.125249</v>
+        <v>0.125265</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0546749</v>
+        <v>0.0549104</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0539766</v>
+        <v>0.0540504</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125241</v>
+        <v>0.125265</v>
       </c>
       <c r="C51" t="n">
-        <v>0.126998</v>
+        <v>0.127292</v>
       </c>
       <c r="D51" t="n">
-        <v>0.129946</v>
+        <v>0.129848</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0306967</v>
+        <v>0.0308521</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0320375</v>
+        <v>0.0324042</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.169869</v>
+        <v>0.169974</v>
       </c>
       <c r="C52" t="n">
-        <v>0.17326</v>
+        <v>0.173488</v>
       </c>
       <c r="D52" t="n">
-        <v>0.134664</v>
+        <v>0.134599</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0312504</v>
+        <v>0.0315644</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0324951</v>
+        <v>0.0328664</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0354877</v>
+        <v>0.0357885</v>
       </c>
       <c r="C53" t="n">
-        <v>0.041466</v>
+        <v>0.0413476</v>
       </c>
       <c r="D53" t="n">
-        <v>0.139239</v>
+        <v>0.139251</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0317713</v>
+        <v>0.0318346</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0329201</v>
+        <v>0.0334178</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0365363</v>
+        <v>0.0368748</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0422591</v>
+        <v>0.0421595</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144179</v>
+        <v>0.144177</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0312981</v>
+        <v>0.0315028</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0333149</v>
+        <v>0.0336757</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0375313</v>
+        <v>0.0377907</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0430603</v>
+        <v>0.0430086</v>
       </c>
       <c r="D55" t="n">
-        <v>0.148587</v>
+        <v>0.148815</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0329458</v>
+        <v>0.0318974</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0339668</v>
+        <v>0.0343596</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0387243</v>
+        <v>0.038972</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0444742</v>
+        <v>0.0444314</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15319</v>
+        <v>0.153375</v>
       </c>
       <c r="E56" t="n">
-        <v>0.032269</v>
+        <v>0.0323889</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0345657</v>
+        <v>0.0355383</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0399959</v>
+        <v>0.0402569</v>
       </c>
       <c r="C57" t="n">
-        <v>0.045779</v>
+        <v>0.0457106</v>
       </c>
       <c r="D57" t="n">
-        <v>0.157351</v>
+        <v>0.157689</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0336752</v>
+        <v>0.0338002</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0356051</v>
+        <v>0.0359025</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0420849</v>
+        <v>0.042222</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0478965</v>
+        <v>0.0476003</v>
       </c>
       <c r="D58" t="n">
-        <v>0.161673</v>
+        <v>0.162014</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0337356</v>
+        <v>0.0345064</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0362229</v>
+        <v>0.037725</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0447437</v>
+        <v>0.0446564</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0501632</v>
+        <v>0.0501949</v>
       </c>
       <c r="D59" t="n">
-        <v>0.165252</v>
+        <v>0.165626</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0350412</v>
+        <v>0.0345576</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0375222</v>
+        <v>0.0375523</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0488698</v>
+        <v>0.0491695</v>
       </c>
       <c r="C60" t="n">
-        <v>0.053715</v>
+        <v>0.0535828</v>
       </c>
       <c r="D60" t="n">
-        <v>0.169443</v>
+        <v>0.169643</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0373443</v>
+        <v>0.0363275</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0387144</v>
+        <v>0.0389732</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0537516</v>
+        <v>0.0536675</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0582849</v>
+        <v>0.0581579</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173854</v>
+        <v>0.17386</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0383636</v>
+        <v>0.0385347</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0415219</v>
+        <v>0.0414036</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0623633</v>
+        <v>0.062754</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06668880000000001</v>
+        <v>0.0669033</v>
       </c>
       <c r="D62" t="n">
-        <v>0.177974</v>
+        <v>0.179057</v>
       </c>
       <c r="E62" t="n">
-        <v>0.041683</v>
+        <v>0.0419174</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0442013</v>
+        <v>0.0445447</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0734393</v>
+        <v>0.07360460000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0766501</v>
+        <v>0.0768809</v>
       </c>
       <c r="D63" t="n">
-        <v>0.18276</v>
+        <v>0.183392</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0468063</v>
+        <v>0.0470251</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0485209</v>
+        <v>0.0491625</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09304469999999999</v>
+        <v>0.093027</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09381879999999999</v>
+        <v>0.0937706</v>
       </c>
       <c r="D64" t="n">
-        <v>0.131219</v>
+        <v>0.131478</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0550909</v>
+        <v>0.0554459</v>
       </c>
       <c r="F64" t="n">
-        <v>0.055942</v>
+        <v>0.055741</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118983</v>
+        <v>0.119177</v>
       </c>
       <c r="C65" t="n">
-        <v>0.120859</v>
+        <v>0.121179</v>
       </c>
       <c r="D65" t="n">
-        <v>0.137592</v>
+        <v>0.137957</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0685413</v>
+        <v>0.0688513</v>
       </c>
       <c r="F65" t="n">
-        <v>0.068662</v>
+        <v>0.06892089999999999</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16121</v>
+        <v>0.16116</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163056</v>
+        <v>0.162954</v>
       </c>
       <c r="D66" t="n">
-        <v>0.145086</v>
+        <v>0.143875</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0364375</v>
+        <v>0.036539</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0391857</v>
+        <v>0.0389023</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0414376</v>
+        <v>0.0410177</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0491421</v>
+        <v>0.0493507</v>
       </c>
       <c r="D67" t="n">
-        <v>0.150718</v>
+        <v>0.152056</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0364174</v>
+        <v>0.0367412</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0398166</v>
+        <v>0.0395508</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0415466</v>
+        <v>0.0414438</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0502812</v>
+        <v>0.050452</v>
       </c>
       <c r="D68" t="n">
-        <v>0.159804</v>
+        <v>0.16015</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0373123</v>
+        <v>0.037349</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0403752</v>
+        <v>0.0401141</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0427545</v>
+        <v>0.0427535</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0515332</v>
+        <v>0.0517136</v>
       </c>
       <c r="D69" t="n">
-        <v>0.167316</v>
+        <v>0.168647</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0374685</v>
+        <v>0.0375564</v>
       </c>
       <c r="F69" t="n">
-        <v>0.041068</v>
+        <v>0.0407808</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0438375</v>
+        <v>0.043757</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0529243</v>
+        <v>0.0530946</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1757</v>
+        <v>0.177182</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0380765</v>
+        <v>0.0379989</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0418556</v>
+        <v>0.0416504</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0447457</v>
+        <v>0.0447389</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0546494</v>
+        <v>0.054818</v>
       </c>
       <c r="D71" t="n">
-        <v>0.186564</v>
+        <v>0.186815</v>
       </c>
       <c r="E71" t="n">
-        <v>0.038277</v>
+        <v>0.0386877</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0427678</v>
+        <v>0.0425746</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0465875</v>
+        <v>0.0465592</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0565117</v>
+        <v>0.0568027</v>
       </c>
       <c r="D72" t="n">
-        <v>0.195288</v>
+        <v>0.196851</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0390725</v>
+        <v>0.0394587</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0437411</v>
+        <v>0.0436283</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0487039</v>
+        <v>0.048652</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0588623</v>
+        <v>0.0590436</v>
       </c>
       <c r="D73" t="n">
-        <v>0.205365</v>
+        <v>0.208378</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0400036</v>
+        <v>0.0404306</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0449261</v>
+        <v>0.0448326</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0520753</v>
+        <v>0.0518936</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0624328</v>
+        <v>0.062664</v>
       </c>
       <c r="D74" t="n">
-        <v>0.218169</v>
+        <v>0.219061</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0416114</v>
+        <v>0.0414506</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0464135</v>
+        <v>0.0466583</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0569391</v>
+        <v>0.056757</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0670834</v>
+        <v>0.0668252</v>
       </c>
       <c r="D75" t="n">
-        <v>0.229984</v>
+        <v>0.231293</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0433291</v>
+        <v>0.0436674</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0485174</v>
+        <v>0.0484965</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06397650000000001</v>
+        <v>0.063765</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0742197</v>
+        <v>0.0739876</v>
       </c>
       <c r="D76" t="n">
-        <v>0.243705</v>
+        <v>0.243799</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0462011</v>
+        <v>0.0463855</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0516805</v>
+        <v>0.0516248</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07450950000000001</v>
+        <v>0.0744249</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0849097</v>
+        <v>0.0858643</v>
       </c>
       <c r="D77" t="n">
-        <v>0.258112</v>
+        <v>0.257965</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0506718</v>
+        <v>0.0508523</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0560539</v>
+        <v>0.0558434</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.089892</v>
+        <v>0.0900596</v>
       </c>
       <c r="C78" t="n">
-        <v>0.100992</v>
+        <v>0.102502</v>
       </c>
       <c r="D78" t="n">
-        <v>0.215857</v>
+        <v>0.216846</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0579662</v>
+        <v>0.0576191</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0627697</v>
+        <v>0.0629883</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115959</v>
+        <v>0.115861</v>
       </c>
       <c r="C79" t="n">
-        <v>0.130227</v>
+        <v>0.130942</v>
       </c>
       <c r="D79" t="n">
-        <v>0.229534</v>
+        <v>0.229535</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06938370000000001</v>
+        <v>0.0696833</v>
       </c>
       <c r="F79" t="n">
-        <v>0.07363989999999999</v>
+        <v>0.0738896</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154326</v>
+        <v>0.154048</v>
       </c>
       <c r="C80" t="n">
-        <v>0.174744</v>
+        <v>0.175658</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242112</v>
+        <v>0.242927</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0403104</v>
+        <v>0.0406713</v>
       </c>
       <c r="F80" t="n">
-        <v>0.044144</v>
+        <v>0.0440107</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0464333</v>
+        <v>0.046536</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0578006</v>
+        <v>0.0579747</v>
       </c>
       <c r="D81" t="n">
-        <v>0.254802</v>
+        <v>0.255683</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0406039</v>
+        <v>0.0407052</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0447204</v>
+        <v>0.0446224</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0473609</v>
+        <v>0.0475383</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0601376</v>
+        <v>0.0603462</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268068</v>
+        <v>0.268754</v>
       </c>
       <c r="E82" t="n">
-        <v>0.041259</v>
+        <v>0.0413897</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0456256</v>
+        <v>0.0456107</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0482196</v>
+        <v>0.0483736</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06294039999999999</v>
+        <v>0.0632597</v>
       </c>
       <c r="D83" t="n">
-        <v>0.281514</v>
+        <v>0.282204</v>
       </c>
       <c r="E83" t="n">
-        <v>0.041601</v>
+        <v>0.0416384</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0465473</v>
+        <v>0.046365</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0493914</v>
+        <v>0.0496539</v>
       </c>
       <c r="C84" t="n">
-        <v>0.066687</v>
+        <v>0.06712029999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.29567</v>
+        <v>0.295749</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0422559</v>
+        <v>0.0423897</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0476507</v>
+        <v>0.0475584</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0509904</v>
+        <v>0.0512106</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0720663</v>
+        <v>0.07239619999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.309627</v>
+        <v>0.310253</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0429007</v>
+        <v>0.0430335</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0486179</v>
+        <v>0.0488321</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0528862</v>
+        <v>0.0529944</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0787018</v>
+        <v>0.0789374</v>
       </c>
       <c r="D86" t="n">
-        <v>0.323668</v>
+        <v>0.324472</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0437373</v>
+        <v>0.0440034</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0506193</v>
+        <v>0.0505777</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0556636</v>
+        <v>0.0560205</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0869771</v>
+        <v>0.087439</v>
       </c>
       <c r="D87" t="n">
-        <v>0.338449</v>
+        <v>0.339584</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0445917</v>
+        <v>0.0449497</v>
       </c>
       <c r="F87" t="n">
-        <v>0.052952</v>
+        <v>0.053387</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0596999</v>
+        <v>0.0595847</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0963054</v>
+        <v>0.096428</v>
       </c>
       <c r="D88" t="n">
-        <v>0.353809</v>
+        <v>0.354985</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0466051</v>
+        <v>0.0468334</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0571364</v>
+        <v>0.0566186</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06543889999999999</v>
+        <v>0.06551990000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.108917</v>
+        <v>0.108903</v>
       </c>
       <c r="D89" t="n">
-        <v>0.369749</v>
+        <v>0.371059</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0488325</v>
+        <v>0.0490486</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0616428</v>
+        <v>0.0615569</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0738572</v>
+        <v>0.07386810000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.126103</v>
+        <v>0.125321</v>
       </c>
       <c r="D90" t="n">
-        <v>0.386692</v>
+        <v>0.38799</v>
       </c>
       <c r="E90" t="n">
-        <v>0.052304</v>
+        <v>0.0526585</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0693603</v>
+        <v>0.06902949999999999</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0858541</v>
+        <v>0.0858529</v>
       </c>
       <c r="C91" t="n">
-        <v>0.144286</v>
+        <v>0.144717</v>
       </c>
       <c r="D91" t="n">
-        <v>0.404023</v>
+        <v>0.404709</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0579153</v>
+        <v>0.0582245</v>
       </c>
       <c r="F91" t="n">
-        <v>0.07829270000000001</v>
+        <v>0.0780014</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.102878</v>
+        <v>0.102298</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168732</v>
+        <v>0.169625</v>
       </c>
       <c r="D92" t="n">
-        <v>0.326915</v>
+        <v>0.327999</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0658521</v>
+        <v>0.0656547</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09185400000000001</v>
+        <v>0.09138309999999999</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.12785</v>
+        <v>0.127174</v>
       </c>
       <c r="C93" t="n">
-        <v>0.199856</v>
+        <v>0.20042</v>
       </c>
       <c r="D93" t="n">
-        <v>0.337202</v>
+        <v>0.33888</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0791497</v>
+        <v>0.0788517</v>
       </c>
       <c r="F93" t="n">
-        <v>0.109599</v>
+        <v>0.110321</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.164548</v>
+        <v>0.164092</v>
       </c>
       <c r="C94" t="n">
-        <v>0.24035</v>
+        <v>0.241533</v>
       </c>
       <c r="D94" t="n">
-        <v>0.348645</v>
+        <v>0.350461</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0447062</v>
+        <v>0.0445816</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0564028</v>
+        <v>0.0563951</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0584564</v>
+        <v>0.0587593</v>
       </c>
       <c r="C95" t="n">
-        <v>0.103172</v>
+        <v>0.102749</v>
       </c>
       <c r="D95" t="n">
-        <v>0.360317</v>
+        <v>0.361846</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0456958</v>
+        <v>0.0460261</v>
       </c>
       <c r="F95" t="n">
-        <v>0.059737</v>
+        <v>0.0601341</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0619939</v>
+        <v>0.0618061</v>
       </c>
       <c r="C96" t="n">
-        <v>0.111605</v>
+        <v>0.111246</v>
       </c>
       <c r="D96" t="n">
-        <v>0.372257</v>
+        <v>0.373855</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0471555</v>
+        <v>0.047196</v>
       </c>
       <c r="F96" t="n">
-        <v>0.063925</v>
+        <v>0.06442000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0661313</v>
+        <v>0.06585589999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.120368</v>
+        <v>0.119969</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3846</v>
+        <v>0.386287</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0491905</v>
+        <v>0.0489331</v>
       </c>
       <c r="F97" t="n">
-        <v>0.069665</v>
+        <v>0.0699139</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07056030000000001</v>
+        <v>0.0704436</v>
       </c>
       <c r="C98" t="n">
-        <v>0.128498</v>
+        <v>0.128196</v>
       </c>
       <c r="D98" t="n">
-        <v>0.397047</v>
+        <v>0.398917</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0516066</v>
+        <v>0.0512769</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0748896</v>
+        <v>0.0755763</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0761266</v>
+        <v>0.07595689999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.136508</v>
+        <v>0.136257</v>
       </c>
       <c r="D99" t="n">
-        <v>0.410486</v>
+        <v>0.412106</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0544793</v>
+        <v>0.053964</v>
       </c>
       <c r="F99" t="n">
-        <v>0.081747</v>
+        <v>0.0820501</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0817238</v>
+        <v>0.0817397</v>
       </c>
       <c r="C100" t="n">
-        <v>0.144088</v>
+        <v>0.144137</v>
       </c>
       <c r="D100" t="n">
-        <v>0.42424</v>
+        <v>0.425895</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0575681</v>
+        <v>0.0576314</v>
       </c>
       <c r="F100" t="n">
-        <v>0.087991</v>
+        <v>0.0883968</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0881753</v>
+        <v>0.08801100000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151962</v>
+        <v>0.152125</v>
       </c>
       <c r="D101" t="n">
-        <v>0.438674</v>
+        <v>0.440382</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0613291</v>
+        <v>0.0614741</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0949387</v>
+        <v>0.0951472</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0949363</v>
+        <v>0.09532939999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.160067</v>
+        <v>0.160468</v>
       </c>
       <c r="D102" t="n">
-        <v>0.453978</v>
+        <v>0.455937</v>
       </c>
       <c r="E102" t="n">
-        <v>0.065688</v>
+        <v>0.0656563</v>
       </c>
       <c r="F102" t="n">
-        <v>0.102133</v>
+        <v>0.102006</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.103065</v>
+        <v>0.10309</v>
       </c>
       <c r="C103" t="n">
-        <v>0.169779</v>
+        <v>0.170115</v>
       </c>
       <c r="D103" t="n">
-        <v>0.469623</v>
+        <v>0.472051</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0703787</v>
+        <v>0.07029820000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>0.10866</v>
+        <v>0.108835</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.112236</v>
+        <v>0.11228</v>
       </c>
       <c r="C104" t="n">
-        <v>0.181209</v>
+        <v>0.18145</v>
       </c>
       <c r="D104" t="n">
-        <v>0.486248</v>
+        <v>0.488536</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07614020000000001</v>
+        <v>0.0765868</v>
       </c>
       <c r="F104" t="n">
-        <v>0.116684</v>
+        <v>0.116778</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.123006</v>
+        <v>0.12332</v>
       </c>
       <c r="C105" t="n">
-        <v>0.19612</v>
+        <v>0.196542</v>
       </c>
       <c r="D105" t="n">
-        <v>0.503905</v>
+        <v>0.506699</v>
       </c>
       <c r="E105" t="n">
-        <v>0.08289680000000001</v>
+        <v>0.08307539999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>0.124505</v>
+        <v>0.125114</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.137296</v>
+        <v>0.137719</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215588</v>
+        <v>0.215997</v>
       </c>
       <c r="D106" t="n">
-        <v>0.52157</v>
+        <v>0.524276</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0917813</v>
+        <v>0.09199690000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>0.136028</v>
+        <v>0.136305</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.157859</v>
+        <v>0.157981</v>
       </c>
       <c r="C107" t="n">
-        <v>0.241938</v>
+        <v>0.24248</v>
       </c>
       <c r="D107" t="n">
-        <v>0.393938</v>
+        <v>0.39453</v>
       </c>
       <c r="E107" t="n">
-        <v>0.104007</v>
+        <v>0.104427</v>
       </c>
       <c r="F107" t="n">
-        <v>0.151658</v>
+        <v>0.152175</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.186804</v>
+        <v>0.186808</v>
       </c>
       <c r="C108" t="n">
-        <v>0.280573</v>
+        <v>0.281248</v>
       </c>
       <c r="D108" t="n">
-        <v>0.404297</v>
+        <v>0.405437</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0637368</v>
+        <v>0.0636538</v>
       </c>
       <c r="F108" t="n">
-        <v>0.09146799999999999</v>
+        <v>0.09188449999999999</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231993</v>
+        <v>0.231768</v>
       </c>
       <c r="C109" t="n">
-        <v>0.343149</v>
+        <v>0.343074</v>
       </c>
       <c r="D109" t="n">
-        <v>0.415222</v>
+        <v>0.416189</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0659868</v>
+        <v>0.065829</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0948302</v>
+        <v>0.0951293</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0910526</v>
+        <v>0.0910683</v>
       </c>
       <c r="C110" t="n">
-        <v>0.144661</v>
+        <v>0.145065</v>
       </c>
       <c r="D110" t="n">
-        <v>0.426523</v>
+        <v>0.427913</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0679192</v>
+        <v>0.06770370000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0980943</v>
+        <v>0.0983648</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0941654</v>
+        <v>0.09423869999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.14934</v>
+        <v>0.149592</v>
       </c>
       <c r="D111" t="n">
-        <v>0.437933</v>
+        <v>0.439506</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06953910000000001</v>
+        <v>0.0696353</v>
       </c>
       <c r="F111" t="n">
-        <v>0.10088</v>
+        <v>0.101486</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0966632</v>
+        <v>0.0967657</v>
       </c>
       <c r="C112" t="n">
-        <v>0.154266</v>
+        <v>0.154345</v>
       </c>
       <c r="D112" t="n">
-        <v>0.449711</v>
+        <v>0.451861</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0715128</v>
+        <v>0.0717868</v>
       </c>
       <c r="F112" t="n">
-        <v>0.104096</v>
+        <v>0.10457</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0997995</v>
+        <v>0.1001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.159087</v>
+        <v>0.159497</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4624</v>
+        <v>0.464916</v>
       </c>
       <c r="E113" t="n">
-        <v>0.07362</v>
+        <v>0.07379049999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>0.107769</v>
+        <v>0.108308</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103413</v>
+        <v>0.103526</v>
       </c>
       <c r="C114" t="n">
-        <v>0.164692</v>
+        <v>0.165001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.475979</v>
+        <v>0.477577</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07595159999999999</v>
+        <v>0.0762693</v>
       </c>
       <c r="F114" t="n">
-        <v>0.111399</v>
+        <v>0.111826</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107159</v>
+        <v>0.107525</v>
       </c>
       <c r="C115" t="n">
-        <v>0.171027</v>
+        <v>0.17132</v>
       </c>
       <c r="D115" t="n">
-        <v>0.489796</v>
+        <v>0.492139</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0784842</v>
+        <v>0.0786082</v>
       </c>
       <c r="F115" t="n">
-        <v>0.115237</v>
+        <v>0.11568</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.111899</v>
+        <v>0.112267</v>
       </c>
       <c r="C116" t="n">
-        <v>0.178311</v>
+        <v>0.178418</v>
       </c>
       <c r="D116" t="n">
-        <v>0.504901</v>
+        <v>0.506517</v>
       </c>
       <c r="E116" t="n">
-        <v>0.081293</v>
+        <v>0.081357</v>
       </c>
       <c r="F116" t="n">
-        <v>0.119741</v>
+        <v>0.119982</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.117909</v>
+        <v>0.118183</v>
       </c>
       <c r="C117" t="n">
-        <v>0.187014</v>
+        <v>0.187331</v>
       </c>
       <c r="D117" t="n">
-        <v>0.520794</v>
+        <v>0.52177</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0845253</v>
+        <v>0.08461879999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>0.124623</v>
+        <v>0.125088</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.125225</v>
+        <v>0.125507</v>
       </c>
       <c r="C118" t="n">
-        <v>0.19831</v>
+        <v>0.198821</v>
       </c>
       <c r="D118" t="n">
-        <v>0.537257</v>
+        <v>0.5382</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0887037</v>
+        <v>0.0889789</v>
       </c>
       <c r="F118" t="n">
-        <v>0.130703</v>
+        <v>0.131327</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.134649</v>
+        <v>0.134969</v>
       </c>
       <c r="C119" t="n">
-        <v>0.21228</v>
+        <v>0.212758</v>
       </c>
       <c r="D119" t="n">
-        <v>0.554295</v>
+        <v>0.555572</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0939972</v>
+        <v>0.094197</v>
       </c>
       <c r="F119" t="n">
-        <v>0.138844</v>
+        <v>0.138908</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147581</v>
+        <v>0.147789</v>
       </c>
       <c r="C120" t="n">
-        <v>0.230887</v>
+        <v>0.231383</v>
       </c>
       <c r="D120" t="n">
-        <v>0.572026</v>
+        <v>0.573363</v>
       </c>
       <c r="E120" t="n">
-        <v>0.101228</v>
+        <v>0.101607</v>
       </c>
       <c r="F120" t="n">
-        <v>0.149152</v>
+        <v>0.149466</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165587</v>
+        <v>0.16582</v>
       </c>
       <c r="C121" t="n">
-        <v>0.256947</v>
+        <v>0.257723</v>
       </c>
       <c r="D121" t="n">
-        <v>0.423973</v>
+        <v>0.425108</v>
       </c>
       <c r="E121" t="n">
-        <v>0.112154</v>
+        <v>0.112496</v>
       </c>
       <c r="F121" t="n">
-        <v>0.163749</v>
+        <v>0.164265</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192095</v>
+        <v>0.192383</v>
       </c>
       <c r="C122" t="n">
-        <v>0.295798</v>
+        <v>0.296495</v>
       </c>
       <c r="D122" t="n">
-        <v>0.434961</v>
+        <v>0.435445</v>
       </c>
       <c r="E122" t="n">
-        <v>0.129054</v>
+        <v>0.129381</v>
       </c>
       <c r="F122" t="n">
-        <v>0.186407</v>
+        <v>0.186727</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232859</v>
+        <v>0.232994</v>
       </c>
       <c r="C123" t="n">
-        <v>0.356172</v>
+        <v>0.356993</v>
       </c>
       <c r="D123" t="n">
-        <v>0.445413</v>
+        <v>0.446017</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0784513</v>
+        <v>0.075501</v>
       </c>
       <c r="F123" t="n">
-        <v>0.10913</v>
+        <v>0.108767</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103938</v>
+        <v>0.101672</v>
       </c>
       <c r="C124" t="n">
-        <v>0.161659</v>
+        <v>0.161471</v>
       </c>
       <c r="D124" t="n">
-        <v>0.456695</v>
+        <v>0.457461</v>
       </c>
       <c r="E124" t="n">
-        <v>0.07866570000000001</v>
+        <v>0.0807208</v>
       </c>
       <c r="F124" t="n">
-        <v>0.112968</v>
+        <v>0.113744</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104444</v>
+        <v>0.106793</v>
       </c>
       <c r="C125" t="n">
-        <v>0.166333</v>
+        <v>0.164776</v>
       </c>
       <c r="D125" t="n">
-        <v>0.468612</v>
+        <v>0.469364</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0814255</v>
+        <v>0.0813564</v>
       </c>
       <c r="F125" t="n">
-        <v>0.117117</v>
+        <v>0.117001</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.106419</v>
+        <v>0.110331</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170808</v>
+        <v>0.173681</v>
       </c>
       <c r="D126" t="n">
-        <v>0.480655</v>
+        <v>0.481451</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0832025</v>
+        <v>0.08291229999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>0.119168</v>
+        <v>0.12073</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110553</v>
+        <v>0.109904</v>
       </c>
       <c r="C127" t="n">
-        <v>0.176887</v>
+        <v>0.176662</v>
       </c>
       <c r="D127" t="n">
-        <v>0.493959</v>
+        <v>0.494062</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0891453</v>
+        <v>0.087117</v>
       </c>
       <c r="F127" t="n">
-        <v>0.126181</v>
+        <v>0.124481</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114237</v>
+        <v>0.114249</v>
       </c>
       <c r="C128" t="n">
-        <v>0.181481</v>
+        <v>0.183411</v>
       </c>
       <c r="D128" t="n">
-        <v>0.506847</v>
+        <v>0.507916</v>
       </c>
       <c r="E128" t="n">
-        <v>0.08769399999999999</v>
+        <v>0.0899918</v>
       </c>
       <c r="F128" t="n">
-        <v>0.126581</v>
+        <v>0.12565</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116302</v>
+        <v>0.116909</v>
       </c>
       <c r="C129" t="n">
-        <v>0.188896</v>
+        <v>0.188272</v>
       </c>
       <c r="D129" t="n">
-        <v>0.520573</v>
+        <v>0.521767</v>
       </c>
       <c r="E129" t="n">
-        <v>0.089194</v>
+        <v>0.08817179999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>0.129316</v>
+        <v>0.130216</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120297</v>
+        <v>0.121864</v>
       </c>
       <c r="C130" t="n">
-        <v>0.196608</v>
+        <v>0.194961</v>
       </c>
       <c r="D130" t="n">
-        <v>0.535771</v>
+        <v>0.53656</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0930034</v>
+        <v>0.090262</v>
       </c>
       <c r="F130" t="n">
-        <v>0.136251</v>
+        <v>0.13484</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.124564</v>
+        <v>0.129317</v>
       </c>
       <c r="C131" t="n">
-        <v>0.203972</v>
+        <v>0.202635</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5513749999999999</v>
+        <v>0.552637</v>
       </c>
       <c r="E131" t="n">
-        <v>0.094294</v>
+        <v>0.0961022</v>
       </c>
       <c r="F131" t="n">
-        <v>0.139478</v>
+        <v>0.141575</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132005</v>
+        <v>0.133267</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214277</v>
+        <v>0.21608</v>
       </c>
       <c r="D132" t="n">
-        <v>0.567904</v>
+        <v>0.568712</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0980226</v>
+        <v>0.09945660000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>0.146054</v>
+        <v>0.147863</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.144206</v>
+        <v>0.142072</v>
       </c>
       <c r="C133" t="n">
-        <v>0.225749</v>
+        <v>0.228007</v>
       </c>
       <c r="D133" t="n">
-        <v>0.585082</v>
+        <v>0.585801</v>
       </c>
       <c r="E133" t="n">
-        <v>0.103242</v>
+        <v>0.104903</v>
       </c>
       <c r="F133" t="n">
-        <v>0.154249</v>
+        <v>0.156482</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155073</v>
+        <v>0.154529</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244481</v>
+        <v>0.244484</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6032149999999999</v>
+        <v>0.60432</v>
       </c>
       <c r="E134" t="n">
-        <v>0.108915</v>
+        <v>0.113966</v>
       </c>
       <c r="F134" t="n">
-        <v>0.164364</v>
+        <v>0.167899</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.170582</v>
+        <v>0.171885</v>
       </c>
       <c r="C135" t="n">
-        <v>0.269712</v>
+        <v>0.270864</v>
       </c>
       <c r="D135" t="n">
-        <v>0.442517</v>
+        <v>0.443266</v>
       </c>
       <c r="E135" t="n">
-        <v>0.121259</v>
+        <v>0.120101</v>
       </c>
       <c r="F135" t="n">
-        <v>0.179292</v>
+        <v>0.176553</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.196245</v>
+        <v>0.196437</v>
       </c>
       <c r="C136" t="n">
-        <v>0.306647</v>
+        <v>0.306695</v>
       </c>
       <c r="D136" t="n">
-        <v>0.452818</v>
+        <v>0.453304</v>
       </c>
       <c r="E136" t="n">
-        <v>0.135401</v>
+        <v>0.135991</v>
       </c>
       <c r="F136" t="n">
-        <v>0.198377</v>
+        <v>0.19956</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235341</v>
+        <v>0.236396</v>
       </c>
       <c r="C137" t="n">
-        <v>0.364113</v>
+        <v>0.364821</v>
       </c>
       <c r="D137" t="n">
-        <v>0.463818</v>
+        <v>0.464536</v>
       </c>
       <c r="E137" t="n">
-        <v>0.150176</v>
+        <v>0.151533</v>
       </c>
       <c r="F137" t="n">
-        <v>0.181548</v>
+        <v>0.182939</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.166288</v>
+        <v>0.167721</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225169</v>
+        <v>0.225973</v>
       </c>
       <c r="D138" t="n">
-        <v>0.475131</v>
+        <v>0.475812</v>
       </c>
       <c r="E138" t="n">
-        <v>0.151716</v>
+        <v>0.151159</v>
       </c>
       <c r="F138" t="n">
-        <v>0.184715</v>
+        <v>0.18577</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.168209</v>
+        <v>0.170075</v>
       </c>
       <c r="C139" t="n">
-        <v>0.228987</v>
+        <v>0.230594</v>
       </c>
       <c r="D139" t="n">
-        <v>0.486794</v>
+        <v>0.487397</v>
       </c>
       <c r="E139" t="n">
-        <v>0.152488</v>
+        <v>0.152499</v>
       </c>
       <c r="F139" t="n">
-        <v>0.187387</v>
+        <v>0.187452</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.16957</v>
+        <v>0.17005</v>
       </c>
       <c r="C140" t="n">
-        <v>0.234687</v>
+        <v>0.234159</v>
       </c>
       <c r="D140" t="n">
-        <v>0.498768</v>
+        <v>0.49951</v>
       </c>
       <c r="E140" t="n">
-        <v>0.153741</v>
+        <v>0.154435</v>
       </c>
       <c r="F140" t="n">
-        <v>0.191166</v>
+        <v>0.190953</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173634</v>
+        <v>0.172896</v>
       </c>
       <c r="C141" t="n">
-        <v>0.240385</v>
+        <v>0.238573</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5114030000000001</v>
+        <v>0.512467</v>
       </c>
       <c r="E141" t="n">
-        <v>0.154392</v>
+        <v>0.155616</v>
       </c>
       <c r="F141" t="n">
-        <v>0.194193</v>
+        <v>0.19326</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174028</v>
+        <v>0.17542</v>
       </c>
       <c r="C142" t="n">
-        <v>0.243114</v>
+        <v>0.244018</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5243100000000001</v>
+        <v>0.525554</v>
       </c>
       <c r="E142" t="n">
-        <v>0.157265</v>
+        <v>0.156507</v>
       </c>
       <c r="F142" t="n">
-        <v>0.197755</v>
+        <v>0.198083</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.17731</v>
+        <v>0.176047</v>
       </c>
       <c r="C143" t="n">
-        <v>0.249848</v>
+        <v>0.249878</v>
       </c>
       <c r="D143" t="n">
-        <v>0.538786</v>
+        <v>0.539658</v>
       </c>
       <c r="E143" t="n">
-        <v>0.158608</v>
+        <v>0.158318</v>
       </c>
       <c r="F143" t="n">
-        <v>0.201101</v>
+        <v>0.200846</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0328408</v>
+        <v>0.0327849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0331648</v>
+        <v>0.0329569</v>
       </c>
       <c r="D2" t="n">
-        <v>0.115831</v>
+        <v>0.118127</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0313252</v>
+        <v>0.0312534</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0287795</v>
+        <v>0.0287792</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0353247</v>
+        <v>0.0351584</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0348206</v>
+        <v>0.0349731</v>
       </c>
       <c r="D3" t="n">
-        <v>0.121199</v>
+        <v>0.123044</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03186</v>
+        <v>0.0318515</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0294257</v>
+        <v>0.0295347</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0376569</v>
+        <v>0.0378928</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0367284</v>
+        <v>0.0368206</v>
       </c>
       <c r="D4" t="n">
-        <v>0.125572</v>
+        <v>0.127854</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0330678</v>
+        <v>0.0330957</v>
       </c>
       <c r="F4" t="n">
-        <v>0.030777</v>
+        <v>0.0307323</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0447398</v>
+        <v>0.0444803</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0435977</v>
+        <v>0.0436675</v>
       </c>
       <c r="D5" t="n">
-        <v>0.132116</v>
+        <v>0.133957</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0347647</v>
+        <v>0.0347476</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0323209</v>
+        <v>0.0323509</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0538859</v>
+        <v>0.0538061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0536435</v>
+        <v>0.0539369</v>
       </c>
       <c r="D6" t="n">
-        <v>0.138291</v>
+        <v>0.140546</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0375505</v>
+        <v>0.0375118</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0352365</v>
+        <v>0.0354421</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0779029</v>
+        <v>0.07785839999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0774181</v>
+        <v>0.0776326</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09581249999999999</v>
+        <v>0.0970666</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0435958</v>
+        <v>0.0437933</v>
       </c>
       <c r="F7" t="n">
-        <v>0.040775</v>
+        <v>0.0413165</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.102737</v>
+        <v>0.103203</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113817</v>
+        <v>0.113998</v>
       </c>
       <c r="D8" t="n">
-        <v>0.102443</v>
+        <v>0.10395</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0573055</v>
+        <v>0.0573635</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0540689</v>
+        <v>0.0542517</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145612</v>
+        <v>0.145614</v>
       </c>
       <c r="C9" t="n">
-        <v>0.155397</v>
+        <v>0.1555</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109546</v>
+        <v>0.109783</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0286444</v>
+        <v>0.028658</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0259979</v>
+        <v>0.0260462</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0306982</v>
+        <v>0.0308607</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0307111</v>
+        <v>0.0309628</v>
       </c>
       <c r="D10" t="n">
-        <v>0.115657</v>
+        <v>0.115685</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0288684</v>
+        <v>0.02892</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0262641</v>
+        <v>0.0263344</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0313879</v>
+        <v>0.0315165</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0313227</v>
+        <v>0.0317506</v>
       </c>
       <c r="D11" t="n">
-        <v>0.121339</v>
+        <v>0.121538</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0291608</v>
+        <v>0.0292064</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0265844</v>
+        <v>0.0266884</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0315404</v>
+        <v>0.0317099</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0318434</v>
+        <v>0.03249</v>
       </c>
       <c r="D12" t="n">
-        <v>0.126529</v>
+        <v>0.125681</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0296525</v>
+        <v>0.0297165</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0271815</v>
+        <v>0.0272913</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0322891</v>
+        <v>0.0323797</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0330739</v>
+        <v>0.033732</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131722</v>
+        <v>0.131624</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0299424</v>
+        <v>0.0300037</v>
       </c>
       <c r="F13" t="n">
-        <v>0.027514</v>
+        <v>0.0276936</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0333316</v>
+        <v>0.0337727</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0337526</v>
+        <v>0.0347268</v>
       </c>
       <c r="D14" t="n">
-        <v>0.136624</v>
+        <v>0.13717</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0302913</v>
+        <v>0.0303501</v>
       </c>
       <c r="F14" t="n">
-        <v>0.028053</v>
+        <v>0.028289</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0345485</v>
+        <v>0.0349045</v>
       </c>
       <c r="C15" t="n">
-        <v>0.035359</v>
+        <v>0.0363388</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140964</v>
+        <v>0.141086</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0309162</v>
+        <v>0.0309948</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0287387</v>
+        <v>0.0289591</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0364815</v>
+        <v>0.0366919</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0375672</v>
+        <v>0.0382737</v>
       </c>
       <c r="D16" t="n">
-        <v>0.144827</v>
+        <v>0.144665</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0317625</v>
+        <v>0.0318459</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0297415</v>
+        <v>0.0300396</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0388257</v>
+        <v>0.0392383</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0398544</v>
+        <v>0.0405659</v>
       </c>
       <c r="D17" t="n">
-        <v>0.149689</v>
+        <v>0.14893</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0326848</v>
+        <v>0.03282</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0309915</v>
+        <v>0.0311982</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0428085</v>
+        <v>0.0432596</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0434434</v>
+        <v>0.04415</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1538</v>
+        <v>0.15304</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0338445</v>
+        <v>0.0339431</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0321552</v>
+        <v>0.0325099</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0500244</v>
+        <v>0.050103</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0515893</v>
+        <v>0.0519526</v>
       </c>
       <c r="D19" t="n">
-        <v>0.157484</v>
+        <v>0.157565</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0355231</v>
+        <v>0.0356784</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0338976</v>
+        <v>0.0344193</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06507300000000001</v>
+        <v>0.0649748</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0633726</v>
+        <v>0.0634328</v>
       </c>
       <c r="D20" t="n">
-        <v>0.161461</v>
+        <v>0.161972</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0389438</v>
+        <v>0.0391239</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0376073</v>
+        <v>0.0379454</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0828005</v>
+        <v>0.08273510000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0816595</v>
+        <v>0.0818644</v>
       </c>
       <c r="D21" t="n">
-        <v>0.11452</v>
+        <v>0.114808</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0452861</v>
+        <v>0.0453476</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0435563</v>
+        <v>0.0439515</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.111933</v>
+        <v>0.111953</v>
       </c>
       <c r="C22" t="n">
-        <v>0.113082</v>
+        <v>0.113054</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119786</v>
+        <v>0.120182</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0607842</v>
+        <v>0.0605914</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0581606</v>
+        <v>0.0582385</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152316</v>
+        <v>0.152584</v>
       </c>
       <c r="C23" t="n">
-        <v>0.147704</v>
+        <v>0.147561</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124365</v>
+        <v>0.124634</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0286384</v>
+        <v>0.028676</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0270799</v>
+        <v>0.0278622</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0329748</v>
+        <v>0.0330989</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0355178</v>
+        <v>0.0357909</v>
       </c>
       <c r="D24" t="n">
-        <v>0.129303</v>
+        <v>0.130119</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0289087</v>
+        <v>0.0289747</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0275838</v>
+        <v>0.0282772</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.033521</v>
+        <v>0.0336349</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0363878</v>
+        <v>0.0364092</v>
       </c>
       <c r="D25" t="n">
-        <v>0.134487</v>
+        <v>0.134576</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0291804</v>
+        <v>0.0291945</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0280845</v>
+        <v>0.0287132</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.034173</v>
+        <v>0.0343166</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0377371</v>
+        <v>0.0373428</v>
       </c>
       <c r="D26" t="n">
-        <v>0.138306</v>
+        <v>0.138681</v>
       </c>
       <c r="E26" t="n">
-        <v>0.029473</v>
+        <v>0.0295215</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0286138</v>
+        <v>0.0290489</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0348077</v>
+        <v>0.0349376</v>
       </c>
       <c r="C27" t="n">
-        <v>0.038797</v>
+        <v>0.0383238</v>
       </c>
       <c r="D27" t="n">
-        <v>0.143598</v>
+        <v>0.14334</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0299418</v>
+        <v>0.0299906</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0294348</v>
+        <v>0.0298402</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0356754</v>
+        <v>0.0357708</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0401119</v>
+        <v>0.0392743</v>
       </c>
       <c r="D28" t="n">
-        <v>0.147833</v>
+        <v>0.148145</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0305172</v>
+        <v>0.0304916</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0303861</v>
+        <v>0.0304275</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0373397</v>
+        <v>0.0373366</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0415388</v>
+        <v>0.0407582</v>
       </c>
       <c r="D29" t="n">
-        <v>0.152027</v>
+        <v>0.152401</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0313553</v>
+        <v>0.0313089</v>
       </c>
       <c r="F29" t="n">
-        <v>0.031566</v>
+        <v>0.0312813</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0391112</v>
+        <v>0.0390861</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0433045</v>
+        <v>0.0424501</v>
       </c>
       <c r="D30" t="n">
-        <v>0.156274</v>
+        <v>0.156505</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0320455</v>
+        <v>0.0320158</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0324235</v>
+        <v>0.0322637</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0421075</v>
+        <v>0.0421326</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0463589</v>
+        <v>0.0455607</v>
       </c>
       <c r="D31" t="n">
-        <v>0.160098</v>
+        <v>0.159797</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0331756</v>
+        <v>0.0331111</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0337828</v>
+        <v>0.0331685</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0465248</v>
+        <v>0.0465067</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0503052</v>
+        <v>0.0494764</v>
       </c>
       <c r="D32" t="n">
-        <v>0.163379</v>
+        <v>0.163299</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0344347</v>
+        <v>0.0343404</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0350339</v>
+        <v>0.034403</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0532407</v>
+        <v>0.0530946</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0564094</v>
+        <v>0.0559239</v>
       </c>
       <c r="D33" t="n">
-        <v>0.167362</v>
+        <v>0.167218</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0362223</v>
+        <v>0.0361402</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0370276</v>
+        <v>0.036314</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0630117</v>
+        <v>0.0629122</v>
       </c>
       <c r="C34" t="n">
-        <v>0.065771</v>
+        <v>0.0653435</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171188</v>
+        <v>0.171182</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0397452</v>
+        <v>0.0396569</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0401851</v>
+        <v>0.0394355</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0806887</v>
+        <v>0.08073420000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0820606</v>
+        <v>0.0818144</v>
       </c>
       <c r="D35" t="n">
-        <v>0.119081</v>
+        <v>0.118864</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0462528</v>
+        <v>0.0462093</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0462358</v>
+        <v>0.0455934</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101745</v>
+        <v>0.101856</v>
       </c>
       <c r="C36" t="n">
-        <v>0.101653</v>
+        <v>0.10184</v>
       </c>
       <c r="D36" t="n">
-        <v>0.123593</v>
+        <v>0.123727</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0574122</v>
+        <v>0.0573604</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0561483</v>
+        <v>0.055655</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.135872</v>
+        <v>0.13575</v>
       </c>
       <c r="C37" t="n">
-        <v>0.134973</v>
+        <v>0.135065</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128293</v>
+        <v>0.128087</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0289494</v>
+        <v>0.0289349</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0293954</v>
+        <v>0.0287137</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0335887</v>
+        <v>0.033453</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0382554</v>
+        <v>0.0374103</v>
       </c>
       <c r="D38" t="n">
-        <v>0.133299</v>
+        <v>0.132946</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0293368</v>
+        <v>0.0295172</v>
       </c>
       <c r="F38" t="n">
-        <v>0.029975</v>
+        <v>0.0291772</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0341776</v>
+        <v>0.0340826</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0389208</v>
+        <v>0.0381411</v>
       </c>
       <c r="D39" t="n">
-        <v>0.138237</v>
+        <v>0.137752</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0297292</v>
+        <v>0.0296092</v>
       </c>
       <c r="F39" t="n">
-        <v>0.030561</v>
+        <v>0.0297387</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0352242</v>
+        <v>0.0350779</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0399104</v>
+        <v>0.0392687</v>
       </c>
       <c r="D40" t="n">
-        <v>0.142569</v>
+        <v>0.142296</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0300473</v>
+        <v>0.0300644</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0309871</v>
+        <v>0.0302304</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0358868</v>
+        <v>0.0357783</v>
       </c>
       <c r="C41" t="n">
-        <v>0.040864</v>
+        <v>0.0403781</v>
       </c>
       <c r="D41" t="n">
-        <v>0.146732</v>
+        <v>0.146447</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0304655</v>
+        <v>0.0303575</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0315088</v>
+        <v>0.0307719</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0371623</v>
+        <v>0.037103</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0419229</v>
+        <v>0.0415455</v>
       </c>
       <c r="D42" t="n">
-        <v>0.151011</v>
+        <v>0.151238</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0309854</v>
+        <v>0.0310037</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0323375</v>
+        <v>0.0314681</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0386002</v>
+        <v>0.0385785</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0434246</v>
+        <v>0.0431115</v>
       </c>
       <c r="D43" t="n">
-        <v>0.155787</v>
+        <v>0.155516</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0317055</v>
+        <v>0.0315994</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0330686</v>
+        <v>0.0323792</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0403308</v>
+        <v>0.0402535</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0455062</v>
+        <v>0.045259</v>
       </c>
       <c r="D44" t="n">
-        <v>0.159621</v>
+        <v>0.159332</v>
       </c>
       <c r="E44" t="n">
-        <v>0.032605</v>
+        <v>0.032739</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0340245</v>
+        <v>0.0334453</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0433986</v>
+        <v>0.0433929</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0480178</v>
+        <v>0.0479228</v>
       </c>
       <c r="D45" t="n">
-        <v>0.162951</v>
+        <v>0.162997</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0335851</v>
+        <v>0.0336049</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0350603</v>
+        <v>0.034686</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0470416</v>
+        <v>0.0472413</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0517113</v>
+        <v>0.0516862</v>
       </c>
       <c r="D46" t="n">
-        <v>0.166997</v>
+        <v>0.166652</v>
       </c>
       <c r="E46" t="n">
-        <v>0.035127</v>
+        <v>0.0356722</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0366433</v>
+        <v>0.0363337</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0536849</v>
+        <v>0.0536241</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0571614</v>
+        <v>0.0571813</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170941</v>
+        <v>0.170642</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0371613</v>
+        <v>0.037205</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0384425</v>
+        <v>0.038355</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0626715</v>
+        <v>0.062671</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0657808</v>
+        <v>0.065778</v>
       </c>
       <c r="D48" t="n">
-        <v>0.175036</v>
+        <v>0.175034</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0408547</v>
+        <v>0.0408455</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0417143</v>
+        <v>0.0415597</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07442070000000001</v>
+        <v>0.0745131</v>
       </c>
       <c r="C49" t="n">
-        <v>0.077468</v>
+        <v>0.07748579999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.179189</v>
+        <v>0.179236</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0462636</v>
+        <v>0.0462436</v>
       </c>
       <c r="F49" t="n">
-        <v>0.046431</v>
+        <v>0.0464103</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.095137</v>
+        <v>0.0952303</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0963716</v>
+        <v>0.09632880000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.125265</v>
+        <v>0.125262</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0549104</v>
+        <v>0.0546516</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0540504</v>
+        <v>0.0540175</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125265</v>
+        <v>0.125454</v>
       </c>
       <c r="C51" t="n">
-        <v>0.127292</v>
+        <v>0.127055</v>
       </c>
       <c r="D51" t="n">
-        <v>0.129848</v>
+        <v>0.130241</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0308521</v>
+        <v>0.0304691</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0324042</v>
+        <v>0.0323617</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.169974</v>
+        <v>0.169816</v>
       </c>
       <c r="C52" t="n">
-        <v>0.173488</v>
+        <v>0.173424</v>
       </c>
       <c r="D52" t="n">
-        <v>0.134599</v>
+        <v>0.134536</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0315644</v>
+        <v>0.0313851</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0328664</v>
+        <v>0.0329331</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0357885</v>
+        <v>0.0358333</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0413476</v>
+        <v>0.0412559</v>
       </c>
       <c r="D53" t="n">
-        <v>0.139251</v>
+        <v>0.139252</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0318346</v>
+        <v>0.0316829</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0334178</v>
+        <v>0.0334076</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0368748</v>
+        <v>0.0369446</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0421595</v>
+        <v>0.0421031</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144177</v>
+        <v>0.144113</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0315028</v>
+        <v>0.0326102</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0336757</v>
+        <v>0.0338933</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0377907</v>
+        <v>0.0382633</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0430086</v>
+        <v>0.0430967</v>
       </c>
       <c r="D55" t="n">
-        <v>0.148815</v>
+        <v>0.148876</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0318974</v>
+        <v>0.0321314</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0343596</v>
+        <v>0.0345869</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.038972</v>
+        <v>0.0391632</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0444314</v>
+        <v>0.0443509</v>
       </c>
       <c r="D56" t="n">
-        <v>0.153375</v>
+        <v>0.153976</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0323889</v>
+        <v>0.032753</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0355383</v>
+        <v>0.0342735</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0402569</v>
+        <v>0.040611</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0457106</v>
+        <v>0.0456583</v>
       </c>
       <c r="D57" t="n">
-        <v>0.157689</v>
+        <v>0.158207</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0338002</v>
+        <v>0.033584</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0359025</v>
+        <v>0.0360975</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.042222</v>
+        <v>0.0420038</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0476003</v>
+        <v>0.0474923</v>
       </c>
       <c r="D58" t="n">
-        <v>0.162014</v>
+        <v>0.162489</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0345064</v>
+        <v>0.034297</v>
       </c>
       <c r="F58" t="n">
-        <v>0.037725</v>
+        <v>0.0359958</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0446564</v>
+        <v>0.0446211</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0501949</v>
+        <v>0.0500641</v>
       </c>
       <c r="D59" t="n">
-        <v>0.165626</v>
+        <v>0.166181</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0345576</v>
+        <v>0.0348825</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0375523</v>
+        <v>0.038106</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0491695</v>
+        <v>0.04921</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0535828</v>
+        <v>0.0535914</v>
       </c>
       <c r="D60" t="n">
-        <v>0.169643</v>
+        <v>0.170193</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0363275</v>
+        <v>0.0363037</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0389732</v>
+        <v>0.0401627</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0536675</v>
+        <v>0.0536525</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0581579</v>
+        <v>0.0582855</v>
       </c>
       <c r="D61" t="n">
-        <v>0.17386</v>
+        <v>0.175129</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0385347</v>
+        <v>0.0387986</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0414036</v>
+        <v>0.0409952</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.062754</v>
+        <v>0.0623296</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0669033</v>
+        <v>0.06651849999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.179057</v>
+        <v>0.179105</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0419174</v>
+        <v>0.0420148</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0445447</v>
+        <v>0.0448002</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07360460000000001</v>
+        <v>0.07371</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0768809</v>
+        <v>0.0773385</v>
       </c>
       <c r="D63" t="n">
-        <v>0.183392</v>
+        <v>0.183497</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0470251</v>
+        <v>0.0472998</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0491625</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.093027</v>
+        <v>0.0932634</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0937706</v>
+        <v>0.0936086</v>
       </c>
       <c r="D64" t="n">
-        <v>0.131478</v>
+        <v>0.132435</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0554459</v>
+        <v>0.0550647</v>
       </c>
       <c r="F64" t="n">
-        <v>0.055741</v>
+        <v>0.0560887</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119177</v>
+        <v>0.119043</v>
       </c>
       <c r="C65" t="n">
-        <v>0.121179</v>
+        <v>0.120796</v>
       </c>
       <c r="D65" t="n">
-        <v>0.137957</v>
+        <v>0.143606</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0688513</v>
+        <v>0.0685579</v>
       </c>
       <c r="F65" t="n">
-        <v>0.06892089999999999</v>
+        <v>0.06922739999999999</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16116</v>
+        <v>0.16111</v>
       </c>
       <c r="C66" t="n">
-        <v>0.162954</v>
+        <v>0.163342</v>
       </c>
       <c r="D66" t="n">
-        <v>0.143875</v>
+        <v>0.149618</v>
       </c>
       <c r="E66" t="n">
-        <v>0.036539</v>
+        <v>0.0361031</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0389023</v>
+        <v>0.0390506</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0410177</v>
+        <v>0.0411035</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0493507</v>
+        <v>0.0486659</v>
       </c>
       <c r="D67" t="n">
-        <v>0.152056</v>
+        <v>0.158524</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0367412</v>
+        <v>0.0363384</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0395508</v>
+        <v>0.0398381</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0414438</v>
+        <v>0.0416987</v>
       </c>
       <c r="C68" t="n">
-        <v>0.050452</v>
+        <v>0.0499266</v>
       </c>
       <c r="D68" t="n">
-        <v>0.16015</v>
+        <v>0.166151</v>
       </c>
       <c r="E68" t="n">
-        <v>0.037349</v>
+        <v>0.0368878</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0401141</v>
+        <v>0.0403936</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0427535</v>
+        <v>0.0427436</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0517136</v>
+        <v>0.051299</v>
       </c>
       <c r="D69" t="n">
-        <v>0.168647</v>
+        <v>0.173254</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0375564</v>
+        <v>0.0373804</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0407808</v>
+        <v>0.0410758</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.043757</v>
+        <v>0.0439586</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0530946</v>
+        <v>0.0528299</v>
       </c>
       <c r="D70" t="n">
-        <v>0.177182</v>
+        <v>0.183726</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0379989</v>
+        <v>0.0376597</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0416504</v>
+        <v>0.0418621</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0447389</v>
+        <v>0.0449079</v>
       </c>
       <c r="C71" t="n">
-        <v>0.054818</v>
+        <v>0.0547124</v>
       </c>
       <c r="D71" t="n">
-        <v>0.186815</v>
+        <v>0.193358</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0386877</v>
+        <v>0.0381803</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0425746</v>
+        <v>0.0425129</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0465592</v>
+        <v>0.0468444</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0568027</v>
+        <v>0.0568282</v>
       </c>
       <c r="D72" t="n">
-        <v>0.196851</v>
+        <v>0.202518</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0394587</v>
+        <v>0.0389621</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0436283</v>
+        <v>0.0436285</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.048652</v>
+        <v>0.0492353</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0590436</v>
+        <v>0.0596035</v>
       </c>
       <c r="D73" t="n">
-        <v>0.208378</v>
+        <v>0.212452</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0404306</v>
+        <v>0.0400312</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0448326</v>
+        <v>0.0449373</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0518936</v>
+        <v>0.0524059</v>
       </c>
       <c r="C74" t="n">
-        <v>0.062664</v>
+        <v>0.0640212</v>
       </c>
       <c r="D74" t="n">
-        <v>0.219061</v>
+        <v>0.223519</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0414506</v>
+        <v>0.0419541</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0466583</v>
+        <v>0.0467631</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.056757</v>
+        <v>0.0573796</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0668252</v>
+        <v>0.0693531</v>
       </c>
       <c r="D75" t="n">
-        <v>0.231293</v>
+        <v>0.234362</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0436674</v>
+        <v>0.0432713</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0484965</v>
+        <v>0.0489629</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.063765</v>
+        <v>0.06456779999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0739876</v>
+        <v>0.0779407</v>
       </c>
       <c r="D76" t="n">
-        <v>0.243799</v>
+        <v>0.247604</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0463855</v>
+        <v>0.0463348</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0516248</v>
+        <v>0.0519312</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0744249</v>
+        <v>0.07535890000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0858643</v>
+        <v>0.0904117</v>
       </c>
       <c r="D77" t="n">
-        <v>0.257965</v>
+        <v>0.261193</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0508523</v>
+        <v>0.0508842</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0558434</v>
+        <v>0.0564733</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0900596</v>
+        <v>0.09147719999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.102502</v>
+        <v>0.10807</v>
       </c>
       <c r="D78" t="n">
-        <v>0.216846</v>
+        <v>0.218041</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0576191</v>
+        <v>0.058496</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0629883</v>
+        <v>0.0637128</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115861</v>
+        <v>0.116919</v>
       </c>
       <c r="C79" t="n">
-        <v>0.130942</v>
+        <v>0.138415</v>
       </c>
       <c r="D79" t="n">
-        <v>0.229535</v>
+        <v>0.229178</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0696833</v>
+        <v>0.06994930000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0738896</v>
+        <v>0.0770417</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154048</v>
+        <v>0.155899</v>
       </c>
       <c r="C80" t="n">
-        <v>0.175658</v>
+        <v>0.182757</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242927</v>
+        <v>0.243557</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0406713</v>
+        <v>0.0402486</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0440107</v>
+        <v>0.0443119</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.046536</v>
+        <v>0.0476246</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0579747</v>
+        <v>0.0626229</v>
       </c>
       <c r="D81" t="n">
-        <v>0.255683</v>
+        <v>0.254468</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0407052</v>
+        <v>0.0410075</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0446224</v>
+        <v>0.0456333</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0475383</v>
+        <v>0.0488424</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0603462</v>
+        <v>0.06686590000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268754</v>
+        <v>0.268228</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0413897</v>
+        <v>0.0416721</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0456107</v>
+        <v>0.0472013</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0483736</v>
+        <v>0.0505865</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0632597</v>
+        <v>0.07159989999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.282204</v>
+        <v>0.280867</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0416384</v>
+        <v>0.0424452</v>
       </c>
       <c r="F83" t="n">
-        <v>0.046365</v>
+        <v>0.049106</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0496539</v>
+        <v>0.052748</v>
       </c>
       <c r="C84" t="n">
-        <v>0.06712029999999999</v>
+        <v>0.07654900000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.295749</v>
+        <v>0.293809</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0423897</v>
+        <v>0.0432449</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0475584</v>
+        <v>0.0509635</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0512106</v>
+        <v>0.0549284</v>
       </c>
       <c r="C85" t="n">
-        <v>0.07239619999999999</v>
+        <v>0.08220479999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.310253</v>
+        <v>0.308726</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0430335</v>
+        <v>0.0439729</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0488321</v>
+        <v>0.0541334</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0529944</v>
+        <v>0.0582293</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0789374</v>
+        <v>0.08931210000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.324472</v>
+        <v>0.322794</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0440034</v>
+        <v>0.0455103</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0505777</v>
+        <v>0.0570257</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0560205</v>
+        <v>0.0623024</v>
       </c>
       <c r="C87" t="n">
-        <v>0.087439</v>
+        <v>0.0966788</v>
       </c>
       <c r="D87" t="n">
-        <v>0.339584</v>
+        <v>0.337565</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0449497</v>
+        <v>0.0473824</v>
       </c>
       <c r="F87" t="n">
-        <v>0.053387</v>
+        <v>0.0610927</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0595847</v>
+        <v>0.0673723</v>
       </c>
       <c r="C88" t="n">
-        <v>0.096428</v>
+        <v>0.104787</v>
       </c>
       <c r="D88" t="n">
-        <v>0.354985</v>
+        <v>0.353329</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0468334</v>
+        <v>0.0498756</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0566186</v>
+        <v>0.0656504</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06551990000000001</v>
+        <v>0.0742197</v>
       </c>
       <c r="C89" t="n">
-        <v>0.108903</v>
+        <v>0.115128</v>
       </c>
       <c r="D89" t="n">
-        <v>0.371059</v>
+        <v>0.369305</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0490486</v>
+        <v>0.0534301</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0615569</v>
+        <v>0.0718814</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.07386810000000001</v>
+        <v>0.08377039999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.125321</v>
+        <v>0.127156</v>
       </c>
       <c r="D90" t="n">
-        <v>0.38799</v>
+        <v>0.386769</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0526585</v>
+        <v>0.0581501</v>
       </c>
       <c r="F90" t="n">
-        <v>0.06902949999999999</v>
+        <v>0.0794695</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0858529</v>
+        <v>0.09502380000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.144717</v>
+        <v>0.142414</v>
       </c>
       <c r="D91" t="n">
-        <v>0.404709</v>
+        <v>0.404515</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0582245</v>
+        <v>0.0656095</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0780014</v>
+        <v>0.087267</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.102298</v>
+        <v>0.110336</v>
       </c>
       <c r="C92" t="n">
-        <v>0.169625</v>
+        <v>0.163838</v>
       </c>
       <c r="D92" t="n">
-        <v>0.327999</v>
+        <v>0.328019</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0656547</v>
+        <v>0.07270790000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09138309999999999</v>
+        <v>0.0975047</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.127174</v>
+        <v>0.132682</v>
       </c>
       <c r="C93" t="n">
-        <v>0.20042</v>
+        <v>0.194067</v>
       </c>
       <c r="D93" t="n">
-        <v>0.33888</v>
+        <v>0.338843</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0788517</v>
+        <v>0.0854197</v>
       </c>
       <c r="F93" t="n">
-        <v>0.110321</v>
+        <v>0.111739</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.164092</v>
+        <v>0.165975</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241533</v>
+        <v>0.236415</v>
       </c>
       <c r="D94" t="n">
-        <v>0.350461</v>
+        <v>0.35021</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0445816</v>
+        <v>0.0504082</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0563951</v>
+        <v>0.0648924</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0587593</v>
+        <v>0.06663719999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.102749</v>
+        <v>0.100667</v>
       </c>
       <c r="D95" t="n">
-        <v>0.361846</v>
+        <v>0.3624</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0460261</v>
+        <v>0.0521683</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0601341</v>
+        <v>0.0676972</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0618061</v>
+        <v>0.0695641</v>
       </c>
       <c r="C96" t="n">
-        <v>0.111246</v>
+        <v>0.105355</v>
       </c>
       <c r="D96" t="n">
-        <v>0.373855</v>
+        <v>0.373994</v>
       </c>
       <c r="E96" t="n">
-        <v>0.047196</v>
+        <v>0.0536487</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06442000000000001</v>
+        <v>0.0705715</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06585589999999999</v>
+        <v>0.07253850000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.119969</v>
+        <v>0.110839</v>
       </c>
       <c r="D97" t="n">
-        <v>0.386287</v>
+        <v>0.386807</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0489331</v>
+        <v>0.0555691</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0699139</v>
+        <v>0.0731255</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0704436</v>
+        <v>0.0757734</v>
       </c>
       <c r="C98" t="n">
-        <v>0.128196</v>
+        <v>0.117249</v>
       </c>
       <c r="D98" t="n">
-        <v>0.398917</v>
+        <v>0.399368</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0512769</v>
+        <v>0.0569753</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0755763</v>
+        <v>0.0764743</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07595689999999999</v>
+        <v>0.078428</v>
       </c>
       <c r="C99" t="n">
-        <v>0.136257</v>
+        <v>0.124725</v>
       </c>
       <c r="D99" t="n">
-        <v>0.412106</v>
+        <v>0.412768</v>
       </c>
       <c r="E99" t="n">
-        <v>0.053964</v>
+        <v>0.0585216</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0820501</v>
+        <v>0.0796106</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0817397</v>
+        <v>0.0815414</v>
       </c>
       <c r="C100" t="n">
-        <v>0.144137</v>
+        <v>0.132646</v>
       </c>
       <c r="D100" t="n">
-        <v>0.425895</v>
+        <v>0.426903</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0576314</v>
+        <v>0.061176</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0883968</v>
+        <v>0.0831141</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08801100000000001</v>
+        <v>0.08559079999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.152125</v>
+        <v>0.142174</v>
       </c>
       <c r="D101" t="n">
-        <v>0.440382</v>
+        <v>0.441235</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0614741</v>
+        <v>0.06311559999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0951472</v>
+        <v>0.0865042</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09532939999999999</v>
+        <v>0.0902881</v>
       </c>
       <c r="C102" t="n">
-        <v>0.160468</v>
+        <v>0.152231</v>
       </c>
       <c r="D102" t="n">
-        <v>0.455937</v>
+        <v>0.457036</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0656563</v>
+        <v>0.0650143</v>
       </c>
       <c r="F102" t="n">
-        <v>0.102006</v>
+        <v>0.0911095</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.10309</v>
+        <v>0.0966094</v>
       </c>
       <c r="C103" t="n">
-        <v>0.170115</v>
+        <v>0.164014</v>
       </c>
       <c r="D103" t="n">
-        <v>0.472051</v>
+        <v>0.472805</v>
       </c>
       <c r="E103" t="n">
-        <v>0.07029820000000001</v>
+        <v>0.06828239999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>0.108835</v>
+        <v>0.0962686</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.11228</v>
+        <v>0.104871</v>
       </c>
       <c r="C104" t="n">
-        <v>0.18145</v>
+        <v>0.177202</v>
       </c>
       <c r="D104" t="n">
-        <v>0.488536</v>
+        <v>0.489658</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0765868</v>
+        <v>0.0726086</v>
       </c>
       <c r="F104" t="n">
-        <v>0.116778</v>
+        <v>0.103837</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.12332</v>
+        <v>0.11536</v>
       </c>
       <c r="C105" t="n">
-        <v>0.196542</v>
+        <v>0.193508</v>
       </c>
       <c r="D105" t="n">
-        <v>0.506699</v>
+        <v>0.506897</v>
       </c>
       <c r="E105" t="n">
-        <v>0.08307539999999999</v>
+        <v>0.07738680000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>0.125114</v>
+        <v>0.114147</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.137719</v>
+        <v>0.131392</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215997</v>
+        <v>0.214138</v>
       </c>
       <c r="D106" t="n">
-        <v>0.524276</v>
+        <v>0.524593</v>
       </c>
       <c r="E106" t="n">
-        <v>0.09199690000000001</v>
+        <v>0.0849597</v>
       </c>
       <c r="F106" t="n">
-        <v>0.136305</v>
+        <v>0.126862</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.157981</v>
+        <v>0.15317</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24248</v>
+        <v>0.240361</v>
       </c>
       <c r="D107" t="n">
-        <v>0.39453</v>
+        <v>0.39673</v>
       </c>
       <c r="E107" t="n">
-        <v>0.104427</v>
+        <v>0.0972384</v>
       </c>
       <c r="F107" t="n">
-        <v>0.152175</v>
+        <v>0.145923</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.186808</v>
+        <v>0.183959</v>
       </c>
       <c r="C108" t="n">
-        <v>0.281248</v>
+        <v>0.280412</v>
       </c>
       <c r="D108" t="n">
-        <v>0.405437</v>
+        <v>0.407596</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0636538</v>
+        <v>0.0579565</v>
       </c>
       <c r="F108" t="n">
-        <v>0.09188449999999999</v>
+        <v>0.0793166</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231768</v>
+        <v>0.229985</v>
       </c>
       <c r="C109" t="n">
-        <v>0.343074</v>
+        <v>0.34312</v>
       </c>
       <c r="D109" t="n">
-        <v>0.416189</v>
+        <v>0.418585</v>
       </c>
       <c r="E109" t="n">
-        <v>0.065829</v>
+        <v>0.0593126</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0951293</v>
+        <v>0.0826831</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0910683</v>
+        <v>0.0802124</v>
       </c>
       <c r="C110" t="n">
-        <v>0.145065</v>
+        <v>0.141571</v>
       </c>
       <c r="D110" t="n">
-        <v>0.427913</v>
+        <v>0.429904</v>
       </c>
       <c r="E110" t="n">
-        <v>0.06770370000000001</v>
+        <v>0.0606396</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0983648</v>
+        <v>0.0866253</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.09423869999999999</v>
+        <v>0.0832403</v>
       </c>
       <c r="C111" t="n">
-        <v>0.149592</v>
+        <v>0.14684</v>
       </c>
       <c r="D111" t="n">
-        <v>0.439506</v>
+        <v>0.441261</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0696353</v>
+        <v>0.0621759</v>
       </c>
       <c r="F111" t="n">
-        <v>0.101486</v>
+        <v>0.09101679999999999</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0967657</v>
+        <v>0.0869492</v>
       </c>
       <c r="C112" t="n">
-        <v>0.154345</v>
+        <v>0.152472</v>
       </c>
       <c r="D112" t="n">
-        <v>0.451861</v>
+        <v>0.453436</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0717868</v>
+        <v>0.0638252</v>
       </c>
       <c r="F112" t="n">
-        <v>0.10457</v>
+        <v>0.09600019999999999</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1001</v>
+        <v>0.09137629999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.159497</v>
+        <v>0.158084</v>
       </c>
       <c r="D113" t="n">
-        <v>0.464916</v>
+        <v>0.466706</v>
       </c>
       <c r="E113" t="n">
-        <v>0.07379049999999999</v>
+        <v>0.0658625</v>
       </c>
       <c r="F113" t="n">
-        <v>0.108308</v>
+        <v>0.101336</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103526</v>
+        <v>0.09627289999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.165001</v>
+        <v>0.163879</v>
       </c>
       <c r="D114" t="n">
-        <v>0.477577</v>
+        <v>0.480825</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0762693</v>
+        <v>0.0682022</v>
       </c>
       <c r="F114" t="n">
-        <v>0.111826</v>
+        <v>0.106277</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107525</v>
+        <v>0.101584</v>
       </c>
       <c r="C115" t="n">
-        <v>0.17132</v>
+        <v>0.17048</v>
       </c>
       <c r="D115" t="n">
-        <v>0.492139</v>
+        <v>0.493521</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0786082</v>
+        <v>0.072188</v>
       </c>
       <c r="F115" t="n">
-        <v>0.11568</v>
+        <v>0.11209</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.112267</v>
+        <v>0.107601</v>
       </c>
       <c r="C116" t="n">
-        <v>0.178418</v>
+        <v>0.178147</v>
       </c>
       <c r="D116" t="n">
-        <v>0.506517</v>
+        <v>0.508757</v>
       </c>
       <c r="E116" t="n">
-        <v>0.081357</v>
+        <v>0.07557120000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>0.119982</v>
+        <v>0.117032</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.118183</v>
+        <v>0.11481</v>
       </c>
       <c r="C117" t="n">
-        <v>0.187331</v>
+        <v>0.187143</v>
       </c>
       <c r="D117" t="n">
-        <v>0.52177</v>
+        <v>0.524174</v>
       </c>
       <c r="E117" t="n">
-        <v>0.08461879999999999</v>
+        <v>0.0795029</v>
       </c>
       <c r="F117" t="n">
-        <v>0.125088</v>
+        <v>0.123202</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.125507</v>
+        <v>0.122955</v>
       </c>
       <c r="C118" t="n">
-        <v>0.198821</v>
+        <v>0.198699</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5382</v>
+        <v>0.541042</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0889789</v>
+        <v>0.0847565</v>
       </c>
       <c r="F118" t="n">
-        <v>0.131327</v>
+        <v>0.129792</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.134969</v>
+        <v>0.133433</v>
       </c>
       <c r="C119" t="n">
-        <v>0.212758</v>
+        <v>0.212762</v>
       </c>
       <c r="D119" t="n">
-        <v>0.555572</v>
+        <v>0.558382</v>
       </c>
       <c r="E119" t="n">
-        <v>0.094197</v>
+        <v>0.0916598</v>
       </c>
       <c r="F119" t="n">
-        <v>0.138908</v>
+        <v>0.138034</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147789</v>
+        <v>0.146732</v>
       </c>
       <c r="C120" t="n">
-        <v>0.231383</v>
+        <v>0.231625</v>
       </c>
       <c r="D120" t="n">
-        <v>0.573363</v>
+        <v>0.576924</v>
       </c>
       <c r="E120" t="n">
-        <v>0.101607</v>
+        <v>0.0995824</v>
       </c>
       <c r="F120" t="n">
-        <v>0.149466</v>
+        <v>0.148919</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.16582</v>
+        <v>0.165239</v>
       </c>
       <c r="C121" t="n">
-        <v>0.257723</v>
+        <v>0.257904</v>
       </c>
       <c r="D121" t="n">
-        <v>0.425108</v>
+        <v>0.42746</v>
       </c>
       <c r="E121" t="n">
-        <v>0.112496</v>
+        <v>0.111669</v>
       </c>
       <c r="F121" t="n">
-        <v>0.164265</v>
+        <v>0.163812</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192383</v>
+        <v>0.192196</v>
       </c>
       <c r="C122" t="n">
-        <v>0.296495</v>
+        <v>0.297096</v>
       </c>
       <c r="D122" t="n">
-        <v>0.435445</v>
+        <v>0.437526</v>
       </c>
       <c r="E122" t="n">
-        <v>0.129381</v>
+        <v>0.129123</v>
       </c>
       <c r="F122" t="n">
-        <v>0.186727</v>
+        <v>0.186581</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232994</v>
+        <v>0.233249</v>
       </c>
       <c r="C123" t="n">
-        <v>0.356993</v>
+        <v>0.357773</v>
       </c>
       <c r="D123" t="n">
-        <v>0.446017</v>
+        <v>0.449001</v>
       </c>
       <c r="E123" t="n">
-        <v>0.075501</v>
+        <v>0.0771548</v>
       </c>
       <c r="F123" t="n">
-        <v>0.108767</v>
+        <v>0.110536</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.101672</v>
+        <v>0.102623</v>
       </c>
       <c r="C124" t="n">
-        <v>0.161471</v>
+        <v>0.161562</v>
       </c>
       <c r="D124" t="n">
-        <v>0.457461</v>
+        <v>0.459994</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0807208</v>
+        <v>0.0812267</v>
       </c>
       <c r="F124" t="n">
-        <v>0.113744</v>
+        <v>0.112697</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.106793</v>
+        <v>0.105556</v>
       </c>
       <c r="C125" t="n">
-        <v>0.164776</v>
+        <v>0.166692</v>
       </c>
       <c r="D125" t="n">
-        <v>0.469364</v>
+        <v>0.472605</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0813564</v>
+        <v>0.0822861</v>
       </c>
       <c r="F125" t="n">
-        <v>0.117001</v>
+        <v>0.118018</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.110331</v>
+        <v>0.109172</v>
       </c>
       <c r="C126" t="n">
-        <v>0.173681</v>
+        <v>0.173902</v>
       </c>
       <c r="D126" t="n">
-        <v>0.481451</v>
+        <v>0.48386</v>
       </c>
       <c r="E126" t="n">
-        <v>0.08291229999999999</v>
+        <v>0.08547929999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>0.12073</v>
+        <v>0.121317</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.109904</v>
+        <v>0.112221</v>
       </c>
       <c r="C127" t="n">
-        <v>0.176662</v>
+        <v>0.177774</v>
       </c>
       <c r="D127" t="n">
-        <v>0.494062</v>
+        <v>0.496986</v>
       </c>
       <c r="E127" t="n">
-        <v>0.087117</v>
+        <v>0.0850455</v>
       </c>
       <c r="F127" t="n">
-        <v>0.124481</v>
+        <v>0.122682</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114249</v>
+        <v>0.113634</v>
       </c>
       <c r="C128" t="n">
-        <v>0.183411</v>
+        <v>0.18597</v>
       </c>
       <c r="D128" t="n">
-        <v>0.507916</v>
+        <v>0.510503</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0899918</v>
+        <v>0.0883959</v>
       </c>
       <c r="F128" t="n">
-        <v>0.12565</v>
+        <v>0.130025</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116909</v>
+        <v>0.118326</v>
       </c>
       <c r="C129" t="n">
-        <v>0.188272</v>
+        <v>0.188484</v>
       </c>
       <c r="D129" t="n">
-        <v>0.521767</v>
+        <v>0.524209</v>
       </c>
       <c r="E129" t="n">
-        <v>0.08817179999999999</v>
+        <v>0.08943</v>
       </c>
       <c r="F129" t="n">
-        <v>0.130216</v>
+        <v>0.131844</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121864</v>
+        <v>0.121239</v>
       </c>
       <c r="C130" t="n">
-        <v>0.194961</v>
+        <v>0.195457</v>
       </c>
       <c r="D130" t="n">
-        <v>0.53656</v>
+        <v>0.539039</v>
       </c>
       <c r="E130" t="n">
-        <v>0.090262</v>
+        <v>0.0928703</v>
       </c>
       <c r="F130" t="n">
-        <v>0.13484</v>
+        <v>0.139284</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.129317</v>
+        <v>0.126698</v>
       </c>
       <c r="C131" t="n">
-        <v>0.202635</v>
+        <v>0.205913</v>
       </c>
       <c r="D131" t="n">
-        <v>0.552637</v>
+        <v>0.55477</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0961022</v>
+        <v>0.0966539</v>
       </c>
       <c r="F131" t="n">
-        <v>0.141575</v>
+        <v>0.141852</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133267</v>
+        <v>0.133217</v>
       </c>
       <c r="C132" t="n">
-        <v>0.21608</v>
+        <v>0.213236</v>
       </c>
       <c r="D132" t="n">
-        <v>0.568712</v>
+        <v>0.571561</v>
       </c>
       <c r="E132" t="n">
-        <v>0.09945660000000001</v>
+        <v>0.100628</v>
       </c>
       <c r="F132" t="n">
-        <v>0.147863</v>
+        <v>0.148121</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142072</v>
+        <v>0.143278</v>
       </c>
       <c r="C133" t="n">
-        <v>0.228007</v>
+        <v>0.22676</v>
       </c>
       <c r="D133" t="n">
-        <v>0.585801</v>
+        <v>0.588795</v>
       </c>
       <c r="E133" t="n">
-        <v>0.104903</v>
+        <v>0.104901</v>
       </c>
       <c r="F133" t="n">
-        <v>0.156482</v>
+        <v>0.159025</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154529</v>
+        <v>0.154633</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244484</v>
+        <v>0.246953</v>
       </c>
       <c r="D134" t="n">
-        <v>0.60432</v>
+        <v>0.607494</v>
       </c>
       <c r="E134" t="n">
-        <v>0.113966</v>
+        <v>0.111243</v>
       </c>
       <c r="F134" t="n">
-        <v>0.167899</v>
+        <v>0.165338</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171885</v>
+        <v>0.170809</v>
       </c>
       <c r="C135" t="n">
-        <v>0.270864</v>
+        <v>0.270774</v>
       </c>
       <c r="D135" t="n">
-        <v>0.443266</v>
+        <v>0.444832</v>
       </c>
       <c r="E135" t="n">
-        <v>0.120101</v>
+        <v>0.12069</v>
       </c>
       <c r="F135" t="n">
-        <v>0.176553</v>
+        <v>0.178859</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.196437</v>
+        <v>0.197051</v>
       </c>
       <c r="C136" t="n">
-        <v>0.306695</v>
+        <v>0.307814</v>
       </c>
       <c r="D136" t="n">
-        <v>0.453304</v>
+        <v>0.455394</v>
       </c>
       <c r="E136" t="n">
-        <v>0.135991</v>
+        <v>0.135632</v>
       </c>
       <c r="F136" t="n">
-        <v>0.19956</v>
+        <v>0.19872</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236396</v>
+        <v>0.236479</v>
       </c>
       <c r="C137" t="n">
-        <v>0.364821</v>
+        <v>0.365985</v>
       </c>
       <c r="D137" t="n">
-        <v>0.464536</v>
+        <v>0.466443</v>
       </c>
       <c r="E137" t="n">
-        <v>0.151533</v>
+        <v>0.150456</v>
       </c>
       <c r="F137" t="n">
-        <v>0.182939</v>
+        <v>0.183292</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.167721</v>
+        <v>0.167605</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225973</v>
+        <v>0.226044</v>
       </c>
       <c r="D138" t="n">
-        <v>0.475812</v>
+        <v>0.477525</v>
       </c>
       <c r="E138" t="n">
-        <v>0.151159</v>
+        <v>0.152573</v>
       </c>
       <c r="F138" t="n">
-        <v>0.18577</v>
+        <v>0.185486</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.170075</v>
+        <v>0.168889</v>
       </c>
       <c r="C139" t="n">
-        <v>0.230594</v>
+        <v>0.230914</v>
       </c>
       <c r="D139" t="n">
-        <v>0.487397</v>
+        <v>0.489301</v>
       </c>
       <c r="E139" t="n">
-        <v>0.152499</v>
+        <v>0.151757</v>
       </c>
       <c r="F139" t="n">
-        <v>0.187452</v>
+        <v>0.188658</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.17005</v>
+        <v>0.172043</v>
       </c>
       <c r="C140" t="n">
-        <v>0.234159</v>
+        <v>0.233807</v>
       </c>
       <c r="D140" t="n">
-        <v>0.49951</v>
+        <v>0.501306</v>
       </c>
       <c r="E140" t="n">
-        <v>0.154435</v>
+        <v>0.15343</v>
       </c>
       <c r="F140" t="n">
-        <v>0.190953</v>
+        <v>0.191257</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.172896</v>
+        <v>0.172185</v>
       </c>
       <c r="C141" t="n">
-        <v>0.238573</v>
+        <v>0.239298</v>
       </c>
       <c r="D141" t="n">
-        <v>0.512467</v>
+        <v>0.514137</v>
       </c>
       <c r="E141" t="n">
-        <v>0.155616</v>
+        <v>0.155853</v>
       </c>
       <c r="F141" t="n">
-        <v>0.19326</v>
+        <v>0.194431</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.17542</v>
+        <v>0.174699</v>
       </c>
       <c r="C142" t="n">
-        <v>0.244018</v>
+        <v>0.244633</v>
       </c>
       <c r="D142" t="n">
-        <v>0.525554</v>
+        <v>0.527427</v>
       </c>
       <c r="E142" t="n">
-        <v>0.156507</v>
+        <v>0.156698</v>
       </c>
       <c r="F142" t="n">
-        <v>0.198083</v>
+        <v>0.197248</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.176047</v>
+        <v>0.176785</v>
       </c>
       <c r="C143" t="n">
-        <v>0.249878</v>
+        <v>0.250342</v>
       </c>
       <c r="D143" t="n">
-        <v>0.539658</v>
+        <v>0.541423</v>
       </c>
       <c r="E143" t="n">
-        <v>0.158318</v>
+        <v>0.158466</v>
       </c>
       <c r="F143" t="n">
-        <v>0.200846</v>
+        <v>0.20175</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.032987</v>
+        <v>0.0328536</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0333128</v>
+        <v>0.0329299</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11821</v>
+        <v>0.120051</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0312959</v>
+        <v>0.0312163</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0287897</v>
+        <v>0.0287222</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0351541</v>
+        <v>0.0350194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0348974</v>
+        <v>0.0348449</v>
       </c>
       <c r="D3" t="n">
-        <v>0.123072</v>
+        <v>0.123163</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0318869</v>
+        <v>0.0318181</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0294592</v>
+        <v>0.0293858</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0380135</v>
+        <v>0.0378978</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0369014</v>
+        <v>0.0365653</v>
       </c>
       <c r="D4" t="n">
-        <v>0.128297</v>
+        <v>0.12855</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0330196</v>
+        <v>0.0329518</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03084</v>
+        <v>0.0307066</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.044546</v>
+        <v>0.0442351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0434666</v>
+        <v>0.0437333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.134494</v>
+        <v>0.133489</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0347996</v>
+        <v>0.0346238</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0323035</v>
+        <v>0.0320873</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0539281</v>
+        <v>0.0538248</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0540555</v>
+        <v>0.0540542</v>
       </c>
       <c r="D6" t="n">
-        <v>0.139039</v>
+        <v>0.14076</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0375653</v>
+        <v>0.0374413</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0352845</v>
+        <v>0.0352811</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.078039</v>
+        <v>0.0777274</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07726959999999999</v>
+        <v>0.0773356</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0958517</v>
+        <v>0.0960004</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0440635</v>
+        <v>0.0435463</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0407735</v>
+        <v>0.0406393</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.102486</v>
+        <v>0.102143</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113665</v>
+        <v>0.113612</v>
       </c>
       <c r="D8" t="n">
-        <v>0.102712</v>
+        <v>0.102813</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0576823</v>
+        <v>0.0572637</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0535733</v>
+        <v>0.0531248</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14576</v>
+        <v>0.145001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.155145</v>
+        <v>0.155073</v>
       </c>
       <c r="D9" t="n">
-        <v>0.10941</v>
+        <v>0.110004</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0286553</v>
+        <v>0.0287473</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0260603</v>
+        <v>0.0261906</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.030745</v>
+        <v>0.0308346</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0307706</v>
+        <v>0.0310561</v>
       </c>
       <c r="D10" t="n">
-        <v>0.115958</v>
+        <v>0.116597</v>
       </c>
       <c r="E10" t="n">
-        <v>0.028899</v>
+        <v>0.0289604</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0263324</v>
+        <v>0.0264613</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0314208</v>
+        <v>0.0315492</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0315192</v>
+        <v>0.0317709</v>
       </c>
       <c r="D11" t="n">
-        <v>0.121364</v>
+        <v>0.12187</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02919</v>
+        <v>0.0292169</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0267088</v>
+        <v>0.0267801</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0315457</v>
+        <v>0.0316492</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0320708</v>
+        <v>0.0322026</v>
       </c>
       <c r="D12" t="n">
-        <v>0.125332</v>
+        <v>0.126321</v>
       </c>
       <c r="E12" t="n">
-        <v>0.029679</v>
+        <v>0.0297005</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0272993</v>
+        <v>0.0273592</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0323256</v>
+        <v>0.0323081</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0333422</v>
+        <v>0.0334348</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131196</v>
+        <v>0.131864</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0299485</v>
+        <v>0.029981</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02771</v>
+        <v>0.0278038</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0334185</v>
+        <v>0.0335147</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0339907</v>
+        <v>0.0342408</v>
       </c>
       <c r="D14" t="n">
-        <v>0.13606</v>
+        <v>0.136501</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0303077</v>
+        <v>0.0303445</v>
       </c>
       <c r="F14" t="n">
-        <v>0.028196</v>
+        <v>0.0283683</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0346371</v>
+        <v>0.0347308</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0355438</v>
+        <v>0.0361976</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140596</v>
+        <v>0.14131</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0309685</v>
+        <v>0.0309594</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0289489</v>
+        <v>0.0291167</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.036394</v>
+        <v>0.0364989</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0375574</v>
+        <v>0.037773</v>
       </c>
       <c r="D16" t="n">
-        <v>0.14411</v>
+        <v>0.145159</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0317443</v>
+        <v>0.0318317</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0299628</v>
+        <v>0.0301257</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0389158</v>
+        <v>0.0391332</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0397127</v>
+        <v>0.040377</v>
       </c>
       <c r="D17" t="n">
-        <v>0.148818</v>
+        <v>0.149102</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0327844</v>
+        <v>0.0328135</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0312539</v>
+        <v>0.0313651</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0428563</v>
+        <v>0.0431289</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0434359</v>
+        <v>0.0438758</v>
       </c>
       <c r="D18" t="n">
-        <v>0.153261</v>
+        <v>0.153532</v>
       </c>
       <c r="E18" t="n">
-        <v>0.033835</v>
+        <v>0.0338888</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0323811</v>
+        <v>0.0325454</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0500003</v>
+        <v>0.0500921</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0516259</v>
+        <v>0.0521208</v>
       </c>
       <c r="D19" t="n">
-        <v>0.157056</v>
+        <v>0.157362</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0355293</v>
+        <v>0.0355742</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0340479</v>
+        <v>0.0345137</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06502479999999999</v>
+        <v>0.06522169999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06345389999999999</v>
+        <v>0.0635825</v>
       </c>
       <c r="D20" t="n">
-        <v>0.161064</v>
+        <v>0.161609</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0389881</v>
+        <v>0.0390301</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0377692</v>
+        <v>0.0379886</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08282920000000001</v>
+        <v>0.08309320000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.081689</v>
+        <v>0.08198419999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.114678</v>
+        <v>0.114623</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0453687</v>
+        <v>0.0453178</v>
       </c>
       <c r="F21" t="n">
-        <v>0.043586</v>
+        <v>0.0437618</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.112013</v>
+        <v>0.112011</v>
       </c>
       <c r="C22" t="n">
-        <v>0.113236</v>
+        <v>0.113573</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119564</v>
+        <v>0.119861</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0605232</v>
+        <v>0.0607072</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0581282</v>
+        <v>0.0583557</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152317</v>
+        <v>0.152304</v>
       </c>
       <c r="C23" t="n">
-        <v>0.148368</v>
+        <v>0.147853</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124503</v>
+        <v>0.124663</v>
       </c>
       <c r="E23" t="n">
-        <v>0.028654</v>
+        <v>0.0286673</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0270225</v>
+        <v>0.0269465</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0330076</v>
+        <v>0.032858</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0353072</v>
+        <v>0.0347255</v>
       </c>
       <c r="D24" t="n">
-        <v>0.129605</v>
+        <v>0.12988</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0289393</v>
+        <v>0.0289637</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0276348</v>
+        <v>0.027369</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0334965</v>
+        <v>0.0333782</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0362251</v>
+        <v>0.0354476</v>
       </c>
       <c r="D25" t="n">
-        <v>0.134151</v>
+        <v>0.134323</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0291941</v>
+        <v>0.0291599</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0281214</v>
+        <v>0.0276861</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.034156</v>
+        <v>0.0341573</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0374216</v>
+        <v>0.0364729</v>
       </c>
       <c r="D26" t="n">
-        <v>0.138285</v>
+        <v>0.138515</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02952</v>
+        <v>0.0294718</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02868</v>
+        <v>0.0282145</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0348726</v>
+        <v>0.0347779</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0384949</v>
+        <v>0.0375361</v>
       </c>
       <c r="D27" t="n">
-        <v>0.143011</v>
+        <v>0.143597</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0300021</v>
+        <v>0.0299748</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0294603</v>
+        <v>0.0289853</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0357269</v>
+        <v>0.0356578</v>
       </c>
       <c r="C28" t="n">
-        <v>0.039783</v>
+        <v>0.0389102</v>
       </c>
       <c r="D28" t="n">
-        <v>0.147501</v>
+        <v>0.147789</v>
       </c>
       <c r="E28" t="n">
-        <v>0.030507</v>
+        <v>0.0304737</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0303204</v>
+        <v>0.0294897</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03732</v>
+        <v>0.0372646</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0412186</v>
+        <v>0.0404874</v>
       </c>
       <c r="D29" t="n">
-        <v>0.151647</v>
+        <v>0.15187</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0313031</v>
+        <v>0.031243</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0314095</v>
+        <v>0.0305351</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.039116</v>
+        <v>0.0389672</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0431248</v>
+        <v>0.0423731</v>
       </c>
       <c r="D30" t="n">
-        <v>0.155682</v>
+        <v>0.156353</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0320435</v>
+        <v>0.0319584</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0323239</v>
+        <v>0.0312369</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0420861</v>
+        <v>0.0420537</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0462209</v>
+        <v>0.0456467</v>
       </c>
       <c r="D31" t="n">
-        <v>0.15987</v>
+        <v>0.160364</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0331881</v>
+        <v>0.0330446</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0336477</v>
+        <v>0.0326293</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0465667</v>
+        <v>0.0465083</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0501982</v>
+        <v>0.0497098</v>
       </c>
       <c r="D32" t="n">
-        <v>0.16285</v>
+        <v>0.163267</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0344034</v>
+        <v>0.0343109</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0349223</v>
+        <v>0.0338788</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.053189</v>
+        <v>0.0531559</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0563804</v>
+        <v>0.0562268</v>
       </c>
       <c r="D33" t="n">
-        <v>0.166958</v>
+        <v>0.167497</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0362587</v>
+        <v>0.0361071</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0369201</v>
+        <v>0.0358957</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0629837</v>
+        <v>0.0629676</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0656572</v>
+        <v>0.06559520000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.170736</v>
+        <v>0.171467</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0397514</v>
+        <v>0.0395563</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0402637</v>
+        <v>0.0393788</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08073130000000001</v>
+        <v>0.0806462</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0827927</v>
+        <v>0.0822489</v>
       </c>
       <c r="D35" t="n">
-        <v>0.119039</v>
+        <v>0.119136</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0462663</v>
+        <v>0.0461843</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0460983</v>
+        <v>0.0455311</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.10186</v>
+        <v>0.101889</v>
       </c>
       <c r="C36" t="n">
-        <v>0.101744</v>
+        <v>0.102319</v>
       </c>
       <c r="D36" t="n">
-        <v>0.123574</v>
+        <v>0.123687</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0574022</v>
+        <v>0.0573753</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0560637</v>
+        <v>0.0557525</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1358</v>
+        <v>0.136143</v>
       </c>
       <c r="C37" t="n">
-        <v>0.134858</v>
+        <v>0.136034</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128163</v>
+        <v>0.128283</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0290482</v>
+        <v>0.0289042</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0292268</v>
+        <v>0.0282794</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0335612</v>
+        <v>0.0331495</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0382099</v>
+        <v>0.0374228</v>
       </c>
       <c r="D38" t="n">
-        <v>0.13325</v>
+        <v>0.133134</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0292698</v>
+        <v>0.0292926</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0298062</v>
+        <v>0.0288434</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0341669</v>
+        <v>0.0338972</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0388822</v>
+        <v>0.0382548</v>
       </c>
       <c r="D39" t="n">
-        <v>0.137898</v>
+        <v>0.137905</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0297239</v>
+        <v>0.0297886</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0302767</v>
+        <v>0.0295066</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0351751</v>
+        <v>0.0347906</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0398697</v>
+        <v>0.039399</v>
       </c>
       <c r="D40" t="n">
-        <v>0.142256</v>
+        <v>0.142515</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0301464</v>
+        <v>0.0299837</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0308062</v>
+        <v>0.0300322</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0358513</v>
+        <v>0.0357072</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0408374</v>
+        <v>0.0404997</v>
       </c>
       <c r="D41" t="n">
-        <v>0.146518</v>
+        <v>0.146782</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0304935</v>
+        <v>0.0303256</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0313628</v>
+        <v>0.030704</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0371792</v>
+        <v>0.0370276</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0418878</v>
+        <v>0.0416562</v>
       </c>
       <c r="D42" t="n">
-        <v>0.150797</v>
+        <v>0.151159</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0310467</v>
+        <v>0.030932</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0322509</v>
+        <v>0.031586</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0385792</v>
+        <v>0.0382221</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0434175</v>
+        <v>0.0432448</v>
       </c>
       <c r="D43" t="n">
-        <v>0.155102</v>
+        <v>0.155611</v>
       </c>
       <c r="E43" t="n">
-        <v>0.031705</v>
+        <v>0.0316137</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0329795</v>
+        <v>0.0323376</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0403608</v>
+        <v>0.0399657</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0455045</v>
+        <v>0.0452505</v>
       </c>
       <c r="D44" t="n">
-        <v>0.159067</v>
+        <v>0.159448</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0325718</v>
+        <v>0.032513</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0340383</v>
+        <v>0.0335299</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0433907</v>
+        <v>0.0431506</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0479664</v>
+        <v>0.0478363</v>
       </c>
       <c r="D45" t="n">
-        <v>0.162634</v>
+        <v>0.163208</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0337473</v>
+        <v>0.0335999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.035136</v>
+        <v>0.0346338</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0472768</v>
+        <v>0.0469789</v>
       </c>
       <c r="C46" t="n">
-        <v>0.051682</v>
+        <v>0.0514587</v>
       </c>
       <c r="D46" t="n">
-        <v>0.166533</v>
+        <v>0.167065</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0350658</v>
+        <v>0.0350847</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0366267</v>
+        <v>0.0363217</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0536189</v>
+        <v>0.0535035</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0571836</v>
+        <v>0.0570822</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170744</v>
+        <v>0.170789</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0370989</v>
+        <v>0.0370283</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0383902</v>
+        <v>0.0381554</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0626727</v>
+        <v>0.0624926</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06575780000000001</v>
+        <v>0.065693</v>
       </c>
       <c r="D48" t="n">
-        <v>0.174855</v>
+        <v>0.17498</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0408872</v>
+        <v>0.0408338</v>
       </c>
       <c r="F48" t="n">
-        <v>0.041671</v>
+        <v>0.0416606</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07443370000000001</v>
+        <v>0.07447529999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07750840000000001</v>
+        <v>0.0775566</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17885</v>
+        <v>0.179437</v>
       </c>
       <c r="E49" t="n">
-        <v>0.046257</v>
+        <v>0.0461645</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0465264</v>
+        <v>0.0464324</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09517059999999999</v>
+        <v>0.0955983</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0962631</v>
+        <v>0.0963962</v>
       </c>
       <c r="D50" t="n">
-        <v>0.125249</v>
+        <v>0.125204</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0546749</v>
+        <v>0.0546748</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0539766</v>
+        <v>0.0539061</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125241</v>
+        <v>0.126059</v>
       </c>
       <c r="C51" t="n">
-        <v>0.126998</v>
+        <v>0.128196</v>
       </c>
       <c r="D51" t="n">
-        <v>0.129946</v>
+        <v>0.129807</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0306967</v>
+        <v>0.0306651</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0320375</v>
+        <v>0.0322181</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.169869</v>
+        <v>0.171779</v>
       </c>
       <c r="C52" t="n">
-        <v>0.17326</v>
+        <v>0.175517</v>
       </c>
       <c r="D52" t="n">
-        <v>0.134664</v>
+        <v>0.134629</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0312504</v>
+        <v>0.0307029</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0324951</v>
+        <v>0.0326492</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0354877</v>
+        <v>0.0356082</v>
       </c>
       <c r="C53" t="n">
-        <v>0.041466</v>
+        <v>0.0411742</v>
       </c>
       <c r="D53" t="n">
-        <v>0.139239</v>
+        <v>0.139329</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0317713</v>
+        <v>0.0314682</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0329201</v>
+        <v>0.0332002</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0365363</v>
+        <v>0.0363547</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0422591</v>
+        <v>0.0419807</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144179</v>
+        <v>0.144407</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0312981</v>
+        <v>0.0317323</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0333149</v>
+        <v>0.0335788</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0375313</v>
+        <v>0.0373567</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0430603</v>
+        <v>0.0429271</v>
       </c>
       <c r="D55" t="n">
-        <v>0.148587</v>
+        <v>0.148822</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0329458</v>
+        <v>0.0321861</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0339668</v>
+        <v>0.0343232</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0387243</v>
+        <v>0.0386781</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0444742</v>
+        <v>0.0441393</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15319</v>
+        <v>0.153301</v>
       </c>
       <c r="E56" t="n">
-        <v>0.032269</v>
+        <v>0.0331745</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0345657</v>
+        <v>0.0347239</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0399959</v>
+        <v>0.0402695</v>
       </c>
       <c r="C57" t="n">
-        <v>0.045779</v>
+        <v>0.0454924</v>
       </c>
       <c r="D57" t="n">
-        <v>0.157351</v>
+        <v>0.158232</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0336752</v>
+        <v>0.034181</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0356051</v>
+        <v>0.0357926</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0420849</v>
+        <v>0.0419905</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0478965</v>
+        <v>0.047378</v>
       </c>
       <c r="D58" t="n">
-        <v>0.161673</v>
+        <v>0.162475</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0337356</v>
+        <v>0.0346457</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0362229</v>
+        <v>0.0367726</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0447437</v>
+        <v>0.0450847</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0501632</v>
+        <v>0.0499521</v>
       </c>
       <c r="D59" t="n">
-        <v>0.165252</v>
+        <v>0.166218</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0350412</v>
+        <v>0.0349013</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0375222</v>
+        <v>0.0379286</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0488698</v>
+        <v>0.0492158</v>
       </c>
       <c r="C60" t="n">
-        <v>0.053715</v>
+        <v>0.0534585</v>
       </c>
       <c r="D60" t="n">
-        <v>0.169443</v>
+        <v>0.17009</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0373443</v>
+        <v>0.0365925</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0387144</v>
+        <v>0.0392842</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0537516</v>
+        <v>0.0539571</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0582849</v>
+        <v>0.0586783</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173854</v>
+        <v>0.174869</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0383636</v>
+        <v>0.0392774</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0415219</v>
+        <v>0.0416705</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0623633</v>
+        <v>0.06252729999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06668880000000001</v>
+        <v>0.06713379999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.177974</v>
+        <v>0.179677</v>
       </c>
       <c r="E62" t="n">
-        <v>0.041683</v>
+        <v>0.0425951</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0442013</v>
+        <v>0.0444882</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0734393</v>
+        <v>0.0733984</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0766501</v>
+        <v>0.0773884</v>
       </c>
       <c r="D63" t="n">
-        <v>0.18276</v>
+        <v>0.185321</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0468063</v>
+        <v>0.0476366</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0485209</v>
+        <v>0.0490793</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09304469999999999</v>
+        <v>0.09362719999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09381879999999999</v>
+        <v>0.0942957</v>
       </c>
       <c r="D64" t="n">
-        <v>0.131219</v>
+        <v>0.135791</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0550909</v>
+        <v>0.0550194</v>
       </c>
       <c r="F64" t="n">
-        <v>0.055942</v>
+        <v>0.0558635</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118983</v>
+        <v>0.120627</v>
       </c>
       <c r="C65" t="n">
-        <v>0.120859</v>
+        <v>0.123138</v>
       </c>
       <c r="D65" t="n">
-        <v>0.137592</v>
+        <v>0.14313</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0685413</v>
+        <v>0.0692803</v>
       </c>
       <c r="F65" t="n">
-        <v>0.068662</v>
+        <v>0.0691206</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16121</v>
+        <v>0.164001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163056</v>
+        <v>0.167131</v>
       </c>
       <c r="D66" t="n">
-        <v>0.145086</v>
+        <v>0.150647</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0364375</v>
+        <v>0.0358261</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0391857</v>
+        <v>0.0391941</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0414376</v>
+        <v>0.04096</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0491421</v>
+        <v>0.0491687</v>
       </c>
       <c r="D67" t="n">
-        <v>0.150718</v>
+        <v>0.156835</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0364174</v>
+        <v>0.0364228</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0398166</v>
+        <v>0.0398133</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0415466</v>
+        <v>0.0419261</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0502812</v>
+        <v>0.0502511</v>
       </c>
       <c r="D68" t="n">
-        <v>0.159804</v>
+        <v>0.165843</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0373123</v>
+        <v>0.0365178</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0403752</v>
+        <v>0.0403843</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0427545</v>
+        <v>0.0424904</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0515332</v>
+        <v>0.0514787</v>
       </c>
       <c r="D69" t="n">
-        <v>0.167316</v>
+        <v>0.175051</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0374685</v>
+        <v>0.0370254</v>
       </c>
       <c r="F69" t="n">
-        <v>0.041068</v>
+        <v>0.0410808</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0438375</v>
+        <v>0.0437668</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0529243</v>
+        <v>0.0531629</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1757</v>
+        <v>0.185134</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0380765</v>
+        <v>0.0375696</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0418556</v>
+        <v>0.0419213</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0447457</v>
+        <v>0.0451875</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0546494</v>
+        <v>0.0548963</v>
       </c>
       <c r="D71" t="n">
-        <v>0.186564</v>
+        <v>0.192898</v>
       </c>
       <c r="E71" t="n">
-        <v>0.038277</v>
+        <v>0.038157</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0427678</v>
+        <v>0.0425018</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0465875</v>
+        <v>0.046995</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0565117</v>
+        <v>0.057082</v>
       </c>
       <c r="D72" t="n">
-        <v>0.195288</v>
+        <v>0.20411</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0390725</v>
+        <v>0.038966</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0437411</v>
+        <v>0.043525</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0487039</v>
+        <v>0.048728</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0588623</v>
+        <v>0.0600496</v>
       </c>
       <c r="D73" t="n">
-        <v>0.205365</v>
+        <v>0.215037</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0400036</v>
+        <v>0.0399669</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0449261</v>
+        <v>0.0447858</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0520753</v>
+        <v>0.0521986</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0624328</v>
+        <v>0.06445049999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.218169</v>
+        <v>0.226676</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0416114</v>
+        <v>0.0410769</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0464135</v>
+        <v>0.0468318</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0569391</v>
+        <v>0.0571462</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0670834</v>
+        <v>0.0690612</v>
       </c>
       <c r="D75" t="n">
-        <v>0.229984</v>
+        <v>0.239752</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0433291</v>
+        <v>0.0433214</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0485174</v>
+        <v>0.0487089</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06397650000000001</v>
+        <v>0.0643454</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0742197</v>
+        <v>0.0774493</v>
       </c>
       <c r="D76" t="n">
-        <v>0.243705</v>
+        <v>0.254849</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0462011</v>
+        <v>0.0463017</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0516805</v>
+        <v>0.0516786</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07450950000000001</v>
+        <v>0.0752704</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0849097</v>
+        <v>0.090973</v>
       </c>
       <c r="D77" t="n">
-        <v>0.258112</v>
+        <v>0.271665</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0506718</v>
+        <v>0.0508444</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0560539</v>
+        <v>0.0568775</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.089892</v>
+        <v>0.09183819999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.100992</v>
+        <v>0.109576</v>
       </c>
       <c r="D78" t="n">
-        <v>0.215857</v>
+        <v>0.231123</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0579662</v>
+        <v>0.0576995</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0627697</v>
+        <v>0.0637254</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115959</v>
+        <v>0.119106</v>
       </c>
       <c r="C79" t="n">
-        <v>0.130227</v>
+        <v>0.140816</v>
       </c>
       <c r="D79" t="n">
-        <v>0.229534</v>
+        <v>0.245097</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06938370000000001</v>
+        <v>0.07034559999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>0.07363989999999999</v>
+        <v>0.0761575</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154326</v>
+        <v>0.159289</v>
       </c>
       <c r="C80" t="n">
-        <v>0.174744</v>
+        <v>0.187621</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242112</v>
+        <v>0.259902</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0403104</v>
+        <v>0.040097</v>
       </c>
       <c r="F80" t="n">
-        <v>0.044144</v>
+        <v>0.0439182</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0464333</v>
+        <v>0.0466985</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0578006</v>
+        <v>0.0617468</v>
       </c>
       <c r="D81" t="n">
-        <v>0.254802</v>
+        <v>0.27342</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0406039</v>
+        <v>0.0406464</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0447204</v>
+        <v>0.0455104</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0473609</v>
+        <v>0.0482397</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0601376</v>
+        <v>0.0664068</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268068</v>
+        <v>0.288339</v>
       </c>
       <c r="E82" t="n">
-        <v>0.041259</v>
+        <v>0.0412772</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0456256</v>
+        <v>0.0466614</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0482196</v>
+        <v>0.0502211</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06294039999999999</v>
+        <v>0.0707967</v>
       </c>
       <c r="D83" t="n">
-        <v>0.281514</v>
+        <v>0.302884</v>
       </c>
       <c r="E83" t="n">
-        <v>0.041601</v>
+        <v>0.04201</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0465473</v>
+        <v>0.0483826</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0493914</v>
+        <v>0.0522148</v>
       </c>
       <c r="C84" t="n">
-        <v>0.066687</v>
+        <v>0.07633470000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.29567</v>
+        <v>0.317934</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0422559</v>
+        <v>0.0428003</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0476507</v>
+        <v>0.0505345</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0509904</v>
+        <v>0.0546411</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0720663</v>
+        <v>0.0828132</v>
       </c>
       <c r="D85" t="n">
-        <v>0.309627</v>
+        <v>0.334028</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0429007</v>
+        <v>0.0440251</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0486179</v>
+        <v>0.054279</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0528862</v>
+        <v>0.0580967</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0787018</v>
+        <v>0.09036080000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.323668</v>
+        <v>0.350489</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0437373</v>
+        <v>0.0457504</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0506193</v>
+        <v>0.0573344</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0556636</v>
+        <v>0.0620179</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0869771</v>
+        <v>0.0988102</v>
       </c>
       <c r="D87" t="n">
-        <v>0.338449</v>
+        <v>0.366957</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0445917</v>
+        <v>0.0471434</v>
       </c>
       <c r="F87" t="n">
-        <v>0.052952</v>
+        <v>0.0614956</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0596999</v>
+        <v>0.0677855</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0963054</v>
+        <v>0.107933</v>
       </c>
       <c r="D88" t="n">
-        <v>0.353809</v>
+        <v>0.384318</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0466051</v>
+        <v>0.0500988</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0571364</v>
+        <v>0.0663282</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06543889999999999</v>
+        <v>0.07570499999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.108917</v>
+        <v>0.118952</v>
       </c>
       <c r="D89" t="n">
-        <v>0.369749</v>
+        <v>0.403342</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0488325</v>
+        <v>0.0539847</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0616428</v>
+        <v>0.0727713</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0738572</v>
+        <v>0.08565780000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.126103</v>
+        <v>0.132386</v>
       </c>
       <c r="D90" t="n">
-        <v>0.386692</v>
+        <v>0.421556</v>
       </c>
       <c r="E90" t="n">
-        <v>0.052304</v>
+        <v>0.0590249</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0693603</v>
+        <v>0.0802078</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0858541</v>
+        <v>0.0993506</v>
       </c>
       <c r="C91" t="n">
-        <v>0.144286</v>
+        <v>0.150022</v>
       </c>
       <c r="D91" t="n">
-        <v>0.404023</v>
+        <v>0.440996</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0579153</v>
+        <v>0.0663797</v>
       </c>
       <c r="F91" t="n">
-        <v>0.07829270000000001</v>
+        <v>0.0897227</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.102878</v>
+        <v>0.115962</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168732</v>
+        <v>0.174568</v>
       </c>
       <c r="D92" t="n">
-        <v>0.326915</v>
+        <v>0.359878</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0658521</v>
+        <v>0.07373639999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09185400000000001</v>
+        <v>0.100354</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.12785</v>
+        <v>0.14104</v>
       </c>
       <c r="C93" t="n">
-        <v>0.199856</v>
+        <v>0.20818</v>
       </c>
       <c r="D93" t="n">
-        <v>0.337202</v>
+        <v>0.371679</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0791497</v>
+        <v>0.0881121</v>
       </c>
       <c r="F93" t="n">
-        <v>0.109599</v>
+        <v>0.11672</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.164548</v>
+        <v>0.177114</v>
       </c>
       <c r="C94" t="n">
-        <v>0.24035</v>
+        <v>0.252843</v>
       </c>
       <c r="D94" t="n">
-        <v>0.348645</v>
+        <v>0.384388</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0447062</v>
+        <v>0.0519479</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0564028</v>
+        <v>0.0668238</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0584564</v>
+        <v>0.0692806</v>
       </c>
       <c r="C95" t="n">
-        <v>0.103172</v>
+        <v>0.105723</v>
       </c>
       <c r="D95" t="n">
-        <v>0.360317</v>
+        <v>0.39721</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0456958</v>
+        <v>0.0539363</v>
       </c>
       <c r="F95" t="n">
-        <v>0.059737</v>
+        <v>0.0701237</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0619939</v>
+        <v>0.0726792</v>
       </c>
       <c r="C96" t="n">
-        <v>0.111605</v>
+        <v>0.111367</v>
       </c>
       <c r="D96" t="n">
-        <v>0.372257</v>
+        <v>0.41074</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0471555</v>
+        <v>0.0550304</v>
       </c>
       <c r="F96" t="n">
-        <v>0.063925</v>
+        <v>0.0732838</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0661313</v>
+        <v>0.07578989999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.120368</v>
+        <v>0.117757</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3846</v>
+        <v>0.424507</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0491905</v>
+        <v>0.0575133</v>
       </c>
       <c r="F97" t="n">
-        <v>0.069665</v>
+        <v>0.0767259</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07056030000000001</v>
+        <v>0.079085</v>
       </c>
       <c r="C98" t="n">
-        <v>0.128498</v>
+        <v>0.125031</v>
       </c>
       <c r="D98" t="n">
-        <v>0.397047</v>
+        <v>0.438296</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0516066</v>
+        <v>0.0601462</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0748896</v>
+        <v>0.0799888</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0761266</v>
+        <v>0.0829215</v>
       </c>
       <c r="C99" t="n">
-        <v>0.136508</v>
+        <v>0.133429</v>
       </c>
       <c r="D99" t="n">
-        <v>0.410486</v>
+        <v>0.452967</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0544793</v>
+        <v>0.0617058</v>
       </c>
       <c r="F99" t="n">
-        <v>0.081747</v>
+        <v>0.08392670000000001</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0817238</v>
+        <v>0.0864698</v>
       </c>
       <c r="C100" t="n">
-        <v>0.144088</v>
+        <v>0.142783</v>
       </c>
       <c r="D100" t="n">
-        <v>0.42424</v>
+        <v>0.468496</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0575681</v>
+        <v>0.0645606</v>
       </c>
       <c r="F100" t="n">
-        <v>0.087991</v>
+        <v>0.0874752</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0881753</v>
+        <v>0.09044439999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151962</v>
+        <v>0.153343</v>
       </c>
       <c r="D101" t="n">
-        <v>0.438674</v>
+        <v>0.484586</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0613291</v>
+        <v>0.066704</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0949387</v>
+        <v>0.0919391</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0949363</v>
+        <v>0.0956185</v>
       </c>
       <c r="C102" t="n">
-        <v>0.160067</v>
+        <v>0.164926</v>
       </c>
       <c r="D102" t="n">
-        <v>0.453978</v>
+        <v>0.501742</v>
       </c>
       <c r="E102" t="n">
-        <v>0.065688</v>
+        <v>0.0694833</v>
       </c>
       <c r="F102" t="n">
-        <v>0.102133</v>
+        <v>0.09668880000000001</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.103065</v>
+        <v>0.102169</v>
       </c>
       <c r="C103" t="n">
-        <v>0.169779</v>
+        <v>0.177631</v>
       </c>
       <c r="D103" t="n">
-        <v>0.469623</v>
+        <v>0.519211</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0703787</v>
+        <v>0.0724059</v>
       </c>
       <c r="F103" t="n">
-        <v>0.10866</v>
+        <v>0.10227</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.112236</v>
+        <v>0.11091</v>
       </c>
       <c r="C104" t="n">
-        <v>0.181209</v>
+        <v>0.191712</v>
       </c>
       <c r="D104" t="n">
-        <v>0.486248</v>
+        <v>0.537249</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07614020000000001</v>
+        <v>0.0769513</v>
       </c>
       <c r="F104" t="n">
-        <v>0.116684</v>
+        <v>0.111047</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.123006</v>
+        <v>0.1227</v>
       </c>
       <c r="C105" t="n">
-        <v>0.19612</v>
+        <v>0.209528</v>
       </c>
       <c r="D105" t="n">
-        <v>0.503905</v>
+        <v>0.555856</v>
       </c>
       <c r="E105" t="n">
-        <v>0.08289680000000001</v>
+        <v>0.0828308</v>
       </c>
       <c r="F105" t="n">
-        <v>0.124505</v>
+        <v>0.121622</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.137296</v>
+        <v>0.139306</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215588</v>
+        <v>0.231489</v>
       </c>
       <c r="D106" t="n">
-        <v>0.52157</v>
+        <v>0.5749030000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0917813</v>
+        <v>0.09091879999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>0.136028</v>
+        <v>0.136604</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.157859</v>
+        <v>0.162823</v>
       </c>
       <c r="C107" t="n">
-        <v>0.241938</v>
+        <v>0.260649</v>
       </c>
       <c r="D107" t="n">
-        <v>0.393938</v>
+        <v>0.437544</v>
       </c>
       <c r="E107" t="n">
-        <v>0.104007</v>
+        <v>0.103255</v>
       </c>
       <c r="F107" t="n">
-        <v>0.151658</v>
+        <v>0.156396</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.186804</v>
+        <v>0.196212</v>
       </c>
       <c r="C108" t="n">
-        <v>0.280573</v>
+        <v>0.302632</v>
       </c>
       <c r="D108" t="n">
-        <v>0.404297</v>
+        <v>0.449435</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0637368</v>
+        <v>0.0612107</v>
       </c>
       <c r="F108" t="n">
-        <v>0.09146799999999999</v>
+        <v>0.08440010000000001</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231993</v>
+        <v>0.244977</v>
       </c>
       <c r="C109" t="n">
-        <v>0.343149</v>
+        <v>0.36933</v>
       </c>
       <c r="D109" t="n">
-        <v>0.415222</v>
+        <v>0.461481</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0659868</v>
+        <v>0.0623653</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0948302</v>
+        <v>0.0876774</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0910526</v>
+        <v>0.08518290000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.144661</v>
+        <v>0.152829</v>
       </c>
       <c r="D110" t="n">
-        <v>0.426523</v>
+        <v>0.47404</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0679192</v>
+        <v>0.06368310000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0980943</v>
+        <v>0.0925174</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0941654</v>
+        <v>0.08850329999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.14934</v>
+        <v>0.15909</v>
       </c>
       <c r="D111" t="n">
-        <v>0.437933</v>
+        <v>0.486717</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06953910000000001</v>
+        <v>0.0655665</v>
       </c>
       <c r="F111" t="n">
-        <v>0.10088</v>
+        <v>0.097062</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0966632</v>
+        <v>0.0922008</v>
       </c>
       <c r="C112" t="n">
-        <v>0.154266</v>
+        <v>0.165417</v>
       </c>
       <c r="D112" t="n">
-        <v>0.449711</v>
+        <v>0.499789</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0715128</v>
+        <v>0.0673552</v>
       </c>
       <c r="F112" t="n">
-        <v>0.104096</v>
+        <v>0.102526</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0997995</v>
+        <v>0.0979493</v>
       </c>
       <c r="C113" t="n">
-        <v>0.159087</v>
+        <v>0.171749</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4624</v>
+        <v>0.514274</v>
       </c>
       <c r="E113" t="n">
-        <v>0.07362</v>
+        <v>0.0703635</v>
       </c>
       <c r="F113" t="n">
-        <v>0.107769</v>
+        <v>0.109729</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103413</v>
+        <v>0.104169</v>
       </c>
       <c r="C114" t="n">
-        <v>0.164692</v>
+        <v>0.177861</v>
       </c>
       <c r="D114" t="n">
-        <v>0.475979</v>
+        <v>0.528977</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07595159999999999</v>
+        <v>0.0737351</v>
       </c>
       <c r="F114" t="n">
-        <v>0.111399</v>
+        <v>0.116315</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107159</v>
+        <v>0.110775</v>
       </c>
       <c r="C115" t="n">
-        <v>0.171027</v>
+        <v>0.18542</v>
       </c>
       <c r="D115" t="n">
-        <v>0.489796</v>
+        <v>0.544069</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0784842</v>
+        <v>0.07835839999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>0.115237</v>
+        <v>0.122358</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.111899</v>
+        <v>0.117633</v>
       </c>
       <c r="C116" t="n">
-        <v>0.178311</v>
+        <v>0.193691</v>
       </c>
       <c r="D116" t="n">
-        <v>0.504901</v>
+        <v>0.560894</v>
       </c>
       <c r="E116" t="n">
-        <v>0.081293</v>
+        <v>0.08300730000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>0.119741</v>
+        <v>0.127834</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.117909</v>
+        <v>0.124893</v>
       </c>
       <c r="C117" t="n">
-        <v>0.187014</v>
+        <v>0.203594</v>
       </c>
       <c r="D117" t="n">
-        <v>0.520794</v>
+        <v>0.578148</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0845253</v>
+        <v>0.08729489999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>0.124623</v>
+        <v>0.134192</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.125225</v>
+        <v>0.133202</v>
       </c>
       <c r="C118" t="n">
-        <v>0.19831</v>
+        <v>0.215871</v>
       </c>
       <c r="D118" t="n">
-        <v>0.537257</v>
+        <v>0.595618</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0887037</v>
+        <v>0.09275319999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>0.130703</v>
+        <v>0.140968</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.134649</v>
+        <v>0.143756</v>
       </c>
       <c r="C119" t="n">
-        <v>0.21228</v>
+        <v>0.231226</v>
       </c>
       <c r="D119" t="n">
-        <v>0.554295</v>
+        <v>0.614258</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0939972</v>
+        <v>0.099065</v>
       </c>
       <c r="F119" t="n">
-        <v>0.138844</v>
+        <v>0.149756</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147581</v>
+        <v>0.158161</v>
       </c>
       <c r="C120" t="n">
-        <v>0.230887</v>
+        <v>0.251412</v>
       </c>
       <c r="D120" t="n">
-        <v>0.572026</v>
+        <v>0.634791</v>
       </c>
       <c r="E120" t="n">
-        <v>0.101228</v>
+        <v>0.107089</v>
       </c>
       <c r="F120" t="n">
-        <v>0.149152</v>
+        <v>0.160774</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165587</v>
+        <v>0.177027</v>
       </c>
       <c r="C121" t="n">
-        <v>0.256947</v>
+        <v>0.280004</v>
       </c>
       <c r="D121" t="n">
-        <v>0.423973</v>
+        <v>0.471329</v>
       </c>
       <c r="E121" t="n">
-        <v>0.112154</v>
+        <v>0.118594</v>
       </c>
       <c r="F121" t="n">
-        <v>0.163749</v>
+        <v>0.176646</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192095</v>
+        <v>0.205299</v>
       </c>
       <c r="C122" t="n">
-        <v>0.295798</v>
+        <v>0.321799</v>
       </c>
       <c r="D122" t="n">
-        <v>0.434961</v>
+        <v>0.483137</v>
       </c>
       <c r="E122" t="n">
-        <v>0.129054</v>
+        <v>0.137258</v>
       </c>
       <c r="F122" t="n">
-        <v>0.186407</v>
+        <v>0.201453</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232859</v>
+        <v>0.248266</v>
       </c>
       <c r="C123" t="n">
-        <v>0.356172</v>
+        <v>0.386921</v>
       </c>
       <c r="D123" t="n">
-        <v>0.445413</v>
+        <v>0.495266</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0784513</v>
+        <v>0.08366220000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>0.10913</v>
+        <v>0.118776</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103938</v>
+        <v>0.109502</v>
       </c>
       <c r="C124" t="n">
-        <v>0.161659</v>
+        <v>0.175648</v>
       </c>
       <c r="D124" t="n">
-        <v>0.456695</v>
+        <v>0.507484</v>
       </c>
       <c r="E124" t="n">
-        <v>0.07866570000000001</v>
+        <v>0.08556660000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>0.112968</v>
+        <v>0.121875</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104444</v>
+        <v>0.114728</v>
       </c>
       <c r="C125" t="n">
-        <v>0.166333</v>
+        <v>0.182195</v>
       </c>
       <c r="D125" t="n">
-        <v>0.468612</v>
+        <v>0.520159</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0814255</v>
+        <v>0.0889997</v>
       </c>
       <c r="F125" t="n">
-        <v>0.117117</v>
+        <v>0.125561</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.106419</v>
+        <v>0.115708</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170808</v>
+        <v>0.186299</v>
       </c>
       <c r="D126" t="n">
-        <v>0.480655</v>
+        <v>0.533176</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0832025</v>
+        <v>0.0890079</v>
       </c>
       <c r="F126" t="n">
-        <v>0.119168</v>
+        <v>0.130493</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110553</v>
+        <v>0.120089</v>
       </c>
       <c r="C127" t="n">
-        <v>0.176887</v>
+        <v>0.192464</v>
       </c>
       <c r="D127" t="n">
-        <v>0.493959</v>
+        <v>0.547727</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0891453</v>
+        <v>0.0912842</v>
       </c>
       <c r="F127" t="n">
-        <v>0.126181</v>
+        <v>0.133579</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114237</v>
+        <v>0.123164</v>
       </c>
       <c r="C128" t="n">
-        <v>0.181481</v>
+        <v>0.199253</v>
       </c>
       <c r="D128" t="n">
-        <v>0.506847</v>
+        <v>0.561936</v>
       </c>
       <c r="E128" t="n">
-        <v>0.08769399999999999</v>
+        <v>0.0936983</v>
       </c>
       <c r="F128" t="n">
-        <v>0.126581</v>
+        <v>0.140069</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116302</v>
+        <v>0.128911</v>
       </c>
       <c r="C129" t="n">
-        <v>0.188896</v>
+        <v>0.210014</v>
       </c>
       <c r="D129" t="n">
-        <v>0.520573</v>
+        <v>0.577302</v>
       </c>
       <c r="E129" t="n">
-        <v>0.089194</v>
+        <v>0.0955457</v>
       </c>
       <c r="F129" t="n">
-        <v>0.129316</v>
+        <v>0.142245</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120297</v>
+        <v>0.129324</v>
       </c>
       <c r="C130" t="n">
-        <v>0.196608</v>
+        <v>0.211225</v>
       </c>
       <c r="D130" t="n">
-        <v>0.535771</v>
+        <v>0.593489</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0930034</v>
+        <v>0.10132</v>
       </c>
       <c r="F130" t="n">
-        <v>0.136251</v>
+        <v>0.149097</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.124564</v>
+        <v>0.136703</v>
       </c>
       <c r="C131" t="n">
-        <v>0.203972</v>
+        <v>0.222052</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5513749999999999</v>
+        <v>0.611066</v>
       </c>
       <c r="E131" t="n">
-        <v>0.094294</v>
+        <v>0.103934</v>
       </c>
       <c r="F131" t="n">
-        <v>0.139478</v>
+        <v>0.15463</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132005</v>
+        <v>0.14342</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214277</v>
+        <v>0.233298</v>
       </c>
       <c r="D132" t="n">
-        <v>0.567904</v>
+        <v>0.629236</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0980226</v>
+        <v>0.108175</v>
       </c>
       <c r="F132" t="n">
-        <v>0.146054</v>
+        <v>0.159831</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.144206</v>
+        <v>0.154976</v>
       </c>
       <c r="C133" t="n">
-        <v>0.225749</v>
+        <v>0.248246</v>
       </c>
       <c r="D133" t="n">
-        <v>0.585082</v>
+        <v>0.648488</v>
       </c>
       <c r="E133" t="n">
-        <v>0.103242</v>
+        <v>0.112208</v>
       </c>
       <c r="F133" t="n">
-        <v>0.154249</v>
+        <v>0.168426</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155073</v>
+        <v>0.166655</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244481</v>
+        <v>0.267104</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6032149999999999</v>
+        <v>0.668672</v>
       </c>
       <c r="E134" t="n">
-        <v>0.108915</v>
+        <v>0.11934</v>
       </c>
       <c r="F134" t="n">
-        <v>0.164364</v>
+        <v>0.178396</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.170582</v>
+        <v>0.184386</v>
       </c>
       <c r="C135" t="n">
-        <v>0.269712</v>
+        <v>0.293527</v>
       </c>
       <c r="D135" t="n">
-        <v>0.442517</v>
+        <v>0.492061</v>
       </c>
       <c r="E135" t="n">
-        <v>0.121259</v>
+        <v>0.12967</v>
       </c>
       <c r="F135" t="n">
-        <v>0.179292</v>
+        <v>0.193352</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.196245</v>
+        <v>0.211224</v>
       </c>
       <c r="C136" t="n">
-        <v>0.306647</v>
+        <v>0.333806</v>
       </c>
       <c r="D136" t="n">
-        <v>0.452818</v>
+        <v>0.503453</v>
       </c>
       <c r="E136" t="n">
-        <v>0.135401</v>
+        <v>0.144602</v>
       </c>
       <c r="F136" t="n">
-        <v>0.198377</v>
+        <v>0.215986</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235341</v>
+        <v>0.253608</v>
       </c>
       <c r="C137" t="n">
-        <v>0.364113</v>
+        <v>0.395306</v>
       </c>
       <c r="D137" t="n">
-        <v>0.463818</v>
+        <v>0.515339</v>
       </c>
       <c r="E137" t="n">
-        <v>0.150176</v>
+        <v>0.1661</v>
       </c>
       <c r="F137" t="n">
-        <v>0.181548</v>
+        <v>0.201473</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.166288</v>
+        <v>0.184426</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225169</v>
+        <v>0.250944</v>
       </c>
       <c r="D138" t="n">
-        <v>0.475131</v>
+        <v>0.527502</v>
       </c>
       <c r="E138" t="n">
-        <v>0.151716</v>
+        <v>0.167641</v>
       </c>
       <c r="F138" t="n">
-        <v>0.184715</v>
+        <v>0.204435</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.168209</v>
+        <v>0.186222</v>
       </c>
       <c r="C139" t="n">
-        <v>0.228987</v>
+        <v>0.255488</v>
       </c>
       <c r="D139" t="n">
-        <v>0.486794</v>
+        <v>0.540331</v>
       </c>
       <c r="E139" t="n">
-        <v>0.152488</v>
+        <v>0.16758</v>
       </c>
       <c r="F139" t="n">
-        <v>0.187387</v>
+        <v>0.208813</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.16957</v>
+        <v>0.18873</v>
       </c>
       <c r="C140" t="n">
-        <v>0.234687</v>
+        <v>0.260244</v>
       </c>
       <c r="D140" t="n">
-        <v>0.498768</v>
+        <v>0.5536140000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>0.153741</v>
+        <v>0.170795</v>
       </c>
       <c r="F140" t="n">
-        <v>0.191166</v>
+        <v>0.212891</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173634</v>
+        <v>0.190124</v>
       </c>
       <c r="C141" t="n">
-        <v>0.240385</v>
+        <v>0.264998</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5114030000000001</v>
+        <v>0.567315</v>
       </c>
       <c r="E141" t="n">
-        <v>0.154392</v>
+        <v>0.171141</v>
       </c>
       <c r="F141" t="n">
-        <v>0.194193</v>
+        <v>0.215782</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174028</v>
+        <v>0.194206</v>
       </c>
       <c r="C142" t="n">
-        <v>0.243114</v>
+        <v>0.271797</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5243100000000001</v>
+        <v>0.581915</v>
       </c>
       <c r="E142" t="n">
-        <v>0.157265</v>
+        <v>0.17109</v>
       </c>
       <c r="F142" t="n">
-        <v>0.197755</v>
+        <v>0.218738</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.17731</v>
+        <v>0.194966</v>
       </c>
       <c r="C143" t="n">
-        <v>0.249848</v>
+        <v>0.27768</v>
       </c>
       <c r="D143" t="n">
-        <v>0.538786</v>
+        <v>0.595836</v>
       </c>
       <c r="E143" t="n">
-        <v>0.158608</v>
+        <v>0.174074</v>
       </c>
       <c r="F143" t="n">
-        <v>0.201101</v>
+        <v>0.222937</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0328536</v>
+        <v>0.0329285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0329299</v>
+        <v>0.0330228</v>
       </c>
       <c r="D2" t="n">
-        <v>0.120051</v>
+        <v>0.117823</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0312163</v>
+        <v>0.0312874</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0287222</v>
+        <v>0.0289618</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0350194</v>
+        <v>0.0350996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0348449</v>
+        <v>0.0351394</v>
       </c>
       <c r="D3" t="n">
-        <v>0.123163</v>
+        <v>0.12337</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0318181</v>
+        <v>0.0318595</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0293858</v>
+        <v>0.0295471</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0378978</v>
+        <v>0.0379371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0365653</v>
+        <v>0.0369219</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12855</v>
+        <v>0.129177</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0329518</v>
+        <v>0.0330551</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0307066</v>
+        <v>0.0310778</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0442351</v>
+        <v>0.0443229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0437333</v>
+        <v>0.0436757</v>
       </c>
       <c r="D5" t="n">
-        <v>0.133489</v>
+        <v>0.134936</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0346238</v>
+        <v>0.0347098</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0320873</v>
+        <v>0.0322915</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0538248</v>
+        <v>0.0538835</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0540542</v>
+        <v>0.0540654</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14076</v>
+        <v>0.140008</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0374413</v>
+        <v>0.0375233</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0352811</v>
+        <v>0.035491</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0777274</v>
+        <v>0.07819959999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0773356</v>
+        <v>0.0767893</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0960004</v>
+        <v>0.0967804</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0435463</v>
+        <v>0.0439022</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0406393</v>
+        <v>0.0412088</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.102143</v>
+        <v>0.102751</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113612</v>
+        <v>0.113623</v>
       </c>
       <c r="D8" t="n">
-        <v>0.102813</v>
+        <v>0.102488</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0572637</v>
+        <v>0.0572447</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0531248</v>
+        <v>0.0540583</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145001</v>
+        <v>0.145481</v>
       </c>
       <c r="C9" t="n">
-        <v>0.155073</v>
+        <v>0.155349</v>
       </c>
       <c r="D9" t="n">
-        <v>0.110004</v>
+        <v>0.10903</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0287473</v>
+        <v>0.0286697</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0261906</v>
+        <v>0.0261054</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0308346</v>
+        <v>0.0307584</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0310561</v>
+        <v>0.030999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.116597</v>
+        <v>0.115194</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0289604</v>
+        <v>0.0289104</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0264613</v>
+        <v>0.0264047</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0315492</v>
+        <v>0.0314469</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0317709</v>
+        <v>0.0316011</v>
       </c>
       <c r="D11" t="n">
-        <v>0.12187</v>
+        <v>0.121363</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0292169</v>
+        <v>0.0291797</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0267801</v>
+        <v>0.026685</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0316492</v>
+        <v>0.0315804</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0322026</v>
+        <v>0.0321282</v>
       </c>
       <c r="D12" t="n">
-        <v>0.126321</v>
+        <v>0.125748</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0297005</v>
+        <v>0.0297534</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0273592</v>
+        <v>0.0272766</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0323081</v>
+        <v>0.0324281</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0334348</v>
+        <v>0.0332171</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131864</v>
+        <v>0.131481</v>
       </c>
       <c r="E13" t="n">
-        <v>0.029981</v>
+        <v>0.0300524</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0278038</v>
+        <v>0.0277425</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0335147</v>
+        <v>0.0332995</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0342408</v>
+        <v>0.0340642</v>
       </c>
       <c r="D14" t="n">
-        <v>0.136501</v>
+        <v>0.13582</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0303445</v>
+        <v>0.0304415</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0283683</v>
+        <v>0.0282807</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0347308</v>
+        <v>0.0344225</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0361976</v>
+        <v>0.0356149</v>
       </c>
       <c r="D15" t="n">
-        <v>0.14131</v>
+        <v>0.140535</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0309594</v>
+        <v>0.0310558</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0291167</v>
+        <v>0.0291002</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0364989</v>
+        <v>0.0363648</v>
       </c>
       <c r="C16" t="n">
-        <v>0.037773</v>
+        <v>0.0374658</v>
       </c>
       <c r="D16" t="n">
-        <v>0.145159</v>
+        <v>0.144775</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0318317</v>
+        <v>0.03191</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0301257</v>
+        <v>0.0301102</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0391332</v>
+        <v>0.0390603</v>
       </c>
       <c r="C17" t="n">
-        <v>0.040377</v>
+        <v>0.0397257</v>
       </c>
       <c r="D17" t="n">
-        <v>0.149102</v>
+        <v>0.149042</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0328135</v>
+        <v>0.0329369</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0313651</v>
+        <v>0.0313815</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0431289</v>
+        <v>0.0430719</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0438758</v>
+        <v>0.0434506</v>
       </c>
       <c r="D18" t="n">
-        <v>0.153532</v>
+        <v>0.153272</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0338888</v>
+        <v>0.0339435</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0325454</v>
+        <v>0.0325777</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0500921</v>
+        <v>0.0500749</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0521208</v>
+        <v>0.0516186</v>
       </c>
       <c r="D19" t="n">
-        <v>0.157362</v>
+        <v>0.157261</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0355742</v>
+        <v>0.0356156</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0345137</v>
+        <v>0.0343848</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06522169999999999</v>
+        <v>0.06518690000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0635825</v>
+        <v>0.06325219999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.161609</v>
+        <v>0.161587</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0390301</v>
+        <v>0.03908</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0379886</v>
+        <v>0.0378831</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08309320000000001</v>
+        <v>0.08280949999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08198419999999999</v>
+        <v>0.0816437</v>
       </c>
       <c r="D21" t="n">
-        <v>0.114623</v>
+        <v>0.114858</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0453178</v>
+        <v>0.0454278</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0437618</v>
+        <v>0.0437162</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.112011</v>
+        <v>0.112148</v>
       </c>
       <c r="C22" t="n">
-        <v>0.113573</v>
+        <v>0.113237</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119861</v>
+        <v>0.11982</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0607072</v>
+        <v>0.0607229</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0583557</v>
+        <v>0.0581712</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152304</v>
+        <v>0.152365</v>
       </c>
       <c r="C23" t="n">
-        <v>0.147853</v>
+        <v>0.147505</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124663</v>
+        <v>0.124622</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0286673</v>
+        <v>0.0287776</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0269465</v>
+        <v>0.027167</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.032858</v>
+        <v>0.033048</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0347255</v>
+        <v>0.0350029</v>
       </c>
       <c r="D24" t="n">
-        <v>0.12988</v>
+        <v>0.129575</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0289637</v>
+        <v>0.02907</v>
       </c>
       <c r="F24" t="n">
-        <v>0.027369</v>
+        <v>0.0276013</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0333782</v>
+        <v>0.0335939</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0354476</v>
+        <v>0.0358412</v>
       </c>
       <c r="D25" t="n">
-        <v>0.134323</v>
+        <v>0.134385</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0291599</v>
+        <v>0.0293055</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0276861</v>
+        <v>0.028056</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0341573</v>
+        <v>0.0341711</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0364729</v>
+        <v>0.0371143</v>
       </c>
       <c r="D26" t="n">
-        <v>0.138515</v>
+        <v>0.138675</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0294718</v>
+        <v>0.0295978</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0282145</v>
+        <v>0.0285509</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0347779</v>
+        <v>0.0348291</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0375361</v>
+        <v>0.038152</v>
       </c>
       <c r="D27" t="n">
-        <v>0.143597</v>
+        <v>0.143067</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0299748</v>
+        <v>0.0301013</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0289853</v>
+        <v>0.0292319</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0356578</v>
+        <v>0.0356953</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0389102</v>
+        <v>0.0395495</v>
       </c>
       <c r="D28" t="n">
-        <v>0.147789</v>
+        <v>0.147735</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0304737</v>
+        <v>0.0305784</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0294897</v>
+        <v>0.0300588</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0372646</v>
+        <v>0.0372865</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0404874</v>
+        <v>0.0409415</v>
       </c>
       <c r="D29" t="n">
-        <v>0.15187</v>
+        <v>0.152165</v>
       </c>
       <c r="E29" t="n">
-        <v>0.031243</v>
+        <v>0.0314585</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0305351</v>
+        <v>0.0311072</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0389672</v>
+        <v>0.0390643</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0423731</v>
+        <v>0.0428641</v>
       </c>
       <c r="D30" t="n">
-        <v>0.156353</v>
+        <v>0.155969</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0319584</v>
+        <v>0.0320887</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0312369</v>
+        <v>0.0317806</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0420537</v>
+        <v>0.042076</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0456467</v>
+        <v>0.0460047</v>
       </c>
       <c r="D31" t="n">
-        <v>0.160364</v>
+        <v>0.159972</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0330446</v>
+        <v>0.033167</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0326293</v>
+        <v>0.0331716</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0465083</v>
+        <v>0.0465706</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0497098</v>
+        <v>0.049895</v>
       </c>
       <c r="D32" t="n">
-        <v>0.163267</v>
+        <v>0.163332</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0343109</v>
+        <v>0.0344011</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0338788</v>
+        <v>0.0345791</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0531559</v>
+        <v>0.0531719</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0562268</v>
+        <v>0.0561223</v>
       </c>
       <c r="D33" t="n">
-        <v>0.167497</v>
+        <v>0.167234</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0361071</v>
+        <v>0.0362411</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0358957</v>
+        <v>0.0365215</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0629676</v>
+        <v>0.06297560000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06559520000000001</v>
+        <v>0.0655356</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171467</v>
+        <v>0.170961</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0395563</v>
+        <v>0.0397844</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0393788</v>
+        <v>0.03971</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0806462</v>
+        <v>0.08067879999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0822489</v>
+        <v>0.0820432</v>
       </c>
       <c r="D35" t="n">
-        <v>0.119136</v>
+        <v>0.11897</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0461843</v>
+        <v>0.0463323</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0455311</v>
+        <v>0.0458571</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101889</v>
+        <v>0.101822</v>
       </c>
       <c r="C36" t="n">
-        <v>0.102319</v>
+        <v>0.101867</v>
       </c>
       <c r="D36" t="n">
-        <v>0.123687</v>
+        <v>0.123601</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0573753</v>
+        <v>0.0574801</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0557525</v>
+        <v>0.05598</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.136143</v>
+        <v>0.135839</v>
       </c>
       <c r="C37" t="n">
-        <v>0.136034</v>
+        <v>0.135084</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128283</v>
+        <v>0.12792</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0289042</v>
+        <v>0.0289786</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0282794</v>
+        <v>0.0287187</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0331495</v>
+        <v>0.0334503</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0374228</v>
+        <v>0.0378959</v>
       </c>
       <c r="D38" t="n">
-        <v>0.133134</v>
+        <v>0.133386</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0292926</v>
+        <v>0.0293805</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0288434</v>
+        <v>0.029289</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0338972</v>
+        <v>0.0340516</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0382548</v>
+        <v>0.0386141</v>
       </c>
       <c r="D39" t="n">
-        <v>0.137905</v>
+        <v>0.137705</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0297886</v>
+        <v>0.0297753</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0295066</v>
+        <v>0.0297526</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0347906</v>
+        <v>0.035084</v>
       </c>
       <c r="C40" t="n">
-        <v>0.039399</v>
+        <v>0.0397464</v>
       </c>
       <c r="D40" t="n">
-        <v>0.142515</v>
+        <v>0.142428</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0299837</v>
+        <v>0.0300894</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0300322</v>
+        <v>0.0305036</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0357072</v>
+        <v>0.0358017</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0404997</v>
+        <v>0.0407124</v>
       </c>
       <c r="D41" t="n">
-        <v>0.146782</v>
+        <v>0.146822</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0303256</v>
+        <v>0.0305081</v>
       </c>
       <c r="F41" t="n">
-        <v>0.030704</v>
+        <v>0.0311178</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0370276</v>
+        <v>0.0372222</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0416562</v>
+        <v>0.0418453</v>
       </c>
       <c r="D42" t="n">
-        <v>0.151159</v>
+        <v>0.151046</v>
       </c>
       <c r="E42" t="n">
-        <v>0.030932</v>
+        <v>0.0310139</v>
       </c>
       <c r="F42" t="n">
-        <v>0.031586</v>
+        <v>0.0317074</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0382221</v>
+        <v>0.03854</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0432448</v>
+        <v>0.0434305</v>
       </c>
       <c r="D43" t="n">
-        <v>0.155611</v>
+        <v>0.155566</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0316137</v>
+        <v>0.0317627</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0323376</v>
+        <v>0.032852</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0399657</v>
+        <v>0.0402941</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0452505</v>
+        <v>0.0454343</v>
       </c>
       <c r="D44" t="n">
-        <v>0.159448</v>
+        <v>0.159454</v>
       </c>
       <c r="E44" t="n">
-        <v>0.032513</v>
+        <v>0.0325738</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0335299</v>
+        <v>0.0337568</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0431506</v>
+        <v>0.043423</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0478363</v>
+        <v>0.0479686</v>
       </c>
       <c r="D45" t="n">
-        <v>0.163208</v>
+        <v>0.163198</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0335999</v>
+        <v>0.0336425</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0346338</v>
+        <v>0.03495</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0469789</v>
+        <v>0.0472567</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0514587</v>
+        <v>0.0516885</v>
       </c>
       <c r="D46" t="n">
-        <v>0.167065</v>
+        <v>0.166917</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0350847</v>
+        <v>0.0352014</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0363217</v>
+        <v>0.0365657</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0535035</v>
+        <v>0.0536682</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0570822</v>
+        <v>0.0571368</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170789</v>
+        <v>0.170886</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0370283</v>
+        <v>0.0371479</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0381554</v>
+        <v>0.040033</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0624926</v>
+        <v>0.0630165</v>
       </c>
       <c r="C48" t="n">
-        <v>0.065693</v>
+        <v>0.0657541</v>
       </c>
       <c r="D48" t="n">
-        <v>0.17498</v>
+        <v>0.174995</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0408338</v>
+        <v>0.0410352</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0416606</v>
+        <v>0.042836</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07447529999999999</v>
+        <v>0.0750311</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0775566</v>
+        <v>0.0774594</v>
       </c>
       <c r="D49" t="n">
-        <v>0.179437</v>
+        <v>0.179141</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0461645</v>
+        <v>0.046392</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0464324</v>
+        <v>0.047455</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0955983</v>
+        <v>0.09519030000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0963962</v>
+        <v>0.0962645</v>
       </c>
       <c r="D50" t="n">
-        <v>0.125204</v>
+        <v>0.125083</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0546748</v>
+        <v>0.0547717</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0539061</v>
+        <v>0.054055</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.126059</v>
+        <v>0.125353</v>
       </c>
       <c r="C51" t="n">
-        <v>0.128196</v>
+        <v>0.12702</v>
       </c>
       <c r="D51" t="n">
-        <v>0.129807</v>
+        <v>0.129792</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0306651</v>
+        <v>0.0304512</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0322181</v>
+        <v>0.0322992</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.171779</v>
+        <v>0.169987</v>
       </c>
       <c r="C52" t="n">
-        <v>0.175517</v>
+        <v>0.173378</v>
       </c>
       <c r="D52" t="n">
-        <v>0.134629</v>
+        <v>0.134661</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0307029</v>
+        <v>0.0317772</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0326492</v>
+        <v>0.0327234</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0356082</v>
+        <v>0.0367154</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0411742</v>
+        <v>0.0409054</v>
       </c>
       <c r="D53" t="n">
-        <v>0.139329</v>
+        <v>0.139288</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0314682</v>
+        <v>0.032016</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0332002</v>
+        <v>0.0332247</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0363547</v>
+        <v>0.0374779</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0419807</v>
+        <v>0.0417633</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144407</v>
+        <v>0.144377</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0317323</v>
+        <v>0.0332062</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0335788</v>
+        <v>0.0336956</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0373567</v>
+        <v>0.0376121</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0429271</v>
+        <v>0.0426514</v>
       </c>
       <c r="D55" t="n">
-        <v>0.148822</v>
+        <v>0.149021</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0321861</v>
+        <v>0.0327796</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0343232</v>
+        <v>0.0345619</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0386781</v>
+        <v>0.0387109</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0441393</v>
+        <v>0.0439784</v>
       </c>
       <c r="D56" t="n">
-        <v>0.153301</v>
+        <v>0.153927</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0331745</v>
+        <v>0.0342733</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0347239</v>
+        <v>0.0346134</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0402695</v>
+        <v>0.0404134</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0454924</v>
+        <v>0.0453993</v>
       </c>
       <c r="D57" t="n">
-        <v>0.158232</v>
+        <v>0.158393</v>
       </c>
       <c r="E57" t="n">
-        <v>0.034181</v>
+        <v>0.033452</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0357926</v>
+        <v>0.0358737</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0419905</v>
+        <v>0.0422792</v>
       </c>
       <c r="C58" t="n">
-        <v>0.047378</v>
+        <v>0.0472912</v>
       </c>
       <c r="D58" t="n">
-        <v>0.162475</v>
+        <v>0.162729</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0346457</v>
+        <v>0.0347358</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0367726</v>
+        <v>0.0375005</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0450847</v>
+        <v>0.0447361</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0499521</v>
+        <v>0.0498081</v>
       </c>
       <c r="D59" t="n">
-        <v>0.166218</v>
+        <v>0.166283</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0349013</v>
+        <v>0.0348317</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0379286</v>
+        <v>0.0381601</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0492158</v>
+        <v>0.0490784</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0534585</v>
+        <v>0.0535723</v>
       </c>
       <c r="D60" t="n">
-        <v>0.17009</v>
+        <v>0.170177</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0365925</v>
+        <v>0.0378079</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0392842</v>
+        <v>0.0389631</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0539571</v>
+        <v>0.0537158</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0586783</v>
+        <v>0.0582696</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174869</v>
+        <v>0.174548</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0392774</v>
+        <v>0.0401055</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0416705</v>
+        <v>0.0412653</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06252729999999999</v>
+        <v>0.0624357</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06713379999999999</v>
+        <v>0.0665607</v>
       </c>
       <c r="D62" t="n">
-        <v>0.179677</v>
+        <v>0.17801</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0425951</v>
+        <v>0.0433104</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0444882</v>
+        <v>0.0445248</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0733984</v>
+        <v>0.0734894</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0773884</v>
+        <v>0.076739</v>
       </c>
       <c r="D63" t="n">
-        <v>0.185321</v>
+        <v>0.182409</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0476366</v>
+        <v>0.0482379</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0490793</v>
+        <v>0.0488652</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09362719999999999</v>
+        <v>0.0930188</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0942957</v>
+        <v>0.0944127</v>
       </c>
       <c r="D64" t="n">
-        <v>0.135791</v>
+        <v>0.13423</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0550194</v>
+        <v>0.0549943</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0558635</v>
+        <v>0.0564751</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.120627</v>
+        <v>0.119473</v>
       </c>
       <c r="C65" t="n">
-        <v>0.123138</v>
+        <v>0.122971</v>
       </c>
       <c r="D65" t="n">
-        <v>0.14313</v>
+        <v>0.13917</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0692803</v>
+        <v>0.0687078</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0691206</v>
+        <v>0.0690651</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.164001</v>
+        <v>0.161314</v>
       </c>
       <c r="C66" t="n">
-        <v>0.167131</v>
+        <v>0.163518</v>
       </c>
       <c r="D66" t="n">
-        <v>0.150647</v>
+        <v>0.146154</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0358261</v>
+        <v>0.0361195</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0391941</v>
+        <v>0.0386754</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.04096</v>
+        <v>0.0416003</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0491687</v>
+        <v>0.0493078</v>
       </c>
       <c r="D67" t="n">
-        <v>0.156835</v>
+        <v>0.15525</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0364228</v>
+        <v>0.0369167</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0398133</v>
+        <v>0.0395012</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0419261</v>
+        <v>0.0417424</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0502511</v>
+        <v>0.0505506</v>
       </c>
       <c r="D68" t="n">
-        <v>0.165843</v>
+        <v>0.160841</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0365178</v>
+        <v>0.0369589</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0403843</v>
+        <v>0.0400562</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0424904</v>
+        <v>0.0425656</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0514787</v>
+        <v>0.0518996</v>
       </c>
       <c r="D69" t="n">
-        <v>0.175051</v>
+        <v>0.170061</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0370254</v>
+        <v>0.0371765</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0410808</v>
+        <v>0.0407712</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0437668</v>
+        <v>0.0437098</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0531629</v>
+        <v>0.0533547</v>
       </c>
       <c r="D70" t="n">
-        <v>0.185134</v>
+        <v>0.178702</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0375696</v>
+        <v>0.0378142</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0419213</v>
+        <v>0.0415337</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0451875</v>
+        <v>0.0450093</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0548963</v>
+        <v>0.0552978</v>
       </c>
       <c r="D71" t="n">
-        <v>0.192898</v>
+        <v>0.187015</v>
       </c>
       <c r="E71" t="n">
-        <v>0.038157</v>
+        <v>0.0383621</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0425018</v>
+        <v>0.0426389</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.046995</v>
+        <v>0.0467747</v>
       </c>
       <c r="C72" t="n">
-        <v>0.057082</v>
+        <v>0.0573566</v>
       </c>
       <c r="D72" t="n">
-        <v>0.20411</v>
+        <v>0.196674</v>
       </c>
       <c r="E72" t="n">
-        <v>0.038966</v>
+        <v>0.0391728</v>
       </c>
       <c r="F72" t="n">
-        <v>0.043525</v>
+        <v>0.0437566</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.048728</v>
+        <v>0.0485972</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0600496</v>
+        <v>0.0601258</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215037</v>
+        <v>0.208107</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0399669</v>
+        <v>0.0401291</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0447858</v>
+        <v>0.0449617</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0521986</v>
+        <v>0.0524668</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06445049999999999</v>
+        <v>0.06429550000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226676</v>
+        <v>0.217906</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0410769</v>
+        <v>0.0417807</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0468318</v>
+        <v>0.0467349</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0571462</v>
+        <v>0.0574519</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0690612</v>
+        <v>0.0690312</v>
       </c>
       <c r="D75" t="n">
-        <v>0.239752</v>
+        <v>0.22994</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0433214</v>
+        <v>0.0435988</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0487089</v>
+        <v>0.0488254</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0643454</v>
+        <v>0.06458560000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0774493</v>
+        <v>0.0767477</v>
       </c>
       <c r="D76" t="n">
-        <v>0.254849</v>
+        <v>0.242412</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0463017</v>
+        <v>0.0466693</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0516786</v>
+        <v>0.0522736</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0752704</v>
+        <v>0.0753853</v>
       </c>
       <c r="C77" t="n">
-        <v>0.090973</v>
+        <v>0.0890172</v>
       </c>
       <c r="D77" t="n">
-        <v>0.271665</v>
+        <v>0.256904</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0508444</v>
+        <v>0.0512555</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0568775</v>
+        <v>0.0570632</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09183819999999999</v>
+        <v>0.0911788</v>
       </c>
       <c r="C78" t="n">
-        <v>0.109576</v>
+        <v>0.106831</v>
       </c>
       <c r="D78" t="n">
-        <v>0.231123</v>
+        <v>0.214985</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0576995</v>
+        <v>0.0587256</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0637254</v>
+        <v>0.06425939999999999</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.119106</v>
+        <v>0.117109</v>
       </c>
       <c r="C79" t="n">
-        <v>0.140816</v>
+        <v>0.135419</v>
       </c>
       <c r="D79" t="n">
-        <v>0.245097</v>
+        <v>0.228308</v>
       </c>
       <c r="E79" t="n">
-        <v>0.07034559999999999</v>
+        <v>0.0702658</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0761575</v>
+        <v>0.0761674</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.159289</v>
+        <v>0.155418</v>
       </c>
       <c r="C80" t="n">
-        <v>0.187621</v>
+        <v>0.178648</v>
       </c>
       <c r="D80" t="n">
-        <v>0.259902</v>
+        <v>0.240146</v>
       </c>
       <c r="E80" t="n">
-        <v>0.040097</v>
+        <v>0.0408136</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0439182</v>
+        <v>0.044636</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0466985</v>
+        <v>0.0476641</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0617468</v>
+        <v>0.0621866</v>
       </c>
       <c r="D81" t="n">
-        <v>0.27342</v>
+        <v>0.253732</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0406464</v>
+        <v>0.0415893</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0455104</v>
+        <v>0.0458532</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0482397</v>
+        <v>0.049192</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0664068</v>
+        <v>0.06611350000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.288339</v>
+        <v>0.266948</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0412772</v>
+        <v>0.0421484</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0466614</v>
+        <v>0.047102</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0502211</v>
+        <v>0.0506821</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0707967</v>
+        <v>0.07020800000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.302884</v>
+        <v>0.280327</v>
       </c>
       <c r="E83" t="n">
-        <v>0.04201</v>
+        <v>0.0428612</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0483826</v>
+        <v>0.0484952</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0522148</v>
+        <v>0.0524895</v>
       </c>
       <c r="C84" t="n">
-        <v>0.07633470000000001</v>
+        <v>0.07480439999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.317934</v>
+        <v>0.293765</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0428003</v>
+        <v>0.0437031</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0505345</v>
+        <v>0.0503054</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0546411</v>
+        <v>0.0546836</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0828132</v>
+        <v>0.0807036</v>
       </c>
       <c r="D85" t="n">
-        <v>0.334028</v>
+        <v>0.308421</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0440251</v>
+        <v>0.0443004</v>
       </c>
       <c r="F85" t="n">
-        <v>0.054279</v>
+        <v>0.0532201</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0580967</v>
+        <v>0.0584714</v>
       </c>
       <c r="C86" t="n">
-        <v>0.09036080000000001</v>
+        <v>0.0875233</v>
       </c>
       <c r="D86" t="n">
-        <v>0.350489</v>
+        <v>0.32283</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0457504</v>
+        <v>0.0458835</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0573344</v>
+        <v>0.0563527</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0620179</v>
+        <v>0.0623998</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0988102</v>
+        <v>0.0948234</v>
       </c>
       <c r="D87" t="n">
-        <v>0.366957</v>
+        <v>0.337713</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0471434</v>
+        <v>0.0481199</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0614956</v>
+        <v>0.0598467</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0677855</v>
+        <v>0.06758840000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.107933</v>
+        <v>0.10214</v>
       </c>
       <c r="D88" t="n">
-        <v>0.384318</v>
+        <v>0.353106</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0500988</v>
+        <v>0.0513555</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0663282</v>
+        <v>0.06435680000000001</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07570499999999999</v>
+        <v>0.07470449999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.118952</v>
+        <v>0.112778</v>
       </c>
       <c r="D89" t="n">
-        <v>0.403342</v>
+        <v>0.369922</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0539847</v>
+        <v>0.054733</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0727713</v>
+        <v>0.07098260000000001</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08565780000000001</v>
+        <v>0.0837767</v>
       </c>
       <c r="C90" t="n">
-        <v>0.132386</v>
+        <v>0.125497</v>
       </c>
       <c r="D90" t="n">
-        <v>0.421556</v>
+        <v>0.387272</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0590249</v>
+        <v>0.0592352</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0802078</v>
+        <v>0.0763833</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0993506</v>
+        <v>0.09568260000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.150022</v>
+        <v>0.141493</v>
       </c>
       <c r="D91" t="n">
-        <v>0.440996</v>
+        <v>0.403958</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0663797</v>
+        <v>0.0654091</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0897227</v>
+        <v>0.0859476</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.115962</v>
+        <v>0.110711</v>
       </c>
       <c r="C92" t="n">
-        <v>0.174568</v>
+        <v>0.163843</v>
       </c>
       <c r="D92" t="n">
-        <v>0.359878</v>
+        <v>0.326968</v>
       </c>
       <c r="E92" t="n">
-        <v>0.07373639999999999</v>
+        <v>0.072814</v>
       </c>
       <c r="F92" t="n">
-        <v>0.100354</v>
+        <v>0.0965534</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.14104</v>
+        <v>0.132819</v>
       </c>
       <c r="C93" t="n">
-        <v>0.20818</v>
+        <v>0.195183</v>
       </c>
       <c r="D93" t="n">
-        <v>0.371679</v>
+        <v>0.338268</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0881121</v>
+        <v>0.0861133</v>
       </c>
       <c r="F93" t="n">
-        <v>0.11672</v>
+        <v>0.111333</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.177114</v>
+        <v>0.166185</v>
       </c>
       <c r="C94" t="n">
-        <v>0.252843</v>
+        <v>0.236778</v>
       </c>
       <c r="D94" t="n">
-        <v>0.384388</v>
+        <v>0.349505</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0519479</v>
+        <v>0.0505796</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0668238</v>
+        <v>0.0648509</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0692806</v>
+        <v>0.0672334</v>
       </c>
       <c r="C95" t="n">
-        <v>0.105723</v>
+        <v>0.100399</v>
       </c>
       <c r="D95" t="n">
-        <v>0.39721</v>
+        <v>0.361207</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0539363</v>
+        <v>0.0523177</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0701237</v>
+        <v>0.0675441</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0726792</v>
+        <v>0.0701624</v>
       </c>
       <c r="C96" t="n">
-        <v>0.111367</v>
+        <v>0.105354</v>
       </c>
       <c r="D96" t="n">
-        <v>0.41074</v>
+        <v>0.373521</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0550304</v>
+        <v>0.0542444</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0732838</v>
+        <v>0.0704756</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07578989999999999</v>
+        <v>0.0731043</v>
       </c>
       <c r="C97" t="n">
-        <v>0.117757</v>
+        <v>0.110843</v>
       </c>
       <c r="D97" t="n">
-        <v>0.424507</v>
+        <v>0.38563</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0575133</v>
+        <v>0.0559296</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0767259</v>
+        <v>0.07316499999999999</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.079085</v>
+        <v>0.0754345</v>
       </c>
       <c r="C98" t="n">
-        <v>0.125031</v>
+        <v>0.11717</v>
       </c>
       <c r="D98" t="n">
-        <v>0.438296</v>
+        <v>0.398565</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0601462</v>
+        <v>0.0576671</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0799888</v>
+        <v>0.0768503</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0829215</v>
+        <v>0.0786833</v>
       </c>
       <c r="C99" t="n">
-        <v>0.133429</v>
+        <v>0.124522</v>
       </c>
       <c r="D99" t="n">
-        <v>0.452967</v>
+        <v>0.411851</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0617058</v>
+        <v>0.0595448</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08392670000000001</v>
+        <v>0.0796888</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0864698</v>
+        <v>0.0817674</v>
       </c>
       <c r="C100" t="n">
-        <v>0.142783</v>
+        <v>0.1325</v>
       </c>
       <c r="D100" t="n">
-        <v>0.468496</v>
+        <v>0.425874</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0645606</v>
+        <v>0.0616898</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0874752</v>
+        <v>0.0828639</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.09044439999999999</v>
+        <v>0.0857084</v>
       </c>
       <c r="C101" t="n">
-        <v>0.153343</v>
+        <v>0.141862</v>
       </c>
       <c r="D101" t="n">
-        <v>0.484586</v>
+        <v>0.440383</v>
       </c>
       <c r="E101" t="n">
-        <v>0.066704</v>
+        <v>0.0643304</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0919391</v>
+        <v>0.0869762</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0956185</v>
+        <v>0.0905135</v>
       </c>
       <c r="C102" t="n">
-        <v>0.164926</v>
+        <v>0.151754</v>
       </c>
       <c r="D102" t="n">
-        <v>0.501742</v>
+        <v>0.455872</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0694833</v>
+        <v>0.06633120000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>0.09668880000000001</v>
+        <v>0.0917554</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.102169</v>
+        <v>0.0969518</v>
       </c>
       <c r="C103" t="n">
-        <v>0.177631</v>
+        <v>0.163401</v>
       </c>
       <c r="D103" t="n">
-        <v>0.519211</v>
+        <v>0.471963</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0724059</v>
+        <v>0.0692835</v>
       </c>
       <c r="F103" t="n">
-        <v>0.10227</v>
+        <v>0.09708260000000001</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.11091</v>
+        <v>0.105315</v>
       </c>
       <c r="C104" t="n">
-        <v>0.191712</v>
+        <v>0.1772</v>
       </c>
       <c r="D104" t="n">
-        <v>0.537249</v>
+        <v>0.488265</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0769513</v>
+        <v>0.0732568</v>
       </c>
       <c r="F104" t="n">
-        <v>0.111047</v>
+        <v>0.104763</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1227</v>
+        <v>0.115792</v>
       </c>
       <c r="C105" t="n">
-        <v>0.209528</v>
+        <v>0.19298</v>
       </c>
       <c r="D105" t="n">
-        <v>0.555856</v>
+        <v>0.505788</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0828308</v>
+        <v>0.0787331</v>
       </c>
       <c r="F105" t="n">
-        <v>0.121622</v>
+        <v>0.113899</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.139306</v>
+        <v>0.13155</v>
       </c>
       <c r="C106" t="n">
-        <v>0.231489</v>
+        <v>0.213536</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5749030000000001</v>
+        <v>0.52358</v>
       </c>
       <c r="E106" t="n">
-        <v>0.09091879999999999</v>
+        <v>0.08667</v>
       </c>
       <c r="F106" t="n">
-        <v>0.136604</v>
+        <v>0.128124</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.162823</v>
+        <v>0.153039</v>
       </c>
       <c r="C107" t="n">
-        <v>0.260649</v>
+        <v>0.240596</v>
       </c>
       <c r="D107" t="n">
-        <v>0.437544</v>
+        <v>0.395233</v>
       </c>
       <c r="E107" t="n">
-        <v>0.103255</v>
+        <v>0.098718</v>
       </c>
       <c r="F107" t="n">
-        <v>0.156396</v>
+        <v>0.14597</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.196212</v>
+        <v>0.183746</v>
       </c>
       <c r="C108" t="n">
-        <v>0.302632</v>
+        <v>0.279992</v>
       </c>
       <c r="D108" t="n">
-        <v>0.449435</v>
+        <v>0.405954</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0612107</v>
+        <v>0.0589259</v>
       </c>
       <c r="F108" t="n">
-        <v>0.08440010000000001</v>
+        <v>0.0794165</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.244977</v>
+        <v>0.230545</v>
       </c>
       <c r="C109" t="n">
-        <v>0.36933</v>
+        <v>0.342441</v>
       </c>
       <c r="D109" t="n">
-        <v>0.461481</v>
+        <v>0.41664</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0623653</v>
+        <v>0.0599864</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0876774</v>
+        <v>0.0827123</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08518290000000001</v>
+        <v>0.0804262</v>
       </c>
       <c r="C110" t="n">
-        <v>0.152829</v>
+        <v>0.140941</v>
       </c>
       <c r="D110" t="n">
-        <v>0.47404</v>
+        <v>0.427573</v>
       </c>
       <c r="E110" t="n">
-        <v>0.06368310000000001</v>
+        <v>0.0609712</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0925174</v>
+        <v>0.08713600000000001</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08850329999999999</v>
+        <v>0.0838957</v>
       </c>
       <c r="C111" t="n">
-        <v>0.15909</v>
+        <v>0.146709</v>
       </c>
       <c r="D111" t="n">
-        <v>0.486717</v>
+        <v>0.438998</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0655665</v>
+        <v>0.06296450000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>0.097062</v>
+        <v>0.09116</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0922008</v>
+        <v>0.0871421</v>
       </c>
       <c r="C112" t="n">
-        <v>0.165417</v>
+        <v>0.152231</v>
       </c>
       <c r="D112" t="n">
-        <v>0.499789</v>
+        <v>0.451351</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0673552</v>
+        <v>0.0643176</v>
       </c>
       <c r="F112" t="n">
-        <v>0.102526</v>
+        <v>0.0955743</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0979493</v>
+        <v>0.0925638</v>
       </c>
       <c r="C113" t="n">
-        <v>0.171749</v>
+        <v>0.158007</v>
       </c>
       <c r="D113" t="n">
-        <v>0.514274</v>
+        <v>0.46443</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0703635</v>
+        <v>0.0668899</v>
       </c>
       <c r="F113" t="n">
-        <v>0.109729</v>
+        <v>0.101906</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.104169</v>
+        <v>0.09804160000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.177861</v>
+        <v>0.163688</v>
       </c>
       <c r="D114" t="n">
-        <v>0.528977</v>
+        <v>0.477242</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0737351</v>
+        <v>0.0701751</v>
       </c>
       <c r="F114" t="n">
-        <v>0.116315</v>
+        <v>0.108005</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.110775</v>
+        <v>0.103622</v>
       </c>
       <c r="C115" t="n">
-        <v>0.18542</v>
+        <v>0.170356</v>
       </c>
       <c r="D115" t="n">
-        <v>0.544069</v>
+        <v>0.491371</v>
       </c>
       <c r="E115" t="n">
-        <v>0.07835839999999999</v>
+        <v>0.07370740000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>0.122358</v>
+        <v>0.113254</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.117633</v>
+        <v>0.11011</v>
       </c>
       <c r="C116" t="n">
-        <v>0.193691</v>
+        <v>0.1779</v>
       </c>
       <c r="D116" t="n">
-        <v>0.560894</v>
+        <v>0.506491</v>
       </c>
       <c r="E116" t="n">
-        <v>0.08300730000000001</v>
+        <v>0.0782659</v>
       </c>
       <c r="F116" t="n">
-        <v>0.127834</v>
+        <v>0.118681</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.124893</v>
+        <v>0.116873</v>
       </c>
       <c r="C117" t="n">
-        <v>0.203594</v>
+        <v>0.186939</v>
       </c>
       <c r="D117" t="n">
-        <v>0.578148</v>
+        <v>0.522748</v>
       </c>
       <c r="E117" t="n">
-        <v>0.08729489999999999</v>
+        <v>0.0831968</v>
       </c>
       <c r="F117" t="n">
-        <v>0.134192</v>
+        <v>0.124337</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.133202</v>
+        <v>0.12462</v>
       </c>
       <c r="C118" t="n">
-        <v>0.215871</v>
+        <v>0.198338</v>
       </c>
       <c r="D118" t="n">
-        <v>0.595618</v>
+        <v>0.538208</v>
       </c>
       <c r="E118" t="n">
-        <v>0.09275319999999999</v>
+        <v>0.0879423</v>
       </c>
       <c r="F118" t="n">
-        <v>0.140968</v>
+        <v>0.130446</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.143756</v>
+        <v>0.134369</v>
       </c>
       <c r="C119" t="n">
-        <v>0.231226</v>
+        <v>0.212499</v>
       </c>
       <c r="D119" t="n">
-        <v>0.614258</v>
+        <v>0.555738</v>
       </c>
       <c r="E119" t="n">
-        <v>0.099065</v>
+        <v>0.093445</v>
       </c>
       <c r="F119" t="n">
-        <v>0.149756</v>
+        <v>0.138648</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.158161</v>
+        <v>0.147286</v>
       </c>
       <c r="C120" t="n">
-        <v>0.251412</v>
+        <v>0.231361</v>
       </c>
       <c r="D120" t="n">
-        <v>0.634791</v>
+        <v>0.573954</v>
       </c>
       <c r="E120" t="n">
-        <v>0.107089</v>
+        <v>0.100928</v>
       </c>
       <c r="F120" t="n">
-        <v>0.160774</v>
+        <v>0.14894</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.177027</v>
+        <v>0.165484</v>
       </c>
       <c r="C121" t="n">
-        <v>0.280004</v>
+        <v>0.257397</v>
       </c>
       <c r="D121" t="n">
-        <v>0.471329</v>
+        <v>0.425036</v>
       </c>
       <c r="E121" t="n">
-        <v>0.118594</v>
+        <v>0.112064</v>
       </c>
       <c r="F121" t="n">
-        <v>0.176646</v>
+        <v>0.163732</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.205299</v>
+        <v>0.192116</v>
       </c>
       <c r="C122" t="n">
-        <v>0.321799</v>
+        <v>0.296293</v>
       </c>
       <c r="D122" t="n">
-        <v>0.483137</v>
+        <v>0.435729</v>
       </c>
       <c r="E122" t="n">
-        <v>0.137258</v>
+        <v>0.12883</v>
       </c>
       <c r="F122" t="n">
-        <v>0.201453</v>
+        <v>0.186389</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.248266</v>
+        <v>0.232953</v>
       </c>
       <c r="C123" t="n">
-        <v>0.386921</v>
+        <v>0.356942</v>
       </c>
       <c r="D123" t="n">
-        <v>0.495266</v>
+        <v>0.446547</v>
       </c>
       <c r="E123" t="n">
-        <v>0.08366220000000001</v>
+        <v>0.0805765</v>
       </c>
       <c r="F123" t="n">
-        <v>0.118776</v>
+        <v>0.111041</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.109502</v>
+        <v>0.10146</v>
       </c>
       <c r="C124" t="n">
-        <v>0.175648</v>
+        <v>0.161018</v>
       </c>
       <c r="D124" t="n">
-        <v>0.507484</v>
+        <v>0.457513</v>
       </c>
       <c r="E124" t="n">
-        <v>0.08556660000000001</v>
+        <v>0.0807831</v>
       </c>
       <c r="F124" t="n">
-        <v>0.121875</v>
+        <v>0.112265</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.114728</v>
+        <v>0.105536</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182195</v>
+        <v>0.166534</v>
       </c>
       <c r="D125" t="n">
-        <v>0.520159</v>
+        <v>0.469456</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0889997</v>
+        <v>0.0821114</v>
       </c>
       <c r="F125" t="n">
-        <v>0.125561</v>
+        <v>0.118624</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.115708</v>
+        <v>0.108425</v>
       </c>
       <c r="C126" t="n">
-        <v>0.186299</v>
+        <v>0.170221</v>
       </c>
       <c r="D126" t="n">
-        <v>0.533176</v>
+        <v>0.482043</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0890079</v>
+        <v>0.0831822</v>
       </c>
       <c r="F126" t="n">
-        <v>0.130493</v>
+        <v>0.120137</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.120089</v>
+        <v>0.111513</v>
       </c>
       <c r="C127" t="n">
-        <v>0.192464</v>
+        <v>0.176564</v>
       </c>
       <c r="D127" t="n">
-        <v>0.547727</v>
+        <v>0.495047</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0912842</v>
+        <v>0.08835079999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>0.133579</v>
+        <v>0.126245</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.123164</v>
+        <v>0.113204</v>
       </c>
       <c r="C128" t="n">
-        <v>0.199253</v>
+        <v>0.181095</v>
       </c>
       <c r="D128" t="n">
-        <v>0.561936</v>
+        <v>0.508064</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0936983</v>
+        <v>0.08852740000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>0.140069</v>
+        <v>0.128456</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.128911</v>
+        <v>0.116476</v>
       </c>
       <c r="C129" t="n">
-        <v>0.210014</v>
+        <v>0.187011</v>
       </c>
       <c r="D129" t="n">
-        <v>0.577302</v>
+        <v>0.521584</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0955457</v>
+        <v>0.0911385</v>
       </c>
       <c r="F129" t="n">
-        <v>0.142245</v>
+        <v>0.130531</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.129324</v>
+        <v>0.121462</v>
       </c>
       <c r="C130" t="n">
-        <v>0.211225</v>
+        <v>0.19501</v>
       </c>
       <c r="D130" t="n">
-        <v>0.593489</v>
+        <v>0.536703</v>
       </c>
       <c r="E130" t="n">
-        <v>0.10132</v>
+        <v>0.09296310000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>0.149097</v>
+        <v>0.13577</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136703</v>
+        <v>0.126127</v>
       </c>
       <c r="C131" t="n">
-        <v>0.222052</v>
+        <v>0.202161</v>
       </c>
       <c r="D131" t="n">
-        <v>0.611066</v>
+        <v>0.552651</v>
       </c>
       <c r="E131" t="n">
-        <v>0.103934</v>
+        <v>0.09455810000000001</v>
       </c>
       <c r="F131" t="n">
-        <v>0.15463</v>
+        <v>0.139771</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.14342</v>
+        <v>0.13324</v>
       </c>
       <c r="C132" t="n">
-        <v>0.233298</v>
+        <v>0.21304</v>
       </c>
       <c r="D132" t="n">
-        <v>0.629236</v>
+        <v>0.568584</v>
       </c>
       <c r="E132" t="n">
-        <v>0.108175</v>
+        <v>0.09840790000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>0.159831</v>
+        <v>0.146526</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.154976</v>
+        <v>0.142226</v>
       </c>
       <c r="C133" t="n">
-        <v>0.248246</v>
+        <v>0.228484</v>
       </c>
       <c r="D133" t="n">
-        <v>0.648488</v>
+        <v>0.585933</v>
       </c>
       <c r="E133" t="n">
-        <v>0.112208</v>
+        <v>0.104056</v>
       </c>
       <c r="F133" t="n">
-        <v>0.168426</v>
+        <v>0.153452</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.166655</v>
+        <v>0.15377</v>
       </c>
       <c r="C134" t="n">
-        <v>0.267104</v>
+        <v>0.246156</v>
       </c>
       <c r="D134" t="n">
-        <v>0.668672</v>
+        <v>0.604361</v>
       </c>
       <c r="E134" t="n">
-        <v>0.11934</v>
+        <v>0.112876</v>
       </c>
       <c r="F134" t="n">
-        <v>0.178396</v>
+        <v>0.166757</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.184386</v>
+        <v>0.171288</v>
       </c>
       <c r="C135" t="n">
-        <v>0.293527</v>
+        <v>0.269396</v>
       </c>
       <c r="D135" t="n">
-        <v>0.492061</v>
+        <v>0.442921</v>
       </c>
       <c r="E135" t="n">
-        <v>0.12967</v>
+        <v>0.119615</v>
       </c>
       <c r="F135" t="n">
-        <v>0.193352</v>
+        <v>0.179123</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.211224</v>
+        <v>0.196966</v>
       </c>
       <c r="C136" t="n">
-        <v>0.333806</v>
+        <v>0.306421</v>
       </c>
       <c r="D136" t="n">
-        <v>0.503453</v>
+        <v>0.453751</v>
       </c>
       <c r="E136" t="n">
-        <v>0.144602</v>
+        <v>0.138771</v>
       </c>
       <c r="F136" t="n">
-        <v>0.215986</v>
+        <v>0.199889</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.253608</v>
+        <v>0.235806</v>
       </c>
       <c r="C137" t="n">
-        <v>0.395306</v>
+        <v>0.364891</v>
       </c>
       <c r="D137" t="n">
-        <v>0.515339</v>
+        <v>0.464415</v>
       </c>
       <c r="E137" t="n">
-        <v>0.1661</v>
+        <v>0.14956</v>
       </c>
       <c r="F137" t="n">
-        <v>0.201473</v>
+        <v>0.181569</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.184426</v>
+        <v>0.165862</v>
       </c>
       <c r="C138" t="n">
-        <v>0.250944</v>
+        <v>0.226763</v>
       </c>
       <c r="D138" t="n">
-        <v>0.527502</v>
+        <v>0.475663</v>
       </c>
       <c r="E138" t="n">
-        <v>0.167641</v>
+        <v>0.149875</v>
       </c>
       <c r="F138" t="n">
-        <v>0.204435</v>
+        <v>0.185381</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.186222</v>
+        <v>0.167485</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255488</v>
+        <v>0.230232</v>
       </c>
       <c r="D139" t="n">
-        <v>0.540331</v>
+        <v>0.487304</v>
       </c>
       <c r="E139" t="n">
-        <v>0.16758</v>
+        <v>0.153195</v>
       </c>
       <c r="F139" t="n">
-        <v>0.208813</v>
+        <v>0.18717</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.18873</v>
+        <v>0.169967</v>
       </c>
       <c r="C140" t="n">
-        <v>0.260244</v>
+        <v>0.234001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5536140000000001</v>
+        <v>0.499259</v>
       </c>
       <c r="E140" t="n">
-        <v>0.170795</v>
+        <v>0.152814</v>
       </c>
       <c r="F140" t="n">
-        <v>0.212891</v>
+        <v>0.190506</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.190124</v>
+        <v>0.171165</v>
       </c>
       <c r="C141" t="n">
-        <v>0.264998</v>
+        <v>0.238864</v>
       </c>
       <c r="D141" t="n">
-        <v>0.567315</v>
+        <v>0.512215</v>
       </c>
       <c r="E141" t="n">
-        <v>0.171141</v>
+        <v>0.15551</v>
       </c>
       <c r="F141" t="n">
-        <v>0.215782</v>
+        <v>0.193651</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.194206</v>
+        <v>0.173919</v>
       </c>
       <c r="C142" t="n">
-        <v>0.271797</v>
+        <v>0.243907</v>
       </c>
       <c r="D142" t="n">
-        <v>0.581915</v>
+        <v>0.525668</v>
       </c>
       <c r="E142" t="n">
-        <v>0.17109</v>
+        <v>0.15575</v>
       </c>
       <c r="F142" t="n">
-        <v>0.218738</v>
+        <v>0.196178</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.194966</v>
+        <v>0.176716</v>
       </c>
       <c r="C143" t="n">
-        <v>0.27768</v>
+        <v>0.248892</v>
       </c>
       <c r="D143" t="n">
-        <v>0.595836</v>
+        <v>0.539386</v>
       </c>
       <c r="E143" t="n">
-        <v>0.174074</v>
+        <v>0.157928</v>
       </c>
       <c r="F143" t="n">
-        <v>0.222937</v>
+        <v>0.200759</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.032987</v>
+        <v>0.0328072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0333128</v>
+        <v>0.0332063</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11821</v>
+        <v>0.118885</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0312959</v>
+        <v>0.0266233</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0287897</v>
+        <v>0.0271081</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0351541</v>
+        <v>0.0343454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0348974</v>
+        <v>0.0345319</v>
       </c>
       <c r="D3" t="n">
-        <v>0.123072</v>
+        <v>0.123387</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0318869</v>
+        <v>0.0270678</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0294592</v>
+        <v>0.0275229</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0380135</v>
+        <v>0.0357132</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0369014</v>
+        <v>0.0367181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.128297</v>
+        <v>0.128704</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0330196</v>
+        <v>0.0282431</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03084</v>
+        <v>0.028635</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.044546</v>
+        <v>0.0379802</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0434666</v>
+        <v>0.040475</v>
       </c>
       <c r="D5" t="n">
-        <v>0.134494</v>
+        <v>0.1351</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0347996</v>
+        <v>0.0296739</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0323035</v>
+        <v>0.0303381</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0539281</v>
+        <v>0.0470739</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0540555</v>
+        <v>0.0531699</v>
       </c>
       <c r="D6" t="n">
-        <v>0.139039</v>
+        <v>0.141159</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0375653</v>
+        <v>0.031816</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0352845</v>
+        <v>0.0330614</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.078039</v>
+        <v>0.0738263</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07726959999999999</v>
+        <v>0.06907339999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0958517</v>
+        <v>0.0975173</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0440635</v>
+        <v>0.0244129</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0407735</v>
+        <v>0.0245875</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.102486</v>
+        <v>0.10292</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113665</v>
+        <v>0.107946</v>
       </c>
       <c r="D8" t="n">
-        <v>0.102712</v>
+        <v>0.103685</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0576823</v>
+        <v>0.0246167</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0535733</v>
+        <v>0.0247881</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14576</v>
+        <v>0.151445</v>
       </c>
       <c r="C9" t="n">
-        <v>0.155145</v>
+        <v>0.152574</v>
       </c>
       <c r="D9" t="n">
-        <v>0.10941</v>
+        <v>0.11036</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0286553</v>
+        <v>0.0246963</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0260603</v>
+        <v>0.0249511</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.030745</v>
+        <v>0.0307542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0307706</v>
+        <v>0.0306512</v>
       </c>
       <c r="D10" t="n">
-        <v>0.115958</v>
+        <v>0.11716</v>
       </c>
       <c r="E10" t="n">
-        <v>0.028899</v>
+        <v>0.0249715</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0263324</v>
+        <v>0.0251759</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0314208</v>
+        <v>0.0311757</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0315192</v>
+        <v>0.0313139</v>
       </c>
       <c r="D11" t="n">
-        <v>0.121364</v>
+        <v>0.123155</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02919</v>
+        <v>0.0251762</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0267088</v>
+        <v>0.025528</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0315457</v>
+        <v>0.0316885</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0320708</v>
+        <v>0.0318052</v>
       </c>
       <c r="D12" t="n">
-        <v>0.125332</v>
+        <v>0.127728</v>
       </c>
       <c r="E12" t="n">
-        <v>0.029679</v>
+        <v>0.0256796</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0272993</v>
+        <v>0.0261071</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0323256</v>
+        <v>0.0325335</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0333422</v>
+        <v>0.0330337</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131196</v>
+        <v>0.132807</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0299485</v>
+        <v>0.0260898</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02771</v>
+        <v>0.0265248</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0334185</v>
+        <v>0.0329681</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0339907</v>
+        <v>0.0337256</v>
       </c>
       <c r="D14" t="n">
-        <v>0.13606</v>
+        <v>0.137429</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0303077</v>
+        <v>0.0265104</v>
       </c>
       <c r="F14" t="n">
-        <v>0.028196</v>
+        <v>0.0270775</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0346371</v>
+        <v>0.0348618</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0355438</v>
+        <v>0.0353866</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140596</v>
+        <v>0.14183</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0309685</v>
+        <v>0.0270771</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0289489</v>
+        <v>0.0279807</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.036394</v>
+        <v>0.0361782</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0375574</v>
+        <v>0.037234</v>
       </c>
       <c r="D16" t="n">
-        <v>0.14411</v>
+        <v>0.146433</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0317443</v>
+        <v>0.0274534</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0299628</v>
+        <v>0.0284842</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0389158</v>
+        <v>0.0386332</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0397127</v>
+        <v>0.0394282</v>
       </c>
       <c r="D17" t="n">
-        <v>0.148818</v>
+        <v>0.150597</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0327844</v>
+        <v>0.0282403</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0312539</v>
+        <v>0.029427</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0428563</v>
+        <v>0.041845</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0434359</v>
+        <v>0.0434135</v>
       </c>
       <c r="D18" t="n">
-        <v>0.153261</v>
+        <v>0.154873</v>
       </c>
       <c r="E18" t="n">
-        <v>0.033835</v>
+        <v>0.0291669</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0323811</v>
+        <v>0.0306829</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0500003</v>
+        <v>0.0483951</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0516259</v>
+        <v>0.0518727</v>
       </c>
       <c r="D19" t="n">
-        <v>0.157056</v>
+        <v>0.158839</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0355293</v>
+        <v>0.0311966</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0340479</v>
+        <v>0.0328156</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06502479999999999</v>
+        <v>0.0662121</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06345389999999999</v>
+        <v>0.062684</v>
       </c>
       <c r="D20" t="n">
-        <v>0.161064</v>
+        <v>0.162807</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0389881</v>
+        <v>0.0358957</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0377692</v>
+        <v>0.0376444</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08282920000000001</v>
+        <v>0.08078050000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.081689</v>
+        <v>0.0817126</v>
       </c>
       <c r="D21" t="n">
-        <v>0.114678</v>
+        <v>0.11491</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0453687</v>
+        <v>0.0247743</v>
       </c>
       <c r="F21" t="n">
-        <v>0.043586</v>
+        <v>0.0254429</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.112013</v>
+        <v>0.11418</v>
       </c>
       <c r="C22" t="n">
-        <v>0.113236</v>
+        <v>0.105573</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119564</v>
+        <v>0.120341</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0605232</v>
+        <v>0.0252088</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0581282</v>
+        <v>0.0258894</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152317</v>
+        <v>0.150918</v>
       </c>
       <c r="C23" t="n">
-        <v>0.148368</v>
+        <v>0.146451</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124503</v>
+        <v>0.125123</v>
       </c>
       <c r="E23" t="n">
-        <v>0.028654</v>
+        <v>0.025528</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0270225</v>
+        <v>0.0264006</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0330076</v>
+        <v>0.0327287</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0353072</v>
+        <v>0.0353924</v>
       </c>
       <c r="D24" t="n">
-        <v>0.129605</v>
+        <v>0.130642</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0289393</v>
+        <v>0.0259482</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0276348</v>
+        <v>0.026909</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0334965</v>
+        <v>0.0335087</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0362251</v>
+        <v>0.0363868</v>
       </c>
       <c r="D25" t="n">
-        <v>0.134151</v>
+        <v>0.135304</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0291941</v>
+        <v>0.0262484</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0281214</v>
+        <v>0.027363</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.034156</v>
+        <v>0.0346626</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0374216</v>
+        <v>0.0376232</v>
       </c>
       <c r="D26" t="n">
-        <v>0.138285</v>
+        <v>0.139628</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02952</v>
+        <v>0.0265451</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02868</v>
+        <v>0.0280539</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0348726</v>
+        <v>0.0349868</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0384949</v>
+        <v>0.0388852</v>
       </c>
       <c r="D27" t="n">
-        <v>0.143011</v>
+        <v>0.144335</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0300021</v>
+        <v>0.0270709</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0294603</v>
+        <v>0.0288859</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0357269</v>
+        <v>0.0359491</v>
       </c>
       <c r="C28" t="n">
-        <v>0.039783</v>
+        <v>0.0402419</v>
       </c>
       <c r="D28" t="n">
-        <v>0.147501</v>
+        <v>0.148706</v>
       </c>
       <c r="E28" t="n">
-        <v>0.030507</v>
+        <v>0.0274954</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0303204</v>
+        <v>0.0296063</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03732</v>
+        <v>0.0372998</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0412186</v>
+        <v>0.0415321</v>
       </c>
       <c r="D29" t="n">
-        <v>0.151647</v>
+        <v>0.153241</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0313031</v>
+        <v>0.0281961</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0314095</v>
+        <v>0.0308333</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.039116</v>
+        <v>0.0388379</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0431248</v>
+        <v>0.0433206</v>
       </c>
       <c r="D30" t="n">
-        <v>0.155682</v>
+        <v>0.157403</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0320435</v>
+        <v>0.0289255</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0323239</v>
+        <v>0.0316647</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0420861</v>
+        <v>0.0418414</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0462209</v>
+        <v>0.0463497</v>
       </c>
       <c r="D31" t="n">
-        <v>0.15987</v>
+        <v>0.161417</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0331881</v>
+        <v>0.0299807</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0336477</v>
+        <v>0.0329043</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0465667</v>
+        <v>0.046454</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0501982</v>
+        <v>0.050148</v>
       </c>
       <c r="D32" t="n">
-        <v>0.16285</v>
+        <v>0.164593</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0344034</v>
+        <v>0.0310058</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0349223</v>
+        <v>0.0342265</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.053189</v>
+        <v>0.0534967</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0563804</v>
+        <v>0.0576235</v>
       </c>
       <c r="D33" t="n">
-        <v>0.166958</v>
+        <v>0.168909</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0362587</v>
+        <v>0.032903</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0369201</v>
+        <v>0.0360326</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0629837</v>
+        <v>0.0640143</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0656572</v>
+        <v>0.06580270000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.170736</v>
+        <v>0.172538</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0397514</v>
+        <v>0.0366724</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0402637</v>
+        <v>0.0397954</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08073130000000001</v>
+        <v>0.0777743</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0827927</v>
+        <v>0.0791139</v>
       </c>
       <c r="D35" t="n">
-        <v>0.119039</v>
+        <v>0.11971</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0462663</v>
+        <v>0.0447456</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0460983</v>
+        <v>0.0471102</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.10186</v>
+        <v>0.10136</v>
       </c>
       <c r="C36" t="n">
-        <v>0.101744</v>
+        <v>0.101757</v>
       </c>
       <c r="D36" t="n">
-        <v>0.123574</v>
+        <v>0.12459</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0574022</v>
+        <v>0.0257923</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0560637</v>
+        <v>0.02818</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1358</v>
+        <v>0.134355</v>
       </c>
       <c r="C37" t="n">
-        <v>0.134858</v>
+        <v>0.134264</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128163</v>
+        <v>0.128964</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0290482</v>
+        <v>0.0262602</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0292268</v>
+        <v>0.0287727</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0335612</v>
+        <v>0.0340799</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0382099</v>
+        <v>0.0381772</v>
       </c>
       <c r="D38" t="n">
-        <v>0.13325</v>
+        <v>0.134292</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0292698</v>
+        <v>0.0266088</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0298062</v>
+        <v>0.0293048</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0341669</v>
+        <v>0.0341032</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0388822</v>
+        <v>0.0389243</v>
       </c>
       <c r="D39" t="n">
-        <v>0.137898</v>
+        <v>0.138752</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0297239</v>
+        <v>0.0269458</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0302767</v>
+        <v>0.0297977</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0351751</v>
+        <v>0.0350834</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0398697</v>
+        <v>0.039816</v>
       </c>
       <c r="D40" t="n">
-        <v>0.142256</v>
+        <v>0.143401</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0301464</v>
+        <v>0.0275906</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0308062</v>
+        <v>0.0304167</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0358513</v>
+        <v>0.0361796</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0408374</v>
+        <v>0.0408425</v>
       </c>
       <c r="D41" t="n">
-        <v>0.146518</v>
+        <v>0.147988</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0304935</v>
+        <v>0.0277281</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0313628</v>
+        <v>0.0309117</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0371792</v>
+        <v>0.0370453</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0418878</v>
+        <v>0.0418321</v>
       </c>
       <c r="D42" t="n">
-        <v>0.150797</v>
+        <v>0.152399</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0310467</v>
+        <v>0.0282349</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0322509</v>
+        <v>0.0316118</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0385792</v>
+        <v>0.03853</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0434175</v>
+        <v>0.0433015</v>
       </c>
       <c r="D43" t="n">
-        <v>0.155102</v>
+        <v>0.156924</v>
       </c>
       <c r="E43" t="n">
-        <v>0.031705</v>
+        <v>0.0289865</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0329795</v>
+        <v>0.0323923</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0403608</v>
+        <v>0.0399938</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0455045</v>
+        <v>0.0454092</v>
       </c>
       <c r="D44" t="n">
-        <v>0.159067</v>
+        <v>0.160798</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0325718</v>
+        <v>0.0297876</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0340383</v>
+        <v>0.0333712</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0433907</v>
+        <v>0.0436404</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0479664</v>
+        <v>0.0479798</v>
       </c>
       <c r="D45" t="n">
-        <v>0.162634</v>
+        <v>0.164527</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0337473</v>
+        <v>0.0307572</v>
       </c>
       <c r="F45" t="n">
-        <v>0.035136</v>
+        <v>0.0344858</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0472768</v>
+        <v>0.0473087</v>
       </c>
       <c r="C46" t="n">
-        <v>0.051682</v>
+        <v>0.0515095</v>
       </c>
       <c r="D46" t="n">
-        <v>0.166533</v>
+        <v>0.168252</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0350658</v>
+        <v>0.0322476</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0366267</v>
+        <v>0.0360481</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0536189</v>
+        <v>0.0532925</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0571836</v>
+        <v>0.0566622</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170744</v>
+        <v>0.172286</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0370989</v>
+        <v>0.0344855</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0383902</v>
+        <v>0.0380223</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0626727</v>
+        <v>0.0621473</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06575780000000001</v>
+        <v>0.0657133</v>
       </c>
       <c r="D48" t="n">
-        <v>0.174855</v>
+        <v>0.176725</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0408872</v>
+        <v>0.0384569</v>
       </c>
       <c r="F48" t="n">
-        <v>0.041671</v>
+        <v>0.0417095</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07443370000000001</v>
+        <v>0.0751848</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07750840000000001</v>
+        <v>0.07689120000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17885</v>
+        <v>0.180912</v>
       </c>
       <c r="E49" t="n">
-        <v>0.046257</v>
+        <v>0.0449723</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0465264</v>
+        <v>0.048042</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09517059999999999</v>
+        <v>0.09406920000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0962631</v>
+        <v>0.09601320000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.125249</v>
+        <v>0.125839</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0546749</v>
+        <v>0.0278906</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0539766</v>
+        <v>0.031493</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125241</v>
+        <v>0.125142</v>
       </c>
       <c r="C51" t="n">
-        <v>0.126998</v>
+        <v>0.125597</v>
       </c>
       <c r="D51" t="n">
-        <v>0.129946</v>
+        <v>0.130693</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0306967</v>
+        <v>0.028515</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0320375</v>
+        <v>0.0319943</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.169869</v>
+        <v>0.170857</v>
       </c>
       <c r="C52" t="n">
-        <v>0.17326</v>
+        <v>0.17315</v>
       </c>
       <c r="D52" t="n">
-        <v>0.134664</v>
+        <v>0.135336</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0312504</v>
+        <v>0.0283199</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0324951</v>
+        <v>0.0311759</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0354877</v>
+        <v>0.0363491</v>
       </c>
       <c r="C53" t="n">
-        <v>0.041466</v>
+        <v>0.0411832</v>
       </c>
       <c r="D53" t="n">
-        <v>0.139239</v>
+        <v>0.140229</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0317713</v>
+        <v>0.0288908</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0329201</v>
+        <v>0.0318698</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0365363</v>
+        <v>0.0364413</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0422591</v>
+        <v>0.0423329</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144179</v>
+        <v>0.145057</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0312981</v>
+        <v>0.02938</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0333149</v>
+        <v>0.0321898</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0375313</v>
+        <v>0.0379771</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0430603</v>
+        <v>0.0431327</v>
       </c>
       <c r="D55" t="n">
-        <v>0.148587</v>
+        <v>0.149593</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0329458</v>
+        <v>0.0292421</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0339668</v>
+        <v>0.0340675</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0387243</v>
+        <v>0.03917</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0444742</v>
+        <v>0.0444052</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15319</v>
+        <v>0.154373</v>
       </c>
       <c r="E56" t="n">
-        <v>0.032269</v>
+        <v>0.0300494</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0345657</v>
+        <v>0.0347827</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0399959</v>
+        <v>0.0397772</v>
       </c>
       <c r="C57" t="n">
-        <v>0.045779</v>
+        <v>0.045345</v>
       </c>
       <c r="D57" t="n">
-        <v>0.157351</v>
+        <v>0.158586</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0336752</v>
+        <v>0.0319929</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0356051</v>
+        <v>0.0354375</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0420849</v>
+        <v>0.0416781</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0478965</v>
+        <v>0.0472189</v>
       </c>
       <c r="D58" t="n">
-        <v>0.161673</v>
+        <v>0.16309</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0337356</v>
+        <v>0.0324251</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0362229</v>
+        <v>0.0357024</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0447437</v>
+        <v>0.0445611</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0501632</v>
+        <v>0.050183</v>
       </c>
       <c r="D59" t="n">
-        <v>0.165252</v>
+        <v>0.166786</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0350412</v>
+        <v>0.0332015</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0375222</v>
+        <v>0.0367408</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0488698</v>
+        <v>0.0485529</v>
       </c>
       <c r="C60" t="n">
-        <v>0.053715</v>
+        <v>0.0537842</v>
       </c>
       <c r="D60" t="n">
-        <v>0.169443</v>
+        <v>0.171046</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0373443</v>
+        <v>0.0338905</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0387144</v>
+        <v>0.0387694</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0537516</v>
+        <v>0.0543802</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0582849</v>
+        <v>0.0588487</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173854</v>
+        <v>0.175366</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0383636</v>
+        <v>0.0359637</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0415219</v>
+        <v>0.040693</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0623633</v>
+        <v>0.0624881</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06668880000000001</v>
+        <v>0.0665492</v>
       </c>
       <c r="D62" t="n">
-        <v>0.177974</v>
+        <v>0.179797</v>
       </c>
       <c r="E62" t="n">
-        <v>0.041683</v>
+        <v>0.0394076</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0442013</v>
+        <v>0.0443253</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0734393</v>
+        <v>0.0742906</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0766501</v>
+        <v>0.07794130000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.18276</v>
+        <v>0.184285</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0468063</v>
+        <v>0.0448073</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0485209</v>
+        <v>0.0495553</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09304469999999999</v>
+        <v>0.0919104</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09381879999999999</v>
+        <v>0.09383619999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.131219</v>
+        <v>0.132671</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0550909</v>
+        <v>0.0338945</v>
       </c>
       <c r="F64" t="n">
-        <v>0.055942</v>
+        <v>0.0373547</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118983</v>
+        <v>0.119704</v>
       </c>
       <c r="C65" t="n">
-        <v>0.120859</v>
+        <v>0.120977</v>
       </c>
       <c r="D65" t="n">
-        <v>0.137592</v>
+        <v>0.13871</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0685413</v>
+        <v>0.0333539</v>
       </c>
       <c r="F65" t="n">
-        <v>0.068662</v>
+        <v>0.0378294</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16121</v>
+        <v>0.16255</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163056</v>
+        <v>0.163564</v>
       </c>
       <c r="D66" t="n">
-        <v>0.145086</v>
+        <v>0.145739</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0364375</v>
+        <v>0.0344811</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0391857</v>
+        <v>0.0383539</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0414376</v>
+        <v>0.0414863</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0491421</v>
+        <v>0.0494333</v>
       </c>
       <c r="D67" t="n">
-        <v>0.150718</v>
+        <v>0.155018</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0364174</v>
+        <v>0.034215</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0398166</v>
+        <v>0.0389634</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0415466</v>
+        <v>0.0418972</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0502812</v>
+        <v>0.0503264</v>
       </c>
       <c r="D68" t="n">
-        <v>0.159804</v>
+        <v>0.161567</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0373123</v>
+        <v>0.0345695</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0403752</v>
+        <v>0.0396161</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0427545</v>
+        <v>0.0429</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0515332</v>
+        <v>0.0515572</v>
       </c>
       <c r="D69" t="n">
-        <v>0.167316</v>
+        <v>0.17041</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0374685</v>
+        <v>0.0356322</v>
       </c>
       <c r="F69" t="n">
-        <v>0.041068</v>
+        <v>0.0402829</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0438375</v>
+        <v>0.0436007</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0529243</v>
+        <v>0.052867</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1757</v>
+        <v>0.179447</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0380765</v>
+        <v>0.0361442</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0418556</v>
+        <v>0.0411411</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0447457</v>
+        <v>0.0448975</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0546494</v>
+        <v>0.0545277</v>
       </c>
       <c r="D71" t="n">
-        <v>0.186564</v>
+        <v>0.187543</v>
       </c>
       <c r="E71" t="n">
-        <v>0.038277</v>
+        <v>0.0360202</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0427678</v>
+        <v>0.0419918</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0465875</v>
+        <v>0.0465245</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0565117</v>
+        <v>0.0564635</v>
       </c>
       <c r="D72" t="n">
-        <v>0.195288</v>
+        <v>0.19811</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0390725</v>
+        <v>0.0367865</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0437411</v>
+        <v>0.0431143</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0487039</v>
+        <v>0.0490443</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0588623</v>
+        <v>0.0588334</v>
       </c>
       <c r="D73" t="n">
-        <v>0.205365</v>
+        <v>0.208469</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0400036</v>
+        <v>0.0377656</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0449261</v>
+        <v>0.0443321</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0520753</v>
+        <v>0.0519779</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0624328</v>
+        <v>0.0623628</v>
       </c>
       <c r="D74" t="n">
-        <v>0.218169</v>
+        <v>0.219524</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0416114</v>
+        <v>0.0391546</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0464135</v>
+        <v>0.0461082</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0569391</v>
+        <v>0.056427</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0670834</v>
+        <v>0.0663921</v>
       </c>
       <c r="D75" t="n">
-        <v>0.229984</v>
+        <v>0.23248</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0433291</v>
+        <v>0.0410223</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0485174</v>
+        <v>0.0482895</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06397650000000001</v>
+        <v>0.0637327</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0742197</v>
+        <v>0.07393719999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.243705</v>
+        <v>0.246354</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0462011</v>
+        <v>0.0438727</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0516805</v>
+        <v>0.0511421</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07450950000000001</v>
+        <v>0.0744803</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0849097</v>
+        <v>0.0844337</v>
       </c>
       <c r="D77" t="n">
-        <v>0.258112</v>
+        <v>0.259458</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0506718</v>
+        <v>0.0484272</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0560539</v>
+        <v>0.0558076</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.089892</v>
+        <v>0.090215</v>
       </c>
       <c r="C78" t="n">
-        <v>0.100992</v>
+        <v>0.101254</v>
       </c>
       <c r="D78" t="n">
-        <v>0.215857</v>
+        <v>0.216187</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0579662</v>
+        <v>0.0563286</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0627697</v>
+        <v>0.0640091</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115959</v>
+        <v>0.11558</v>
       </c>
       <c r="C79" t="n">
-        <v>0.130227</v>
+        <v>0.127272</v>
       </c>
       <c r="D79" t="n">
-        <v>0.229534</v>
+        <v>0.228935</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06938370000000001</v>
+        <v>0.0379347</v>
       </c>
       <c r="F79" t="n">
-        <v>0.07363989999999999</v>
+        <v>0.0430271</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154326</v>
+        <v>0.156752</v>
       </c>
       <c r="C80" t="n">
-        <v>0.174744</v>
+        <v>0.175443</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242112</v>
+        <v>0.241348</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0403104</v>
+        <v>0.0382688</v>
       </c>
       <c r="F80" t="n">
-        <v>0.044144</v>
+        <v>0.0436637</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0464333</v>
+        <v>0.0465334</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0578006</v>
+        <v>0.057207</v>
       </c>
       <c r="D81" t="n">
-        <v>0.254802</v>
+        <v>0.254776</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0406039</v>
+        <v>0.0384691</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0447204</v>
+        <v>0.0443259</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0473609</v>
+        <v>0.0473289</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0601376</v>
+        <v>0.0597816</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268068</v>
+        <v>0.268132</v>
       </c>
       <c r="E82" t="n">
-        <v>0.041259</v>
+        <v>0.0390332</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0456256</v>
+        <v>0.0450932</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0482196</v>
+        <v>0.0483262</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06294039999999999</v>
+        <v>0.0627976</v>
       </c>
       <c r="D83" t="n">
-        <v>0.281514</v>
+        <v>0.281566</v>
       </c>
       <c r="E83" t="n">
-        <v>0.041601</v>
+        <v>0.0395027</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0465473</v>
+        <v>0.046083</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0493914</v>
+        <v>0.0494898</v>
       </c>
       <c r="C84" t="n">
-        <v>0.066687</v>
+        <v>0.06621870000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.29567</v>
+        <v>0.295735</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0422559</v>
+        <v>0.040041</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0476507</v>
+        <v>0.0469607</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0509904</v>
+        <v>0.0511217</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0720663</v>
+        <v>0.07127790000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.309627</v>
+        <v>0.310073</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0429007</v>
+        <v>0.0407496</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0486179</v>
+        <v>0.0485023</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0528862</v>
+        <v>0.0531962</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0787018</v>
+        <v>0.07758569999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.323668</v>
+        <v>0.324301</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0437373</v>
+        <v>0.0416502</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0506193</v>
+        <v>0.0502334</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0556636</v>
+        <v>0.0557423</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0869771</v>
+        <v>0.0864051</v>
       </c>
       <c r="D87" t="n">
-        <v>0.338449</v>
+        <v>0.339472</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0445917</v>
+        <v>0.0427106</v>
       </c>
       <c r="F87" t="n">
-        <v>0.052952</v>
+        <v>0.0527</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0596999</v>
+        <v>0.059826</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0963054</v>
+        <v>0.0969271</v>
       </c>
       <c r="D88" t="n">
-        <v>0.353809</v>
+        <v>0.354697</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0466051</v>
+        <v>0.0442543</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0571364</v>
+        <v>0.0560415</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06543889999999999</v>
+        <v>0.0653557</v>
       </c>
       <c r="C89" t="n">
-        <v>0.108917</v>
+        <v>0.109343</v>
       </c>
       <c r="D89" t="n">
-        <v>0.369749</v>
+        <v>0.370808</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0488325</v>
+        <v>0.0466125</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0616428</v>
+        <v>0.0608085</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0738572</v>
+        <v>0.0736371</v>
       </c>
       <c r="C90" t="n">
-        <v>0.126103</v>
+        <v>0.125498</v>
       </c>
       <c r="D90" t="n">
-        <v>0.386692</v>
+        <v>0.387758</v>
       </c>
       <c r="E90" t="n">
-        <v>0.052304</v>
+        <v>0.0501717</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0693603</v>
+        <v>0.0676976</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0858541</v>
+        <v>0.085531</v>
       </c>
       <c r="C91" t="n">
-        <v>0.144286</v>
+        <v>0.144699</v>
       </c>
       <c r="D91" t="n">
-        <v>0.404023</v>
+        <v>0.405351</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0579153</v>
+        <v>0.055709</v>
       </c>
       <c r="F91" t="n">
-        <v>0.07829270000000001</v>
+        <v>0.0788692</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.102878</v>
+        <v>0.103246</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168732</v>
+        <v>0.169219</v>
       </c>
       <c r="D92" t="n">
-        <v>0.326915</v>
+        <v>0.327852</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0658521</v>
+        <v>0.0644353</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09185400000000001</v>
+        <v>0.0928252</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.12785</v>
+        <v>0.127579</v>
       </c>
       <c r="C93" t="n">
-        <v>0.199856</v>
+        <v>0.199039</v>
       </c>
       <c r="D93" t="n">
-        <v>0.337202</v>
+        <v>0.338251</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0791497</v>
+        <v>0.0411419</v>
       </c>
       <c r="F93" t="n">
-        <v>0.109599</v>
+        <v>0.0524388</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.164548</v>
+        <v>0.164162</v>
       </c>
       <c r="C94" t="n">
-        <v>0.24035</v>
+        <v>0.241378</v>
       </c>
       <c r="D94" t="n">
-        <v>0.348645</v>
+        <v>0.349909</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0447062</v>
+        <v>0.0422745</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0564028</v>
+        <v>0.0557754</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0584564</v>
+        <v>0.0585706</v>
       </c>
       <c r="C95" t="n">
-        <v>0.103172</v>
+        <v>0.103135</v>
       </c>
       <c r="D95" t="n">
-        <v>0.360317</v>
+        <v>0.361656</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0456958</v>
+        <v>0.0435622</v>
       </c>
       <c r="F95" t="n">
-        <v>0.059737</v>
+        <v>0.0591503</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0619939</v>
+        <v>0.0619358</v>
       </c>
       <c r="C96" t="n">
-        <v>0.111605</v>
+        <v>0.111564</v>
       </c>
       <c r="D96" t="n">
-        <v>0.372257</v>
+        <v>0.373657</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0471555</v>
+        <v>0.0452559</v>
       </c>
       <c r="F96" t="n">
-        <v>0.063925</v>
+        <v>0.063874</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0661313</v>
+        <v>0.06604649999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.120368</v>
+        <v>0.120643</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3846</v>
+        <v>0.386267</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0491905</v>
+        <v>0.0468752</v>
       </c>
       <c r="F97" t="n">
-        <v>0.069665</v>
+        <v>0.0689654</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07056030000000001</v>
+        <v>0.0710852</v>
       </c>
       <c r="C98" t="n">
-        <v>0.128498</v>
+        <v>0.128808</v>
       </c>
       <c r="D98" t="n">
-        <v>0.397047</v>
+        <v>0.398619</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0516066</v>
+        <v>0.0489954</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0748896</v>
+        <v>0.07473440000000001</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0761266</v>
+        <v>0.0763519</v>
       </c>
       <c r="C99" t="n">
-        <v>0.136508</v>
+        <v>0.136835</v>
       </c>
       <c r="D99" t="n">
-        <v>0.410486</v>
+        <v>0.41216</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0544793</v>
+        <v>0.0516827</v>
       </c>
       <c r="F99" t="n">
-        <v>0.081747</v>
+        <v>0.0822027</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0817238</v>
+        <v>0.0821578</v>
       </c>
       <c r="C100" t="n">
-        <v>0.144088</v>
+        <v>0.144791</v>
       </c>
       <c r="D100" t="n">
-        <v>0.42424</v>
+        <v>0.426235</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0575681</v>
+        <v>0.0565936</v>
       </c>
       <c r="F100" t="n">
-        <v>0.087991</v>
+        <v>0.0886117</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0881753</v>
+        <v>0.08863790000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151962</v>
+        <v>0.152915</v>
       </c>
       <c r="D101" t="n">
-        <v>0.438674</v>
+        <v>0.440467</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0613291</v>
+        <v>0.0604871</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0949387</v>
+        <v>0.095763</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0949363</v>
+        <v>0.095805</v>
       </c>
       <c r="C102" t="n">
-        <v>0.160067</v>
+        <v>0.161049</v>
       </c>
       <c r="D102" t="n">
-        <v>0.453978</v>
+        <v>0.456994</v>
       </c>
       <c r="E102" t="n">
-        <v>0.065688</v>
+        <v>0.06422219999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>0.102133</v>
+        <v>0.102556</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.103065</v>
+        <v>0.10293</v>
       </c>
       <c r="C103" t="n">
-        <v>0.169779</v>
+        <v>0.170674</v>
       </c>
       <c r="D103" t="n">
-        <v>0.469623</v>
+        <v>0.472879</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0703787</v>
+        <v>0.0686812</v>
       </c>
       <c r="F103" t="n">
-        <v>0.10866</v>
+        <v>0.109913</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.112236</v>
+        <v>0.11248</v>
       </c>
       <c r="C104" t="n">
-        <v>0.181209</v>
+        <v>0.182101</v>
       </c>
       <c r="D104" t="n">
-        <v>0.486248</v>
+        <v>0.489273</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07614020000000001</v>
+        <v>0.07539079999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>0.116684</v>
+        <v>0.118876</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.123006</v>
+        <v>0.123694</v>
       </c>
       <c r="C105" t="n">
-        <v>0.19612</v>
+        <v>0.196425</v>
       </c>
       <c r="D105" t="n">
-        <v>0.503905</v>
+        <v>0.507166</v>
       </c>
       <c r="E105" t="n">
-        <v>0.08289680000000001</v>
+        <v>0.0824394</v>
       </c>
       <c r="F105" t="n">
-        <v>0.124505</v>
+        <v>0.127151</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.137296</v>
+        <v>0.13798</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215588</v>
+        <v>0.216097</v>
       </c>
       <c r="D106" t="n">
-        <v>0.52157</v>
+        <v>0.525564</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0917813</v>
+        <v>0.09258089999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>0.136028</v>
+        <v>0.140199</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.157859</v>
+        <v>0.158187</v>
       </c>
       <c r="C107" t="n">
-        <v>0.241938</v>
+        <v>0.242459</v>
       </c>
       <c r="D107" t="n">
-        <v>0.393938</v>
+        <v>0.396451</v>
       </c>
       <c r="E107" t="n">
-        <v>0.104007</v>
+        <v>0.060023</v>
       </c>
       <c r="F107" t="n">
-        <v>0.151658</v>
+        <v>0.0888578</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.186804</v>
+        <v>0.187575</v>
       </c>
       <c r="C108" t="n">
-        <v>0.280573</v>
+        <v>0.282149</v>
       </c>
       <c r="D108" t="n">
-        <v>0.404297</v>
+        <v>0.406592</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0637368</v>
+        <v>0.062517</v>
       </c>
       <c r="F108" t="n">
-        <v>0.09146799999999999</v>
+        <v>0.0926739</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231993</v>
+        <v>0.2323</v>
       </c>
       <c r="C109" t="n">
-        <v>0.343149</v>
+        <v>0.342123</v>
       </c>
       <c r="D109" t="n">
-        <v>0.415222</v>
+        <v>0.417982</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0659868</v>
+        <v>0.06452860000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0948302</v>
+        <v>0.0957916</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0910526</v>
+        <v>0.09137919999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.144661</v>
+        <v>0.145254</v>
       </c>
       <c r="D110" t="n">
-        <v>0.426523</v>
+        <v>0.428667</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0679192</v>
+        <v>0.0665948</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0980943</v>
+        <v>0.09873560000000001</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0941654</v>
+        <v>0.094442</v>
       </c>
       <c r="C111" t="n">
-        <v>0.14934</v>
+        <v>0.149835</v>
       </c>
       <c r="D111" t="n">
-        <v>0.437933</v>
+        <v>0.440598</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06953910000000001</v>
+        <v>0.0682396</v>
       </c>
       <c r="F111" t="n">
-        <v>0.10088</v>
+        <v>0.102081</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0966632</v>
+        <v>0.0968741</v>
       </c>
       <c r="C112" t="n">
-        <v>0.154266</v>
+        <v>0.154523</v>
       </c>
       <c r="D112" t="n">
-        <v>0.449711</v>
+        <v>0.452968</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0715128</v>
+        <v>0.0704061</v>
       </c>
       <c r="F112" t="n">
-        <v>0.104096</v>
+        <v>0.105003</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0997995</v>
+        <v>0.100291</v>
       </c>
       <c r="C113" t="n">
-        <v>0.159087</v>
+        <v>0.159476</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4624</v>
+        <v>0.465442</v>
       </c>
       <c r="E113" t="n">
-        <v>0.07362</v>
+        <v>0.07227840000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>0.107769</v>
+        <v>0.108291</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103413</v>
+        <v>0.103785</v>
       </c>
       <c r="C114" t="n">
-        <v>0.164692</v>
+        <v>0.165193</v>
       </c>
       <c r="D114" t="n">
-        <v>0.475979</v>
+        <v>0.47898</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07595159999999999</v>
+        <v>0.07456980000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>0.111399</v>
+        <v>0.112275</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107159</v>
+        <v>0.107839</v>
       </c>
       <c r="C115" t="n">
-        <v>0.171027</v>
+        <v>0.171689</v>
       </c>
       <c r="D115" t="n">
-        <v>0.489796</v>
+        <v>0.492667</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0784842</v>
+        <v>0.07703459999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>0.115237</v>
+        <v>0.116546</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.111899</v>
+        <v>0.112406</v>
       </c>
       <c r="C116" t="n">
-        <v>0.178311</v>
+        <v>0.178851</v>
       </c>
       <c r="D116" t="n">
-        <v>0.504901</v>
+        <v>0.506952</v>
       </c>
       <c r="E116" t="n">
-        <v>0.081293</v>
+        <v>0.0799853</v>
       </c>
       <c r="F116" t="n">
-        <v>0.119741</v>
+        <v>0.121133</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.117909</v>
+        <v>0.118306</v>
       </c>
       <c r="C117" t="n">
-        <v>0.187014</v>
+        <v>0.187587</v>
       </c>
       <c r="D117" t="n">
-        <v>0.520794</v>
+        <v>0.522221</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0845253</v>
+        <v>0.0831703</v>
       </c>
       <c r="F117" t="n">
-        <v>0.124623</v>
+        <v>0.12646</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.125225</v>
+        <v>0.12558</v>
       </c>
       <c r="C118" t="n">
-        <v>0.19831</v>
+        <v>0.199148</v>
       </c>
       <c r="D118" t="n">
-        <v>0.537257</v>
+        <v>0.53916</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0887037</v>
+        <v>0.0874148</v>
       </c>
       <c r="F118" t="n">
-        <v>0.130703</v>
+        <v>0.133058</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.134649</v>
+        <v>0.13524</v>
       </c>
       <c r="C119" t="n">
-        <v>0.21228</v>
+        <v>0.212998</v>
       </c>
       <c r="D119" t="n">
-        <v>0.554295</v>
+        <v>0.556369</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0939972</v>
+        <v>0.0926896</v>
       </c>
       <c r="F119" t="n">
-        <v>0.138844</v>
+        <v>0.141484</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147581</v>
+        <v>0.147832</v>
       </c>
       <c r="C120" t="n">
-        <v>0.230887</v>
+        <v>0.231742</v>
       </c>
       <c r="D120" t="n">
-        <v>0.572026</v>
+        <v>0.574341</v>
       </c>
       <c r="E120" t="n">
-        <v>0.101228</v>
+        <v>0.101006</v>
       </c>
       <c r="F120" t="n">
-        <v>0.149152</v>
+        <v>0.153053</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165587</v>
+        <v>0.165965</v>
       </c>
       <c r="C121" t="n">
-        <v>0.256947</v>
+        <v>0.258088</v>
       </c>
       <c r="D121" t="n">
-        <v>0.423973</v>
+        <v>0.426185</v>
       </c>
       <c r="E121" t="n">
-        <v>0.112154</v>
+        <v>0.0757582</v>
       </c>
       <c r="F121" t="n">
-        <v>0.163749</v>
+        <v>0.106516</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192095</v>
+        <v>0.193092</v>
       </c>
       <c r="C122" t="n">
-        <v>0.295798</v>
+        <v>0.296739</v>
       </c>
       <c r="D122" t="n">
-        <v>0.434961</v>
+        <v>0.435995</v>
       </c>
       <c r="E122" t="n">
-        <v>0.129054</v>
+        <v>0.0728675</v>
       </c>
       <c r="F122" t="n">
-        <v>0.186407</v>
+        <v>0.107402</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232859</v>
+        <v>0.233827</v>
       </c>
       <c r="C123" t="n">
-        <v>0.356172</v>
+        <v>0.357032</v>
       </c>
       <c r="D123" t="n">
-        <v>0.445413</v>
+        <v>0.446895</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0784513</v>
+        <v>0.0773808</v>
       </c>
       <c r="F123" t="n">
-        <v>0.10913</v>
+        <v>0.111766</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103938</v>
+        <v>0.101718</v>
       </c>
       <c r="C124" t="n">
-        <v>0.161659</v>
+        <v>0.160731</v>
       </c>
       <c r="D124" t="n">
-        <v>0.456695</v>
+        <v>0.457889</v>
       </c>
       <c r="E124" t="n">
-        <v>0.07866570000000001</v>
+        <v>0.076122</v>
       </c>
       <c r="F124" t="n">
-        <v>0.112968</v>
+        <v>0.113194</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104444</v>
+        <v>0.106365</v>
       </c>
       <c r="C125" t="n">
-        <v>0.166333</v>
+        <v>0.165885</v>
       </c>
       <c r="D125" t="n">
-        <v>0.468612</v>
+        <v>0.469904</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0814255</v>
+        <v>0.07921060000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>0.117117</v>
+        <v>0.114944</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.106419</v>
+        <v>0.10762</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170808</v>
+        <v>0.17419</v>
       </c>
       <c r="D126" t="n">
-        <v>0.480655</v>
+        <v>0.482111</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0832025</v>
+        <v>0.08029989999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>0.119168</v>
+        <v>0.118978</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110553</v>
+        <v>0.112288</v>
       </c>
       <c r="C127" t="n">
-        <v>0.176887</v>
+        <v>0.176807</v>
       </c>
       <c r="D127" t="n">
-        <v>0.493959</v>
+        <v>0.495245</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0891453</v>
+        <v>0.08167489999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>0.126181</v>
+        <v>0.123724</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114237</v>
+        <v>0.112495</v>
       </c>
       <c r="C128" t="n">
-        <v>0.181481</v>
+        <v>0.180669</v>
       </c>
       <c r="D128" t="n">
-        <v>0.506847</v>
+        <v>0.508093</v>
       </c>
       <c r="E128" t="n">
-        <v>0.08769399999999999</v>
+        <v>0.0852251</v>
       </c>
       <c r="F128" t="n">
-        <v>0.126581</v>
+        <v>0.128216</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116302</v>
+        <v>0.116624</v>
       </c>
       <c r="C129" t="n">
-        <v>0.188896</v>
+        <v>0.188407</v>
       </c>
       <c r="D129" t="n">
-        <v>0.520573</v>
+        <v>0.52227</v>
       </c>
       <c r="E129" t="n">
-        <v>0.089194</v>
+        <v>0.08895119999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>0.129316</v>
+        <v>0.131471</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120297</v>
+        <v>0.120618</v>
       </c>
       <c r="C130" t="n">
-        <v>0.196608</v>
+        <v>0.194698</v>
       </c>
       <c r="D130" t="n">
-        <v>0.535771</v>
+        <v>0.537407</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0930034</v>
+        <v>0.0911544</v>
       </c>
       <c r="F130" t="n">
-        <v>0.136251</v>
+        <v>0.138264</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.124564</v>
+        <v>0.12901</v>
       </c>
       <c r="C131" t="n">
-        <v>0.203972</v>
+        <v>0.203709</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5513749999999999</v>
+        <v>0.553384</v>
       </c>
       <c r="E131" t="n">
-        <v>0.094294</v>
+        <v>0.0936794</v>
       </c>
       <c r="F131" t="n">
-        <v>0.139478</v>
+        <v>0.142403</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132005</v>
+        <v>0.132664</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214277</v>
+        <v>0.21331</v>
       </c>
       <c r="D132" t="n">
-        <v>0.567904</v>
+        <v>0.570056</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0980226</v>
+        <v>0.0976872</v>
       </c>
       <c r="F132" t="n">
-        <v>0.146054</v>
+        <v>0.147507</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.144206</v>
+        <v>0.142342</v>
       </c>
       <c r="C133" t="n">
-        <v>0.225749</v>
+        <v>0.227751</v>
       </c>
       <c r="D133" t="n">
-        <v>0.585082</v>
+        <v>0.586925</v>
       </c>
       <c r="E133" t="n">
-        <v>0.103242</v>
+        <v>0.10335</v>
       </c>
       <c r="F133" t="n">
-        <v>0.154249</v>
+        <v>0.155624</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155073</v>
+        <v>0.154312</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244481</v>
+        <v>0.244671</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6032149999999999</v>
+        <v>0.605248</v>
       </c>
       <c r="E134" t="n">
-        <v>0.108915</v>
+        <v>0.109299</v>
       </c>
       <c r="F134" t="n">
-        <v>0.164364</v>
+        <v>0.166334</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.170582</v>
+        <v>0.171637</v>
       </c>
       <c r="C135" t="n">
-        <v>0.269712</v>
+        <v>0.270604</v>
       </c>
       <c r="D135" t="n">
-        <v>0.442517</v>
+        <v>0.443902</v>
       </c>
       <c r="E135" t="n">
-        <v>0.121259</v>
+        <v>0.133181</v>
       </c>
       <c r="F135" t="n">
-        <v>0.179292</v>
+        <v>0.168532</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.196245</v>
+        <v>0.196617</v>
       </c>
       <c r="C136" t="n">
-        <v>0.306647</v>
+        <v>0.307124</v>
       </c>
       <c r="D136" t="n">
-        <v>0.452818</v>
+        <v>0.452433</v>
       </c>
       <c r="E136" t="n">
-        <v>0.135401</v>
+        <v>0.140818</v>
       </c>
       <c r="F136" t="n">
-        <v>0.198377</v>
+        <v>0.173401</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235341</v>
+        <v>0.236726</v>
       </c>
       <c r="C137" t="n">
-        <v>0.364113</v>
+        <v>0.364484</v>
       </c>
       <c r="D137" t="n">
-        <v>0.463818</v>
+        <v>0.465041</v>
       </c>
       <c r="E137" t="n">
-        <v>0.150176</v>
+        <v>0.141278</v>
       </c>
       <c r="F137" t="n">
-        <v>0.181548</v>
+        <v>0.176962</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.166288</v>
+        <v>0.167372</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225169</v>
+        <v>0.226316</v>
       </c>
       <c r="D138" t="n">
-        <v>0.475131</v>
+        <v>0.476825</v>
       </c>
       <c r="E138" t="n">
-        <v>0.151716</v>
+        <v>0.135456</v>
       </c>
       <c r="F138" t="n">
-        <v>0.184715</v>
+        <v>0.179282</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.168209</v>
+        <v>0.168542</v>
       </c>
       <c r="C139" t="n">
-        <v>0.228987</v>
+        <v>0.230104</v>
       </c>
       <c r="D139" t="n">
-        <v>0.486794</v>
+        <v>0.485755</v>
       </c>
       <c r="E139" t="n">
-        <v>0.152488</v>
+        <v>0.144289</v>
       </c>
       <c r="F139" t="n">
-        <v>0.187387</v>
+        <v>0.181829</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.16957</v>
+        <v>0.170438</v>
       </c>
       <c r="C140" t="n">
-        <v>0.234687</v>
+        <v>0.23406</v>
       </c>
       <c r="D140" t="n">
-        <v>0.498768</v>
+        <v>0.500396</v>
       </c>
       <c r="E140" t="n">
-        <v>0.153741</v>
+        <v>0.14531</v>
       </c>
       <c r="F140" t="n">
-        <v>0.191166</v>
+        <v>0.184295</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173634</v>
+        <v>0.173791</v>
       </c>
       <c r="C141" t="n">
-        <v>0.240385</v>
+        <v>0.23829</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5114030000000001</v>
+        <v>0.513246</v>
       </c>
       <c r="E141" t="n">
-        <v>0.154392</v>
+        <v>0.145505</v>
       </c>
       <c r="F141" t="n">
-        <v>0.194193</v>
+        <v>0.188463</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174028</v>
+        <v>0.175854</v>
       </c>
       <c r="C142" t="n">
-        <v>0.243114</v>
+        <v>0.243867</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5243100000000001</v>
+        <v>0.526357</v>
       </c>
       <c r="E142" t="n">
-        <v>0.157265</v>
+        <v>0.140632</v>
       </c>
       <c r="F142" t="n">
-        <v>0.197755</v>
+        <v>0.188844</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.17731</v>
+        <v>0.178269</v>
       </c>
       <c r="C143" t="n">
-        <v>0.249848</v>
+        <v>0.250372</v>
       </c>
       <c r="D143" t="n">
-        <v>0.538786</v>
+        <v>0.537652</v>
       </c>
       <c r="E143" t="n">
-        <v>0.158608</v>
+        <v>0.1497</v>
       </c>
       <c r="F143" t="n">
-        <v>0.201101</v>
+        <v>0.196312</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.032987</v>
+        <v>0.0320577</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0333128</v>
+        <v>0.0331838</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11821</v>
+        <v>0.118027</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0312959</v>
+        <v>0.03137</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0287897</v>
+        <v>0.0312173</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0351541</v>
+        <v>0.0336267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0348974</v>
+        <v>0.0348478</v>
       </c>
       <c r="D3" t="n">
-        <v>0.123072</v>
+        <v>0.12369</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0318869</v>
+        <v>0.031939</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0294592</v>
+        <v>0.0315667</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0380135</v>
+        <v>0.0350106</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0369014</v>
+        <v>0.0364459</v>
       </c>
       <c r="D4" t="n">
-        <v>0.128297</v>
+        <v>0.128354</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0330196</v>
+        <v>0.0330271</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03084</v>
+        <v>0.0326282</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.044546</v>
+        <v>0.04182</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0434666</v>
+        <v>0.0430446</v>
       </c>
       <c r="D5" t="n">
-        <v>0.134494</v>
+        <v>0.134592</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0347996</v>
+        <v>0.0346723</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0323035</v>
+        <v>0.0339222</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0539281</v>
+        <v>0.0516106</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0540555</v>
+        <v>0.0540022</v>
       </c>
       <c r="D6" t="n">
-        <v>0.139039</v>
+        <v>0.141317</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0375653</v>
+        <v>0.0373076</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0352845</v>
+        <v>0.0363729</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.078039</v>
+        <v>0.0783769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07726959999999999</v>
+        <v>0.076182</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0958517</v>
+        <v>0.09628440000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0440635</v>
+        <v>0.043571</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0407735</v>
+        <v>0.0422405</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.102486</v>
+        <v>0.103308</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113665</v>
+        <v>0.113154</v>
       </c>
       <c r="D8" t="n">
-        <v>0.102712</v>
+        <v>0.103195</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0576823</v>
+        <v>0.0580594</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0535733</v>
+        <v>0.055226</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14576</v>
+        <v>0.14566</v>
       </c>
       <c r="C9" t="n">
-        <v>0.155145</v>
+        <v>0.154622</v>
       </c>
       <c r="D9" t="n">
-        <v>0.10941</v>
+        <v>0.1097</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0286553</v>
+        <v>0.0285907</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0260603</v>
+        <v>0.028464</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.030745</v>
+        <v>0.0304917</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0307706</v>
+        <v>0.0306684</v>
       </c>
       <c r="D10" t="n">
-        <v>0.115958</v>
+        <v>0.116134</v>
       </c>
       <c r="E10" t="n">
-        <v>0.028899</v>
+        <v>0.0288293</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0263324</v>
+        <v>0.0287651</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0314208</v>
+        <v>0.0310721</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0315192</v>
+        <v>0.03131</v>
       </c>
       <c r="D11" t="n">
-        <v>0.121364</v>
+        <v>0.121833</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02919</v>
+        <v>0.0290852</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0267088</v>
+        <v>0.0291024</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0315457</v>
+        <v>0.0313292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0320708</v>
+        <v>0.0317958</v>
       </c>
       <c r="D12" t="n">
-        <v>0.125332</v>
+        <v>0.126409</v>
       </c>
       <c r="E12" t="n">
-        <v>0.029679</v>
+        <v>0.0295997</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0272993</v>
+        <v>0.02964</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0323256</v>
+        <v>0.0319042</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0333422</v>
+        <v>0.0326662</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131196</v>
+        <v>0.131918</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0299485</v>
+        <v>0.0298906</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02771</v>
+        <v>0.03003</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0334185</v>
+        <v>0.033014</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0339907</v>
+        <v>0.0333992</v>
       </c>
       <c r="D14" t="n">
-        <v>0.13606</v>
+        <v>0.136888</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0303077</v>
+        <v>0.0302995</v>
       </c>
       <c r="F14" t="n">
-        <v>0.028196</v>
+        <v>0.0308257</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0346371</v>
+        <v>0.033908</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0355438</v>
+        <v>0.0351511</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140596</v>
+        <v>0.141137</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0309685</v>
+        <v>0.0309106</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0289489</v>
+        <v>0.0311351</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.036394</v>
+        <v>0.0355405</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0375574</v>
+        <v>0.0370785</v>
       </c>
       <c r="D16" t="n">
-        <v>0.14411</v>
+        <v>0.145267</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0317443</v>
+        <v>0.0317227</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0299628</v>
+        <v>0.0317627</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0389158</v>
+        <v>0.03786</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0397127</v>
+        <v>0.0394742</v>
       </c>
       <c r="D17" t="n">
-        <v>0.148818</v>
+        <v>0.149882</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0327844</v>
+        <v>0.0327294</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0312539</v>
+        <v>0.0327473</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0428563</v>
+        <v>0.0424999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0434359</v>
+        <v>0.0434444</v>
       </c>
       <c r="D18" t="n">
-        <v>0.153261</v>
+        <v>0.154224</v>
       </c>
       <c r="E18" t="n">
-        <v>0.033835</v>
+        <v>0.0338623</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0323811</v>
+        <v>0.0335707</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0500003</v>
+        <v>0.049479</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0516259</v>
+        <v>0.0518576</v>
       </c>
       <c r="D19" t="n">
-        <v>0.157056</v>
+        <v>0.158487</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0355293</v>
+        <v>0.035491</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0340479</v>
+        <v>0.0352268</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06502479999999999</v>
+        <v>0.0656791</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06345389999999999</v>
+        <v>0.0633865</v>
       </c>
       <c r="D20" t="n">
-        <v>0.161064</v>
+        <v>0.162732</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0389881</v>
+        <v>0.0390403</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0377692</v>
+        <v>0.0385099</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08282920000000001</v>
+        <v>0.0834635</v>
       </c>
       <c r="C21" t="n">
-        <v>0.081689</v>
+        <v>0.08125540000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.114678</v>
+        <v>0.115289</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0453687</v>
+        <v>0.0456258</v>
       </c>
       <c r="F21" t="n">
-        <v>0.043586</v>
+        <v>0.0442876</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.112013</v>
+        <v>0.112075</v>
       </c>
       <c r="C22" t="n">
-        <v>0.113236</v>
+        <v>0.11267</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119564</v>
+        <v>0.120584</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0605232</v>
+        <v>0.060918</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0581282</v>
+        <v>0.0583713</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152317</v>
+        <v>0.152404</v>
       </c>
       <c r="C23" t="n">
-        <v>0.148368</v>
+        <v>0.146497</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124503</v>
+        <v>0.125133</v>
       </c>
       <c r="E23" t="n">
-        <v>0.028654</v>
+        <v>0.028586</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0270225</v>
+        <v>0.0293069</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0330076</v>
+        <v>0.0328736</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0353072</v>
+        <v>0.0356135</v>
       </c>
       <c r="D24" t="n">
-        <v>0.129605</v>
+        <v>0.130272</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0289393</v>
+        <v>0.028877</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0276348</v>
+        <v>0.0297201</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0334965</v>
+        <v>0.0334618</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0362251</v>
+        <v>0.0363651</v>
       </c>
       <c r="D25" t="n">
-        <v>0.134151</v>
+        <v>0.134902</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0291941</v>
+        <v>0.0291755</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0281214</v>
+        <v>0.0302723</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.034156</v>
+        <v>0.0340107</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0374216</v>
+        <v>0.0377684</v>
       </c>
       <c r="D26" t="n">
-        <v>0.138285</v>
+        <v>0.139469</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02952</v>
+        <v>0.029414</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02868</v>
+        <v>0.0308565</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0348726</v>
+        <v>0.0346706</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0384949</v>
+        <v>0.0388391</v>
       </c>
       <c r="D27" t="n">
-        <v>0.143011</v>
+        <v>0.144191</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0300021</v>
+        <v>0.0299026</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0294603</v>
+        <v>0.0315632</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0357269</v>
+        <v>0.0354055</v>
       </c>
       <c r="C28" t="n">
-        <v>0.039783</v>
+        <v>0.0401447</v>
       </c>
       <c r="D28" t="n">
-        <v>0.147501</v>
+        <v>0.148409</v>
       </c>
       <c r="E28" t="n">
-        <v>0.030507</v>
+        <v>0.0305176</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0303204</v>
+        <v>0.0324874</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03732</v>
+        <v>0.036944</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0412186</v>
+        <v>0.0414428</v>
       </c>
       <c r="D29" t="n">
-        <v>0.151647</v>
+        <v>0.152959</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0313031</v>
+        <v>0.0313368</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0314095</v>
+        <v>0.0333219</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.039116</v>
+        <v>0.0386803</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0431248</v>
+        <v>0.0433279</v>
       </c>
       <c r="D30" t="n">
-        <v>0.155682</v>
+        <v>0.157067</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0320435</v>
+        <v>0.0320404</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0323239</v>
+        <v>0.0341245</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0420861</v>
+        <v>0.0417392</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0462209</v>
+        <v>0.0464057</v>
       </c>
       <c r="D31" t="n">
-        <v>0.15987</v>
+        <v>0.161164</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0331881</v>
+        <v>0.0331818</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0336477</v>
+        <v>0.0352319</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0465667</v>
+        <v>0.0464308</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0501982</v>
+        <v>0.0501902</v>
       </c>
       <c r="D32" t="n">
-        <v>0.16285</v>
+        <v>0.164264</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0344034</v>
+        <v>0.0343238</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0349223</v>
+        <v>0.0363688</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.053189</v>
+        <v>0.0535505</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0563804</v>
+        <v>0.0561597</v>
       </c>
       <c r="D33" t="n">
-        <v>0.166958</v>
+        <v>0.168276</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0362587</v>
+        <v>0.0360615</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0369201</v>
+        <v>0.0378912</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0629837</v>
+        <v>0.0635159</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0656572</v>
+        <v>0.065376</v>
       </c>
       <c r="D34" t="n">
-        <v>0.170736</v>
+        <v>0.1725</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0397514</v>
+        <v>0.0396139</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0402637</v>
+        <v>0.0407467</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08073130000000001</v>
+        <v>0.0809631</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0827927</v>
+        <v>0.08183600000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.119039</v>
+        <v>0.119472</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0462663</v>
+        <v>0.0462703</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0460983</v>
+        <v>0.0463897</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.10186</v>
+        <v>0.101943</v>
       </c>
       <c r="C36" t="n">
-        <v>0.101744</v>
+        <v>0.101553</v>
       </c>
       <c r="D36" t="n">
-        <v>0.123574</v>
+        <v>0.124259</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0574022</v>
+        <v>0.0575493</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0560637</v>
+        <v>0.0560531</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1358</v>
+        <v>0.135771</v>
       </c>
       <c r="C37" t="n">
-        <v>0.134858</v>
+        <v>0.134082</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128163</v>
+        <v>0.128871</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0290482</v>
+        <v>0.0288717</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0292268</v>
+        <v>0.0313306</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0335612</v>
+        <v>0.0334974</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0382099</v>
+        <v>0.0383997</v>
       </c>
       <c r="D38" t="n">
-        <v>0.13325</v>
+        <v>0.133665</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0292698</v>
+        <v>0.0291937</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0298062</v>
+        <v>0.0318484</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0341669</v>
+        <v>0.0341199</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0388822</v>
+        <v>0.0391487</v>
       </c>
       <c r="D39" t="n">
-        <v>0.137898</v>
+        <v>0.138548</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0297239</v>
+        <v>0.0295657</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0302767</v>
+        <v>0.0322802</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0351751</v>
+        <v>0.035065</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0398697</v>
+        <v>0.0400557</v>
       </c>
       <c r="D40" t="n">
-        <v>0.142256</v>
+        <v>0.143118</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0301464</v>
+        <v>0.0299895</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0308062</v>
+        <v>0.0328955</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0358513</v>
+        <v>0.0357302</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0408374</v>
+        <v>0.0411009</v>
       </c>
       <c r="D41" t="n">
-        <v>0.146518</v>
+        <v>0.147269</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0304935</v>
+        <v>0.0304278</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0313628</v>
+        <v>0.0334488</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0371792</v>
+        <v>0.0369731</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0418878</v>
+        <v>0.0421427</v>
       </c>
       <c r="D42" t="n">
-        <v>0.150797</v>
+        <v>0.151803</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0310467</v>
+        <v>0.0309008</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0322509</v>
+        <v>0.0340225</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0385792</v>
+        <v>0.038576</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0434175</v>
+        <v>0.0436533</v>
       </c>
       <c r="D43" t="n">
-        <v>0.155102</v>
+        <v>0.156277</v>
       </c>
       <c r="E43" t="n">
-        <v>0.031705</v>
+        <v>0.0316689</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0329795</v>
+        <v>0.0348388</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0403608</v>
+        <v>0.0401473</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0455045</v>
+        <v>0.0458139</v>
       </c>
       <c r="D44" t="n">
-        <v>0.159067</v>
+        <v>0.160288</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0325718</v>
+        <v>0.0325038</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0340383</v>
+        <v>0.0356714</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0433907</v>
+        <v>0.0435165</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0479664</v>
+        <v>0.0481683</v>
       </c>
       <c r="D45" t="n">
-        <v>0.162634</v>
+        <v>0.163926</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0337473</v>
+        <v>0.0334933</v>
       </c>
       <c r="F45" t="n">
-        <v>0.035136</v>
+        <v>0.0366528</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0472768</v>
+        <v>0.0473722</v>
       </c>
       <c r="C46" t="n">
-        <v>0.051682</v>
+        <v>0.0519691</v>
       </c>
       <c r="D46" t="n">
-        <v>0.166533</v>
+        <v>0.168053</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0350658</v>
+        <v>0.0349992</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0366267</v>
+        <v>0.0379453</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0536189</v>
+        <v>0.0539509</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0571836</v>
+        <v>0.0572711</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170744</v>
+        <v>0.171968</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0370989</v>
+        <v>0.0369272</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0383902</v>
+        <v>0.0393524</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0626727</v>
+        <v>0.06289110000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06575780000000001</v>
+        <v>0.0658284</v>
       </c>
       <c r="D48" t="n">
-        <v>0.174855</v>
+        <v>0.176258</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0408872</v>
+        <v>0.0407221</v>
       </c>
       <c r="F48" t="n">
-        <v>0.041671</v>
+        <v>0.0423141</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07443370000000001</v>
+        <v>0.07451820000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07750840000000001</v>
+        <v>0.0775719</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17885</v>
+        <v>0.180523</v>
       </c>
       <c r="E49" t="n">
-        <v>0.046257</v>
+        <v>0.0461219</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0465264</v>
+        <v>0.0466667</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09517059999999999</v>
+        <v>0.0950858</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0962631</v>
+        <v>0.0962785</v>
       </c>
       <c r="D50" t="n">
-        <v>0.125249</v>
+        <v>0.125659</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0546749</v>
+        <v>0.0547441</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0539766</v>
+        <v>0.0538769</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125241</v>
+        <v>0.124984</v>
       </c>
       <c r="C51" t="n">
-        <v>0.126998</v>
+        <v>0.126239</v>
       </c>
       <c r="D51" t="n">
-        <v>0.129946</v>
+        <v>0.130399</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0306967</v>
+        <v>0.0303923</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0320375</v>
+        <v>0.0336245</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.169869</v>
+        <v>0.170223</v>
       </c>
       <c r="C52" t="n">
-        <v>0.17326</v>
+        <v>0.173262</v>
       </c>
       <c r="D52" t="n">
-        <v>0.134664</v>
+        <v>0.135353</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0312504</v>
+        <v>0.0310192</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0324951</v>
+        <v>0.0341117</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0354877</v>
+        <v>0.0356979</v>
       </c>
       <c r="C53" t="n">
-        <v>0.041466</v>
+        <v>0.0415333</v>
       </c>
       <c r="D53" t="n">
-        <v>0.139239</v>
+        <v>0.139954</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0317713</v>
+        <v>0.0312633</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0329201</v>
+        <v>0.034584</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0365363</v>
+        <v>0.0368638</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0422591</v>
+        <v>0.0424261</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144179</v>
+        <v>0.144897</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0312981</v>
+        <v>0.0312847</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0333149</v>
+        <v>0.0350125</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0375313</v>
+        <v>0.0375875</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0430603</v>
+        <v>0.0433288</v>
       </c>
       <c r="D55" t="n">
-        <v>0.148587</v>
+        <v>0.149519</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0329458</v>
+        <v>0.0320242</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0339668</v>
+        <v>0.0358696</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0387243</v>
+        <v>0.0386334</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0444742</v>
+        <v>0.0446147</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15319</v>
+        <v>0.154164</v>
       </c>
       <c r="E56" t="n">
-        <v>0.032269</v>
+        <v>0.0322878</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0345657</v>
+        <v>0.0362329</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0399959</v>
+        <v>0.040151</v>
       </c>
       <c r="C57" t="n">
-        <v>0.045779</v>
+        <v>0.0459723</v>
       </c>
       <c r="D57" t="n">
-        <v>0.157351</v>
+        <v>0.158529</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0336752</v>
+        <v>0.0328873</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0356051</v>
+        <v>0.037306</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0420849</v>
+        <v>0.0420025</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0478965</v>
+        <v>0.047836</v>
       </c>
       <c r="D58" t="n">
-        <v>0.161673</v>
+        <v>0.162747</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0337356</v>
+        <v>0.033498</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0362229</v>
+        <v>0.0379943</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0447437</v>
+        <v>0.0447208</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0501632</v>
+        <v>0.0503745</v>
       </c>
       <c r="D59" t="n">
-        <v>0.165252</v>
+        <v>0.166743</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0350412</v>
+        <v>0.0360514</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0375222</v>
+        <v>0.0385251</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0488698</v>
+        <v>0.049164</v>
       </c>
       <c r="C60" t="n">
-        <v>0.053715</v>
+        <v>0.0537254</v>
       </c>
       <c r="D60" t="n">
-        <v>0.169443</v>
+        <v>0.170524</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0373443</v>
+        <v>0.0362054</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0387144</v>
+        <v>0.0401292</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0537516</v>
+        <v>0.0538358</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0582849</v>
+        <v>0.0583346</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173854</v>
+        <v>0.174845</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0383636</v>
+        <v>0.0391165</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0415219</v>
+        <v>0.0417456</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0623633</v>
+        <v>0.06257269999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06668880000000001</v>
+        <v>0.0666289</v>
       </c>
       <c r="D62" t="n">
-        <v>0.177974</v>
+        <v>0.178772</v>
       </c>
       <c r="E62" t="n">
-        <v>0.041683</v>
+        <v>0.0423464</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0442013</v>
+        <v>0.0446189</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0734393</v>
+        <v>0.0736474</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0766501</v>
+        <v>0.0767592</v>
       </c>
       <c r="D63" t="n">
-        <v>0.18276</v>
+        <v>0.183279</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0468063</v>
+        <v>0.0474936</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0485209</v>
+        <v>0.049082</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09304469999999999</v>
+        <v>0.0930098</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09381879999999999</v>
+        <v>0.09375029999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.131219</v>
+        <v>0.131906</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0550909</v>
+        <v>0.0550362</v>
       </c>
       <c r="F64" t="n">
-        <v>0.055942</v>
+        <v>0.0556225</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118983</v>
+        <v>0.118942</v>
       </c>
       <c r="C65" t="n">
-        <v>0.120859</v>
+        <v>0.120367</v>
       </c>
       <c r="D65" t="n">
-        <v>0.137592</v>
+        <v>0.13965</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0685413</v>
+        <v>0.0689193</v>
       </c>
       <c r="F65" t="n">
-        <v>0.068662</v>
+        <v>0.06801939999999999</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16121</v>
+        <v>0.161304</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163056</v>
+        <v>0.162528</v>
       </c>
       <c r="D66" t="n">
-        <v>0.145086</v>
+        <v>0.146056</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0364375</v>
+        <v>0.0354499</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0391857</v>
+        <v>0.0396618</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0414376</v>
+        <v>0.0415468</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0491421</v>
+        <v>0.0487681</v>
       </c>
       <c r="D67" t="n">
-        <v>0.150718</v>
+        <v>0.154379</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0364174</v>
+        <v>0.0361897</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0398166</v>
+        <v>0.0403367</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0415466</v>
+        <v>0.04155</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0502812</v>
+        <v>0.0498463</v>
       </c>
       <c r="D68" t="n">
-        <v>0.159804</v>
+        <v>0.160933</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0373123</v>
+        <v>0.0362259</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0403752</v>
+        <v>0.0408368</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0427545</v>
+        <v>0.042615</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0515332</v>
+        <v>0.0511149</v>
       </c>
       <c r="D69" t="n">
-        <v>0.167316</v>
+        <v>0.169029</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0374685</v>
+        <v>0.0365692</v>
       </c>
       <c r="F69" t="n">
-        <v>0.041068</v>
+        <v>0.0415001</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0438375</v>
+        <v>0.0439034</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0529243</v>
+        <v>0.0525466</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1757</v>
+        <v>0.177794</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0380765</v>
+        <v>0.0373137</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0418556</v>
+        <v>0.0423007</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0447457</v>
+        <v>0.0447249</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0546494</v>
+        <v>0.0542557</v>
       </c>
       <c r="D71" t="n">
-        <v>0.186564</v>
+        <v>0.185733</v>
       </c>
       <c r="E71" t="n">
-        <v>0.038277</v>
+        <v>0.0380616</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0427678</v>
+        <v>0.0434329</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0465875</v>
+        <v>0.0465533</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0565117</v>
+        <v>0.0561391</v>
       </c>
       <c r="D72" t="n">
-        <v>0.195288</v>
+        <v>0.196189</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0390725</v>
+        <v>0.0388512</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0437411</v>
+        <v>0.0444653</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0487039</v>
+        <v>0.048857</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0588623</v>
+        <v>0.0584453</v>
       </c>
       <c r="D73" t="n">
-        <v>0.205365</v>
+        <v>0.205854</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0400036</v>
+        <v>0.0398539</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0449261</v>
+        <v>0.0455601</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0520753</v>
+        <v>0.0520205</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0624328</v>
+        <v>0.062204</v>
       </c>
       <c r="D74" t="n">
-        <v>0.218169</v>
+        <v>0.217553</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0416114</v>
+        <v>0.041258</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0464135</v>
+        <v>0.0469576</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0569391</v>
+        <v>0.0567824</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0670834</v>
+        <v>0.06699960000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.229984</v>
+        <v>0.229232</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0433291</v>
+        <v>0.0430765</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0485174</v>
+        <v>0.0483566</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06397650000000001</v>
+        <v>0.06394710000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0742197</v>
+        <v>0.0744126</v>
       </c>
       <c r="D76" t="n">
-        <v>0.243705</v>
+        <v>0.243704</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0462011</v>
+        <v>0.0458591</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0516805</v>
+        <v>0.0514611</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07450950000000001</v>
+        <v>0.0747182</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0849097</v>
+        <v>0.0861156</v>
       </c>
       <c r="D77" t="n">
-        <v>0.258112</v>
+        <v>0.258033</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0506718</v>
+        <v>0.0504284</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0560539</v>
+        <v>0.05523</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.089892</v>
+        <v>0.0899595</v>
       </c>
       <c r="C78" t="n">
-        <v>0.100992</v>
+        <v>0.102265</v>
       </c>
       <c r="D78" t="n">
-        <v>0.215857</v>
+        <v>0.215923</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0579662</v>
+        <v>0.057946</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0627697</v>
+        <v>0.0614377</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115959</v>
+        <v>0.115838</v>
       </c>
       <c r="C79" t="n">
-        <v>0.130227</v>
+        <v>0.130958</v>
       </c>
       <c r="D79" t="n">
-        <v>0.229534</v>
+        <v>0.229882</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06938370000000001</v>
+        <v>0.06917619999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>0.07363989999999999</v>
+        <v>0.0726449</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154326</v>
+        <v>0.153805</v>
       </c>
       <c r="C80" t="n">
-        <v>0.174744</v>
+        <v>0.174762</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242112</v>
+        <v>0.241353</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0403104</v>
+        <v>0.03967</v>
       </c>
       <c r="F80" t="n">
-        <v>0.044144</v>
+        <v>0.0446343</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0464333</v>
+        <v>0.0463448</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0578006</v>
+        <v>0.0576462</v>
       </c>
       <c r="D81" t="n">
-        <v>0.254802</v>
+        <v>0.255831</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0406039</v>
+        <v>0.0404268</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0447204</v>
+        <v>0.0453286</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0473609</v>
+        <v>0.0471946</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0601376</v>
+        <v>0.0600808</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268068</v>
+        <v>0.268793</v>
       </c>
       <c r="E82" t="n">
-        <v>0.041259</v>
+        <v>0.0406026</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0456256</v>
+        <v>0.0461693</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0482196</v>
+        <v>0.0482241</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06294039999999999</v>
+        <v>0.06274150000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.281514</v>
+        <v>0.282497</v>
       </c>
       <c r="E83" t="n">
-        <v>0.041601</v>
+        <v>0.0412826</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0465473</v>
+        <v>0.0472199</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0493914</v>
+        <v>0.0496572</v>
       </c>
       <c r="C84" t="n">
-        <v>0.066687</v>
+        <v>0.0669211</v>
       </c>
       <c r="D84" t="n">
-        <v>0.29567</v>
+        <v>0.295972</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0422559</v>
+        <v>0.0415353</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0476507</v>
+        <v>0.0485356</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0509904</v>
+        <v>0.0508415</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0720663</v>
+        <v>0.0719407</v>
       </c>
       <c r="D85" t="n">
-        <v>0.309627</v>
+        <v>0.310069</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0429007</v>
+        <v>0.0424286</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0486179</v>
+        <v>0.0494001</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0528862</v>
+        <v>0.0530006</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0787018</v>
+        <v>0.0788146</v>
       </c>
       <c r="D86" t="n">
-        <v>0.323668</v>
+        <v>0.32445</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0437373</v>
+        <v>0.0433583</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0506193</v>
+        <v>0.0513952</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0556636</v>
+        <v>0.0557445</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0869771</v>
+        <v>0.0865035</v>
       </c>
       <c r="D87" t="n">
-        <v>0.338449</v>
+        <v>0.339437</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0445917</v>
+        <v>0.0443475</v>
       </c>
       <c r="F87" t="n">
-        <v>0.052952</v>
+        <v>0.0533814</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0596999</v>
+        <v>0.0595823</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0963054</v>
+        <v>0.0963991</v>
       </c>
       <c r="D88" t="n">
-        <v>0.353809</v>
+        <v>0.354439</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0466051</v>
+        <v>0.0458876</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0571364</v>
+        <v>0.0572779</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06543889999999999</v>
+        <v>0.0654309</v>
       </c>
       <c r="C89" t="n">
-        <v>0.108917</v>
+        <v>0.109123</v>
       </c>
       <c r="D89" t="n">
-        <v>0.369749</v>
+        <v>0.371527</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0488325</v>
+        <v>0.04818</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0616428</v>
+        <v>0.0619742</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0738572</v>
+        <v>0.0743263</v>
       </c>
       <c r="C90" t="n">
-        <v>0.126103</v>
+        <v>0.12508</v>
       </c>
       <c r="D90" t="n">
-        <v>0.386692</v>
+        <v>0.387611</v>
       </c>
       <c r="E90" t="n">
-        <v>0.052304</v>
+        <v>0.0520745</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0693603</v>
+        <v>0.068415</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0858541</v>
+        <v>0.0861218</v>
       </c>
       <c r="C91" t="n">
-        <v>0.144286</v>
+        <v>0.143986</v>
       </c>
       <c r="D91" t="n">
-        <v>0.404023</v>
+        <v>0.404926</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0579153</v>
+        <v>0.0578691</v>
       </c>
       <c r="F91" t="n">
-        <v>0.07829270000000001</v>
+        <v>0.0778904</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.102878</v>
+        <v>0.1026</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168732</v>
+        <v>0.168718</v>
       </c>
       <c r="D92" t="n">
-        <v>0.326915</v>
+        <v>0.327781</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0658521</v>
+        <v>0.0655452</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09185400000000001</v>
+        <v>0.0896792</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.12785</v>
+        <v>0.127744</v>
       </c>
       <c r="C93" t="n">
-        <v>0.199856</v>
+        <v>0.200311</v>
       </c>
       <c r="D93" t="n">
-        <v>0.337202</v>
+        <v>0.338366</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0791497</v>
+        <v>0.0789489</v>
       </c>
       <c r="F93" t="n">
-        <v>0.109599</v>
+        <v>0.108991</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.164548</v>
+        <v>0.164636</v>
       </c>
       <c r="C94" t="n">
-        <v>0.24035</v>
+        <v>0.24098</v>
       </c>
       <c r="D94" t="n">
-        <v>0.348645</v>
+        <v>0.349644</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0447062</v>
+        <v>0.0433362</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0564028</v>
+        <v>0.0570212</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0584564</v>
+        <v>0.0581671</v>
       </c>
       <c r="C95" t="n">
-        <v>0.103172</v>
+        <v>0.103682</v>
       </c>
       <c r="D95" t="n">
-        <v>0.360317</v>
+        <v>0.36123</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0456958</v>
+        <v>0.0447981</v>
       </c>
       <c r="F95" t="n">
-        <v>0.059737</v>
+        <v>0.0610684</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0619939</v>
+        <v>0.0616869</v>
       </c>
       <c r="C96" t="n">
-        <v>0.111605</v>
+        <v>0.111858</v>
       </c>
       <c r="D96" t="n">
-        <v>0.372257</v>
+        <v>0.37357</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0471555</v>
+        <v>0.0465522</v>
       </c>
       <c r="F96" t="n">
-        <v>0.063925</v>
+        <v>0.0655263</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0661313</v>
+        <v>0.0662244</v>
       </c>
       <c r="C97" t="n">
-        <v>0.120368</v>
+        <v>0.120133</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3846</v>
+        <v>0.38591</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0491905</v>
+        <v>0.0489433</v>
       </c>
       <c r="F97" t="n">
-        <v>0.069665</v>
+        <v>0.0709206</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07056030000000001</v>
+        <v>0.0707735</v>
       </c>
       <c r="C98" t="n">
-        <v>0.128498</v>
+        <v>0.128186</v>
       </c>
       <c r="D98" t="n">
-        <v>0.397047</v>
+        <v>0.398261</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0516066</v>
+        <v>0.0509377</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0748896</v>
+        <v>0.0762683</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0761266</v>
+        <v>0.07605779999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.136508</v>
+        <v>0.135978</v>
       </c>
       <c r="D99" t="n">
-        <v>0.410486</v>
+        <v>0.411559</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0544793</v>
+        <v>0.0538615</v>
       </c>
       <c r="F99" t="n">
-        <v>0.081747</v>
+        <v>0.0823382</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0817238</v>
+        <v>0.0818226</v>
       </c>
       <c r="C100" t="n">
-        <v>0.144088</v>
+        <v>0.143955</v>
       </c>
       <c r="D100" t="n">
-        <v>0.42424</v>
+        <v>0.425574</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0575681</v>
+        <v>0.0567865</v>
       </c>
       <c r="F100" t="n">
-        <v>0.087991</v>
+        <v>0.08859549999999999</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0881753</v>
+        <v>0.08813070000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151962</v>
+        <v>0.151961</v>
       </c>
       <c r="D101" t="n">
-        <v>0.438674</v>
+        <v>0.439804</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0613291</v>
+        <v>0.0609206</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0949387</v>
+        <v>0.09525749999999999</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0949363</v>
+        <v>0.0951799</v>
       </c>
       <c r="C102" t="n">
-        <v>0.160067</v>
+        <v>0.160482</v>
       </c>
       <c r="D102" t="n">
-        <v>0.453978</v>
+        <v>0.455451</v>
       </c>
       <c r="E102" t="n">
-        <v>0.065688</v>
+        <v>0.0652239</v>
       </c>
       <c r="F102" t="n">
-        <v>0.102133</v>
+        <v>0.102231</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.103065</v>
+        <v>0.103404</v>
       </c>
       <c r="C103" t="n">
-        <v>0.169779</v>
+        <v>0.170087</v>
       </c>
       <c r="D103" t="n">
-        <v>0.469623</v>
+        <v>0.471259</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0703787</v>
+        <v>0.0700701</v>
       </c>
       <c r="F103" t="n">
-        <v>0.10866</v>
+        <v>0.108607</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.112236</v>
+        <v>0.112759</v>
       </c>
       <c r="C104" t="n">
-        <v>0.181209</v>
+        <v>0.181704</v>
       </c>
       <c r="D104" t="n">
-        <v>0.486248</v>
+        <v>0.487814</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07614020000000001</v>
+        <v>0.0756863</v>
       </c>
       <c r="F104" t="n">
-        <v>0.116684</v>
+        <v>0.116292</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.123006</v>
+        <v>0.123512</v>
       </c>
       <c r="C105" t="n">
-        <v>0.19612</v>
+        <v>0.196475</v>
       </c>
       <c r="D105" t="n">
-        <v>0.503905</v>
+        <v>0.505406</v>
       </c>
       <c r="E105" t="n">
-        <v>0.08289680000000001</v>
+        <v>0.08194070000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>0.124505</v>
+        <v>0.124292</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.137296</v>
+        <v>0.138008</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215588</v>
+        <v>0.216035</v>
       </c>
       <c r="D106" t="n">
-        <v>0.52157</v>
+        <v>0.523146</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0917813</v>
+        <v>0.09071750000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>0.136028</v>
+        <v>0.135003</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.157859</v>
+        <v>0.158102</v>
       </c>
       <c r="C107" t="n">
-        <v>0.241938</v>
+        <v>0.242363</v>
       </c>
       <c r="D107" t="n">
-        <v>0.393938</v>
+        <v>0.395084</v>
       </c>
       <c r="E107" t="n">
-        <v>0.104007</v>
+        <v>0.103105</v>
       </c>
       <c r="F107" t="n">
-        <v>0.151658</v>
+        <v>0.150455</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.186804</v>
+        <v>0.187193</v>
       </c>
       <c r="C108" t="n">
-        <v>0.280573</v>
+        <v>0.280852</v>
       </c>
       <c r="D108" t="n">
-        <v>0.404297</v>
+        <v>0.405904</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0637368</v>
+        <v>0.0632451</v>
       </c>
       <c r="F108" t="n">
-        <v>0.09146799999999999</v>
+        <v>0.09254039999999999</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231993</v>
+        <v>0.232189</v>
       </c>
       <c r="C109" t="n">
-        <v>0.343149</v>
+        <v>0.343617</v>
       </c>
       <c r="D109" t="n">
-        <v>0.415222</v>
+        <v>0.416565</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0659868</v>
+        <v>0.0651611</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0948302</v>
+        <v>0.09549729999999999</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0910526</v>
+        <v>0.0909456</v>
       </c>
       <c r="C110" t="n">
-        <v>0.144661</v>
+        <v>0.145154</v>
       </c>
       <c r="D110" t="n">
-        <v>0.426523</v>
+        <v>0.427411</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0679192</v>
+        <v>0.0672061</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0980943</v>
+        <v>0.09872359999999999</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0941654</v>
+        <v>0.0943725</v>
       </c>
       <c r="C111" t="n">
-        <v>0.14934</v>
+        <v>0.14958</v>
       </c>
       <c r="D111" t="n">
-        <v>0.437933</v>
+        <v>0.439041</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06953910000000001</v>
+        <v>0.0691701</v>
       </c>
       <c r="F111" t="n">
-        <v>0.10088</v>
+        <v>0.101667</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0966632</v>
+        <v>0.096597</v>
       </c>
       <c r="C112" t="n">
-        <v>0.154266</v>
+        <v>0.154396</v>
       </c>
       <c r="D112" t="n">
-        <v>0.449711</v>
+        <v>0.451408</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0715128</v>
+        <v>0.071252</v>
       </c>
       <c r="F112" t="n">
-        <v>0.104096</v>
+        <v>0.104761</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0997995</v>
+        <v>0.10002</v>
       </c>
       <c r="C113" t="n">
-        <v>0.159087</v>
+        <v>0.159662</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4624</v>
+        <v>0.464173</v>
       </c>
       <c r="E113" t="n">
-        <v>0.07362</v>
+        <v>0.0730329</v>
       </c>
       <c r="F113" t="n">
-        <v>0.107769</v>
+        <v>0.108289</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103413</v>
+        <v>0.103628</v>
       </c>
       <c r="C114" t="n">
-        <v>0.164692</v>
+        <v>0.165075</v>
       </c>
       <c r="D114" t="n">
-        <v>0.475979</v>
+        <v>0.477438</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07595159999999999</v>
+        <v>0.0753591</v>
       </c>
       <c r="F114" t="n">
-        <v>0.111399</v>
+        <v>0.111788</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107159</v>
+        <v>0.107551</v>
       </c>
       <c r="C115" t="n">
-        <v>0.171027</v>
+        <v>0.17123</v>
       </c>
       <c r="D115" t="n">
-        <v>0.489796</v>
+        <v>0.492185</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0784842</v>
+        <v>0.0777388</v>
       </c>
       <c r="F115" t="n">
-        <v>0.115237</v>
+        <v>0.115825</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.111899</v>
+        <v>0.112489</v>
       </c>
       <c r="C116" t="n">
-        <v>0.178311</v>
+        <v>0.178488</v>
       </c>
       <c r="D116" t="n">
-        <v>0.504901</v>
+        <v>0.507612</v>
       </c>
       <c r="E116" t="n">
-        <v>0.081293</v>
+        <v>0.08038820000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>0.119741</v>
+        <v>0.119718</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.117909</v>
+        <v>0.118131</v>
       </c>
       <c r="C117" t="n">
-        <v>0.187014</v>
+        <v>0.187525</v>
       </c>
       <c r="D117" t="n">
-        <v>0.520794</v>
+        <v>0.522946</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0845253</v>
+        <v>0.08374280000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>0.124623</v>
+        <v>0.124369</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.125225</v>
+        <v>0.125501</v>
       </c>
       <c r="C118" t="n">
-        <v>0.19831</v>
+        <v>0.1989</v>
       </c>
       <c r="D118" t="n">
-        <v>0.537257</v>
+        <v>0.5392169999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0887037</v>
+        <v>0.0877236</v>
       </c>
       <c r="F118" t="n">
-        <v>0.130703</v>
+        <v>0.130245</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.134649</v>
+        <v>0.135122</v>
       </c>
       <c r="C119" t="n">
-        <v>0.21228</v>
+        <v>0.212787</v>
       </c>
       <c r="D119" t="n">
-        <v>0.554295</v>
+        <v>0.556424</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0939972</v>
+        <v>0.0932021</v>
       </c>
       <c r="F119" t="n">
-        <v>0.138844</v>
+        <v>0.137634</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147581</v>
+        <v>0.14789</v>
       </c>
       <c r="C120" t="n">
-        <v>0.230887</v>
+        <v>0.231561</v>
       </c>
       <c r="D120" t="n">
-        <v>0.572026</v>
+        <v>0.573348</v>
       </c>
       <c r="E120" t="n">
-        <v>0.101228</v>
+        <v>0.100153</v>
       </c>
       <c r="F120" t="n">
-        <v>0.149152</v>
+        <v>0.147416</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165587</v>
+        <v>0.165826</v>
       </c>
       <c r="C121" t="n">
-        <v>0.256947</v>
+        <v>0.257748</v>
       </c>
       <c r="D121" t="n">
-        <v>0.423973</v>
+        <v>0.424871</v>
       </c>
       <c r="E121" t="n">
-        <v>0.112154</v>
+        <v>0.110992</v>
       </c>
       <c r="F121" t="n">
-        <v>0.163749</v>
+        <v>0.161912</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192095</v>
+        <v>0.192257</v>
       </c>
       <c r="C122" t="n">
-        <v>0.295798</v>
+        <v>0.296725</v>
       </c>
       <c r="D122" t="n">
-        <v>0.434961</v>
+        <v>0.436271</v>
       </c>
       <c r="E122" t="n">
-        <v>0.129054</v>
+        <v>0.1276</v>
       </c>
       <c r="F122" t="n">
-        <v>0.186407</v>
+        <v>0.184002</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232859</v>
+        <v>0.233245</v>
       </c>
       <c r="C123" t="n">
-        <v>0.356172</v>
+        <v>0.357552</v>
       </c>
       <c r="D123" t="n">
-        <v>0.445413</v>
+        <v>0.446125</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0784513</v>
+        <v>0.0766467</v>
       </c>
       <c r="F123" t="n">
-        <v>0.10913</v>
+        <v>0.112343</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103938</v>
+        <v>0.102319</v>
       </c>
       <c r="C124" t="n">
-        <v>0.161659</v>
+        <v>0.163892</v>
       </c>
       <c r="D124" t="n">
-        <v>0.456695</v>
+        <v>0.457606</v>
       </c>
       <c r="E124" t="n">
-        <v>0.07866570000000001</v>
+        <v>0.08014309999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>0.112968</v>
+        <v>0.114645</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104444</v>
+        <v>0.104373</v>
       </c>
       <c r="C125" t="n">
-        <v>0.166333</v>
+        <v>0.167727</v>
       </c>
       <c r="D125" t="n">
-        <v>0.468612</v>
+        <v>0.469999</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0814255</v>
+        <v>0.0828419</v>
       </c>
       <c r="F125" t="n">
-        <v>0.117117</v>
+        <v>0.115201</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.106419</v>
+        <v>0.107221</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170808</v>
+        <v>0.170083</v>
       </c>
       <c r="D126" t="n">
-        <v>0.480655</v>
+        <v>0.481646</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0832025</v>
+        <v>0.0826008</v>
       </c>
       <c r="F126" t="n">
-        <v>0.119168</v>
+        <v>0.119471</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110553</v>
+        <v>0.111059</v>
       </c>
       <c r="C127" t="n">
-        <v>0.176887</v>
+        <v>0.17617</v>
       </c>
       <c r="D127" t="n">
-        <v>0.493959</v>
+        <v>0.494435</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0891453</v>
+        <v>0.0836904</v>
       </c>
       <c r="F127" t="n">
-        <v>0.126181</v>
+        <v>0.12329</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114237</v>
+        <v>0.111892</v>
       </c>
       <c r="C128" t="n">
-        <v>0.181481</v>
+        <v>0.182624</v>
       </c>
       <c r="D128" t="n">
-        <v>0.506847</v>
+        <v>0.507677</v>
       </c>
       <c r="E128" t="n">
-        <v>0.08769399999999999</v>
+        <v>0.0862175</v>
       </c>
       <c r="F128" t="n">
-        <v>0.126581</v>
+        <v>0.125484</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116302</v>
+        <v>0.11627</v>
       </c>
       <c r="C129" t="n">
-        <v>0.188896</v>
+        <v>0.189268</v>
       </c>
       <c r="D129" t="n">
-        <v>0.520573</v>
+        <v>0.521881</v>
       </c>
       <c r="E129" t="n">
-        <v>0.089194</v>
+        <v>0.087155</v>
       </c>
       <c r="F129" t="n">
-        <v>0.129316</v>
+        <v>0.129498</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120297</v>
+        <v>0.12032</v>
       </c>
       <c r="C130" t="n">
-        <v>0.196608</v>
+        <v>0.195544</v>
       </c>
       <c r="D130" t="n">
-        <v>0.535771</v>
+        <v>0.535979</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0930034</v>
+        <v>0.09068469999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>0.136251</v>
+        <v>0.134559</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.124564</v>
+        <v>0.127443</v>
       </c>
       <c r="C131" t="n">
-        <v>0.203972</v>
+        <v>0.204907</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5513749999999999</v>
+        <v>0.552616</v>
       </c>
       <c r="E131" t="n">
-        <v>0.094294</v>
+        <v>0.0979744</v>
       </c>
       <c r="F131" t="n">
-        <v>0.139478</v>
+        <v>0.141811</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132005</v>
+        <v>0.134235</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214277</v>
+        <v>0.213208</v>
       </c>
       <c r="D132" t="n">
-        <v>0.567904</v>
+        <v>0.568729</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0980226</v>
+        <v>0.0970328</v>
       </c>
       <c r="F132" t="n">
-        <v>0.146054</v>
+        <v>0.14676</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.144206</v>
+        <v>0.142581</v>
       </c>
       <c r="C133" t="n">
-        <v>0.225749</v>
+        <v>0.226309</v>
       </c>
       <c r="D133" t="n">
-        <v>0.585082</v>
+        <v>0.585937</v>
       </c>
       <c r="E133" t="n">
-        <v>0.103242</v>
+        <v>0.101129</v>
       </c>
       <c r="F133" t="n">
-        <v>0.154249</v>
+        <v>0.150898</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155073</v>
+        <v>0.154485</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244481</v>
+        <v>0.24447</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6032149999999999</v>
+        <v>0.604395</v>
       </c>
       <c r="E134" t="n">
-        <v>0.108915</v>
+        <v>0.109763</v>
       </c>
       <c r="F134" t="n">
-        <v>0.164364</v>
+        <v>0.162929</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.170582</v>
+        <v>0.172254</v>
       </c>
       <c r="C135" t="n">
-        <v>0.269712</v>
+        <v>0.271774</v>
       </c>
       <c r="D135" t="n">
-        <v>0.442517</v>
+        <v>0.443029</v>
       </c>
       <c r="E135" t="n">
-        <v>0.121259</v>
+        <v>0.121606</v>
       </c>
       <c r="F135" t="n">
-        <v>0.179292</v>
+        <v>0.175496</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.196245</v>
+        <v>0.197338</v>
       </c>
       <c r="C136" t="n">
-        <v>0.306647</v>
+        <v>0.306813</v>
       </c>
       <c r="D136" t="n">
-        <v>0.452818</v>
+        <v>0.453517</v>
       </c>
       <c r="E136" t="n">
-        <v>0.135401</v>
+        <v>0.135628</v>
       </c>
       <c r="F136" t="n">
-        <v>0.198377</v>
+        <v>0.197238</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235341</v>
+        <v>0.235802</v>
       </c>
       <c r="C137" t="n">
-        <v>0.364113</v>
+        <v>0.365271</v>
       </c>
       <c r="D137" t="n">
-        <v>0.463818</v>
+        <v>0.464481</v>
       </c>
       <c r="E137" t="n">
-        <v>0.150176</v>
+        <v>0.148641</v>
       </c>
       <c r="F137" t="n">
-        <v>0.181548</v>
+        <v>0.175639</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.166288</v>
+        <v>0.168454</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225169</v>
+        <v>0.226944</v>
       </c>
       <c r="D138" t="n">
-        <v>0.475131</v>
+        <v>0.475256</v>
       </c>
       <c r="E138" t="n">
-        <v>0.151716</v>
+        <v>0.14944</v>
       </c>
       <c r="F138" t="n">
-        <v>0.184715</v>
+        <v>0.177797</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.168209</v>
+        <v>0.169129</v>
       </c>
       <c r="C139" t="n">
-        <v>0.228987</v>
+        <v>0.230261</v>
       </c>
       <c r="D139" t="n">
-        <v>0.486794</v>
+        <v>0.487114</v>
       </c>
       <c r="E139" t="n">
-        <v>0.152488</v>
+        <v>0.151062</v>
       </c>
       <c r="F139" t="n">
-        <v>0.187387</v>
+        <v>0.18103</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.16957</v>
+        <v>0.169538</v>
       </c>
       <c r="C140" t="n">
-        <v>0.234687</v>
+        <v>0.234495</v>
       </c>
       <c r="D140" t="n">
-        <v>0.498768</v>
+        <v>0.499289</v>
       </c>
       <c r="E140" t="n">
-        <v>0.153741</v>
+        <v>0.151996</v>
       </c>
       <c r="F140" t="n">
-        <v>0.191166</v>
+        <v>0.18311</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173634</v>
+        <v>0.172624</v>
       </c>
       <c r="C141" t="n">
-        <v>0.240385</v>
+        <v>0.239247</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5114030000000001</v>
+        <v>0.511849</v>
       </c>
       <c r="E141" t="n">
-        <v>0.154392</v>
+        <v>0.154431</v>
       </c>
       <c r="F141" t="n">
-        <v>0.194193</v>
+        <v>0.186305</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174028</v>
+        <v>0.17479</v>
       </c>
       <c r="C142" t="n">
-        <v>0.243114</v>
+        <v>0.244719</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5243100000000001</v>
+        <v>0.525141</v>
       </c>
       <c r="E142" t="n">
-        <v>0.157265</v>
+        <v>0.155329</v>
       </c>
       <c r="F142" t="n">
-        <v>0.197755</v>
+        <v>0.190191</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.17731</v>
+        <v>0.178284</v>
       </c>
       <c r="C143" t="n">
-        <v>0.249848</v>
+        <v>0.249631</v>
       </c>
       <c r="D143" t="n">
-        <v>0.538786</v>
+        <v>0.539338</v>
       </c>
       <c r="E143" t="n">
-        <v>0.158608</v>
+        <v>0.157063</v>
       </c>
       <c r="F143" t="n">
-        <v>0.201101</v>
+        <v>0.193963</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0320577</v>
+        <v>0.0325458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0331838</v>
+        <v>0.0332767</v>
       </c>
       <c r="D2" t="n">
-        <v>0.118027</v>
+        <v>0.119697</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03137</v>
+        <v>0.0318773</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0312173</v>
+        <v>0.0284059</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0336267</v>
+        <v>0.0339567</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0348478</v>
+        <v>0.0351942</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12369</v>
+        <v>0.12513</v>
       </c>
       <c r="E3" t="n">
-        <v>0.031939</v>
+        <v>0.0323749</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0315667</v>
+        <v>0.0290059</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0350106</v>
+        <v>0.0355841</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0364459</v>
+        <v>0.0376291</v>
       </c>
       <c r="D4" t="n">
-        <v>0.128354</v>
+        <v>0.131962</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0330271</v>
+        <v>0.0336669</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0326282</v>
+        <v>0.0303389</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04182</v>
+        <v>0.0418889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0430446</v>
+        <v>0.0439988</v>
       </c>
       <c r="D5" t="n">
-        <v>0.134592</v>
+        <v>0.136545</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0346723</v>
+        <v>0.0354295</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0339222</v>
+        <v>0.0320342</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0516106</v>
+        <v>0.0506795</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0540022</v>
+        <v>0.0553708</v>
       </c>
       <c r="D6" t="n">
-        <v>0.141317</v>
+        <v>0.142602</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0373076</v>
+        <v>0.0381905</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0363729</v>
+        <v>0.0350368</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0783769</v>
+        <v>0.0787538</v>
       </c>
       <c r="C7" t="n">
-        <v>0.076182</v>
+        <v>0.0772412</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09628440000000001</v>
+        <v>0.0992547</v>
       </c>
       <c r="E7" t="n">
-        <v>0.043571</v>
+        <v>0.0443012</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0422405</v>
+        <v>0.0411142</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.103308</v>
+        <v>0.103816</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113154</v>
+        <v>0.113269</v>
       </c>
       <c r="D8" t="n">
-        <v>0.103195</v>
+        <v>0.1046</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0580594</v>
+        <v>0.0580204</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055226</v>
+        <v>0.0543036</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14566</v>
+        <v>0.146418</v>
       </c>
       <c r="C9" t="n">
-        <v>0.154622</v>
+        <v>0.153329</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1097</v>
+        <v>0.111534</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0285907</v>
+        <v>0.0287045</v>
       </c>
       <c r="F9" t="n">
-        <v>0.028464</v>
+        <v>0.0256568</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0304917</v>
+        <v>0.030609</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0306684</v>
+        <v>0.0311113</v>
       </c>
       <c r="D10" t="n">
-        <v>0.116134</v>
+        <v>0.116629</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0288293</v>
+        <v>0.0289099</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0287651</v>
+        <v>0.0259208</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0310721</v>
+        <v>0.0312915</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03131</v>
+        <v>0.0319499</v>
       </c>
       <c r="D11" t="n">
-        <v>0.121833</v>
+        <v>0.121315</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0290852</v>
+        <v>0.0291978</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0291024</v>
+        <v>0.0262326</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0313292</v>
+        <v>0.031628</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0317958</v>
+        <v>0.0324153</v>
       </c>
       <c r="D12" t="n">
-        <v>0.126409</v>
+        <v>0.126615</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0295997</v>
+        <v>0.0296419</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02964</v>
+        <v>0.0268114</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0319042</v>
+        <v>0.0320436</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0326662</v>
+        <v>0.0335538</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131918</v>
+        <v>0.132021</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0298906</v>
+        <v>0.0300186</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03003</v>
+        <v>0.0271839</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.033014</v>
+        <v>0.0331034</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0333992</v>
+        <v>0.03404</v>
       </c>
       <c r="D14" t="n">
-        <v>0.136888</v>
+        <v>0.137729</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0302995</v>
+        <v>0.03041</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0308257</v>
+        <v>0.0276098</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.033908</v>
+        <v>0.0341001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0351511</v>
+        <v>0.0357922</v>
       </c>
       <c r="D15" t="n">
-        <v>0.141137</v>
+        <v>0.142172</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0309106</v>
+        <v>0.0310979</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0311351</v>
+        <v>0.0283884</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0355405</v>
+        <v>0.0356895</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0370785</v>
+        <v>0.0374317</v>
       </c>
       <c r="D16" t="n">
-        <v>0.145267</v>
+        <v>0.147521</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0317227</v>
+        <v>0.0320262</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0317627</v>
+        <v>0.0292616</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03786</v>
+        <v>0.0380807</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0394742</v>
+        <v>0.0404792</v>
       </c>
       <c r="D17" t="n">
-        <v>0.149882</v>
+        <v>0.151839</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0327294</v>
+        <v>0.0330593</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0327473</v>
+        <v>0.0305178</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0424999</v>
+        <v>0.0425854</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0434444</v>
+        <v>0.0446038</v>
       </c>
       <c r="D18" t="n">
-        <v>0.154224</v>
+        <v>0.156077</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0338623</v>
+        <v>0.0343098</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0335707</v>
+        <v>0.0317242</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.049479</v>
+        <v>0.0491367</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0518576</v>
+        <v>0.0528391</v>
       </c>
       <c r="D19" t="n">
-        <v>0.158487</v>
+        <v>0.160213</v>
       </c>
       <c r="E19" t="n">
-        <v>0.035491</v>
+        <v>0.0360376</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0352268</v>
+        <v>0.0335594</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0656791</v>
+        <v>0.0657027</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0633865</v>
+        <v>0.063947</v>
       </c>
       <c r="D20" t="n">
-        <v>0.162732</v>
+        <v>0.164419</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0390403</v>
+        <v>0.039483</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0385099</v>
+        <v>0.0371706</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0834635</v>
+        <v>0.0838262</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08125540000000001</v>
+        <v>0.0819313</v>
       </c>
       <c r="D21" t="n">
-        <v>0.115289</v>
+        <v>0.116573</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0456258</v>
+        <v>0.0457999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0442876</v>
+        <v>0.0435307</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.112075</v>
+        <v>0.112027</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11267</v>
+        <v>0.112532</v>
       </c>
       <c r="D22" t="n">
-        <v>0.120584</v>
+        <v>0.12147</v>
       </c>
       <c r="E22" t="n">
-        <v>0.060918</v>
+        <v>0.0609887</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0583713</v>
+        <v>0.0579948</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152404</v>
+        <v>0.152091</v>
       </c>
       <c r="C23" t="n">
-        <v>0.146497</v>
+        <v>0.145735</v>
       </c>
       <c r="D23" t="n">
-        <v>0.125133</v>
+        <v>0.12666</v>
       </c>
       <c r="E23" t="n">
-        <v>0.028586</v>
+        <v>0.0286652</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0293069</v>
+        <v>0.0269439</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0328736</v>
+        <v>0.0329633</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0356135</v>
+        <v>0.0359371</v>
       </c>
       <c r="D24" t="n">
-        <v>0.130272</v>
+        <v>0.131764</v>
       </c>
       <c r="E24" t="n">
-        <v>0.028877</v>
+        <v>0.0290384</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0297201</v>
+        <v>0.0273075</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0334618</v>
+        <v>0.0335225</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0363651</v>
+        <v>0.0368001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.134902</v>
+        <v>0.136279</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0291755</v>
+        <v>0.0293289</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0302723</v>
+        <v>0.0277314</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0340107</v>
+        <v>0.0341914</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0377684</v>
+        <v>0.0381924</v>
       </c>
       <c r="D26" t="n">
-        <v>0.139469</v>
+        <v>0.140751</v>
       </c>
       <c r="E26" t="n">
-        <v>0.029414</v>
+        <v>0.0296636</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0308565</v>
+        <v>0.0283346</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0346706</v>
+        <v>0.0347576</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0388391</v>
+        <v>0.0392515</v>
       </c>
       <c r="D27" t="n">
-        <v>0.144191</v>
+        <v>0.145617</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0299026</v>
+        <v>0.0302112</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0315632</v>
+        <v>0.0290338</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0354055</v>
+        <v>0.0356445</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0401447</v>
+        <v>0.0405994</v>
       </c>
       <c r="D28" t="n">
-        <v>0.148409</v>
+        <v>0.150501</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0305176</v>
+        <v>0.0307164</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0324874</v>
+        <v>0.0298759</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.036944</v>
+        <v>0.0371091</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0414428</v>
+        <v>0.0419829</v>
       </c>
       <c r="D29" t="n">
-        <v>0.152959</v>
+        <v>0.154795</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0313368</v>
+        <v>0.0315175</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0333219</v>
+        <v>0.0307798</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0386803</v>
+        <v>0.0389208</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0433279</v>
+        <v>0.0442447</v>
       </c>
       <c r="D30" t="n">
-        <v>0.157067</v>
+        <v>0.159419</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0320404</v>
+        <v>0.0322446</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0341245</v>
+        <v>0.0317552</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0417392</v>
+        <v>0.0419751</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0464057</v>
+        <v>0.047623</v>
       </c>
       <c r="D31" t="n">
-        <v>0.161164</v>
+        <v>0.163058</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0331818</v>
+        <v>0.0334865</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0352319</v>
+        <v>0.0333326</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0464308</v>
+        <v>0.046642</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0501902</v>
+        <v>0.0514693</v>
       </c>
       <c r="D32" t="n">
-        <v>0.164264</v>
+        <v>0.166854</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0343238</v>
+        <v>0.0346854</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0363688</v>
+        <v>0.0345633</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0535505</v>
+        <v>0.053862</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0561597</v>
+        <v>0.0578025</v>
       </c>
       <c r="D33" t="n">
-        <v>0.168276</v>
+        <v>0.170661</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0360615</v>
+        <v>0.0365259</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0378912</v>
+        <v>0.0364055</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0635159</v>
+        <v>0.0637549</v>
       </c>
       <c r="C34" t="n">
-        <v>0.065376</v>
+        <v>0.06639929999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1725</v>
+        <v>0.174476</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0396139</v>
+        <v>0.0400632</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0407467</v>
+        <v>0.0396694</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0809631</v>
+        <v>0.0809108</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08183600000000001</v>
+        <v>0.0820699</v>
       </c>
       <c r="D35" t="n">
-        <v>0.119472</v>
+        <v>0.122222</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0462703</v>
+        <v>0.0465314</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0463897</v>
+        <v>0.0455856</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101943</v>
+        <v>0.101608</v>
       </c>
       <c r="C36" t="n">
-        <v>0.101553</v>
+        <v>0.101321</v>
       </c>
       <c r="D36" t="n">
-        <v>0.124259</v>
+        <v>0.127066</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0575493</v>
+        <v>0.0575566</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0560531</v>
+        <v>0.0556068</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.135771</v>
+        <v>0.135382</v>
       </c>
       <c r="C37" t="n">
-        <v>0.134082</v>
+        <v>0.13399</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128871</v>
+        <v>0.131414</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0288717</v>
+        <v>0.0290388</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0313306</v>
+        <v>0.0290357</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0334974</v>
+        <v>0.0336103</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0383997</v>
+        <v>0.0387091</v>
       </c>
       <c r="D38" t="n">
-        <v>0.133665</v>
+        <v>0.136469</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0291937</v>
+        <v>0.0293688</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0318484</v>
+        <v>0.0296573</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0341199</v>
+        <v>0.0341633</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0391487</v>
+        <v>0.0395184</v>
       </c>
       <c r="D39" t="n">
-        <v>0.138548</v>
+        <v>0.141091</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0295657</v>
+        <v>0.0298354</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0322802</v>
+        <v>0.0301518</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.035065</v>
+        <v>0.0352188</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0400557</v>
+        <v>0.0404533</v>
       </c>
       <c r="D40" t="n">
-        <v>0.143118</v>
+        <v>0.145541</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0299895</v>
+        <v>0.0303437</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0328955</v>
+        <v>0.0306785</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0357302</v>
+        <v>0.0358743</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0411009</v>
+        <v>0.0414566</v>
       </c>
       <c r="D41" t="n">
-        <v>0.147269</v>
+        <v>0.150149</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0304278</v>
+        <v>0.0313052</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0334488</v>
+        <v>0.0312069</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0369731</v>
+        <v>0.0371946</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0421427</v>
+        <v>0.042541</v>
       </c>
       <c r="D42" t="n">
-        <v>0.151803</v>
+        <v>0.154584</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0309008</v>
+        <v>0.0311913</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0340225</v>
+        <v>0.0318536</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.038576</v>
+        <v>0.038602</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0436533</v>
+        <v>0.0442836</v>
       </c>
       <c r="D43" t="n">
-        <v>0.156277</v>
+        <v>0.159256</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0316689</v>
+        <v>0.0318485</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0348388</v>
+        <v>0.0327243</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0401473</v>
+        <v>0.0403398</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0458139</v>
+        <v>0.0465785</v>
       </c>
       <c r="D44" t="n">
-        <v>0.160288</v>
+        <v>0.162652</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0325038</v>
+        <v>0.0327644</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0356714</v>
+        <v>0.0336637</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0435165</v>
+        <v>0.0437159</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0481683</v>
+        <v>0.0492974</v>
       </c>
       <c r="D45" t="n">
-        <v>0.163926</v>
+        <v>0.166653</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0334933</v>
+        <v>0.0338256</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0366528</v>
+        <v>0.0347582</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0473722</v>
+        <v>0.0477118</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0519691</v>
+        <v>0.0530985</v>
       </c>
       <c r="D46" t="n">
-        <v>0.168053</v>
+        <v>0.17063</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0349992</v>
+        <v>0.0353841</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0379453</v>
+        <v>0.0362102</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0539509</v>
+        <v>0.0540882</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0572711</v>
+        <v>0.0584838</v>
       </c>
       <c r="D47" t="n">
-        <v>0.171968</v>
+        <v>0.174395</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0369272</v>
+        <v>0.0373584</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0393524</v>
+        <v>0.037901</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06289110000000001</v>
+        <v>0.0631061</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0658284</v>
+        <v>0.0665906</v>
       </c>
       <c r="D48" t="n">
-        <v>0.176258</v>
+        <v>0.178759</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0407221</v>
+        <v>0.0410452</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0423141</v>
+        <v>0.0413022</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07451820000000001</v>
+        <v>0.0745662</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0775719</v>
+        <v>0.07775219999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.180523</v>
+        <v>0.183024</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0461219</v>
+        <v>0.0464597</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0466667</v>
+        <v>0.0459407</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0950858</v>
+        <v>0.0949465</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0962785</v>
+        <v>0.09607690000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.125659</v>
+        <v>0.129143</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0547441</v>
+        <v>0.0551594</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0538769</v>
+        <v>0.0534017</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.124984</v>
+        <v>0.125033</v>
       </c>
       <c r="C51" t="n">
-        <v>0.126239</v>
+        <v>0.125973</v>
       </c>
       <c r="D51" t="n">
-        <v>0.130399</v>
+        <v>0.133512</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0303923</v>
+        <v>0.0308567</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0336245</v>
+        <v>0.0313623</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.170223</v>
+        <v>0.169244</v>
       </c>
       <c r="C52" t="n">
-        <v>0.173262</v>
+        <v>0.171443</v>
       </c>
       <c r="D52" t="n">
-        <v>0.135353</v>
+        <v>0.138236</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0310192</v>
+        <v>0.0304806</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0341117</v>
+        <v>0.0317976</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0356979</v>
+        <v>0.0358089</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0415333</v>
+        <v>0.0416951</v>
       </c>
       <c r="D53" t="n">
-        <v>0.139954</v>
+        <v>0.142994</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0312633</v>
+        <v>0.0308752</v>
       </c>
       <c r="F53" t="n">
-        <v>0.034584</v>
+        <v>0.0323195</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0368638</v>
+        <v>0.0370582</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0424261</v>
+        <v>0.0425195</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144897</v>
+        <v>0.147932</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0312847</v>
+        <v>0.0312399</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0350125</v>
+        <v>0.0326626</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0375875</v>
+        <v>0.0382298</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0433288</v>
+        <v>0.0435969</v>
       </c>
       <c r="D55" t="n">
-        <v>0.149519</v>
+        <v>0.152736</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0320242</v>
+        <v>0.0320319</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0358696</v>
+        <v>0.0335184</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0386334</v>
+        <v>0.039502</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0446147</v>
+        <v>0.0448635</v>
       </c>
       <c r="D56" t="n">
-        <v>0.154164</v>
+        <v>0.156982</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0322878</v>
+        <v>0.0321863</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0362329</v>
+        <v>0.0340255</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.040151</v>
+        <v>0.0401226</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0459723</v>
+        <v>0.0463631</v>
       </c>
       <c r="D57" t="n">
-        <v>0.158529</v>
+        <v>0.161683</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0328873</v>
+        <v>0.0331037</v>
       </c>
       <c r="F57" t="n">
-        <v>0.037306</v>
+        <v>0.0348227</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0420025</v>
+        <v>0.0424543</v>
       </c>
       <c r="C58" t="n">
-        <v>0.047836</v>
+        <v>0.0483853</v>
       </c>
       <c r="D58" t="n">
-        <v>0.162747</v>
+        <v>0.165699</v>
       </c>
       <c r="E58" t="n">
-        <v>0.033498</v>
+        <v>0.0337095</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0379943</v>
+        <v>0.0360503</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0447208</v>
+        <v>0.0454105</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0503745</v>
+        <v>0.0510174</v>
       </c>
       <c r="D59" t="n">
-        <v>0.166743</v>
+        <v>0.16981</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0360514</v>
+        <v>0.0347448</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0385251</v>
+        <v>0.0378837</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.049164</v>
+        <v>0.0491496</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0537254</v>
+        <v>0.0545564</v>
       </c>
       <c r="D60" t="n">
-        <v>0.170524</v>
+        <v>0.173483</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0362054</v>
+        <v>0.0362171</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0401292</v>
+        <v>0.0390473</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0538358</v>
+        <v>0.0543806</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0583346</v>
+        <v>0.0600314</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174845</v>
+        <v>0.177798</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0391165</v>
+        <v>0.0398969</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0417456</v>
+        <v>0.0407439</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06257269999999999</v>
+        <v>0.0625974</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0666289</v>
+        <v>0.0674302</v>
       </c>
       <c r="D62" t="n">
-        <v>0.178772</v>
+        <v>0.182583</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0423464</v>
+        <v>0.0430963</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0446189</v>
+        <v>0.0432572</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0736474</v>
+        <v>0.07385659999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0767592</v>
+        <v>0.07735309999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.183279</v>
+        <v>0.187002</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0474936</v>
+        <v>0.0481615</v>
       </c>
       <c r="F63" t="n">
-        <v>0.049082</v>
+        <v>0.0479873</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0930098</v>
+        <v>0.0929569</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09375029999999999</v>
+        <v>0.0936331</v>
       </c>
       <c r="D64" t="n">
-        <v>0.131906</v>
+        <v>0.13555</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0550362</v>
+        <v>0.0550015</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0556225</v>
+        <v>0.0548724</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118942</v>
+        <v>0.118944</v>
       </c>
       <c r="C65" t="n">
-        <v>0.120367</v>
+        <v>0.120925</v>
       </c>
       <c r="D65" t="n">
-        <v>0.13965</v>
+        <v>0.141571</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0689193</v>
+        <v>0.06913469999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>0.06801939999999999</v>
+        <v>0.06741030000000001</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161304</v>
+        <v>0.161396</v>
       </c>
       <c r="C66" t="n">
-        <v>0.162528</v>
+        <v>0.16238</v>
       </c>
       <c r="D66" t="n">
-        <v>0.146056</v>
+        <v>0.1492</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0354499</v>
+        <v>0.0359261</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0396618</v>
+        <v>0.0384116</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0415468</v>
+        <v>0.0414228</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0487681</v>
+        <v>0.0497586</v>
       </c>
       <c r="D67" t="n">
-        <v>0.154379</v>
+        <v>0.154457</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0361897</v>
+        <v>0.0361328</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0403367</v>
+        <v>0.0390836</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.04155</v>
+        <v>0.0418392</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0498463</v>
+        <v>0.050888</v>
       </c>
       <c r="D68" t="n">
-        <v>0.160933</v>
+        <v>0.162339</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0362259</v>
+        <v>0.0366869</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0408368</v>
+        <v>0.039578</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.042615</v>
+        <v>0.0426981</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0511149</v>
+        <v>0.0523403</v>
       </c>
       <c r="D69" t="n">
-        <v>0.169029</v>
+        <v>0.170778</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0365692</v>
+        <v>0.0371353</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0415001</v>
+        <v>0.040256</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0439034</v>
+        <v>0.0438</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0525466</v>
+        <v>0.0538025</v>
       </c>
       <c r="D70" t="n">
-        <v>0.177794</v>
+        <v>0.177838</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0373137</v>
+        <v>0.0374675</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0423007</v>
+        <v>0.0410276</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0447249</v>
+        <v>0.0452247</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0542557</v>
+        <v>0.0555061</v>
       </c>
       <c r="D71" t="n">
-        <v>0.185733</v>
+        <v>0.18626</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0380616</v>
+        <v>0.0381658</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0434329</v>
+        <v>0.0421596</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0465533</v>
+        <v>0.0469787</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0561391</v>
+        <v>0.0575615</v>
       </c>
       <c r="D72" t="n">
-        <v>0.196189</v>
+        <v>0.196331</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0388512</v>
+        <v>0.0389409</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0444653</v>
+        <v>0.0431685</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.048857</v>
+        <v>0.0489958</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0584453</v>
+        <v>0.0599421</v>
       </c>
       <c r="D73" t="n">
-        <v>0.205854</v>
+        <v>0.206814</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0398539</v>
+        <v>0.039942</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0455601</v>
+        <v>0.0443045</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0520205</v>
+        <v>0.052549</v>
       </c>
       <c r="C74" t="n">
-        <v>0.062204</v>
+        <v>0.06384090000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.217553</v>
+        <v>0.218198</v>
       </c>
       <c r="E74" t="n">
-        <v>0.041258</v>
+        <v>0.0412496</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0469576</v>
+        <v>0.0461124</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0567824</v>
+        <v>0.0574451</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06699960000000001</v>
+        <v>0.0684437</v>
       </c>
       <c r="D75" t="n">
-        <v>0.229232</v>
+        <v>0.230827</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0430765</v>
+        <v>0.0431675</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0483566</v>
+        <v>0.0479092</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06394710000000001</v>
+        <v>0.064446</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0744126</v>
+        <v>0.07490620000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.243704</v>
+        <v>0.243736</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0458591</v>
+        <v>0.0462404</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0514611</v>
+        <v>0.0507487</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0747182</v>
+        <v>0.0746323</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0861156</v>
+        <v>0.08534369999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.258033</v>
+        <v>0.257715</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0504284</v>
+        <v>0.0508284</v>
       </c>
       <c r="F77" t="n">
-        <v>0.05523</v>
+        <v>0.0549794</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0899595</v>
+        <v>0.0901108</v>
       </c>
       <c r="C78" t="n">
-        <v>0.102265</v>
+        <v>0.102195</v>
       </c>
       <c r="D78" t="n">
-        <v>0.215923</v>
+        <v>0.219082</v>
       </c>
       <c r="E78" t="n">
-        <v>0.057946</v>
+        <v>0.0580052</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0614377</v>
+        <v>0.0611482</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115838</v>
+        <v>0.116621</v>
       </c>
       <c r="C79" t="n">
-        <v>0.130958</v>
+        <v>0.12956</v>
       </c>
       <c r="D79" t="n">
-        <v>0.229882</v>
+        <v>0.232365</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06917619999999999</v>
+        <v>0.0697919</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0726449</v>
+        <v>0.072424</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.153805</v>
+        <v>0.154801</v>
       </c>
       <c r="C80" t="n">
-        <v>0.174762</v>
+        <v>0.173602</v>
       </c>
       <c r="D80" t="n">
-        <v>0.241353</v>
+        <v>0.244715</v>
       </c>
       <c r="E80" t="n">
-        <v>0.03967</v>
+        <v>0.0396979</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0446343</v>
+        <v>0.0437616</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0463448</v>
+        <v>0.0463714</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0576462</v>
+        <v>0.0579381</v>
       </c>
       <c r="D81" t="n">
-        <v>0.255831</v>
+        <v>0.257411</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0404268</v>
+        <v>0.0402222</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0453286</v>
+        <v>0.044316</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0471946</v>
+        <v>0.0472605</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0600808</v>
+        <v>0.0606322</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268793</v>
+        <v>0.270593</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0406026</v>
+        <v>0.0405759</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0461693</v>
+        <v>0.0454203</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0482241</v>
+        <v>0.0484052</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06274150000000001</v>
+        <v>0.0634393</v>
       </c>
       <c r="D83" t="n">
-        <v>0.282497</v>
+        <v>0.283393</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0412826</v>
+        <v>0.0410708</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0472199</v>
+        <v>0.046119</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0496572</v>
+        <v>0.0495676</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0669211</v>
+        <v>0.0677724</v>
       </c>
       <c r="D84" t="n">
-        <v>0.295972</v>
+        <v>0.297307</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0415353</v>
+        <v>0.0416407</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0485356</v>
+        <v>0.0472536</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0508415</v>
+        <v>0.0512708</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0719407</v>
+        <v>0.0724254</v>
       </c>
       <c r="D85" t="n">
-        <v>0.310069</v>
+        <v>0.311251</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0424286</v>
+        <v>0.0423069</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0494001</v>
+        <v>0.0488693</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0530006</v>
+        <v>0.0533106</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0788146</v>
+        <v>0.0792321</v>
       </c>
       <c r="D86" t="n">
-        <v>0.32445</v>
+        <v>0.325591</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0433583</v>
+        <v>0.0431753</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0513952</v>
+        <v>0.0506043</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0557445</v>
+        <v>0.056088</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0865035</v>
+        <v>0.08764959999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.339437</v>
+        <v>0.340438</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0443475</v>
+        <v>0.0446898</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0533814</v>
+        <v>0.0527</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0595823</v>
+        <v>0.0600783</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0963991</v>
+        <v>0.0979101</v>
       </c>
       <c r="D88" t="n">
-        <v>0.354439</v>
+        <v>0.355775</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0458876</v>
+        <v>0.0463812</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0572779</v>
+        <v>0.0557863</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0654309</v>
+        <v>0.0654521</v>
       </c>
       <c r="C89" t="n">
-        <v>0.109123</v>
+        <v>0.110527</v>
       </c>
       <c r="D89" t="n">
-        <v>0.371527</v>
+        <v>0.370938</v>
       </c>
       <c r="E89" t="n">
-        <v>0.04818</v>
+        <v>0.0487479</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0619742</v>
+        <v>0.0602435</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0743263</v>
+        <v>0.0743047</v>
       </c>
       <c r="C90" t="n">
-        <v>0.12508</v>
+        <v>0.1269</v>
       </c>
       <c r="D90" t="n">
-        <v>0.387611</v>
+        <v>0.389177</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0520745</v>
+        <v>0.0525125</v>
       </c>
       <c r="F90" t="n">
-        <v>0.068415</v>
+        <v>0.06714879999999999</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0861218</v>
+        <v>0.0862979</v>
       </c>
       <c r="C91" t="n">
-        <v>0.143986</v>
+        <v>0.145227</v>
       </c>
       <c r="D91" t="n">
-        <v>0.404926</v>
+        <v>0.405307</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0578691</v>
+        <v>0.0580396</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0778904</v>
+        <v>0.0766082</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1026</v>
+        <v>0.10305</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168718</v>
+        <v>0.168761</v>
       </c>
       <c r="D92" t="n">
-        <v>0.327781</v>
+        <v>0.328545</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0655452</v>
+        <v>0.0658595</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0896792</v>
+        <v>0.08946659999999999</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.127744</v>
+        <v>0.127554</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200311</v>
+        <v>0.199901</v>
       </c>
       <c r="D93" t="n">
-        <v>0.338366</v>
+        <v>0.33943</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0789489</v>
+        <v>0.0791191</v>
       </c>
       <c r="F93" t="n">
-        <v>0.108991</v>
+        <v>0.108587</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.164636</v>
+        <v>0.164581</v>
       </c>
       <c r="C94" t="n">
-        <v>0.24098</v>
+        <v>0.239812</v>
       </c>
       <c r="D94" t="n">
-        <v>0.349644</v>
+        <v>0.35036</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0433362</v>
+        <v>0.0439611</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0570212</v>
+        <v>0.0559922</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0581671</v>
+        <v>0.0584688</v>
       </c>
       <c r="C95" t="n">
-        <v>0.103682</v>
+        <v>0.103429</v>
       </c>
       <c r="D95" t="n">
-        <v>0.36123</v>
+        <v>0.361797</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0447981</v>
+        <v>0.045127</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0610684</v>
+        <v>0.0596508</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0616869</v>
+        <v>0.0620882</v>
       </c>
       <c r="C96" t="n">
-        <v>0.111858</v>
+        <v>0.111773</v>
       </c>
       <c r="D96" t="n">
-        <v>0.37357</v>
+        <v>0.373655</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0465522</v>
+        <v>0.0465217</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0655263</v>
+        <v>0.06411260000000001</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0662244</v>
+        <v>0.0665848</v>
       </c>
       <c r="C97" t="n">
-        <v>0.120133</v>
+        <v>0.120091</v>
       </c>
       <c r="D97" t="n">
-        <v>0.38591</v>
+        <v>0.386102</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0489433</v>
+        <v>0.0485029</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0709206</v>
+        <v>0.06906660000000001</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0707735</v>
+        <v>0.0705387</v>
       </c>
       <c r="C98" t="n">
-        <v>0.128186</v>
+        <v>0.128553</v>
       </c>
       <c r="D98" t="n">
-        <v>0.398261</v>
+        <v>0.39852</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0509377</v>
+        <v>0.0510637</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0762683</v>
+        <v>0.0748246</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07605779999999999</v>
+        <v>0.0765053</v>
       </c>
       <c r="C99" t="n">
-        <v>0.135978</v>
+        <v>0.136824</v>
       </c>
       <c r="D99" t="n">
-        <v>0.411559</v>
+        <v>0.412023</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0538615</v>
+        <v>0.0539206</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0823382</v>
+        <v>0.08159180000000001</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0818226</v>
+        <v>0.0819754</v>
       </c>
       <c r="C100" t="n">
-        <v>0.143955</v>
+        <v>0.144692</v>
       </c>
       <c r="D100" t="n">
-        <v>0.425574</v>
+        <v>0.425602</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0567865</v>
+        <v>0.0572026</v>
       </c>
       <c r="F100" t="n">
-        <v>0.08859549999999999</v>
+        <v>0.0877836</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08813070000000001</v>
+        <v>0.088515</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151961</v>
+        <v>0.152731</v>
       </c>
       <c r="D101" t="n">
-        <v>0.439804</v>
+        <v>0.439819</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0609206</v>
+        <v>0.0610172</v>
       </c>
       <c r="F101" t="n">
-        <v>0.09525749999999999</v>
+        <v>0.0947269</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0951799</v>
+        <v>0.0954183</v>
       </c>
       <c r="C102" t="n">
-        <v>0.160482</v>
+        <v>0.161404</v>
       </c>
       <c r="D102" t="n">
-        <v>0.455451</v>
+        <v>0.455433</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0652239</v>
+        <v>0.0651635</v>
       </c>
       <c r="F102" t="n">
-        <v>0.102231</v>
+        <v>0.101654</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.103404</v>
+        <v>0.103367</v>
       </c>
       <c r="C103" t="n">
-        <v>0.170087</v>
+        <v>0.170993</v>
       </c>
       <c r="D103" t="n">
-        <v>0.471259</v>
+        <v>0.470733</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0700701</v>
+        <v>0.0700278</v>
       </c>
       <c r="F103" t="n">
-        <v>0.108607</v>
+        <v>0.107863</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.112759</v>
+        <v>0.11262</v>
       </c>
       <c r="C104" t="n">
-        <v>0.181704</v>
+        <v>0.182581</v>
       </c>
       <c r="D104" t="n">
-        <v>0.487814</v>
+        <v>0.487256</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0756863</v>
+        <v>0.0758881</v>
       </c>
       <c r="F104" t="n">
-        <v>0.116292</v>
+        <v>0.115436</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.123512</v>
+        <v>0.123486</v>
       </c>
       <c r="C105" t="n">
-        <v>0.196475</v>
+        <v>0.197153</v>
       </c>
       <c r="D105" t="n">
-        <v>0.505406</v>
+        <v>0.504074</v>
       </c>
       <c r="E105" t="n">
-        <v>0.08194070000000001</v>
+        <v>0.0824857</v>
       </c>
       <c r="F105" t="n">
-        <v>0.124292</v>
+        <v>0.123497</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.138008</v>
+        <v>0.137831</v>
       </c>
       <c r="C106" t="n">
-        <v>0.216035</v>
+        <v>0.215918</v>
       </c>
       <c r="D106" t="n">
-        <v>0.523146</v>
+        <v>0.5217540000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>0.09071750000000001</v>
+        <v>0.09090819999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>0.135003</v>
+        <v>0.134506</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.158102</v>
+        <v>0.157979</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242363</v>
+        <v>0.24175</v>
       </c>
       <c r="D107" t="n">
-        <v>0.395084</v>
+        <v>0.395306</v>
       </c>
       <c r="E107" t="n">
-        <v>0.103105</v>
+        <v>0.103703</v>
       </c>
       <c r="F107" t="n">
-        <v>0.150455</v>
+        <v>0.149922</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.187193</v>
+        <v>0.187024</v>
       </c>
       <c r="C108" t="n">
-        <v>0.280852</v>
+        <v>0.280006</v>
       </c>
       <c r="D108" t="n">
-        <v>0.405904</v>
+        <v>0.405535</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0632451</v>
+        <v>0.0631538</v>
       </c>
       <c r="F108" t="n">
-        <v>0.09254039999999999</v>
+        <v>0.09171020000000001</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.232189</v>
+        <v>0.231843</v>
       </c>
       <c r="C109" t="n">
-        <v>0.343617</v>
+        <v>0.341796</v>
       </c>
       <c r="D109" t="n">
-        <v>0.416565</v>
+        <v>0.416073</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0651611</v>
+        <v>0.0653849</v>
       </c>
       <c r="F109" t="n">
-        <v>0.09549729999999999</v>
+        <v>0.0951328</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0909456</v>
+        <v>0.0911898</v>
       </c>
       <c r="C110" t="n">
-        <v>0.145154</v>
+        <v>0.145818</v>
       </c>
       <c r="D110" t="n">
-        <v>0.427411</v>
+        <v>0.42743</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0672061</v>
+        <v>0.06740210000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09872359999999999</v>
+        <v>0.09798999999999999</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0943725</v>
+        <v>0.0945838</v>
       </c>
       <c r="C111" t="n">
-        <v>0.14958</v>
+        <v>0.15036</v>
       </c>
       <c r="D111" t="n">
-        <v>0.439041</v>
+        <v>0.43884</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0691701</v>
+        <v>0.06903049999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>0.101667</v>
+        <v>0.101158</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.096597</v>
+        <v>0.096775</v>
       </c>
       <c r="C112" t="n">
-        <v>0.154396</v>
+        <v>0.155234</v>
       </c>
       <c r="D112" t="n">
-        <v>0.451408</v>
+        <v>0.451165</v>
       </c>
       <c r="E112" t="n">
-        <v>0.071252</v>
+        <v>0.07124270000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>0.104761</v>
+        <v>0.103974</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.10002</v>
+        <v>0.09992620000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.159662</v>
+        <v>0.160285</v>
       </c>
       <c r="D113" t="n">
-        <v>0.464173</v>
+        <v>0.463799</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0730329</v>
+        <v>0.0731966</v>
       </c>
       <c r="F113" t="n">
-        <v>0.108289</v>
+        <v>0.107346</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103628</v>
+        <v>0.103707</v>
       </c>
       <c r="C114" t="n">
-        <v>0.165075</v>
+        <v>0.165994</v>
       </c>
       <c r="D114" t="n">
-        <v>0.477438</v>
+        <v>0.476939</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0753591</v>
+        <v>0.0755735</v>
       </c>
       <c r="F114" t="n">
-        <v>0.111788</v>
+        <v>0.110911</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107551</v>
+        <v>0.10764</v>
       </c>
       <c r="C115" t="n">
-        <v>0.17123</v>
+        <v>0.172286</v>
       </c>
       <c r="D115" t="n">
-        <v>0.492185</v>
+        <v>0.490262</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0777388</v>
+        <v>0.0780782</v>
       </c>
       <c r="F115" t="n">
-        <v>0.115825</v>
+        <v>0.114976</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.112489</v>
+        <v>0.112415</v>
       </c>
       <c r="C116" t="n">
-        <v>0.178488</v>
+        <v>0.179715</v>
       </c>
       <c r="D116" t="n">
-        <v>0.507612</v>
+        <v>0.50557</v>
       </c>
       <c r="E116" t="n">
-        <v>0.08038820000000001</v>
+        <v>0.08056919999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>0.119718</v>
+        <v>0.118932</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.118131</v>
+        <v>0.118307</v>
       </c>
       <c r="C117" t="n">
-        <v>0.187525</v>
+        <v>0.188869</v>
       </c>
       <c r="D117" t="n">
-        <v>0.522946</v>
+        <v>0.520787</v>
       </c>
       <c r="E117" t="n">
-        <v>0.08374280000000001</v>
+        <v>0.083879</v>
       </c>
       <c r="F117" t="n">
-        <v>0.124369</v>
+        <v>0.124012</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.125501</v>
+        <v>0.125648</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1989</v>
+        <v>0.199827</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5392169999999999</v>
+        <v>0.536431</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0877236</v>
+        <v>0.0879563</v>
       </c>
       <c r="F118" t="n">
-        <v>0.130245</v>
+        <v>0.129906</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.135122</v>
+        <v>0.1352</v>
       </c>
       <c r="C119" t="n">
-        <v>0.212787</v>
+        <v>0.213464</v>
       </c>
       <c r="D119" t="n">
-        <v>0.556424</v>
+        <v>0.554046</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0932021</v>
+        <v>0.09405719999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>0.137634</v>
+        <v>0.137332</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.14789</v>
+        <v>0.147855</v>
       </c>
       <c r="C120" t="n">
-        <v>0.231561</v>
+        <v>0.231779</v>
       </c>
       <c r="D120" t="n">
-        <v>0.573348</v>
+        <v>0.571193</v>
       </c>
       <c r="E120" t="n">
-        <v>0.100153</v>
+        <v>0.100135</v>
       </c>
       <c r="F120" t="n">
-        <v>0.147416</v>
+        <v>0.147352</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165826</v>
+        <v>0.165763</v>
       </c>
       <c r="C121" t="n">
-        <v>0.257748</v>
+        <v>0.257597</v>
       </c>
       <c r="D121" t="n">
-        <v>0.424871</v>
+        <v>0.425424</v>
       </c>
       <c r="E121" t="n">
-        <v>0.110992</v>
+        <v>0.111237</v>
       </c>
       <c r="F121" t="n">
-        <v>0.161912</v>
+        <v>0.161684</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192257</v>
+        <v>0.192223</v>
       </c>
       <c r="C122" t="n">
-        <v>0.296725</v>
+        <v>0.295748</v>
       </c>
       <c r="D122" t="n">
-        <v>0.436271</v>
+        <v>0.43574</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1276</v>
+        <v>0.127943</v>
       </c>
       <c r="F122" t="n">
-        <v>0.184002</v>
+        <v>0.183502</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233245</v>
+        <v>0.233152</v>
       </c>
       <c r="C123" t="n">
-        <v>0.357552</v>
+        <v>0.356034</v>
       </c>
       <c r="D123" t="n">
-        <v>0.446125</v>
+        <v>0.446428</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0766467</v>
+        <v>0.0763214</v>
       </c>
       <c r="F123" t="n">
-        <v>0.112343</v>
+        <v>0.107772</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.102319</v>
+        <v>0.102732</v>
       </c>
       <c r="C124" t="n">
-        <v>0.163892</v>
+        <v>0.163209</v>
       </c>
       <c r="D124" t="n">
-        <v>0.457606</v>
+        <v>0.457592</v>
       </c>
       <c r="E124" t="n">
-        <v>0.08014309999999999</v>
+        <v>0.08022849999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>0.114645</v>
+        <v>0.114891</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104373</v>
+        <v>0.107166</v>
       </c>
       <c r="C125" t="n">
-        <v>0.167727</v>
+        <v>0.165768</v>
       </c>
       <c r="D125" t="n">
-        <v>0.469999</v>
+        <v>0.469055</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0828419</v>
+        <v>0.0821658</v>
       </c>
       <c r="F125" t="n">
-        <v>0.115201</v>
+        <v>0.115551</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107221</v>
+        <v>0.106087</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170083</v>
+        <v>0.170688</v>
       </c>
       <c r="D126" t="n">
-        <v>0.481646</v>
+        <v>0.481129</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0826008</v>
+        <v>0.0834802</v>
       </c>
       <c r="F126" t="n">
-        <v>0.119471</v>
+        <v>0.120225</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111059</v>
+        <v>0.109614</v>
       </c>
       <c r="C127" t="n">
-        <v>0.17617</v>
+        <v>0.176797</v>
       </c>
       <c r="D127" t="n">
-        <v>0.494435</v>
+        <v>0.493633</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0836904</v>
+        <v>0.0826075</v>
       </c>
       <c r="F127" t="n">
-        <v>0.12329</v>
+        <v>0.120442</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.111892</v>
+        <v>0.111813</v>
       </c>
       <c r="C128" t="n">
-        <v>0.182624</v>
+        <v>0.183505</v>
       </c>
       <c r="D128" t="n">
-        <v>0.507677</v>
+        <v>0.506697</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0862175</v>
+        <v>0.08630110000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>0.125484</v>
+        <v>0.124427</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.11627</v>
+        <v>0.117657</v>
       </c>
       <c r="C129" t="n">
-        <v>0.189268</v>
+        <v>0.189445</v>
       </c>
       <c r="D129" t="n">
-        <v>0.521881</v>
+        <v>0.520822</v>
       </c>
       <c r="E129" t="n">
-        <v>0.087155</v>
+        <v>0.087974</v>
       </c>
       <c r="F129" t="n">
-        <v>0.129498</v>
+        <v>0.129596</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.12032</v>
+        <v>0.121535</v>
       </c>
       <c r="C130" t="n">
-        <v>0.195544</v>
+        <v>0.195393</v>
       </c>
       <c r="D130" t="n">
-        <v>0.535979</v>
+        <v>0.5353830000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.09068469999999999</v>
+        <v>0.0911025</v>
       </c>
       <c r="F130" t="n">
-        <v>0.134559</v>
+        <v>0.134096</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127443</v>
+        <v>0.125524</v>
       </c>
       <c r="C131" t="n">
-        <v>0.204907</v>
+        <v>0.20477</v>
       </c>
       <c r="D131" t="n">
-        <v>0.552616</v>
+        <v>0.550725</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0979744</v>
+        <v>0.0950593</v>
       </c>
       <c r="F131" t="n">
-        <v>0.141811</v>
+        <v>0.139434</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.134235</v>
+        <v>0.135883</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213208</v>
+        <v>0.214315</v>
       </c>
       <c r="D132" t="n">
-        <v>0.568729</v>
+        <v>0.566537</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0970328</v>
+        <v>0.0984617</v>
       </c>
       <c r="F132" t="n">
-        <v>0.14676</v>
+        <v>0.148882</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142581</v>
+        <v>0.142519</v>
       </c>
       <c r="C133" t="n">
-        <v>0.226309</v>
+        <v>0.228544</v>
       </c>
       <c r="D133" t="n">
-        <v>0.585937</v>
+        <v>0.583647</v>
       </c>
       <c r="E133" t="n">
-        <v>0.101129</v>
+        <v>0.105071</v>
       </c>
       <c r="F133" t="n">
-        <v>0.150898</v>
+        <v>0.154677</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154485</v>
+        <v>0.157335</v>
       </c>
       <c r="C134" t="n">
-        <v>0.24447</v>
+        <v>0.245246</v>
       </c>
       <c r="D134" t="n">
-        <v>0.604395</v>
+        <v>0.601546</v>
       </c>
       <c r="E134" t="n">
-        <v>0.109763</v>
+        <v>0.108576</v>
       </c>
       <c r="F134" t="n">
-        <v>0.162929</v>
+        <v>0.161024</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.172254</v>
+        <v>0.17143</v>
       </c>
       <c r="C135" t="n">
-        <v>0.271774</v>
+        <v>0.269609</v>
       </c>
       <c r="D135" t="n">
-        <v>0.443029</v>
+        <v>0.443336</v>
       </c>
       <c r="E135" t="n">
-        <v>0.121606</v>
+        <v>0.120308</v>
       </c>
       <c r="F135" t="n">
-        <v>0.175496</v>
+        <v>0.1748</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197338</v>
+        <v>0.196457</v>
       </c>
       <c r="C136" t="n">
-        <v>0.306813</v>
+        <v>0.306922</v>
       </c>
       <c r="D136" t="n">
-        <v>0.453517</v>
+        <v>0.453667</v>
       </c>
       <c r="E136" t="n">
-        <v>0.135628</v>
+        <v>0.135668</v>
       </c>
       <c r="F136" t="n">
-        <v>0.197238</v>
+        <v>0.196814</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235802</v>
+        <v>0.235444</v>
       </c>
       <c r="C137" t="n">
-        <v>0.365271</v>
+        <v>0.364747</v>
       </c>
       <c r="D137" t="n">
-        <v>0.464481</v>
+        <v>0.464645</v>
       </c>
       <c r="E137" t="n">
-        <v>0.148641</v>
+        <v>0.148555</v>
       </c>
       <c r="F137" t="n">
-        <v>0.175639</v>
+        <v>0.174571</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.168454</v>
+        <v>0.166656</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226944</v>
+        <v>0.226296</v>
       </c>
       <c r="D138" t="n">
-        <v>0.475256</v>
+        <v>0.475408</v>
       </c>
       <c r="E138" t="n">
-        <v>0.14944</v>
+        <v>0.150284</v>
       </c>
       <c r="F138" t="n">
-        <v>0.177797</v>
+        <v>0.177009</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169129</v>
+        <v>0.169302</v>
       </c>
       <c r="C139" t="n">
-        <v>0.230261</v>
+        <v>0.23063</v>
       </c>
       <c r="D139" t="n">
-        <v>0.487114</v>
+        <v>0.487064</v>
       </c>
       <c r="E139" t="n">
-        <v>0.151062</v>
+        <v>0.151077</v>
       </c>
       <c r="F139" t="n">
-        <v>0.18103</v>
+        <v>0.179803</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.169538</v>
+        <v>0.169894</v>
       </c>
       <c r="C140" t="n">
-        <v>0.234495</v>
+        <v>0.234655</v>
       </c>
       <c r="D140" t="n">
-        <v>0.499289</v>
+        <v>0.498867</v>
       </c>
       <c r="E140" t="n">
-        <v>0.151996</v>
+        <v>0.151562</v>
       </c>
       <c r="F140" t="n">
-        <v>0.18311</v>
+        <v>0.183575</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.172624</v>
+        <v>0.172503</v>
       </c>
       <c r="C141" t="n">
-        <v>0.239247</v>
+        <v>0.239562</v>
       </c>
       <c r="D141" t="n">
-        <v>0.511849</v>
+        <v>0.511601</v>
       </c>
       <c r="E141" t="n">
-        <v>0.154431</v>
+        <v>0.154271</v>
       </c>
       <c r="F141" t="n">
-        <v>0.186305</v>
+        <v>0.186612</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.17479</v>
+        <v>0.174978</v>
       </c>
       <c r="C142" t="n">
-        <v>0.244719</v>
+        <v>0.244371</v>
       </c>
       <c r="D142" t="n">
-        <v>0.525141</v>
+        <v>0.524463</v>
       </c>
       <c r="E142" t="n">
-        <v>0.155329</v>
+        <v>0.155228</v>
       </c>
       <c r="F142" t="n">
-        <v>0.190191</v>
+        <v>0.189484</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.178284</v>
+        <v>0.176009</v>
       </c>
       <c r="C143" t="n">
-        <v>0.249631</v>
+        <v>0.24938</v>
       </c>
       <c r="D143" t="n">
-        <v>0.539338</v>
+        <v>0.538444</v>
       </c>
       <c r="E143" t="n">
-        <v>0.157063</v>
+        <v>0.158849</v>
       </c>
       <c r="F143" t="n">
-        <v>0.193963</v>
+        <v>0.194039</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0325458</v>
+        <v>0.0321161</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0332767</v>
+        <v>0.03335</v>
       </c>
       <c r="D2" t="n">
-        <v>0.119697</v>
+        <v>0.123749</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0318773</v>
+        <v>0.0290424</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0284059</v>
+        <v>0.0284532</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0339567</v>
+        <v>0.034151</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0351942</v>
+        <v>0.0355535</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12513</v>
+        <v>0.128516</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0323749</v>
+        <v>0.0298457</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0290059</v>
+        <v>0.029105</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0355841</v>
+        <v>0.0354107</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0376291</v>
+        <v>0.0381057</v>
       </c>
       <c r="D4" t="n">
-        <v>0.131962</v>
+        <v>0.136581</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0336669</v>
+        <v>0.0311353</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0303389</v>
+        <v>0.030576</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0418889</v>
+        <v>0.0412366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0439988</v>
+        <v>0.0441255</v>
       </c>
       <c r="D5" t="n">
-        <v>0.136545</v>
+        <v>0.139967</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0354295</v>
+        <v>0.0327441</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0320342</v>
+        <v>0.0322812</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0506795</v>
+        <v>0.0500595</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0553708</v>
+        <v>0.0551965</v>
       </c>
       <c r="D6" t="n">
-        <v>0.142602</v>
+        <v>0.149599</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0381905</v>
+        <v>0.0360213</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0350368</v>
+        <v>0.0358869</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0787538</v>
+        <v>0.07866479999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0772412</v>
+        <v>0.0772041</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0992547</v>
+        <v>0.100619</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0443012</v>
+        <v>0.0420082</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0411142</v>
+        <v>0.0418759</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.103816</v>
+        <v>0.104563</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113269</v>
+        <v>0.113417</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1046</v>
+        <v>0.106313</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0580204</v>
+        <v>0.0558234</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0543036</v>
+        <v>0.0550524</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146418</v>
+        <v>0.147146</v>
       </c>
       <c r="C9" t="n">
-        <v>0.153329</v>
+        <v>0.155263</v>
       </c>
       <c r="D9" t="n">
-        <v>0.111534</v>
+        <v>0.112185</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0287045</v>
+        <v>0.0263905</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0256568</v>
+        <v>0.025924</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.030609</v>
+        <v>0.030695</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0311113</v>
+        <v>0.0316157</v>
       </c>
       <c r="D10" t="n">
-        <v>0.116629</v>
+        <v>0.117648</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0289099</v>
+        <v>0.0266338</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0259208</v>
+        <v>0.0261996</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0312915</v>
+        <v>0.0314613</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0319499</v>
+        <v>0.0324851</v>
       </c>
       <c r="D11" t="n">
-        <v>0.121315</v>
+        <v>0.123513</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0291978</v>
+        <v>0.0269209</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0262326</v>
+        <v>0.026578</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.031628</v>
+        <v>0.0315729</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0324153</v>
+        <v>0.0331434</v>
       </c>
       <c r="D12" t="n">
-        <v>0.126615</v>
+        <v>0.128762</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0296419</v>
+        <v>0.0273974</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0268114</v>
+        <v>0.0274055</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0320436</v>
+        <v>0.0320865</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0335538</v>
+        <v>0.0343533</v>
       </c>
       <c r="D13" t="n">
-        <v>0.132021</v>
+        <v>0.134238</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0300186</v>
+        <v>0.0278121</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0271839</v>
+        <v>0.0279565</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0331034</v>
+        <v>0.0334743</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03404</v>
+        <v>0.0354117</v>
       </c>
       <c r="D14" t="n">
-        <v>0.137729</v>
+        <v>0.140532</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03041</v>
+        <v>0.0282061</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0276098</v>
+        <v>0.0284945</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0341001</v>
+        <v>0.0342143</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0357922</v>
+        <v>0.0373771</v>
       </c>
       <c r="D15" t="n">
-        <v>0.142172</v>
+        <v>0.143898</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0310979</v>
+        <v>0.0289692</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0283884</v>
+        <v>0.0292859</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0356895</v>
+        <v>0.0360815</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0374317</v>
+        <v>0.0391674</v>
       </c>
       <c r="D16" t="n">
-        <v>0.147521</v>
+        <v>0.148142</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0320262</v>
+        <v>0.029802</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0292616</v>
+        <v>0.0304326</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0380807</v>
+        <v>0.0379102</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0404792</v>
+        <v>0.041338</v>
       </c>
       <c r="D17" t="n">
-        <v>0.151839</v>
+        <v>0.152422</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0330593</v>
+        <v>0.0309808</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0305178</v>
+        <v>0.0315645</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0425854</v>
+        <v>0.0419635</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0446038</v>
+        <v>0.0447163</v>
       </c>
       <c r="D18" t="n">
-        <v>0.156077</v>
+        <v>0.15712</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0343098</v>
+        <v>0.0321433</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0317242</v>
+        <v>0.0326772</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0491367</v>
+        <v>0.0496568</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0528391</v>
+        <v>0.0525635</v>
       </c>
       <c r="D19" t="n">
-        <v>0.160213</v>
+        <v>0.160944</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0360376</v>
+        <v>0.0338874</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0335594</v>
+        <v>0.0344773</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0657027</v>
+        <v>0.0661524</v>
       </c>
       <c r="C20" t="n">
-        <v>0.063947</v>
+        <v>0.0635488</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164419</v>
+        <v>0.165877</v>
       </c>
       <c r="E20" t="n">
-        <v>0.039483</v>
+        <v>0.0374379</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0371706</v>
+        <v>0.0377537</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0838262</v>
+        <v>0.0838902</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0819313</v>
+        <v>0.08178340000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.116573</v>
+        <v>0.115703</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0457999</v>
+        <v>0.0439172</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0435307</v>
+        <v>0.0441393</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.112027</v>
+        <v>0.112699</v>
       </c>
       <c r="C22" t="n">
-        <v>0.112532</v>
+        <v>0.113073</v>
       </c>
       <c r="D22" t="n">
-        <v>0.12147</v>
+        <v>0.120694</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0609887</v>
+        <v>0.0599122</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0579948</v>
+        <v>0.0582986</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152091</v>
+        <v>0.153524</v>
       </c>
       <c r="C23" t="n">
-        <v>0.145735</v>
+        <v>0.146617</v>
       </c>
       <c r="D23" t="n">
-        <v>0.12666</v>
+        <v>0.126</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0286652</v>
+        <v>0.0268686</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0269439</v>
+        <v>0.0276275</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0329633</v>
+        <v>0.0330961</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0359371</v>
+        <v>0.0362474</v>
       </c>
       <c r="D24" t="n">
-        <v>0.131764</v>
+        <v>0.131277</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0290384</v>
+        <v>0.0271844</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0273075</v>
+        <v>0.0281662</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0335225</v>
+        <v>0.0336154</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0368001</v>
+        <v>0.0371155</v>
       </c>
       <c r="D25" t="n">
-        <v>0.136279</v>
+        <v>0.135696</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0293289</v>
+        <v>0.0273051</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0277314</v>
+        <v>0.0284304</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0341914</v>
+        <v>0.0341889</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0381924</v>
+        <v>0.0377938</v>
       </c>
       <c r="D26" t="n">
-        <v>0.140751</v>
+        <v>0.140068</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0296636</v>
+        <v>0.0278022</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0283346</v>
+        <v>0.0290531</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0347576</v>
+        <v>0.0346129</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0392515</v>
+        <v>0.0387129</v>
       </c>
       <c r="D27" t="n">
-        <v>0.145617</v>
+        <v>0.145165</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0302112</v>
+        <v>0.0282847</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0290338</v>
+        <v>0.0295279</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0356445</v>
+        <v>0.0354376</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0405994</v>
+        <v>0.0398871</v>
       </c>
       <c r="D28" t="n">
-        <v>0.150501</v>
+        <v>0.14972</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0307164</v>
+        <v>0.0288347</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0298759</v>
+        <v>0.030194</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0371091</v>
+        <v>0.0368255</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0419829</v>
+        <v>0.0411219</v>
       </c>
       <c r="D29" t="n">
-        <v>0.154795</v>
+        <v>0.154502</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0315175</v>
+        <v>0.0296796</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0307798</v>
+        <v>0.0309968</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0389208</v>
+        <v>0.0384973</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0442447</v>
+        <v>0.0429074</v>
       </c>
       <c r="D30" t="n">
-        <v>0.159419</v>
+        <v>0.159082</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0322446</v>
+        <v>0.0303934</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0317552</v>
+        <v>0.0318147</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0419751</v>
+        <v>0.0416795</v>
       </c>
       <c r="C31" t="n">
-        <v>0.047623</v>
+        <v>0.0460838</v>
       </c>
       <c r="D31" t="n">
-        <v>0.163058</v>
+        <v>0.162967</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0334865</v>
+        <v>0.0315394</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0333326</v>
+        <v>0.0324137</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.046642</v>
+        <v>0.046505</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0514693</v>
+        <v>0.0496274</v>
       </c>
       <c r="D32" t="n">
-        <v>0.166854</v>
+        <v>0.167208</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0346854</v>
+        <v>0.032729</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0345633</v>
+        <v>0.034248</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.053862</v>
+        <v>0.0538169</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0578025</v>
+        <v>0.0558535</v>
       </c>
       <c r="D33" t="n">
-        <v>0.170661</v>
+        <v>0.172305</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0365259</v>
+        <v>0.0346575</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0364055</v>
+        <v>0.0359844</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0637549</v>
+        <v>0.06364549999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06639929999999999</v>
+        <v>0.0652697</v>
       </c>
       <c r="D34" t="n">
-        <v>0.174476</v>
+        <v>0.175716</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0400632</v>
+        <v>0.0384145</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0396694</v>
+        <v>0.0391519</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0809108</v>
+        <v>0.0809742</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0820699</v>
+        <v>0.0817949</v>
       </c>
       <c r="D35" t="n">
-        <v>0.122222</v>
+        <v>0.119844</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0465314</v>
+        <v>0.0449241</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0455856</v>
+        <v>0.045001</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101608</v>
+        <v>0.101944</v>
       </c>
       <c r="C36" t="n">
-        <v>0.101321</v>
+        <v>0.101722</v>
       </c>
       <c r="D36" t="n">
-        <v>0.127066</v>
+        <v>0.124491</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0575566</v>
+        <v>0.0564932</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0556068</v>
+        <v>0.0550334</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.135382</v>
+        <v>0.136514</v>
       </c>
       <c r="C37" t="n">
-        <v>0.13399</v>
+        <v>0.134859</v>
       </c>
       <c r="D37" t="n">
-        <v>0.131414</v>
+        <v>0.128954</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0290388</v>
+        <v>0.0272889</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0290357</v>
+        <v>0.0280031</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0336103</v>
+        <v>0.0334857</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0387091</v>
+        <v>0.0379693</v>
       </c>
       <c r="D38" t="n">
-        <v>0.136469</v>
+        <v>0.133907</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0293688</v>
+        <v>0.0277108</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0296573</v>
+        <v>0.0285706</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0341633</v>
+        <v>0.0341157</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0395184</v>
+        <v>0.0387613</v>
       </c>
       <c r="D39" t="n">
-        <v>0.141091</v>
+        <v>0.138978</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0298354</v>
+        <v>0.0284385</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0301518</v>
+        <v>0.0291336</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0352188</v>
+        <v>0.0351357</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0404533</v>
+        <v>0.0399668</v>
       </c>
       <c r="D40" t="n">
-        <v>0.145541</v>
+        <v>0.143744</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0303437</v>
+        <v>0.0284795</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0306785</v>
+        <v>0.0295736</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0358743</v>
+        <v>0.0358307</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0414566</v>
+        <v>0.040905</v>
       </c>
       <c r="D41" t="n">
-        <v>0.150149</v>
+        <v>0.147902</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0313052</v>
+        <v>0.0288613</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0312069</v>
+        <v>0.030179</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0371946</v>
+        <v>0.0370404</v>
       </c>
       <c r="C42" t="n">
-        <v>0.042541</v>
+        <v>0.0421068</v>
       </c>
       <c r="D42" t="n">
-        <v>0.154584</v>
+        <v>0.152496</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0311913</v>
+        <v>0.0294684</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0318536</v>
+        <v>0.0310018</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.038602</v>
+        <v>0.0385185</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0442836</v>
+        <v>0.0435638</v>
       </c>
       <c r="D43" t="n">
-        <v>0.159256</v>
+        <v>0.157263</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0318485</v>
+        <v>0.0302732</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0327243</v>
+        <v>0.0317899</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0403398</v>
+        <v>0.0403199</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0465785</v>
+        <v>0.0456399</v>
       </c>
       <c r="D44" t="n">
-        <v>0.162652</v>
+        <v>0.161458</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0327644</v>
+        <v>0.0311909</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0336637</v>
+        <v>0.0329855</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0437159</v>
+        <v>0.0435409</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0492974</v>
+        <v>0.0480627</v>
       </c>
       <c r="D45" t="n">
-        <v>0.166653</v>
+        <v>0.1658</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0338256</v>
+        <v>0.0321625</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0347582</v>
+        <v>0.0341432</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0477118</v>
+        <v>0.0476862</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0530985</v>
+        <v>0.0517024</v>
       </c>
       <c r="D46" t="n">
-        <v>0.17063</v>
+        <v>0.170235</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0353841</v>
+        <v>0.0337836</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0362102</v>
+        <v>0.0356153</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0540882</v>
+        <v>0.0540664</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0584838</v>
+        <v>0.0571587</v>
       </c>
       <c r="D47" t="n">
-        <v>0.174395</v>
+        <v>0.174748</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0373584</v>
+        <v>0.0357875</v>
       </c>
       <c r="F47" t="n">
-        <v>0.037901</v>
+        <v>0.0375751</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0631061</v>
+        <v>0.06290030000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0665906</v>
+        <v>0.0658091</v>
       </c>
       <c r="D48" t="n">
-        <v>0.178759</v>
+        <v>0.179422</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0410452</v>
+        <v>0.0396164</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0413022</v>
+        <v>0.0409241</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0745662</v>
+        <v>0.07451290000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07775219999999999</v>
+        <v>0.07751039999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.183024</v>
+        <v>0.184414</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0464597</v>
+        <v>0.0451895</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0459407</v>
+        <v>0.0457623</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0949465</v>
+        <v>0.0952693</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09607690000000001</v>
+        <v>0.0962948</v>
       </c>
       <c r="D50" t="n">
-        <v>0.129143</v>
+        <v>0.125946</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0551594</v>
+        <v>0.0537969</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0534017</v>
+        <v>0.0533651</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125033</v>
+        <v>0.125629</v>
       </c>
       <c r="C51" t="n">
-        <v>0.125973</v>
+        <v>0.127032</v>
       </c>
       <c r="D51" t="n">
-        <v>0.133512</v>
+        <v>0.130613</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0308567</v>
+        <v>0.0294243</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0313623</v>
+        <v>0.0317664</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.169244</v>
+        <v>0.170884</v>
       </c>
       <c r="C52" t="n">
-        <v>0.171443</v>
+        <v>0.173237</v>
       </c>
       <c r="D52" t="n">
-        <v>0.138236</v>
+        <v>0.135296</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0304806</v>
+        <v>0.0299282</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0317976</v>
+        <v>0.0322518</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0358089</v>
+        <v>0.0364576</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0416951</v>
+        <v>0.0416148</v>
       </c>
       <c r="D53" t="n">
-        <v>0.142994</v>
+        <v>0.140154</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0308752</v>
+        <v>0.0304256</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0323195</v>
+        <v>0.0327701</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0370582</v>
+        <v>0.037163</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0425195</v>
+        <v>0.0423978</v>
       </c>
       <c r="D54" t="n">
-        <v>0.147932</v>
+        <v>0.145291</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0312399</v>
+        <v>0.0306176</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0326626</v>
+        <v>0.033117</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0382298</v>
+        <v>0.0388926</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0435969</v>
+        <v>0.0432711</v>
       </c>
       <c r="D55" t="n">
-        <v>0.152736</v>
+        <v>0.150144</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0320319</v>
+        <v>0.0308333</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0335184</v>
+        <v>0.033862</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.039502</v>
+        <v>0.0396486</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0448635</v>
+        <v>0.0446338</v>
       </c>
       <c r="D56" t="n">
-        <v>0.156982</v>
+        <v>0.154903</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0321863</v>
+        <v>0.032026</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0340255</v>
+        <v>0.0346151</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0401226</v>
+        <v>0.0406488</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0463631</v>
+        <v>0.0458903</v>
       </c>
       <c r="D57" t="n">
-        <v>0.161683</v>
+        <v>0.159944</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0331037</v>
+        <v>0.0324351</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0348227</v>
+        <v>0.0353234</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0424543</v>
+        <v>0.0427605</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0483853</v>
+        <v>0.0477634</v>
       </c>
       <c r="D58" t="n">
-        <v>0.165699</v>
+        <v>0.165551</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0337095</v>
+        <v>0.0335177</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0360503</v>
+        <v>0.0356474</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0454105</v>
+        <v>0.0461087</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0510174</v>
+        <v>0.050211</v>
       </c>
       <c r="D59" t="n">
-        <v>0.16981</v>
+        <v>0.169972</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0347448</v>
+        <v>0.03437</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0378837</v>
+        <v>0.0366522</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0491496</v>
+        <v>0.0495677</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0545564</v>
+        <v>0.0536901</v>
       </c>
       <c r="D60" t="n">
-        <v>0.173483</v>
+        <v>0.174638</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0362171</v>
+        <v>0.0360451</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0390473</v>
+        <v>0.0392687</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0543806</v>
+        <v>0.0547797</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0600314</v>
+        <v>0.0592892</v>
       </c>
       <c r="D61" t="n">
-        <v>0.177798</v>
+        <v>0.18017</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0398969</v>
+        <v>0.0377255</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0407439</v>
+        <v>0.0403858</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0625974</v>
+        <v>0.0627088</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0674302</v>
+        <v>0.0670005</v>
       </c>
       <c r="D62" t="n">
-        <v>0.182583</v>
+        <v>0.185776</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0430963</v>
+        <v>0.0410269</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0432572</v>
+        <v>0.0438354</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07385659999999999</v>
+        <v>0.0740943</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07735309999999999</v>
+        <v>0.0770711</v>
       </c>
       <c r="D63" t="n">
-        <v>0.187002</v>
+        <v>0.191392</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0481615</v>
+        <v>0.04616</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0479873</v>
+        <v>0.0492465</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0929569</v>
+        <v>0.0933153</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0936331</v>
+        <v>0.0938956</v>
       </c>
       <c r="D64" t="n">
-        <v>0.13555</v>
+        <v>0.137299</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0550015</v>
+        <v>0.0541036</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0548724</v>
+        <v>0.056029</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118944</v>
+        <v>0.119312</v>
       </c>
       <c r="C65" t="n">
-        <v>0.120925</v>
+        <v>0.121865</v>
       </c>
       <c r="D65" t="n">
-        <v>0.141571</v>
+        <v>0.145695</v>
       </c>
       <c r="E65" t="n">
-        <v>0.06913469999999999</v>
+        <v>0.06811689999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>0.06741030000000001</v>
+        <v>0.0680694</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161396</v>
+        <v>0.162832</v>
       </c>
       <c r="C66" t="n">
-        <v>0.16238</v>
+        <v>0.164758</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1492</v>
+        <v>0.151843</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0359261</v>
+        <v>0.0351154</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0384116</v>
+        <v>0.0383557</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0414228</v>
+        <v>0.0414308</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0497586</v>
+        <v>0.0497674</v>
       </c>
       <c r="D67" t="n">
-        <v>0.154457</v>
+        <v>0.16114</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0361328</v>
+        <v>0.0354121</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0390836</v>
+        <v>0.0389995</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0418392</v>
+        <v>0.0421224</v>
       </c>
       <c r="C68" t="n">
-        <v>0.050888</v>
+        <v>0.0513431</v>
       </c>
       <c r="D68" t="n">
-        <v>0.162339</v>
+        <v>0.172039</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0366869</v>
+        <v>0.0357354</v>
       </c>
       <c r="F68" t="n">
-        <v>0.039578</v>
+        <v>0.0397235</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0426981</v>
+        <v>0.042959</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0523403</v>
+        <v>0.0527717</v>
       </c>
       <c r="D69" t="n">
-        <v>0.170778</v>
+        <v>0.18077</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0371353</v>
+        <v>0.0362374</v>
       </c>
       <c r="F69" t="n">
-        <v>0.040256</v>
+        <v>0.0403774</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0438</v>
+        <v>0.0441698</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0538025</v>
+        <v>0.0542866</v>
       </c>
       <c r="D70" t="n">
-        <v>0.177838</v>
+        <v>0.188699</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0374675</v>
+        <v>0.0364375</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0410276</v>
+        <v>0.041166</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0452247</v>
+        <v>0.0453953</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0555061</v>
+        <v>0.0560122</v>
       </c>
       <c r="D71" t="n">
-        <v>0.18626</v>
+        <v>0.200981</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0381658</v>
+        <v>0.0374702</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0421596</v>
+        <v>0.0419458</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0469787</v>
+        <v>0.0471328</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0575615</v>
+        <v>0.0583189</v>
       </c>
       <c r="D72" t="n">
-        <v>0.196331</v>
+        <v>0.211207</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0389409</v>
+        <v>0.0382547</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0431685</v>
+        <v>0.0429996</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0489958</v>
+        <v>0.0490933</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0599421</v>
+        <v>0.0610056</v>
       </c>
       <c r="D73" t="n">
-        <v>0.206814</v>
+        <v>0.22264</v>
       </c>
       <c r="E73" t="n">
-        <v>0.039942</v>
+        <v>0.0392211</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0443045</v>
+        <v>0.0442742</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.052549</v>
+        <v>0.0524366</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06384090000000001</v>
+        <v>0.0654334</v>
       </c>
       <c r="D74" t="n">
-        <v>0.218198</v>
+        <v>0.233686</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0412496</v>
+        <v>0.0402839</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0461124</v>
+        <v>0.0463806</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0574451</v>
+        <v>0.0572807</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0684437</v>
+        <v>0.0698778</v>
       </c>
       <c r="D75" t="n">
-        <v>0.230827</v>
+        <v>0.245755</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0431675</v>
+        <v>0.0429952</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0479092</v>
+        <v>0.048227</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.064446</v>
+        <v>0.0644564</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07490620000000001</v>
+        <v>0.0787923</v>
       </c>
       <c r="D76" t="n">
-        <v>0.243736</v>
+        <v>0.257857</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0462404</v>
+        <v>0.0455237</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0507487</v>
+        <v>0.0515913</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0746323</v>
+        <v>0.0751617</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08534369999999999</v>
+        <v>0.0924957</v>
       </c>
       <c r="D77" t="n">
-        <v>0.257715</v>
+        <v>0.27115</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0508284</v>
+        <v>0.0501246</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0549794</v>
+        <v>0.0563714</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0901108</v>
+        <v>0.09070599999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.102195</v>
+        <v>0.11145</v>
       </c>
       <c r="D78" t="n">
-        <v>0.219082</v>
+        <v>0.220908</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0580052</v>
+        <v>0.0569227</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0611482</v>
+        <v>0.06356199999999999</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.116621</v>
+        <v>0.116864</v>
       </c>
       <c r="C79" t="n">
-        <v>0.12956</v>
+        <v>0.141106</v>
       </c>
       <c r="D79" t="n">
-        <v>0.232365</v>
+        <v>0.233654</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0697919</v>
+        <v>0.06908</v>
       </c>
       <c r="F79" t="n">
-        <v>0.072424</v>
+        <v>0.07673919999999999</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154801</v>
+        <v>0.156302</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173602</v>
+        <v>0.184516</v>
       </c>
       <c r="D80" t="n">
-        <v>0.244715</v>
+        <v>0.247082</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0396979</v>
+        <v>0.0394851</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0437616</v>
+        <v>0.0443305</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0463714</v>
+        <v>0.0477795</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0579381</v>
+        <v>0.06389980000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257411</v>
+        <v>0.258432</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0402222</v>
+        <v>0.0400363</v>
       </c>
       <c r="F81" t="n">
-        <v>0.044316</v>
+        <v>0.0458203</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0472605</v>
+        <v>0.0492495</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0606322</v>
+        <v>0.0683708</v>
       </c>
       <c r="D82" t="n">
-        <v>0.270593</v>
+        <v>0.270684</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0405759</v>
+        <v>0.0409088</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0454203</v>
+        <v>0.0473798</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0484052</v>
+        <v>0.0509153</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0634393</v>
+        <v>0.0723898</v>
       </c>
       <c r="D83" t="n">
-        <v>0.283393</v>
+        <v>0.283668</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0410708</v>
+        <v>0.041634</v>
       </c>
       <c r="F83" t="n">
-        <v>0.046119</v>
+        <v>0.0487772</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0495676</v>
+        <v>0.0533686</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0677724</v>
+        <v>0.0779812</v>
       </c>
       <c r="D84" t="n">
-        <v>0.297307</v>
+        <v>0.296823</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0416407</v>
+        <v>0.0428416</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0472536</v>
+        <v>0.051061</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0512708</v>
+        <v>0.0556502</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0724254</v>
+        <v>0.08371869999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.311251</v>
+        <v>0.311289</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0423069</v>
+        <v>0.0437385</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0488693</v>
+        <v>0.0542878</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0533106</v>
+        <v>0.0591512</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0792321</v>
+        <v>0.090034</v>
       </c>
       <c r="D86" t="n">
-        <v>0.325591</v>
+        <v>0.325071</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0431753</v>
+        <v>0.0450964</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0506043</v>
+        <v>0.057585</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.056088</v>
+        <v>0.0632022</v>
       </c>
       <c r="C87" t="n">
-        <v>0.08764959999999999</v>
+        <v>0.09770479999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.340438</v>
+        <v>0.340237</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0446898</v>
+        <v>0.0469724</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0527</v>
+        <v>0.0606564</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0600783</v>
+        <v>0.0680217</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0979101</v>
+        <v>0.106026</v>
       </c>
       <c r="D88" t="n">
-        <v>0.355775</v>
+        <v>0.356377</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0463812</v>
+        <v>0.0498875</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0557863</v>
+        <v>0.06554500000000001</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0654521</v>
+        <v>0.0745282</v>
       </c>
       <c r="C89" t="n">
-        <v>0.110527</v>
+        <v>0.115946</v>
       </c>
       <c r="D89" t="n">
-        <v>0.370938</v>
+        <v>0.372555</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0487479</v>
+        <v>0.0530611</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0602435</v>
+        <v>0.0712454</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0743047</v>
+        <v>0.0842823</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1269</v>
+        <v>0.128872</v>
       </c>
       <c r="D90" t="n">
-        <v>0.389177</v>
+        <v>0.389284</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0525125</v>
+        <v>0.0579357</v>
       </c>
       <c r="F90" t="n">
-        <v>0.06714879999999999</v>
+        <v>0.0797841</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0862979</v>
+        <v>0.09606149999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.145227</v>
+        <v>0.142935</v>
       </c>
       <c r="D91" t="n">
-        <v>0.405307</v>
+        <v>0.40782</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0580396</v>
+        <v>0.064875</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0766082</v>
+        <v>0.08664330000000001</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.10305</v>
+        <v>0.111495</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168761</v>
+        <v>0.164326</v>
       </c>
       <c r="D92" t="n">
-        <v>0.328545</v>
+        <v>0.330164</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0658595</v>
+        <v>0.0724062</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08946659999999999</v>
+        <v>0.0971052</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.127554</v>
+        <v>0.133607</v>
       </c>
       <c r="C93" t="n">
-        <v>0.199901</v>
+        <v>0.195223</v>
       </c>
       <c r="D93" t="n">
-        <v>0.33943</v>
+        <v>0.341178</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0791191</v>
+        <v>0.08641740000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>0.108587</v>
+        <v>0.112026</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.164581</v>
+        <v>0.167688</v>
       </c>
       <c r="C94" t="n">
-        <v>0.239812</v>
+        <v>0.236806</v>
       </c>
       <c r="D94" t="n">
-        <v>0.35036</v>
+        <v>0.352265</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0439611</v>
+        <v>0.0495428</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0559922</v>
+        <v>0.06441959999999999</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0584688</v>
+        <v>0.06752859999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.103429</v>
+        <v>0.101491</v>
       </c>
       <c r="D95" t="n">
-        <v>0.361797</v>
+        <v>0.363889</v>
       </c>
       <c r="E95" t="n">
-        <v>0.045127</v>
+        <v>0.0515673</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0596508</v>
+        <v>0.06711979999999999</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0620882</v>
+        <v>0.0702845</v>
       </c>
       <c r="C96" t="n">
-        <v>0.111773</v>
+        <v>0.106198</v>
       </c>
       <c r="D96" t="n">
-        <v>0.373655</v>
+        <v>0.375958</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0465217</v>
+        <v>0.0528829</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06411260000000001</v>
+        <v>0.0699341</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0665848</v>
+        <v>0.0729765</v>
       </c>
       <c r="C97" t="n">
-        <v>0.120091</v>
+        <v>0.111891</v>
       </c>
       <c r="D97" t="n">
-        <v>0.386102</v>
+        <v>0.388479</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0485029</v>
+        <v>0.0548341</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06906660000000001</v>
+        <v>0.07304389999999999</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0705387</v>
+        <v>0.0764606</v>
       </c>
       <c r="C98" t="n">
-        <v>0.128553</v>
+        <v>0.11831</v>
       </c>
       <c r="D98" t="n">
-        <v>0.39852</v>
+        <v>0.40133</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0510637</v>
+        <v>0.0568136</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0748246</v>
+        <v>0.0759987</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0765053</v>
+        <v>0.0791679</v>
       </c>
       <c r="C99" t="n">
-        <v>0.136824</v>
+        <v>0.125699</v>
       </c>
       <c r="D99" t="n">
-        <v>0.412023</v>
+        <v>0.415021</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0539206</v>
+        <v>0.0585442</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08159180000000001</v>
+        <v>0.0791487</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0819754</v>
+        <v>0.0828436</v>
       </c>
       <c r="C100" t="n">
-        <v>0.144692</v>
+        <v>0.133689</v>
       </c>
       <c r="D100" t="n">
-        <v>0.425602</v>
+        <v>0.429026</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0572026</v>
+        <v>0.0609243</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0877836</v>
+        <v>0.08211889999999999</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.088515</v>
+        <v>0.08631460000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.152731</v>
+        <v>0.143039</v>
       </c>
       <c r="D101" t="n">
-        <v>0.439819</v>
+        <v>0.443541</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0610172</v>
+        <v>0.0628517</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0947269</v>
+        <v>0.0857541</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0954183</v>
+        <v>0.09082949999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.161404</v>
+        <v>0.152868</v>
       </c>
       <c r="D102" t="n">
-        <v>0.455433</v>
+        <v>0.45949</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0651635</v>
+        <v>0.0650318</v>
       </c>
       <c r="F102" t="n">
-        <v>0.101654</v>
+        <v>0.09018809999999999</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.103367</v>
+        <v>0.09749140000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.170993</v>
+        <v>0.164173</v>
       </c>
       <c r="D103" t="n">
-        <v>0.470733</v>
+        <v>0.475693</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0700278</v>
+        <v>0.0679085</v>
       </c>
       <c r="F103" t="n">
-        <v>0.107863</v>
+        <v>0.09667240000000001</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.11262</v>
+        <v>0.105331</v>
       </c>
       <c r="C104" t="n">
-        <v>0.182581</v>
+        <v>0.176954</v>
       </c>
       <c r="D104" t="n">
-        <v>0.487256</v>
+        <v>0.491672</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0758881</v>
+        <v>0.07180979999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>0.115436</v>
+        <v>0.103894</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.123486</v>
+        <v>0.116438</v>
       </c>
       <c r="C105" t="n">
-        <v>0.197153</v>
+        <v>0.193248</v>
       </c>
       <c r="D105" t="n">
-        <v>0.504074</v>
+        <v>0.509768</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0824857</v>
+        <v>0.07702290000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>0.123497</v>
+        <v>0.113175</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.137831</v>
+        <v>0.131709</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215918</v>
+        <v>0.214041</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5217540000000001</v>
+        <v>0.528556</v>
       </c>
       <c r="E106" t="n">
-        <v>0.09090819999999999</v>
+        <v>0.08495270000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>0.134506</v>
+        <v>0.125901</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.157979</v>
+        <v>0.153685</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24175</v>
+        <v>0.241142</v>
       </c>
       <c r="D107" t="n">
-        <v>0.395306</v>
+        <v>0.398828</v>
       </c>
       <c r="E107" t="n">
-        <v>0.103703</v>
+        <v>0.0971834</v>
       </c>
       <c r="F107" t="n">
-        <v>0.149922</v>
+        <v>0.144522</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.187024</v>
+        <v>0.184725</v>
       </c>
       <c r="C108" t="n">
-        <v>0.280006</v>
+        <v>0.280877</v>
       </c>
       <c r="D108" t="n">
-        <v>0.405535</v>
+        <v>0.409467</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0631538</v>
+        <v>0.0576584</v>
       </c>
       <c r="F108" t="n">
-        <v>0.09171020000000001</v>
+        <v>0.07950110000000001</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231843</v>
+        <v>0.230922</v>
       </c>
       <c r="C109" t="n">
-        <v>0.341796</v>
+        <v>0.34403</v>
       </c>
       <c r="D109" t="n">
-        <v>0.416073</v>
+        <v>0.420264</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0653849</v>
+        <v>0.0590141</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0951328</v>
+        <v>0.082298</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0911898</v>
+        <v>0.0811195</v>
       </c>
       <c r="C110" t="n">
-        <v>0.145818</v>
+        <v>0.142312</v>
       </c>
       <c r="D110" t="n">
-        <v>0.42743</v>
+        <v>0.431341</v>
       </c>
       <c r="E110" t="n">
-        <v>0.06740210000000001</v>
+        <v>0.060216</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09798999999999999</v>
+        <v>0.0868545</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0945838</v>
+        <v>0.085022</v>
       </c>
       <c r="C111" t="n">
-        <v>0.15036</v>
+        <v>0.147686</v>
       </c>
       <c r="D111" t="n">
-        <v>0.43884</v>
+        <v>0.443186</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06903049999999999</v>
+        <v>0.0615304</v>
       </c>
       <c r="F111" t="n">
-        <v>0.101158</v>
+        <v>0.0907627</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.096775</v>
+        <v>0.0875876</v>
       </c>
       <c r="C112" t="n">
-        <v>0.155234</v>
+        <v>0.152909</v>
       </c>
       <c r="D112" t="n">
-        <v>0.451165</v>
+        <v>0.455064</v>
       </c>
       <c r="E112" t="n">
-        <v>0.07124270000000001</v>
+        <v>0.0634537</v>
       </c>
       <c r="F112" t="n">
-        <v>0.103974</v>
+        <v>0.0951342</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09992620000000001</v>
+        <v>0.0920387</v>
       </c>
       <c r="C113" t="n">
-        <v>0.160285</v>
+        <v>0.158664</v>
       </c>
       <c r="D113" t="n">
-        <v>0.463799</v>
+        <v>0.467902</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0731966</v>
+        <v>0.0654931</v>
       </c>
       <c r="F113" t="n">
-        <v>0.107346</v>
+        <v>0.100143</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103707</v>
+        <v>0.09682159999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.165994</v>
+        <v>0.164619</v>
       </c>
       <c r="D114" t="n">
-        <v>0.476939</v>
+        <v>0.482115</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0755735</v>
+        <v>0.0675982</v>
       </c>
       <c r="F114" t="n">
-        <v>0.110911</v>
+        <v>0.105703</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.10764</v>
+        <v>0.101984</v>
       </c>
       <c r="C115" t="n">
-        <v>0.172286</v>
+        <v>0.171019</v>
       </c>
       <c r="D115" t="n">
-        <v>0.490262</v>
+        <v>0.495858</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0780782</v>
+        <v>0.0703366</v>
       </c>
       <c r="F115" t="n">
-        <v>0.114976</v>
+        <v>0.110866</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.112415</v>
+        <v>0.108268</v>
       </c>
       <c r="C116" t="n">
-        <v>0.179715</v>
+        <v>0.178326</v>
       </c>
       <c r="D116" t="n">
-        <v>0.50557</v>
+        <v>0.511224</v>
       </c>
       <c r="E116" t="n">
-        <v>0.08056919999999999</v>
+        <v>0.0746657</v>
       </c>
       <c r="F116" t="n">
-        <v>0.118932</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.118307</v>
+        <v>0.115101</v>
       </c>
       <c r="C117" t="n">
-        <v>0.188869</v>
+        <v>0.187501</v>
       </c>
       <c r="D117" t="n">
-        <v>0.520787</v>
+        <v>0.52654</v>
       </c>
       <c r="E117" t="n">
-        <v>0.083879</v>
+        <v>0.07877869999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>0.124012</v>
+        <v>0.122107</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.125648</v>
+        <v>0.123459</v>
       </c>
       <c r="C118" t="n">
-        <v>0.199827</v>
+        <v>0.198956</v>
       </c>
       <c r="D118" t="n">
-        <v>0.536431</v>
+        <v>0.543775</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0879563</v>
+        <v>0.0838687</v>
       </c>
       <c r="F118" t="n">
-        <v>0.129906</v>
+        <v>0.128381</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1352</v>
+        <v>0.133633</v>
       </c>
       <c r="C119" t="n">
-        <v>0.213464</v>
+        <v>0.213035</v>
       </c>
       <c r="D119" t="n">
-        <v>0.554046</v>
+        <v>0.562018</v>
       </c>
       <c r="E119" t="n">
-        <v>0.09405719999999999</v>
+        <v>0.089853</v>
       </c>
       <c r="F119" t="n">
-        <v>0.137332</v>
+        <v>0.136771</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147855</v>
+        <v>0.147019</v>
       </c>
       <c r="C120" t="n">
-        <v>0.231779</v>
+        <v>0.231775</v>
       </c>
       <c r="D120" t="n">
-        <v>0.571193</v>
+        <v>0.580421</v>
       </c>
       <c r="E120" t="n">
-        <v>0.100135</v>
+        <v>0.09847119999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>0.147352</v>
+        <v>0.147054</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165763</v>
+        <v>0.165641</v>
       </c>
       <c r="C121" t="n">
-        <v>0.257597</v>
+        <v>0.258212</v>
       </c>
       <c r="D121" t="n">
-        <v>0.425424</v>
+        <v>0.430101</v>
       </c>
       <c r="E121" t="n">
-        <v>0.111237</v>
+        <v>0.110125</v>
       </c>
       <c r="F121" t="n">
-        <v>0.161684</v>
+        <v>0.161373</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192223</v>
+        <v>0.192569</v>
       </c>
       <c r="C122" t="n">
-        <v>0.295748</v>
+        <v>0.297572</v>
       </c>
       <c r="D122" t="n">
-        <v>0.43574</v>
+        <v>0.44082</v>
       </c>
       <c r="E122" t="n">
-        <v>0.127943</v>
+        <v>0.127452</v>
       </c>
       <c r="F122" t="n">
-        <v>0.183502</v>
+        <v>0.184251</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233152</v>
+        <v>0.233627</v>
       </c>
       <c r="C123" t="n">
-        <v>0.356034</v>
+        <v>0.358116</v>
       </c>
       <c r="D123" t="n">
-        <v>0.446428</v>
+        <v>0.450828</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0763214</v>
+        <v>0.0791565</v>
       </c>
       <c r="F123" t="n">
-        <v>0.107772</v>
+        <v>0.113387</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.102732</v>
+        <v>0.10262</v>
       </c>
       <c r="C124" t="n">
-        <v>0.163209</v>
+        <v>0.16338</v>
       </c>
       <c r="D124" t="n">
-        <v>0.457592</v>
+        <v>0.462477</v>
       </c>
       <c r="E124" t="n">
-        <v>0.08022849999999999</v>
+        <v>0.0824531</v>
       </c>
       <c r="F124" t="n">
-        <v>0.114891</v>
+        <v>0.115332</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.107166</v>
+        <v>0.106019</v>
       </c>
       <c r="C125" t="n">
-        <v>0.165768</v>
+        <v>0.168822</v>
       </c>
       <c r="D125" t="n">
-        <v>0.469055</v>
+        <v>0.474211</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0821658</v>
+        <v>0.083407</v>
       </c>
       <c r="F125" t="n">
-        <v>0.115551</v>
+        <v>0.116493</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.106087</v>
+        <v>0.11112</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170688</v>
+        <v>0.173492</v>
       </c>
       <c r="D126" t="n">
-        <v>0.481129</v>
+        <v>0.485769</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0834802</v>
+        <v>0.0829246</v>
       </c>
       <c r="F126" t="n">
-        <v>0.120225</v>
+        <v>0.118897</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.109614</v>
+        <v>0.110708</v>
       </c>
       <c r="C127" t="n">
-        <v>0.176797</v>
+        <v>0.179522</v>
       </c>
       <c r="D127" t="n">
-        <v>0.493633</v>
+        <v>0.498494</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0826075</v>
+        <v>0.08626159999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>0.120442</v>
+        <v>0.122616</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.111813</v>
+        <v>0.113614</v>
       </c>
       <c r="C128" t="n">
-        <v>0.183505</v>
+        <v>0.183015</v>
       </c>
       <c r="D128" t="n">
-        <v>0.506697</v>
+        <v>0.512412</v>
       </c>
       <c r="E128" t="n">
-        <v>0.08630110000000001</v>
+        <v>0.0881448</v>
       </c>
       <c r="F128" t="n">
-        <v>0.124427</v>
+        <v>0.12701</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.117657</v>
+        <v>0.11745</v>
       </c>
       <c r="C129" t="n">
-        <v>0.189445</v>
+        <v>0.189536</v>
       </c>
       <c r="D129" t="n">
-        <v>0.520822</v>
+        <v>0.526459</v>
       </c>
       <c r="E129" t="n">
-        <v>0.087974</v>
+        <v>0.0887607</v>
       </c>
       <c r="F129" t="n">
-        <v>0.129596</v>
+        <v>0.129362</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121535</v>
+        <v>0.121949</v>
       </c>
       <c r="C130" t="n">
-        <v>0.195393</v>
+        <v>0.197499</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5353830000000001</v>
+        <v>0.541645</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0911025</v>
+        <v>0.0936126</v>
       </c>
       <c r="F130" t="n">
-        <v>0.134096</v>
+        <v>0.137034</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.125524</v>
+        <v>0.126996</v>
       </c>
       <c r="C131" t="n">
-        <v>0.20477</v>
+        <v>0.203721</v>
       </c>
       <c r="D131" t="n">
-        <v>0.550725</v>
+        <v>0.557969</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0950593</v>
+        <v>0.0953437</v>
       </c>
       <c r="F131" t="n">
-        <v>0.139434</v>
+        <v>0.139341</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.135883</v>
+        <v>0.134219</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214315</v>
+        <v>0.214011</v>
       </c>
       <c r="D132" t="n">
-        <v>0.566537</v>
+        <v>0.574087</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0984617</v>
+        <v>0.0987439</v>
       </c>
       <c r="F132" t="n">
-        <v>0.148882</v>
+        <v>0.146784</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142519</v>
+        <v>0.144342</v>
       </c>
       <c r="C133" t="n">
-        <v>0.228544</v>
+        <v>0.229089</v>
       </c>
       <c r="D133" t="n">
-        <v>0.583647</v>
+        <v>0.5923659999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.105071</v>
+        <v>0.106019</v>
       </c>
       <c r="F133" t="n">
-        <v>0.154677</v>
+        <v>0.154609</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.157335</v>
+        <v>0.154136</v>
       </c>
       <c r="C134" t="n">
-        <v>0.245246</v>
+        <v>0.246834</v>
       </c>
       <c r="D134" t="n">
-        <v>0.601546</v>
+        <v>0.61045</v>
       </c>
       <c r="E134" t="n">
-        <v>0.108576</v>
+        <v>0.11</v>
       </c>
       <c r="F134" t="n">
-        <v>0.161024</v>
+        <v>0.164064</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.17143</v>
+        <v>0.172129</v>
       </c>
       <c r="C135" t="n">
-        <v>0.269609</v>
+        <v>0.272582</v>
       </c>
       <c r="D135" t="n">
-        <v>0.443336</v>
+        <v>0.448554</v>
       </c>
       <c r="E135" t="n">
-        <v>0.120308</v>
+        <v>0.119894</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1748</v>
+        <v>0.176608</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.196457</v>
+        <v>0.196722</v>
       </c>
       <c r="C136" t="n">
-        <v>0.306922</v>
+        <v>0.308269</v>
       </c>
       <c r="D136" t="n">
-        <v>0.453667</v>
+        <v>0.458587</v>
       </c>
       <c r="E136" t="n">
-        <v>0.135668</v>
+        <v>0.136331</v>
       </c>
       <c r="F136" t="n">
-        <v>0.196814</v>
+        <v>0.196767</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235444</v>
+        <v>0.236586</v>
       </c>
       <c r="C137" t="n">
-        <v>0.364747</v>
+        <v>0.367048</v>
       </c>
       <c r="D137" t="n">
-        <v>0.464645</v>
+        <v>0.469244</v>
       </c>
       <c r="E137" t="n">
-        <v>0.148555</v>
+        <v>0.149023</v>
       </c>
       <c r="F137" t="n">
-        <v>0.174571</v>
+        <v>0.176996</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.166656</v>
+        <v>0.168899</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226296</v>
+        <v>0.227587</v>
       </c>
       <c r="D138" t="n">
-        <v>0.475408</v>
+        <v>0.480154</v>
       </c>
       <c r="E138" t="n">
-        <v>0.150284</v>
+        <v>0.150148</v>
       </c>
       <c r="F138" t="n">
-        <v>0.177009</v>
+        <v>0.178196</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169302</v>
+        <v>0.169273</v>
       </c>
       <c r="C139" t="n">
-        <v>0.23063</v>
+        <v>0.231517</v>
       </c>
       <c r="D139" t="n">
-        <v>0.487064</v>
+        <v>0.491976</v>
       </c>
       <c r="E139" t="n">
-        <v>0.151077</v>
+        <v>0.151603</v>
       </c>
       <c r="F139" t="n">
-        <v>0.179803</v>
+        <v>0.180695</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.169894</v>
+        <v>0.171719</v>
       </c>
       <c r="C140" t="n">
-        <v>0.234655</v>
+        <v>0.235417</v>
       </c>
       <c r="D140" t="n">
-        <v>0.498867</v>
+        <v>0.504165</v>
       </c>
       <c r="E140" t="n">
-        <v>0.151562</v>
+        <v>0.153715</v>
       </c>
       <c r="F140" t="n">
-        <v>0.183575</v>
+        <v>0.184445</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.172503</v>
+        <v>0.174101</v>
       </c>
       <c r="C141" t="n">
-        <v>0.239562</v>
+        <v>0.241055</v>
       </c>
       <c r="D141" t="n">
-        <v>0.511601</v>
+        <v>0.517003</v>
       </c>
       <c r="E141" t="n">
-        <v>0.154271</v>
+        <v>0.154379</v>
       </c>
       <c r="F141" t="n">
-        <v>0.186612</v>
+        <v>0.187155</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174978</v>
+        <v>0.175761</v>
       </c>
       <c r="C142" t="n">
-        <v>0.244371</v>
+        <v>0.244857</v>
       </c>
       <c r="D142" t="n">
-        <v>0.524463</v>
+        <v>0.530415</v>
       </c>
       <c r="E142" t="n">
-        <v>0.155228</v>
+        <v>0.156503</v>
       </c>
       <c r="F142" t="n">
-        <v>0.189484</v>
+        <v>0.190926</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.176009</v>
+        <v>0.177594</v>
       </c>
       <c r="C143" t="n">
-        <v>0.24938</v>
+        <v>0.250639</v>
       </c>
       <c r="D143" t="n">
-        <v>0.538444</v>
+        <v>0.544447</v>
       </c>
       <c r="E143" t="n">
-        <v>0.158849</v>
+        <v>0.15821</v>
       </c>
       <c r="F143" t="n">
-        <v>0.194039</v>
+        <v>0.194096</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.032987</v>
+        <v>0.0337372</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0333128</v>
+        <v>0.0352676</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11821</v>
+        <v>0.122917</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0312959</v>
+        <v>0.029003</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0287897</v>
+        <v>0.0286732</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0351541</v>
+        <v>0.0359376</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0348974</v>
+        <v>0.0368469</v>
       </c>
       <c r="D3" t="n">
-        <v>0.123072</v>
+        <v>0.127338</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0318869</v>
+        <v>0.0292209</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0294592</v>
+        <v>0.0298417</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0380135</v>
+        <v>0.0371417</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0369014</v>
+        <v>0.0404234</v>
       </c>
       <c r="D4" t="n">
-        <v>0.128297</v>
+        <v>0.136573</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0330196</v>
+        <v>0.0303495</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03084</v>
+        <v>0.0314415</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.044546</v>
+        <v>0.0424072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0434666</v>
+        <v>0.044933</v>
       </c>
       <c r="D5" t="n">
-        <v>0.134494</v>
+        <v>0.141531</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0347996</v>
+        <v>0.031272</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0323035</v>
+        <v>0.0323275</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0539281</v>
+        <v>0.0567753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0540555</v>
+        <v>0.0597932</v>
       </c>
       <c r="D6" t="n">
-        <v>0.139039</v>
+        <v>0.14676</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0375653</v>
+        <v>0.0338644</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0352845</v>
+        <v>0.0357996</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.078039</v>
+        <v>0.08407299999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07726959999999999</v>
+        <v>0.0761879</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0958517</v>
+        <v>0.0976808</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0440635</v>
+        <v>0.0399454</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0407735</v>
+        <v>0.04266</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.102486</v>
+        <v>0.112877</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113665</v>
+        <v>0.111364</v>
       </c>
       <c r="D8" t="n">
-        <v>0.102712</v>
+        <v>0.106162</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0576823</v>
+        <v>0.0572596</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0535733</v>
+        <v>0.0587448</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14576</v>
+        <v>0.15459</v>
       </c>
       <c r="C9" t="n">
-        <v>0.155145</v>
+        <v>0.15837</v>
       </c>
       <c r="D9" t="n">
-        <v>0.10941</v>
+        <v>0.112519</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0286553</v>
+        <v>0.0262738</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0260603</v>
+        <v>0.0267656</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.030745</v>
+        <v>0.0321999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0307706</v>
+        <v>0.0335692</v>
       </c>
       <c r="D10" t="n">
-        <v>0.115958</v>
+        <v>0.118978</v>
       </c>
       <c r="E10" t="n">
-        <v>0.028899</v>
+        <v>0.0265294</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0263324</v>
+        <v>0.0271224</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0314208</v>
+        <v>0.0327605</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0315192</v>
+        <v>0.0345001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.121364</v>
+        <v>0.123811</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02919</v>
+        <v>0.026889</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0267088</v>
+        <v>0.0275526</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0315457</v>
+        <v>0.0333089</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0320708</v>
+        <v>0.0352161</v>
       </c>
       <c r="D12" t="n">
-        <v>0.125332</v>
+        <v>0.12888</v>
       </c>
       <c r="E12" t="n">
-        <v>0.029679</v>
+        <v>0.0273647</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0272993</v>
+        <v>0.0280338</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0323256</v>
+        <v>0.0339682</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0333422</v>
+        <v>0.0358035</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131196</v>
+        <v>0.133768</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0299485</v>
+        <v>0.0277484</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02771</v>
+        <v>0.0285607</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0334185</v>
+        <v>0.0348075</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0339907</v>
+        <v>0.0370958</v>
       </c>
       <c r="D14" t="n">
-        <v>0.13606</v>
+        <v>0.137499</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0303077</v>
+        <v>0.028101</v>
       </c>
       <c r="F14" t="n">
-        <v>0.028196</v>
+        <v>0.029108</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0346371</v>
+        <v>0.0356552</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0355438</v>
+        <v>0.0383185</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140596</v>
+        <v>0.14251</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0309685</v>
+        <v>0.0285853</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0289489</v>
+        <v>0.0298757</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.036394</v>
+        <v>0.037078</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0375574</v>
+        <v>0.0398039</v>
       </c>
       <c r="D16" t="n">
-        <v>0.14411</v>
+        <v>0.145645</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0317443</v>
+        <v>0.0293378</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0299628</v>
+        <v>0.0306977</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0389158</v>
+        <v>0.0401149</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0397127</v>
+        <v>0.0418107</v>
       </c>
       <c r="D17" t="n">
-        <v>0.148818</v>
+        <v>0.151657</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0327844</v>
+        <v>0.0304877</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0312539</v>
+        <v>0.0317941</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0428563</v>
+        <v>0.0433729</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0434359</v>
+        <v>0.0463153</v>
       </c>
       <c r="D18" t="n">
-        <v>0.153261</v>
+        <v>0.155473</v>
       </c>
       <c r="E18" t="n">
-        <v>0.033835</v>
+        <v>0.0315948</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0323811</v>
+        <v>0.032936</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0500003</v>
+        <v>0.0504495</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0516259</v>
+        <v>0.0547574</v>
       </c>
       <c r="D19" t="n">
-        <v>0.157056</v>
+        <v>0.160552</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0355293</v>
+        <v>0.033216</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0340479</v>
+        <v>0.0345994</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06502479999999999</v>
+        <v>0.06612560000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06345389999999999</v>
+        <v>0.0678344</v>
       </c>
       <c r="D20" t="n">
-        <v>0.161064</v>
+        <v>0.162152</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0389881</v>
+        <v>0.0367592</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0377692</v>
+        <v>0.0386425</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08282920000000001</v>
+        <v>0.0846765</v>
       </c>
       <c r="C21" t="n">
-        <v>0.081689</v>
+        <v>0.08506320000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.114678</v>
+        <v>0.1159</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0453687</v>
+        <v>0.0449365</v>
       </c>
       <c r="F21" t="n">
-        <v>0.043586</v>
+        <v>0.0465955</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.112013</v>
+        <v>0.106491</v>
       </c>
       <c r="C22" t="n">
-        <v>0.113236</v>
+        <v>0.109693</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119564</v>
+        <v>0.121095</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0605232</v>
+        <v>0.0635293</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0581282</v>
+        <v>0.065285</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152317</v>
+        <v>0.150432</v>
       </c>
       <c r="C23" t="n">
-        <v>0.148368</v>
+        <v>0.146634</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124503</v>
+        <v>0.125822</v>
       </c>
       <c r="E23" t="n">
-        <v>0.028654</v>
+        <v>0.0263471</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0270225</v>
+        <v>0.0277048</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0330076</v>
+        <v>0.0333723</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0353072</v>
+        <v>0.0364381</v>
       </c>
       <c r="D24" t="n">
-        <v>0.129605</v>
+        <v>0.131002</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0289393</v>
+        <v>0.026629</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0276348</v>
+        <v>0.0280798</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0334965</v>
+        <v>0.0341786</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0362251</v>
+        <v>0.0372824</v>
       </c>
       <c r="D25" t="n">
-        <v>0.134151</v>
+        <v>0.135756</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0291941</v>
+        <v>0.026863</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0281214</v>
+        <v>0.0285034</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.034156</v>
+        <v>0.0348745</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0374216</v>
+        <v>0.0384189</v>
       </c>
       <c r="D26" t="n">
-        <v>0.138285</v>
+        <v>0.14023</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02952</v>
+        <v>0.0272166</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02868</v>
+        <v>0.0288987</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0348726</v>
+        <v>0.0350987</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0384949</v>
+        <v>0.039061</v>
       </c>
       <c r="D27" t="n">
-        <v>0.143011</v>
+        <v>0.145077</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0300021</v>
+        <v>0.02773</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0294603</v>
+        <v>0.0294652</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0357269</v>
+        <v>0.0367333</v>
       </c>
       <c r="C28" t="n">
-        <v>0.039783</v>
+        <v>0.0402708</v>
       </c>
       <c r="D28" t="n">
-        <v>0.147501</v>
+        <v>0.14931</v>
       </c>
       <c r="E28" t="n">
-        <v>0.030507</v>
+        <v>0.0282227</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0303204</v>
+        <v>0.0301592</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03732</v>
+        <v>0.0378026</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0412186</v>
+        <v>0.0420401</v>
       </c>
       <c r="D29" t="n">
-        <v>0.151647</v>
+        <v>0.154077</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0313031</v>
+        <v>0.0290588</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0314095</v>
+        <v>0.0310155</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.039116</v>
+        <v>0.0403504</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0431248</v>
+        <v>0.044351</v>
       </c>
       <c r="D30" t="n">
-        <v>0.155682</v>
+        <v>0.157902</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0320435</v>
+        <v>0.0297813</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0323239</v>
+        <v>0.0317311</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0420861</v>
+        <v>0.0436123</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0462209</v>
+        <v>0.0459534</v>
       </c>
       <c r="D31" t="n">
-        <v>0.15987</v>
+        <v>0.163028</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0331881</v>
+        <v>0.0308144</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0336477</v>
+        <v>0.0329825</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0465667</v>
+        <v>0.0483775</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0501982</v>
+        <v>0.0520167</v>
       </c>
       <c r="D32" t="n">
-        <v>0.16285</v>
+        <v>0.166209</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0344034</v>
+        <v>0.0321902</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0349223</v>
+        <v>0.0344642</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.053189</v>
+        <v>0.0563126</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0563804</v>
+        <v>0.0590837</v>
       </c>
       <c r="D33" t="n">
-        <v>0.166958</v>
+        <v>0.170813</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0362587</v>
+        <v>0.0340703</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0369201</v>
+        <v>0.0364056</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0629837</v>
+        <v>0.06767960000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0656572</v>
+        <v>0.067898</v>
       </c>
       <c r="D34" t="n">
-        <v>0.170736</v>
+        <v>0.176254</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0397514</v>
+        <v>0.0381692</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0402637</v>
+        <v>0.0405765</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08073130000000001</v>
+        <v>0.0814072</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0827927</v>
+        <v>0.0821177</v>
       </c>
       <c r="D35" t="n">
-        <v>0.119039</v>
+        <v>0.119889</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0462663</v>
+        <v>0.0459568</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0460983</v>
+        <v>0.0482301</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.10186</v>
+        <v>0.104964</v>
       </c>
       <c r="C36" t="n">
-        <v>0.101744</v>
+        <v>0.105902</v>
       </c>
       <c r="D36" t="n">
-        <v>0.123574</v>
+        <v>0.124629</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0574022</v>
+        <v>0.0590111</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0560637</v>
+        <v>0.0608736</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1358</v>
+        <v>0.138297</v>
       </c>
       <c r="C37" t="n">
-        <v>0.134858</v>
+        <v>0.139565</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128163</v>
+        <v>0.128928</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0290482</v>
+        <v>0.0265473</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0292268</v>
+        <v>0.0285978</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0335612</v>
+        <v>0.0343834</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0382099</v>
+        <v>0.0379511</v>
       </c>
       <c r="D38" t="n">
-        <v>0.13325</v>
+        <v>0.134085</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0292698</v>
+        <v>0.0275911</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0298062</v>
+        <v>0.0291006</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0341669</v>
+        <v>0.0346537</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0388822</v>
+        <v>0.0388999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.137898</v>
+        <v>0.139018</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0297239</v>
+        <v>0.027611</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0302767</v>
+        <v>0.0297512</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0351751</v>
+        <v>0.0357734</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0398697</v>
+        <v>0.0398868</v>
       </c>
       <c r="D40" t="n">
-        <v>0.142256</v>
+        <v>0.142976</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0301464</v>
+        <v>0.0279185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0308062</v>
+        <v>0.0303047</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0358513</v>
+        <v>0.0365249</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0408374</v>
+        <v>0.0409971</v>
       </c>
       <c r="D41" t="n">
-        <v>0.146518</v>
+        <v>0.147978</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0304935</v>
+        <v>0.0284143</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0313628</v>
+        <v>0.0310052</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0371792</v>
+        <v>0.0372309</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0418878</v>
+        <v>0.042139</v>
       </c>
       <c r="D42" t="n">
-        <v>0.150797</v>
+        <v>0.153073</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0310467</v>
+        <v>0.0289492</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0322509</v>
+        <v>0.0317529</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0385792</v>
+        <v>0.0390937</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0434175</v>
+        <v>0.0435251</v>
       </c>
       <c r="D43" t="n">
-        <v>0.155102</v>
+        <v>0.157357</v>
       </c>
       <c r="E43" t="n">
-        <v>0.031705</v>
+        <v>0.0296832</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0329795</v>
+        <v>0.0327833</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0403608</v>
+        <v>0.0406672</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0455045</v>
+        <v>0.0457034</v>
       </c>
       <c r="D44" t="n">
-        <v>0.159067</v>
+        <v>0.161322</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0325718</v>
+        <v>0.0305411</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0340383</v>
+        <v>0.0339308</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0433907</v>
+        <v>0.0441521</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0479664</v>
+        <v>0.0490005</v>
       </c>
       <c r="D45" t="n">
-        <v>0.162634</v>
+        <v>0.165791</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0337473</v>
+        <v>0.0316119</v>
       </c>
       <c r="F45" t="n">
-        <v>0.035136</v>
+        <v>0.0351569</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0472768</v>
+        <v>0.0487829</v>
       </c>
       <c r="C46" t="n">
-        <v>0.051682</v>
+        <v>0.0529692</v>
       </c>
       <c r="D46" t="n">
-        <v>0.166533</v>
+        <v>0.169549</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0350658</v>
+        <v>0.0332705</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0366267</v>
+        <v>0.036867</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0536189</v>
+        <v>0.0550271</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0571836</v>
+        <v>0.0585504</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170744</v>
+        <v>0.173609</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0370989</v>
+        <v>0.0355702</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0383902</v>
+        <v>0.0389744</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0626727</v>
+        <v>0.06470819999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06575780000000001</v>
+        <v>0.0674062</v>
       </c>
       <c r="D48" t="n">
-        <v>0.174855</v>
+        <v>0.177993</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0408872</v>
+        <v>0.0399023</v>
       </c>
       <c r="F48" t="n">
-        <v>0.041671</v>
+        <v>0.0431257</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07443370000000001</v>
+        <v>0.0777002</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07750840000000001</v>
+        <v>0.0796723</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17885</v>
+        <v>0.18184</v>
       </c>
       <c r="E49" t="n">
-        <v>0.046257</v>
+        <v>0.0460253</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0465264</v>
+        <v>0.0489288</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09517059999999999</v>
+        <v>0.09675159999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0962631</v>
+        <v>0.09787419999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.125249</v>
+        <v>0.126699</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0546749</v>
+        <v>0.056016</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0539766</v>
+        <v>0.0579793</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125241</v>
+        <v>0.130557</v>
       </c>
       <c r="C51" t="n">
-        <v>0.126998</v>
+        <v>0.130848</v>
       </c>
       <c r="D51" t="n">
-        <v>0.129946</v>
+        <v>0.13173</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0306967</v>
+        <v>0.0283875</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0320375</v>
+        <v>0.0315662</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.169869</v>
+        <v>0.174016</v>
       </c>
       <c r="C52" t="n">
-        <v>0.17326</v>
+        <v>0.177569</v>
       </c>
       <c r="D52" t="n">
-        <v>0.134664</v>
+        <v>0.136043</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0312504</v>
+        <v>0.0301779</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0324951</v>
+        <v>0.0331824</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0354877</v>
+        <v>0.0371329</v>
       </c>
       <c r="C53" t="n">
-        <v>0.041466</v>
+        <v>0.0415975</v>
       </c>
       <c r="D53" t="n">
-        <v>0.139239</v>
+        <v>0.141355</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0317713</v>
+        <v>0.0290028</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0329201</v>
+        <v>0.0326031</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0365363</v>
+        <v>0.0372838</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0422591</v>
+        <v>0.0423789</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144179</v>
+        <v>0.145289</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0312981</v>
+        <v>0.0293696</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0333149</v>
+        <v>0.0330648</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0375313</v>
+        <v>0.0382099</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0430603</v>
+        <v>0.0432888</v>
       </c>
       <c r="D55" t="n">
-        <v>0.148587</v>
+        <v>0.149894</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0329458</v>
+        <v>0.0309466</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0339668</v>
+        <v>0.0352074</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0387243</v>
+        <v>0.0392989</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0444742</v>
+        <v>0.0443041</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15319</v>
+        <v>0.154731</v>
       </c>
       <c r="E56" t="n">
-        <v>0.032269</v>
+        <v>0.0306802</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0345657</v>
+        <v>0.0359066</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0399959</v>
+        <v>0.0408117</v>
       </c>
       <c r="C57" t="n">
-        <v>0.045779</v>
+        <v>0.0457691</v>
       </c>
       <c r="D57" t="n">
-        <v>0.157351</v>
+        <v>0.159284</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0336752</v>
+        <v>0.0313313</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0356051</v>
+        <v>0.0366121</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0420849</v>
+        <v>0.0427305</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0478965</v>
+        <v>0.047811</v>
       </c>
       <c r="D58" t="n">
-        <v>0.161673</v>
+        <v>0.163475</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0337356</v>
+        <v>0.0328967</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0362229</v>
+        <v>0.0378709</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0447437</v>
+        <v>0.0457896</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0501632</v>
+        <v>0.051546</v>
       </c>
       <c r="D59" t="n">
-        <v>0.165252</v>
+        <v>0.168636</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0350412</v>
+        <v>0.0330128</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0375222</v>
+        <v>0.0386875</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0488698</v>
+        <v>0.0496039</v>
       </c>
       <c r="C60" t="n">
-        <v>0.053715</v>
+        <v>0.0536599</v>
       </c>
       <c r="D60" t="n">
-        <v>0.169443</v>
+        <v>0.173072</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0373443</v>
+        <v>0.0352174</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0387144</v>
+        <v>0.0405738</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0537516</v>
+        <v>0.0549464</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0582849</v>
+        <v>0.0601387</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173854</v>
+        <v>0.177408</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0383636</v>
+        <v>0.0373999</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0415219</v>
+        <v>0.0411436</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0623633</v>
+        <v>0.06257840000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06668880000000001</v>
+        <v>0.0667104</v>
       </c>
       <c r="D62" t="n">
-        <v>0.177974</v>
+        <v>0.182444</v>
       </c>
       <c r="E62" t="n">
-        <v>0.041683</v>
+        <v>0.0410381</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0442013</v>
+        <v>0.04489</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0734393</v>
+        <v>0.0743996</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0766501</v>
+        <v>0.0777702</v>
       </c>
       <c r="D63" t="n">
-        <v>0.18276</v>
+        <v>0.185137</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0468063</v>
+        <v>0.0466707</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0485209</v>
+        <v>0.0507922</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09304469999999999</v>
+        <v>0.09165230000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09381879999999999</v>
+        <v>0.0944501</v>
       </c>
       <c r="D64" t="n">
-        <v>0.131219</v>
+        <v>0.137386</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0550909</v>
+        <v>0.0556339</v>
       </c>
       <c r="F64" t="n">
-        <v>0.055942</v>
+        <v>0.0590602</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118983</v>
+        <v>0.120031</v>
       </c>
       <c r="C65" t="n">
-        <v>0.120859</v>
+        <v>0.122699</v>
       </c>
       <c r="D65" t="n">
-        <v>0.137592</v>
+        <v>0.139962</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0685413</v>
+        <v>0.0712816</v>
       </c>
       <c r="F65" t="n">
-        <v>0.068662</v>
+        <v>0.07399600000000001</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16121</v>
+        <v>0.162029</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163056</v>
+        <v>0.163673</v>
       </c>
       <c r="D66" t="n">
-        <v>0.145086</v>
+        <v>0.147451</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0364375</v>
+        <v>0.0343149</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0391857</v>
+        <v>0.039375</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0414376</v>
+        <v>0.0423029</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0491421</v>
+        <v>0.0498394</v>
       </c>
       <c r="D67" t="n">
-        <v>0.150718</v>
+        <v>0.155984</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0364174</v>
+        <v>0.034438</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0398166</v>
+        <v>0.0400249</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0415466</v>
+        <v>0.0425763</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0502812</v>
+        <v>0.0512266</v>
       </c>
       <c r="D68" t="n">
-        <v>0.159804</v>
+        <v>0.164082</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0373123</v>
+        <v>0.0351043</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0403752</v>
+        <v>0.0406729</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0427545</v>
+        <v>0.0431667</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0515332</v>
+        <v>0.0524989</v>
       </c>
       <c r="D69" t="n">
-        <v>0.167316</v>
+        <v>0.173013</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0374685</v>
+        <v>0.035245</v>
       </c>
       <c r="F69" t="n">
-        <v>0.041068</v>
+        <v>0.0412813</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0438375</v>
+        <v>0.0441662</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0529243</v>
+        <v>0.0538843</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1757</v>
+        <v>0.182083</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0380765</v>
+        <v>0.0356218</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0418556</v>
+        <v>0.0421463</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0447457</v>
+        <v>0.0456454</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0546494</v>
+        <v>0.0557723</v>
       </c>
       <c r="D71" t="n">
-        <v>0.186564</v>
+        <v>0.190809</v>
       </c>
       <c r="E71" t="n">
-        <v>0.038277</v>
+        <v>0.0363583</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0427678</v>
+        <v>0.0426735</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0465875</v>
+        <v>0.0478108</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0565117</v>
+        <v>0.0576145</v>
       </c>
       <c r="D72" t="n">
-        <v>0.195288</v>
+        <v>0.20115</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0390725</v>
+        <v>0.0371725</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0437411</v>
+        <v>0.0438806</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0487039</v>
+        <v>0.0495266</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0588623</v>
+        <v>0.0604952</v>
       </c>
       <c r="D73" t="n">
-        <v>0.205365</v>
+        <v>0.21138</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0400036</v>
+        <v>0.0382287</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0449261</v>
+        <v>0.0452455</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0520753</v>
+        <v>0.0536806</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0624328</v>
+        <v>0.064945</v>
       </c>
       <c r="D74" t="n">
-        <v>0.218169</v>
+        <v>0.222343</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0416114</v>
+        <v>0.0399366</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0464135</v>
+        <v>0.0469611</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0569391</v>
+        <v>0.0586886</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0670834</v>
+        <v>0.0703216</v>
       </c>
       <c r="D75" t="n">
-        <v>0.229984</v>
+        <v>0.234424</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0433291</v>
+        <v>0.0416594</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0485174</v>
+        <v>0.0495108</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06397650000000001</v>
+        <v>0.0658033</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0742197</v>
+        <v>0.07844139999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.243705</v>
+        <v>0.24828</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0462011</v>
+        <v>0.0456134</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0516805</v>
+        <v>0.0531196</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07450950000000001</v>
+        <v>0.07595979999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0849097</v>
+        <v>0.0905482</v>
       </c>
       <c r="D77" t="n">
-        <v>0.258112</v>
+        <v>0.263596</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0506718</v>
+        <v>0.0506382</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0560539</v>
+        <v>0.0585922</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.089892</v>
+        <v>0.09355810000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.100992</v>
+        <v>0.111138</v>
       </c>
       <c r="D78" t="n">
-        <v>0.215857</v>
+        <v>0.225269</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0579662</v>
+        <v>0.0579285</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0627697</v>
+        <v>0.06718540000000001</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115959</v>
+        <v>0.120357</v>
       </c>
       <c r="C79" t="n">
-        <v>0.130227</v>
+        <v>0.141162</v>
       </c>
       <c r="D79" t="n">
-        <v>0.229534</v>
+        <v>0.238432</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06938370000000001</v>
+        <v>0.0711835</v>
       </c>
       <c r="F79" t="n">
-        <v>0.07363989999999999</v>
+        <v>0.0812194</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154326</v>
+        <v>0.157239</v>
       </c>
       <c r="C80" t="n">
-        <v>0.174744</v>
+        <v>0.182488</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242112</v>
+        <v>0.249653</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0403104</v>
+        <v>0.038693</v>
       </c>
       <c r="F80" t="n">
-        <v>0.044144</v>
+        <v>0.0454038</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0464333</v>
+        <v>0.0481092</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0578006</v>
+        <v>0.063445</v>
       </c>
       <c r="D81" t="n">
-        <v>0.254802</v>
+        <v>0.262948</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0406039</v>
+        <v>0.0393073</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0447204</v>
+        <v>0.0465133</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0473609</v>
+        <v>0.0489723</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0601376</v>
+        <v>0.06659080000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268068</v>
+        <v>0.276961</v>
       </c>
       <c r="E82" t="n">
-        <v>0.041259</v>
+        <v>0.0398342</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0456256</v>
+        <v>0.0477815</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0482196</v>
+        <v>0.0504364</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06294039999999999</v>
+        <v>0.0713965</v>
       </c>
       <c r="D83" t="n">
-        <v>0.281514</v>
+        <v>0.290859</v>
       </c>
       <c r="E83" t="n">
-        <v>0.041601</v>
+        <v>0.0405097</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0465473</v>
+        <v>0.0492931</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0493914</v>
+        <v>0.0524815</v>
       </c>
       <c r="C84" t="n">
-        <v>0.066687</v>
+        <v>0.07651280000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.29567</v>
+        <v>0.305674</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0422559</v>
+        <v>0.0413577</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0476507</v>
+        <v>0.051464</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0509904</v>
+        <v>0.0550941</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0720663</v>
+        <v>0.0825795</v>
       </c>
       <c r="D85" t="n">
-        <v>0.309627</v>
+        <v>0.319758</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0429007</v>
+        <v>0.0422483</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0486179</v>
+        <v>0.0538354</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0528862</v>
+        <v>0.0585427</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0787018</v>
+        <v>0.0896893</v>
       </c>
       <c r="D86" t="n">
-        <v>0.323668</v>
+        <v>0.335478</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0437373</v>
+        <v>0.0439076</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0506193</v>
+        <v>0.0571787</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0556636</v>
+        <v>0.06304899999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0869771</v>
+        <v>0.0978584</v>
       </c>
       <c r="D87" t="n">
-        <v>0.338449</v>
+        <v>0.350569</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0445917</v>
+        <v>0.0457948</v>
       </c>
       <c r="F87" t="n">
-        <v>0.052952</v>
+        <v>0.0612148</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0596999</v>
+        <v>0.06823650000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0963054</v>
+        <v>0.105757</v>
       </c>
       <c r="D88" t="n">
-        <v>0.353809</v>
+        <v>0.366898</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0466051</v>
+        <v>0.0488659</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0571364</v>
+        <v>0.0661123</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06543889999999999</v>
+        <v>0.0758249</v>
       </c>
       <c r="C89" t="n">
-        <v>0.108917</v>
+        <v>0.116571</v>
       </c>
       <c r="D89" t="n">
-        <v>0.369749</v>
+        <v>0.383452</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0488325</v>
+        <v>0.052251</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0616428</v>
+        <v>0.07252500000000001</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0738572</v>
+        <v>0.0847825</v>
       </c>
       <c r="C90" t="n">
-        <v>0.126103</v>
+        <v>0.128559</v>
       </c>
       <c r="D90" t="n">
-        <v>0.386692</v>
+        <v>0.401448</v>
       </c>
       <c r="E90" t="n">
-        <v>0.052304</v>
+        <v>0.0571361</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0693603</v>
+        <v>0.0791704</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0858541</v>
+        <v>0.0968099</v>
       </c>
       <c r="C91" t="n">
-        <v>0.144286</v>
+        <v>0.144081</v>
       </c>
       <c r="D91" t="n">
-        <v>0.404023</v>
+        <v>0.419871</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0579153</v>
+        <v>0.0636256</v>
       </c>
       <c r="F91" t="n">
-        <v>0.07829270000000001</v>
+        <v>0.0876965</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.102878</v>
+        <v>0.113546</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168732</v>
+        <v>0.16548</v>
       </c>
       <c r="D92" t="n">
-        <v>0.326915</v>
+        <v>0.34164</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0658521</v>
+        <v>0.0718241</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09185400000000001</v>
+        <v>0.0996103</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.12785</v>
+        <v>0.136879</v>
       </c>
       <c r="C93" t="n">
-        <v>0.199856</v>
+        <v>0.196598</v>
       </c>
       <c r="D93" t="n">
-        <v>0.337202</v>
+        <v>0.352882</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0791497</v>
+        <v>0.08616219999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>0.109599</v>
+        <v>0.11546</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.164548</v>
+        <v>0.171694</v>
       </c>
       <c r="C94" t="n">
-        <v>0.24035</v>
+        <v>0.242933</v>
       </c>
       <c r="D94" t="n">
-        <v>0.348645</v>
+        <v>0.364869</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0447062</v>
+        <v>0.0483018</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0564028</v>
+        <v>0.0652848</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0584564</v>
+        <v>0.0673874</v>
       </c>
       <c r="C95" t="n">
-        <v>0.103172</v>
+        <v>0.101742</v>
       </c>
       <c r="D95" t="n">
-        <v>0.360317</v>
+        <v>0.377035</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0456958</v>
+        <v>0.0503454</v>
       </c>
       <c r="F95" t="n">
-        <v>0.059737</v>
+        <v>0.0679044</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0619939</v>
+        <v>0.0706572</v>
       </c>
       <c r="C96" t="n">
-        <v>0.111605</v>
+        <v>0.106226</v>
       </c>
       <c r="D96" t="n">
-        <v>0.372257</v>
+        <v>0.389464</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0471555</v>
+        <v>0.0511997</v>
       </c>
       <c r="F96" t="n">
-        <v>0.063925</v>
+        <v>0.0712753</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0661313</v>
+        <v>0.07313310000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.120368</v>
+        <v>0.111929</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3846</v>
+        <v>0.402743</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0491905</v>
+        <v>0.0529652</v>
       </c>
       <c r="F97" t="n">
-        <v>0.069665</v>
+        <v>0.0742181</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07056030000000001</v>
+        <v>0.0754565</v>
       </c>
       <c r="C98" t="n">
-        <v>0.128498</v>
+        <v>0.118036</v>
       </c>
       <c r="D98" t="n">
-        <v>0.397047</v>
+        <v>0.415722</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0516066</v>
+        <v>0.0545375</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0748896</v>
+        <v>0.07693170000000001</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0761266</v>
+        <v>0.0784922</v>
       </c>
       <c r="C99" t="n">
-        <v>0.136508</v>
+        <v>0.125153</v>
       </c>
       <c r="D99" t="n">
-        <v>0.410486</v>
+        <v>0.430163</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0544793</v>
+        <v>0.0568463</v>
       </c>
       <c r="F99" t="n">
-        <v>0.081747</v>
+        <v>0.08001419999999999</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0817238</v>
+        <v>0.0819257</v>
       </c>
       <c r="C100" t="n">
-        <v>0.144088</v>
+        <v>0.133306</v>
       </c>
       <c r="D100" t="n">
-        <v>0.42424</v>
+        <v>0.445079</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0575681</v>
+        <v>0.0589005</v>
       </c>
       <c r="F100" t="n">
-        <v>0.087991</v>
+        <v>0.0833014</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0881753</v>
+        <v>0.08617420000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151962</v>
+        <v>0.142775</v>
       </c>
       <c r="D101" t="n">
-        <v>0.438674</v>
+        <v>0.460681</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0613291</v>
+        <v>0.0598962</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0949387</v>
+        <v>0.087143</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0949363</v>
+        <v>0.0910044</v>
       </c>
       <c r="C102" t="n">
-        <v>0.160067</v>
+        <v>0.154369</v>
       </c>
       <c r="D102" t="n">
-        <v>0.453978</v>
+        <v>0.477018</v>
       </c>
       <c r="E102" t="n">
-        <v>0.065688</v>
+        <v>0.0624398</v>
       </c>
       <c r="F102" t="n">
-        <v>0.102133</v>
+        <v>0.0922703</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.103065</v>
+        <v>0.09749049999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.169779</v>
+        <v>0.165835</v>
       </c>
       <c r="D103" t="n">
-        <v>0.469623</v>
+        <v>0.493795</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0703787</v>
+        <v>0.066625</v>
       </c>
       <c r="F103" t="n">
-        <v>0.10866</v>
+        <v>0.09749960000000001</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.112236</v>
+        <v>0.106062</v>
       </c>
       <c r="C104" t="n">
-        <v>0.181209</v>
+        <v>0.179808</v>
       </c>
       <c r="D104" t="n">
-        <v>0.486248</v>
+        <v>0.5118279999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07614020000000001</v>
+        <v>0.07025869999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>0.116684</v>
+        <v>0.105676</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.123006</v>
+        <v>0.118141</v>
       </c>
       <c r="C105" t="n">
-        <v>0.19612</v>
+        <v>0.196604</v>
       </c>
       <c r="D105" t="n">
-        <v>0.503905</v>
+        <v>0.529224</v>
       </c>
       <c r="E105" t="n">
-        <v>0.08289680000000001</v>
+        <v>0.0749152</v>
       </c>
       <c r="F105" t="n">
-        <v>0.124505</v>
+        <v>0.116195</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.137296</v>
+        <v>0.133821</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215588</v>
+        <v>0.217172</v>
       </c>
       <c r="D106" t="n">
-        <v>0.52157</v>
+        <v>0.548816</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0917813</v>
+        <v>0.083785</v>
       </c>
       <c r="F106" t="n">
-        <v>0.136028</v>
+        <v>0.130092</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.157859</v>
+        <v>0.156917</v>
       </c>
       <c r="C107" t="n">
-        <v>0.241938</v>
+        <v>0.245764</v>
       </c>
       <c r="D107" t="n">
-        <v>0.393938</v>
+        <v>0.414495</v>
       </c>
       <c r="E107" t="n">
-        <v>0.104007</v>
+        <v>0.09731380000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>0.151658</v>
+        <v>0.149477</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.186804</v>
+        <v>0.188709</v>
       </c>
       <c r="C108" t="n">
-        <v>0.280573</v>
+        <v>0.286606</v>
       </c>
       <c r="D108" t="n">
-        <v>0.404297</v>
+        <v>0.425665</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0637368</v>
+        <v>0.0563103</v>
       </c>
       <c r="F108" t="n">
-        <v>0.09146799999999999</v>
+        <v>0.0795609</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231993</v>
+        <v>0.235798</v>
       </c>
       <c r="C109" t="n">
-        <v>0.343149</v>
+        <v>0.351535</v>
       </c>
       <c r="D109" t="n">
-        <v>0.415222</v>
+        <v>0.437425</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0659868</v>
+        <v>0.0574656</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0948302</v>
+        <v>0.0829708</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0910526</v>
+        <v>0.0800343</v>
       </c>
       <c r="C110" t="n">
-        <v>0.144661</v>
+        <v>0.142263</v>
       </c>
       <c r="D110" t="n">
-        <v>0.426523</v>
+        <v>0.44859</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0679192</v>
+        <v>0.0574478</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0980943</v>
+        <v>0.0876767</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0941654</v>
+        <v>0.083773</v>
       </c>
       <c r="C111" t="n">
-        <v>0.14934</v>
+        <v>0.147624</v>
       </c>
       <c r="D111" t="n">
-        <v>0.437933</v>
+        <v>0.461078</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06953910000000001</v>
+        <v>0.0606904</v>
       </c>
       <c r="F111" t="n">
-        <v>0.10088</v>
+        <v>0.09234829999999999</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0966632</v>
+        <v>0.0864839</v>
       </c>
       <c r="C112" t="n">
-        <v>0.154266</v>
+        <v>0.153493</v>
       </c>
       <c r="D112" t="n">
-        <v>0.449711</v>
+        <v>0.474372</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0715128</v>
+        <v>0.0603656</v>
       </c>
       <c r="F112" t="n">
-        <v>0.104096</v>
+        <v>0.0968841</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0997995</v>
+        <v>0.090811</v>
       </c>
       <c r="C113" t="n">
-        <v>0.159087</v>
+        <v>0.15907</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4624</v>
+        <v>0.482017</v>
       </c>
       <c r="E113" t="n">
-        <v>0.07362</v>
+        <v>0.0631266</v>
       </c>
       <c r="F113" t="n">
-        <v>0.107769</v>
+        <v>0.101702</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103413</v>
+        <v>0.096891</v>
       </c>
       <c r="C114" t="n">
-        <v>0.164692</v>
+        <v>0.165176</v>
       </c>
       <c r="D114" t="n">
-        <v>0.475979</v>
+        <v>0.497791</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07595159999999999</v>
+        <v>0.0663101</v>
       </c>
       <c r="F114" t="n">
-        <v>0.111399</v>
+        <v>0.104827</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107159</v>
+        <v>0.102258</v>
       </c>
       <c r="C115" t="n">
-        <v>0.171027</v>
+        <v>0.170848</v>
       </c>
       <c r="D115" t="n">
-        <v>0.489796</v>
+        <v>0.515556</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0784842</v>
+        <v>0.0679102</v>
       </c>
       <c r="F115" t="n">
-        <v>0.115237</v>
+        <v>0.112576</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.111899</v>
+        <v>0.108869</v>
       </c>
       <c r="C116" t="n">
-        <v>0.178311</v>
+        <v>0.180011</v>
       </c>
       <c r="D116" t="n">
-        <v>0.504901</v>
+        <v>0.532438</v>
       </c>
       <c r="E116" t="n">
-        <v>0.081293</v>
+        <v>0.0731111</v>
       </c>
       <c r="F116" t="n">
-        <v>0.119741</v>
+        <v>0.118475</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.117909</v>
+        <v>0.116259</v>
       </c>
       <c r="C117" t="n">
-        <v>0.187014</v>
+        <v>0.189332</v>
       </c>
       <c r="D117" t="n">
-        <v>0.520794</v>
+        <v>0.54984</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0845253</v>
+        <v>0.0777439</v>
       </c>
       <c r="F117" t="n">
-        <v>0.124623</v>
+        <v>0.123862</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.125225</v>
+        <v>0.123472</v>
       </c>
       <c r="C118" t="n">
-        <v>0.19831</v>
+        <v>0.20039</v>
       </c>
       <c r="D118" t="n">
-        <v>0.537257</v>
+        <v>0.567296</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0887037</v>
+        <v>0.08291129999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>0.130703</v>
+        <v>0.131339</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.134649</v>
+        <v>0.13582</v>
       </c>
       <c r="C119" t="n">
-        <v>0.21228</v>
+        <v>0.215034</v>
       </c>
       <c r="D119" t="n">
-        <v>0.554295</v>
+        <v>0.57942</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0939972</v>
+        <v>0.0897329</v>
       </c>
       <c r="F119" t="n">
-        <v>0.138844</v>
+        <v>0.139372</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147581</v>
+        <v>0.149844</v>
       </c>
       <c r="C120" t="n">
-        <v>0.230887</v>
+        <v>0.234594</v>
       </c>
       <c r="D120" t="n">
-        <v>0.572026</v>
+        <v>0.604873</v>
       </c>
       <c r="E120" t="n">
-        <v>0.101228</v>
+        <v>0.0980666</v>
       </c>
       <c r="F120" t="n">
-        <v>0.149152</v>
+        <v>0.150828</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165587</v>
+        <v>0.167731</v>
       </c>
       <c r="C121" t="n">
-        <v>0.256947</v>
+        <v>0.262661</v>
       </c>
       <c r="D121" t="n">
-        <v>0.423973</v>
+        <v>0.447241</v>
       </c>
       <c r="E121" t="n">
-        <v>0.112154</v>
+        <v>0.1105</v>
       </c>
       <c r="F121" t="n">
-        <v>0.163749</v>
+        <v>0.16631</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192095</v>
+        <v>0.197687</v>
       </c>
       <c r="C122" t="n">
-        <v>0.295798</v>
+        <v>0.30227</v>
       </c>
       <c r="D122" t="n">
-        <v>0.434961</v>
+        <v>0.457704</v>
       </c>
       <c r="E122" t="n">
-        <v>0.129054</v>
+        <v>0.129191</v>
       </c>
       <c r="F122" t="n">
-        <v>0.186407</v>
+        <v>0.191299</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232859</v>
+        <v>0.239969</v>
       </c>
       <c r="C123" t="n">
-        <v>0.356172</v>
+        <v>0.365125</v>
       </c>
       <c r="D123" t="n">
-        <v>0.445413</v>
+        <v>0.465121</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0784513</v>
+        <v>0.0727473</v>
       </c>
       <c r="F123" t="n">
-        <v>0.10913</v>
+        <v>0.107684</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103938</v>
+        <v>0.103004</v>
       </c>
       <c r="C124" t="n">
-        <v>0.161659</v>
+        <v>0.167366</v>
       </c>
       <c r="D124" t="n">
-        <v>0.456695</v>
+        <v>0.481049</v>
       </c>
       <c r="E124" t="n">
-        <v>0.07866570000000001</v>
+        <v>0.0799291</v>
       </c>
       <c r="F124" t="n">
-        <v>0.112968</v>
+        <v>0.116105</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104444</v>
+        <v>0.10706</v>
       </c>
       <c r="C125" t="n">
-        <v>0.166333</v>
+        <v>0.172854</v>
       </c>
       <c r="D125" t="n">
-        <v>0.468612</v>
+        <v>0.493346</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0814255</v>
+        <v>0.0810043</v>
       </c>
       <c r="F125" t="n">
-        <v>0.117117</v>
+        <v>0.116842</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.106419</v>
+        <v>0.113055</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170808</v>
+        <v>0.171286</v>
       </c>
       <c r="D126" t="n">
-        <v>0.480655</v>
+        <v>0.505557</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0832025</v>
+        <v>0.0856947</v>
       </c>
       <c r="F126" t="n">
-        <v>0.119168</v>
+        <v>0.127396</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110553</v>
+        <v>0.110476</v>
       </c>
       <c r="C127" t="n">
-        <v>0.176887</v>
+        <v>0.177591</v>
       </c>
       <c r="D127" t="n">
-        <v>0.493959</v>
+        <v>0.5189550000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0891453</v>
+        <v>0.0839761</v>
       </c>
       <c r="F127" t="n">
-        <v>0.126181</v>
+        <v>0.12409</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114237</v>
+        <v>0.115156</v>
       </c>
       <c r="C128" t="n">
-        <v>0.181481</v>
+        <v>0.184118</v>
       </c>
       <c r="D128" t="n">
-        <v>0.506847</v>
+        <v>0.533032</v>
       </c>
       <c r="E128" t="n">
-        <v>0.08769399999999999</v>
+        <v>0.0873115</v>
       </c>
       <c r="F128" t="n">
-        <v>0.126581</v>
+        <v>0.136392</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116302</v>
+        <v>0.120283</v>
       </c>
       <c r="C129" t="n">
-        <v>0.188896</v>
+        <v>0.196205</v>
       </c>
       <c r="D129" t="n">
-        <v>0.520573</v>
+        <v>0.548214</v>
       </c>
       <c r="E129" t="n">
-        <v>0.089194</v>
+        <v>0.0913173</v>
       </c>
       <c r="F129" t="n">
-        <v>0.129316</v>
+        <v>0.13183</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120297</v>
+        <v>0.121092</v>
       </c>
       <c r="C130" t="n">
-        <v>0.196608</v>
+        <v>0.193148</v>
       </c>
       <c r="D130" t="n">
-        <v>0.535771</v>
+        <v>0.564866</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0930034</v>
+        <v>0.09114360000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>0.136251</v>
+        <v>0.136144</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.124564</v>
+        <v>0.127887</v>
       </c>
       <c r="C131" t="n">
-        <v>0.203972</v>
+        <v>0.21341</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5513749999999999</v>
+        <v>0.578761</v>
       </c>
       <c r="E131" t="n">
-        <v>0.094294</v>
+        <v>0.0965675</v>
       </c>
       <c r="F131" t="n">
-        <v>0.139478</v>
+        <v>0.147035</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132005</v>
+        <v>0.131981</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214277</v>
+        <v>0.22041</v>
       </c>
       <c r="D132" t="n">
-        <v>0.567904</v>
+        <v>0.59946</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0980226</v>
+        <v>0.095037</v>
       </c>
       <c r="F132" t="n">
-        <v>0.146054</v>
+        <v>0.14843</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.144206</v>
+        <v>0.144595</v>
       </c>
       <c r="C133" t="n">
-        <v>0.225749</v>
+        <v>0.227724</v>
       </c>
       <c r="D133" t="n">
-        <v>0.585082</v>
+        <v>0.614191</v>
       </c>
       <c r="E133" t="n">
-        <v>0.103242</v>
+        <v>0.0966217</v>
       </c>
       <c r="F133" t="n">
-        <v>0.154249</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155073</v>
+        <v>0.158813</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244481</v>
+        <v>0.243566</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6032149999999999</v>
+        <v>0.635732</v>
       </c>
       <c r="E134" t="n">
-        <v>0.108915</v>
+        <v>0.112257</v>
       </c>
       <c r="F134" t="n">
-        <v>0.164364</v>
+        <v>0.168498</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.170582</v>
+        <v>0.1774</v>
       </c>
       <c r="C135" t="n">
-        <v>0.269712</v>
+        <v>0.271435</v>
       </c>
       <c r="D135" t="n">
-        <v>0.442517</v>
+        <v>0.462856</v>
       </c>
       <c r="E135" t="n">
-        <v>0.121259</v>
+        <v>0.118673</v>
       </c>
       <c r="F135" t="n">
-        <v>0.179292</v>
+        <v>0.180398</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.196245</v>
+        <v>0.200979</v>
       </c>
       <c r="C136" t="n">
-        <v>0.306647</v>
+        <v>0.311987</v>
       </c>
       <c r="D136" t="n">
-        <v>0.452818</v>
+        <v>0.476079</v>
       </c>
       <c r="E136" t="n">
-        <v>0.135401</v>
+        <v>0.135705</v>
       </c>
       <c r="F136" t="n">
-        <v>0.198377</v>
+        <v>0.202783</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235341</v>
+        <v>0.242015</v>
       </c>
       <c r="C137" t="n">
-        <v>0.364113</v>
+        <v>0.372848</v>
       </c>
       <c r="D137" t="n">
-        <v>0.463818</v>
+        <v>0.487087</v>
       </c>
       <c r="E137" t="n">
-        <v>0.150176</v>
+        <v>0.146795</v>
       </c>
       <c r="F137" t="n">
-        <v>0.181548</v>
+        <v>0.178067</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.166288</v>
+        <v>0.174126</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225169</v>
+        <v>0.233366</v>
       </c>
       <c r="D138" t="n">
-        <v>0.475131</v>
+        <v>0.498987</v>
       </c>
       <c r="E138" t="n">
-        <v>0.151716</v>
+        <v>0.14772</v>
       </c>
       <c r="F138" t="n">
-        <v>0.184715</v>
+        <v>0.190218</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.168209</v>
+        <v>0.172728</v>
       </c>
       <c r="C139" t="n">
-        <v>0.228987</v>
+        <v>0.238105</v>
       </c>
       <c r="D139" t="n">
-        <v>0.486794</v>
+        <v>0.511281</v>
       </c>
       <c r="E139" t="n">
-        <v>0.152488</v>
+        <v>0.158626</v>
       </c>
       <c r="F139" t="n">
-        <v>0.187387</v>
+        <v>0.192459</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.16957</v>
+        <v>0.175427</v>
       </c>
       <c r="C140" t="n">
-        <v>0.234687</v>
+        <v>0.241194</v>
       </c>
       <c r="D140" t="n">
-        <v>0.498768</v>
+        <v>0.522837</v>
       </c>
       <c r="E140" t="n">
-        <v>0.153741</v>
+        <v>0.154444</v>
       </c>
       <c r="F140" t="n">
-        <v>0.191166</v>
+        <v>0.191885</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173634</v>
+        <v>0.179012</v>
       </c>
       <c r="C141" t="n">
-        <v>0.240385</v>
+        <v>0.239472</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5114030000000001</v>
+        <v>0.537536</v>
       </c>
       <c r="E141" t="n">
-        <v>0.154392</v>
+        <v>0.15874</v>
       </c>
       <c r="F141" t="n">
-        <v>0.194193</v>
+        <v>0.200088</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174028</v>
+        <v>0.181091</v>
       </c>
       <c r="C142" t="n">
-        <v>0.243114</v>
+        <v>0.253598</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5243100000000001</v>
+        <v>0.549712</v>
       </c>
       <c r="E142" t="n">
-        <v>0.157265</v>
+        <v>0.151777</v>
       </c>
       <c r="F142" t="n">
-        <v>0.197755</v>
+        <v>0.20242</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.17731</v>
+        <v>0.190552</v>
       </c>
       <c r="C143" t="n">
-        <v>0.249848</v>
+        <v>0.257765</v>
       </c>
       <c r="D143" t="n">
-        <v>0.538786</v>
+        <v>0.566893</v>
       </c>
       <c r="E143" t="n">
-        <v>0.158608</v>
+        <v>0.161818</v>
       </c>
       <c r="F143" t="n">
-        <v>0.201101</v>
+        <v>0.206175</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0337372</v>
+        <v>0.033878</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0352676</v>
+        <v>0.0351427</v>
       </c>
       <c r="D2" t="n">
-        <v>0.122917</v>
+        <v>0.121114</v>
       </c>
       <c r="E2" t="n">
-        <v>0.029003</v>
+        <v>0.0288545</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0286732</v>
+        <v>0.0286646</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0359376</v>
+        <v>0.0355877</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0368469</v>
+        <v>0.0367984</v>
       </c>
       <c r="D3" t="n">
-        <v>0.127338</v>
+        <v>0.1317</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0292209</v>
+        <v>0.0292073</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0298417</v>
+        <v>0.0292987</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0371417</v>
+        <v>0.0371805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0404234</v>
+        <v>0.0393213</v>
       </c>
       <c r="D4" t="n">
-        <v>0.136573</v>
+        <v>0.13953</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0303495</v>
+        <v>0.0302982</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0314415</v>
+        <v>0.030443</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0424072</v>
+        <v>0.0420755</v>
       </c>
       <c r="C5" t="n">
-        <v>0.044933</v>
+        <v>0.0438176</v>
       </c>
       <c r="D5" t="n">
-        <v>0.141531</v>
+        <v>0.144246</v>
       </c>
       <c r="E5" t="n">
-        <v>0.031272</v>
+        <v>0.031282</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0323275</v>
+        <v>0.0315806</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0567753</v>
+        <v>0.0571757</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0597932</v>
+        <v>0.058967</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14676</v>
+        <v>0.149537</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0338644</v>
+        <v>0.0337037</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0357996</v>
+        <v>0.0340225</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08407299999999999</v>
+        <v>0.08376740000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0761879</v>
+        <v>0.0763355</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0976808</v>
+        <v>0.0975019</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0399454</v>
+        <v>0.0397387</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04266</v>
+        <v>0.0410247</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.112877</v>
+        <v>0.112682</v>
       </c>
       <c r="C8" t="n">
-        <v>0.111364</v>
+        <v>0.11172</v>
       </c>
       <c r="D8" t="n">
-        <v>0.106162</v>
+        <v>0.104721</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0572596</v>
+        <v>0.0570178</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0587448</v>
+        <v>0.0577154</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.15459</v>
+        <v>0.154938</v>
       </c>
       <c r="C9" t="n">
-        <v>0.15837</v>
+        <v>0.158409</v>
       </c>
       <c r="D9" t="n">
-        <v>0.112519</v>
+        <v>0.111402</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0262738</v>
+        <v>0.0262816</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0267656</v>
+        <v>0.0263416</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0321999</v>
+        <v>0.0321241</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0335692</v>
+        <v>0.0328957</v>
       </c>
       <c r="D10" t="n">
-        <v>0.118978</v>
+        <v>0.11751</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0265294</v>
+        <v>0.0264806</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0271224</v>
+        <v>0.0265293</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0327605</v>
+        <v>0.0325111</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0345001</v>
+        <v>0.0335542</v>
       </c>
       <c r="D11" t="n">
-        <v>0.123811</v>
+        <v>0.122677</v>
       </c>
       <c r="E11" t="n">
-        <v>0.026889</v>
+        <v>0.0268457</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0275526</v>
+        <v>0.0268902</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0333089</v>
+        <v>0.0331969</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0352161</v>
+        <v>0.0344442</v>
       </c>
       <c r="D12" t="n">
-        <v>0.12888</v>
+        <v>0.128226</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0273647</v>
+        <v>0.0273223</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0280338</v>
+        <v>0.027383</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0339682</v>
+        <v>0.0338232</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0358035</v>
+        <v>0.0349492</v>
       </c>
       <c r="D13" t="n">
-        <v>0.133768</v>
+        <v>0.133217</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0277484</v>
+        <v>0.0277006</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0285607</v>
+        <v>0.0279523</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0348075</v>
+        <v>0.0348171</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0370958</v>
+        <v>0.0363357</v>
       </c>
       <c r="D14" t="n">
-        <v>0.137499</v>
+        <v>0.139395</v>
       </c>
       <c r="E14" t="n">
-        <v>0.028101</v>
+        <v>0.0280511</v>
       </c>
       <c r="F14" t="n">
-        <v>0.029108</v>
+        <v>0.0283407</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0356552</v>
+        <v>0.035708</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0383185</v>
+        <v>0.0376</v>
       </c>
       <c r="D15" t="n">
-        <v>0.14251</v>
+        <v>0.143573</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0285853</v>
+        <v>0.0285289</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0298757</v>
+        <v>0.0290998</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.037078</v>
+        <v>0.0370224</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0398039</v>
+        <v>0.0389576</v>
       </c>
       <c r="D16" t="n">
-        <v>0.145645</v>
+        <v>0.147894</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0293378</v>
+        <v>0.0293206</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0306977</v>
+        <v>0.0299017</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0401149</v>
+        <v>0.0400032</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0418107</v>
+        <v>0.0411975</v>
       </c>
       <c r="D17" t="n">
-        <v>0.151657</v>
+        <v>0.152175</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0304877</v>
+        <v>0.0303828</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0317941</v>
+        <v>0.0312022</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0433729</v>
+        <v>0.0433889</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0463153</v>
+        <v>0.0459435</v>
       </c>
       <c r="D18" t="n">
-        <v>0.155473</v>
+        <v>0.154315</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0315948</v>
+        <v>0.0315161</v>
       </c>
       <c r="F18" t="n">
-        <v>0.032936</v>
+        <v>0.0324366</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0504495</v>
+        <v>0.0505881</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0547574</v>
+        <v>0.0545235</v>
       </c>
       <c r="D19" t="n">
-        <v>0.160552</v>
+        <v>0.158644</v>
       </c>
       <c r="E19" t="n">
-        <v>0.033216</v>
+        <v>0.0331269</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0345994</v>
+        <v>0.0341776</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06612560000000001</v>
+        <v>0.0659829</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0678344</v>
+        <v>0.06781479999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.162152</v>
+        <v>0.163075</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0367592</v>
+        <v>0.0366408</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0386425</v>
+        <v>0.0383389</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0846765</v>
+        <v>0.08432240000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08506320000000001</v>
+        <v>0.0847677</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1159</v>
+        <v>0.11638</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0449365</v>
+        <v>0.0448715</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0465955</v>
+        <v>0.0462848</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.106491</v>
+        <v>0.106097</v>
       </c>
       <c r="C22" t="n">
-        <v>0.109693</v>
+        <v>0.109507</v>
       </c>
       <c r="D22" t="n">
-        <v>0.121095</v>
+        <v>0.121402</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0635293</v>
+        <v>0.063538</v>
       </c>
       <c r="F22" t="n">
-        <v>0.065285</v>
+        <v>0.0650971</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.150432</v>
+        <v>0.150493</v>
       </c>
       <c r="C23" t="n">
-        <v>0.146634</v>
+        <v>0.146832</v>
       </c>
       <c r="D23" t="n">
-        <v>0.125822</v>
+        <v>0.126022</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0263471</v>
+        <v>0.0263298</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0277048</v>
+        <v>0.0275881</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0333723</v>
+        <v>0.033419</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0364381</v>
+        <v>0.0363677</v>
       </c>
       <c r="D24" t="n">
-        <v>0.131002</v>
+        <v>0.131492</v>
       </c>
       <c r="E24" t="n">
-        <v>0.026629</v>
+        <v>0.0265996</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0280798</v>
+        <v>0.0279745</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0341786</v>
+        <v>0.0340853</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0372824</v>
+        <v>0.0371769</v>
       </c>
       <c r="D25" t="n">
-        <v>0.135756</v>
+        <v>0.135896</v>
       </c>
       <c r="E25" t="n">
-        <v>0.026863</v>
+        <v>0.0268271</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0285034</v>
+        <v>0.0282859</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0348745</v>
+        <v>0.0348049</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0384189</v>
+        <v>0.0384878</v>
       </c>
       <c r="D26" t="n">
-        <v>0.14023</v>
+        <v>0.140096</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0272166</v>
+        <v>0.0272133</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0288987</v>
+        <v>0.0287288</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0350987</v>
+        <v>0.035102</v>
       </c>
       <c r="C27" t="n">
-        <v>0.039061</v>
+        <v>0.0392444</v>
       </c>
       <c r="D27" t="n">
-        <v>0.145077</v>
+        <v>0.14519</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02773</v>
+        <v>0.0276924</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0294652</v>
+        <v>0.0292841</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0367333</v>
+        <v>0.0367942</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0402708</v>
+        <v>0.0404634</v>
       </c>
       <c r="D28" t="n">
-        <v>0.14931</v>
+        <v>0.149979</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0282227</v>
+        <v>0.0282208</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0301592</v>
+        <v>0.0300471</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0378026</v>
+        <v>0.0378455</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0420401</v>
+        <v>0.042402</v>
       </c>
       <c r="D29" t="n">
-        <v>0.154077</v>
+        <v>0.15404</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0290588</v>
+        <v>0.0291716</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0310155</v>
+        <v>0.0309174</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0403504</v>
+        <v>0.0404902</v>
       </c>
       <c r="C30" t="n">
-        <v>0.044351</v>
+        <v>0.0446268</v>
       </c>
       <c r="D30" t="n">
-        <v>0.157902</v>
+        <v>0.158109</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0297813</v>
+        <v>0.0297179</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0317311</v>
+        <v>0.0317001</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0436123</v>
+        <v>0.0436134</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0459534</v>
+        <v>0.0462623</v>
       </c>
       <c r="D31" t="n">
-        <v>0.163028</v>
+        <v>0.16289</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0308144</v>
+        <v>0.0309234</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0329825</v>
+        <v>0.0329234</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0483775</v>
+        <v>0.0483201</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0520167</v>
+        <v>0.0522096</v>
       </c>
       <c r="D32" t="n">
-        <v>0.166209</v>
+        <v>0.166915</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0321902</v>
+        <v>0.0320638</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0344642</v>
+        <v>0.034249</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0563126</v>
+        <v>0.0562721</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0590837</v>
+        <v>0.0592078</v>
       </c>
       <c r="D33" t="n">
-        <v>0.170813</v>
+        <v>0.171822</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0340703</v>
+        <v>0.0340269</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0364056</v>
+        <v>0.0363771</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06767960000000001</v>
+        <v>0.0677555</v>
       </c>
       <c r="C34" t="n">
-        <v>0.067898</v>
+        <v>0.06799520000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.176254</v>
+        <v>0.176667</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0381692</v>
+        <v>0.0380574</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0405765</v>
+        <v>0.0404567</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0814072</v>
+        <v>0.0815935</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0821177</v>
+        <v>0.0824162</v>
       </c>
       <c r="D35" t="n">
-        <v>0.119889</v>
+        <v>0.120056</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0459568</v>
+        <v>0.0460607</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0482301</v>
+        <v>0.0482702</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.104964</v>
+        <v>0.105499</v>
       </c>
       <c r="C36" t="n">
-        <v>0.105902</v>
+        <v>0.106562</v>
       </c>
       <c r="D36" t="n">
-        <v>0.124629</v>
+        <v>0.124986</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0590111</v>
+        <v>0.0591064</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0608736</v>
+        <v>0.0610625</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.138297</v>
+        <v>0.139199</v>
       </c>
       <c r="C37" t="n">
-        <v>0.139565</v>
+        <v>0.140966</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128928</v>
+        <v>0.129107</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0265473</v>
+        <v>0.0266383</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0285978</v>
+        <v>0.0284844</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0343834</v>
+        <v>0.0341843</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0379511</v>
+        <v>0.0378496</v>
       </c>
       <c r="D38" t="n">
-        <v>0.134085</v>
+        <v>0.134092</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0275911</v>
+        <v>0.0270357</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0291006</v>
+        <v>0.029005</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0346537</v>
+        <v>0.0344359</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0388999</v>
+        <v>0.0387059</v>
       </c>
       <c r="D39" t="n">
-        <v>0.139018</v>
+        <v>0.139002</v>
       </c>
       <c r="E39" t="n">
-        <v>0.027611</v>
+        <v>0.0273905</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0297512</v>
+        <v>0.0296503</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0357734</v>
+        <v>0.0355376</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0398868</v>
+        <v>0.0397216</v>
       </c>
       <c r="D40" t="n">
-        <v>0.142976</v>
+        <v>0.143181</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0279185</v>
+        <v>0.0277479</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0303047</v>
+        <v>0.0302869</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0365249</v>
+        <v>0.0363479</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0409971</v>
+        <v>0.0408291</v>
       </c>
       <c r="D41" t="n">
-        <v>0.147978</v>
+        <v>0.148036</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0284143</v>
+        <v>0.028296</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0310052</v>
+        <v>0.0310403</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0372309</v>
+        <v>0.0370782</v>
       </c>
       <c r="C42" t="n">
-        <v>0.042139</v>
+        <v>0.0419638</v>
       </c>
       <c r="D42" t="n">
-        <v>0.153073</v>
+        <v>0.153131</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0289492</v>
+        <v>0.0287221</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0317529</v>
+        <v>0.0317768</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0390937</v>
+        <v>0.0389589</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0435251</v>
+        <v>0.0433351</v>
       </c>
       <c r="D43" t="n">
-        <v>0.157357</v>
+        <v>0.157699</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0296832</v>
+        <v>0.029474</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0327833</v>
+        <v>0.0327521</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0406672</v>
+        <v>0.0404855</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0457034</v>
+        <v>0.0455071</v>
       </c>
       <c r="D44" t="n">
-        <v>0.161322</v>
+        <v>0.162009</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0305411</v>
+        <v>0.0304782</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0339308</v>
+        <v>0.0340432</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0441521</v>
+        <v>0.0441265</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0490005</v>
+        <v>0.0489543</v>
       </c>
       <c r="D45" t="n">
-        <v>0.165791</v>
+        <v>0.165803</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0316119</v>
+        <v>0.0315622</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0351569</v>
+        <v>0.0351874</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0487829</v>
+        <v>0.048848</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0529692</v>
+        <v>0.0528353</v>
       </c>
       <c r="D46" t="n">
-        <v>0.169549</v>
+        <v>0.169356</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0332705</v>
+        <v>0.0331414</v>
       </c>
       <c r="F46" t="n">
-        <v>0.036867</v>
+        <v>0.0368163</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0550271</v>
+        <v>0.054913</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0585504</v>
+        <v>0.0584191</v>
       </c>
       <c r="D47" t="n">
-        <v>0.173609</v>
+        <v>0.173754</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0355702</v>
+        <v>0.0355668</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0389744</v>
+        <v>0.0389591</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06470819999999999</v>
+        <v>0.06460109999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0674062</v>
+        <v>0.0673314</v>
       </c>
       <c r="D48" t="n">
-        <v>0.177993</v>
+        <v>0.178265</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0399023</v>
+        <v>0.0397405</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0431257</v>
+        <v>0.0430058</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0777002</v>
+        <v>0.0777167</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0796723</v>
+        <v>0.0798783</v>
       </c>
       <c r="D49" t="n">
-        <v>0.18184</v>
+        <v>0.181942</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0460253</v>
+        <v>0.0460603</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0489288</v>
+        <v>0.0489197</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09675159999999999</v>
+        <v>0.09709710000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09787419999999999</v>
+        <v>0.0983065</v>
       </c>
       <c r="D50" t="n">
-        <v>0.126699</v>
+        <v>0.126561</v>
       </c>
       <c r="E50" t="n">
-        <v>0.056016</v>
+        <v>0.0557095</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0579793</v>
+        <v>0.0581204</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.130557</v>
+        <v>0.1316</v>
       </c>
       <c r="C51" t="n">
-        <v>0.130848</v>
+        <v>0.132614</v>
       </c>
       <c r="D51" t="n">
-        <v>0.13173</v>
+        <v>0.131952</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0283875</v>
+        <v>0.0306794</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0315662</v>
+        <v>0.031953</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174016</v>
+        <v>0.174108</v>
       </c>
       <c r="C52" t="n">
-        <v>0.177569</v>
+        <v>0.177111</v>
       </c>
       <c r="D52" t="n">
-        <v>0.136043</v>
+        <v>0.136703</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0301779</v>
+        <v>0.0290254</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0331824</v>
+        <v>0.032204</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0371329</v>
+        <v>0.0363969</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0415975</v>
+        <v>0.0414943</v>
       </c>
       <c r="D53" t="n">
-        <v>0.141355</v>
+        <v>0.141686</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0290028</v>
+        <v>0.0311876</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0326031</v>
+        <v>0.0329666</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0372838</v>
+        <v>0.0373043</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0423789</v>
+        <v>0.0424425</v>
       </c>
       <c r="D54" t="n">
-        <v>0.145289</v>
+        <v>0.146461</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0293696</v>
+        <v>0.0315095</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0330648</v>
+        <v>0.0335551</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0382099</v>
+        <v>0.0381742</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0432888</v>
+        <v>0.04328</v>
       </c>
       <c r="D55" t="n">
-        <v>0.149894</v>
+        <v>0.150076</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0309466</v>
+        <v>0.0305066</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0352074</v>
+        <v>0.0352387</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0392989</v>
+        <v>0.0393684</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0443041</v>
+        <v>0.0442293</v>
       </c>
       <c r="D56" t="n">
-        <v>0.154731</v>
+        <v>0.154506</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0306802</v>
+        <v>0.0312917</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0359066</v>
+        <v>0.0359214</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0408117</v>
+        <v>0.0408295</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0457691</v>
+        <v>0.0458356</v>
       </c>
       <c r="D57" t="n">
-        <v>0.159284</v>
+        <v>0.158855</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0313313</v>
+        <v>0.0317296</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0366121</v>
+        <v>0.0365747</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0427305</v>
+        <v>0.0434936</v>
       </c>
       <c r="C58" t="n">
-        <v>0.047811</v>
+        <v>0.0476907</v>
       </c>
       <c r="D58" t="n">
-        <v>0.163475</v>
+        <v>0.163299</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0328967</v>
+        <v>0.0331558</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0378709</v>
+        <v>0.0367829</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0457896</v>
+        <v>0.0459412</v>
       </c>
       <c r="C59" t="n">
-        <v>0.051546</v>
+        <v>0.0510733</v>
       </c>
       <c r="D59" t="n">
-        <v>0.168636</v>
+        <v>0.167254</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0330128</v>
+        <v>0.0330438</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0386875</v>
+        <v>0.0388872</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0496039</v>
+        <v>0.0486547</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0536599</v>
+        <v>0.0535472</v>
       </c>
       <c r="D60" t="n">
-        <v>0.173072</v>
+        <v>0.173284</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0352174</v>
+        <v>0.0348048</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0405738</v>
+        <v>0.0392975</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0549464</v>
+        <v>0.0541192</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0601387</v>
+        <v>0.0593814</v>
       </c>
       <c r="D61" t="n">
-        <v>0.177408</v>
+        <v>0.177588</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0373999</v>
+        <v>0.038188</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0411436</v>
+        <v>0.041186</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06257840000000001</v>
+        <v>0.0631583</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0667104</v>
+        <v>0.0673594</v>
       </c>
       <c r="D62" t="n">
-        <v>0.182444</v>
+        <v>0.182754</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0410381</v>
+        <v>0.0417565</v>
       </c>
       <c r="F62" t="n">
-        <v>0.04489</v>
+        <v>0.044977</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0743996</v>
+        <v>0.0743955</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0777702</v>
+        <v>0.0777523</v>
       </c>
       <c r="D63" t="n">
-        <v>0.185137</v>
+        <v>0.187389</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0466707</v>
+        <v>0.0472942</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0507922</v>
+        <v>0.0510694</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09165230000000001</v>
+        <v>0.09150129999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0944501</v>
+        <v>0.0940502</v>
       </c>
       <c r="D64" t="n">
-        <v>0.137386</v>
+        <v>0.1344</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0556339</v>
+        <v>0.0555203</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0590602</v>
+        <v>0.0594264</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.120031</v>
+        <v>0.119719</v>
       </c>
       <c r="C65" t="n">
-        <v>0.122699</v>
+        <v>0.123206</v>
       </c>
       <c r="D65" t="n">
-        <v>0.139962</v>
+        <v>0.141141</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0712816</v>
+        <v>0.0717067</v>
       </c>
       <c r="F65" t="n">
-        <v>0.07399600000000001</v>
+        <v>0.0742693</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.162029</v>
+        <v>0.162472</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163673</v>
+        <v>0.166215</v>
       </c>
       <c r="D66" t="n">
-        <v>0.147451</v>
+        <v>0.147251</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0343149</v>
+        <v>0.0341939</v>
       </c>
       <c r="F66" t="n">
-        <v>0.039375</v>
+        <v>0.0391419</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0423029</v>
+        <v>0.0419659</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0498394</v>
+        <v>0.0503853</v>
       </c>
       <c r="D67" t="n">
-        <v>0.155984</v>
+        <v>0.15596</v>
       </c>
       <c r="E67" t="n">
-        <v>0.034438</v>
+        <v>0.0344121</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0400249</v>
+        <v>0.0397375</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0425763</v>
+        <v>0.0425368</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0512266</v>
+        <v>0.0515112</v>
       </c>
       <c r="D68" t="n">
-        <v>0.164082</v>
+        <v>0.162467</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0351043</v>
+        <v>0.0347654</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0406729</v>
+        <v>0.0403615</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0431667</v>
+        <v>0.0433578</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0524989</v>
+        <v>0.0530219</v>
       </c>
       <c r="D69" t="n">
-        <v>0.173013</v>
+        <v>0.170903</v>
       </c>
       <c r="E69" t="n">
-        <v>0.035245</v>
+        <v>0.0355507</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0412813</v>
+        <v>0.0409247</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0441662</v>
+        <v>0.0443914</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0538843</v>
+        <v>0.0543843</v>
       </c>
       <c r="D70" t="n">
-        <v>0.182083</v>
+        <v>0.180027</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0356218</v>
+        <v>0.0358617</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0421463</v>
+        <v>0.0418516</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0456454</v>
+        <v>0.0455264</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0557723</v>
+        <v>0.0563584</v>
       </c>
       <c r="D71" t="n">
-        <v>0.190809</v>
+        <v>0.18986</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0363583</v>
+        <v>0.0367181</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0426735</v>
+        <v>0.0430001</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0478108</v>
+        <v>0.0473068</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0576145</v>
+        <v>0.0583534</v>
       </c>
       <c r="D72" t="n">
-        <v>0.20115</v>
+        <v>0.200429</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0371725</v>
+        <v>0.037509</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0438806</v>
+        <v>0.0441908</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0495266</v>
+        <v>0.0497378</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0604952</v>
+        <v>0.0613971</v>
       </c>
       <c r="D73" t="n">
-        <v>0.21138</v>
+        <v>0.211606</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0382287</v>
+        <v>0.0385809</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0452455</v>
+        <v>0.0455233</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0536806</v>
+        <v>0.053687</v>
       </c>
       <c r="C74" t="n">
-        <v>0.064945</v>
+        <v>0.0657433</v>
       </c>
       <c r="D74" t="n">
-        <v>0.222343</v>
+        <v>0.223973</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0399366</v>
+        <v>0.0394542</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0469611</v>
+        <v>0.0469258</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0586886</v>
+        <v>0.0587073</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0703216</v>
+        <v>0.07165870000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.234424</v>
+        <v>0.234454</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0416594</v>
+        <v>0.0418309</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0495108</v>
+        <v>0.0496681</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0658033</v>
+        <v>0.0658646</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07844139999999999</v>
+        <v>0.0802411</v>
       </c>
       <c r="D76" t="n">
-        <v>0.24828</v>
+        <v>0.251001</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0456134</v>
+        <v>0.0451093</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0531196</v>
+        <v>0.0535359</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07595979999999999</v>
+        <v>0.07616920000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0905482</v>
+        <v>0.0927631</v>
       </c>
       <c r="D77" t="n">
-        <v>0.263596</v>
+        <v>0.265351</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0506382</v>
+        <v>0.0501592</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0585922</v>
+        <v>0.0580581</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09355810000000001</v>
+        <v>0.0929468</v>
       </c>
       <c r="C78" t="n">
-        <v>0.111138</v>
+        <v>0.111452</v>
       </c>
       <c r="D78" t="n">
-        <v>0.225269</v>
+        <v>0.226664</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0579285</v>
+        <v>0.0578864</v>
       </c>
       <c r="F78" t="n">
-        <v>0.06718540000000001</v>
+        <v>0.0669894</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.120357</v>
+        <v>0.119627</v>
       </c>
       <c r="C79" t="n">
-        <v>0.141162</v>
+        <v>0.141</v>
       </c>
       <c r="D79" t="n">
-        <v>0.238432</v>
+        <v>0.239582</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0711835</v>
+        <v>0.0712636</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0812194</v>
+        <v>0.081175</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.157239</v>
+        <v>0.15674</v>
       </c>
       <c r="C80" t="n">
-        <v>0.182488</v>
+        <v>0.18211</v>
       </c>
       <c r="D80" t="n">
-        <v>0.249653</v>
+        <v>0.252433</v>
       </c>
       <c r="E80" t="n">
-        <v>0.038693</v>
+        <v>0.0387536</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0454038</v>
+        <v>0.0458426</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0481092</v>
+        <v>0.0484586</v>
       </c>
       <c r="C81" t="n">
-        <v>0.063445</v>
+        <v>0.0634951</v>
       </c>
       <c r="D81" t="n">
-        <v>0.262948</v>
+        <v>0.26595</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0393073</v>
+        <v>0.0396216</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0465133</v>
+        <v>0.0466377</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0489723</v>
+        <v>0.0495142</v>
       </c>
       <c r="C82" t="n">
-        <v>0.06659080000000001</v>
+        <v>0.0673209</v>
       </c>
       <c r="D82" t="n">
-        <v>0.276961</v>
+        <v>0.278178</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0398342</v>
+        <v>0.0402223</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0477815</v>
+        <v>0.047881</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0504364</v>
+        <v>0.0510157</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0713965</v>
+        <v>0.0716724</v>
       </c>
       <c r="D83" t="n">
-        <v>0.290859</v>
+        <v>0.291742</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0405097</v>
+        <v>0.040945</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0492931</v>
+        <v>0.0495703</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0524815</v>
+        <v>0.0528864</v>
       </c>
       <c r="C84" t="n">
-        <v>0.07651280000000001</v>
+        <v>0.07696989999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.305674</v>
+        <v>0.306309</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0413577</v>
+        <v>0.0417367</v>
       </c>
       <c r="F84" t="n">
-        <v>0.051464</v>
+        <v>0.0514506</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0550941</v>
+        <v>0.0560788</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0825795</v>
+        <v>0.08232680000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.319758</v>
+        <v>0.321051</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0422483</v>
+        <v>0.0427965</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0538354</v>
+        <v>0.0547503</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0585427</v>
+        <v>0.0593393</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0896893</v>
+        <v>0.0893436</v>
       </c>
       <c r="D86" t="n">
-        <v>0.335478</v>
+        <v>0.336644</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0439076</v>
+        <v>0.0445347</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0571787</v>
+        <v>0.0581469</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.06304899999999999</v>
+        <v>0.06354319999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0978584</v>
+        <v>0.0967503</v>
       </c>
       <c r="D87" t="n">
-        <v>0.350569</v>
+        <v>0.352154</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0457948</v>
+        <v>0.0463577</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0612148</v>
+        <v>0.0608507</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06823650000000001</v>
+        <v>0.06850009999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.105757</v>
+        <v>0.104873</v>
       </c>
       <c r="D88" t="n">
-        <v>0.366898</v>
+        <v>0.367813</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0488659</v>
+        <v>0.0490138</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0661123</v>
+        <v>0.0654711</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0758249</v>
+        <v>0.0759642</v>
       </c>
       <c r="C89" t="n">
-        <v>0.116571</v>
+        <v>0.115256</v>
       </c>
       <c r="D89" t="n">
-        <v>0.383452</v>
+        <v>0.384836</v>
       </c>
       <c r="E89" t="n">
-        <v>0.052251</v>
+        <v>0.0526291</v>
       </c>
       <c r="F89" t="n">
-        <v>0.07252500000000001</v>
+        <v>0.0717309</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0847825</v>
+        <v>0.0850467</v>
       </c>
       <c r="C90" t="n">
-        <v>0.128559</v>
+        <v>0.128806</v>
       </c>
       <c r="D90" t="n">
-        <v>0.401448</v>
+        <v>0.404264</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0571361</v>
+        <v>0.0575578</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0791704</v>
+        <v>0.0788181</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0968099</v>
+        <v>0.09898460000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.144081</v>
+        <v>0.145235</v>
       </c>
       <c r="D91" t="n">
-        <v>0.419871</v>
+        <v>0.421755</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0636256</v>
+        <v>0.06337669999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0876965</v>
+        <v>0.0881417</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.113546</v>
+        <v>0.113024</v>
       </c>
       <c r="C92" t="n">
-        <v>0.16548</v>
+        <v>0.167082</v>
       </c>
       <c r="D92" t="n">
-        <v>0.34164</v>
+        <v>0.341435</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0718241</v>
+        <v>0.0724206</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0996103</v>
+        <v>0.0994886</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.136879</v>
+        <v>0.136348</v>
       </c>
       <c r="C93" t="n">
-        <v>0.196598</v>
+        <v>0.197895</v>
       </c>
       <c r="D93" t="n">
-        <v>0.352882</v>
+        <v>0.353042</v>
       </c>
       <c r="E93" t="n">
-        <v>0.08616219999999999</v>
+        <v>0.0866499</v>
       </c>
       <c r="F93" t="n">
-        <v>0.11546</v>
+        <v>0.115959</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.171694</v>
+        <v>0.171154</v>
       </c>
       <c r="C94" t="n">
-        <v>0.242933</v>
+        <v>0.243885</v>
       </c>
       <c r="D94" t="n">
-        <v>0.364869</v>
+        <v>0.364658</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0483018</v>
+        <v>0.0483145</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0652848</v>
+        <v>0.06438389999999999</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0673874</v>
+        <v>0.0668969</v>
       </c>
       <c r="C95" t="n">
-        <v>0.101742</v>
+        <v>0.101198</v>
       </c>
       <c r="D95" t="n">
-        <v>0.377035</v>
+        <v>0.376678</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0503454</v>
+        <v>0.0500044</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0679044</v>
+        <v>0.0676517</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0706572</v>
+        <v>0.07054100000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.106226</v>
+        <v>0.106399</v>
       </c>
       <c r="D96" t="n">
-        <v>0.389464</v>
+        <v>0.389605</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0511997</v>
+        <v>0.0520923</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0712753</v>
+        <v>0.0707589</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07313310000000001</v>
+        <v>0.0732447</v>
       </c>
       <c r="C97" t="n">
-        <v>0.111929</v>
+        <v>0.112129</v>
       </c>
       <c r="D97" t="n">
-        <v>0.402743</v>
+        <v>0.402824</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0529652</v>
+        <v>0.0541199</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0742181</v>
+        <v>0.0738814</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0754565</v>
+        <v>0.0765173</v>
       </c>
       <c r="C98" t="n">
-        <v>0.118036</v>
+        <v>0.118571</v>
       </c>
       <c r="D98" t="n">
-        <v>0.415722</v>
+        <v>0.416715</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0545375</v>
+        <v>0.0554623</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07693170000000001</v>
+        <v>0.0764504</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0784922</v>
+        <v>0.0796494</v>
       </c>
       <c r="C99" t="n">
-        <v>0.125153</v>
+        <v>0.12567</v>
       </c>
       <c r="D99" t="n">
-        <v>0.430163</v>
+        <v>0.430373</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0568463</v>
+        <v>0.0577266</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08001419999999999</v>
+        <v>0.08065460000000001</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0819257</v>
+        <v>0.0826133</v>
       </c>
       <c r="C100" t="n">
-        <v>0.133306</v>
+        <v>0.134017</v>
       </c>
       <c r="D100" t="n">
-        <v>0.445079</v>
+        <v>0.445125</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0589005</v>
+        <v>0.059926</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0833014</v>
+        <v>0.08361209999999999</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08617420000000001</v>
+        <v>0.08704729999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.142775</v>
+        <v>0.143297</v>
       </c>
       <c r="D101" t="n">
-        <v>0.460681</v>
+        <v>0.46028</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0598962</v>
+        <v>0.0621503</v>
       </c>
       <c r="F101" t="n">
-        <v>0.087143</v>
+        <v>0.0877703</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0910044</v>
+        <v>0.09206060000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.154369</v>
+        <v>0.1545</v>
       </c>
       <c r="D102" t="n">
-        <v>0.477018</v>
+        <v>0.476572</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0624398</v>
+        <v>0.0645896</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0922703</v>
+        <v>0.09274979999999999</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09749049999999999</v>
+        <v>0.09794559999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.165835</v>
+        <v>0.165962</v>
       </c>
       <c r="D103" t="n">
-        <v>0.493795</v>
+        <v>0.493762</v>
       </c>
       <c r="E103" t="n">
-        <v>0.066625</v>
+        <v>0.0679216</v>
       </c>
       <c r="F103" t="n">
-        <v>0.09749960000000001</v>
+        <v>0.0971573</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.106062</v>
+        <v>0.107101</v>
       </c>
       <c r="C104" t="n">
-        <v>0.179808</v>
+        <v>0.179665</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5118279999999999</v>
+        <v>0.511899</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07025869999999999</v>
+        <v>0.0723698</v>
       </c>
       <c r="F104" t="n">
-        <v>0.105676</v>
+        <v>0.106055</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.118141</v>
+        <v>0.118465</v>
       </c>
       <c r="C105" t="n">
-        <v>0.196604</v>
+        <v>0.196631</v>
       </c>
       <c r="D105" t="n">
-        <v>0.529224</v>
+        <v>0.529742</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0749152</v>
+        <v>0.0785887</v>
       </c>
       <c r="F105" t="n">
-        <v>0.116195</v>
+        <v>0.116918</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.133821</v>
+        <v>0.134314</v>
       </c>
       <c r="C106" t="n">
-        <v>0.217172</v>
+        <v>0.217079</v>
       </c>
       <c r="D106" t="n">
-        <v>0.548816</v>
+        <v>0.548849</v>
       </c>
       <c r="E106" t="n">
-        <v>0.083785</v>
+        <v>0.0861316</v>
       </c>
       <c r="F106" t="n">
-        <v>0.130092</v>
+        <v>0.130418</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.156917</v>
+        <v>0.156991</v>
       </c>
       <c r="C107" t="n">
-        <v>0.245764</v>
+        <v>0.245901</v>
       </c>
       <c r="D107" t="n">
-        <v>0.414495</v>
+        <v>0.415001</v>
       </c>
       <c r="E107" t="n">
-        <v>0.09731380000000001</v>
+        <v>0.09876269999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>0.149477</v>
+        <v>0.149218</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.188709</v>
+        <v>0.188702</v>
       </c>
       <c r="C108" t="n">
-        <v>0.286606</v>
+        <v>0.286425</v>
       </c>
       <c r="D108" t="n">
-        <v>0.425665</v>
+        <v>0.425973</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0563103</v>
+        <v>0.057052</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0795609</v>
+        <v>0.0804588</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.235798</v>
+        <v>0.235737</v>
       </c>
       <c r="C109" t="n">
-        <v>0.351535</v>
+        <v>0.350972</v>
       </c>
       <c r="D109" t="n">
-        <v>0.437425</v>
+        <v>0.436986</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0574656</v>
+        <v>0.0589658</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0829708</v>
+        <v>0.0839207</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0800343</v>
+        <v>0.0820439</v>
       </c>
       <c r="C110" t="n">
-        <v>0.142263</v>
+        <v>0.142171</v>
       </c>
       <c r="D110" t="n">
-        <v>0.44859</v>
+        <v>0.449259</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0574478</v>
+        <v>0.0591664</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0876767</v>
+        <v>0.0873922</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.083773</v>
+        <v>0.08459460000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.147624</v>
+        <v>0.147575</v>
       </c>
       <c r="D111" t="n">
-        <v>0.461078</v>
+        <v>0.461206</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0606904</v>
+        <v>0.0608453</v>
       </c>
       <c r="F111" t="n">
-        <v>0.09234829999999999</v>
+        <v>0.09246310000000001</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0864839</v>
+        <v>0.0871691</v>
       </c>
       <c r="C112" t="n">
-        <v>0.153493</v>
+        <v>0.153137</v>
       </c>
       <c r="D112" t="n">
-        <v>0.474372</v>
+        <v>0.473631</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0603656</v>
+        <v>0.0626345</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0968841</v>
+        <v>0.0965858</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.090811</v>
+        <v>0.092865</v>
       </c>
       <c r="C113" t="n">
-        <v>0.15907</v>
+        <v>0.15901</v>
       </c>
       <c r="D113" t="n">
-        <v>0.482017</v>
+        <v>0.481474</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0631266</v>
+        <v>0.0642008</v>
       </c>
       <c r="F113" t="n">
-        <v>0.101702</v>
+        <v>0.101792</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.096891</v>
+        <v>0.096923</v>
       </c>
       <c r="C114" t="n">
-        <v>0.165176</v>
+        <v>0.16506</v>
       </c>
       <c r="D114" t="n">
-        <v>0.497791</v>
+        <v>0.497068</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0663101</v>
+        <v>0.0668829</v>
       </c>
       <c r="F114" t="n">
-        <v>0.104827</v>
+        <v>0.105091</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.102258</v>
+        <v>0.102947</v>
       </c>
       <c r="C115" t="n">
-        <v>0.170848</v>
+        <v>0.170926</v>
       </c>
       <c r="D115" t="n">
-        <v>0.515556</v>
+        <v>0.513944</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0679102</v>
+        <v>0.0700553</v>
       </c>
       <c r="F115" t="n">
-        <v>0.112576</v>
+        <v>0.112804</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108869</v>
+        <v>0.108908</v>
       </c>
       <c r="C116" t="n">
-        <v>0.180011</v>
+        <v>0.179753</v>
       </c>
       <c r="D116" t="n">
-        <v>0.532438</v>
+        <v>0.527053</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0731111</v>
+        <v>0.0736802</v>
       </c>
       <c r="F116" t="n">
-        <v>0.118475</v>
+        <v>0.11823</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.116259</v>
+        <v>0.116345</v>
       </c>
       <c r="C117" t="n">
-        <v>0.189332</v>
+        <v>0.189142</v>
       </c>
       <c r="D117" t="n">
-        <v>0.54984</v>
+        <v>0.550288</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0777439</v>
+        <v>0.0778388</v>
       </c>
       <c r="F117" t="n">
-        <v>0.123862</v>
+        <v>0.123235</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123472</v>
+        <v>0.125034</v>
       </c>
       <c r="C118" t="n">
-        <v>0.20039</v>
+        <v>0.200416</v>
       </c>
       <c r="D118" t="n">
-        <v>0.567296</v>
+        <v>0.567187</v>
       </c>
       <c r="E118" t="n">
-        <v>0.08291129999999999</v>
+        <v>0.0832128</v>
       </c>
       <c r="F118" t="n">
-        <v>0.131339</v>
+        <v>0.131007</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.13582</v>
+        <v>0.135537</v>
       </c>
       <c r="C119" t="n">
-        <v>0.215034</v>
+        <v>0.215156</v>
       </c>
       <c r="D119" t="n">
-        <v>0.57942</v>
+        <v>0.585005</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0897329</v>
+        <v>0.0889056</v>
       </c>
       <c r="F119" t="n">
-        <v>0.139372</v>
+        <v>0.139436</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.149844</v>
+        <v>0.149829</v>
       </c>
       <c r="C120" t="n">
-        <v>0.234594</v>
+        <v>0.234454</v>
       </c>
       <c r="D120" t="n">
-        <v>0.604873</v>
+        <v>0.597881</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0980666</v>
+        <v>0.0980134</v>
       </c>
       <c r="F120" t="n">
-        <v>0.150828</v>
+        <v>0.14698</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.167731</v>
+        <v>0.169263</v>
       </c>
       <c r="C121" t="n">
-        <v>0.262661</v>
+        <v>0.262411</v>
       </c>
       <c r="D121" t="n">
-        <v>0.447241</v>
+        <v>0.442915</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1105</v>
+        <v>0.109515</v>
       </c>
       <c r="F121" t="n">
-        <v>0.16631</v>
+        <v>0.166272</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.197687</v>
+        <v>0.197248</v>
       </c>
       <c r="C122" t="n">
-        <v>0.30227</v>
+        <v>0.30247</v>
       </c>
       <c r="D122" t="n">
-        <v>0.457704</v>
+        <v>0.45378</v>
       </c>
       <c r="E122" t="n">
-        <v>0.129191</v>
+        <v>0.129163</v>
       </c>
       <c r="F122" t="n">
-        <v>0.191299</v>
+        <v>0.190884</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.239969</v>
+        <v>0.239029</v>
       </c>
       <c r="C123" t="n">
-        <v>0.365125</v>
+        <v>0.365635</v>
       </c>
       <c r="D123" t="n">
-        <v>0.465121</v>
+        <v>0.469136</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0727473</v>
+        <v>0.07592989999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>0.107684</v>
+        <v>0.111529</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103004</v>
+        <v>0.0991133</v>
       </c>
       <c r="C124" t="n">
-        <v>0.167366</v>
+        <v>0.162211</v>
       </c>
       <c r="D124" t="n">
-        <v>0.481049</v>
+        <v>0.480906</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0799291</v>
+        <v>0.0780643</v>
       </c>
       <c r="F124" t="n">
-        <v>0.116105</v>
+        <v>0.112585</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.10706</v>
+        <v>0.10857</v>
       </c>
       <c r="C125" t="n">
-        <v>0.172854</v>
+        <v>0.172932</v>
       </c>
       <c r="D125" t="n">
-        <v>0.493346</v>
+        <v>0.492729</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0810043</v>
+        <v>0.0792674</v>
       </c>
       <c r="F125" t="n">
-        <v>0.116842</v>
+        <v>0.117551</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.113055</v>
+        <v>0.110337</v>
       </c>
       <c r="C126" t="n">
-        <v>0.171286</v>
+        <v>0.177251</v>
       </c>
       <c r="D126" t="n">
-        <v>0.505557</v>
+        <v>0.505255</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0856947</v>
+        <v>0.08039590000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>0.127396</v>
+        <v>0.118877</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110476</v>
+        <v>0.113314</v>
       </c>
       <c r="C127" t="n">
-        <v>0.177591</v>
+        <v>0.171546</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5189550000000001</v>
+        <v>0.519424</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0839761</v>
+        <v>0.08401160000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>0.12409</v>
+        <v>0.124349</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115156</v>
+        <v>0.115221</v>
       </c>
       <c r="C128" t="n">
-        <v>0.184118</v>
+        <v>0.184104</v>
       </c>
       <c r="D128" t="n">
-        <v>0.533032</v>
+        <v>0.530798</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0873115</v>
+        <v>0.08765530000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>0.136392</v>
+        <v>0.120233</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.120283</v>
+        <v>0.119346</v>
       </c>
       <c r="C129" t="n">
-        <v>0.196205</v>
+        <v>0.18998</v>
       </c>
       <c r="D129" t="n">
-        <v>0.548214</v>
+        <v>0.549149</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0913173</v>
+        <v>0.0877144</v>
       </c>
       <c r="F129" t="n">
-        <v>0.13183</v>
+        <v>0.132836</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121092</v>
+        <v>0.123294</v>
       </c>
       <c r="C130" t="n">
-        <v>0.193148</v>
+        <v>0.199678</v>
       </c>
       <c r="D130" t="n">
-        <v>0.564866</v>
+        <v>0.5648260000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.09114360000000001</v>
+        <v>0.0881339</v>
       </c>
       <c r="F130" t="n">
-        <v>0.136144</v>
+        <v>0.140064</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127887</v>
+        <v>0.133924</v>
       </c>
       <c r="C131" t="n">
-        <v>0.21341</v>
+        <v>0.209071</v>
       </c>
       <c r="D131" t="n">
-        <v>0.578761</v>
+        <v>0.581688</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0965675</v>
+        <v>0.09508229999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>0.147035</v>
+        <v>0.146617</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.131981</v>
+        <v>0.135812</v>
       </c>
       <c r="C132" t="n">
-        <v>0.22041</v>
+        <v>0.21963</v>
       </c>
       <c r="D132" t="n">
-        <v>0.59946</v>
+        <v>0.598962</v>
       </c>
       <c r="E132" t="n">
-        <v>0.095037</v>
+        <v>0.0990159</v>
       </c>
       <c r="F132" t="n">
-        <v>0.14843</v>
+        <v>0.147473</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.144595</v>
+        <v>0.147914</v>
       </c>
       <c r="C133" t="n">
-        <v>0.227724</v>
+        <v>0.23352</v>
       </c>
       <c r="D133" t="n">
-        <v>0.614191</v>
+        <v>0.614909</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0966217</v>
+        <v>0.105607</v>
       </c>
       <c r="F133" t="n">
-        <v>0.155</v>
+        <v>0.160292</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.158813</v>
+        <v>0.158168</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243566</v>
+        <v>0.246295</v>
       </c>
       <c r="D134" t="n">
-        <v>0.635732</v>
+        <v>0.632154</v>
       </c>
       <c r="E134" t="n">
-        <v>0.112257</v>
+        <v>0.106292</v>
       </c>
       <c r="F134" t="n">
-        <v>0.168498</v>
+        <v>0.166283</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1774</v>
+        <v>0.174874</v>
       </c>
       <c r="C135" t="n">
-        <v>0.271435</v>
+        <v>0.27552</v>
       </c>
       <c r="D135" t="n">
-        <v>0.462856</v>
+        <v>0.464491</v>
       </c>
       <c r="E135" t="n">
-        <v>0.118673</v>
+        <v>0.119689</v>
       </c>
       <c r="F135" t="n">
-        <v>0.180398</v>
+        <v>0.181263</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.200979</v>
+        <v>0.202308</v>
       </c>
       <c r="C136" t="n">
-        <v>0.311987</v>
+        <v>0.313391</v>
       </c>
       <c r="D136" t="n">
-        <v>0.476079</v>
+        <v>0.475805</v>
       </c>
       <c r="E136" t="n">
-        <v>0.135705</v>
+        <v>0.13527</v>
       </c>
       <c r="F136" t="n">
-        <v>0.202783</v>
+        <v>0.203524</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.242015</v>
+        <v>0.241272</v>
       </c>
       <c r="C137" t="n">
-        <v>0.372848</v>
+        <v>0.37174</v>
       </c>
       <c r="D137" t="n">
-        <v>0.487087</v>
+        <v>0.485119</v>
       </c>
       <c r="E137" t="n">
-        <v>0.146795</v>
+        <v>0.153171</v>
       </c>
       <c r="F137" t="n">
-        <v>0.178067</v>
+        <v>0.187642</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174126</v>
+        <v>0.173316</v>
       </c>
       <c r="C138" t="n">
-        <v>0.233366</v>
+        <v>0.233735</v>
       </c>
       <c r="D138" t="n">
-        <v>0.498987</v>
+        <v>0.49893</v>
       </c>
       <c r="E138" t="n">
-        <v>0.14772</v>
+        <v>0.153242</v>
       </c>
       <c r="F138" t="n">
-        <v>0.190218</v>
+        <v>0.190522</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.172728</v>
+        <v>0.176008</v>
       </c>
       <c r="C139" t="n">
-        <v>0.238105</v>
+        <v>0.229181</v>
       </c>
       <c r="D139" t="n">
-        <v>0.511281</v>
+        <v>0.510977</v>
       </c>
       <c r="E139" t="n">
-        <v>0.158626</v>
+        <v>0.156263</v>
       </c>
       <c r="F139" t="n">
-        <v>0.192459</v>
+        <v>0.191758</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.175427</v>
+        <v>0.173317</v>
       </c>
       <c r="C140" t="n">
-        <v>0.241194</v>
+        <v>0.244392</v>
       </c>
       <c r="D140" t="n">
-        <v>0.522837</v>
+        <v>0.524343</v>
       </c>
       <c r="E140" t="n">
-        <v>0.154444</v>
+        <v>0.158938</v>
       </c>
       <c r="F140" t="n">
-        <v>0.191885</v>
+        <v>0.195774</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.179012</v>
+        <v>0.173883</v>
       </c>
       <c r="C141" t="n">
-        <v>0.239472</v>
+        <v>0.245354</v>
       </c>
       <c r="D141" t="n">
-        <v>0.537536</v>
+        <v>0.537157</v>
       </c>
       <c r="E141" t="n">
-        <v>0.15874